--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF07357-D314-4D30-95C1-FAED31AA749C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4426F3C-5A6B-419A-AE79-C31D2366E810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="132">
   <si>
     <t>Date</t>
   </si>
@@ -288,12 +288,177 @@
   <si>
     <t>COLP5110</t>
   </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>HANC5232</t>
+  </si>
+  <si>
+    <t>Garden Island</t>
+  </si>
+  <si>
+    <t>Grange</t>
+  </si>
+  <si>
+    <t>Hallet Cove</t>
+  </si>
+  <si>
+    <t>Middleton</t>
+  </si>
+  <si>
+    <t>Port Wakefield</t>
+  </si>
+  <si>
+    <t>Semaphore</t>
+  </si>
+  <si>
+    <t>Streaky Bay - 2km offshore</t>
+  </si>
+  <si>
+    <t>Thompson Beach</t>
+  </si>
+  <si>
+    <t>Westlakes martin court</t>
+  </si>
+  <si>
+    <t>Olivers Reef</t>
+  </si>
+  <si>
+    <t>Seal Island</t>
+  </si>
+  <si>
+    <t>Wright Island</t>
+  </si>
+  <si>
+    <t>West Island</t>
+  </si>
+  <si>
+    <t>Waitpinga Cliffs</t>
+  </si>
+  <si>
+    <t>Knights Beach</t>
+  </si>
+  <si>
+    <t>Waitpinga Beach</t>
+  </si>
+  <si>
+    <t>Middleton Beach</t>
+  </si>
+  <si>
+    <t>Bluff Jetty</t>
+  </si>
+  <si>
+    <t>Boomers Beach</t>
+  </si>
+  <si>
+    <t>Largs North Boat Ramp</t>
+  </si>
+  <si>
+    <t>Seacliff Reef Dive Surface</t>
+  </si>
+  <si>
+    <t>Seacliff Reef Dive 13.9m depth</t>
+  </si>
+  <si>
+    <t>Port Eliot/ Pullen Island</t>
+  </si>
+  <si>
+    <t>Pullen Island Land side</t>
+  </si>
+  <si>
+    <t>Pullen Island ocean side</t>
+  </si>
+  <si>
+    <t>Barker Knoll</t>
+  </si>
+  <si>
+    <t>Murray Mouth</t>
+  </si>
+  <si>
+    <t>Goolwa Barrage</t>
+  </si>
+  <si>
+    <t>Pipeline Outer Harbor</t>
+  </si>
+  <si>
+    <t>St Kilda Channel</t>
+  </si>
+  <si>
+    <t>Boat Ramp Outer Harbor</t>
+  </si>
+  <si>
+    <t>Beacon 26 Outer Harbor</t>
+  </si>
+  <si>
+    <t>Barkers Inlet</t>
+  </si>
+  <si>
+    <t>Mid Channel Outer Harbor</t>
+  </si>
+  <si>
+    <t>Channel Bank</t>
+  </si>
+  <si>
+    <t>RSAYS Marina</t>
+  </si>
+  <si>
+    <t>Outside Mangroves St K side</t>
+  </si>
+  <si>
+    <t>Breakwater side RSAYS</t>
+  </si>
+  <si>
+    <t>Port Hughes Dive surface</t>
+  </si>
+  <si>
+    <t>Port Hughes Dive 6.5m depth</t>
+  </si>
+  <si>
+    <t>Whyalla Surf Life Saving Club</t>
+  </si>
+  <si>
+    <t>Point Lowly Beach</t>
+  </si>
+  <si>
+    <t>Carrackalinga Haycock Pt</t>
+  </si>
+  <si>
+    <t>Normanville Beach</t>
+  </si>
+  <si>
+    <t>Encounter Lake Tabernacle End</t>
+  </si>
+  <si>
+    <t>Port Adelaide Sailing Club</t>
+  </si>
+  <si>
+    <t>Wright Island Yilki Reef</t>
+  </si>
+  <si>
+    <t>Wright Island Dry Reef</t>
+  </si>
+  <si>
+    <t>Weatherald Rd Footbridge</t>
+  </si>
+  <si>
+    <t>Saltfloot Car Bridge</t>
+  </si>
+  <si>
+    <t>Saltfloot Bridge adjacent foot</t>
+  </si>
+  <si>
+    <t>Port Noarlunga FC Britain Rd</t>
+  </si>
+  <si>
+    <t>SEAS5211</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +473,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -330,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -340,6 +511,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="D152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L186" sqref="L186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4482,6 +4654,3027 @@
         <v>76</v>
       </c>
     </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94">
+        <v>-35.01558</v>
+      </c>
+      <c r="C94">
+        <v>138.51375999999999</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45885</v>
+      </c>
+      <c r="H94">
+        <v>14</v>
+      </c>
+      <c r="I94">
+        <v>12</v>
+      </c>
+      <c r="K94">
+        <v>7</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>22</v>
+      </c>
+      <c r="P94" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>79</v>
+      </c>
+      <c r="B95">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C95">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45889</v>
+      </c>
+      <c r="H95">
+        <v>552</v>
+      </c>
+      <c r="I95">
+        <v>500</v>
+      </c>
+      <c r="K95">
+        <v>21</v>
+      </c>
+      <c r="N95">
+        <v>7</v>
+      </c>
+      <c r="O95">
+        <v>580</v>
+      </c>
+      <c r="P95" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C96">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D96" s="2">
+        <v>45892</v>
+      </c>
+      <c r="H96">
+        <v>636</v>
+      </c>
+      <c r="I96">
+        <v>609</v>
+      </c>
+      <c r="K96">
+        <v>6</v>
+      </c>
+      <c r="N96">
+        <v>13</v>
+      </c>
+      <c r="O96">
+        <v>655</v>
+      </c>
+      <c r="P96" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C97">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H97">
+        <v>156</v>
+      </c>
+      <c r="I97">
+        <v>140</v>
+      </c>
+      <c r="K97">
+        <v>8</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97">
+        <v>168</v>
+      </c>
+      <c r="P97" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C98">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45904</v>
+      </c>
+      <c r="H98">
+        <v>1278</v>
+      </c>
+      <c r="I98">
+        <v>965</v>
+      </c>
+      <c r="K98">
+        <v>20</v>
+      </c>
+      <c r="N98">
+        <v>23</v>
+      </c>
+      <c r="O98">
+        <v>1320</v>
+      </c>
+      <c r="P98" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C99">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45918</v>
+      </c>
+      <c r="H99">
+        <v>695</v>
+      </c>
+      <c r="I99">
+        <v>522</v>
+      </c>
+      <c r="K99">
+        <v>206</v>
+      </c>
+      <c r="N99">
+        <v>32</v>
+      </c>
+      <c r="O99">
+        <v>934</v>
+      </c>
+      <c r="P99" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C100">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45926</v>
+      </c>
+      <c r="H100">
+        <v>362</v>
+      </c>
+      <c r="I100">
+        <v>173</v>
+      </c>
+      <c r="K100">
+        <v>131</v>
+      </c>
+      <c r="N100">
+        <v>11</v>
+      </c>
+      <c r="O100">
+        <v>504</v>
+      </c>
+      <c r="P100" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>80</v>
+      </c>
+      <c r="B101">
+        <v>-34.90352</v>
+      </c>
+      <c r="C101">
+        <v>138.48815999999999</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45885</v>
+      </c>
+      <c r="H101">
+        <v>22</v>
+      </c>
+      <c r="I101">
+        <v>14</v>
+      </c>
+      <c r="K101">
+        <v>4</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101">
+        <v>28</v>
+      </c>
+      <c r="P101" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>81</v>
+      </c>
+      <c r="B102">
+        <v>-35.078539999999997</v>
+      </c>
+      <c r="C102">
+        <v>138.49587</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45885</v>
+      </c>
+      <c r="H102">
+        <v>34</v>
+      </c>
+      <c r="I102">
+        <v>31</v>
+      </c>
+      <c r="K102">
+        <v>6</v>
+      </c>
+      <c r="N102">
+        <v>6</v>
+      </c>
+      <c r="O102">
+        <v>46</v>
+      </c>
+      <c r="P102" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103">
+        <v>-35.078539999999997</v>
+      </c>
+      <c r="C103">
+        <v>138.49587</v>
+      </c>
+      <c r="D103" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H103">
+        <v>1518</v>
+      </c>
+      <c r="I103">
+        <v>1494</v>
+      </c>
+      <c r="K103">
+        <v>60</v>
+      </c>
+      <c r="N103">
+        <v>6</v>
+      </c>
+      <c r="O103">
+        <v>1584</v>
+      </c>
+      <c r="P103" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104">
+        <v>-35.078539999999997</v>
+      </c>
+      <c r="C104">
+        <v>138.49587</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45914</v>
+      </c>
+      <c r="H104">
+        <v>534</v>
+      </c>
+      <c r="I104">
+        <v>492</v>
+      </c>
+      <c r="K104">
+        <v>70</v>
+      </c>
+      <c r="N104">
+        <v>34</v>
+      </c>
+      <c r="O104">
+        <v>638</v>
+      </c>
+      <c r="P104" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105">
+        <v>-35.078539999999997</v>
+      </c>
+      <c r="C105">
+        <v>138.49587</v>
+      </c>
+      <c r="D105" s="2">
+        <v>45920</v>
+      </c>
+      <c r="H105">
+        <v>526</v>
+      </c>
+      <c r="I105">
+        <v>492</v>
+      </c>
+      <c r="K105">
+        <v>24</v>
+      </c>
+      <c r="N105">
+        <v>24</v>
+      </c>
+      <c r="O105">
+        <v>574</v>
+      </c>
+      <c r="P105" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106">
+        <v>-35.078539999999997</v>
+      </c>
+      <c r="C106">
+        <v>138.49587</v>
+      </c>
+      <c r="D106" s="2">
+        <v>45926</v>
+      </c>
+      <c r="H106">
+        <v>201</v>
+      </c>
+      <c r="I106">
+        <v>182</v>
+      </c>
+      <c r="K106">
+        <v>8</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>211</v>
+      </c>
+      <c r="P106" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>82</v>
+      </c>
+      <c r="B107">
+        <v>-35.507370000000002</v>
+      </c>
+      <c r="C107">
+        <v>138.70943</v>
+      </c>
+      <c r="D107" s="2">
+        <v>45886</v>
+      </c>
+      <c r="H107">
+        <v>6</v>
+      </c>
+      <c r="I107">
+        <v>3</v>
+      </c>
+      <c r="K107">
+        <v>15</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>22</v>
+      </c>
+      <c r="P107" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108">
+        <v>-34.190849999999998</v>
+      </c>
+      <c r="C108">
+        <v>138.14476999999999</v>
+      </c>
+      <c r="D108" s="2">
+        <v>45908</v>
+      </c>
+      <c r="H108">
+        <v>169</v>
+      </c>
+      <c r="I108">
+        <v>105</v>
+      </c>
+      <c r="K108">
+        <v>3</v>
+      </c>
+      <c r="N108">
+        <v>14</v>
+      </c>
+      <c r="O108">
+        <v>186</v>
+      </c>
+      <c r="P108" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109">
+        <v>-34.190849999999998</v>
+      </c>
+      <c r="C109">
+        <v>138.14476999999999</v>
+      </c>
+      <c r="D109" s="2">
+        <v>45908</v>
+      </c>
+      <c r="H109">
+        <v>24</v>
+      </c>
+      <c r="I109">
+        <v>6</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>8</v>
+      </c>
+      <c r="O109">
+        <v>32</v>
+      </c>
+      <c r="P109" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>84</v>
+      </c>
+      <c r="B110">
+        <v>-34.837600000000002</v>
+      </c>
+      <c r="C110">
+        <v>138.47788</v>
+      </c>
+      <c r="D110" s="2">
+        <v>45892</v>
+      </c>
+      <c r="H110">
+        <v>22</v>
+      </c>
+      <c r="I110">
+        <v>19</v>
+      </c>
+      <c r="K110">
+        <v>8</v>
+      </c>
+      <c r="N110">
+        <v>4</v>
+      </c>
+      <c r="O110">
+        <v>35</v>
+      </c>
+      <c r="P110" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111">
+        <v>-34.837600000000002</v>
+      </c>
+      <c r="C111">
+        <v>138.47788</v>
+      </c>
+      <c r="D111" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H111">
+        <v>239</v>
+      </c>
+      <c r="I111">
+        <v>226</v>
+      </c>
+      <c r="K111">
+        <v>23</v>
+      </c>
+      <c r="N111">
+        <v>7</v>
+      </c>
+      <c r="O111">
+        <v>269</v>
+      </c>
+      <c r="P111" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>84</v>
+      </c>
+      <c r="B112">
+        <v>-34.837600000000002</v>
+      </c>
+      <c r="C112">
+        <v>138.47788</v>
+      </c>
+      <c r="D112" s="2">
+        <v>45904</v>
+      </c>
+      <c r="H112">
+        <v>163</v>
+      </c>
+      <c r="I112">
+        <v>153</v>
+      </c>
+      <c r="K112">
+        <v>8</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>172</v>
+      </c>
+      <c r="P112" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113">
+        <v>-34.837600000000002</v>
+      </c>
+      <c r="C113">
+        <v>138.47788</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45918</v>
+      </c>
+      <c r="H113">
+        <v>141</v>
+      </c>
+      <c r="I113">
+        <v>117</v>
+      </c>
+      <c r="K113">
+        <v>21</v>
+      </c>
+      <c r="N113">
+        <v>31</v>
+      </c>
+      <c r="O113">
+        <v>193</v>
+      </c>
+      <c r="P113" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>85</v>
+      </c>
+      <c r="B114">
+        <v>-32.771623179292703</v>
+      </c>
+      <c r="C114">
+        <v>134.21122774492099</v>
+      </c>
+      <c r="D114" s="2">
+        <v>45920</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>5</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114">
+        <v>7</v>
+      </c>
+      <c r="P114" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>86</v>
+      </c>
+      <c r="B115">
+        <v>-34.486179999999997</v>
+      </c>
+      <c r="C115">
+        <v>138.28238999999999</v>
+      </c>
+      <c r="D115" s="2">
+        <v>45908</v>
+      </c>
+      <c r="H115">
+        <v>129</v>
+      </c>
+      <c r="I115">
+        <v>116</v>
+      </c>
+      <c r="K115">
+        <v>50</v>
+      </c>
+      <c r="N115">
+        <v>19</v>
+      </c>
+      <c r="O115">
+        <v>199</v>
+      </c>
+      <c r="P115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>86</v>
+      </c>
+      <c r="B116">
+        <v>-34.486179999999997</v>
+      </c>
+      <c r="C116">
+        <v>138.28238999999999</v>
+      </c>
+      <c r="D116" s="2">
+        <v>45908</v>
+      </c>
+      <c r="H116">
+        <v>190</v>
+      </c>
+      <c r="I116">
+        <v>120</v>
+      </c>
+      <c r="K116">
+        <v>156</v>
+      </c>
+      <c r="N116">
+        <v>48</v>
+      </c>
+      <c r="O116">
+        <v>394</v>
+      </c>
+      <c r="P116" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>87</v>
+      </c>
+      <c r="B117">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C117">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D117" s="2">
+        <v>45892</v>
+      </c>
+      <c r="H117">
+        <v>633</v>
+      </c>
+      <c r="I117">
+        <v>610</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>18</v>
+      </c>
+      <c r="O117">
+        <v>653</v>
+      </c>
+      <c r="P117" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>87</v>
+      </c>
+      <c r="B118">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C118">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H118">
+        <v>578</v>
+      </c>
+      <c r="I118">
+        <v>549</v>
+      </c>
+      <c r="K118">
+        <v>9</v>
+      </c>
+      <c r="N118">
+        <v>13</v>
+      </c>
+      <c r="O118">
+        <v>599</v>
+      </c>
+      <c r="P118" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>87</v>
+      </c>
+      <c r="B119">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C119">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D119" s="2">
+        <v>45904</v>
+      </c>
+      <c r="H119">
+        <v>117</v>
+      </c>
+      <c r="I119">
+        <v>108</v>
+      </c>
+      <c r="K119">
+        <v>7</v>
+      </c>
+      <c r="N119">
+        <v>7</v>
+      </c>
+      <c r="O119">
+        <v>130</v>
+      </c>
+      <c r="P119" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>87</v>
+      </c>
+      <c r="B120">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C120">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D120" s="2">
+        <v>45918</v>
+      </c>
+      <c r="H120">
+        <v>573</v>
+      </c>
+      <c r="I120">
+        <v>554</v>
+      </c>
+      <c r="K120">
+        <v>4</v>
+      </c>
+      <c r="N120">
+        <v>22</v>
+      </c>
+      <c r="O120">
+        <v>599</v>
+      </c>
+      <c r="P120" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>87</v>
+      </c>
+      <c r="B121">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C121">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D121" s="2">
+        <v>45926</v>
+      </c>
+      <c r="H121">
+        <v>411</v>
+      </c>
+      <c r="I121">
+        <v>354</v>
+      </c>
+      <c r="K121">
+        <v>4</v>
+      </c>
+      <c r="N121">
+        <v>9</v>
+      </c>
+      <c r="O121">
+        <v>424</v>
+      </c>
+      <c r="P121" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122">
+        <v>-34.289369999999998</v>
+      </c>
+      <c r="C122">
+        <v>138.01242999999999</v>
+      </c>
+      <c r="D122" s="2">
+        <v>45942</v>
+      </c>
+      <c r="F122">
+        <v>278</v>
+      </c>
+      <c r="G122">
+        <v>56</v>
+      </c>
+      <c r="H122">
+        <v>778</v>
+      </c>
+      <c r="I122">
+        <v>556</v>
+      </c>
+      <c r="J122">
+        <v>333</v>
+      </c>
+      <c r="K122">
+        <v>1278</v>
+      </c>
+      <c r="L122">
+        <v>111</v>
+      </c>
+      <c r="M122">
+        <v>6</v>
+      </c>
+      <c r="O122">
+        <v>3444</v>
+      </c>
+      <c r="P122" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>88</v>
+      </c>
+      <c r="B123">
+        <v>-35.540277000000003</v>
+      </c>
+      <c r="C123">
+        <v>138.66416599999999</v>
+      </c>
+      <c r="D123" s="2">
+        <v>45823</v>
+      </c>
+      <c r="H123">
+        <v>278</v>
+      </c>
+      <c r="I123">
+        <v>111</v>
+      </c>
+      <c r="O123">
+        <v>278</v>
+      </c>
+      <c r="P123" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>89</v>
+      </c>
+      <c r="B124">
+        <v>-35.573300000000003</v>
+      </c>
+      <c r="C124">
+        <v>138.64250000000001</v>
+      </c>
+      <c r="D124" s="2">
+        <v>45823</v>
+      </c>
+      <c r="H124">
+        <v>222</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>222</v>
+      </c>
+      <c r="P124" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>90</v>
+      </c>
+      <c r="B125">
+        <v>-35.574167000000003</v>
+      </c>
+      <c r="C125">
+        <v>138.61528000000001</v>
+      </c>
+      <c r="D125" s="2">
+        <v>45823</v>
+      </c>
+      <c r="H125">
+        <v>944</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>944</v>
+      </c>
+      <c r="P125" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>91</v>
+      </c>
+      <c r="B126">
+        <v>-35.603613000000003</v>
+      </c>
+      <c r="C126">
+        <v>138.61528000000001</v>
+      </c>
+      <c r="D126" s="2">
+        <v>45823</v>
+      </c>
+      <c r="H126">
+        <v>167</v>
+      </c>
+      <c r="I126">
+        <v>56</v>
+      </c>
+      <c r="O126">
+        <v>167</v>
+      </c>
+      <c r="P126" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>92</v>
+      </c>
+      <c r="B127">
+        <v>-35.615555999999998</v>
+      </c>
+      <c r="C127">
+        <v>138.56833</v>
+      </c>
+      <c r="D127" s="2">
+        <v>45823</v>
+      </c>
+      <c r="H127">
+        <v>56</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>56</v>
+      </c>
+      <c r="P127" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>93</v>
+      </c>
+      <c r="B128">
+        <v>-35.536441500000002</v>
+      </c>
+      <c r="C128">
+        <v>138.6782326</v>
+      </c>
+      <c r="D128" s="2">
+        <v>45820</v>
+      </c>
+      <c r="H128">
+        <v>777</v>
+      </c>
+      <c r="I128">
+        <v>333</v>
+      </c>
+      <c r="O128">
+        <v>777</v>
+      </c>
+      <c r="P128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>94</v>
+      </c>
+      <c r="B129">
+        <v>-35.6360308</v>
+      </c>
+      <c r="C129">
+        <v>138.5048433</v>
+      </c>
+      <c r="D129" s="2">
+        <v>45819</v>
+      </c>
+      <c r="H129">
+        <v>610</v>
+      </c>
+      <c r="I129">
+        <v>333</v>
+      </c>
+      <c r="O129">
+        <v>610</v>
+      </c>
+      <c r="P129" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>93</v>
+      </c>
+      <c r="B130">
+        <v>-35.536441500000002</v>
+      </c>
+      <c r="C130">
+        <v>138.6782326</v>
+      </c>
+      <c r="D130" s="2">
+        <v>45826</v>
+      </c>
+      <c r="H130">
+        <v>2111</v>
+      </c>
+      <c r="I130">
+        <v>333</v>
+      </c>
+      <c r="O130">
+        <v>2111</v>
+      </c>
+      <c r="P130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>95</v>
+      </c>
+      <c r="B131">
+        <v>-35.513599999999997</v>
+      </c>
+      <c r="C131">
+        <v>138.72001900000001</v>
+      </c>
+      <c r="D131" s="2">
+        <v>45826</v>
+      </c>
+      <c r="H131">
+        <v>1056</v>
+      </c>
+      <c r="I131">
+        <v>333</v>
+      </c>
+      <c r="O131">
+        <v>1056</v>
+      </c>
+      <c r="P131" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>95</v>
+      </c>
+      <c r="B132">
+        <v>-35.513599999999997</v>
+      </c>
+      <c r="C132">
+        <v>138.72001900000001</v>
+      </c>
+      <c r="D132" s="2">
+        <v>45839</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>199444</v>
+      </c>
+      <c r="O132">
+        <v>199444</v>
+      </c>
+      <c r="P132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>96</v>
+      </c>
+      <c r="B133">
+        <v>-35.58858</v>
+      </c>
+      <c r="C133">
+        <v>138.60474600000001</v>
+      </c>
+      <c r="D133" s="2">
+        <v>45850</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>5</v>
+      </c>
+      <c r="O133">
+        <v>5</v>
+      </c>
+      <c r="P133" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>97</v>
+      </c>
+      <c r="B134">
+        <v>-35.542932</v>
+      </c>
+      <c r="C134">
+        <v>138.60474600000001</v>
+      </c>
+      <c r="D134" s="2">
+        <v>45854</v>
+      </c>
+      <c r="G134">
+        <v>83</v>
+      </c>
+      <c r="H134">
+        <v>250</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>28</v>
+      </c>
+      <c r="O134">
+        <v>361</v>
+      </c>
+      <c r="P134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>98</v>
+      </c>
+      <c r="B135">
+        <v>-34.813881000000002</v>
+      </c>
+      <c r="C135">
+        <v>138.511787</v>
+      </c>
+      <c r="D135" s="2">
+        <v>45854</v>
+      </c>
+      <c r="H135">
+        <v>1667</v>
+      </c>
+      <c r="I135">
+        <v>722</v>
+      </c>
+      <c r="J135">
+        <v>1000</v>
+      </c>
+      <c r="O135">
+        <v>2667</v>
+      </c>
+      <c r="P135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>99</v>
+      </c>
+      <c r="B136">
+        <v>-35.037733000000003</v>
+      </c>
+      <c r="C136">
+        <v>138.490666</v>
+      </c>
+      <c r="D136" s="2">
+        <v>45858</v>
+      </c>
+      <c r="H136">
+        <v>222</v>
+      </c>
+      <c r="I136">
+        <v>56</v>
+      </c>
+      <c r="K136">
+        <v>56</v>
+      </c>
+      <c r="N136">
+        <v>1111</v>
+      </c>
+      <c r="O136">
+        <v>1389</v>
+      </c>
+      <c r="P136" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>100</v>
+      </c>
+      <c r="B137">
+        <v>-35.030088999999997</v>
+      </c>
+      <c r="C137">
+        <v>138.49193500000001</v>
+      </c>
+      <c r="D137" s="2">
+        <v>45858</v>
+      </c>
+      <c r="F137">
+        <v>56</v>
+      </c>
+      <c r="H137">
+        <v>56</v>
+      </c>
+      <c r="I137">
+        <v>56</v>
+      </c>
+      <c r="K137">
+        <v>56</v>
+      </c>
+      <c r="N137">
+        <v>1111</v>
+      </c>
+      <c r="O137">
+        <v>1279</v>
+      </c>
+      <c r="P137" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>101</v>
+      </c>
+      <c r="B138">
+        <v>-35.551524800000003</v>
+      </c>
+      <c r="C138">
+        <v>138.6856698</v>
+      </c>
+      <c r="D138" s="2">
+        <v>45858</v>
+      </c>
+      <c r="H138">
+        <v>444</v>
+      </c>
+      <c r="I138">
+        <v>333</v>
+      </c>
+      <c r="N138">
+        <v>556</v>
+      </c>
+      <c r="O138">
+        <v>1000</v>
+      </c>
+      <c r="P138" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>89</v>
+      </c>
+      <c r="B139">
+        <v>-35.573300000000003</v>
+      </c>
+      <c r="C139">
+        <v>138.64250000000001</v>
+      </c>
+      <c r="D139" s="2">
+        <v>45858</v>
+      </c>
+      <c r="H139">
+        <v>111</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>111</v>
+      </c>
+      <c r="P139" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>102</v>
+      </c>
+      <c r="B140">
+        <v>-35.536745000000003</v>
+      </c>
+      <c r="C140">
+        <v>138.6913744</v>
+      </c>
+      <c r="D140" s="2">
+        <v>45858</v>
+      </c>
+      <c r="H140">
+        <v>667</v>
+      </c>
+      <c r="I140">
+        <v>333</v>
+      </c>
+      <c r="N140">
+        <v>1000</v>
+      </c>
+      <c r="O140">
+        <v>1667</v>
+      </c>
+      <c r="P140" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>90</v>
+      </c>
+      <c r="B141">
+        <v>-35.574167000000003</v>
+      </c>
+      <c r="C141">
+        <v>138.61528000000001</v>
+      </c>
+      <c r="D141" s="2">
+        <v>45858</v>
+      </c>
+      <c r="F141">
+        <v>56</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>333</v>
+      </c>
+      <c r="O141">
+        <v>389</v>
+      </c>
+      <c r="P141" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>88</v>
+      </c>
+      <c r="B142">
+        <v>-35.540277000000003</v>
+      </c>
+      <c r="C142">
+        <v>138.66416599999999</v>
+      </c>
+      <c r="D142" s="2">
+        <v>45858</v>
+      </c>
+      <c r="H142">
+        <v>111</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>500</v>
+      </c>
+      <c r="O142">
+        <v>667</v>
+      </c>
+      <c r="P142" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>103</v>
+      </c>
+      <c r="B143">
+        <v>-35.540188999999998</v>
+      </c>
+      <c r="C143">
+        <v>138.689618</v>
+      </c>
+      <c r="D143" s="2">
+        <v>45858</v>
+      </c>
+      <c r="H143">
+        <v>56</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>722</v>
+      </c>
+      <c r="O143">
+        <v>778</v>
+      </c>
+      <c r="P143" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>92</v>
+      </c>
+      <c r="B144">
+        <v>-35.620086000000001</v>
+      </c>
+      <c r="C144">
+        <v>138.56635800000001</v>
+      </c>
+      <c r="D144" s="2">
+        <v>45858</v>
+      </c>
+      <c r="H144">
+        <v>111</v>
+      </c>
+      <c r="I144">
+        <v>56</v>
+      </c>
+      <c r="N144">
+        <v>667</v>
+      </c>
+      <c r="O144">
+        <v>778</v>
+      </c>
+      <c r="P144" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>104</v>
+      </c>
+      <c r="B145">
+        <v>-35.560513800000003</v>
+      </c>
+      <c r="C145">
+        <v>138.89389159999999</v>
+      </c>
+      <c r="D145" s="2">
+        <v>45860</v>
+      </c>
+      <c r="E145">
+        <v>167</v>
+      </c>
+      <c r="G145">
+        <v>111</v>
+      </c>
+      <c r="H145">
+        <v>167</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>278</v>
+      </c>
+      <c r="L145">
+        <v>167</v>
+      </c>
+      <c r="N145">
+        <v>2221</v>
+      </c>
+      <c r="O145">
+        <v>3111</v>
+      </c>
+      <c r="P145" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>105</v>
+      </c>
+      <c r="B146">
+        <v>-35.557317400000002</v>
+      </c>
+      <c r="C146">
+        <v>138.88557399999999</v>
+      </c>
+      <c r="D146" s="2">
+        <v>45860</v>
+      </c>
+      <c r="E146">
+        <v>56</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>56</v>
+      </c>
+      <c r="K146">
+        <v>56</v>
+      </c>
+      <c r="L146">
+        <v>56</v>
+      </c>
+      <c r="N146">
+        <v>1776</v>
+      </c>
+      <c r="O146">
+        <v>2000</v>
+      </c>
+      <c r="P146" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>106</v>
+      </c>
+      <c r="B147">
+        <v>-35.5272237</v>
+      </c>
+      <c r="C147">
+        <v>138.80833699999999</v>
+      </c>
+      <c r="D147" s="2">
+        <v>45860</v>
+      </c>
+      <c r="E147">
+        <v>56</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>1000</v>
+      </c>
+      <c r="O147">
+        <v>1056</v>
+      </c>
+      <c r="P147" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>107</v>
+      </c>
+      <c r="B148">
+        <v>-34.775959999999998</v>
+      </c>
+      <c r="C148">
+        <v>138.51910670000001</v>
+      </c>
+      <c r="D148" s="2">
+        <v>45865</v>
+      </c>
+      <c r="H148">
+        <v>2250</v>
+      </c>
+      <c r="I148">
+        <v>667</v>
+      </c>
+      <c r="K148">
+        <v>1083</v>
+      </c>
+      <c r="N148">
+        <v>1361</v>
+      </c>
+      <c r="O148">
+        <v>4694</v>
+      </c>
+      <c r="P148" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>108</v>
+      </c>
+      <c r="B149">
+        <v>-34.755644699999998</v>
+      </c>
+      <c r="C149">
+        <v>138.5168956</v>
+      </c>
+      <c r="D149" s="2">
+        <v>45865</v>
+      </c>
+      <c r="H149">
+        <v>1278</v>
+      </c>
+      <c r="I149">
+        <v>667</v>
+      </c>
+      <c r="K149">
+        <v>1722</v>
+      </c>
+      <c r="N149">
+        <v>944</v>
+      </c>
+      <c r="O149">
+        <v>3944</v>
+      </c>
+      <c r="P149" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>109</v>
+      </c>
+      <c r="B150">
+        <v>-34.774178999999997</v>
+      </c>
+      <c r="C150">
+        <v>138.4862411</v>
+      </c>
+      <c r="D150" s="2">
+        <v>45865</v>
+      </c>
+      <c r="H150">
+        <v>390</v>
+      </c>
+      <c r="I150">
+        <v>167</v>
+      </c>
+      <c r="K150">
+        <v>1889</v>
+      </c>
+      <c r="N150">
+        <v>1556</v>
+      </c>
+      <c r="O150">
+        <v>3835</v>
+      </c>
+      <c r="P150" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>110</v>
+      </c>
+      <c r="B151">
+        <v>-34.761991500000001</v>
+      </c>
+      <c r="C151">
+        <v>138.5044207</v>
+      </c>
+      <c r="D151" s="2">
+        <v>45865</v>
+      </c>
+      <c r="H151">
+        <v>1001</v>
+      </c>
+      <c r="I151">
+        <v>556</v>
+      </c>
+      <c r="K151">
+        <v>1000</v>
+      </c>
+      <c r="N151">
+        <v>1222</v>
+      </c>
+      <c r="O151">
+        <v>3223</v>
+      </c>
+      <c r="P151" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>107</v>
+      </c>
+      <c r="B152">
+        <v>-34.775959999999998</v>
+      </c>
+      <c r="C152">
+        <v>138.51910670000001</v>
+      </c>
+      <c r="D152" s="2">
+        <v>45867</v>
+      </c>
+      <c r="H152">
+        <v>1333</v>
+      </c>
+      <c r="I152">
+        <v>500</v>
+      </c>
+      <c r="K152">
+        <v>1889</v>
+      </c>
+      <c r="N152">
+        <v>667</v>
+      </c>
+      <c r="O152">
+        <v>3889</v>
+      </c>
+      <c r="P152" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>111</v>
+      </c>
+      <c r="B153">
+        <v>-34.753135</v>
+      </c>
+      <c r="C153">
+        <v>138.52022500000001</v>
+      </c>
+      <c r="D153" s="2">
+        <v>45867</v>
+      </c>
+      <c r="H153">
+        <v>2445</v>
+      </c>
+      <c r="I153">
+        <v>1111</v>
+      </c>
+      <c r="K153">
+        <v>1278</v>
+      </c>
+      <c r="N153">
+        <v>833</v>
+      </c>
+      <c r="O153">
+        <v>4556</v>
+      </c>
+      <c r="P153" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>112</v>
+      </c>
+      <c r="B154">
+        <v>-34.745396</v>
+      </c>
+      <c r="C154">
+        <v>138.48245299999999</v>
+      </c>
+      <c r="D154" s="2">
+        <v>45867</v>
+      </c>
+      <c r="H154">
+        <v>2111</v>
+      </c>
+      <c r="I154">
+        <v>1000</v>
+      </c>
+      <c r="K154">
+        <v>1778</v>
+      </c>
+      <c r="N154">
+        <v>1056</v>
+      </c>
+      <c r="O154">
+        <v>4945</v>
+      </c>
+      <c r="P154" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>113</v>
+      </c>
+      <c r="B155">
+        <v>-34.763468000000003</v>
+      </c>
+      <c r="C155">
+        <v>138.499312</v>
+      </c>
+      <c r="D155" s="2">
+        <v>45868</v>
+      </c>
+      <c r="H155">
+        <v>3723</v>
+      </c>
+      <c r="I155">
+        <v>1944</v>
+      </c>
+      <c r="K155">
+        <v>6055</v>
+      </c>
+      <c r="N155">
+        <v>1278</v>
+      </c>
+      <c r="O155">
+        <v>11056</v>
+      </c>
+      <c r="P155" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>114</v>
+      </c>
+      <c r="B156">
+        <v>-34.775306999999998</v>
+      </c>
+      <c r="C156">
+        <v>138.49066300000001</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45868</v>
+      </c>
+      <c r="H156">
+        <v>22111</v>
+      </c>
+      <c r="I156">
+        <v>10944</v>
+      </c>
+      <c r="K156">
+        <v>5556</v>
+      </c>
+      <c r="N156">
+        <v>3389</v>
+      </c>
+      <c r="O156">
+        <v>31056</v>
+      </c>
+      <c r="P156" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>115</v>
+      </c>
+      <c r="B157">
+        <v>-34.740545900000001</v>
+      </c>
+      <c r="C157">
+        <v>138.5199417</v>
+      </c>
+      <c r="D157" s="2">
+        <v>45869</v>
+      </c>
+      <c r="H157">
+        <v>5000</v>
+      </c>
+      <c r="I157">
+        <v>2222</v>
+      </c>
+      <c r="K157">
+        <v>10400</v>
+      </c>
+      <c r="N157">
+        <v>8778</v>
+      </c>
+      <c r="O157">
+        <v>24178</v>
+      </c>
+      <c r="P157" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>107</v>
+      </c>
+      <c r="B158">
+        <v>-34.775959999999998</v>
+      </c>
+      <c r="C158">
+        <v>138.51910670000001</v>
+      </c>
+      <c r="D158" s="2">
+        <v>45869</v>
+      </c>
+      <c r="H158">
+        <v>890</v>
+      </c>
+      <c r="I158">
+        <v>222</v>
+      </c>
+      <c r="K158">
+        <v>3611</v>
+      </c>
+      <c r="N158">
+        <v>444</v>
+      </c>
+      <c r="O158">
+        <v>4945</v>
+      </c>
+      <c r="P158" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>116</v>
+      </c>
+      <c r="B159">
+        <v>-34.767232</v>
+      </c>
+      <c r="C159">
+        <v>138.47986599999999</v>
+      </c>
+      <c r="D159" s="2">
+        <v>45869</v>
+      </c>
+      <c r="H159">
+        <v>2000</v>
+      </c>
+      <c r="I159">
+        <v>944</v>
+      </c>
+      <c r="K159">
+        <v>5556</v>
+      </c>
+      <c r="N159">
+        <v>1056</v>
+      </c>
+      <c r="O159">
+        <v>8612</v>
+      </c>
+      <c r="P159" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>117</v>
+      </c>
+      <c r="B160">
+        <v>-34.075238300000002</v>
+      </c>
+      <c r="C160">
+        <v>137.5442348</v>
+      </c>
+      <c r="D160" s="2">
+        <v>45871</v>
+      </c>
+      <c r="H160">
+        <v>389</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>2056</v>
+      </c>
+      <c r="O160">
+        <v>2445</v>
+      </c>
+      <c r="P160" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>118</v>
+      </c>
+      <c r="B161">
+        <v>-34.075238300000002</v>
+      </c>
+      <c r="C161">
+        <v>137.5442348</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45871</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>56</v>
+      </c>
+      <c r="N161">
+        <v>445</v>
+      </c>
+      <c r="O161">
+        <v>501</v>
+      </c>
+      <c r="P161" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>88</v>
+      </c>
+      <c r="B162">
+        <v>-35.540277000000003</v>
+      </c>
+      <c r="C162">
+        <v>138.66416599999999</v>
+      </c>
+      <c r="D162" s="2">
+        <v>45882</v>
+      </c>
+      <c r="H162">
+        <v>56</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>56</v>
+      </c>
+      <c r="N162">
+        <v>444</v>
+      </c>
+      <c r="O162">
+        <v>556</v>
+      </c>
+      <c r="P162" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>103</v>
+      </c>
+      <c r="B163">
+        <v>-35.540188999999998</v>
+      </c>
+      <c r="C163">
+        <v>138.689618</v>
+      </c>
+      <c r="D163" s="2">
+        <v>45882</v>
+      </c>
+      <c r="H163">
+        <v>56</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>945</v>
+      </c>
+      <c r="O163">
+        <v>1001</v>
+      </c>
+      <c r="P163" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>89</v>
+      </c>
+      <c r="B164">
+        <v>-35.573300000000003</v>
+      </c>
+      <c r="C164">
+        <v>138.64250000000001</v>
+      </c>
+      <c r="D164" s="2">
+        <v>45882</v>
+      </c>
+      <c r="H164">
+        <v>1111</v>
+      </c>
+      <c r="I164">
+        <v>389</v>
+      </c>
+      <c r="K164">
+        <v>56</v>
+      </c>
+      <c r="N164">
+        <v>1333</v>
+      </c>
+      <c r="O164">
+        <v>2500</v>
+      </c>
+      <c r="P164" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>90</v>
+      </c>
+      <c r="B165">
+        <v>-35.574167000000003</v>
+      </c>
+      <c r="C165">
+        <v>138.61528000000001</v>
+      </c>
+      <c r="D165" s="2">
+        <v>45882</v>
+      </c>
+      <c r="H165">
+        <v>167</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>167</v>
+      </c>
+      <c r="P165" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>91</v>
+      </c>
+      <c r="B166">
+        <v>-35.603613000000003</v>
+      </c>
+      <c r="C166">
+        <v>138.61528000000001</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45882</v>
+      </c>
+      <c r="H166">
+        <v>56</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>389</v>
+      </c>
+      <c r="O166">
+        <v>445</v>
+      </c>
+      <c r="P166" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>92</v>
+      </c>
+      <c r="B167">
+        <v>-35.615555999999998</v>
+      </c>
+      <c r="C167">
+        <v>138.56833</v>
+      </c>
+      <c r="D167" s="2">
+        <v>45882</v>
+      </c>
+      <c r="H167">
+        <v>56</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>56</v>
+      </c>
+      <c r="P167" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>94</v>
+      </c>
+      <c r="B168">
+        <v>-35.6360308</v>
+      </c>
+      <c r="C168">
+        <v>138.5048433</v>
+      </c>
+      <c r="D168" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H168">
+        <v>722</v>
+      </c>
+      <c r="I168">
+        <v>278</v>
+      </c>
+      <c r="N168">
+        <v>56</v>
+      </c>
+      <c r="O168">
+        <v>778</v>
+      </c>
+      <c r="P168" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>119</v>
+      </c>
+      <c r="B169">
+        <v>-33.040787000000002</v>
+      </c>
+      <c r="C169">
+        <v>137.587109</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45885</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>333</v>
+      </c>
+      <c r="N169">
+        <v>556</v>
+      </c>
+      <c r="O169">
+        <v>889</v>
+      </c>
+      <c r="P169" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>120</v>
+      </c>
+      <c r="B170">
+        <v>-32.991777999999996</v>
+      </c>
+      <c r="C170">
+        <v>137.77837500000001</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45885</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>389</v>
+      </c>
+      <c r="O170">
+        <v>389</v>
+      </c>
+      <c r="P170" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>121</v>
+      </c>
+      <c r="B171">
+        <v>-35.420470199999997</v>
+      </c>
+      <c r="C171">
+        <v>138.32294999999999</v>
+      </c>
+      <c r="D171" s="2">
+        <v>45891</v>
+      </c>
+      <c r="E171">
+        <v>56</v>
+      </c>
+      <c r="F171">
+        <v>278</v>
+      </c>
+      <c r="H171">
+        <v>111</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>444</v>
+      </c>
+      <c r="N171">
+        <v>1334</v>
+      </c>
+      <c r="O171">
+        <v>2223</v>
+      </c>
+      <c r="P171" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>122</v>
+      </c>
+      <c r="B172">
+        <v>-35.444941989999997</v>
+      </c>
+      <c r="C172">
+        <v>138.30768499999999</v>
+      </c>
+      <c r="D172" s="2">
+        <v>45891</v>
+      </c>
+      <c r="F172">
+        <v>278</v>
+      </c>
+      <c r="H172">
+        <v>56</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>389</v>
+      </c>
+      <c r="N172">
+        <v>1556</v>
+      </c>
+      <c r="O172">
+        <v>2279</v>
+      </c>
+      <c r="P172" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>123</v>
+      </c>
+      <c r="B173">
+        <v>-35.570839499999998</v>
+      </c>
+      <c r="C173">
+        <v>138.60133999999999</v>
+      </c>
+      <c r="D173" s="2">
+        <v>45902</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>278</v>
+      </c>
+      <c r="M173">
+        <v>556</v>
+      </c>
+      <c r="N173">
+        <v>500</v>
+      </c>
+      <c r="O173">
+        <v>1334</v>
+      </c>
+      <c r="P173" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>124</v>
+      </c>
+      <c r="B174">
+        <v>-34.816378</v>
+      </c>
+      <c r="C174">
+        <v>138.5108414</v>
+      </c>
+      <c r="D174" s="2">
+        <v>45903</v>
+      </c>
+      <c r="H174">
+        <v>50667</v>
+      </c>
+      <c r="I174">
+        <v>27667</v>
+      </c>
+      <c r="N174">
+        <v>500</v>
+      </c>
+      <c r="O174">
+        <v>51167</v>
+      </c>
+      <c r="P174" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>88</v>
+      </c>
+      <c r="B175">
+        <v>-35.540277000000003</v>
+      </c>
+      <c r="C175">
+        <v>138.66416599999999</v>
+      </c>
+      <c r="D175" s="2">
+        <v>45921</v>
+      </c>
+      <c r="H175">
+        <v>56</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>278</v>
+      </c>
+      <c r="O175">
+        <v>334</v>
+      </c>
+      <c r="P175" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>102</v>
+      </c>
+      <c r="B176">
+        <v>-35.536745000000003</v>
+      </c>
+      <c r="C176">
+        <v>138.6913744</v>
+      </c>
+      <c r="D176" s="2">
+        <v>45921</v>
+      </c>
+      <c r="F176">
+        <v>56</v>
+      </c>
+      <c r="G176">
+        <v>56</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>111</v>
+      </c>
+      <c r="M176">
+        <v>167</v>
+      </c>
+      <c r="N176">
+        <v>389</v>
+      </c>
+      <c r="O176">
+        <v>779</v>
+      </c>
+      <c r="P176" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>89</v>
+      </c>
+      <c r="B177">
+        <v>-35.573300000000003</v>
+      </c>
+      <c r="C177">
+        <v>138.64250000000001</v>
+      </c>
+      <c r="D177" s="2">
+        <v>45921</v>
+      </c>
+      <c r="F177">
+        <v>56</v>
+      </c>
+      <c r="G177">
+        <v>56</v>
+      </c>
+      <c r="H177">
+        <v>111</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>56</v>
+      </c>
+      <c r="K177">
+        <v>56</v>
+      </c>
+      <c r="M177">
+        <v>500</v>
+      </c>
+      <c r="N177">
+        <v>667</v>
+      </c>
+      <c r="O177">
+        <v>1502</v>
+      </c>
+      <c r="P177" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>125</v>
+      </c>
+      <c r="B178">
+        <v>-35.579087000000001</v>
+      </c>
+      <c r="C178">
+        <v>138.60618769999999</v>
+      </c>
+      <c r="D178" s="2">
+        <v>45921</v>
+      </c>
+      <c r="F178">
+        <v>56</v>
+      </c>
+      <c r="G178">
+        <v>56</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>56</v>
+      </c>
+      <c r="M178">
+        <v>278</v>
+      </c>
+      <c r="N178">
+        <v>111</v>
+      </c>
+      <c r="O178">
+        <v>557</v>
+      </c>
+      <c r="P178" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>126</v>
+      </c>
+      <c r="B179">
+        <v>-35.574167000000003</v>
+      </c>
+      <c r="C179">
+        <v>138.61528000000001</v>
+      </c>
+      <c r="D179" s="2">
+        <v>45921</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>667</v>
+      </c>
+      <c r="N179">
+        <v>778</v>
+      </c>
+      <c r="O179">
+        <v>1445</v>
+      </c>
+      <c r="P179" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>91</v>
+      </c>
+      <c r="B180">
+        <v>-35.603613000000003</v>
+      </c>
+      <c r="C180">
+        <v>138.61528000000001</v>
+      </c>
+      <c r="D180" s="2">
+        <v>45921</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>167</v>
+      </c>
+      <c r="M180">
+        <v>556</v>
+      </c>
+      <c r="N180">
+        <v>389</v>
+      </c>
+      <c r="O180">
+        <v>1112</v>
+      </c>
+      <c r="P180" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>92</v>
+      </c>
+      <c r="B181">
+        <v>-35.615555999999998</v>
+      </c>
+      <c r="C181">
+        <v>138.56833</v>
+      </c>
+      <c r="D181" s="2">
+        <v>45921</v>
+      </c>
+      <c r="F181">
+        <v>111</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>56</v>
+      </c>
+      <c r="M181">
+        <v>167</v>
+      </c>
+      <c r="N181">
+        <v>444</v>
+      </c>
+      <c r="O181">
+        <v>778</v>
+      </c>
+      <c r="P181" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>127</v>
+      </c>
+      <c r="B182">
+        <v>-35.160076599999996</v>
+      </c>
+      <c r="C182">
+        <v>138.47175200000001</v>
+      </c>
+      <c r="D182" s="2">
+        <v>45890</v>
+      </c>
+      <c r="G182">
+        <v>778</v>
+      </c>
+      <c r="H182">
+        <v>833</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>2611</v>
+      </c>
+      <c r="O182">
+        <v>4222</v>
+      </c>
+      <c r="P182" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>128</v>
+      </c>
+      <c r="B183">
+        <v>-35.151825600000002</v>
+      </c>
+      <c r="C183">
+        <v>138.47262749999999</v>
+      </c>
+      <c r="D183" s="2">
+        <v>45890</v>
+      </c>
+      <c r="F183">
+        <v>1167</v>
+      </c>
+      <c r="G183">
+        <v>1944</v>
+      </c>
+      <c r="H183">
+        <v>4111</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>167</v>
+      </c>
+      <c r="K183">
+        <v>222</v>
+      </c>
+      <c r="N183">
+        <v>4833</v>
+      </c>
+      <c r="O183">
+        <v>12444</v>
+      </c>
+      <c r="P183" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>129</v>
+      </c>
+      <c r="B184">
+        <v>-35.151313999999999</v>
+      </c>
+      <c r="C184">
+        <v>138.47341800000001</v>
+      </c>
+      <c r="D184" s="2">
+        <v>45890</v>
+      </c>
+      <c r="F184">
+        <v>56</v>
+      </c>
+      <c r="G184">
+        <v>111</v>
+      </c>
+      <c r="H184">
+        <v>333</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>889</v>
+      </c>
+      <c r="N184">
+        <v>944</v>
+      </c>
+      <c r="O184">
+        <v>2333</v>
+      </c>
+      <c r="P184" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>130</v>
+      </c>
+      <c r="B185">
+        <v>-35.154650240000002</v>
+      </c>
+      <c r="C185">
+        <v>138.47929239999999</v>
+      </c>
+      <c r="D185" s="2">
+        <v>45890</v>
+      </c>
+      <c r="F185">
+        <v>278</v>
+      </c>
+      <c r="G185">
+        <v>389</v>
+      </c>
+      <c r="H185">
+        <v>500</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>444</v>
+      </c>
+      <c r="N185">
+        <v>3333</v>
+      </c>
+      <c r="O185">
+        <v>4944</v>
+      </c>
+      <c r="P185" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>79</v>
+      </c>
+      <c r="B186" s="5">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C186" s="5">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D186" s="2">
+        <v>45941</v>
+      </c>
+      <c r="H186">
+        <v>1507</v>
+      </c>
+      <c r="I186">
+        <v>1458</v>
+      </c>
+      <c r="K186">
+        <v>280</v>
+      </c>
+      <c r="N186">
+        <v>109</v>
+      </c>
+      <c r="O186">
+        <v>1896</v>
+      </c>
+      <c r="P186" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>81</v>
+      </c>
+      <c r="B187" s="5">
+        <v>-35.078539999999997</v>
+      </c>
+      <c r="C187" s="5">
+        <v>138.49587</v>
+      </c>
+      <c r="D187" s="2">
+        <v>45941</v>
+      </c>
+      <c r="G187" s="4"/>
+      <c r="H187">
+        <v>1242</v>
+      </c>
+      <c r="I187">
+        <v>1127</v>
+      </c>
+      <c r="K187">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="N187">
+        <v>77</v>
+      </c>
+      <c r="O187">
+        <v>1392</v>
+      </c>
+      <c r="P187" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>84</v>
+      </c>
+      <c r="B188" s="5">
+        <v>-34.837600000000002</v>
+      </c>
+      <c r="C188" s="5">
+        <v>138.47788</v>
+      </c>
+      <c r="D188" s="2">
+        <v>45941</v>
+      </c>
+      <c r="G188" s="4"/>
+      <c r="H188">
+        <v>768</v>
+      </c>
+      <c r="I188">
+        <v>680</v>
+      </c>
+      <c r="K188">
+        <v>202</v>
+      </c>
+      <c r="N188">
+        <v>96</v>
+      </c>
+      <c r="O188">
+        <v>1066</v>
+      </c>
+      <c r="P188" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>87</v>
+      </c>
+      <c r="B189" s="5">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C189" s="5">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D189" s="2">
+        <v>45941</v>
+      </c>
+      <c r="G189" s="4"/>
+      <c r="H189">
+        <v>1265</v>
+      </c>
+      <c r="I189">
+        <v>1170</v>
+      </c>
+      <c r="K189">
+        <v>285</v>
+      </c>
+      <c r="N189">
+        <v>100</v>
+      </c>
+      <c r="O189">
+        <v>1650</v>
+      </c>
+      <c r="P189" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4426F3C-5A6B-419A-AE79-C31D2366E810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBACBC88-921D-4B46-9B4F-CED6232A12E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -301,9 +301,6 @@
     <t>Grange</t>
   </si>
   <si>
-    <t>Hallet Cove</t>
-  </si>
-  <si>
     <t>Middleton</t>
   </si>
   <si>
@@ -452,13 +449,49 @@
   </si>
   <si>
     <t>SEAS5211</t>
+  </si>
+  <si>
+    <t>Hallett Cove</t>
+  </si>
+  <si>
+    <t>Hallettt Cove</t>
+  </si>
+  <si>
+    <t>Cnr River Rd and New St Carpark</t>
+  </si>
+  <si>
+    <t>River Rd under Railway carpark</t>
+  </si>
+  <si>
+    <t>River Rd Perry's Bend</t>
+  </si>
+  <si>
+    <t>about 300m NW of coast to Vines Rail Track Bridge</t>
+  </si>
+  <si>
+    <t>Beach SE of Coast to Vines Rail track bridge</t>
+  </si>
+  <si>
+    <t>Hall St footpath to landing</t>
+  </si>
+  <si>
+    <t>Hall Cresent Car bridge</t>
+  </si>
+  <si>
+    <t>Suspension Bridge Paringa Pde</t>
+  </si>
+  <si>
+    <t>American River Cannery Trail start</t>
+  </si>
+  <si>
+    <t>American River Jetty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,12 +506,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -501,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -511,7 +538,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:P189"/>
+  <dimension ref="A1:P203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D152" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L186" sqref="L186"/>
+    <sheetView tabSelected="1" topLeftCell="C179" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O204" sqref="O204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,9 +895,10 @@
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" customWidth="1"/>
     <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4912,7 +4939,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="B102">
         <v>-35.078539999999997</v>
@@ -4944,7 +4971,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="B103">
         <v>-35.078539999999997</v>
@@ -4976,7 +5003,7 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="B104">
         <v>-35.078539999999997</v>
@@ -5008,7 +5035,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="B105">
         <v>-35.078539999999997</v>
@@ -5040,7 +5067,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="B106">
         <v>-35.078539999999997</v>
@@ -5072,7 +5099,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B107">
         <v>-35.507370000000002</v>
@@ -5104,7 +5131,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B108">
         <v>-34.190849999999998</v>
@@ -5136,7 +5163,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B109">
         <v>-34.190849999999998</v>
@@ -5168,7 +5195,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B110">
         <v>-34.837600000000002</v>
@@ -5200,7 +5227,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B111">
         <v>-34.837600000000002</v>
@@ -5232,7 +5259,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B112">
         <v>-34.837600000000002</v>
@@ -5264,7 +5291,7 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B113">
         <v>-34.837600000000002</v>
@@ -5296,7 +5323,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B114">
         <v>-32.771623179292703</v>
@@ -5328,7 +5355,7 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B115">
         <v>-34.486179999999997</v>
@@ -5360,7 +5387,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B116">
         <v>-34.486179999999997</v>
@@ -5392,7 +5419,7 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B117">
         <v>-34.873939999999997</v>
@@ -5424,7 +5451,7 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B118">
         <v>-34.873939999999997</v>
@@ -5456,7 +5483,7 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B119">
         <v>-34.873939999999997</v>
@@ -5488,7 +5515,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B120">
         <v>-34.873939999999997</v>
@@ -5520,7 +5547,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B121">
         <v>-34.873939999999997</v>
@@ -5596,7 +5623,7 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B123">
         <v>-35.540277000000003</v>
@@ -5617,12 +5644,12 @@
         <v>278</v>
       </c>
       <c r="P123" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B124">
         <v>-35.573300000000003</v>
@@ -5643,12 +5670,12 @@
         <v>222</v>
       </c>
       <c r="P124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B125">
         <v>-35.574167000000003</v>
@@ -5669,18 +5696,18 @@
         <v>944</v>
       </c>
       <c r="P125" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B126">
-        <v>-35.603613000000003</v>
+        <v>-35.6048446</v>
       </c>
       <c r="C126">
-        <v>138.61528000000001</v>
+        <v>138.59278499999999</v>
       </c>
       <c r="D126" s="2">
         <v>45823</v>
@@ -5695,12 +5722,12 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B127">
         <v>-35.615555999999998</v>
@@ -5721,12 +5748,12 @@
         <v>56</v>
       </c>
       <c r="P127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B128">
         <v>-35.536441500000002</v>
@@ -5747,12 +5774,12 @@
         <v>777</v>
       </c>
       <c r="P128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B129">
         <v>-35.6360308</v>
@@ -5773,12 +5800,12 @@
         <v>610</v>
       </c>
       <c r="P129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B130">
         <v>-35.536441500000002</v>
@@ -5799,12 +5826,12 @@
         <v>2111</v>
       </c>
       <c r="P130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B131">
         <v>-35.513599999999997</v>
@@ -5825,12 +5852,12 @@
         <v>1056</v>
       </c>
       <c r="P131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B132">
         <v>-35.513599999999997</v>
@@ -5851,12 +5878,12 @@
         <v>199444</v>
       </c>
       <c r="P132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B133">
         <v>-35.58858</v>
@@ -5877,18 +5904,18 @@
         <v>5</v>
       </c>
       <c r="P133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B134">
-        <v>-35.542932</v>
+        <v>-35.536230000000003</v>
       </c>
       <c r="C134">
-        <v>138.60474600000001</v>
+        <v>138.66919999999999</v>
       </c>
       <c r="D134" s="2">
         <v>45854</v>
@@ -5909,12 +5936,12 @@
         <v>361</v>
       </c>
       <c r="P134" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B135">
         <v>-34.813881000000002</v>
@@ -5938,12 +5965,12 @@
         <v>2667</v>
       </c>
       <c r="P135" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B136">
         <v>-35.037733000000003</v>
@@ -5970,12 +5997,12 @@
         <v>1389</v>
       </c>
       <c r="P136" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B137">
         <v>-35.030088999999997</v>
@@ -6005,12 +6032,12 @@
         <v>1279</v>
       </c>
       <c r="P137" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B138">
         <v>-35.551524800000003</v>
@@ -6034,12 +6061,12 @@
         <v>1000</v>
       </c>
       <c r="P138" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B139">
         <v>-35.573300000000003</v>
@@ -6060,12 +6087,12 @@
         <v>111</v>
       </c>
       <c r="P139" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B140">
         <v>-35.536745000000003</v>
@@ -6089,12 +6116,12 @@
         <v>1667</v>
       </c>
       <c r="P140" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B141">
         <v>-35.574167000000003</v>
@@ -6118,12 +6145,12 @@
         <v>389</v>
       </c>
       <c r="P141" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B142">
         <v>-35.540277000000003</v>
@@ -6147,12 +6174,12 @@
         <v>667</v>
       </c>
       <c r="P142" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B143">
         <v>-35.540188999999998</v>
@@ -6176,12 +6203,12 @@
         <v>778</v>
       </c>
       <c r="P143" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B144">
         <v>-35.620086000000001</v>
@@ -6205,12 +6232,12 @@
         <v>778</v>
       </c>
       <c r="P144" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B145">
         <v>-35.560513800000003</v>
@@ -6246,12 +6273,12 @@
         <v>3111</v>
       </c>
       <c r="P145" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B146">
         <v>-35.557317400000002</v>
@@ -6284,12 +6311,12 @@
         <v>2000</v>
       </c>
       <c r="P146" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B147">
         <v>-35.5272237</v>
@@ -6313,12 +6340,12 @@
         <v>1056</v>
       </c>
       <c r="P147" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B148">
         <v>-34.775959999999998</v>
@@ -6345,12 +6372,12 @@
         <v>4694</v>
       </c>
       <c r="P148" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B149">
         <v>-34.755644699999998</v>
@@ -6377,12 +6404,12 @@
         <v>3944</v>
       </c>
       <c r="P149" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B150">
         <v>-34.774178999999997</v>
@@ -6409,12 +6436,12 @@
         <v>3835</v>
       </c>
       <c r="P150" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B151">
         <v>-34.761991500000001</v>
@@ -6441,12 +6468,12 @@
         <v>3223</v>
       </c>
       <c r="P151" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B152">
         <v>-34.775959999999998</v>
@@ -6473,12 +6500,12 @@
         <v>3889</v>
       </c>
       <c r="P152" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B153">
         <v>-34.753135</v>
@@ -6505,12 +6532,12 @@
         <v>4556</v>
       </c>
       <c r="P153" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B154">
         <v>-34.745396</v>
@@ -6537,12 +6564,12 @@
         <v>4945</v>
       </c>
       <c r="P154" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B155">
         <v>-34.763468000000003</v>
@@ -6569,12 +6596,12 @@
         <v>11056</v>
       </c>
       <c r="P155" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B156">
         <v>-34.775306999999998</v>
@@ -6601,12 +6628,12 @@
         <v>31056</v>
       </c>
       <c r="P156" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B157">
         <v>-34.740545900000001</v>
@@ -6633,12 +6660,12 @@
         <v>24178</v>
       </c>
       <c r="P157" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B158">
         <v>-34.775959999999998</v>
@@ -6665,12 +6692,12 @@
         <v>4945</v>
       </c>
       <c r="P158" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B159">
         <v>-34.767232</v>
@@ -6697,12 +6724,12 @@
         <v>8612</v>
       </c>
       <c r="P159" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B160">
         <v>-34.075238300000002</v>
@@ -6726,12 +6753,12 @@
         <v>2445</v>
       </c>
       <c r="P160" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B161">
         <v>-34.075238300000002</v>
@@ -6755,12 +6782,12 @@
         <v>501</v>
       </c>
       <c r="P161" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B162">
         <v>-35.540277000000003</v>
@@ -6787,12 +6814,12 @@
         <v>556</v>
       </c>
       <c r="P162" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B163">
         <v>-35.540188999999998</v>
@@ -6816,12 +6843,12 @@
         <v>1001</v>
       </c>
       <c r="P163" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B164">
         <v>-35.573300000000003</v>
@@ -6848,12 +6875,12 @@
         <v>2500</v>
       </c>
       <c r="P164" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B165">
         <v>-35.574167000000003</v>
@@ -6874,18 +6901,18 @@
         <v>167</v>
       </c>
       <c r="P165" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B166">
-        <v>-35.603613000000003</v>
+        <v>-35.6048446</v>
       </c>
       <c r="C166">
-        <v>138.61528000000001</v>
+        <v>138.59278499999999</v>
       </c>
       <c r="D166" s="2">
         <v>45882</v>
@@ -6903,12 +6930,12 @@
         <v>445</v>
       </c>
       <c r="P166" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B167">
         <v>-35.615555999999998</v>
@@ -6929,12 +6956,12 @@
         <v>56</v>
       </c>
       <c r="P167" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B168">
         <v>-35.6360308</v>
@@ -6958,12 +6985,12 @@
         <v>778</v>
       </c>
       <c r="P168" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B169">
         <v>-33.040787000000002</v>
@@ -6987,12 +7014,12 @@
         <v>889</v>
       </c>
       <c r="P169" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B170">
         <v>-32.991777999999996</v>
@@ -7013,12 +7040,12 @@
         <v>389</v>
       </c>
       <c r="P170" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B171">
         <v>-35.420470199999997</v>
@@ -7051,12 +7078,12 @@
         <v>2223</v>
       </c>
       <c r="P171" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B172">
         <v>-35.444941989999997</v>
@@ -7086,12 +7113,12 @@
         <v>2279</v>
       </c>
       <c r="P172" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B173">
         <v>-35.570839499999998</v>
@@ -7118,12 +7145,12 @@
         <v>1334</v>
       </c>
       <c r="P173" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B174">
         <v>-34.816378</v>
@@ -7147,12 +7174,12 @@
         <v>51167</v>
       </c>
       <c r="P174" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B175">
         <v>-35.540277000000003</v>
@@ -7176,12 +7203,12 @@
         <v>334</v>
       </c>
       <c r="P175" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B176">
         <v>-35.536745000000003</v>
@@ -7214,12 +7241,12 @@
         <v>779</v>
       </c>
       <c r="P176" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B177">
         <v>-35.573300000000003</v>
@@ -7258,12 +7285,12 @@
         <v>1502</v>
       </c>
       <c r="P177" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B178">
         <v>-35.579087000000001</v>
@@ -7296,12 +7323,12 @@
         <v>557</v>
       </c>
       <c r="P178" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B179">
         <v>-35.574167000000003</v>
@@ -7325,18 +7352,18 @@
         <v>1445</v>
       </c>
       <c r="P179" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B180">
-        <v>-35.603613000000003</v>
+        <v>-35.6048446</v>
       </c>
       <c r="C180">
-        <v>138.61528000000001</v>
+        <v>138.59278499999999</v>
       </c>
       <c r="D180" s="2">
         <v>45921</v>
@@ -7357,12 +7384,12 @@
         <v>1112</v>
       </c>
       <c r="P180" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B181">
         <v>-35.615555999999998</v>
@@ -7392,12 +7419,12 @@
         <v>778</v>
       </c>
       <c r="P181" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B182">
         <v>-35.160076599999996</v>
@@ -7424,12 +7451,12 @@
         <v>4222</v>
       </c>
       <c r="P182" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B183">
         <v>-35.151825600000002</v>
@@ -7465,12 +7492,12 @@
         <v>12444</v>
       </c>
       <c r="P183" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B184">
         <v>-35.151313999999999</v>
@@ -7503,12 +7530,12 @@
         <v>2333</v>
       </c>
       <c r="P184" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B185">
         <v>-35.154650240000002</v>
@@ -7541,17 +7568,17 @@
         <v>4944</v>
       </c>
       <c r="P185" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>79</v>
       </c>
-      <c r="B186" s="5">
+      <c r="B186">
         <v>-34.804169999999999</v>
       </c>
-      <c r="C186" s="5">
+      <c r="C186">
         <v>138.53970000000001</v>
       </c>
       <c r="D186" s="2">
@@ -7578,12 +7605,12 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>81</v>
-      </c>
-      <c r="B187" s="5">
+        <v>131</v>
+      </c>
+      <c r="B187">
         <v>-35.078539999999997</v>
       </c>
-      <c r="C187" s="5">
+      <c r="C187">
         <v>138.49587</v>
       </c>
       <c r="D187" s="2">
@@ -7611,12 +7638,12 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>84</v>
-      </c>
-      <c r="B188" s="5">
+        <v>83</v>
+      </c>
+      <c r="B188">
         <v>-34.837600000000002</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C188">
         <v>138.47788</v>
       </c>
       <c r="D188" s="2">
@@ -7644,12 +7671,12 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>87</v>
-      </c>
-      <c r="B189" s="5">
+        <v>86</v>
+      </c>
+      <c r="B189">
         <v>-34.873939999999997</v>
       </c>
-      <c r="C189" s="5">
+      <c r="C189">
         <v>138.48820000000001</v>
       </c>
       <c r="D189" s="2">
@@ -7672,6 +7699,505 @@
         <v>1650</v>
       </c>
       <c r="P189" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>37</v>
+      </c>
+      <c r="B190">
+        <v>-34.289369999999998</v>
+      </c>
+      <c r="C190">
+        <v>138.01242999999999</v>
+      </c>
+      <c r="D190" s="2">
+        <v>45948</v>
+      </c>
+      <c r="F190">
+        <v>444</v>
+      </c>
+      <c r="G190">
+        <v>444</v>
+      </c>
+      <c r="H190">
+        <v>5500</v>
+      </c>
+      <c r="I190">
+        <v>1833</v>
+      </c>
+      <c r="J190">
+        <v>71677</v>
+      </c>
+      <c r="K190">
+        <v>1444</v>
+      </c>
+      <c r="L190">
+        <v>111</v>
+      </c>
+      <c r="N190">
+        <v>222</v>
+      </c>
+      <c r="O190">
+        <v>15333</v>
+      </c>
+      <c r="P190" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>133</v>
+      </c>
+      <c r="B191">
+        <v>-35.152626359999999</v>
+      </c>
+      <c r="C191">
+        <v>138.48516240000001</v>
+      </c>
+      <c r="D191" s="2">
+        <v>45890</v>
+      </c>
+      <c r="F191">
+        <v>6444</v>
+      </c>
+      <c r="G191">
+        <v>722</v>
+      </c>
+      <c r="H191">
+        <v>2556</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>389</v>
+      </c>
+      <c r="M191">
+        <v>14000</v>
+      </c>
+      <c r="N191">
+        <v>3445</v>
+      </c>
+      <c r="O191">
+        <v>27556</v>
+      </c>
+      <c r="P191" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>134</v>
+      </c>
+      <c r="B192">
+        <v>-35.152888900000001</v>
+      </c>
+      <c r="C192">
+        <v>138.48833329999999</v>
+      </c>
+      <c r="D192" s="2">
+        <v>45890</v>
+      </c>
+      <c r="F192">
+        <v>7167</v>
+      </c>
+      <c r="G192">
+        <v>500</v>
+      </c>
+      <c r="H192">
+        <v>1000</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>56</v>
+      </c>
+      <c r="M192">
+        <v>6667</v>
+      </c>
+      <c r="N192">
+        <v>1778</v>
+      </c>
+      <c r="O192">
+        <v>17168</v>
+      </c>
+      <c r="P192" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>135</v>
+      </c>
+      <c r="B193">
+        <v>-35.157411799999998</v>
+      </c>
+      <c r="C193">
+        <v>138.49856840000001</v>
+      </c>
+      <c r="D193" s="2">
+        <v>45890</v>
+      </c>
+      <c r="F193">
+        <v>667</v>
+      </c>
+      <c r="G193">
+        <v>1111</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>111</v>
+      </c>
+      <c r="M193">
+        <v>13333</v>
+      </c>
+      <c r="N193">
+        <v>889</v>
+      </c>
+      <c r="O193">
+        <v>16111</v>
+      </c>
+      <c r="P193" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>136</v>
+      </c>
+      <c r="B194">
+        <v>-35.172090599999997</v>
+      </c>
+      <c r="C194">
+        <v>138.495555</v>
+      </c>
+      <c r="D194" s="2">
+        <v>45890</v>
+      </c>
+      <c r="F194">
+        <v>1111</v>
+      </c>
+      <c r="H194">
+        <v>56</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>278</v>
+      </c>
+      <c r="M194">
+        <v>1444</v>
+      </c>
+      <c r="N194">
+        <v>1389</v>
+      </c>
+      <c r="O194">
+        <v>4278</v>
+      </c>
+      <c r="P194" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>137</v>
+      </c>
+      <c r="B195">
+        <v>-35.174399000000001</v>
+      </c>
+      <c r="C195">
+        <v>138.4971697</v>
+      </c>
+      <c r="D195" s="2">
+        <v>45890</v>
+      </c>
+      <c r="H195">
+        <v>56</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>278</v>
+      </c>
+      <c r="M195">
+        <v>1222</v>
+      </c>
+      <c r="N195">
+        <v>612</v>
+      </c>
+      <c r="O195">
+        <v>2168</v>
+      </c>
+      <c r="P195" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>138</v>
+      </c>
+      <c r="B196">
+        <v>-35.180773000000002</v>
+      </c>
+      <c r="C196">
+        <v>138.50123840000001</v>
+      </c>
+      <c r="D196" s="2">
+        <v>45890</v>
+      </c>
+      <c r="G196">
+        <v>278</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>500</v>
+      </c>
+      <c r="M196">
+        <v>1056</v>
+      </c>
+      <c r="N196">
+        <v>1167</v>
+      </c>
+      <c r="O196">
+        <v>3001</v>
+      </c>
+      <c r="P196" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>139</v>
+      </c>
+      <c r="B197">
+        <v>-35.181056900000002</v>
+      </c>
+      <c r="C197">
+        <v>138.4982273</v>
+      </c>
+      <c r="D197" s="2">
+        <v>45890</v>
+      </c>
+      <c r="F197">
+        <v>56</v>
+      </c>
+      <c r="G197">
+        <v>167</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>333</v>
+      </c>
+      <c r="M197">
+        <v>1778</v>
+      </c>
+      <c r="N197">
+        <v>611</v>
+      </c>
+      <c r="O197">
+        <v>2945</v>
+      </c>
+      <c r="P197" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>140</v>
+      </c>
+      <c r="B198">
+        <v>-35.180520399999999</v>
+      </c>
+      <c r="C198">
+        <v>138.50434089999999</v>
+      </c>
+      <c r="D198" s="2">
+        <v>45890</v>
+      </c>
+      <c r="G198">
+        <v>222</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>111</v>
+      </c>
+      <c r="M198">
+        <v>556</v>
+      </c>
+      <c r="N198">
+        <v>389</v>
+      </c>
+      <c r="O198">
+        <v>1278</v>
+      </c>
+      <c r="P198" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>141</v>
+      </c>
+      <c r="B199">
+        <v>-35.759517729999999</v>
+      </c>
+      <c r="C199">
+        <v>137.79411350000001</v>
+      </c>
+      <c r="D199" s="2">
+        <v>45878</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>1555</v>
+      </c>
+      <c r="O199">
+        <v>1555</v>
+      </c>
+      <c r="P199" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>142</v>
+      </c>
+      <c r="B200">
+        <v>-35.786764689999998</v>
+      </c>
+      <c r="C200">
+        <v>137.77344500000001</v>
+      </c>
+      <c r="D200" s="2">
+        <v>45878</v>
+      </c>
+      <c r="H200">
+        <v>333</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>3333</v>
+      </c>
+      <c r="N200">
+        <v>10667</v>
+      </c>
+      <c r="O200">
+        <v>14333</v>
+      </c>
+      <c r="P200" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>79</v>
+      </c>
+      <c r="B201">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C201">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D201" s="2">
+        <v>45947</v>
+      </c>
+      <c r="H201">
+        <v>70</v>
+      </c>
+      <c r="I201">
+        <v>61</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>4</v>
+      </c>
+      <c r="O201">
+        <v>75</v>
+      </c>
+      <c r="P201" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>83</v>
+      </c>
+      <c r="B202">
+        <v>-34.837600000000002</v>
+      </c>
+      <c r="C202">
+        <v>138.47788</v>
+      </c>
+      <c r="D202" s="2">
+        <v>45947</v>
+      </c>
+      <c r="H202">
+        <v>848</v>
+      </c>
+      <c r="I202">
+        <v>772</v>
+      </c>
+      <c r="K202">
+        <v>48</v>
+      </c>
+      <c r="N202">
+        <v>42</v>
+      </c>
+      <c r="O202">
+        <v>938</v>
+      </c>
+      <c r="P202" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>86</v>
+      </c>
+      <c r="B203">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C203">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D203" s="2">
+        <v>45947</v>
+      </c>
+      <c r="H203">
+        <v>312</v>
+      </c>
+      <c r="I203">
+        <v>204</v>
+      </c>
+      <c r="K203">
+        <v>190</v>
+      </c>
+      <c r="N203">
+        <v>63</v>
+      </c>
+      <c r="O203">
+        <v>565</v>
+      </c>
+      <c r="P203" t="s">
         <v>78</v>
       </c>
     </row>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBACBC88-921D-4B46-9B4F-CED6232A12E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB25259-ACA5-4EC9-BCDB-31F214EEAA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="-27105" yWindow="2145" windowWidth="21555" windowHeight="12270" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="167">
   <si>
     <t>Date</t>
   </si>
@@ -486,11 +486,86 @@
   <si>
     <t>American River Jetty</t>
   </si>
+  <si>
+    <t>Tennyson Beach</t>
+  </si>
+  <si>
+    <t>ZIML5007</t>
+  </si>
+  <si>
+    <t>West Lakes Rowing SA Pontoon south</t>
+  </si>
+  <si>
+    <t>West Lakes Rowing SA Pontoon north</t>
+  </si>
+  <si>
+    <t>West Lakes Inlet Reserve</t>
+  </si>
+  <si>
+    <t>Port Adelaide Rowing Club</t>
+  </si>
+  <si>
+    <t>Henley Sailing Club</t>
+  </si>
+  <si>
+    <t>JOHT5583</t>
+  </si>
+  <si>
+    <t>Brown Beach, Kangaroo Island</t>
+  </si>
+  <si>
+    <t>LEWK5221</t>
+  </si>
+  <si>
+    <t>High Barbaree Pelican Lagoon KI</t>
+  </si>
+  <si>
+    <t>Kangaroo Yacht Club Beach</t>
+  </si>
+  <si>
+    <t>Ozone Beach Kingscote</t>
+  </si>
+  <si>
+    <t>Boxing Bay KI</t>
+  </si>
+  <si>
+    <t>Bay of Shoals Boat Ramp KI</t>
+  </si>
+  <si>
+    <t>Yilki Reef Encounter Bay</t>
+  </si>
+  <si>
+    <t>Off Bluff Jetty Encounter Bay</t>
+  </si>
+  <si>
+    <t>Port Eliot Jetty</t>
+  </si>
+  <si>
+    <t>Middleton Surf Beach offshore</t>
+  </si>
+  <si>
+    <t>Solomontown Beach Port Pirie</t>
+  </si>
+  <si>
+    <t>Glenelg Beach</t>
+  </si>
+  <si>
+    <t>Carrickalinga North Beach</t>
+  </si>
+  <si>
+    <t>Carrickalinga North Beach Foam</t>
+  </si>
+  <si>
+    <t>Seal Island Victor Harbor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -538,6 +613,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,15 +949,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:P203"/>
+  <dimension ref="A1:P251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O204" sqref="O204"/>
+    <sheetView tabSelected="1" topLeftCell="D228" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
@@ -4118,10 +4195,10 @@
         <v>59</v>
       </c>
       <c r="B80">
-        <v>-35.084499999999998</v>
+        <v>-35.084850000000003</v>
       </c>
       <c r="C80">
-        <v>137.74932999999999</v>
+        <v>137.74889999999999</v>
       </c>
       <c r="D80" s="2">
         <v>45912</v>
@@ -8199,6 +8276,1425 @@
       </c>
       <c r="P203" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>37</v>
+      </c>
+      <c r="B204">
+        <v>-34.289369999999998</v>
+      </c>
+      <c r="C204">
+        <v>138.01242999999999</v>
+      </c>
+      <c r="D204" s="2">
+        <v>45955</v>
+      </c>
+      <c r="F204">
+        <v>56</v>
+      </c>
+      <c r="G204">
+        <v>278</v>
+      </c>
+      <c r="H204">
+        <v>1500</v>
+      </c>
+      <c r="I204">
+        <v>611</v>
+      </c>
+      <c r="J204">
+        <v>3556</v>
+      </c>
+      <c r="K204">
+        <v>1222</v>
+      </c>
+      <c r="L204">
+        <v>111</v>
+      </c>
+      <c r="M204">
+        <v>222</v>
+      </c>
+      <c r="N204">
+        <v>56</v>
+      </c>
+      <c r="O204">
+        <v>7000</v>
+      </c>
+      <c r="P204" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>38</v>
+      </c>
+      <c r="B205">
+        <v>-34.507817000000003</v>
+      </c>
+      <c r="C205">
+        <v>138.274338</v>
+      </c>
+      <c r="D205" s="2">
+        <v>45959</v>
+      </c>
+      <c r="F205">
+        <v>417</v>
+      </c>
+      <c r="G205">
+        <v>83</v>
+      </c>
+      <c r="H205">
+        <v>472</v>
+      </c>
+      <c r="I205">
+        <v>167</v>
+      </c>
+      <c r="J205">
+        <v>278</v>
+      </c>
+      <c r="K205">
+        <v>639</v>
+      </c>
+      <c r="L205">
+        <v>111</v>
+      </c>
+      <c r="M205">
+        <v>500</v>
+      </c>
+      <c r="N205">
+        <v>56</v>
+      </c>
+      <c r="O205">
+        <v>2556</v>
+      </c>
+      <c r="P205" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>143</v>
+      </c>
+      <c r="B206" s="5">
+        <v>-34.876918449999998</v>
+      </c>
+      <c r="C206" s="5">
+        <v>138.47996235010001</v>
+      </c>
+      <c r="D206" s="2">
+        <v>45932</v>
+      </c>
+      <c r="H206">
+        <v>555</v>
+      </c>
+      <c r="I206">
+        <v>555</v>
+      </c>
+      <c r="O206">
+        <v>1000</v>
+      </c>
+      <c r="P206" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>145</v>
+      </c>
+      <c r="B207" s="5">
+        <v>-34.87530331</v>
+      </c>
+      <c r="C207" s="5">
+        <v>138.48543405999999</v>
+      </c>
+      <c r="D207" s="2">
+        <v>45932</v>
+      </c>
+      <c r="H207">
+        <v>10800</v>
+      </c>
+      <c r="I207">
+        <v>10800</v>
+      </c>
+      <c r="O207">
+        <v>10800</v>
+      </c>
+      <c r="P207" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>146</v>
+      </c>
+      <c r="B208" s="5">
+        <v>-34.874911619999999</v>
+      </c>
+      <c r="C208" s="5">
+        <v>138.4853214</v>
+      </c>
+      <c r="D208" s="2">
+        <v>45932</v>
+      </c>
+      <c r="H208">
+        <v>9600</v>
+      </c>
+      <c r="I208">
+        <v>9600</v>
+      </c>
+      <c r="O208">
+        <v>9600</v>
+      </c>
+      <c r="P208" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>147</v>
+      </c>
+      <c r="B209" s="5">
+        <v>-34.893833659999999</v>
+      </c>
+      <c r="C209" s="5">
+        <v>138.49006890999999</v>
+      </c>
+      <c r="D209" s="2">
+        <v>45932</v>
+      </c>
+      <c r="H209">
+        <v>850</v>
+      </c>
+      <c r="I209">
+        <v>850</v>
+      </c>
+      <c r="O209">
+        <v>850</v>
+      </c>
+      <c r="P209" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>143</v>
+      </c>
+      <c r="B210" s="5">
+        <v>-34.876918449999998</v>
+      </c>
+      <c r="C210" s="5">
+        <v>138.47996235010001</v>
+      </c>
+      <c r="D210" s="2">
+        <v>45934</v>
+      </c>
+      <c r="H210">
+        <v>25750</v>
+      </c>
+      <c r="I210">
+        <v>21000</v>
+      </c>
+      <c r="O210">
+        <v>25750</v>
+      </c>
+      <c r="P210" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>145</v>
+      </c>
+      <c r="B211" s="5">
+        <v>-34.87530331</v>
+      </c>
+      <c r="C211" s="5">
+        <v>138.48543405999999</v>
+      </c>
+      <c r="D211" s="2">
+        <v>45934</v>
+      </c>
+      <c r="H211">
+        <v>4035</v>
+      </c>
+      <c r="I211">
+        <v>335</v>
+      </c>
+      <c r="O211">
+        <v>4035</v>
+      </c>
+      <c r="P211" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>146</v>
+      </c>
+      <c r="B212" s="5">
+        <v>-34.874911619999999</v>
+      </c>
+      <c r="C212" s="5">
+        <v>138.4853214</v>
+      </c>
+      <c r="D212" s="2">
+        <v>45934</v>
+      </c>
+      <c r="H212">
+        <v>8750</v>
+      </c>
+      <c r="I212">
+        <v>333</v>
+      </c>
+      <c r="O212">
+        <v>8750</v>
+      </c>
+      <c r="P212" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>147</v>
+      </c>
+      <c r="B213" s="5">
+        <v>-34.893833659999999</v>
+      </c>
+      <c r="C213" s="5">
+        <v>138.49006890999999</v>
+      </c>
+      <c r="D213" s="2">
+        <v>45934</v>
+      </c>
+      <c r="H213">
+        <v>8550</v>
+      </c>
+      <c r="I213">
+        <v>8200</v>
+      </c>
+      <c r="O213">
+        <v>8550</v>
+      </c>
+      <c r="P213" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>143</v>
+      </c>
+      <c r="B214" s="5">
+        <v>-34.876918449999998</v>
+      </c>
+      <c r="C214" s="5">
+        <v>138.47996235010001</v>
+      </c>
+      <c r="D214" s="2">
+        <v>45941</v>
+      </c>
+      <c r="H214">
+        <v>4800</v>
+      </c>
+      <c r="I214">
+        <v>3700</v>
+      </c>
+      <c r="O214">
+        <v>4800</v>
+      </c>
+      <c r="P214" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>148</v>
+      </c>
+      <c r="B215" s="5">
+        <v>-34.82035218</v>
+      </c>
+      <c r="C215" s="5">
+        <v>138.51019083</v>
+      </c>
+      <c r="D215" s="2">
+        <v>45942</v>
+      </c>
+      <c r="H215">
+        <v>4300</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <v>4300</v>
+      </c>
+      <c r="P215" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>143</v>
+      </c>
+      <c r="B216" s="5">
+        <v>-34.876918449999998</v>
+      </c>
+      <c r="C216" s="5">
+        <v>138.47996235010001</v>
+      </c>
+      <c r="D216" s="2">
+        <v>45950</v>
+      </c>
+      <c r="H216">
+        <v>90000</v>
+      </c>
+      <c r="I216">
+        <v>74200</v>
+      </c>
+      <c r="O216">
+        <v>90000</v>
+      </c>
+      <c r="P216" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>146</v>
+      </c>
+      <c r="B217" s="5">
+        <v>-34.874911619999999</v>
+      </c>
+      <c r="C217" s="5">
+        <v>138.4853214</v>
+      </c>
+      <c r="D217" s="2">
+        <v>45950</v>
+      </c>
+      <c r="H217">
+        <v>3300</v>
+      </c>
+      <c r="I217">
+        <v>1300</v>
+      </c>
+      <c r="O217">
+        <v>3300</v>
+      </c>
+      <c r="P217" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>147</v>
+      </c>
+      <c r="B218" s="5">
+        <v>-34.893833659999999</v>
+      </c>
+      <c r="C218" s="5">
+        <v>138.49006890999999</v>
+      </c>
+      <c r="D218" s="2">
+        <v>45950</v>
+      </c>
+      <c r="H218">
+        <v>18300</v>
+      </c>
+      <c r="I218">
+        <v>18000</v>
+      </c>
+      <c r="O218">
+        <v>18300</v>
+      </c>
+      <c r="P218" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>143</v>
+      </c>
+      <c r="B219" s="5">
+        <v>-34.876918449999998</v>
+      </c>
+      <c r="C219" s="5">
+        <v>138.47996235010001</v>
+      </c>
+      <c r="D219" s="2">
+        <v>45952</v>
+      </c>
+      <c r="H219">
+        <v>22700</v>
+      </c>
+      <c r="I219">
+        <v>19000</v>
+      </c>
+      <c r="O219">
+        <v>22700</v>
+      </c>
+      <c r="P219" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>143</v>
+      </c>
+      <c r="B220" s="5">
+        <v>-34.876918449999998</v>
+      </c>
+      <c r="C220" s="5">
+        <v>138.47996235010001</v>
+      </c>
+      <c r="D220" s="2">
+        <v>45955</v>
+      </c>
+      <c r="H220">
+        <v>22000</v>
+      </c>
+      <c r="I220">
+        <v>17400</v>
+      </c>
+      <c r="O220">
+        <v>22000</v>
+      </c>
+      <c r="P220" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>149</v>
+      </c>
+      <c r="B221" s="5">
+        <v>-34.938314079999998</v>
+      </c>
+      <c r="C221" s="5">
+        <v>138.49654913000001</v>
+      </c>
+      <c r="D221" s="2">
+        <v>45952</v>
+      </c>
+      <c r="H221">
+        <v>7300</v>
+      </c>
+      <c r="I221">
+        <v>3300</v>
+      </c>
+      <c r="O221">
+        <v>7300</v>
+      </c>
+      <c r="P221" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>143</v>
+      </c>
+      <c r="B222" s="5">
+        <v>-34.876918449999998</v>
+      </c>
+      <c r="C222" s="5">
+        <v>138.47996235010001</v>
+      </c>
+      <c r="D222" s="2">
+        <v>45954</v>
+      </c>
+      <c r="H222">
+        <v>14700</v>
+      </c>
+      <c r="I222">
+        <v>13000</v>
+      </c>
+      <c r="O222">
+        <v>14700</v>
+      </c>
+      <c r="P222" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>59</v>
+      </c>
+      <c r="B223">
+        <v>-35.084850000000003</v>
+      </c>
+      <c r="C223">
+        <v>137.74889999999999</v>
+      </c>
+      <c r="D223" s="2">
+        <v>45947</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>649</v>
+      </c>
+      <c r="P223" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>59</v>
+      </c>
+      <c r="B224">
+        <v>-35.084850000000003</v>
+      </c>
+      <c r="C224">
+        <v>137.74889999999999</v>
+      </c>
+      <c r="D224" s="2">
+        <v>45953</v>
+      </c>
+      <c r="F224">
+        <v>56</v>
+      </c>
+      <c r="G224">
+        <v>56</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>444</v>
+      </c>
+      <c r="P224" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>59</v>
+      </c>
+      <c r="B225">
+        <v>-35.084850000000003</v>
+      </c>
+      <c r="C225">
+        <v>137.74889999999999</v>
+      </c>
+      <c r="D225" s="2">
+        <v>45960</v>
+      </c>
+      <c r="F225">
+        <v>56</v>
+      </c>
+      <c r="H225">
+        <v>56</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>306</v>
+      </c>
+      <c r="M225">
+        <v>1889</v>
+      </c>
+      <c r="P225" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>151</v>
+      </c>
+      <c r="B226">
+        <v>-35.799281999999998</v>
+      </c>
+      <c r="C226">
+        <v>137.83188699999999</v>
+      </c>
+      <c r="D226" s="2">
+        <v>45955</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>111</v>
+      </c>
+      <c r="O226">
+        <v>111</v>
+      </c>
+      <c r="P226" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>153</v>
+      </c>
+      <c r="B227">
+        <v>-35.824725999999998</v>
+      </c>
+      <c r="C227">
+        <v>137.75102200000001</v>
+      </c>
+      <c r="D227" s="2">
+        <v>45878</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>1111</v>
+      </c>
+      <c r="O227">
+        <v>1111</v>
+      </c>
+      <c r="P227" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>154</v>
+      </c>
+      <c r="B228">
+        <v>-35.661008000000002</v>
+      </c>
+      <c r="C228">
+        <v>137.630403</v>
+      </c>
+      <c r="D228" s="2">
+        <v>45877</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>2222</v>
+      </c>
+      <c r="O228">
+        <v>2222</v>
+      </c>
+      <c r="P228" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>155</v>
+      </c>
+      <c r="B229">
+        <v>-35.655576000000003</v>
+      </c>
+      <c r="C229">
+        <v>137.641276</v>
+      </c>
+      <c r="D229" s="2">
+        <v>45877</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>278</v>
+      </c>
+      <c r="O229">
+        <v>278</v>
+      </c>
+      <c r="P229" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>154</v>
+      </c>
+      <c r="B230">
+        <v>-35.661008000000002</v>
+      </c>
+      <c r="C230">
+        <v>137.630403</v>
+      </c>
+      <c r="D230" s="2">
+        <v>45876</v>
+      </c>
+      <c r="H230">
+        <v>167</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>389</v>
+      </c>
+      <c r="N230">
+        <v>1778</v>
+      </c>
+      <c r="O230">
+        <v>2334</v>
+      </c>
+      <c r="P230" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>156</v>
+      </c>
+      <c r="B231">
+        <v>-35.571258999999998</v>
+      </c>
+      <c r="C231">
+        <v>137.6004226</v>
+      </c>
+      <c r="D231" s="2">
+        <v>45876</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>2222</v>
+      </c>
+      <c r="O231">
+        <v>2222</v>
+      </c>
+      <c r="P231" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>157</v>
+      </c>
+      <c r="B232">
+        <v>-35.638609789999997</v>
+      </c>
+      <c r="C232">
+        <v>137.62514150000001</v>
+      </c>
+      <c r="D232" s="2">
+        <v>45876</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>3889</v>
+      </c>
+      <c r="O232">
+        <v>3889</v>
+      </c>
+      <c r="P232" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>158</v>
+      </c>
+      <c r="B233">
+        <v>-35.576326000000002</v>
+      </c>
+      <c r="C233">
+        <v>138.60467</v>
+      </c>
+      <c r="D233" s="2">
+        <v>45871</v>
+      </c>
+      <c r="H233">
+        <v>167</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>389</v>
+      </c>
+      <c r="O233">
+        <v>556</v>
+      </c>
+      <c r="P233" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>159</v>
+      </c>
+      <c r="B234">
+        <v>-35.588501999999998</v>
+      </c>
+      <c r="C234">
+        <v>138.60444200000001</v>
+      </c>
+      <c r="D234" s="2">
+        <v>45871</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>56</v>
+      </c>
+      <c r="O234">
+        <v>56</v>
+      </c>
+      <c r="P234" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>160</v>
+      </c>
+      <c r="B235">
+        <v>-35.535169000000003</v>
+      </c>
+      <c r="C235">
+        <v>138.68430599999999</v>
+      </c>
+      <c r="D235" s="2">
+        <v>45876</v>
+      </c>
+      <c r="H235">
+        <v>111</v>
+      </c>
+      <c r="I235">
+        <v>56</v>
+      </c>
+      <c r="N235">
+        <v>278</v>
+      </c>
+      <c r="O235">
+        <v>389</v>
+      </c>
+      <c r="P235" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>95</v>
+      </c>
+      <c r="B236">
+        <v>-35.588650000000001</v>
+      </c>
+      <c r="C236">
+        <v>138.60467800000001</v>
+      </c>
+      <c r="D236" s="2">
+        <v>45877</v>
+      </c>
+      <c r="H236">
+        <v>56</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>222</v>
+      </c>
+      <c r="O236">
+        <v>278</v>
+      </c>
+      <c r="P236" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>161</v>
+      </c>
+      <c r="B237">
+        <v>-35.515300000000003</v>
+      </c>
+      <c r="C237">
+        <v>138.73051799999999</v>
+      </c>
+      <c r="D237" s="2">
+        <v>45879</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="K237" s="6">
+        <v>17111</v>
+      </c>
+      <c r="N237">
+        <v>222</v>
+      </c>
+      <c r="O237" s="6">
+        <v>17333</v>
+      </c>
+      <c r="P237" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>162</v>
+      </c>
+      <c r="B238">
+        <v>-33.182508599999998</v>
+      </c>
+      <c r="C238">
+        <v>138.02047999999999</v>
+      </c>
+      <c r="D238" s="2">
+        <v>45886</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>56</v>
+      </c>
+      <c r="N238">
+        <v>1722</v>
+      </c>
+      <c r="O238">
+        <v>1778</v>
+      </c>
+      <c r="P238" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>158</v>
+      </c>
+      <c r="B239">
+        <v>-35.576326000000002</v>
+      </c>
+      <c r="C239">
+        <v>138.60467</v>
+      </c>
+      <c r="D239" s="2">
+        <v>45889</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>111</v>
+      </c>
+      <c r="N239">
+        <v>222</v>
+      </c>
+      <c r="O239">
+        <v>333</v>
+      </c>
+      <c r="P239" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>159</v>
+      </c>
+      <c r="B240">
+        <v>-35.588501999999998</v>
+      </c>
+      <c r="C240">
+        <v>138.60444200000001</v>
+      </c>
+      <c r="D240" s="2">
+        <v>45889</v>
+      </c>
+      <c r="G240">
+        <v>111</v>
+      </c>
+      <c r="H240">
+        <v>56</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>611</v>
+      </c>
+      <c r="O240">
+        <v>778</v>
+      </c>
+      <c r="P240" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>163</v>
+      </c>
+      <c r="B241">
+        <v>-34.979653900000002</v>
+      </c>
+      <c r="C241">
+        <v>138.50955999999999</v>
+      </c>
+      <c r="D241" s="2">
+        <v>45930</v>
+      </c>
+      <c r="G241">
+        <v>56</v>
+      </c>
+      <c r="H241">
+        <v>3222</v>
+      </c>
+      <c r="I241">
+        <v>1222</v>
+      </c>
+      <c r="K241">
+        <v>56</v>
+      </c>
+      <c r="N241">
+        <v>2833</v>
+      </c>
+      <c r="O241">
+        <v>6167</v>
+      </c>
+      <c r="P241" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>163</v>
+      </c>
+      <c r="B242">
+        <v>-34.979653900000002</v>
+      </c>
+      <c r="C242">
+        <v>138.50955999999999</v>
+      </c>
+      <c r="D242" s="2">
+        <v>45930</v>
+      </c>
+      <c r="H242">
+        <v>8111</v>
+      </c>
+      <c r="I242">
+        <v>1333</v>
+      </c>
+      <c r="K242">
+        <v>111</v>
+      </c>
+      <c r="N242">
+        <v>5778</v>
+      </c>
+      <c r="O242">
+        <v>14000</v>
+      </c>
+      <c r="P242" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>163</v>
+      </c>
+      <c r="B243">
+        <v>-34.979653900000002</v>
+      </c>
+      <c r="C243">
+        <v>138.50955999999999</v>
+      </c>
+      <c r="D243" s="2">
+        <v>45931</v>
+      </c>
+      <c r="H243">
+        <v>5166</v>
+      </c>
+      <c r="I243">
+        <v>1833</v>
+      </c>
+      <c r="K243">
+        <v>222</v>
+      </c>
+      <c r="N243">
+        <v>667</v>
+      </c>
+      <c r="O243">
+        <v>6055</v>
+      </c>
+      <c r="P243" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>157</v>
+      </c>
+      <c r="B244">
+        <v>-35.638609789999997</v>
+      </c>
+      <c r="C244">
+        <v>137.62514150000001</v>
+      </c>
+      <c r="D244" s="2">
+        <v>45947</v>
+      </c>
+      <c r="F244">
+        <v>389</v>
+      </c>
+      <c r="H244">
+        <v>167</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>222</v>
+      </c>
+      <c r="M244">
+        <v>1944</v>
+      </c>
+      <c r="N244">
+        <v>1889</v>
+      </c>
+      <c r="O244">
+        <v>4611</v>
+      </c>
+      <c r="P244" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>155</v>
+      </c>
+      <c r="B245">
+        <v>-35.655576000000003</v>
+      </c>
+      <c r="C245">
+        <v>137.641276</v>
+      </c>
+      <c r="D245" s="2">
+        <v>45947</v>
+      </c>
+      <c r="H245">
+        <v>111</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>111</v>
+      </c>
+      <c r="M245">
+        <v>56</v>
+      </c>
+      <c r="N245">
+        <v>1390</v>
+      </c>
+      <c r="O245">
+        <v>1668</v>
+      </c>
+      <c r="P245" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>142</v>
+      </c>
+      <c r="B246">
+        <v>-35.786764689999998</v>
+      </c>
+      <c r="C246">
+        <v>137.77344500000001</v>
+      </c>
+      <c r="D246" s="2">
+        <v>45948</v>
+      </c>
+      <c r="H246">
+        <v>111</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>1889</v>
+      </c>
+      <c r="N246">
+        <v>1223</v>
+      </c>
+      <c r="O246">
+        <v>3223</v>
+      </c>
+      <c r="P246" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>153</v>
+      </c>
+      <c r="B247">
+        <v>-35.824725999999998</v>
+      </c>
+      <c r="C247">
+        <v>137.75102200000001</v>
+      </c>
+      <c r="D247" s="2">
+        <v>45949</v>
+      </c>
+      <c r="H247">
+        <v>56</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>111</v>
+      </c>
+      <c r="M247">
+        <v>333</v>
+      </c>
+      <c r="N247">
+        <v>889</v>
+      </c>
+      <c r="O247">
+        <v>1389</v>
+      </c>
+      <c r="P247" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>164</v>
+      </c>
+      <c r="B248">
+        <v>-35.411457800000001</v>
+      </c>
+      <c r="C248">
+        <v>138.3276611</v>
+      </c>
+      <c r="D248" s="2">
+        <v>45952</v>
+      </c>
+      <c r="F248">
+        <v>278</v>
+      </c>
+      <c r="H248">
+        <v>667</v>
+      </c>
+      <c r="I248">
+        <v>389</v>
+      </c>
+      <c r="K248">
+        <v>1500</v>
+      </c>
+      <c r="M248">
+        <v>1556</v>
+      </c>
+      <c r="N248">
+        <v>2833</v>
+      </c>
+      <c r="O248">
+        <v>6834</v>
+      </c>
+      <c r="P248" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>165</v>
+      </c>
+      <c r="B249">
+        <v>-35.411457800000001</v>
+      </c>
+      <c r="C249">
+        <v>138.3276611</v>
+      </c>
+      <c r="D249" s="2">
+        <v>45952</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>444</v>
+      </c>
+      <c r="M249">
+        <v>111</v>
+      </c>
+      <c r="N249">
+        <v>722</v>
+      </c>
+      <c r="O249">
+        <v>1277</v>
+      </c>
+      <c r="P249" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>166</v>
+      </c>
+      <c r="B250">
+        <v>-35.575156999999997</v>
+      </c>
+      <c r="C250">
+        <v>138.64386999999999</v>
+      </c>
+      <c r="D250" s="2">
+        <v>45959</v>
+      </c>
+      <c r="H250">
+        <v>111</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>111</v>
+      </c>
+      <c r="M250">
+        <v>167</v>
+      </c>
+      <c r="N250">
+        <v>833</v>
+      </c>
+      <c r="O250">
+        <v>1222</v>
+      </c>
+      <c r="P250" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>89</v>
+      </c>
+      <c r="B251">
+        <v>-35.581124000000003</v>
+      </c>
+      <c r="C251">
+        <v>138.60879700000001</v>
+      </c>
+      <c r="D251" s="2">
+        <v>45959</v>
+      </c>
+      <c r="H251">
+        <v>111</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>56</v>
+      </c>
+      <c r="M251">
+        <v>222</v>
+      </c>
+      <c r="N251">
+        <v>56</v>
+      </c>
+      <c r="O251">
+        <v>445</v>
+      </c>
+      <c r="P251" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0723F32C-694B-4A02-8F7B-5303AED88ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2851A93-BDF7-45D0-971E-EE5201F9EEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="184">
   <si>
     <t>Date</t>
   </si>
@@ -599,6 +599,15 @@
   </si>
   <si>
     <t>Edithburgh Swimming Pool</t>
+  </si>
+  <si>
+    <t>Hallet Cove</t>
+  </si>
+  <si>
+    <t>HANC5233</t>
+  </si>
+  <si>
+    <t>Kent Reserve Beach Victor Harbor</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:P268"/>
+  <dimension ref="A1:P276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A269" sqref="A269"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D274" sqref="D274:D276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10451,6 +10460,292 @@
         <v>150</v>
       </c>
     </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>37</v>
+      </c>
+      <c r="B269">
+        <v>-34.289369999999998</v>
+      </c>
+      <c r="C269">
+        <v>138.01242999999999</v>
+      </c>
+      <c r="D269" s="2">
+        <v>45968</v>
+      </c>
+      <c r="F269">
+        <v>56</v>
+      </c>
+      <c r="G269">
+        <v>278</v>
+      </c>
+      <c r="H269">
+        <v>611</v>
+      </c>
+      <c r="I269">
+        <v>389</v>
+      </c>
+      <c r="J269">
+        <v>667</v>
+      </c>
+      <c r="K269">
+        <v>1778</v>
+      </c>
+      <c r="L269">
+        <v>111</v>
+      </c>
+      <c r="M269">
+        <v>833</v>
+      </c>
+      <c r="N269">
+        <v>111</v>
+      </c>
+      <c r="O269">
+        <v>4444</v>
+      </c>
+      <c r="P269" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>79</v>
+      </c>
+      <c r="B270">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C270">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D270" s="2">
+        <v>45971</v>
+      </c>
+      <c r="H270">
+        <v>3</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>42</v>
+      </c>
+      <c r="N270">
+        <v>6</v>
+      </c>
+      <c r="O270">
+        <v>51</v>
+      </c>
+      <c r="P270" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>83</v>
+      </c>
+      <c r="B271">
+        <v>-34.837600000000002</v>
+      </c>
+      <c r="C271">
+        <v>138.47788</v>
+      </c>
+      <c r="D271" s="2">
+        <v>45971</v>
+      </c>
+      <c r="H271">
+        <v>2.5</v>
+      </c>
+      <c r="I271">
+        <v>2.5</v>
+      </c>
+      <c r="K271">
+        <v>180</v>
+      </c>
+      <c r="N271">
+        <v>12.5</v>
+      </c>
+      <c r="O271">
+        <v>195</v>
+      </c>
+      <c r="P271" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>86</v>
+      </c>
+      <c r="B272">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C272">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D272" s="2">
+        <v>45971</v>
+      </c>
+      <c r="H272">
+        <v>8</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>18.75</v>
+      </c>
+      <c r="N272">
+        <v>16.25</v>
+      </c>
+      <c r="O272">
+        <v>43.125</v>
+      </c>
+      <c r="P272" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>181</v>
+      </c>
+      <c r="B273">
+        <v>-35.078539999999997</v>
+      </c>
+      <c r="C273">
+        <v>138.49587</v>
+      </c>
+      <c r="D273" s="2">
+        <v>45971</v>
+      </c>
+      <c r="H273">
+        <v>17</v>
+      </c>
+      <c r="I273">
+        <v>10</v>
+      </c>
+      <c r="K273">
+        <v>155</v>
+      </c>
+      <c r="N273">
+        <v>0</v>
+      </c>
+      <c r="O273">
+        <v>172</v>
+      </c>
+      <c r="P273" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>183</v>
+      </c>
+      <c r="B274">
+        <v>-35.563558</v>
+      </c>
+      <c r="C274">
+        <v>138.61283299999999</v>
+      </c>
+      <c r="D274" s="2">
+        <v>45970</v>
+      </c>
+      <c r="G274">
+        <v>56</v>
+      </c>
+      <c r="H274">
+        <v>333</v>
+      </c>
+      <c r="I274">
+        <v>222</v>
+      </c>
+      <c r="J274">
+        <v>56</v>
+      </c>
+      <c r="K274">
+        <v>389</v>
+      </c>
+      <c r="M274">
+        <v>167</v>
+      </c>
+      <c r="N274">
+        <v>722</v>
+      </c>
+      <c r="O274">
+        <v>1723</v>
+      </c>
+      <c r="P274" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>122</v>
+      </c>
+      <c r="B275">
+        <v>-35.570839499999998</v>
+      </c>
+      <c r="C275">
+        <v>138.60133999999999</v>
+      </c>
+      <c r="D275" s="2">
+        <v>45972</v>
+      </c>
+      <c r="G275">
+        <v>222</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>167</v>
+      </c>
+      <c r="M275">
+        <v>111</v>
+      </c>
+      <c r="N275">
+        <v>500</v>
+      </c>
+      <c r="O275">
+        <v>1000</v>
+      </c>
+      <c r="P275" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>95</v>
+      </c>
+      <c r="B276">
+        <v>-35.58858</v>
+      </c>
+      <c r="C276">
+        <v>138.60474600000001</v>
+      </c>
+      <c r="D276" s="2">
+        <v>45974</v>
+      </c>
+      <c r="F276">
+        <v>111</v>
+      </c>
+      <c r="H276">
+        <v>167</v>
+      </c>
+      <c r="I276">
+        <v>111</v>
+      </c>
+      <c r="M276">
+        <v>111</v>
+      </c>
+      <c r="N276">
+        <v>444</v>
+      </c>
+      <c r="O276">
+        <v>833</v>
+      </c>
+      <c r="P276" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P268">
     <sortCondition ref="D2:D268"/>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1675510\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2851A93-BDF7-45D0-971E-EE5201F9EEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E24B66-E33D-401A-94BB-1EF37AD3ED7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="188">
   <si>
     <t>Date</t>
   </si>
@@ -609,6 +609,18 @@
   <si>
     <t>Kent Reserve Beach Victor Harbor</t>
   </si>
+  <si>
+    <t>Wattle Bay Carpark</t>
+  </si>
+  <si>
+    <t>Emu Bay, Kangaroo Island, bloom sample 1</t>
+  </si>
+  <si>
+    <t>Emu Bay, Kangaroo Island, bloom sample 2</t>
+  </si>
+  <si>
+    <t>Emu Bay, Kangaroo Island, bloom sample 3</t>
+  </si>
 </sst>
 </file>
 
@@ -617,7 +629,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,6 +648,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1009,33 +1027,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:P276"/>
+  <dimension ref="A1:P281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D274" sqref="D274:D276"/>
+    <sheetView tabSelected="1" topLeftCell="A258" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B281" sqref="B281"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="39.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="21.36328125" customWidth="1"/>
+    <col min="11" max="11" width="19.453125" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.21875" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="34.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1085,7 +1103,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1114,7 +1132,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +1170,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1193,7 +1211,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1228,7 +1246,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1272,7 +1290,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1316,7 +1334,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1354,7 +1372,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1395,7 +1413,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -1421,7 +1439,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -1447,7 +1465,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -1473,7 +1491,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -1499,7 +1517,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -1525,7 +1543,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -1551,7 +1569,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -1577,7 +1595,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -1603,7 +1621,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -1629,7 +1647,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1673,7 +1691,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1705,7 +1723,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1737,7 +1755,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -1763,7 +1781,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1807,7 +1825,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1854,7 +1872,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1886,7 +1904,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1927,7 +1945,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1971,7 +1989,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2012,7 +2030,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2050,7 +2068,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -2082,7 +2100,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -2108,7 +2126,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2152,7 +2170,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -2184,7 +2202,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -2213,7 +2231,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -2254,7 +2272,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2298,7 +2316,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -2342,7 +2360,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2383,7 +2401,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2433,7 +2451,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -2480,7 +2498,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -2512,7 +2530,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -2547,7 +2565,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -2576,7 +2594,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -2602,7 +2620,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -2631,7 +2649,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -2660,7 +2678,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -2689,7 +2707,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -2718,7 +2736,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2747,7 +2765,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -2788,7 +2806,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>104</v>
       </c>
@@ -2826,7 +2844,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -2855,7 +2873,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -2893,7 +2911,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -2925,7 +2943,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -2957,7 +2975,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -2989,7 +3007,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -3021,7 +3039,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -3059,7 +3077,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -3097,7 +3115,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -3138,7 +3156,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -3176,7 +3194,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -3214,7 +3232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -3246,7 +3264,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -3278,7 +3296,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>111</v>
       </c>
@@ -3310,7 +3328,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -3342,7 +3360,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>113</v>
       </c>
@@ -3374,7 +3392,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>114</v>
       </c>
@@ -3406,7 +3424,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>106</v>
       </c>
@@ -3438,7 +3456,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>115</v>
       </c>
@@ -3470,7 +3488,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -3514,7 +3532,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -3556,7 +3574,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -3598,7 +3616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -3640,7 +3658,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -3684,7 +3702,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -3728,7 +3746,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -3757,7 +3775,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -3786,7 +3804,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -3815,7 +3833,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -3841,7 +3859,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -3885,7 +3903,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -3929,7 +3947,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -3976,7 +3994,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -4020,7 +4038,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -4066,7 +4084,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -4098,7 +4116,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>156</v>
       </c>
@@ -4124,7 +4142,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>157</v>
       </c>
@@ -4150,7 +4168,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>160</v>
       </c>
@@ -4179,7 +4197,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -4226,7 +4244,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>35</v>
       </c>
@@ -4267,7 +4285,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -4299,7 +4317,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -4341,7 +4359,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>154</v>
       </c>
@@ -4367,7 +4385,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>155</v>
       </c>
@@ -4393,7 +4411,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -4422,7 +4440,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>141</v>
       </c>
@@ -4448,7 +4466,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>142</v>
       </c>
@@ -4480,7 +4498,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>153</v>
       </c>
@@ -4506,7 +4524,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>161</v>
       </c>
@@ -4535,7 +4553,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -4579,7 +4597,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -4614,7 +4632,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>39</v>
       </c>
@@ -4655,7 +4673,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -4693,7 +4711,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>41</v>
       </c>
@@ -4731,7 +4749,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -4772,7 +4790,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>93</v>
       </c>
@@ -4801,7 +4819,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -4833,7 +4851,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -4877,7 +4895,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>87</v>
       </c>
@@ -4909,7 +4927,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>102</v>
       </c>
@@ -4938,7 +4956,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>88</v>
       </c>
@@ -4970,7 +4988,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -4996,7 +5014,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -5025,7 +5043,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>91</v>
       </c>
@@ -5051,7 +5069,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -5095,7 +5113,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>45</v>
       </c>
@@ -5139,7 +5157,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>46</v>
       </c>
@@ -5180,7 +5198,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>47</v>
       </c>
@@ -5218,7 +5236,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -5259,7 +5277,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>49</v>
       </c>
@@ -5297,7 +5315,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -5344,7 +5362,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>37</v>
       </c>
@@ -5385,7 +5403,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>77</v>
       </c>
@@ -5417,7 +5435,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>80</v>
       </c>
@@ -5449,7 +5467,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -5481,7 +5499,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>118</v>
       </c>
@@ -5510,7 +5528,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>119</v>
       </c>
@@ -5536,7 +5554,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>81</v>
       </c>
@@ -5568,7 +5586,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>162</v>
       </c>
@@ -5597,7 +5615,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -5629,7 +5647,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>158</v>
       </c>
@@ -5658,7 +5676,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>159</v>
       </c>
@@ -5690,7 +5708,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>126</v>
       </c>
@@ -5722,7 +5740,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>127</v>
       </c>
@@ -5763,7 +5781,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>128</v>
       </c>
@@ -5801,7 +5819,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>129</v>
       </c>
@@ -5839,7 +5857,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>133</v>
       </c>
@@ -5880,7 +5898,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>134</v>
       </c>
@@ -5921,7 +5939,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>135</v>
       </c>
@@ -5959,7 +5977,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>136</v>
       </c>
@@ -5997,7 +6015,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>137</v>
       </c>
@@ -6032,7 +6050,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>138</v>
       </c>
@@ -6067,7 +6085,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>139</v>
       </c>
@@ -6105,7 +6123,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>140</v>
       </c>
@@ -6140,7 +6158,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -6181,7 +6199,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>120</v>
       </c>
@@ -6219,7 +6237,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>121</v>
       </c>
@@ -6254,7 +6272,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>79</v>
       </c>
@@ -6286,7 +6304,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>83</v>
       </c>
@@ -6318,7 +6336,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>86</v>
       </c>
@@ -6350,7 +6368,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -6391,7 +6409,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>50</v>
       </c>
@@ -6429,7 +6447,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>27</v>
       </c>
@@ -6464,7 +6482,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>37</v>
       </c>
@@ -6505,7 +6523,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>79</v>
       </c>
@@ -6537,7 +6555,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>132</v>
       </c>
@@ -6569,7 +6587,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>83</v>
       </c>
@@ -6601,7 +6619,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>86</v>
       </c>
@@ -6633,7 +6651,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>51</v>
       </c>
@@ -6671,7 +6689,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>122</v>
       </c>
@@ -6703,7 +6721,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>18</v>
       </c>
@@ -6744,7 +6762,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>123</v>
       </c>
@@ -6773,7 +6791,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>79</v>
       </c>
@@ -6805,7 +6823,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>83</v>
       </c>
@@ -6837,7 +6855,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>86</v>
       </c>
@@ -6869,7 +6887,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>52</v>
       </c>
@@ -6913,7 +6931,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>53</v>
       </c>
@@ -6957,7 +6975,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -6998,7 +7016,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>82</v>
       </c>
@@ -7030,7 +7048,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>82</v>
       </c>
@@ -7062,7 +7080,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>85</v>
       </c>
@@ -7094,7 +7112,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>85</v>
       </c>
@@ -7126,7 +7144,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>54</v>
       </c>
@@ -7164,7 +7182,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>55</v>
       </c>
@@ -7202,7 +7220,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>56</v>
       </c>
@@ -7240,7 +7258,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>57</v>
       </c>
@@ -7275,7 +7293,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>58</v>
       </c>
@@ -7316,7 +7334,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>59</v>
       </c>
@@ -7351,7 +7369,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -7392,7 +7410,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -7433,7 +7451,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>60</v>
       </c>
@@ -7474,7 +7492,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>37</v>
       </c>
@@ -7515,7 +7533,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>132</v>
       </c>
@@ -7547,7 +7565,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>61</v>
       </c>
@@ -7588,7 +7606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>62</v>
       </c>
@@ -7626,7 +7644,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>63</v>
       </c>
@@ -7664,7 +7682,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>95</v>
       </c>
@@ -7693,7 +7711,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>178</v>
       </c>
@@ -7734,7 +7752,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>79</v>
       </c>
@@ -7766,7 +7784,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>83</v>
       </c>
@@ -7798,7 +7816,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>86</v>
       </c>
@@ -7830,7 +7848,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -7871,7 +7889,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>131</v>
       </c>
@@ -7903,7 +7921,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>84</v>
       </c>
@@ -7935,7 +7953,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -7979,7 +7997,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>87</v>
       </c>
@@ -8008,7 +8026,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>101</v>
       </c>
@@ -8046,7 +8064,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>88</v>
       </c>
@@ -8090,7 +8108,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>124</v>
       </c>
@@ -8128,7 +8146,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>125</v>
       </c>
@@ -8157,7 +8175,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>90</v>
       </c>
@@ -8189,7 +8207,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>91</v>
       </c>
@@ -8224,7 +8242,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>25</v>
       </c>
@@ -8271,7 +8289,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>79</v>
       </c>
@@ -8303,7 +8321,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>131</v>
       </c>
@@ -8335,7 +8353,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>86</v>
       </c>
@@ -8367,7 +8385,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>37</v>
       </c>
@@ -8405,7 +8423,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>163</v>
       </c>
@@ -8440,7 +8458,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>163</v>
       </c>
@@ -8472,7 +8490,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>163</v>
       </c>
@@ -8504,7 +8522,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>143</v>
       </c>
@@ -8530,7 +8548,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>145</v>
       </c>
@@ -8556,7 +8574,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>146</v>
       </c>
@@ -8582,7 +8600,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>147</v>
       </c>
@@ -8608,7 +8626,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>37</v>
       </c>
@@ -8646,7 +8664,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>143</v>
       </c>
@@ -8672,7 +8690,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>145</v>
       </c>
@@ -8698,7 +8716,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>146</v>
       </c>
@@ -8724,7 +8742,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>147</v>
       </c>
@@ -8750,7 +8768,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>18</v>
       </c>
@@ -8794,7 +8812,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>79</v>
       </c>
@@ -8826,7 +8844,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>131</v>
       </c>
@@ -8859,7 +8877,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>83</v>
       </c>
@@ -8892,7 +8910,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>86</v>
       </c>
@@ -8925,7 +8943,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>143</v>
       </c>
@@ -8951,7 +8969,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>37</v>
       </c>
@@ -8995,7 +9013,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>148</v>
       </c>
@@ -9021,7 +9039,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229" s="7" t="s">
         <v>170</v>
       </c>
@@ -9071,7 +9089,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>79</v>
       </c>
@@ -9103,7 +9121,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>83</v>
       </c>
@@ -9135,7 +9153,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>86</v>
       </c>
@@ -9167,7 +9185,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>59</v>
       </c>
@@ -9193,7 +9211,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>157</v>
       </c>
@@ -9231,7 +9249,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>155</v>
       </c>
@@ -9266,7 +9284,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>37</v>
       </c>
@@ -9310,7 +9328,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>142</v>
       </c>
@@ -9342,7 +9360,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>94</v>
       </c>
@@ -9377,7 +9395,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>153</v>
       </c>
@@ -9412,7 +9430,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>143</v>
       </c>
@@ -9438,7 +9456,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>146</v>
       </c>
@@ -9464,7 +9482,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>147</v>
       </c>
@@ -9490,7 +9508,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>143</v>
       </c>
@@ -9516,7 +9534,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>149</v>
       </c>
@@ -9542,7 +9560,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>164</v>
       </c>
@@ -9580,7 +9598,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>165</v>
       </c>
@@ -9612,7 +9630,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>59</v>
       </c>
@@ -9644,7 +9662,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248" s="7" t="s">
         <v>169</v>
       </c>
@@ -9678,7 +9696,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>143</v>
       </c>
@@ -9704,7 +9722,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>179</v>
       </c>
@@ -9739,7 +9757,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>37</v>
       </c>
@@ -9786,7 +9804,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>143</v>
       </c>
@@ -9812,7 +9830,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>151</v>
       </c>
@@ -9838,7 +9856,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>38</v>
       </c>
@@ -9885,7 +9903,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>166</v>
       </c>
@@ -9920,7 +9938,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>89</v>
       </c>
@@ -9955,7 +9973,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257" s="7" t="s">
         <v>167</v>
       </c>
@@ -10003,7 +10021,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>90</v>
       </c>
@@ -10032,7 +10050,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>176</v>
       </c>
@@ -10070,7 +10088,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>177</v>
       </c>
@@ -10099,7 +10117,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>59</v>
       </c>
@@ -10134,7 +10152,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>37</v>
       </c>
@@ -10181,7 +10199,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A263" s="7" t="s">
         <v>171</v>
       </c>
@@ -10227,7 +10245,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A264" s="7" t="s">
         <v>173</v>
       </c>
@@ -10274,7 +10292,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265" s="7" t="s">
         <v>174</v>
       </c>
@@ -10321,7 +10339,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266" s="7" t="s">
         <v>172</v>
       </c>
@@ -10369,7 +10387,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267" s="7" t="s">
         <v>175</v>
       </c>
@@ -10416,7 +10434,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>180</v>
       </c>
@@ -10460,7 +10478,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>37</v>
       </c>
@@ -10507,249 +10525,488 @@
         <v>76</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
+        <v>183</v>
+      </c>
+      <c r="B270">
+        <v>-35.563558</v>
+      </c>
+      <c r="C270">
+        <v>138.61283299999999</v>
+      </c>
+      <c r="D270" s="2">
+        <v>45970</v>
+      </c>
+      <c r="G270">
+        <v>56</v>
+      </c>
+      <c r="H270">
+        <v>333</v>
+      </c>
+      <c r="I270">
+        <v>222</v>
+      </c>
+      <c r="J270">
+        <v>56</v>
+      </c>
+      <c r="K270">
+        <v>389</v>
+      </c>
+      <c r="M270">
+        <v>167</v>
+      </c>
+      <c r="N270">
+        <v>722</v>
+      </c>
+      <c r="O270">
+        <v>1723</v>
+      </c>
+      <c r="P270" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>184</v>
+      </c>
+      <c r="B271">
+        <v>-35.135489999999997</v>
+      </c>
+      <c r="C271">
+        <v>137.7167</v>
+      </c>
+      <c r="D271" s="2">
+        <v>45970</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>84</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>1000</v>
+      </c>
+      <c r="M271">
+        <v>7778</v>
+      </c>
+      <c r="N271">
+        <v>84</v>
+      </c>
+      <c r="O271">
+        <v>8946</v>
+      </c>
+      <c r="P271" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
         <v>79</v>
       </c>
-      <c r="B270">
+      <c r="B272">
         <v>-34.804169999999999</v>
       </c>
-      <c r="C270">
+      <c r="C272">
         <v>138.53970000000001</v>
-      </c>
-      <c r="D270" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H270">
-        <v>3</v>
-      </c>
-      <c r="I270">
-        <v>0</v>
-      </c>
-      <c r="K270">
-        <v>42</v>
-      </c>
-      <c r="N270">
-        <v>6</v>
-      </c>
-      <c r="O270">
-        <v>51</v>
-      </c>
-      <c r="P270" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>83</v>
-      </c>
-      <c r="B271">
-        <v>-34.837600000000002</v>
-      </c>
-      <c r="C271">
-        <v>138.47788</v>
-      </c>
-      <c r="D271" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H271">
-        <v>2.5</v>
-      </c>
-      <c r="I271">
-        <v>2.5</v>
-      </c>
-      <c r="K271">
-        <v>180</v>
-      </c>
-      <c r="N271">
-        <v>12.5</v>
-      </c>
-      <c r="O271">
-        <v>195</v>
-      </c>
-      <c r="P271" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>86</v>
-      </c>
-      <c r="B272">
-        <v>-34.873939999999997</v>
-      </c>
-      <c r="C272">
-        <v>138.48820000000001</v>
       </c>
       <c r="D272" s="2">
         <v>45971</v>
       </c>
       <c r="H272">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I272">
         <v>0</v>
       </c>
       <c r="K272">
-        <v>18.75</v>
+        <v>42</v>
       </c>
       <c r="N272">
-        <v>16.25</v>
+        <v>6</v>
       </c>
       <c r="O272">
-        <v>43.125</v>
+        <v>51</v>
       </c>
       <c r="P272" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="B273">
-        <v>-35.078539999999997</v>
+        <v>-34.837600000000002</v>
       </c>
       <c r="C273">
-        <v>138.49587</v>
+        <v>138.47788</v>
       </c>
       <c r="D273" s="2">
         <v>45971</v>
       </c>
       <c r="H273">
+        <v>2.5</v>
+      </c>
+      <c r="I273">
+        <v>2.5</v>
+      </c>
+      <c r="K273">
+        <v>180</v>
+      </c>
+      <c r="N273">
+        <v>12.5</v>
+      </c>
+      <c r="O273">
+        <v>195</v>
+      </c>
+      <c r="P273" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>86</v>
+      </c>
+      <c r="B274">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C274">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D274" s="2">
+        <v>45971</v>
+      </c>
+      <c r="H274">
+        <v>8</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>18.75</v>
+      </c>
+      <c r="N274">
+        <v>16.25</v>
+      </c>
+      <c r="O274">
+        <v>43.125</v>
+      </c>
+      <c r="P274" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>181</v>
+      </c>
+      <c r="B275">
+        <v>-35.078539999999997</v>
+      </c>
+      <c r="C275">
+        <v>138.49587</v>
+      </c>
+      <c r="D275" s="2">
+        <v>45971</v>
+      </c>
+      <c r="H275">
         <v>17</v>
       </c>
-      <c r="I273">
+      <c r="I275">
         <v>10</v>
       </c>
-      <c r="K273">
+      <c r="K275">
         <v>155</v>
       </c>
-      <c r="N273">
-        <v>0</v>
-      </c>
-      <c r="O273">
+      <c r="N275">
+        <v>0</v>
+      </c>
+      <c r="O275">
         <v>172</v>
       </c>
-      <c r="P273" t="s">
+      <c r="P275" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>183</v>
-      </c>
-      <c r="B274">
-        <v>-35.563558</v>
-      </c>
-      <c r="C274">
-        <v>138.61283299999999</v>
-      </c>
-      <c r="D274" s="2">
-        <v>45970</v>
-      </c>
-      <c r="G274">
-        <v>56</v>
-      </c>
-      <c r="H274">
-        <v>333</v>
-      </c>
-      <c r="I274">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>59</v>
+      </c>
+      <c r="B276">
+        <v>-35.084850000000003</v>
+      </c>
+      <c r="C276">
+        <v>137.74889999999999</v>
+      </c>
+      <c r="D276" s="2">
+        <v>45941</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>56</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
         <v>222</v>
       </c>
-      <c r="J274">
-        <v>56</v>
-      </c>
-      <c r="K274">
-        <v>389</v>
-      </c>
-      <c r="M274">
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>1444</v>
+      </c>
+      <c r="L276">
+        <v>56</v>
+      </c>
+      <c r="M276">
+        <v>3278</v>
+      </c>
+      <c r="O276">
+        <v>5056</v>
+      </c>
+      <c r="P276" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>122</v>
+      </c>
+      <c r="B277">
+        <v>-35.570839499999998</v>
+      </c>
+      <c r="C277">
+        <v>138.60133999999999</v>
+      </c>
+      <c r="D277" s="2">
+        <v>45972</v>
+      </c>
+      <c r="G277">
+        <v>222</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="K277">
         <v>167</v>
       </c>
-      <c r="N274">
-        <v>722</v>
-      </c>
-      <c r="O274">
-        <v>1723</v>
-      </c>
-      <c r="P274" t="s">
+      <c r="M277">
+        <v>111</v>
+      </c>
+      <c r="N277">
+        <v>500</v>
+      </c>
+      <c r="O277">
+        <v>1000</v>
+      </c>
+      <c r="P277" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>122</v>
-      </c>
-      <c r="B275">
-        <v>-35.570839499999998</v>
-      </c>
-      <c r="C275">
-        <v>138.60133999999999</v>
-      </c>
-      <c r="D275" s="2">
-        <v>45972</v>
-      </c>
-      <c r="G275">
-        <v>222</v>
-      </c>
-      <c r="I275">
-        <v>0</v>
-      </c>
-      <c r="K275">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>95</v>
+      </c>
+      <c r="B278">
+        <v>-35.58858</v>
+      </c>
+      <c r="C278">
+        <v>138.60474600000001</v>
+      </c>
+      <c r="D278" s="2">
+        <v>45974</v>
+      </c>
+      <c r="F278">
+        <v>111</v>
+      </c>
+      <c r="H278">
         <v>167</v>
       </c>
-      <c r="M275">
+      <c r="I278">
         <v>111</v>
       </c>
-      <c r="N275">
-        <v>500</v>
-      </c>
-      <c r="O275">
-        <v>1000</v>
-      </c>
-      <c r="P275" t="s">
+      <c r="M278">
+        <v>111</v>
+      </c>
+      <c r="N278">
+        <v>444</v>
+      </c>
+      <c r="O278">
+        <v>833</v>
+      </c>
+      <c r="P278" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>95</v>
-      </c>
-      <c r="B276">
-        <v>-35.58858</v>
-      </c>
-      <c r="C276">
-        <v>138.60474600000001</v>
-      </c>
-      <c r="D276" s="2">
-        <v>45974</v>
-      </c>
-      <c r="F276">
-        <v>111</v>
-      </c>
-      <c r="H276">
-        <v>167</v>
-      </c>
-      <c r="I276">
-        <v>111</v>
-      </c>
-      <c r="M276">
-        <v>111</v>
-      </c>
-      <c r="N276">
-        <v>444</v>
-      </c>
-      <c r="O276">
-        <v>833</v>
-      </c>
-      <c r="P276" t="s">
-        <v>130</v>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>185</v>
+      </c>
+      <c r="B279">
+        <v>-35.593769999999999</v>
+      </c>
+      <c r="C279">
+        <v>137.53183000000001</v>
+      </c>
+      <c r="D279" s="2">
+        <v>45977</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>62556</v>
+      </c>
+      <c r="I279">
+        <v>62556</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279">
+        <v>0</v>
+      </c>
+      <c r="O279">
+        <v>62556</v>
+      </c>
+      <c r="P279" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>186</v>
+      </c>
+      <c r="B280">
+        <v>-35.594769999999997</v>
+      </c>
+      <c r="C280">
+        <v>137.53183000000001</v>
+      </c>
+      <c r="D280" s="2">
+        <v>45977</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>45667</v>
+      </c>
+      <c r="I280">
+        <v>45667</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>0</v>
+      </c>
+      <c r="O280">
+        <v>45667</v>
+      </c>
+      <c r="P280" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>187</v>
+      </c>
+      <c r="B281">
+        <v>-35.595770000000002</v>
+      </c>
+      <c r="C281">
+        <v>137.53183000000001</v>
+      </c>
+      <c r="D281" s="2">
+        <v>45977</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>23222</v>
+      </c>
+      <c r="I281">
+        <v>23222</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>0</v>
+      </c>
+      <c r="O281">
+        <v>23222</v>
+      </c>
+      <c r="P281" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P268">
     <sortCondition ref="D2:D268"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1675510\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E24B66-E33D-401A-94BB-1EF37AD3ED7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1991422-D6E8-4796-B950-C993487E7C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:P281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A258" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B281" sqref="B281"/>
+      <selection activeCell="C273" sqref="C273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10907,7 +10907,7 @@
         <v>186</v>
       </c>
       <c r="B280">
-        <v>-35.594769999999997</v>
+        <v>-35.592770000000002</v>
       </c>
       <c r="C280">
         <v>137.53183000000001</v>
@@ -10957,7 +10957,7 @@
         <v>187</v>
       </c>
       <c r="B281">
-        <v>-35.595770000000002</v>
+        <v>-35.592770000000002</v>
       </c>
       <c r="C281">
         <v>137.53183000000001</v>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1675510\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1991422-D6E8-4796-B950-C993487E7C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7FF892-91E9-47AA-AA73-DA51D1BF9014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:P281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A258" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C273" sqref="C273"/>
+      <selection activeCell="D280" sqref="D280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10957,7 +10957,7 @@
         <v>187</v>
       </c>
       <c r="B281">
-        <v>-35.592770000000002</v>
+        <v>-35.591769999999997</v>
       </c>
       <c r="C281">
         <v>137.53183000000001</v>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1675510\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7FF892-91E9-47AA-AA73-DA51D1BF9014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662518EB-45D0-4D67-9E23-FA0CB2C1AD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="194">
   <si>
     <t>Date</t>
   </si>
@@ -620,6 +620,24 @@
   </si>
   <si>
     <t>Emu Bay, Kangaroo Island, bloom sample 3</t>
+  </si>
+  <si>
+    <t>Dump Beach</t>
+  </si>
+  <si>
+    <t>ROWA5211</t>
+  </si>
+  <si>
+    <t>Middleton Bay</t>
+  </si>
+  <si>
+    <t>Middleton day Street</t>
+  </si>
+  <si>
+    <t>Petrel Cove</t>
+  </si>
+  <si>
+    <t>Tunkalilla Beach</t>
   </si>
 </sst>
 </file>
@@ -1027,33 +1045,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:P281"/>
+  <dimension ref="A1:P303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D280" sqref="D280"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C305" sqref="C305"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="16.90625" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
-    <col min="8" max="8" width="14.08984375" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" customWidth="1"/>
-    <col min="10" max="10" width="21.36328125" customWidth="1"/>
-    <col min="11" max="11" width="19.453125" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="39.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="34.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1103,7 +1121,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1132,7 +1150,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1170,7 +1188,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1211,7 +1229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +1264,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1290,7 +1308,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1352,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1390,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1413,7 +1431,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -1439,7 +1457,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -1465,7 +1483,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -1491,7 +1509,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -1517,7 +1535,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -1543,7 +1561,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -1569,7 +1587,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -1595,7 +1613,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -1621,7 +1639,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -1647,7 +1665,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1691,7 +1709,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1723,7 +1741,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1755,7 +1773,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -1781,7 +1799,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1825,7 +1843,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1872,7 +1890,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1904,7 +1922,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1945,7 +1963,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1989,7 +2007,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2030,7 +2048,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2068,7 +2086,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -2100,7 +2118,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -2126,7 +2144,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2170,7 +2188,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -2202,7 +2220,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -2231,7 +2249,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -2272,7 +2290,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2316,7 +2334,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -2360,7 +2378,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2401,7 +2419,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2451,7 +2469,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -2498,7 +2516,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -2530,7 +2548,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -2565,7 +2583,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -2594,7 +2612,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -2620,7 +2638,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -2649,7 +2667,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -2678,7 +2696,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -2707,7 +2725,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -2736,7 +2754,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2765,7 +2783,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -2806,7 +2824,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>104</v>
       </c>
@@ -2844,7 +2862,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -2873,7 +2891,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -2911,7 +2929,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -2943,7 +2961,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -2975,7 +2993,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -3007,7 +3025,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -3039,7 +3057,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -3077,7 +3095,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -3115,7 +3133,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -3156,7 +3174,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -3194,7 +3212,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -3232,7 +3250,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -3264,7 +3282,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -3296,7 +3314,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>111</v>
       </c>
@@ -3328,7 +3346,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -3360,7 +3378,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>113</v>
       </c>
@@ -3392,7 +3410,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>114</v>
       </c>
@@ -3424,7 +3442,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>106</v>
       </c>
@@ -3456,7 +3474,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>115</v>
       </c>
@@ -3488,7 +3506,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -3532,7 +3550,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -3574,7 +3592,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -3616,7 +3634,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -3658,7 +3676,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -3702,7 +3720,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -3746,7 +3764,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -3775,7 +3793,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -3804,7 +3822,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -3833,7 +3851,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -3859,7 +3877,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -3903,7 +3921,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -3947,7 +3965,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -3994,7 +4012,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -4038,7 +4056,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -4084,7 +4102,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -4116,7 +4134,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>156</v>
       </c>
@@ -4142,7 +4160,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>157</v>
       </c>
@@ -4168,7 +4186,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>160</v>
       </c>
@@ -4197,7 +4215,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -4244,7 +4262,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>35</v>
       </c>
@@ -4285,7 +4303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -4317,7 +4335,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -4359,7 +4377,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>154</v>
       </c>
@@ -4385,7 +4403,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>155</v>
       </c>
@@ -4411,7 +4429,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -4440,7 +4458,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>141</v>
       </c>
@@ -4466,7 +4484,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>142</v>
       </c>
@@ -4498,7 +4516,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>153</v>
       </c>
@@ -4524,7 +4542,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>161</v>
       </c>
@@ -4553,7 +4571,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -4597,7 +4615,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -4632,7 +4650,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>39</v>
       </c>
@@ -4673,7 +4691,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -4711,7 +4729,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>41</v>
       </c>
@@ -4749,7 +4767,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -4790,7 +4808,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>93</v>
       </c>
@@ -4819,7 +4837,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -4851,7 +4869,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -4895,7 +4913,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>87</v>
       </c>
@@ -4927,7 +4945,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>102</v>
       </c>
@@ -4956,7 +4974,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>88</v>
       </c>
@@ -4988,7 +5006,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -5014,7 +5032,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -5043,7 +5061,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>91</v>
       </c>
@@ -5069,7 +5087,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -5113,7 +5131,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>45</v>
       </c>
@@ -5157,7 +5175,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>46</v>
       </c>
@@ -5198,7 +5216,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>47</v>
       </c>
@@ -5236,7 +5254,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -5277,7 +5295,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>49</v>
       </c>
@@ -5315,7 +5333,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -5362,7 +5380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>37</v>
       </c>
@@ -5403,7 +5421,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>77</v>
       </c>
@@ -5435,7 +5453,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>80</v>
       </c>
@@ -5467,7 +5485,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -5499,7 +5517,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>118</v>
       </c>
@@ -5528,7 +5546,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>119</v>
       </c>
@@ -5554,7 +5572,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>81</v>
       </c>
@@ -5586,7 +5604,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>162</v>
       </c>
@@ -5615,7 +5633,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -5647,7 +5665,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>158</v>
       </c>
@@ -5676,7 +5694,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>159</v>
       </c>
@@ -5708,7 +5726,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>126</v>
       </c>
@@ -5740,7 +5758,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>127</v>
       </c>
@@ -5781,7 +5799,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>128</v>
       </c>
@@ -5819,7 +5837,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>129</v>
       </c>
@@ -5857,7 +5875,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>133</v>
       </c>
@@ -5898,7 +5916,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>134</v>
       </c>
@@ -5939,7 +5957,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>135</v>
       </c>
@@ -5977,7 +5995,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>136</v>
       </c>
@@ -6015,7 +6033,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>137</v>
       </c>
@@ -6050,7 +6068,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>138</v>
       </c>
@@ -6085,7 +6103,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>139</v>
       </c>
@@ -6123,7 +6141,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>140</v>
       </c>
@@ -6158,7 +6176,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -6199,7 +6217,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>120</v>
       </c>
@@ -6237,7 +6255,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>121</v>
       </c>
@@ -6272,7 +6290,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>79</v>
       </c>
@@ -6304,7 +6322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>83</v>
       </c>
@@ -6336,7 +6354,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>86</v>
       </c>
@@ -6368,7 +6386,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -6409,7 +6427,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>50</v>
       </c>
@@ -6447,7 +6465,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>27</v>
       </c>
@@ -6482,7 +6500,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>37</v>
       </c>
@@ -6523,7 +6541,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>79</v>
       </c>
@@ -6555,7 +6573,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>132</v>
       </c>
@@ -6587,7 +6605,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>83</v>
       </c>
@@ -6619,7 +6637,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>86</v>
       </c>
@@ -6651,7 +6669,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>51</v>
       </c>
@@ -6689,7 +6707,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>122</v>
       </c>
@@ -6721,7 +6739,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>18</v>
       </c>
@@ -6762,7 +6780,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>123</v>
       </c>
@@ -6791,7 +6809,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>79</v>
       </c>
@@ -6823,7 +6841,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>83</v>
       </c>
@@ -6855,7 +6873,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>86</v>
       </c>
@@ -6887,7 +6905,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>52</v>
       </c>
@@ -6931,7 +6949,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>53</v>
       </c>
@@ -6975,7 +6993,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -7016,7 +7034,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>82</v>
       </c>
@@ -7048,7 +7066,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>82</v>
       </c>
@@ -7080,7 +7098,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>85</v>
       </c>
@@ -7112,7 +7130,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>85</v>
       </c>
@@ -7144,7 +7162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>54</v>
       </c>
@@ -7182,7 +7200,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>55</v>
       </c>
@@ -7220,7 +7238,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>56</v>
       </c>
@@ -7258,7 +7276,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>57</v>
       </c>
@@ -7293,7 +7311,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>58</v>
       </c>
@@ -7334,7 +7352,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>59</v>
       </c>
@@ -7369,7 +7387,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -7410,7 +7428,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -7451,7 +7469,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>60</v>
       </c>
@@ -7492,7 +7510,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>37</v>
       </c>
@@ -7533,7 +7551,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>132</v>
       </c>
@@ -7565,7 +7583,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>61</v>
       </c>
@@ -7606,7 +7624,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>62</v>
       </c>
@@ -7644,7 +7662,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>63</v>
       </c>
@@ -7682,7 +7700,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>95</v>
       </c>
@@ -7711,7 +7729,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>178</v>
       </c>
@@ -7752,7 +7770,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>79</v>
       </c>
@@ -7784,7 +7802,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>83</v>
       </c>
@@ -7816,7 +7834,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>86</v>
       </c>
@@ -7848,7 +7866,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -7889,7 +7907,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>131</v>
       </c>
@@ -7921,7 +7939,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>84</v>
       </c>
@@ -7953,7 +7971,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -7997,7 +8015,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>87</v>
       </c>
@@ -8026,7 +8044,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>101</v>
       </c>
@@ -8064,7 +8082,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>88</v>
       </c>
@@ -8108,7 +8126,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>124</v>
       </c>
@@ -8146,7 +8164,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>125</v>
       </c>
@@ -8175,7 +8193,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>90</v>
       </c>
@@ -8207,7 +8225,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>91</v>
       </c>
@@ -8242,7 +8260,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>25</v>
       </c>
@@ -8289,7 +8307,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>79</v>
       </c>
@@ -8321,7 +8339,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>131</v>
       </c>
@@ -8353,7 +8371,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>86</v>
       </c>
@@ -8385,7 +8403,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>37</v>
       </c>
@@ -8423,7 +8441,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>163</v>
       </c>
@@ -8458,7 +8476,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>163</v>
       </c>
@@ -8490,7 +8508,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>163</v>
       </c>
@@ -8522,7 +8540,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>143</v>
       </c>
@@ -8548,7 +8566,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>145</v>
       </c>
@@ -8574,7 +8592,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>146</v>
       </c>
@@ -8600,7 +8618,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>147</v>
       </c>
@@ -8626,7 +8644,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>37</v>
       </c>
@@ -8664,7 +8682,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>143</v>
       </c>
@@ -8690,7 +8708,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>145</v>
       </c>
@@ -8716,7 +8734,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>146</v>
       </c>
@@ -8742,7 +8760,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>147</v>
       </c>
@@ -8768,7 +8786,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>18</v>
       </c>
@@ -8812,7 +8830,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>79</v>
       </c>
@@ -8844,7 +8862,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>131</v>
       </c>
@@ -8877,7 +8895,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>83</v>
       </c>
@@ -8910,7 +8928,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>86</v>
       </c>
@@ -8943,7 +8961,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>143</v>
       </c>
@@ -8969,638 +8987,644 @@
         <v>144</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
+        <v>59</v>
+      </c>
+      <c r="B227">
+        <v>-35.084850000000003</v>
+      </c>
+      <c r="C227">
+        <v>137.74889999999999</v>
+      </c>
+      <c r="D227" s="2">
+        <v>45941</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>56</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>222</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>1444</v>
+      </c>
+      <c r="L227">
+        <v>56</v>
+      </c>
+      <c r="M227">
+        <v>3278</v>
+      </c>
+      <c r="O227">
+        <v>5056</v>
+      </c>
+      <c r="P227" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>37</v>
       </c>
-      <c r="B227">
+      <c r="B228">
         <v>-34.289369999999998</v>
       </c>
-      <c r="C227">
+      <c r="C228">
         <v>138.01242999999999</v>
-      </c>
-      <c r="D227" s="2">
-        <v>45942</v>
-      </c>
-      <c r="F227">
-        <v>278</v>
-      </c>
-      <c r="G227">
-        <v>56</v>
-      </c>
-      <c r="H227">
-        <v>778</v>
-      </c>
-      <c r="I227">
-        <v>556</v>
-      </c>
-      <c r="J227">
-        <v>333</v>
-      </c>
-      <c r="K227">
-        <v>1278</v>
-      </c>
-      <c r="L227">
-        <v>111</v>
-      </c>
-      <c r="M227">
-        <v>6</v>
-      </c>
-      <c r="O227">
-        <v>3444</v>
-      </c>
-      <c r="P227" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
-        <v>148</v>
-      </c>
-      <c r="B228" s="5">
-        <v>-34.82035218</v>
-      </c>
-      <c r="C228" s="5">
-        <v>138.51019083</v>
       </c>
       <c r="D228" s="2">
         <v>45942</v>
       </c>
+      <c r="F228">
+        <v>278</v>
+      </c>
+      <c r="G228">
+        <v>56</v>
+      </c>
       <c r="H228">
+        <v>778</v>
+      </c>
+      <c r="I228">
+        <v>556</v>
+      </c>
+      <c r="J228">
+        <v>333</v>
+      </c>
+      <c r="K228">
+        <v>1278</v>
+      </c>
+      <c r="L228">
+        <v>111</v>
+      </c>
+      <c r="M228">
+        <v>6</v>
+      </c>
+      <c r="O228">
+        <v>3444</v>
+      </c>
+      <c r="P228" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>148</v>
+      </c>
+      <c r="B229" s="5">
+        <v>-34.82035218</v>
+      </c>
+      <c r="C229" s="5">
+        <v>138.51019083</v>
+      </c>
+      <c r="D229" s="2">
+        <v>45942</v>
+      </c>
+      <c r="H229">
         <v>4300</v>
       </c>
-      <c r="I228">
-        <v>0</v>
-      </c>
-      <c r="O228">
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="O229">
         <v>4300</v>
       </c>
-      <c r="P228" t="s">
+      <c r="P229" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A229" s="7" t="s">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A230" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B229" s="7">
+      <c r="B230" s="7">
         <v>-35.641369099999999</v>
       </c>
-      <c r="C229" s="7">
+      <c r="C230" s="7">
         <v>137.6389906</v>
       </c>
-      <c r="D229" s="8">
+      <c r="D230" s="8">
         <v>45945</v>
       </c>
-      <c r="E229" s="7">
-        <v>0</v>
-      </c>
-      <c r="F229" s="7">
-        <v>0</v>
-      </c>
-      <c r="G229" s="7">
-        <v>0</v>
-      </c>
-      <c r="H229" s="7">
-        <v>0</v>
-      </c>
-      <c r="I229" s="7">
-        <v>0</v>
-      </c>
-      <c r="J229" s="7">
-        <v>0</v>
-      </c>
-      <c r="K229" s="7">
+      <c r="E230" s="7">
+        <v>0</v>
+      </c>
+      <c r="F230" s="7">
+        <v>0</v>
+      </c>
+      <c r="G230" s="7">
+        <v>0</v>
+      </c>
+      <c r="H230" s="7">
+        <v>0</v>
+      </c>
+      <c r="I230" s="7">
+        <v>0</v>
+      </c>
+      <c r="J230" s="7">
+        <v>0</v>
+      </c>
+      <c r="K230" s="7">
         <v>150</v>
       </c>
-      <c r="L229" s="7">
-        <v>0</v>
-      </c>
-      <c r="M229" s="7">
-        <v>0</v>
-      </c>
-      <c r="N229" s="7">
-        <v>0</v>
-      </c>
-      <c r="O229" s="7">
+      <c r="L230" s="7">
+        <v>0</v>
+      </c>
+      <c r="M230" s="7">
+        <v>0</v>
+      </c>
+      <c r="N230" s="7">
+        <v>0</v>
+      </c>
+      <c r="O230" s="7">
         <v>150</v>
       </c>
-      <c r="P229" s="7" t="s">
+      <c r="P230" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>79</v>
       </c>
-      <c r="B230">
+      <c r="B231">
         <v>-34.804169999999999</v>
       </c>
-      <c r="C230">
+      <c r="C231">
         <v>138.53970000000001</v>
-      </c>
-      <c r="D230" s="2">
-        <v>45947</v>
-      </c>
-      <c r="H230">
-        <v>70</v>
-      </c>
-      <c r="I230">
-        <v>61</v>
-      </c>
-      <c r="K230">
-        <v>1</v>
-      </c>
-      <c r="N230">
-        <v>4</v>
-      </c>
-      <c r="O230">
-        <v>75</v>
-      </c>
-      <c r="P230" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
-        <v>83</v>
-      </c>
-      <c r="B231">
-        <v>-34.837600000000002</v>
-      </c>
-      <c r="C231">
-        <v>138.47788</v>
       </c>
       <c r="D231" s="2">
         <v>45947</v>
       </c>
       <c r="H231">
-        <v>848</v>
+        <v>70</v>
       </c>
       <c r="I231">
-        <v>772</v>
+        <v>61</v>
       </c>
       <c r="K231">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="N231">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="O231">
-        <v>938</v>
+        <v>75</v>
       </c>
       <c r="P231" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B232">
-        <v>-34.873939999999997</v>
+        <v>-34.837600000000002</v>
       </c>
       <c r="C232">
-        <v>138.48820000000001</v>
+        <v>138.47788</v>
       </c>
       <c r="D232" s="2">
         <v>45947</v>
       </c>
       <c r="H232">
-        <v>312</v>
+        <v>848</v>
       </c>
       <c r="I232">
-        <v>204</v>
+        <v>772</v>
       </c>
       <c r="K232">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="N232">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="O232">
-        <v>565</v>
+        <v>938</v>
       </c>
       <c r="P232" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B233">
-        <v>-35.084850000000003</v>
+        <v>-34.873939999999997</v>
       </c>
       <c r="C233">
-        <v>137.74889999999999</v>
+        <v>138.48820000000001</v>
       </c>
       <c r="D233" s="2">
         <v>45947</v>
       </c>
+      <c r="H233">
+        <v>312</v>
+      </c>
       <c r="I233">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="K233">
-        <v>649</v>
+        <v>190</v>
+      </c>
+      <c r="N233">
+        <v>63</v>
       </c>
       <c r="O233">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="P233" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="B234">
-        <v>-35.638609789999997</v>
+        <v>-35.084850000000003</v>
       </c>
       <c r="C234">
-        <v>137.62514150000001</v>
+        <v>137.74889999999999</v>
       </c>
       <c r="D234" s="2">
         <v>45947</v>
       </c>
-      <c r="F234">
-        <v>389</v>
-      </c>
-      <c r="H234">
-        <v>167</v>
-      </c>
       <c r="I234">
         <v>0</v>
       </c>
       <c r="K234">
-        <v>222</v>
-      </c>
-      <c r="M234">
-        <v>1944</v>
-      </c>
-      <c r="N234">
-        <v>1889</v>
+        <v>649</v>
       </c>
       <c r="O234">
-        <v>4611</v>
+        <v>649</v>
       </c>
       <c r="P234" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B235">
-        <v>-35.655576000000003</v>
+        <v>-35.638609789999997</v>
       </c>
       <c r="C235">
-        <v>137.641276</v>
+        <v>137.62514150000001</v>
       </c>
       <c r="D235" s="2">
         <v>45947</v>
       </c>
+      <c r="F235">
+        <v>389</v>
+      </c>
       <c r="H235">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="K235">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="M235">
-        <v>56</v>
+        <v>1944</v>
       </c>
       <c r="N235">
-        <v>1390</v>
+        <v>1889</v>
       </c>
       <c r="O235">
-        <v>1668</v>
+        <v>4611</v>
       </c>
       <c r="P235" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
+        <v>155</v>
+      </c>
+      <c r="B236">
+        <v>-35.655576000000003</v>
+      </c>
+      <c r="C236">
+        <v>137.641276</v>
+      </c>
+      <c r="D236" s="2">
+        <v>45947</v>
+      </c>
+      <c r="H236">
+        <v>111</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>111</v>
+      </c>
+      <c r="M236">
+        <v>56</v>
+      </c>
+      <c r="N236">
+        <v>1390</v>
+      </c>
+      <c r="O236">
+        <v>1668</v>
+      </c>
+      <c r="P236" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>37</v>
       </c>
-      <c r="B236">
+      <c r="B237">
         <v>-34.289369999999998</v>
       </c>
-      <c r="C236">
+      <c r="C237">
         <v>138.01242999999999</v>
-      </c>
-      <c r="D236" s="2">
-        <v>45948</v>
-      </c>
-      <c r="F236">
-        <v>444</v>
-      </c>
-      <c r="G236">
-        <v>444</v>
-      </c>
-      <c r="H236">
-        <v>5500</v>
-      </c>
-      <c r="I236">
-        <v>1833</v>
-      </c>
-      <c r="J236">
-        <v>71677</v>
-      </c>
-      <c r="K236">
-        <v>1444</v>
-      </c>
-      <c r="L236">
-        <v>111</v>
-      </c>
-      <c r="N236">
-        <v>222</v>
-      </c>
-      <c r="O236">
-        <v>15333</v>
-      </c>
-      <c r="P236" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
-        <v>142</v>
-      </c>
-      <c r="B237">
-        <v>-35.786764689999998</v>
-      </c>
-      <c r="C237">
-        <v>137.77344500000001</v>
       </c>
       <c r="D237" s="2">
         <v>45948</v>
       </c>
+      <c r="F237">
+        <v>444</v>
+      </c>
+      <c r="G237">
+        <v>444</v>
+      </c>
       <c r="H237">
+        <v>5500</v>
+      </c>
+      <c r="I237">
+        <v>1833</v>
+      </c>
+      <c r="J237">
+        <v>71677</v>
+      </c>
+      <c r="K237">
+        <v>1444</v>
+      </c>
+      <c r="L237">
         <v>111</v>
       </c>
-      <c r="I237">
-        <v>0</v>
-      </c>
-      <c r="K237">
-        <v>1889</v>
-      </c>
       <c r="N237">
-        <v>1223</v>
+        <v>222</v>
       </c>
       <c r="O237">
-        <v>3223</v>
+        <v>15333</v>
       </c>
       <c r="P237" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="B238">
-        <v>-35.513599999999997</v>
+        <v>-35.786764689999998</v>
       </c>
       <c r="C238">
-        <v>138.72001900000001</v>
+        <v>137.77344500000001</v>
       </c>
       <c r="D238" s="2">
         <v>45948</v>
       </c>
       <c r="H238">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="I238">
-        <v>56</v>
-      </c>
-      <c r="J238">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K238">
         <v>1889</v>
       </c>
       <c r="N238">
-        <v>3000</v>
+        <v>1223</v>
       </c>
       <c r="O238">
-        <v>5112</v>
+        <v>3223</v>
       </c>
       <c r="P238" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="B239">
-        <v>-35.824725999999998</v>
+        <v>-35.513599999999997</v>
       </c>
       <c r="C239">
-        <v>137.75102200000001</v>
+        <v>138.72001900000001</v>
       </c>
       <c r="D239" s="2">
-        <v>45949</v>
+        <v>45948</v>
       </c>
       <c r="H239">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="J239">
+        <v>56</v>
       </c>
       <c r="K239">
-        <v>111</v>
-      </c>
-      <c r="M239">
-        <v>333</v>
+        <v>1889</v>
       </c>
       <c r="N239">
-        <v>889</v>
+        <v>3000</v>
       </c>
       <c r="O239">
-        <v>1389</v>
+        <v>5112</v>
       </c>
       <c r="P239" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
+        <v>153</v>
+      </c>
+      <c r="B240">
+        <v>-35.824725999999998</v>
+      </c>
+      <c r="C240">
+        <v>137.75102200000001</v>
+      </c>
+      <c r="D240" s="2">
+        <v>45949</v>
+      </c>
+      <c r="H240">
+        <v>56</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>111</v>
+      </c>
+      <c r="M240">
+        <v>333</v>
+      </c>
+      <c r="N240">
+        <v>889</v>
+      </c>
+      <c r="O240">
+        <v>1389</v>
+      </c>
+      <c r="P240" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>143</v>
       </c>
-      <c r="B240" s="5">
+      <c r="B241" s="5">
         <v>-34.876918449999998</v>
       </c>
-      <c r="C240" s="5">
+      <c r="C241" s="5">
         <v>138.47996235010001</v>
-      </c>
-      <c r="D240" s="2">
-        <v>45950</v>
-      </c>
-      <c r="H240">
-        <v>90000</v>
-      </c>
-      <c r="I240">
-        <v>74200</v>
-      </c>
-      <c r="O240">
-        <v>90000</v>
-      </c>
-      <c r="P240" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
-        <v>146</v>
-      </c>
-      <c r="B241" s="5">
-        <v>-34.874911619999999</v>
-      </c>
-      <c r="C241" s="5">
-        <v>138.4853214</v>
       </c>
       <c r="D241" s="2">
         <v>45950</v>
       </c>
       <c r="H241">
-        <v>3300</v>
+        <v>90000</v>
       </c>
       <c r="I241">
-        <v>1300</v>
+        <v>74200</v>
       </c>
       <c r="O241">
-        <v>3300</v>
+        <v>90000</v>
       </c>
       <c r="P241" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B242" s="5">
-        <v>-34.893833659999999</v>
+        <v>-34.874911619999999</v>
       </c>
       <c r="C242" s="5">
-        <v>138.49006890999999</v>
+        <v>138.4853214</v>
       </c>
       <c r="D242" s="2">
         <v>45950</v>
       </c>
       <c r="H242">
-        <v>18300</v>
+        <v>3300</v>
       </c>
       <c r="I242">
-        <v>18000</v>
+        <v>1300</v>
       </c>
       <c r="O242">
-        <v>18300</v>
+        <v>3300</v>
       </c>
       <c r="P242" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B243" s="5">
-        <v>-34.876918449999998</v>
+        <v>-34.893833659999999</v>
       </c>
       <c r="C243" s="5">
-        <v>138.47996235010001</v>
+        <v>138.49006890999999</v>
       </c>
       <c r="D243" s="2">
-        <v>45952</v>
+        <v>45950</v>
       </c>
       <c r="H243">
-        <v>22700</v>
+        <v>18300</v>
       </c>
       <c r="I243">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O243">
-        <v>22700</v>
+        <v>18300</v>
       </c>
       <c r="P243" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B244" s="5">
-        <v>-34.938314079999998</v>
+        <v>-34.876918449999998</v>
       </c>
       <c r="C244" s="5">
-        <v>138.49654913000001</v>
+        <v>138.47996235010001</v>
       </c>
       <c r="D244" s="2">
         <v>45952</v>
       </c>
       <c r="H244">
-        <v>7300</v>
+        <v>22700</v>
       </c>
       <c r="I244">
-        <v>3300</v>
+        <v>19000</v>
       </c>
       <c r="O244">
-        <v>7300</v>
+        <v>22700</v>
       </c>
       <c r="P244" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>164</v>
-      </c>
-      <c r="B245">
-        <v>-35.411457800000001</v>
-      </c>
-      <c r="C245">
-        <v>138.3276611</v>
+        <v>149</v>
+      </c>
+      <c r="B245" s="5">
+        <v>-34.938314079999998</v>
+      </c>
+      <c r="C245" s="5">
+        <v>138.49654913000001</v>
       </c>
       <c r="D245" s="2">
         <v>45952</v>
       </c>
-      <c r="F245">
-        <v>278</v>
-      </c>
       <c r="H245">
-        <v>667</v>
+        <v>7300</v>
       </c>
       <c r="I245">
-        <v>389</v>
-      </c>
-      <c r="K245">
-        <v>1500</v>
-      </c>
-      <c r="M245">
-        <v>1556</v>
-      </c>
-      <c r="N245">
-        <v>2833</v>
+        <v>3300</v>
       </c>
       <c r="O245">
-        <v>6834</v>
+        <v>7300</v>
       </c>
       <c r="P245" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B246">
         <v>-35.411457800000001</v>
@@ -9611,43 +9635,43 @@
       <c r="D246" s="2">
         <v>45952</v>
       </c>
+      <c r="F246">
+        <v>278</v>
+      </c>
+      <c r="H246">
+        <v>667</v>
+      </c>
       <c r="I246">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="K246">
-        <v>444</v>
+        <v>1500</v>
       </c>
       <c r="M246">
-        <v>111</v>
+        <v>1556</v>
       </c>
       <c r="N246">
-        <v>722</v>
+        <v>2833</v>
       </c>
       <c r="O246">
-        <v>1277</v>
+        <v>6834</v>
       </c>
       <c r="P246" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="B247">
-        <v>-35.084850000000003</v>
+        <v>-35.411457800000001</v>
       </c>
       <c r="C247">
-        <v>137.74889999999999</v>
+        <v>138.3276611</v>
       </c>
       <c r="D247" s="2">
-        <v>45953</v>
-      </c>
-      <c r="F247">
-        <v>56</v>
-      </c>
-      <c r="G247">
-        <v>56</v>
+        <v>45952</v>
       </c>
       <c r="I247">
         <v>0</v>
@@ -9655,298 +9679,301 @@
       <c r="K247">
         <v>444</v>
       </c>
+      <c r="M247">
+        <v>111</v>
+      </c>
+      <c r="N247">
+        <v>722</v>
+      </c>
       <c r="O247">
+        <v>1277</v>
+      </c>
+      <c r="P247" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>59</v>
+      </c>
+      <c r="B248">
+        <v>-35.084850000000003</v>
+      </c>
+      <c r="C248">
+        <v>137.74889999999999</v>
+      </c>
+      <c r="D248" s="2">
+        <v>45953</v>
+      </c>
+      <c r="F248">
+        <v>56</v>
+      </c>
+      <c r="G248">
+        <v>56</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>444</v>
+      </c>
+      <c r="O248">
         <v>556</v>
       </c>
-      <c r="P247" t="s">
+      <c r="P248" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A248" s="7" t="s">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A249" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B248" s="7">
+      <c r="B249" s="7">
         <v>-35.638350600000003</v>
       </c>
-      <c r="C248" s="7">
+      <c r="C249" s="7">
         <v>137.62503709999999</v>
       </c>
-      <c r="D248" s="8">
+      <c r="D249" s="8">
         <v>45953</v>
       </c>
-      <c r="E248" s="7"/>
-      <c r="F248" s="7"/>
-      <c r="G248" s="7"/>
-      <c r="H248" s="7"/>
-      <c r="I248" s="7">
-        <v>0</v>
-      </c>
-      <c r="J248" s="7"/>
-      <c r="K248" s="7">
+      <c r="E249" s="7"/>
+      <c r="F249" s="7"/>
+      <c r="G249" s="7"/>
+      <c r="H249" s="7"/>
+      <c r="I249" s="7">
+        <v>0</v>
+      </c>
+      <c r="J249" s="7"/>
+      <c r="K249" s="7">
         <v>1278</v>
       </c>
-      <c r="L248" s="7"/>
-      <c r="M248" s="7"/>
-      <c r="N248" s="7"/>
-      <c r="O248" s="7">
+      <c r="L249" s="7"/>
+      <c r="M249" s="7"/>
+      <c r="N249" s="7"/>
+      <c r="O249" s="7">
         <v>1278</v>
       </c>
-      <c r="P248" s="7" t="s">
+      <c r="P249" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>143</v>
       </c>
-      <c r="B249" s="5">
+      <c r="B250" s="5">
         <v>-34.876918449999998</v>
       </c>
-      <c r="C249" s="5">
+      <c r="C250" s="5">
         <v>138.47996235010001</v>
-      </c>
-      <c r="D249" s="2">
-        <v>45954</v>
-      </c>
-      <c r="H249">
-        <v>14700</v>
-      </c>
-      <c r="I249">
-        <v>13000</v>
-      </c>
-      <c r="O249">
-        <v>14700</v>
-      </c>
-      <c r="P249" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>179</v>
-      </c>
-      <c r="B250">
-        <v>-35.606180799999997</v>
-      </c>
-      <c r="C250">
-        <v>138.09413620000001</v>
       </c>
       <c r="D250" s="2">
         <v>45954</v>
       </c>
-      <c r="G250">
-        <v>56</v>
+      <c r="H250">
+        <v>14700</v>
       </c>
       <c r="I250">
-        <v>0</v>
-      </c>
-      <c r="K250">
-        <v>56</v>
-      </c>
-      <c r="M250">
+        <v>13000</v>
+      </c>
+      <c r="O250">
+        <v>14700</v>
+      </c>
+      <c r="P250" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>179</v>
+      </c>
+      <c r="B251">
+        <v>-35.606180799999997</v>
+      </c>
+      <c r="C251">
+        <v>138.09413620000001</v>
+      </c>
+      <c r="D251" s="2">
+        <v>45954</v>
+      </c>
+      <c r="G251">
+        <v>56</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>56</v>
+      </c>
+      <c r="M251">
         <v>833</v>
       </c>
-      <c r="N250">
+      <c r="N251">
         <v>667</v>
       </c>
-      <c r="O250">
+      <c r="O251">
         <v>1612</v>
       </c>
-      <c r="P250" t="s">
+      <c r="P251" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>37</v>
       </c>
-      <c r="B251">
+      <c r="B252">
         <v>-34.289369999999998</v>
       </c>
-      <c r="C251">
+      <c r="C252">
         <v>138.01242999999999</v>
-      </c>
-      <c r="D251" s="2">
-        <v>45955</v>
-      </c>
-      <c r="F251">
-        <v>56</v>
-      </c>
-      <c r="G251">
-        <v>278</v>
-      </c>
-      <c r="H251">
-        <v>1500</v>
-      </c>
-      <c r="I251">
-        <v>611</v>
-      </c>
-      <c r="J251">
-        <v>3556</v>
-      </c>
-      <c r="K251">
-        <v>1222</v>
-      </c>
-      <c r="L251">
-        <v>111</v>
-      </c>
-      <c r="M251">
-        <v>222</v>
-      </c>
-      <c r="N251">
-        <v>56</v>
-      </c>
-      <c r="O251">
-        <v>7000</v>
-      </c>
-      <c r="P251" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
-        <v>143</v>
-      </c>
-      <c r="B252" s="5">
-        <v>-34.876918449999998</v>
-      </c>
-      <c r="C252" s="5">
-        <v>138.47996235010001</v>
       </c>
       <c r="D252" s="2">
         <v>45955</v>
       </c>
+      <c r="F252">
+        <v>56</v>
+      </c>
+      <c r="G252">
+        <v>278</v>
+      </c>
       <c r="H252">
-        <v>22000</v>
+        <v>1500</v>
       </c>
       <c r="I252">
-        <v>17400</v>
+        <v>611</v>
+      </c>
+      <c r="J252">
+        <v>3556</v>
+      </c>
+      <c r="K252">
+        <v>1222</v>
+      </c>
+      <c r="L252">
+        <v>111</v>
+      </c>
+      <c r="M252">
+        <v>222</v>
+      </c>
+      <c r="N252">
+        <v>56</v>
       </c>
       <c r="O252">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="P252" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>151</v>
-      </c>
-      <c r="B253">
-        <v>-35.799281999999998</v>
-      </c>
-      <c r="C253">
-        <v>137.83188699999999</v>
+        <v>143</v>
+      </c>
+      <c r="B253" s="5">
+        <v>-34.876918449999998</v>
+      </c>
+      <c r="C253" s="5">
+        <v>138.47996235010001</v>
       </c>
       <c r="D253" s="2">
         <v>45955</v>
       </c>
+      <c r="H253">
+        <v>22000</v>
+      </c>
       <c r="I253">
-        <v>0</v>
-      </c>
-      <c r="K253">
+        <v>17400</v>
+      </c>
+      <c r="O253">
+        <v>22000</v>
+      </c>
+      <c r="P253" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>151</v>
+      </c>
+      <c r="B254">
+        <v>-35.799281999999998</v>
+      </c>
+      <c r="C254">
+        <v>137.83188699999999</v>
+      </c>
+      <c r="D254" s="2">
+        <v>45955</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="K254">
         <v>111</v>
       </c>
-      <c r="O253">
+      <c r="O254">
         <v>111</v>
       </c>
-      <c r="P253" t="s">
+      <c r="P254" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>38</v>
       </c>
-      <c r="B254">
+      <c r="B255">
         <v>-34.507817000000003</v>
       </c>
-      <c r="C254">
+      <c r="C255">
         <v>138.274338</v>
-      </c>
-      <c r="D254" s="2">
-        <v>45959</v>
-      </c>
-      <c r="F254">
-        <v>417</v>
-      </c>
-      <c r="G254">
-        <v>83</v>
-      </c>
-      <c r="H254">
-        <v>472</v>
-      </c>
-      <c r="I254">
-        <v>167</v>
-      </c>
-      <c r="J254">
-        <v>278</v>
-      </c>
-      <c r="K254">
-        <v>639</v>
-      </c>
-      <c r="L254">
-        <v>111</v>
-      </c>
-      <c r="M254">
-        <v>500</v>
-      </c>
-      <c r="N254">
-        <v>56</v>
-      </c>
-      <c r="O254">
-        <v>2556</v>
-      </c>
-      <c r="P254" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
-        <v>166</v>
-      </c>
-      <c r="B255">
-        <v>-35.575156999999997</v>
-      </c>
-      <c r="C255">
-        <v>138.64386999999999</v>
       </c>
       <c r="D255" s="2">
         <v>45959</v>
       </c>
+      <c r="F255">
+        <v>417</v>
+      </c>
+      <c r="G255">
+        <v>83</v>
+      </c>
       <c r="H255">
+        <v>472</v>
+      </c>
+      <c r="I255">
+        <v>167</v>
+      </c>
+      <c r="J255">
+        <v>278</v>
+      </c>
+      <c r="K255">
+        <v>639</v>
+      </c>
+      <c r="L255">
         <v>111</v>
       </c>
-      <c r="I255">
-        <v>0</v>
-      </c>
-      <c r="K255">
-        <v>111</v>
-      </c>
       <c r="M255">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="N255">
-        <v>833</v>
+        <v>56</v>
       </c>
       <c r="O255">
-        <v>1222</v>
+        <v>2556</v>
       </c>
       <c r="P255" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="B256">
-        <v>-35.581124000000003</v>
+        <v>-35.575156999999997</v>
       </c>
       <c r="C256">
-        <v>138.60879700000001</v>
+        <v>138.64386999999999</v>
       </c>
       <c r="D256" s="2">
         <v>45959</v>
@@ -9958,306 +9985,296 @@
         <v>0</v>
       </c>
       <c r="K256">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="M256">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="N256">
-        <v>56</v>
+        <v>833</v>
       </c>
       <c r="O256">
-        <v>445</v>
+        <v>1222</v>
       </c>
       <c r="P256" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A257" s="7" t="s">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>89</v>
+      </c>
+      <c r="B257">
+        <v>-35.581124000000003</v>
+      </c>
+      <c r="C257">
+        <v>138.60879700000001</v>
+      </c>
+      <c r="D257" s="2">
+        <v>45959</v>
+      </c>
+      <c r="H257">
+        <v>111</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>56</v>
+      </c>
+      <c r="M257">
+        <v>222</v>
+      </c>
+      <c r="N257">
+        <v>56</v>
+      </c>
+      <c r="O257">
+        <v>445</v>
+      </c>
+      <c r="P257" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A258" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B257" s="7">
+      <c r="B258" s="7">
         <v>-35.590392000000001</v>
       </c>
-      <c r="C257" s="7">
+      <c r="C258" s="7">
         <v>137.50644700000001</v>
       </c>
-      <c r="D257" s="8">
+      <c r="D258" s="8">
         <v>45959</v>
       </c>
-      <c r="E257" s="7"/>
-      <c r="F257" s="7">
-        <v>0</v>
-      </c>
-      <c r="G257" s="7">
-        <v>0</v>
-      </c>
-      <c r="H257" s="7">
-        <v>0</v>
-      </c>
-      <c r="I257" s="7">
-        <v>0</v>
-      </c>
-      <c r="J257" s="7">
-        <v>0</v>
-      </c>
-      <c r="K257" s="7">
-        <v>0</v>
-      </c>
-      <c r="L257" s="7">
-        <v>0</v>
-      </c>
-      <c r="M257" s="7">
-        <v>0</v>
-      </c>
-      <c r="N257" s="7">
-        <v>0</v>
-      </c>
-      <c r="O257" s="7">
-        <v>0</v>
-      </c>
-      <c r="P257" s="7" t="s">
+      <c r="E258" s="7"/>
+      <c r="F258" s="7">
+        <v>0</v>
+      </c>
+      <c r="G258" s="7">
+        <v>0</v>
+      </c>
+      <c r="H258" s="7">
+        <v>0</v>
+      </c>
+      <c r="I258" s="7">
+        <v>0</v>
+      </c>
+      <c r="J258" s="7">
+        <v>0</v>
+      </c>
+      <c r="K258" s="7">
+        <v>0</v>
+      </c>
+      <c r="L258" s="7">
+        <v>0</v>
+      </c>
+      <c r="M258" s="7">
+        <v>0</v>
+      </c>
+      <c r="N258" s="7">
+        <v>0</v>
+      </c>
+      <c r="O258" s="7">
+        <v>0</v>
+      </c>
+      <c r="P258" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>90</v>
       </c>
-      <c r="B258">
+      <c r="B259">
         <v>-35.6048446</v>
       </c>
-      <c r="C258">
+      <c r="C259">
         <v>138.59278499999999</v>
-      </c>
-      <c r="D258" s="2">
-        <v>45959</v>
-      </c>
-      <c r="I258">
-        <v>56</v>
-      </c>
-      <c r="M258">
-        <v>111</v>
-      </c>
-      <c r="N258">
-        <v>6278</v>
-      </c>
-      <c r="O258">
-        <v>6389</v>
-      </c>
-      <c r="P258" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>176</v>
-      </c>
-      <c r="B259">
-        <v>-35.612285999999997</v>
-      </c>
-      <c r="C259">
-        <v>138.564302</v>
       </c>
       <c r="D259" s="2">
         <v>45959</v>
       </c>
-      <c r="G259">
-        <v>56</v>
-      </c>
-      <c r="H259">
-        <v>56</v>
-      </c>
       <c r="I259">
-        <v>0</v>
-      </c>
-      <c r="K259">
         <v>56</v>
       </c>
       <c r="M259">
-        <v>333</v>
+        <v>111</v>
       </c>
       <c r="N259">
-        <v>500</v>
+        <v>6278</v>
       </c>
       <c r="O259">
-        <v>1001</v>
+        <v>6389</v>
       </c>
       <c r="P259" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B260">
-        <v>-35.624799000000003</v>
+        <v>-35.612285999999997</v>
       </c>
       <c r="C260">
-        <v>138.57790199999999</v>
+        <v>138.564302</v>
       </c>
       <c r="D260" s="2">
         <v>45959</v>
       </c>
+      <c r="G260">
+        <v>56</v>
+      </c>
+      <c r="H260">
+        <v>56</v>
+      </c>
       <c r="I260">
         <v>0</v>
       </c>
+      <c r="K260">
+        <v>56</v>
+      </c>
       <c r="M260">
-        <v>111</v>
+        <v>333</v>
       </c>
       <c r="N260">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="O260">
-        <v>667</v>
+        <v>1001</v>
       </c>
       <c r="P260" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
+        <v>177</v>
+      </c>
+      <c r="B261">
+        <v>-35.624799000000003</v>
+      </c>
+      <c r="C261">
+        <v>138.57790199999999</v>
+      </c>
+      <c r="D261" s="2">
+        <v>45959</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="M261">
+        <v>111</v>
+      </c>
+      <c r="N261">
+        <v>556</v>
+      </c>
+      <c r="O261">
+        <v>667</v>
+      </c>
+      <c r="P261" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
         <v>59</v>
       </c>
-      <c r="B261">
+      <c r="B262">
         <v>-35.084850000000003</v>
       </c>
-      <c r="C261">
+      <c r="C262">
         <v>137.74889999999999</v>
       </c>
-      <c r="D261" s="2">
+      <c r="D262" s="2">
         <v>45960</v>
       </c>
-      <c r="F261">
-        <v>56</v>
-      </c>
-      <c r="H261">
-        <v>56</v>
-      </c>
-      <c r="I261">
-        <v>0</v>
-      </c>
-      <c r="K261">
+      <c r="F262">
+        <v>56</v>
+      </c>
+      <c r="H262">
+        <v>56</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="K262">
         <v>306</v>
       </c>
-      <c r="M261">
+      <c r="M262">
         <v>1889</v>
       </c>
-      <c r="O261">
+      <c r="O262">
         <v>2307</v>
       </c>
-      <c r="P261" t="s">
+      <c r="P262" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>37</v>
       </c>
-      <c r="B262">
+      <c r="B263">
         <v>-34.289369999999998</v>
       </c>
-      <c r="C262">
+      <c r="C263">
         <v>138.01242999999999</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D263" s="2">
         <v>45961</v>
       </c>
-      <c r="E262">
-        <v>56</v>
-      </c>
-      <c r="F262">
-        <v>56</v>
-      </c>
-      <c r="G262">
+      <c r="E263">
+        <v>56</v>
+      </c>
+      <c r="F263">
+        <v>56</v>
+      </c>
+      <c r="G263">
         <v>500</v>
       </c>
-      <c r="H262">
+      <c r="H263">
         <v>1722</v>
       </c>
-      <c r="I262">
+      <c r="I263">
         <v>500</v>
       </c>
-      <c r="J262">
+      <c r="J263">
         <v>14667</v>
       </c>
-      <c r="K262">
+      <c r="K263">
         <v>2778</v>
       </c>
-      <c r="L262">
+      <c r="L263">
         <v>167</v>
       </c>
-      <c r="N262">
+      <c r="N263">
         <v>111</v>
       </c>
-      <c r="O262">
+      <c r="O263">
         <v>20056</v>
       </c>
-      <c r="P262" t="s">
+      <c r="P263" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A263" s="7" t="s">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A264" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B263" s="7">
+      <c r="B264" s="7">
         <v>-35.787501300000002</v>
       </c>
-      <c r="C263" s="7">
+      <c r="C264" s="7">
         <v>137.77240839999999</v>
-      </c>
-      <c r="D263" s="2">
-        <v>45962</v>
-      </c>
-      <c r="E263" s="7"/>
-      <c r="F263" s="7">
-        <v>0</v>
-      </c>
-      <c r="G263" s="7">
-        <v>0</v>
-      </c>
-      <c r="H263" s="7">
-        <v>0</v>
-      </c>
-      <c r="I263" s="7">
-        <v>0</v>
-      </c>
-      <c r="J263" s="7"/>
-      <c r="K263" s="7">
-        <v>361</v>
-      </c>
-      <c r="L263" s="7">
-        <v>0</v>
-      </c>
-      <c r="M263" s="7">
-        <v>0</v>
-      </c>
-      <c r="N263" s="7">
-        <v>0</v>
-      </c>
-      <c r="O263" s="7">
-        <v>361</v>
-      </c>
-      <c r="P263" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A264" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B264" s="7">
-        <v>-35.799281999999998</v>
-      </c>
-      <c r="C264" s="7">
-        <v>137.83188699999999</v>
       </c>
       <c r="D264" s="2">
         <v>45962</v>
       </c>
+      <c r="E264" s="7"/>
       <c r="F264" s="7">
         <v>0</v>
       </c>
@@ -10270,11 +10287,9 @@
       <c r="I264" s="7">
         <v>0</v>
       </c>
-      <c r="J264" s="7">
-        <v>0</v>
-      </c>
+      <c r="J264" s="7"/>
       <c r="K264" s="7">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="L264" s="7">
         <v>0</v>
@@ -10286,21 +10301,21 @@
         <v>0</v>
       </c>
       <c r="O264" s="7">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="P264" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B265" s="7">
-        <v>-35.791484199999999</v>
+        <v>-35.799281999999998</v>
       </c>
       <c r="C265" s="7">
-        <v>137.85743299999999</v>
+        <v>137.83188699999999</v>
       </c>
       <c r="D265" s="2">
         <v>45962</v>
@@ -10339,20 +10354,19 @@
         <v>168</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B266" s="7">
-        <v>-35.787857600000002</v>
+        <v>-35.791484199999999</v>
       </c>
       <c r="C266" s="7">
-        <v>137.76991989999999</v>
+        <v>137.85743299999999</v>
       </c>
       <c r="D266" s="2">
-        <v>45964</v>
-      </c>
-      <c r="E266" s="7"/>
+        <v>45962</v>
+      </c>
       <c r="F266" s="7">
         <v>0</v>
       </c>
@@ -10369,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="K266" s="7">
-        <v>6772</v>
+        <v>0</v>
       </c>
       <c r="L266" s="7">
         <v>0</v>
@@ -10378,28 +10392,29 @@
         <v>0</v>
       </c>
       <c r="N266" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O266" s="7">
-        <v>6772</v>
+        <v>0</v>
       </c>
       <c r="P266" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B267" s="7">
-        <v>-35.736241</v>
+        <v>-35.787857600000002</v>
       </c>
       <c r="C267" s="7">
-        <v>137.64868340000001</v>
+        <v>137.76991989999999</v>
       </c>
       <c r="D267" s="2">
         <v>45964</v>
       </c>
+      <c r="E267" s="7"/>
       <c r="F267" s="7">
         <v>0</v>
       </c>
@@ -10416,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="K267" s="7">
-        <v>0</v>
+        <v>6772</v>
       </c>
       <c r="L267" s="7">
         <v>0</v>
@@ -10425,364 +10440,367 @@
         <v>0</v>
       </c>
       <c r="N267" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O267" s="7">
-        <v>0</v>
+        <v>6772</v>
       </c>
       <c r="P267" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A268" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B268" s="7">
+        <v>-35.736241</v>
+      </c>
+      <c r="C268" s="7">
+        <v>137.64868340000001</v>
+      </c>
+      <c r="D268" s="2">
+        <v>45964</v>
+      </c>
+      <c r="F268" s="7">
+        <v>0</v>
+      </c>
+      <c r="G268" s="7">
+        <v>0</v>
+      </c>
+      <c r="H268" s="7">
+        <v>0</v>
+      </c>
+      <c r="I268" s="7">
+        <v>0</v>
+      </c>
+      <c r="J268" s="7">
+        <v>0</v>
+      </c>
+      <c r="K268" s="7">
+        <v>0</v>
+      </c>
+      <c r="L268" s="7">
+        <v>0</v>
+      </c>
+      <c r="M268" s="7">
+        <v>0</v>
+      </c>
+      <c r="N268" s="7">
+        <v>0</v>
+      </c>
+      <c r="O268" s="7">
+        <v>0</v>
+      </c>
+      <c r="P268" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>180</v>
       </c>
-      <c r="B268">
+      <c r="B269">
         <v>-35.082030000000003</v>
       </c>
-      <c r="C268">
+      <c r="C269">
         <v>137.7484</v>
       </c>
-      <c r="D268" s="2">
+      <c r="D269" s="2">
         <v>45966</v>
       </c>
-      <c r="E268">
-        <v>0</v>
-      </c>
-      <c r="F268">
-        <v>0</v>
-      </c>
-      <c r="G268">
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
         <v>139</v>
       </c>
-      <c r="H268">
+      <c r="H269">
         <v>28</v>
       </c>
-      <c r="I268">
-        <v>0</v>
-      </c>
-      <c r="J268">
-        <v>56</v>
-      </c>
-      <c r="K268">
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>56</v>
+      </c>
+      <c r="K269">
         <v>84</v>
       </c>
-      <c r="M268">
+      <c r="M269">
         <v>6778</v>
       </c>
-      <c r="O268">
+      <c r="O269">
         <v>7085</v>
       </c>
-      <c r="P268" t="s">
+      <c r="P269" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>37</v>
       </c>
-      <c r="B269">
+      <c r="B270">
         <v>-34.289369999999998</v>
       </c>
-      <c r="C269">
+      <c r="C270">
         <v>138.01242999999999</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D270" s="2">
         <v>45968</v>
       </c>
-      <c r="F269">
-        <v>56</v>
-      </c>
-      <c r="G269">
+      <c r="F270">
+        <v>56</v>
+      </c>
+      <c r="G270">
         <v>278</v>
       </c>
-      <c r="H269">
+      <c r="H270">
         <v>611</v>
       </c>
-      <c r="I269">
+      <c r="I270">
         <v>389</v>
       </c>
-      <c r="J269">
+      <c r="J270">
         <v>667</v>
       </c>
-      <c r="K269">
+      <c r="K270">
         <v>1778</v>
       </c>
-      <c r="L269">
+      <c r="L270">
         <v>111</v>
       </c>
-      <c r="M269">
+      <c r="M270">
         <v>833</v>
       </c>
-      <c r="N269">
+      <c r="N270">
         <v>111</v>
       </c>
-      <c r="O269">
+      <c r="O270">
         <v>4444</v>
       </c>
-      <c r="P269" t="s">
+      <c r="P270" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>183</v>
       </c>
-      <c r="B270">
+      <c r="B271">
         <v>-35.563558</v>
       </c>
-      <c r="C270">
+      <c r="C271">
         <v>138.61283299999999</v>
-      </c>
-      <c r="D270" s="2">
-        <v>45970</v>
-      </c>
-      <c r="G270">
-        <v>56</v>
-      </c>
-      <c r="H270">
-        <v>333</v>
-      </c>
-      <c r="I270">
-        <v>222</v>
-      </c>
-      <c r="J270">
-        <v>56</v>
-      </c>
-      <c r="K270">
-        <v>389</v>
-      </c>
-      <c r="M270">
-        <v>167</v>
-      </c>
-      <c r="N270">
-        <v>722</v>
-      </c>
-      <c r="O270">
-        <v>1723</v>
-      </c>
-      <c r="P270" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
-        <v>184</v>
-      </c>
-      <c r="B271">
-        <v>-35.135489999999997</v>
-      </c>
-      <c r="C271">
-        <v>137.7167</v>
       </c>
       <c r="D271" s="2">
         <v>45970</v>
       </c>
-      <c r="E271">
-        <v>0</v>
-      </c>
-      <c r="F271">
-        <v>0</v>
-      </c>
       <c r="G271">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H271">
+        <v>333</v>
+      </c>
+      <c r="I271">
+        <v>222</v>
+      </c>
+      <c r="J271">
+        <v>56</v>
+      </c>
+      <c r="K271">
+        <v>389</v>
+      </c>
+      <c r="M271">
+        <v>167</v>
+      </c>
+      <c r="N271">
+        <v>722</v>
+      </c>
+      <c r="O271">
+        <v>1723</v>
+      </c>
+      <c r="P271" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>184</v>
+      </c>
+      <c r="B272">
+        <v>-35.135489999999997</v>
+      </c>
+      <c r="C272">
+        <v>137.7167</v>
+      </c>
+      <c r="D272" s="2">
+        <v>45970</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
         <v>84</v>
       </c>
-      <c r="I271">
-        <v>0</v>
-      </c>
-      <c r="K271">
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="K272">
         <v>1000</v>
       </c>
-      <c r="M271">
+      <c r="M272">
         <v>7778</v>
       </c>
-      <c r="N271">
+      <c r="N272">
         <v>84</v>
       </c>
-      <c r="O271">
+      <c r="O272">
         <v>8946</v>
       </c>
-      <c r="P271" t="s">
+      <c r="P272" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>79</v>
       </c>
-      <c r="B272">
+      <c r="B273">
         <v>-34.804169999999999</v>
       </c>
-      <c r="C272">
+      <c r="C273">
         <v>138.53970000000001</v>
-      </c>
-      <c r="D272" s="2">
-        <v>45971</v>
-      </c>
-      <c r="H272">
-        <v>3</v>
-      </c>
-      <c r="I272">
-        <v>0</v>
-      </c>
-      <c r="K272">
-        <v>42</v>
-      </c>
-      <c r="N272">
-        <v>6</v>
-      </c>
-      <c r="O272">
-        <v>51</v>
-      </c>
-      <c r="P272" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
-        <v>83</v>
-      </c>
-      <c r="B273">
-        <v>-34.837600000000002</v>
-      </c>
-      <c r="C273">
-        <v>138.47788</v>
       </c>
       <c r="D273" s="2">
         <v>45971</v>
       </c>
       <c r="H273">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I273">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K273">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="N273">
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="O273">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="P273" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B274">
-        <v>-34.873939999999997</v>
+        <v>-34.837600000000002</v>
       </c>
       <c r="C274">
-        <v>138.48820000000001</v>
+        <v>138.47788</v>
       </c>
       <c r="D274" s="2">
         <v>45971</v>
       </c>
       <c r="H274">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K274">
-        <v>18.75</v>
+        <v>180</v>
       </c>
       <c r="N274">
-        <v>16.25</v>
+        <v>12.5</v>
       </c>
       <c r="O274">
-        <v>43.125</v>
+        <v>195</v>
       </c>
       <c r="P274" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="B275">
-        <v>-35.078539999999997</v>
+        <v>-34.873939999999997</v>
       </c>
       <c r="C275">
-        <v>138.49587</v>
+        <v>138.48820000000001</v>
       </c>
       <c r="D275" s="2">
         <v>45971</v>
       </c>
       <c r="H275">
+        <v>8</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>18.75</v>
+      </c>
+      <c r="N275">
+        <v>16.25</v>
+      </c>
+      <c r="O275">
+        <v>43.125</v>
+      </c>
+      <c r="P275" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>181</v>
+      </c>
+      <c r="B276">
+        <v>-35.078539999999997</v>
+      </c>
+      <c r="C276">
+        <v>138.49587</v>
+      </c>
+      <c r="D276" s="2">
+        <v>45971</v>
+      </c>
+      <c r="H276">
         <v>17</v>
       </c>
-      <c r="I275">
+      <c r="I276">
         <v>10</v>
       </c>
-      <c r="K275">
+      <c r="K276">
         <v>155</v>
       </c>
-      <c r="N275">
-        <v>0</v>
-      </c>
-      <c r="O275">
+      <c r="N276">
+        <v>0</v>
+      </c>
+      <c r="O276">
         <v>172</v>
       </c>
-      <c r="P275" t="s">
+      <c r="P276" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
-        <v>59</v>
-      </c>
-      <c r="B276">
-        <v>-35.084850000000003</v>
-      </c>
-      <c r="C276">
-        <v>137.74889999999999</v>
-      </c>
-      <c r="D276" s="2">
-        <v>45941</v>
-      </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-      <c r="F276">
-        <v>56</v>
-      </c>
-      <c r="G276">
-        <v>0</v>
-      </c>
-      <c r="H276">
-        <v>222</v>
-      </c>
-      <c r="I276">
-        <v>0</v>
-      </c>
-      <c r="K276">
-        <v>1444</v>
-      </c>
-      <c r="L276">
-        <v>56</v>
-      </c>
-      <c r="M276">
-        <v>3278</v>
-      </c>
-      <c r="O276">
-        <v>5056</v>
-      </c>
-      <c r="P276" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>122</v>
       </c>
@@ -10817,194 +10835,772 @@
         <v>130</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
+        <v>93</v>
+      </c>
+      <c r="B278">
+        <v>-35.634602000000001</v>
+      </c>
+      <c r="C278">
+        <v>138.49898300000001</v>
+      </c>
+      <c r="D278" s="2">
+        <v>45973</v>
+      </c>
+      <c r="I278">
+        <v>278</v>
+      </c>
+      <c r="P278" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>95</v>
       </c>
-      <c r="B278">
+      <c r="B279">
         <v>-35.58858</v>
       </c>
-      <c r="C278">
+      <c r="C279">
         <v>138.60474600000001</v>
       </c>
-      <c r="D278" s="2">
+      <c r="D279" s="2">
         <v>45974</v>
       </c>
-      <c r="F278">
+      <c r="F279">
         <v>111</v>
       </c>
-      <c r="H278">
+      <c r="H279">
         <v>167</v>
       </c>
-      <c r="I278">
+      <c r="I279">
         <v>111</v>
       </c>
-      <c r="M278">
+      <c r="M279">
         <v>111</v>
       </c>
-      <c r="N278">
+      <c r="N279">
         <v>444</v>
       </c>
-      <c r="O278">
+      <c r="O279">
         <v>833</v>
       </c>
-      <c r="P278" t="s">
+      <c r="P279" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>188</v>
+      </c>
+      <c r="B280">
+        <v>-35.538469999999997</v>
+      </c>
+      <c r="C280">
+        <v>138.649779</v>
+      </c>
+      <c r="D280" s="2">
+        <v>45974</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="P280" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>93</v>
+      </c>
+      <c r="B281">
+        <v>-35.634602000000001</v>
+      </c>
+      <c r="C281">
+        <v>138.49898300000001</v>
+      </c>
+      <c r="D281" s="2">
+        <v>45976</v>
+      </c>
+      <c r="I281">
+        <v>56</v>
+      </c>
+      <c r="P281" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
         <v>185</v>
       </c>
-      <c r="B279">
+      <c r="B282">
         <v>-35.593769999999999</v>
       </c>
-      <c r="C279">
+      <c r="C282">
         <v>137.53183000000001</v>
       </c>
-      <c r="D279" s="2">
+      <c r="D282" s="2">
         <v>45977</v>
       </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="H279">
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
         <v>62556</v>
       </c>
-      <c r="I279">
+      <c r="I282">
         <v>62556</v>
       </c>
-      <c r="J279">
-        <v>0</v>
-      </c>
-      <c r="K279">
-        <v>0</v>
-      </c>
-      <c r="L279">
-        <v>0</v>
-      </c>
-      <c r="M279">
-        <v>0</v>
-      </c>
-      <c r="N279">
-        <v>0</v>
-      </c>
-      <c r="O279">
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>0</v>
+      </c>
+      <c r="O282">
         <v>62556</v>
       </c>
-      <c r="P279" s="7" t="s">
+      <c r="P282" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
         <v>186</v>
       </c>
-      <c r="B280">
+      <c r="B283">
         <v>-35.592770000000002</v>
       </c>
-      <c r="C280">
+      <c r="C283">
         <v>137.53183000000001</v>
       </c>
-      <c r="D280" s="2">
+      <c r="D283" s="2">
         <v>45977</v>
       </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="H280">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
         <v>45667</v>
       </c>
-      <c r="I280">
+      <c r="I283">
         <v>45667</v>
       </c>
-      <c r="J280">
-        <v>0</v>
-      </c>
-      <c r="K280">
-        <v>0</v>
-      </c>
-      <c r="L280">
-        <v>0</v>
-      </c>
-      <c r="M280">
-        <v>0</v>
-      </c>
-      <c r="N280">
-        <v>0</v>
-      </c>
-      <c r="O280">
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>0</v>
+      </c>
+      <c r="O283">
         <v>45667</v>
       </c>
-      <c r="P280" s="7" t="s">
+      <c r="P283" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
         <v>187</v>
       </c>
-      <c r="B281">
+      <c r="B284">
         <v>-35.591769999999997</v>
       </c>
-      <c r="C281">
+      <c r="C284">
         <v>137.53183000000001</v>
       </c>
-      <c r="D281" s="2">
+      <c r="D284" s="2">
         <v>45977</v>
       </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-      <c r="F281">
-        <v>0</v>
-      </c>
-      <c r="G281">
-        <v>0</v>
-      </c>
-      <c r="H281">
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
         <v>23222</v>
       </c>
-      <c r="I281">
+      <c r="I284">
         <v>23222</v>
       </c>
-      <c r="J281">
-        <v>0</v>
-      </c>
-      <c r="K281">
-        <v>0</v>
-      </c>
-      <c r="L281">
-        <v>0</v>
-      </c>
-      <c r="M281">
-        <v>0</v>
-      </c>
-      <c r="N281">
-        <v>0</v>
-      </c>
-      <c r="O281">
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>0</v>
+      </c>
+      <c r="O284">
         <v>23222</v>
       </c>
-      <c r="P281" s="7" t="s">
+      <c r="P284" s="7" t="s">
         <v>168</v>
       </c>
     </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>79</v>
+      </c>
+      <c r="B285">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C285">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D285" s="2">
+        <v>45977</v>
+      </c>
+      <c r="H285">
+        <v>52</v>
+      </c>
+      <c r="I285">
+        <v>20</v>
+      </c>
+      <c r="K285">
+        <v>22</v>
+      </c>
+      <c r="N285">
+        <v>2</v>
+      </c>
+      <c r="O285">
+        <v>98</v>
+      </c>
+      <c r="P285" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>83</v>
+      </c>
+      <c r="B286">
+        <v>-34.837600000000002</v>
+      </c>
+      <c r="C286">
+        <v>138.47788</v>
+      </c>
+      <c r="D286" s="2">
+        <v>45977</v>
+      </c>
+      <c r="H286">
+        <v>138</v>
+      </c>
+      <c r="I286">
+        <v>20</v>
+      </c>
+      <c r="K286">
+        <v>52</v>
+      </c>
+      <c r="N286">
+        <v>30</v>
+      </c>
+      <c r="O286">
+        <v>240</v>
+      </c>
+      <c r="P286" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>86</v>
+      </c>
+      <c r="B287">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C287">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D287" s="2">
+        <v>45977</v>
+      </c>
+      <c r="H287">
+        <v>40</v>
+      </c>
+      <c r="I287">
+        <v>6</v>
+      </c>
+      <c r="K287">
+        <v>22</v>
+      </c>
+      <c r="N287">
+        <v>70</v>
+      </c>
+      <c r="O287">
+        <v>138</v>
+      </c>
+      <c r="P287" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>87</v>
+      </c>
+      <c r="B288">
+        <v>-35.540277000000003</v>
+      </c>
+      <c r="C288">
+        <v>138.66416599999999</v>
+      </c>
+      <c r="D288" s="2">
+        <v>45977</v>
+      </c>
+      <c r="F288">
+        <v>111</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>111</v>
+      </c>
+      <c r="M288">
+        <v>111</v>
+      </c>
+      <c r="N288">
+        <v>1111</v>
+      </c>
+      <c r="O288">
+        <v>1444</v>
+      </c>
+      <c r="P288" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>101</v>
+      </c>
+      <c r="B289">
+        <v>-35.536745000000003</v>
+      </c>
+      <c r="C289">
+        <v>138.6913744</v>
+      </c>
+      <c r="D289" s="2">
+        <v>45977</v>
+      </c>
+      <c r="F289">
+        <v>167</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>56</v>
+      </c>
+      <c r="K289">
+        <v>56</v>
+      </c>
+      <c r="M289">
+        <v>222</v>
+      </c>
+      <c r="N289">
+        <v>389</v>
+      </c>
+      <c r="O289">
+        <v>890</v>
+      </c>
+      <c r="P289" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>88</v>
+      </c>
+      <c r="B290">
+        <v>-35.573300000000003</v>
+      </c>
+      <c r="C290">
+        <v>138.64250000000001</v>
+      </c>
+      <c r="D290" s="2">
+        <v>45977</v>
+      </c>
+      <c r="F290">
+        <v>28</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="M290">
+        <v>56</v>
+      </c>
+      <c r="N290">
+        <v>278</v>
+      </c>
+      <c r="O290">
+        <v>362</v>
+      </c>
+      <c r="P290" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>89</v>
+      </c>
+      <c r="B291">
+        <v>-35.581124000000003</v>
+      </c>
+      <c r="C291">
+        <v>138.60879700000001</v>
+      </c>
+      <c r="D291" s="2">
+        <v>45977</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>56</v>
+      </c>
+      <c r="N291">
+        <v>167</v>
+      </c>
+      <c r="O291">
+        <v>223</v>
+      </c>
+      <c r="P291" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>90</v>
+      </c>
+      <c r="B292">
+        <v>-35.6048446</v>
+      </c>
+      <c r="C292">
+        <v>138.59278499999999</v>
+      </c>
+      <c r="D292" s="2">
+        <v>45977</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="O292">
+        <v>0</v>
+      </c>
+      <c r="P292" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>176</v>
+      </c>
+      <c r="B293">
+        <v>-35.612285999999997</v>
+      </c>
+      <c r="C293">
+        <v>138.564302</v>
+      </c>
+      <c r="D293" s="2">
+        <v>45977</v>
+      </c>
+      <c r="F293">
+        <v>278</v>
+      </c>
+      <c r="H293">
+        <v>111</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>56</v>
+      </c>
+      <c r="M293">
+        <v>278</v>
+      </c>
+      <c r="N293">
+        <v>722</v>
+      </c>
+      <c r="O293">
+        <v>1445</v>
+      </c>
+      <c r="P293" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>92</v>
+      </c>
+      <c r="B294">
+        <v>-35.536168000000004</v>
+      </c>
+      <c r="C294">
+        <v>138.677615</v>
+      </c>
+      <c r="D294" s="2">
+        <v>45978</v>
+      </c>
+      <c r="I294">
+        <v>722</v>
+      </c>
+      <c r="P294" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>190</v>
+      </c>
+      <c r="B295">
+        <v>-35.515810999999999</v>
+      </c>
+      <c r="C295">
+        <v>138.705062</v>
+      </c>
+      <c r="D295" s="2">
+        <v>45978</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="P295" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>59</v>
+      </c>
+      <c r="B296">
+        <v>-35.084850000000003</v>
+      </c>
+      <c r="C296">
+        <v>137.74889999999999</v>
+      </c>
+      <c r="D296" s="2">
+        <v>45980</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>83</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>83</v>
+      </c>
+      <c r="K296">
+        <v>167</v>
+      </c>
+      <c r="L296">
+        <v>0</v>
+      </c>
+      <c r="M296">
+        <v>2000</v>
+      </c>
+      <c r="O296">
+        <v>2333</v>
+      </c>
+      <c r="P296" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>191</v>
+      </c>
+      <c r="B297">
+        <v>-35.515507999999997</v>
+      </c>
+      <c r="C297">
+        <v>138.729004</v>
+      </c>
+      <c r="D297" s="2">
+        <v>45980</v>
+      </c>
+      <c r="I297">
+        <v>667</v>
+      </c>
+      <c r="P297" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>190</v>
+      </c>
+      <c r="B298">
+        <v>-35.515810999999999</v>
+      </c>
+      <c r="C298">
+        <v>138.705062</v>
+      </c>
+      <c r="D298" s="2">
+        <v>45980</v>
+      </c>
+      <c r="I298">
+        <v>56</v>
+      </c>
+      <c r="P298" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>92</v>
+      </c>
+      <c r="B299">
+        <v>-35.536168000000004</v>
+      </c>
+      <c r="C299">
+        <v>138.677615</v>
+      </c>
+      <c r="D299" s="2">
+        <v>45980</v>
+      </c>
+      <c r="I299">
+        <v>444</v>
+      </c>
+      <c r="P299" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>188</v>
+      </c>
+      <c r="B300">
+        <v>-35.538469999999997</v>
+      </c>
+      <c r="C300">
+        <v>138.649779</v>
+      </c>
+      <c r="D300" s="2">
+        <v>45980</v>
+      </c>
+      <c r="I300">
+        <v>167</v>
+      </c>
+      <c r="P300" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>192</v>
+      </c>
+      <c r="B301">
+        <v>-35.592393000000001</v>
+      </c>
+      <c r="C301">
+        <v>138.599706</v>
+      </c>
+      <c r="D301" s="2">
+        <v>45980</v>
+      </c>
+      <c r="I301">
+        <v>111</v>
+      </c>
+      <c r="P301" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>93</v>
+      </c>
+      <c r="B302">
+        <v>-35.634602000000001</v>
+      </c>
+      <c r="C302">
+        <v>138.49898300000001</v>
+      </c>
+      <c r="D302" s="2">
+        <v>45980</v>
+      </c>
+      <c r="I302">
+        <v>667</v>
+      </c>
+      <c r="P302" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>193</v>
+      </c>
+      <c r="B303">
+        <v>-35.638637000000003</v>
+      </c>
+      <c r="C303">
+        <v>138.31366499999999</v>
+      </c>
+      <c r="D303" s="2">
+        <v>45980</v>
+      </c>
+      <c r="I303">
+        <v>1333</v>
+      </c>
+      <c r="P303" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P268">
-    <sortCondition ref="D2:D268"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P303">
+    <sortCondition ref="D2:D303"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662518EB-45D0-4D67-9E23-FA0CB2C1AD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A609B3BC-65F2-43FE-A360-7E68663A0731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="207">
   <si>
     <t>Date</t>
   </si>
@@ -639,6 +639,45 @@
   <si>
     <t>Tunkalilla Beach</t>
   </si>
+  <si>
+    <t>Port Wakefield Boat ramp</t>
+  </si>
+  <si>
+    <t>Point Turton Boat ramp</t>
+  </si>
+  <si>
+    <t>Black Point Boat ramp</t>
+  </si>
+  <si>
+    <t>Back West Island</t>
+  </si>
+  <si>
+    <t>Bluff Jetty side Beach</t>
+  </si>
+  <si>
+    <t>AR Remembrance Creek</t>
+  </si>
+  <si>
+    <t>ARBirdhideCreek</t>
+  </si>
+  <si>
+    <t>Brown Beach_near camp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boxing Bay </t>
+  </si>
+  <si>
+    <t>Boxing Bay</t>
+  </si>
+  <si>
+    <t>EmuBay_beach</t>
+  </si>
+  <si>
+    <t>EmuBay_jetty</t>
+  </si>
+  <si>
+    <t>PL_bridge</t>
+  </si>
 </sst>
 </file>
 
@@ -647,7 +686,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +715,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -697,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -711,6 +761,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1045,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:P303"/>
+  <dimension ref="A1:P319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C305" sqref="C305"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P319" sqref="A1:P319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11412,107 +11464,167 @@
       </c>
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>59</v>
-      </c>
-      <c r="B296">
-        <v>-35.084850000000003</v>
-      </c>
-      <c r="C296">
-        <v>137.74889999999999</v>
+      <c r="A296" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B296" s="10">
+        <v>-35.5691281</v>
+      </c>
+      <c r="C296" s="10">
+        <v>137.6093937</v>
       </c>
       <c r="D296" s="2">
-        <v>45980</v>
-      </c>
-      <c r="E296">
-        <v>0</v>
-      </c>
-      <c r="F296">
-        <v>0</v>
-      </c>
-      <c r="G296">
-        <v>0</v>
-      </c>
-      <c r="H296">
-        <v>83</v>
-      </c>
-      <c r="I296">
-        <v>0</v>
-      </c>
-      <c r="J296">
-        <v>83</v>
-      </c>
-      <c r="K296">
-        <v>167</v>
-      </c>
-      <c r="L296">
-        <v>0</v>
-      </c>
-      <c r="M296">
-        <v>2000</v>
-      </c>
-      <c r="O296">
-        <v>2333</v>
-      </c>
-      <c r="P296" t="s">
-        <v>150</v>
+        <v>45978</v>
+      </c>
+      <c r="E296" s="10">
+        <v>0</v>
+      </c>
+      <c r="F296" s="10">
+        <v>0</v>
+      </c>
+      <c r="G296" s="10">
+        <v>0</v>
+      </c>
+      <c r="H296" s="10">
+        <v>8778</v>
+      </c>
+      <c r="I296" s="10">
+        <v>8778</v>
+      </c>
+      <c r="J296" s="10">
+        <v>0</v>
+      </c>
+      <c r="K296" s="10">
+        <v>0</v>
+      </c>
+      <c r="L296" s="10">
+        <v>0</v>
+      </c>
+      <c r="M296" s="10">
+        <v>0</v>
+      </c>
+      <c r="N296" s="10">
+        <v>0</v>
+      </c>
+      <c r="O296" s="10">
+        <v>8889</v>
+      </c>
+      <c r="P296" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
-        <v>191</v>
-      </c>
-      <c r="B297">
-        <v>-35.515507999999997</v>
-      </c>
-      <c r="C297">
-        <v>138.729004</v>
+      <c r="A297" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B297" s="10">
+        <v>-35.5691281</v>
+      </c>
+      <c r="C297" s="10">
+        <v>137.6093937</v>
       </c>
       <c r="D297" s="2">
-        <v>45980</v>
-      </c>
-      <c r="I297">
-        <v>667</v>
-      </c>
-      <c r="P297" t="s">
-        <v>189</v>
+        <v>45978</v>
+      </c>
+      <c r="E297" s="10">
+        <v>0</v>
+      </c>
+      <c r="F297" s="10">
+        <v>0</v>
+      </c>
+      <c r="G297" s="10">
+        <v>0</v>
+      </c>
+      <c r="H297" s="10">
+        <v>10222</v>
+      </c>
+      <c r="I297" s="10">
+        <v>10222</v>
+      </c>
+      <c r="J297" s="10">
+        <v>0</v>
+      </c>
+      <c r="K297" s="10">
+        <v>0</v>
+      </c>
+      <c r="L297" s="10">
+        <v>0</v>
+      </c>
+      <c r="M297" s="10">
+        <v>0</v>
+      </c>
+      <c r="N297" s="10">
+        <v>0</v>
+      </c>
+      <c r="O297" s="10">
+        <v>10222</v>
+      </c>
+      <c r="P297" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="B298">
-        <v>-35.515810999999999</v>
+        <v>-35.084850000000003</v>
       </c>
       <c r="C298">
-        <v>138.705062</v>
+        <v>137.74889999999999</v>
       </c>
       <c r="D298" s="2">
         <v>45980</v>
       </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>83</v>
+      </c>
       <c r="I298">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>83</v>
+      </c>
+      <c r="K298">
+        <v>167</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+      <c r="M298">
+        <v>2000</v>
+      </c>
+      <c r="O298">
+        <v>2333</v>
       </c>
       <c r="P298" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="B299">
-        <v>-35.536168000000004</v>
+        <v>-35.515507999999997</v>
       </c>
       <c r="C299">
-        <v>138.677615</v>
+        <v>138.729004</v>
       </c>
       <c r="D299" s="2">
         <v>45980</v>
       </c>
       <c r="I299">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="P299" t="s">
         <v>189</v>
@@ -11520,19 +11632,19 @@
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B300">
-        <v>-35.538469999999997</v>
+        <v>-35.515810999999999</v>
       </c>
       <c r="C300">
-        <v>138.649779</v>
+        <v>138.705062</v>
       </c>
       <c r="D300" s="2">
         <v>45980</v>
       </c>
       <c r="I300">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="P300" t="s">
         <v>189</v>
@@ -11540,19 +11652,19 @@
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="B301">
-        <v>-35.592393000000001</v>
+        <v>-35.536168000000004</v>
       </c>
       <c r="C301">
-        <v>138.599706</v>
+        <v>138.677615</v>
       </c>
       <c r="D301" s="2">
         <v>45980</v>
       </c>
       <c r="I301">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="P301" t="s">
         <v>189</v>
@@ -11560,19 +11672,19 @@
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="B302">
-        <v>-35.634602000000001</v>
+        <v>-35.538469999999997</v>
       </c>
       <c r="C302">
-        <v>138.49898300000001</v>
+        <v>138.649779</v>
       </c>
       <c r="D302" s="2">
         <v>45980</v>
       </c>
       <c r="I302">
-        <v>667</v>
+        <v>167</v>
       </c>
       <c r="P302" t="s">
         <v>189</v>
@@ -11580,27 +11692,657 @@
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B303">
-        <v>-35.638637000000003</v>
+        <v>-35.592393000000001</v>
       </c>
       <c r="C303">
-        <v>138.31366499999999</v>
+        <v>138.599706</v>
       </c>
       <c r="D303" s="2">
         <v>45980</v>
       </c>
       <c r="I303">
-        <v>1333</v>
+        <v>111</v>
       </c>
       <c r="P303" t="s">
         <v>189</v>
       </c>
     </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>93</v>
+      </c>
+      <c r="B304">
+        <v>-35.634602000000001</v>
+      </c>
+      <c r="C304">
+        <v>138.49898300000001</v>
+      </c>
+      <c r="D304" s="2">
+        <v>45980</v>
+      </c>
+      <c r="I304">
+        <v>667</v>
+      </c>
+      <c r="P304" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>193</v>
+      </c>
+      <c r="B305">
+        <v>-35.638637000000003</v>
+      </c>
+      <c r="C305">
+        <v>138.31366499999999</v>
+      </c>
+      <c r="D305" s="2">
+        <v>45980</v>
+      </c>
+      <c r="I305">
+        <v>1333</v>
+      </c>
+      <c r="P305" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>37</v>
+      </c>
+      <c r="B306">
+        <v>-34.289369999999998</v>
+      </c>
+      <c r="C306">
+        <v>138.01242999999999</v>
+      </c>
+      <c r="D306" s="2">
+        <v>45981</v>
+      </c>
+      <c r="F306">
+        <v>278</v>
+      </c>
+      <c r="G306">
+        <v>722</v>
+      </c>
+      <c r="H306">
+        <v>500</v>
+      </c>
+      <c r="I306">
+        <v>111</v>
+      </c>
+      <c r="J306" s="6">
+        <v>4556</v>
+      </c>
+      <c r="K306" s="6">
+        <v>2278</v>
+      </c>
+      <c r="L306">
+        <v>389</v>
+      </c>
+      <c r="M306">
+        <v>389</v>
+      </c>
+      <c r="O306" s="6">
+        <v>9111</v>
+      </c>
+      <c r="P306" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>195</v>
+      </c>
+      <c r="B307">
+        <v>-34.933939000000002</v>
+      </c>
+      <c r="C307">
+        <v>137.35227800000001</v>
+      </c>
+      <c r="D307" s="2">
+        <v>45983</v>
+      </c>
+      <c r="H307">
+        <v>0.45</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>1.4</v>
+      </c>
+      <c r="N307">
+        <v>0.15</v>
+      </c>
+      <c r="O307">
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="P307" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>194</v>
+      </c>
+      <c r="B308">
+        <v>-34.190429999999999</v>
+      </c>
+      <c r="C308">
+        <v>138.44640000000001</v>
+      </c>
+      <c r="D308" s="2">
+        <v>45984</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N308">
+        <v>0</v>
+      </c>
+      <c r="O308">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P308" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>196</v>
+      </c>
+      <c r="B309">
+        <v>-34.606234999999998</v>
+      </c>
+      <c r="C309">
+        <v>137.882094</v>
+      </c>
+      <c r="D309" s="2">
+        <v>45984</v>
+      </c>
+      <c r="H309">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>6</v>
+      </c>
+      <c r="N309">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="O309">
+        <v>9.3339999999999996</v>
+      </c>
+      <c r="P309" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>95</v>
+      </c>
+      <c r="B310">
+        <v>-35.58858</v>
+      </c>
+      <c r="C310">
+        <v>138.60474600000001</v>
+      </c>
+      <c r="D310" s="2">
+        <v>45984</v>
+      </c>
+      <c r="F310">
+        <v>111</v>
+      </c>
+      <c r="H310">
+        <v>167</v>
+      </c>
+      <c r="I310">
+        <v>111</v>
+      </c>
+      <c r="K310">
+        <v>278</v>
+      </c>
+      <c r="M310">
+        <v>167</v>
+      </c>
+      <c r="N310">
+        <v>500</v>
+      </c>
+      <c r="O310">
+        <v>1223</v>
+      </c>
+      <c r="P310" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A311" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B311" s="10">
+        <v>-35.793615000000003</v>
+      </c>
+      <c r="C311" s="10">
+        <v>137.85449840000001</v>
+      </c>
+      <c r="D311" s="2">
+        <v>45984</v>
+      </c>
+      <c r="E311" s="10">
+        <v>0</v>
+      </c>
+      <c r="F311" s="10">
+        <v>0</v>
+      </c>
+      <c r="G311" s="10">
+        <v>0</v>
+      </c>
+      <c r="H311" s="10">
+        <v>111</v>
+      </c>
+      <c r="I311" s="10">
+        <v>1</v>
+      </c>
+      <c r="J311" s="10"/>
+      <c r="K311" s="10">
+        <v>39111</v>
+      </c>
+      <c r="L311" s="10">
+        <v>0</v>
+      </c>
+      <c r="M311" s="10">
+        <v>0</v>
+      </c>
+      <c r="N311" s="10">
+        <v>0</v>
+      </c>
+      <c r="O311" s="10">
+        <v>39223</v>
+      </c>
+      <c r="P311" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A312" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B312" s="9">
+        <v>-35.787857600000002</v>
+      </c>
+      <c r="C312" s="10">
+        <v>137.76991989999999</v>
+      </c>
+      <c r="D312" s="2">
+        <v>45985</v>
+      </c>
+      <c r="E312" s="9">
+        <v>0</v>
+      </c>
+      <c r="F312" s="9">
+        <v>0</v>
+      </c>
+      <c r="G312" s="9">
+        <v>0</v>
+      </c>
+      <c r="H312" s="9">
+        <v>222</v>
+      </c>
+      <c r="I312" s="9">
+        <v>222</v>
+      </c>
+      <c r="J312" s="9">
+        <v>1222</v>
+      </c>
+      <c r="K312" s="9">
+        <v>1899</v>
+      </c>
+      <c r="L312" s="9">
+        <v>0</v>
+      </c>
+      <c r="M312" s="9">
+        <v>0</v>
+      </c>
+      <c r="N312" s="9">
+        <v>0</v>
+      </c>
+      <c r="O312" s="9">
+        <v>3333</v>
+      </c>
+      <c r="P312" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A313" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B313" s="10">
+        <v>-35.593628899999999</v>
+      </c>
+      <c r="C313" s="10">
+        <v>137.5080696</v>
+      </c>
+      <c r="D313" s="2">
+        <v>45985</v>
+      </c>
+      <c r="E313" s="10">
+        <v>0</v>
+      </c>
+      <c r="F313" s="10">
+        <v>0</v>
+      </c>
+      <c r="G313" s="10">
+        <v>0</v>
+      </c>
+      <c r="H313" s="10">
+        <v>7000</v>
+      </c>
+      <c r="I313" s="10">
+        <v>7000</v>
+      </c>
+      <c r="J313" s="10">
+        <v>667</v>
+      </c>
+      <c r="K313" s="10">
+        <v>778</v>
+      </c>
+      <c r="L313" s="10">
+        <v>0</v>
+      </c>
+      <c r="M313" s="10">
+        <v>0</v>
+      </c>
+      <c r="N313" s="10">
+        <v>0</v>
+      </c>
+      <c r="O313" s="10">
+        <v>8445</v>
+      </c>
+      <c r="P313" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A314" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B314" s="10">
+        <v>-35.5909288</v>
+      </c>
+      <c r="C314" s="10">
+        <v>137.50683040000001</v>
+      </c>
+      <c r="D314" s="2">
+        <v>45985</v>
+      </c>
+      <c r="E314" s="10">
+        <v>1222</v>
+      </c>
+      <c r="F314" s="10">
+        <v>0</v>
+      </c>
+      <c r="G314" s="10">
+        <v>0</v>
+      </c>
+      <c r="H314" s="10">
+        <v>444</v>
+      </c>
+      <c r="I314" s="10">
+        <v>444</v>
+      </c>
+      <c r="J314" s="10">
+        <v>667</v>
+      </c>
+      <c r="K314" s="10">
+        <v>11667</v>
+      </c>
+      <c r="L314" s="10">
+        <v>0</v>
+      </c>
+      <c r="M314" s="10">
+        <v>0</v>
+      </c>
+      <c r="N314" s="10">
+        <v>0</v>
+      </c>
+      <c r="O314" s="10">
+        <v>14000</v>
+      </c>
+      <c r="P314" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>197</v>
+      </c>
+      <c r="B315">
+        <v>-35.610827999999998</v>
+      </c>
+      <c r="C315">
+        <v>138.59484699999999</v>
+      </c>
+      <c r="D315" s="2">
+        <v>45986</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="M315">
+        <v>167</v>
+      </c>
+      <c r="N315">
+        <v>500</v>
+      </c>
+      <c r="O315">
+        <v>667</v>
+      </c>
+      <c r="P315" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>198</v>
+      </c>
+      <c r="B316">
+        <v>-35.588391000000001</v>
+      </c>
+      <c r="C316">
+        <v>138.603328</v>
+      </c>
+      <c r="D316" s="2">
+        <v>45986</v>
+      </c>
+      <c r="F316">
+        <v>111</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>111</v>
+      </c>
+      <c r="M316">
+        <v>111</v>
+      </c>
+      <c r="N316">
+        <v>500</v>
+      </c>
+      <c r="O316">
+        <v>833</v>
+      </c>
+      <c r="P316" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A317" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B317" s="10">
+        <v>-35.802792599999997</v>
+      </c>
+      <c r="C317" s="10">
+        <v>137.745824</v>
+      </c>
+      <c r="D317" s="2">
+        <v>45986</v>
+      </c>
+      <c r="E317" s="10">
+        <v>17</v>
+      </c>
+      <c r="F317" s="10">
+        <v>0</v>
+      </c>
+      <c r="G317" s="10">
+        <v>0</v>
+      </c>
+      <c r="H317" s="10">
+        <v>40556</v>
+      </c>
+      <c r="I317" s="10">
+        <v>40000</v>
+      </c>
+      <c r="J317" s="10">
+        <v>0</v>
+      </c>
+      <c r="K317" s="10">
+        <v>30556</v>
+      </c>
+      <c r="L317" s="10">
+        <v>0</v>
+      </c>
+      <c r="M317" s="10">
+        <v>0</v>
+      </c>
+      <c r="N317" s="10">
+        <v>15</v>
+      </c>
+      <c r="O317" s="10">
+        <v>76556</v>
+      </c>
+      <c r="P317" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A318" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B318" s="9">
+        <v>-35.787857600000002</v>
+      </c>
+      <c r="C318" s="10">
+        <v>137.76991989999999</v>
+      </c>
+      <c r="D318" s="2">
+        <v>45987</v>
+      </c>
+      <c r="E318" s="10">
+        <v>0</v>
+      </c>
+      <c r="F318" s="10">
+        <v>0</v>
+      </c>
+      <c r="G318" s="10">
+        <v>0</v>
+      </c>
+      <c r="H318" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I318" s="10">
+        <v>0</v>
+      </c>
+      <c r="J318" s="10">
+        <v>1</v>
+      </c>
+      <c r="K318" s="10">
+        <v>4</v>
+      </c>
+      <c r="L318" s="10">
+        <v>0</v>
+      </c>
+      <c r="M318" s="10">
+        <v>0</v>
+      </c>
+      <c r="N318" s="10">
+        <v>0</v>
+      </c>
+      <c r="O318" s="10">
+        <v>1005</v>
+      </c>
+      <c r="P318" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A319" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B319" s="10">
+        <v>-35.781898699999999</v>
+      </c>
+      <c r="C319" s="10">
+        <v>137.7717006</v>
+      </c>
+      <c r="D319" s="2">
+        <v>45987</v>
+      </c>
+      <c r="E319" s="10">
+        <v>0</v>
+      </c>
+      <c r="F319" s="10">
+        <v>0</v>
+      </c>
+      <c r="G319" s="10">
+        <v>0</v>
+      </c>
+      <c r="H319" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I319" s="10">
+        <v>0</v>
+      </c>
+      <c r="J319" s="10">
+        <v>0</v>
+      </c>
+      <c r="K319" s="10">
+        <v>3111</v>
+      </c>
+      <c r="L319" s="10">
+        <v>0</v>
+      </c>
+      <c r="M319" s="10">
+        <v>0</v>
+      </c>
+      <c r="N319" s="10">
+        <v>222</v>
+      </c>
+      <c r="O319" s="10">
+        <v>4333</v>
+      </c>
+      <c r="P319" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P303">
-    <sortCondition ref="D2:D303"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P319">
+    <sortCondition ref="D2:D319"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A609B3BC-65F2-43FE-A360-7E68663A0731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBE292D-94D8-4CDC-A858-C38BC32ACD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:P319"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A301" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P319" sqref="A1:P319"/>
+      <selection activeCell="A320" sqref="A320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11831,10 +11831,10 @@
         <v>194</v>
       </c>
       <c r="B308">
-        <v>-34.190429999999999</v>
+        <v>-34.191187999999997</v>
       </c>
       <c r="C308">
-        <v>138.44640000000001</v>
+        <v>138.144317</v>
       </c>
       <c r="D308" s="2">
         <v>45984</v>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBE292D-94D8-4CDC-A858-C38BC32ACD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF9F760-9450-469C-81DF-23F346DFF54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="-25965" yWindow="2670" windowWidth="23055" windowHeight="12825" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="218">
   <si>
     <t>Date</t>
   </si>
@@ -677,6 +677,39 @@
   </si>
   <si>
     <t>PL_bridge</t>
+  </si>
+  <si>
+    <t>West Beach</t>
+  </si>
+  <si>
+    <t>PelicanLagoon_boat_top</t>
+  </si>
+  <si>
+    <t>PelicanLagoon_boat_bottom</t>
+  </si>
+  <si>
+    <t>Island beach boat ramp</t>
+  </si>
+  <si>
+    <t>Island Beach</t>
+  </si>
+  <si>
+    <t>Brownlow</t>
+  </si>
+  <si>
+    <t>Min Oil</t>
+  </si>
+  <si>
+    <t>Wright Island bay beach</t>
+  </si>
+  <si>
+    <t>Middleton Day Street</t>
+  </si>
+  <si>
+    <t>Parsons Beach</t>
+  </si>
+  <si>
+    <t>Victor Harbor yacht club</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:P319"/>
+  <dimension ref="A1:P347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A320" sqref="A320"/>
+    <sheetView tabSelected="1" topLeftCell="A324" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A347" sqref="A347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10987,7 +11020,7 @@
         <v>185</v>
       </c>
       <c r="B282">
-        <v>-35.593769999999999</v>
+        <v>-35.592570000000002</v>
       </c>
       <c r="C282">
         <v>137.53183000000001</v>
@@ -11037,7 +11070,7 @@
         <v>186</v>
       </c>
       <c r="B283">
-        <v>-35.592770000000002</v>
+        <v>-35.592669999999998</v>
       </c>
       <c r="C283">
         <v>137.53183000000001</v>
@@ -11087,7 +11120,7 @@
         <v>187</v>
       </c>
       <c r="B284">
-        <v>-35.591769999999997</v>
+        <v>-35.592770000000002</v>
       </c>
       <c r="C284">
         <v>137.53183000000001</v>
@@ -12338,6 +12371,920 @@
       </c>
       <c r="P319" s="10" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>180</v>
+      </c>
+      <c r="B320">
+        <v>-35.082030000000003</v>
+      </c>
+      <c r="C320">
+        <v>137.7484</v>
+      </c>
+      <c r="D320" s="2">
+        <v>45988</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>167</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>56</v>
+      </c>
+      <c r="K320">
+        <v>472</v>
+      </c>
+      <c r="M320">
+        <v>2500</v>
+      </c>
+      <c r="O320">
+        <v>3195</v>
+      </c>
+      <c r="P320" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>79</v>
+      </c>
+      <c r="B321">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C321">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D321" s="2">
+        <v>45990</v>
+      </c>
+      <c r="H321">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="I321">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="K321">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="N321">
+        <v>0</v>
+      </c>
+      <c r="O321">
+        <v>0.9</v>
+      </c>
+      <c r="P321" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>207</v>
+      </c>
+      <c r="B322">
+        <v>-34.940480000000001</v>
+      </c>
+      <c r="C322">
+        <v>138.49844100000001</v>
+      </c>
+      <c r="D322" s="2">
+        <v>45990</v>
+      </c>
+      <c r="H322">
+        <v>3.375</v>
+      </c>
+      <c r="I322">
+        <v>1.125</v>
+      </c>
+      <c r="K322">
+        <v>8.5310000000000006</v>
+      </c>
+      <c r="N322">
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="O322">
+        <v>13.313000000000001</v>
+      </c>
+      <c r="P322" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>86</v>
+      </c>
+      <c r="B323">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C323">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D323" s="2">
+        <v>45990</v>
+      </c>
+      <c r="H323">
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="I323">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K323">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="N323">
+        <v>5.25</v>
+      </c>
+      <c r="O323">
+        <v>11.1</v>
+      </c>
+      <c r="P323" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>208</v>
+      </c>
+      <c r="B324">
+        <v>-35.802792599999997</v>
+      </c>
+      <c r="C324">
+        <v>137.745824</v>
+      </c>
+      <c r="D324" s="2">
+        <v>45989</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>1000</v>
+      </c>
+      <c r="I324">
+        <v>1000</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>444</v>
+      </c>
+      <c r="L324">
+        <v>0</v>
+      </c>
+      <c r="M324">
+        <v>0</v>
+      </c>
+      <c r="N324">
+        <v>0</v>
+      </c>
+      <c r="O324">
+        <v>1444</v>
+      </c>
+      <c r="P324" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>209</v>
+      </c>
+      <c r="B325">
+        <v>-35.8026926</v>
+      </c>
+      <c r="C325">
+        <v>137.745824</v>
+      </c>
+      <c r="D325" s="2">
+        <v>45989</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>1333</v>
+      </c>
+      <c r="I325">
+        <v>1333</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>222</v>
+      </c>
+      <c r="L325">
+        <v>0</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325">
+        <v>0</v>
+      </c>
+      <c r="O325">
+        <v>1556</v>
+      </c>
+      <c r="P325" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>212</v>
+      </c>
+      <c r="B326">
+        <v>-35.671777499999997</v>
+      </c>
+      <c r="C326">
+        <v>137.6137956</v>
+      </c>
+      <c r="D326" s="2">
+        <v>45989</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>667</v>
+      </c>
+      <c r="I326">
+        <v>667</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>667</v>
+      </c>
+      <c r="L326">
+        <v>0</v>
+      </c>
+      <c r="M326">
+        <v>0</v>
+      </c>
+      <c r="N326">
+        <v>0</v>
+      </c>
+      <c r="O326">
+        <v>1556</v>
+      </c>
+      <c r="P326" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>201</v>
+      </c>
+      <c r="B327">
+        <v>-35.793615000000003</v>
+      </c>
+      <c r="C327">
+        <v>137.85449840000001</v>
+      </c>
+      <c r="D327" s="2">
+        <v>45990</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>9889</v>
+      </c>
+      <c r="I327">
+        <v>9889</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>1889</v>
+      </c>
+      <c r="L327">
+        <v>0</v>
+      </c>
+      <c r="M327">
+        <v>0</v>
+      </c>
+      <c r="N327">
+        <v>0</v>
+      </c>
+      <c r="O327">
+        <v>13611</v>
+      </c>
+      <c r="P327" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>95</v>
+      </c>
+      <c r="B328">
+        <v>-35.58858</v>
+      </c>
+      <c r="C328">
+        <v>138.60474600000001</v>
+      </c>
+      <c r="D328" s="2">
+        <v>45991</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="K328">
+        <v>56</v>
+      </c>
+      <c r="M328">
+        <v>389</v>
+      </c>
+      <c r="N328">
+        <v>500</v>
+      </c>
+      <c r="O328">
+        <v>945</v>
+      </c>
+      <c r="P328" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>87</v>
+      </c>
+      <c r="B329">
+        <v>-35.540277000000003</v>
+      </c>
+      <c r="C329">
+        <v>138.66416599999999</v>
+      </c>
+      <c r="D329" s="2">
+        <v>45991</v>
+      </c>
+      <c r="F329">
+        <v>167</v>
+      </c>
+      <c r="G329">
+        <v>56</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>56</v>
+      </c>
+      <c r="M329">
+        <v>389</v>
+      </c>
+      <c r="N329">
+        <v>667</v>
+      </c>
+      <c r="O329">
+        <v>1335</v>
+      </c>
+      <c r="P329" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>214</v>
+      </c>
+      <c r="B330">
+        <v>-35.581816000000003</v>
+      </c>
+      <c r="C330">
+        <v>138.606953</v>
+      </c>
+      <c r="D330" s="2">
+        <v>45991</v>
+      </c>
+      <c r="H330">
+        <v>56</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>56</v>
+      </c>
+      <c r="M330">
+        <v>56</v>
+      </c>
+      <c r="N330">
+        <v>500</v>
+      </c>
+      <c r="O330">
+        <v>668</v>
+      </c>
+      <c r="P330" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>88</v>
+      </c>
+      <c r="B331">
+        <v>-35.573300000000003</v>
+      </c>
+      <c r="C331">
+        <v>138.64250000000001</v>
+      </c>
+      <c r="D331" s="2">
+        <v>45991</v>
+      </c>
+      <c r="F331">
+        <v>56</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>167</v>
+      </c>
+      <c r="M331">
+        <v>333</v>
+      </c>
+      <c r="N331">
+        <v>611</v>
+      </c>
+      <c r="O331">
+        <v>1167</v>
+      </c>
+      <c r="P331" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>213</v>
+      </c>
+      <c r="B332">
+        <v>-35.7391796</v>
+      </c>
+      <c r="C332">
+        <v>137.68241320000001</v>
+      </c>
+      <c r="D332" s="2">
+        <v>45991</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>778</v>
+      </c>
+      <c r="I332">
+        <v>778</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>1333</v>
+      </c>
+      <c r="L332">
+        <v>0</v>
+      </c>
+      <c r="M332">
+        <v>0</v>
+      </c>
+      <c r="N332">
+        <v>0</v>
+      </c>
+      <c r="O332">
+        <v>2111</v>
+      </c>
+      <c r="P332" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>210</v>
+      </c>
+      <c r="B333">
+        <v>-35.789543199999997</v>
+      </c>
+      <c r="C333">
+        <v>137.7884124</v>
+      </c>
+      <c r="D333" s="2">
+        <v>45992</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>2833</v>
+      </c>
+      <c r="I333">
+        <v>333</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333">
+        <v>611</v>
+      </c>
+      <c r="L333">
+        <v>0</v>
+      </c>
+      <c r="M333">
+        <v>0</v>
+      </c>
+      <c r="N333">
+        <v>0</v>
+      </c>
+      <c r="O333">
+        <v>4389</v>
+      </c>
+      <c r="P333" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>211</v>
+      </c>
+      <c r="B334">
+        <v>-35.799307599999999</v>
+      </c>
+      <c r="C334">
+        <v>137.81896649999999</v>
+      </c>
+      <c r="D334" s="2">
+        <v>45992</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>1778</v>
+      </c>
+      <c r="I334">
+        <v>1778</v>
+      </c>
+      <c r="K334">
+        <v>2667</v>
+      </c>
+      <c r="L334">
+        <v>0</v>
+      </c>
+      <c r="M334">
+        <v>0</v>
+      </c>
+      <c r="N334">
+        <v>444</v>
+      </c>
+      <c r="O334">
+        <v>4889</v>
+      </c>
+      <c r="P334" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>215</v>
+      </c>
+      <c r="B335">
+        <v>-35.515507999999997</v>
+      </c>
+      <c r="C335">
+        <v>138.729004</v>
+      </c>
+      <c r="D335" s="2">
+        <v>45992</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="P335" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>188</v>
+      </c>
+      <c r="B336">
+        <v>-35.538469999999997</v>
+      </c>
+      <c r="C336">
+        <v>138.649779</v>
+      </c>
+      <c r="D336" s="2">
+        <v>45992</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="P336" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>92</v>
+      </c>
+      <c r="B337">
+        <v>-35.536168000000004</v>
+      </c>
+      <c r="C337">
+        <v>138.677615</v>
+      </c>
+      <c r="D337" s="2">
+        <v>45992</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="P337" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>93</v>
+      </c>
+      <c r="B338">
+        <v>-35.634602000000001</v>
+      </c>
+      <c r="C338">
+        <v>138.49898300000001</v>
+      </c>
+      <c r="D338" s="2">
+        <v>45992</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="P338" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>216</v>
+      </c>
+      <c r="B339">
+        <v>-35.632100000000001</v>
+      </c>
+      <c r="C339">
+        <v>138.4743</v>
+      </c>
+      <c r="D339" s="2">
+        <v>45992</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="P339" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>217</v>
+      </c>
+      <c r="B340">
+        <v>-35.549100000000003</v>
+      </c>
+      <c r="C340">
+        <v>138.62649999999999</v>
+      </c>
+      <c r="D340" s="2">
+        <v>45992</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="P340" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>215</v>
+      </c>
+      <c r="B341">
+        <v>-35.515507999999997</v>
+      </c>
+      <c r="C341">
+        <v>138.729004</v>
+      </c>
+      <c r="D341" s="2">
+        <v>45994</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="P341" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>92</v>
+      </c>
+      <c r="B342">
+        <v>-35.536168000000004</v>
+      </c>
+      <c r="C342">
+        <v>138.677615</v>
+      </c>
+      <c r="D342" s="2">
+        <v>45994</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="P342" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>188</v>
+      </c>
+      <c r="B343">
+        <v>-35.538469999999997</v>
+      </c>
+      <c r="C343">
+        <v>138.649779</v>
+      </c>
+      <c r="D343" s="2">
+        <v>45994</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="P343" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>217</v>
+      </c>
+      <c r="B344">
+        <v>-35.549100000000003</v>
+      </c>
+      <c r="C344">
+        <v>138.62649999999999</v>
+      </c>
+      <c r="D344" s="2">
+        <v>45994</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="P344" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>192</v>
+      </c>
+      <c r="B345">
+        <v>-35.592393000000001</v>
+      </c>
+      <c r="C345">
+        <v>138.599706</v>
+      </c>
+      <c r="D345" s="2">
+        <v>45994</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="P345" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>93</v>
+      </c>
+      <c r="B346">
+        <v>-35.634602000000001</v>
+      </c>
+      <c r="C346">
+        <v>138.49898300000001</v>
+      </c>
+      <c r="D346" s="2">
+        <v>45994</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="P346" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>180</v>
+      </c>
+      <c r="B347">
+        <v>-35.082030000000003</v>
+      </c>
+      <c r="C347">
+        <v>137.7484</v>
+      </c>
+      <c r="D347" s="2">
+        <v>45994</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>56</v>
+      </c>
+      <c r="G347">
+        <v>56</v>
+      </c>
+      <c r="H347">
+        <v>389</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>111</v>
+      </c>
+      <c r="L347">
+        <v>56</v>
+      </c>
+      <c r="M347">
+        <v>8000</v>
+      </c>
+      <c r="O347">
+        <v>8668</v>
+      </c>
+      <c r="P347" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -12346,5 +13293,6 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF9F760-9450-469C-81DF-23F346DFF54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297B7A60-FA71-42CC-9B70-42649BD14F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25965" yWindow="2670" windowWidth="23055" windowHeight="12825" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="229">
   <si>
     <t>Date</t>
   </si>
@@ -710,6 +710,39 @@
   </si>
   <si>
     <t>Victor Harbor yacht club</t>
+  </si>
+  <si>
+    <t>Wakefield River</t>
+  </si>
+  <si>
+    <t>Clinton Conservation Park</t>
+  </si>
+  <si>
+    <t>Balgowan boat ramp</t>
+  </si>
+  <si>
+    <t>Chinaman Wells</t>
+  </si>
+  <si>
+    <t>Coobowie, SA. Salt Swamp Creek</t>
+  </si>
+  <si>
+    <t>BAMP5583</t>
+  </si>
+  <si>
+    <t>Penneshaw pond</t>
+  </si>
+  <si>
+    <t>Min Oil boat ramp</t>
+  </si>
+  <si>
+    <t>Bay of Shoals</t>
+  </si>
+  <si>
+    <t>Brownlow Boat Ramp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor Harbor </t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1163,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:P347"/>
+  <dimension ref="A1:P365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A347" sqref="A347"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="C370" sqref="C370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13287,6 +13322,651 @@
         <v>150</v>
       </c>
     </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>37</v>
+      </c>
+      <c r="B348">
+        <v>-34.289369999999998</v>
+      </c>
+      <c r="C348">
+        <v>138.01242999999999</v>
+      </c>
+      <c r="D348" s="2">
+        <v>45997</v>
+      </c>
+      <c r="F348">
+        <v>278</v>
+      </c>
+      <c r="G348">
+        <v>889</v>
+      </c>
+      <c r="H348">
+        <v>611</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>222</v>
+      </c>
+      <c r="K348">
+        <v>2056</v>
+      </c>
+      <c r="L348">
+        <v>333</v>
+      </c>
+      <c r="M348">
+        <v>3111</v>
+      </c>
+      <c r="O348">
+        <v>7500</v>
+      </c>
+      <c r="P348" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>222</v>
+      </c>
+      <c r="B349">
+        <v>-35.054707999999998</v>
+      </c>
+      <c r="C349">
+        <v>137.725145</v>
+      </c>
+      <c r="D349" s="2">
+        <v>45997</v>
+      </c>
+      <c r="H349">
+        <v>42111</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>3000</v>
+      </c>
+      <c r="M349">
+        <v>1889</v>
+      </c>
+      <c r="N349">
+        <v>889</v>
+      </c>
+      <c r="O349">
+        <v>47889</v>
+      </c>
+      <c r="P349" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>224</v>
+      </c>
+      <c r="B350">
+        <v>-35.719856700000001</v>
+      </c>
+      <c r="C350">
+        <v>137.92948419999999</v>
+      </c>
+      <c r="D350" s="2">
+        <v>45997</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>11889</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+      <c r="M350">
+        <v>0</v>
+      </c>
+      <c r="N350">
+        <v>222</v>
+      </c>
+      <c r="O350">
+        <v>12111</v>
+      </c>
+      <c r="P350" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>225</v>
+      </c>
+      <c r="B351">
+        <v>-35.738910099999998</v>
+      </c>
+      <c r="C351">
+        <v>137.68358799999999</v>
+      </c>
+      <c r="D351" s="2">
+        <v>45998</v>
+      </c>
+      <c r="E351">
+        <v>111</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+      <c r="H351">
+        <v>889</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>4111</v>
+      </c>
+      <c r="L351">
+        <v>0</v>
+      </c>
+      <c r="M351">
+        <v>778</v>
+      </c>
+      <c r="N351">
+        <v>111</v>
+      </c>
+      <c r="O351">
+        <v>5999</v>
+      </c>
+      <c r="P351" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>226</v>
+      </c>
+      <c r="B352">
+        <v>-35.638145999999999</v>
+      </c>
+      <c r="C352">
+        <v>137.6249325</v>
+      </c>
+      <c r="D352" s="2">
+        <v>45999</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="H352">
+        <v>0</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
+      <c r="M352">
+        <v>0</v>
+      </c>
+      <c r="N352">
+        <v>0</v>
+      </c>
+      <c r="O352">
+        <v>0</v>
+      </c>
+      <c r="P352" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>227</v>
+      </c>
+      <c r="B353">
+        <v>-35.671809099999997</v>
+      </c>
+      <c r="C353">
+        <v>137.61394279999999</v>
+      </c>
+      <c r="D353" s="2">
+        <v>45999</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+      <c r="H353">
+        <v>556</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>2778</v>
+      </c>
+      <c r="L353">
+        <v>0</v>
+      </c>
+      <c r="M353">
+        <v>0</v>
+      </c>
+      <c r="N353">
+        <v>222</v>
+      </c>
+      <c r="O353">
+        <v>5445</v>
+      </c>
+      <c r="P353" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>18</v>
+      </c>
+      <c r="B354">
+        <v>-34.744259999999997</v>
+      </c>
+      <c r="C354">
+        <v>138.53462999999999</v>
+      </c>
+      <c r="D354" s="2">
+        <v>46001</v>
+      </c>
+      <c r="G354">
+        <v>113</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>394</v>
+      </c>
+      <c r="M354">
+        <v>56000</v>
+      </c>
+      <c r="N354">
+        <v>197</v>
+      </c>
+      <c r="O354">
+        <v>56704</v>
+      </c>
+      <c r="P354" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>218</v>
+      </c>
+      <c r="B355">
+        <v>-34.180396000000002</v>
+      </c>
+      <c r="C355">
+        <v>138.145667</v>
+      </c>
+      <c r="D355" s="2">
+        <v>46001</v>
+      </c>
+      <c r="F355">
+        <v>56</v>
+      </c>
+      <c r="G355">
+        <v>1167</v>
+      </c>
+      <c r="H355">
+        <v>500</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>1889</v>
+      </c>
+      <c r="L355">
+        <v>56</v>
+      </c>
+      <c r="N355">
+        <v>111</v>
+      </c>
+      <c r="O355">
+        <v>3778</v>
+      </c>
+      <c r="P355" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>219</v>
+      </c>
+      <c r="B356">
+        <v>-34.176642000000001</v>
+      </c>
+      <c r="C356">
+        <v>138.04467299999999</v>
+      </c>
+      <c r="D356" s="2">
+        <v>46001</v>
+      </c>
+      <c r="H356">
+        <v>56</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>4250</v>
+      </c>
+      <c r="N356">
+        <v>111</v>
+      </c>
+      <c r="O356">
+        <v>4417</v>
+      </c>
+      <c r="P356" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>220</v>
+      </c>
+      <c r="B357">
+        <v>-34.322853000000002</v>
+      </c>
+      <c r="C357">
+        <v>137.49248</v>
+      </c>
+      <c r="D357" s="2">
+        <v>46001</v>
+      </c>
+      <c r="H357">
+        <v>28</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>56</v>
+      </c>
+      <c r="K357">
+        <v>333</v>
+      </c>
+      <c r="L357">
+        <v>28</v>
+      </c>
+      <c r="N357">
+        <v>28</v>
+      </c>
+      <c r="O357">
+        <v>472</v>
+      </c>
+      <c r="P357" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>221</v>
+      </c>
+      <c r="B358">
+        <v>-34.377982000000003</v>
+      </c>
+      <c r="C358">
+        <v>137.47515899999999</v>
+      </c>
+      <c r="D358" s="2">
+        <v>46001</v>
+      </c>
+      <c r="G358">
+        <v>167</v>
+      </c>
+      <c r="H358">
+        <v>222</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>333</v>
+      </c>
+      <c r="L358">
+        <v>111</v>
+      </c>
+      <c r="N358">
+        <v>333</v>
+      </c>
+      <c r="O358">
+        <v>1167</v>
+      </c>
+      <c r="P358" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>215</v>
+      </c>
+      <c r="B359">
+        <v>-35.515507999999997</v>
+      </c>
+      <c r="C359">
+        <v>138.729004</v>
+      </c>
+      <c r="D359" s="2">
+        <v>46001</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>222</v>
+      </c>
+      <c r="P359" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>188</v>
+      </c>
+      <c r="B360">
+        <v>-35.538469999999997</v>
+      </c>
+      <c r="C360">
+        <v>138.649779</v>
+      </c>
+      <c r="D360" s="2">
+        <v>46001</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>0</v>
+      </c>
+      <c r="P360" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>92</v>
+      </c>
+      <c r="B361">
+        <v>-35.536168000000004</v>
+      </c>
+      <c r="C361">
+        <v>138.677615</v>
+      </c>
+      <c r="D361" s="2">
+        <v>46001</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>111</v>
+      </c>
+      <c r="P361" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>93</v>
+      </c>
+      <c r="B362">
+        <v>-35.634602000000001</v>
+      </c>
+      <c r="C362">
+        <v>138.49898300000001</v>
+      </c>
+      <c r="D362" s="2">
+        <v>46001</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>222</v>
+      </c>
+      <c r="P362" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>193</v>
+      </c>
+      <c r="B363">
+        <v>-35.638637000000003</v>
+      </c>
+      <c r="C363">
+        <v>138.31366499999999</v>
+      </c>
+      <c r="D363" s="2">
+        <v>46001</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>111</v>
+      </c>
+      <c r="P363" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>228</v>
+      </c>
+      <c r="B364">
+        <v>-35.558100000000003</v>
+      </c>
+      <c r="C364">
+        <v>138.67920000000001</v>
+      </c>
+      <c r="D364" s="2">
+        <v>46001</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>167</v>
+      </c>
+      <c r="P364" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>59</v>
+      </c>
+      <c r="B365">
+        <v>-35.084850000000003</v>
+      </c>
+      <c r="C365">
+        <v>137.74889999999999</v>
+      </c>
+      <c r="D365" s="2">
+        <v>46001</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+      <c r="H365">
+        <v>28</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>84</v>
+      </c>
+      <c r="M365">
+        <v>556</v>
+      </c>
+      <c r="O365">
+        <v>668</v>
+      </c>
+      <c r="P365" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P319">
     <sortCondition ref="D2:D319"/>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297B7A60-FA71-42CC-9B70-42649BD14F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337FC3AF-0438-45F7-B6BD-2ECADCE0CB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="238">
   <si>
     <t>Date</t>
   </si>
@@ -743,6 +743,33 @@
   </si>
   <si>
     <t xml:space="preserve">Victor Harbor </t>
+  </si>
+  <si>
+    <t>O'sullivans Beach</t>
+  </si>
+  <si>
+    <t>Emu Bay Bloom (count1, sample1)</t>
+  </si>
+  <si>
+    <t>Emu Bay Bloom (count2, sample 2)</t>
+  </si>
+  <si>
+    <t>Island Beach 2</t>
+  </si>
+  <si>
+    <t>Edithburgh Fishermans Wharf</t>
+  </si>
+  <si>
+    <t>Edithburgh Tidal Pool, Outside Pool</t>
+  </si>
+  <si>
+    <t>Coobowie Causeway, western side</t>
+  </si>
+  <si>
+    <t>Sultana Point, southern beach</t>
+  </si>
+  <si>
+    <t>Edithburgh Swimming Pool (Outside)</t>
   </si>
 </sst>
 </file>
@@ -1163,12 +1190,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:P365"/>
+  <dimension ref="A1:P381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C370" sqref="C370"/>
+      <selection pane="bottomLeft" activeCell="L379" sqref="L379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1176,17 +1203,17 @@
     <col min="1" max="1" width="39.21875" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
     <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
     <col min="15" max="15" width="11.44140625" customWidth="1"/>
     <col min="16" max="16" width="10.21875" customWidth="1"/>
   </cols>
@@ -13453,87 +13480,81 @@
     </row>
     <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B351">
-        <v>-35.738910099999998</v>
+        <v>-35.120863999999997</v>
       </c>
       <c r="C351">
-        <v>137.68358799999999</v>
+        <v>138.467173</v>
       </c>
       <c r="D351" s="2">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="E351">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="F351">
-        <v>0</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="G351">
         <v>0</v>
       </c>
       <c r="H351">
-        <v>889</v>
+        <v>3.6875</v>
       </c>
       <c r="I351">
-        <v>0</v>
-      </c>
-      <c r="J351">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K351">
-        <v>4111</v>
+        <v>3.125</v>
       </c>
       <c r="L351">
-        <v>0</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M351">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="N351">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="O351">
-        <v>5999</v>
+        <v>9.129999999999999</v>
       </c>
       <c r="P351" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
     </row>
     <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="B352">
-        <v>-35.638145999999999</v>
+        <v>-35.078539999999997</v>
       </c>
       <c r="C352">
-        <v>137.6249325</v>
+        <v>138.49587</v>
       </c>
       <c r="D352" s="2">
-        <v>45999</v>
+        <v>45997</v>
       </c>
       <c r="E352">
         <v>0</v>
       </c>
       <c r="F352">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G352">
         <v>0</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="I352">
         <v>0</v>
       </c>
-      <c r="J352">
-        <v>0</v>
-      </c>
       <c r="K352">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="L352">
         <v>0</v>
@@ -13542,30 +13563,30 @@
         <v>0</v>
       </c>
       <c r="N352">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="O352">
-        <v>0</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="P352" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B353">
-        <v>-35.671809099999997</v>
+        <v>-35.738910099999998</v>
       </c>
       <c r="C353">
-        <v>137.61394279999999</v>
+        <v>137.68358799999999</v>
       </c>
       <c r="D353" s="2">
-        <v>45999</v>
+        <v>45998</v>
       </c>
       <c r="E353">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -13574,7 +13595,7 @@
         <v>0</v>
       </c>
       <c r="H353">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="I353">
         <v>0</v>
@@ -13583,19 +13604,19 @@
         <v>0</v>
       </c>
       <c r="K353">
-        <v>2778</v>
+        <v>4111</v>
       </c>
       <c r="L353">
         <v>0</v>
       </c>
       <c r="M353">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="N353">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="O353">
-        <v>5445</v>
+        <v>5999</v>
       </c>
       <c r="P353" t="s">
         <v>168</v>
@@ -13603,107 +13624,134 @@
     </row>
     <row r="354" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="B354">
-        <v>-34.744259999999997</v>
+        <v>-35.638145999999999</v>
       </c>
       <c r="C354">
-        <v>138.53462999999999</v>
+        <v>137.6249325</v>
       </c>
       <c r="D354" s="2">
-        <v>46001</v>
+        <v>45999</v>
+      </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
       </c>
       <c r="G354">
-        <v>113</v>
+        <v>0</v>
+      </c>
+      <c r="H354">
+        <v>0</v>
       </c>
       <c r="I354">
         <v>0</v>
       </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
       <c r="K354">
-        <v>394</v>
+        <v>0</v>
+      </c>
+      <c r="L354">
+        <v>0</v>
       </c>
       <c r="M354">
-        <v>56000</v>
+        <v>0</v>
       </c>
       <c r="N354">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="O354">
-        <v>56704</v>
+        <v>0</v>
       </c>
       <c r="P354" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
     </row>
     <row r="355" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B355">
-        <v>-34.180396000000002</v>
+        <v>-35.671809099999997</v>
       </c>
       <c r="C355">
-        <v>138.145667</v>
+        <v>137.61394279999999</v>
       </c>
       <c r="D355" s="2">
-        <v>46001</v>
+        <v>45999</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
       </c>
       <c r="F355">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G355">
-        <v>1167</v>
+        <v>0</v>
       </c>
       <c r="H355">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="I355">
         <v>0</v>
       </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
       <c r="K355">
-        <v>1889</v>
+        <v>2778</v>
       </c>
       <c r="L355">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="M355">
+        <v>0</v>
       </c>
       <c r="N355">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="O355">
-        <v>3778</v>
+        <v>5445</v>
       </c>
       <c r="P355" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
     </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="B356">
-        <v>-34.176642000000001</v>
+        <v>-34.744259999999997</v>
       </c>
       <c r="C356">
-        <v>138.04467299999999</v>
+        <v>138.53462999999999</v>
       </c>
       <c r="D356" s="2">
         <v>46001</v>
       </c>
-      <c r="H356">
-        <v>56</v>
+      <c r="G356">
+        <v>113</v>
       </c>
       <c r="I356">
         <v>0</v>
       </c>
       <c r="K356">
-        <v>4250</v>
+        <v>394</v>
+      </c>
+      <c r="M356">
+        <v>56000</v>
       </c>
       <c r="N356">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="O356">
-        <v>4417</v>
+        <v>56704</v>
       </c>
       <c r="P356" t="s">
         <v>76</v>
@@ -13711,37 +13759,40 @@
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B357">
-        <v>-34.322853000000002</v>
+        <v>-34.180396000000002</v>
       </c>
       <c r="C357">
-        <v>137.49248</v>
+        <v>138.145667</v>
       </c>
       <c r="D357" s="2">
         <v>46001</v>
       </c>
+      <c r="F357">
+        <v>56</v>
+      </c>
+      <c r="G357">
+        <v>1167</v>
+      </c>
       <c r="H357">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="I357">
         <v>0</v>
       </c>
-      <c r="J357">
-        <v>56</v>
-      </c>
       <c r="K357">
-        <v>333</v>
+        <v>1889</v>
       </c>
       <c r="L357">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="N357">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="O357">
-        <v>472</v>
+        <v>3778</v>
       </c>
       <c r="P357" t="s">
         <v>76</v>
@@ -13749,37 +13800,31 @@
     </row>
     <row r="358" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B358">
-        <v>-34.377982000000003</v>
+        <v>-34.176642000000001</v>
       </c>
       <c r="C358">
-        <v>137.47515899999999</v>
+        <v>138.04467299999999</v>
       </c>
       <c r="D358" s="2">
         <v>46001</v>
       </c>
-      <c r="G358">
-        <v>167</v>
-      </c>
       <c r="H358">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="I358">
         <v>0</v>
       </c>
       <c r="K358">
-        <v>333</v>
-      </c>
-      <c r="L358">
+        <v>4250</v>
+      </c>
+      <c r="N358">
         <v>111</v>
       </c>
-      <c r="N358">
-        <v>333</v>
-      </c>
       <c r="O358">
-        <v>1167</v>
+        <v>4417</v>
       </c>
       <c r="P358" t="s">
         <v>76</v>
@@ -13787,59 +13832,89 @@
     </row>
     <row r="359" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B359">
-        <v>-35.515507999999997</v>
+        <v>-34.322853000000002</v>
       </c>
       <c r="C359">
-        <v>138.729004</v>
+        <v>137.49248</v>
       </c>
       <c r="D359" s="2">
         <v>46001</v>
       </c>
+      <c r="H359">
+        <v>28</v>
+      </c>
       <c r="I359">
         <v>0</v>
       </c>
+      <c r="J359">
+        <v>56</v>
+      </c>
       <c r="K359">
-        <v>222</v>
+        <v>333</v>
+      </c>
+      <c r="L359">
+        <v>28</v>
+      </c>
+      <c r="N359">
+        <v>28</v>
+      </c>
+      <c r="O359">
+        <v>472</v>
       </c>
       <c r="P359" t="s">
-        <v>189</v>
+        <v>76</v>
       </c>
     </row>
     <row r="360" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="B360">
-        <v>-35.538469999999997</v>
+        <v>-34.377982000000003</v>
       </c>
       <c r="C360">
-        <v>138.649779</v>
+        <v>137.47515899999999</v>
       </c>
       <c r="D360" s="2">
         <v>46001</v>
       </c>
+      <c r="G360">
+        <v>167</v>
+      </c>
+      <c r="H360">
+        <v>222</v>
+      </c>
       <c r="I360">
         <v>0</v>
       </c>
       <c r="K360">
-        <v>0</v>
+        <v>333</v>
+      </c>
+      <c r="L360">
+        <v>111</v>
+      </c>
+      <c r="N360">
+        <v>333</v>
+      </c>
+      <c r="O360">
+        <v>1167</v>
       </c>
       <c r="P360" t="s">
-        <v>189</v>
+        <v>76</v>
       </c>
     </row>
     <row r="361" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B361">
-        <v>-35.536168000000004</v>
+        <v>-35.515507999999997</v>
       </c>
       <c r="C361">
-        <v>138.677615</v>
+        <v>138.729004</v>
       </c>
       <c r="D361" s="2">
         <v>46001</v>
@@ -13848,7 +13923,7 @@
         <v>0</v>
       </c>
       <c r="K361">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="P361" t="s">
         <v>189</v>
@@ -13856,13 +13931,13 @@
     </row>
     <row r="362" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="B362">
-        <v>-35.634602000000001</v>
+        <v>-35.538469999999997</v>
       </c>
       <c r="C362">
-        <v>138.49898300000001</v>
+        <v>138.649779</v>
       </c>
       <c r="D362" s="2">
         <v>46001</v>
@@ -13871,7 +13946,7 @@
         <v>0</v>
       </c>
       <c r="K362">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="P362" t="s">
         <v>189</v>
@@ -13879,13 +13954,13 @@
     </row>
     <row r="363" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="B363">
-        <v>-35.638637000000003</v>
+        <v>-35.536168000000004</v>
       </c>
       <c r="C363">
-        <v>138.31366499999999</v>
+        <v>138.677615</v>
       </c>
       <c r="D363" s="2">
         <v>46001</v>
@@ -13902,13 +13977,13 @@
     </row>
     <row r="364" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="B364">
-        <v>-35.558100000000003</v>
+        <v>-35.634602000000001</v>
       </c>
       <c r="C364">
-        <v>138.67920000000001</v>
+        <v>138.49898300000001</v>
       </c>
       <c r="D364" s="2">
         <v>46001</v>
@@ -13917,7 +13992,7 @@
         <v>0</v>
       </c>
       <c r="K364">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="P364" t="s">
         <v>189</v>
@@ -13925,46 +14000,675 @@
     </row>
     <row r="365" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="B365">
-        <v>-35.084850000000003</v>
+        <v>-35.638637000000003</v>
       </c>
       <c r="C365">
-        <v>137.74889999999999</v>
+        <v>138.31366499999999</v>
       </c>
       <c r="D365" s="2">
         <v>46001</v>
       </c>
-      <c r="E365">
-        <v>0</v>
-      </c>
-      <c r="F365">
-        <v>0</v>
-      </c>
-      <c r="G365">
-        <v>0</v>
-      </c>
-      <c r="H365">
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>111</v>
+      </c>
+      <c r="P365" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>228</v>
+      </c>
+      <c r="B366">
+        <v>-35.558100000000003</v>
+      </c>
+      <c r="C366">
+        <v>138.67920000000001</v>
+      </c>
+      <c r="D366" s="2">
+        <v>46001</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>167</v>
+      </c>
+      <c r="P366" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>59</v>
+      </c>
+      <c r="B367">
+        <v>-35.084850000000003</v>
+      </c>
+      <c r="C367">
+        <v>137.74889999999999</v>
+      </c>
+      <c r="D367" s="2">
+        <v>46001</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+      <c r="H367">
         <v>28</v>
       </c>
-      <c r="I365">
-        <v>0</v>
-      </c>
-      <c r="J365">
-        <v>0</v>
-      </c>
-      <c r="K365">
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
         <v>84</v>
       </c>
-      <c r="M365">
+      <c r="M367">
         <v>556</v>
       </c>
-      <c r="O365">
+      <c r="O367">
         <v>668</v>
       </c>
-      <c r="P365" t="s">
+      <c r="P367" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>233</v>
+      </c>
+      <c r="B368">
+        <v>-35.093015000000001</v>
+      </c>
+      <c r="C368">
+        <v>137.74703600000001</v>
+      </c>
+      <c r="D368" s="2">
+        <v>46001</v>
+      </c>
+      <c r="H368">
+        <v>167</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>611</v>
+      </c>
+      <c r="M368">
+        <v>1333</v>
+      </c>
+      <c r="N368">
+        <v>333</v>
+      </c>
+      <c r="O368">
+        <v>2444</v>
+      </c>
+      <c r="P368" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>79</v>
+      </c>
+      <c r="B369">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C369">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D369" s="2">
+        <v>46003</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+      <c r="H369">
+        <v>0.4</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>2.5</v>
+      </c>
+      <c r="L369">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N369">
+        <v>1.3</v>
+      </c>
+      <c r="O369">
+        <v>4.2050000000000001</v>
+      </c>
+      <c r="P369" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>83</v>
+      </c>
+      <c r="B370">
+        <v>-34.940480000000001</v>
+      </c>
+      <c r="C370">
+        <v>138.49844100000001</v>
+      </c>
+      <c r="D370" s="2">
+        <v>46003</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+      <c r="G370">
+        <v>0</v>
+      </c>
+      <c r="H370">
+        <v>10.5</v>
+      </c>
+      <c r="I370">
+        <v>0.75</v>
+      </c>
+      <c r="K370">
+        <v>16.8</v>
+      </c>
+      <c r="L370">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="N370">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="O370">
+        <v>32.407499999999999</v>
+      </c>
+      <c r="P370" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>86</v>
+      </c>
+      <c r="B371">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C371">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D371" s="2">
+        <v>46003</v>
+      </c>
+      <c r="H371">
+        <v>5</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="N371">
+        <v>0.7</v>
+      </c>
+      <c r="O371">
+        <v>6.375</v>
+      </c>
+      <c r="P371" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>234</v>
+      </c>
+      <c r="B372">
+        <v>-35.081918000000002</v>
+      </c>
+      <c r="C372">
+        <v>137.74822499999999</v>
+      </c>
+      <c r="D372" s="2">
+        <v>46003</v>
+      </c>
+      <c r="H372">
+        <v>389</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>56</v>
+      </c>
+      <c r="M372">
+        <v>1611</v>
+      </c>
+      <c r="N372">
+        <v>334</v>
+      </c>
+      <c r="O372">
+        <v>2389</v>
+      </c>
+      <c r="P372" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>235</v>
+      </c>
+      <c r="B373">
+        <v>-35.054707999999998</v>
+      </c>
+      <c r="C373">
+        <v>137.725145</v>
+      </c>
+      <c r="D373" s="2">
+        <v>46003</v>
+      </c>
+      <c r="H373">
+        <v>203847</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>1111</v>
+      </c>
+      <c r="N373">
+        <v>1111</v>
+      </c>
+      <c r="O373">
+        <v>205403</v>
+      </c>
+      <c r="P373" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A374" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B374" s="10">
+        <v>-35.586970000000001</v>
+      </c>
+      <c r="C374" s="10">
+        <v>137.5438748</v>
+      </c>
+      <c r="D374" s="2">
+        <v>46004</v>
+      </c>
+      <c r="E374" s="10">
+        <v>0</v>
+      </c>
+      <c r="F374" s="10">
+        <v>0</v>
+      </c>
+      <c r="G374" s="10">
+        <v>0</v>
+      </c>
+      <c r="H374" s="10">
+        <v>94</v>
+      </c>
+      <c r="I374" s="10">
+        <v>94</v>
+      </c>
+      <c r="J374" s="10">
+        <v>0</v>
+      </c>
+      <c r="K374" s="10">
+        <v>0</v>
+      </c>
+      <c r="L374" s="10">
+        <v>0</v>
+      </c>
+      <c r="M374" s="10">
+        <v>0</v>
+      </c>
+      <c r="N374" s="10">
+        <v>1991</v>
+      </c>
+      <c r="O374" s="10">
+        <v>2085</v>
+      </c>
+      <c r="P374" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A375" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B375" s="10">
+        <v>-35.586869999999998</v>
+      </c>
+      <c r="C375" s="10">
+        <v>137.5438748</v>
+      </c>
+      <c r="D375" s="2">
+        <v>46004</v>
+      </c>
+      <c r="E375" s="10">
+        <v>0</v>
+      </c>
+      <c r="F375" s="10">
+        <v>0</v>
+      </c>
+      <c r="G375" s="10">
+        <v>0</v>
+      </c>
+      <c r="H375" s="10">
+        <v>113</v>
+      </c>
+      <c r="I375" s="10">
+        <v>113</v>
+      </c>
+      <c r="J375" s="10">
+        <v>0</v>
+      </c>
+      <c r="K375" s="10">
+        <v>0</v>
+      </c>
+      <c r="L375" s="10">
+        <v>0</v>
+      </c>
+      <c r="M375" s="10">
+        <v>0</v>
+      </c>
+      <c r="N375" s="10">
+        <v>2398</v>
+      </c>
+      <c r="O375" s="10">
+        <v>2511</v>
+      </c>
+      <c r="P375" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>236</v>
+      </c>
+      <c r="B376">
+        <v>-35.115375999999998</v>
+      </c>
+      <c r="C376">
+        <v>137.75711699999999</v>
+      </c>
+      <c r="D376" s="2">
+        <v>46005</v>
+      </c>
+      <c r="H376">
+        <v>1555</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>333</v>
+      </c>
+      <c r="M376">
+        <v>2000</v>
+      </c>
+      <c r="N376">
+        <v>556</v>
+      </c>
+      <c r="O376">
+        <v>4444</v>
+      </c>
+      <c r="P376" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>211</v>
+      </c>
+      <c r="B377">
+        <v>-35.788755899999998</v>
+      </c>
+      <c r="C377">
+        <v>137.78784780000001</v>
+      </c>
+      <c r="D377" s="2">
+        <v>46007</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <v>4667</v>
+      </c>
+      <c r="I377">
+        <v>4667</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>4</v>
+      </c>
+      <c r="L377">
+        <v>0</v>
+      </c>
+      <c r="M377">
+        <v>0</v>
+      </c>
+      <c r="N377">
+        <v>1</v>
+      </c>
+      <c r="O377">
+        <v>4672</v>
+      </c>
+      <c r="P377" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>232</v>
+      </c>
+      <c r="B378">
+        <v>-35.784914800000003</v>
+      </c>
+      <c r="C378">
+        <v>137.7809867</v>
+      </c>
+      <c r="D378" s="2">
+        <v>46007</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+      <c r="H378">
+        <v>40111</v>
+      </c>
+      <c r="I378">
+        <v>40111</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378">
+        <v>222</v>
+      </c>
+      <c r="L378">
+        <v>0</v>
+      </c>
+      <c r="M378">
+        <v>0</v>
+      </c>
+      <c r="N378">
+        <v>0</v>
+      </c>
+      <c r="O378">
+        <v>40333</v>
+      </c>
+      <c r="P378" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>235</v>
+      </c>
+      <c r="B379">
+        <v>-35.054707999999998</v>
+      </c>
+      <c r="C379">
+        <v>137.725145</v>
+      </c>
+      <c r="D379" s="2">
+        <v>46007</v>
+      </c>
+      <c r="H379">
+        <v>369500</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>26500</v>
+      </c>
+      <c r="O379">
+        <v>396000</v>
+      </c>
+      <c r="P379" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>237</v>
+      </c>
+      <c r="B380">
+        <v>-35.082030000000003</v>
+      </c>
+      <c r="C380">
+        <v>137.7484</v>
+      </c>
+      <c r="D380" s="2">
+        <v>46008</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+      <c r="G380">
+        <v>7778</v>
+      </c>
+      <c r="H380">
+        <v>555</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>222</v>
+      </c>
+      <c r="L380">
+        <v>0</v>
+      </c>
+      <c r="M380">
+        <v>2333</v>
+      </c>
+      <c r="N380">
+        <v>0</v>
+      </c>
+      <c r="O380">
+        <v>10888</v>
+      </c>
+      <c r="P380" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>37</v>
+      </c>
+      <c r="B381">
+        <v>-34.289369999999998</v>
+      </c>
+      <c r="C381">
+        <v>138.01242999999999</v>
+      </c>
+      <c r="D381" s="2">
+        <v>46008</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>278</v>
+      </c>
+      <c r="H381">
+        <v>222</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>500</v>
+      </c>
+      <c r="L381">
+        <v>0</v>
+      </c>
+      <c r="M381">
+        <v>0</v>
+      </c>
+      <c r="N381">
+        <v>0</v>
+      </c>
+      <c r="O381">
+        <v>1000</v>
+      </c>
+      <c r="P381" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337FC3AF-0438-45F7-B6BD-2ECADCE0CB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FD3749-A1E8-4E1A-830F-A87700F356AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="239">
   <si>
     <t>Date</t>
   </si>
@@ -770,6 +770,9 @@
   </si>
   <si>
     <t>Edithburgh Swimming Pool (Outside)</t>
+  </si>
+  <si>
+    <t>AR Birdehide</t>
   </si>
 </sst>
 </file>
@@ -1190,12 +1193,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:P381"/>
+  <dimension ref="A1:P387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L379" sqref="L379"/>
+      <selection pane="bottomLeft" activeCell="A389" sqref="A389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14444,16 +14447,16 @@
     </row>
     <row r="377" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="B377">
-        <v>-35.788755899999998</v>
+        <v>-35.465475320000003</v>
       </c>
       <c r="C377">
-        <v>137.78784780000001</v>
+        <v>137.46179395999999</v>
       </c>
       <c r="D377" s="2">
-        <v>46007</v>
+        <v>46005</v>
       </c>
       <c r="E377">
         <v>0</v>
@@ -14465,16 +14468,16 @@
         <v>0</v>
       </c>
       <c r="H377">
-        <v>4667</v>
+        <v>807</v>
       </c>
       <c r="I377">
-        <v>4667</v>
+        <v>0</v>
       </c>
       <c r="J377">
         <v>0</v>
       </c>
       <c r="K377">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L377">
         <v>0</v>
@@ -14483,10 +14486,10 @@
         <v>0</v>
       </c>
       <c r="N377">
-        <v>1</v>
+        <v>15956</v>
       </c>
       <c r="O377">
-        <v>4672</v>
+        <v>16778</v>
       </c>
       <c r="P377" t="s">
         <v>168</v>
@@ -14494,13 +14497,13 @@
     </row>
     <row r="378" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B378">
-        <v>-35.784914800000003</v>
+        <v>-35.788755899999998</v>
       </c>
       <c r="C378">
-        <v>137.7809867</v>
+        <v>137.78784780000001</v>
       </c>
       <c r="D378" s="2">
         <v>46007</v>
@@ -14515,16 +14518,16 @@
         <v>0</v>
       </c>
       <c r="H378">
-        <v>40111</v>
+        <v>4667</v>
       </c>
       <c r="I378">
-        <v>40111</v>
+        <v>4667</v>
       </c>
       <c r="J378">
         <v>0</v>
       </c>
       <c r="K378">
-        <v>222</v>
+        <v>4</v>
       </c>
       <c r="L378">
         <v>0</v>
@@ -14533,10 +14536,10 @@
         <v>0</v>
       </c>
       <c r="N378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O378">
-        <v>40333</v>
+        <v>4672</v>
       </c>
       <c r="P378" t="s">
         <v>168</v>
@@ -14544,92 +14547,92 @@
     </row>
     <row r="379" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B379">
-        <v>-35.054707999999998</v>
+        <v>-35.784914800000003</v>
       </c>
       <c r="C379">
-        <v>137.725145</v>
+        <v>137.7809867</v>
       </c>
       <c r="D379" s="2">
         <v>46007</v>
       </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
       <c r="H379">
-        <v>369500</v>
+        <v>40111</v>
       </c>
       <c r="I379">
+        <v>40111</v>
+      </c>
+      <c r="J379">
         <v>0</v>
       </c>
       <c r="K379">
-        <v>26500</v>
+        <v>222</v>
+      </c>
+      <c r="L379">
+        <v>0</v>
+      </c>
+      <c r="M379">
+        <v>0</v>
+      </c>
+      <c r="N379">
+        <v>0</v>
       </c>
       <c r="O379">
-        <v>396000</v>
+        <v>40333</v>
       </c>
       <c r="P379" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
     </row>
     <row r="380" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B380">
-        <v>-35.082030000000003</v>
+        <v>-35.054707999999998</v>
       </c>
       <c r="C380">
-        <v>137.7484</v>
+        <v>137.725145</v>
       </c>
       <c r="D380" s="2">
-        <v>46008</v>
-      </c>
-      <c r="E380">
-        <v>0</v>
-      </c>
-      <c r="F380">
-        <v>0</v>
-      </c>
-      <c r="G380">
-        <v>7778</v>
+        <v>46007</v>
       </c>
       <c r="H380">
-        <v>555</v>
+        <v>369500</v>
       </c>
       <c r="I380">
         <v>0</v>
       </c>
-      <c r="J380">
-        <v>0</v>
-      </c>
       <c r="K380">
-        <v>222</v>
-      </c>
-      <c r="L380">
-        <v>0</v>
-      </c>
-      <c r="M380">
-        <v>2333</v>
-      </c>
-      <c r="N380">
-        <v>0</v>
+        <v>26500</v>
       </c>
       <c r="O380">
-        <v>10888</v>
+        <v>396000</v>
       </c>
       <c r="P380" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
     </row>
     <row r="381" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="B381">
-        <v>-34.289369999999998</v>
+        <v>-35.082030000000003</v>
       </c>
       <c r="C381">
-        <v>138.01242999999999</v>
+        <v>137.7484</v>
       </c>
       <c r="D381" s="2">
         <v>46008</v>
@@ -14641,34 +14644,328 @@
         <v>0</v>
       </c>
       <c r="G381">
+        <v>7778</v>
+      </c>
+      <c r="H381">
+        <v>555</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>222</v>
+      </c>
+      <c r="L381">
+        <v>0</v>
+      </c>
+      <c r="M381">
+        <v>2333</v>
+      </c>
+      <c r="N381">
+        <v>0</v>
+      </c>
+      <c r="O381">
+        <v>10888</v>
+      </c>
+      <c r="P381" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>37</v>
+      </c>
+      <c r="B382">
+        <v>-34.289369999999998</v>
+      </c>
+      <c r="C382">
+        <v>138.01242999999999</v>
+      </c>
+      <c r="D382" s="2">
+        <v>46008</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382">
         <v>278</v>
       </c>
-      <c r="H381">
+      <c r="H382">
         <v>222</v>
       </c>
-      <c r="I381">
-        <v>0</v>
-      </c>
-      <c r="J381">
-        <v>0</v>
-      </c>
-      <c r="K381">
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
         <v>500</v>
       </c>
-      <c r="L381">
-        <v>0</v>
-      </c>
-      <c r="M381">
-        <v>0</v>
-      </c>
-      <c r="N381">
-        <v>0</v>
-      </c>
-      <c r="O381">
+      <c r="L382">
+        <v>0</v>
+      </c>
+      <c r="M382">
+        <v>0</v>
+      </c>
+      <c r="N382">
+        <v>0</v>
+      </c>
+      <c r="O382">
         <v>1000</v>
       </c>
-      <c r="P381" t="s">
+      <c r="P382" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>211</v>
+      </c>
+      <c r="B383">
+        <v>-35.788755899999998</v>
+      </c>
+      <c r="C383">
+        <v>137.78784780000001</v>
+      </c>
+      <c r="D383" s="2">
+        <v>46010</v>
+      </c>
+      <c r="E383">
+        <v>111</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383">
+        <v>888</v>
+      </c>
+      <c r="H383">
+        <v>8111</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>111</v>
+      </c>
+      <c r="K383">
+        <v>111</v>
+      </c>
+      <c r="L383">
+        <v>0</v>
+      </c>
+      <c r="M383">
+        <v>333</v>
+      </c>
+      <c r="N383">
+        <v>111</v>
+      </c>
+      <c r="O383">
+        <v>9776</v>
+      </c>
+      <c r="P383" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>79</v>
+      </c>
+      <c r="B384">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C384">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D384" s="2">
+        <v>46011</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384">
+        <v>2.75E-2</v>
+      </c>
+      <c r="G384">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H384">
+        <v>0.22</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="K384">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="L384">
+        <v>0</v>
+      </c>
+      <c r="M384">
+        <v>0</v>
+      </c>
+      <c r="N384">
+        <v>1.393</v>
+      </c>
+      <c r="O384">
+        <v>2.9284999999999997</v>
+      </c>
+      <c r="P384" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>83</v>
+      </c>
+      <c r="B385">
+        <v>-34.940480000000001</v>
+      </c>
+      <c r="C385">
+        <v>138.49844100000001</v>
+      </c>
+      <c r="D385" s="2">
+        <v>46011</v>
+      </c>
+      <c r="E385">
+        <v>0</v>
+      </c>
+      <c r="F385">
+        <v>0.03</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+      <c r="H385">
+        <v>9</v>
+      </c>
+      <c r="I385">
+        <v>0.6</v>
+      </c>
+      <c r="K385">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L385">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M385">
+        <v>0</v>
+      </c>
+      <c r="N385">
+        <v>0.2</v>
+      </c>
+      <c r="O385">
+        <v>18.054999999999996</v>
+      </c>
+      <c r="P385" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>211</v>
+      </c>
+      <c r="B386">
+        <v>-35.788755899999998</v>
+      </c>
+      <c r="C386">
+        <v>137.78784780000001</v>
+      </c>
+      <c r="D386" s="2">
+        <v>46011</v>
+      </c>
+      <c r="E386">
+        <v>111</v>
+      </c>
+      <c r="F386">
+        <v>1222</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+      <c r="H386">
+        <v>34444</v>
+      </c>
+      <c r="I386">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>2222</v>
+      </c>
+      <c r="K386">
+        <v>333</v>
+      </c>
+      <c r="L386">
+        <v>0</v>
+      </c>
+      <c r="M386">
+        <v>2000</v>
+      </c>
+      <c r="N386">
+        <v>223</v>
+      </c>
+      <c r="O386">
+        <v>40555</v>
+      </c>
+      <c r="P386" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>212</v>
+      </c>
+      <c r="B387">
+        <v>-35.671777499999997</v>
+      </c>
+      <c r="C387">
+        <v>137.6137956</v>
+      </c>
+      <c r="D387" s="2">
+        <v>46013</v>
+      </c>
+      <c r="E387">
+        <v>222</v>
+      </c>
+      <c r="F387">
+        <v>1222</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+      <c r="H387">
+        <v>1778</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>222</v>
+      </c>
+      <c r="K387">
+        <v>6111</v>
+      </c>
+      <c r="L387">
+        <v>666</v>
+      </c>
+      <c r="M387">
+        <v>6889</v>
+      </c>
+      <c r="N387">
+        <v>0</v>
+      </c>
+      <c r="O387">
+        <v>17110</v>
+      </c>
+      <c r="P387" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FD3749-A1E8-4E1A-830F-A87700F356AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50340710-74E6-4134-B03F-7549F143F77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="244">
   <si>
     <t>Date</t>
   </si>
@@ -307,9 +307,6 @@
     <t>Port Wakefield</t>
   </si>
   <si>
-    <t>Semaphore</t>
-  </si>
-  <si>
     <t>Streaky Bay - 2km offshore</t>
   </si>
   <si>
@@ -773,6 +770,24 @@
   </si>
   <si>
     <t>AR Birdehide</t>
+  </si>
+  <si>
+    <t>Blowhole Beach</t>
+  </si>
+  <si>
+    <t>Semaphore (Largs Bay)</t>
+  </si>
+  <si>
+    <t>Myponga Beach</t>
+  </si>
+  <si>
+    <t>Brighton Beach</t>
+  </si>
+  <si>
+    <t>Seacliff</t>
+  </si>
+  <si>
+    <t>Silver Sands Beach</t>
   </si>
 </sst>
 </file>
@@ -1193,12 +1208,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:P387"/>
+  <dimension ref="A1:P404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A389" sqref="A389"/>
+      <selection pane="bottomLeft" activeCell="A405" sqref="A405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1209,19 +1224,19 @@
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
     <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
     <col min="10" max="10" width="14.109375" customWidth="1"/>
     <col min="11" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="7.6640625" customWidth="1"/>
     <col min="15" max="15" width="11.44140625" customWidth="1"/>
     <col min="16" max="16" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1583,7 +1598,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>-35.6360308</v>
@@ -1604,12 +1619,12 @@
         <v>610</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11">
         <v>-35.536441500000002</v>
@@ -1630,12 +1645,12 @@
         <v>777</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>-35.540277000000003</v>
@@ -1656,12 +1671,12 @@
         <v>278</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13">
         <v>-35.573300000000003</v>
@@ -1682,12 +1697,12 @@
         <v>222</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14">
         <v>-35.574167000000003</v>
@@ -1708,12 +1723,12 @@
         <v>944</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15">
         <v>-35.6048446</v>
@@ -1734,12 +1749,12 @@
         <v>167</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16">
         <v>-35.615555999999998</v>
@@ -1760,12 +1775,12 @@
         <v>56</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17">
         <v>-35.536441500000002</v>
@@ -1786,12 +1801,12 @@
         <v>2111</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <v>-35.513599999999997</v>
@@ -1812,7 +1827,7 @@
         <v>1056</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1925,7 +1940,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22">
         <v>-35.513599999999997</v>
@@ -1946,7 +1961,7 @@
         <v>199444</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2270,7 +2285,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31">
         <v>-35.58858</v>
@@ -2291,7 +2306,7 @@
         <v>5</v>
       </c>
       <c r="P31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2340,7 +2355,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33">
         <v>-35.536230000000003</v>
@@ -2367,12 +2382,12 @@
         <v>361</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34">
         <v>-34.813881000000002</v>
@@ -2396,7 +2411,7 @@
         <v>2667</v>
       </c>
       <c r="P34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2668,7 +2683,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41">
         <v>-35.037733000000003</v>
@@ -2695,12 +2710,12 @@
         <v>1389</v>
       </c>
       <c r="P41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42">
         <v>-35.030088999999997</v>
@@ -2730,12 +2745,12 @@
         <v>1279</v>
       </c>
       <c r="P42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43">
         <v>-35.551524800000003</v>
@@ -2759,12 +2774,12 @@
         <v>1000</v>
       </c>
       <c r="P43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44">
         <v>-35.573300000000003</v>
@@ -2785,12 +2800,12 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>-35.536745000000003</v>
@@ -2814,12 +2829,12 @@
         <v>1667</v>
       </c>
       <c r="P45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B46">
         <v>-35.574167000000003</v>
@@ -2843,12 +2858,12 @@
         <v>389</v>
       </c>
       <c r="P46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>-35.540277000000003</v>
@@ -2872,12 +2887,12 @@
         <v>667</v>
       </c>
       <c r="P47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48">
         <v>-35.540188999999998</v>
@@ -2901,12 +2916,12 @@
         <v>778</v>
       </c>
       <c r="P48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49">
         <v>-35.620086000000001</v>
@@ -2930,12 +2945,12 @@
         <v>778</v>
       </c>
       <c r="P49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50">
         <v>-35.560513800000003</v>
@@ -2971,12 +2986,12 @@
         <v>3111</v>
       </c>
       <c r="P50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51">
         <v>-35.557317400000002</v>
@@ -3009,12 +3024,12 @@
         <v>2000</v>
       </c>
       <c r="P51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52">
         <v>-35.5272237</v>
@@ -3038,7 +3053,7 @@
         <v>1056</v>
       </c>
       <c r="P52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3081,7 +3096,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54">
         <v>-34.775959999999998</v>
@@ -3108,12 +3123,12 @@
         <v>4694</v>
       </c>
       <c r="P54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B55">
         <v>-34.755644699999998</v>
@@ -3140,12 +3155,12 @@
         <v>3944</v>
       </c>
       <c r="P55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B56">
         <v>-34.774178999999997</v>
@@ -3172,12 +3187,12 @@
         <v>3835</v>
       </c>
       <c r="P56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B57">
         <v>-34.761991500000001</v>
@@ -3204,7 +3219,7 @@
         <v>3223</v>
       </c>
       <c r="P57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -3402,7 +3417,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63">
         <v>-34.775959999999998</v>
@@ -3429,12 +3444,12 @@
         <v>3889</v>
       </c>
       <c r="P63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B64">
         <v>-34.753135</v>
@@ -3461,12 +3476,12 @@
         <v>4556</v>
       </c>
       <c r="P64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B65">
         <v>-34.745396</v>
@@ -3493,12 +3508,12 @@
         <v>4945</v>
       </c>
       <c r="P65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B66">
         <v>-34.763468000000003</v>
@@ -3525,12 +3540,12 @@
         <v>11056</v>
       </c>
       <c r="P66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B67">
         <v>-34.775306999999998</v>
@@ -3557,12 +3572,12 @@
         <v>31056</v>
       </c>
       <c r="P67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B68">
         <v>-34.740545900000001</v>
@@ -3589,12 +3604,12 @@
         <v>24178</v>
       </c>
       <c r="P68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69">
         <v>-34.775959999999998</v>
@@ -3621,12 +3636,12 @@
         <v>4945</v>
       </c>
       <c r="P69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B70">
         <v>-34.767232</v>
@@ -3653,7 +3668,7 @@
         <v>8612</v>
       </c>
       <c r="P70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -3916,7 +3931,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B77">
         <v>-34.075238300000002</v>
@@ -3940,12 +3955,12 @@
         <v>2445</v>
       </c>
       <c r="P77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B78">
         <v>-34.075238300000002</v>
@@ -3969,12 +3984,12 @@
         <v>501</v>
       </c>
       <c r="P78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B79">
         <v>-35.576326000000002</v>
@@ -3998,12 +4013,12 @@
         <v>556</v>
       </c>
       <c r="P79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B80">
         <v>-35.588501999999998</v>
@@ -4024,7 +4039,7 @@
         <v>56</v>
       </c>
       <c r="P80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -4254,7 +4269,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B86">
         <v>-35.661008000000002</v>
@@ -4281,12 +4296,12 @@
         <v>2334</v>
       </c>
       <c r="P86" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B87">
         <v>-35.571258999999998</v>
@@ -4307,12 +4322,12 @@
         <v>2222</v>
       </c>
       <c r="P87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B88">
         <v>-35.638609789999997</v>
@@ -4333,12 +4348,12 @@
         <v>3889</v>
       </c>
       <c r="P88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B89">
         <v>-35.535169000000003</v>
@@ -4362,7 +4377,7 @@
         <v>389</v>
       </c>
       <c r="P89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -4529,7 +4544,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B94">
         <v>-35.661008000000002</v>
@@ -4550,12 +4565,12 @@
         <v>2222</v>
       </c>
       <c r="P94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B95">
         <v>-35.655576000000003</v>
@@ -4576,12 +4591,12 @@
         <v>278</v>
       </c>
       <c r="P95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>-35.588650000000001</v>
@@ -4605,12 +4620,12 @@
         <v>278</v>
       </c>
       <c r="P96" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B97">
         <v>-35.759517729999999</v>
@@ -4631,12 +4646,12 @@
         <v>1555</v>
       </c>
       <c r="P97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B98">
         <v>-35.786764689999998</v>
@@ -4663,12 +4678,12 @@
         <v>14333</v>
       </c>
       <c r="P98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B99">
         <v>-35.824725999999998</v>
@@ -4689,12 +4704,12 @@
         <v>1111</v>
       </c>
       <c r="P99" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B100">
         <v>-35.515300000000003</v>
@@ -4718,7 +4733,7 @@
         <v>17333</v>
       </c>
       <c r="P100" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
@@ -4960,7 +4975,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B107">
         <v>-35.6360308</v>
@@ -4984,7 +4999,7 @@
         <v>778</v>
       </c>
       <c r="P107" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
@@ -5065,7 +5080,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B110">
         <v>-35.540277000000003</v>
@@ -5092,12 +5107,12 @@
         <v>556</v>
       </c>
       <c r="P110" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B111">
         <v>-35.540188999999998</v>
@@ -5121,12 +5136,12 @@
         <v>1001</v>
       </c>
       <c r="P111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B112">
         <v>-35.573300000000003</v>
@@ -5153,12 +5168,12 @@
         <v>2500</v>
       </c>
       <c r="P112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B113">
         <v>-35.574167000000003</v>
@@ -5179,12 +5194,12 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B114">
         <v>-35.6048446</v>
@@ -5208,12 +5223,12 @@
         <v>445</v>
       </c>
       <c r="P114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B115">
         <v>-35.615555999999998</v>
@@ -5234,7 +5249,7 @@
         <v>56</v>
       </c>
       <c r="P115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
@@ -5637,7 +5652,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126">
         <v>-35.078539999999997</v>
@@ -5669,7 +5684,7 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B127">
         <v>-33.040787000000002</v>
@@ -5693,12 +5708,12 @@
         <v>889</v>
       </c>
       <c r="P127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B128">
         <v>-32.991777999999996</v>
@@ -5719,7 +5734,7 @@
         <v>389</v>
       </c>
       <c r="P128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.3">
@@ -5756,7 +5771,7 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B130">
         <v>-33.182508599999998</v>
@@ -5780,7 +5795,7 @@
         <v>1778</v>
       </c>
       <c r="P130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
@@ -5817,7 +5832,7 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B132">
         <v>-35.576326000000002</v>
@@ -5841,12 +5856,12 @@
         <v>333</v>
       </c>
       <c r="P132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B133">
         <v>-35.588501999999998</v>
@@ -5873,12 +5888,12 @@
         <v>778</v>
       </c>
       <c r="P133" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B134">
         <v>-35.160076599999996</v>
@@ -5905,12 +5920,12 @@
         <v>4222</v>
       </c>
       <c r="P134" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B135">
         <v>-35.151825600000002</v>
@@ -5946,12 +5961,12 @@
         <v>12444</v>
       </c>
       <c r="P135" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B136">
         <v>-35.151313999999999</v>
@@ -5984,12 +5999,12 @@
         <v>2333</v>
       </c>
       <c r="P136" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B137">
         <v>-35.154650240000002</v>
@@ -6022,12 +6037,12 @@
         <v>4944</v>
       </c>
       <c r="P137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B138">
         <v>-35.152626359999999</v>
@@ -6063,12 +6078,12 @@
         <v>27556</v>
       </c>
       <c r="P138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B139">
         <v>-35.152888900000001</v>
@@ -6104,12 +6119,12 @@
         <v>17168</v>
       </c>
       <c r="P139" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B140">
         <v>-35.157411799999998</v>
@@ -6142,12 +6157,12 @@
         <v>16111</v>
       </c>
       <c r="P140" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B141">
         <v>-35.172090599999997</v>
@@ -6180,12 +6195,12 @@
         <v>4278</v>
       </c>
       <c r="P141" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B142">
         <v>-35.174399000000001</v>
@@ -6215,12 +6230,12 @@
         <v>2168</v>
       </c>
       <c r="P142" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B143">
         <v>-35.180773000000002</v>
@@ -6250,12 +6265,12 @@
         <v>3001</v>
       </c>
       <c r="P143" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B144">
         <v>-35.181056900000002</v>
@@ -6288,12 +6303,12 @@
         <v>2945</v>
       </c>
       <c r="P144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B145">
         <v>-35.180520399999999</v>
@@ -6323,7 +6338,7 @@
         <v>1278</v>
       </c>
       <c r="P145" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.3">
@@ -6369,7 +6384,7 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B147">
         <v>-35.420470199999997</v>
@@ -6402,12 +6417,12 @@
         <v>2223</v>
       </c>
       <c r="P147" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B148">
         <v>-35.444941989999997</v>
@@ -6437,7 +6452,7 @@
         <v>2279</v>
       </c>
       <c r="P148" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.3">
@@ -6474,7 +6489,7 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="B150">
         <v>-34.837600000000002</v>
@@ -6506,7 +6521,7 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B151">
         <v>-34.873939999999997</v>
@@ -6725,7 +6740,7 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B157">
         <v>-35.078539999999997</v>
@@ -6757,7 +6772,7 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="B158">
         <v>-34.837600000000002</v>
@@ -6789,7 +6804,7 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B159">
         <v>-34.873939999999997</v>
@@ -6859,7 +6874,7 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B161">
         <v>-35.570839499999998</v>
@@ -6886,7 +6901,7 @@
         <v>1334</v>
       </c>
       <c r="P161" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.3">
@@ -6932,7 +6947,7 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B163">
         <v>-34.816378</v>
@@ -6956,7 +6971,7 @@
         <v>51167</v>
       </c>
       <c r="P163" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.3">
@@ -6993,7 +7008,7 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="B165">
         <v>-34.837600000000002</v>
@@ -7025,7 +7040,7 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B166">
         <v>-34.873939999999997</v>
@@ -7250,7 +7265,7 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B172">
         <v>-34.486179999999997</v>
@@ -7282,7 +7297,7 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B173">
         <v>-34.486179999999997</v>
@@ -7703,7 +7718,7 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B184">
         <v>-35.078539999999997</v>
@@ -7852,7 +7867,7 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B188">
         <v>-35.58858</v>
@@ -7876,12 +7891,12 @@
         <v>500</v>
       </c>
       <c r="P188" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B189">
         <v>-35.596191849999997</v>
@@ -7917,7 +7932,7 @@
         <v>1168</v>
       </c>
       <c r="P189" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.3">
@@ -7954,7 +7969,7 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="B191">
         <v>-34.837600000000002</v>
@@ -7986,7 +8001,7 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B192">
         <v>-34.873939999999997</v>
@@ -8059,7 +8074,7 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B194">
         <v>-35.078539999999997</v>
@@ -8091,7 +8106,7 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B195">
         <v>-32.771623179292703</v>
@@ -8167,7 +8182,7 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B197">
         <v>-35.540277000000003</v>
@@ -8191,12 +8206,12 @@
         <v>334</v>
       </c>
       <c r="P197" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B198">
         <v>-35.536745000000003</v>
@@ -8229,12 +8244,12 @@
         <v>779</v>
       </c>
       <c r="P198" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B199">
         <v>-35.573300000000003</v>
@@ -8273,12 +8288,12 @@
         <v>1502</v>
       </c>
       <c r="P199" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B200">
         <v>-35.579087000000001</v>
@@ -8311,12 +8326,12 @@
         <v>557</v>
       </c>
       <c r="P200" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B201">
         <v>-35.574167000000003</v>
@@ -8340,12 +8355,12 @@
         <v>1445</v>
       </c>
       <c r="P201" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B202">
         <v>-35.6048446</v>
@@ -8372,12 +8387,12 @@
         <v>1112</v>
       </c>
       <c r="P202" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B203">
         <v>-35.615555999999998</v>
@@ -8407,7 +8422,7 @@
         <v>778</v>
       </c>
       <c r="P203" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.3">
@@ -8491,7 +8506,7 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B206">
         <v>-35.078539999999997</v>
@@ -8523,7 +8538,7 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B207">
         <v>-34.873939999999997</v>
@@ -8593,7 +8608,7 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B209">
         <v>-34.979653900000002</v>
@@ -8623,12 +8638,12 @@
         <v>6167</v>
       </c>
       <c r="P209" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B210">
         <v>-34.979653900000002</v>
@@ -8655,12 +8670,12 @@
         <v>14000</v>
       </c>
       <c r="P210" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B211">
         <v>-34.979653900000002</v>
@@ -8687,12 +8702,12 @@
         <v>6055</v>
       </c>
       <c r="P211" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B212" s="5">
         <v>-34.876918449999998</v>
@@ -8713,12 +8728,12 @@
         <v>1000</v>
       </c>
       <c r="P212" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B213" s="5">
         <v>-34.87530331</v>
@@ -8739,12 +8754,12 @@
         <v>10800</v>
       </c>
       <c r="P213" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B214" s="5">
         <v>-34.874911619999999</v>
@@ -8765,12 +8780,12 @@
         <v>9600</v>
       </c>
       <c r="P214" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B215" s="5">
         <v>-34.893833659999999</v>
@@ -8791,7 +8806,7 @@
         <v>850</v>
       </c>
       <c r="P215" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.3">
@@ -8834,7 +8849,7 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B217" s="5">
         <v>-34.876918449999998</v>
@@ -8855,12 +8870,12 @@
         <v>25750</v>
       </c>
       <c r="P217" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B218" s="5">
         <v>-34.87530331</v>
@@ -8881,12 +8896,12 @@
         <v>4035</v>
       </c>
       <c r="P218" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B219" s="5">
         <v>-34.874911619999999</v>
@@ -8907,12 +8922,12 @@
         <v>8750</v>
       </c>
       <c r="P219" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B220" s="5">
         <v>-34.893833659999999</v>
@@ -8933,7 +8948,7 @@
         <v>8550</v>
       </c>
       <c r="P220" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.3">
@@ -9014,7 +9029,7 @@
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B223">
         <v>-35.078539999999997</v>
@@ -9047,7 +9062,7 @@
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="B224">
         <v>-34.837600000000002</v>
@@ -9080,7 +9095,7 @@
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B225">
         <v>-34.873939999999997</v>
@@ -9113,7 +9128,7 @@
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B226" s="5">
         <v>-34.876918449999998</v>
@@ -9134,7 +9149,7 @@
         <v>4800</v>
       </c>
       <c r="P226" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.3">
@@ -9178,7 +9193,7 @@
         <v>5056</v>
       </c>
       <c r="P227" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.3">
@@ -9227,7 +9242,7 @@
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B229" s="5">
         <v>-34.82035218</v>
@@ -9248,12 +9263,12 @@
         <v>4300</v>
       </c>
       <c r="P229" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B230" s="7">
         <v>-35.641369099999999</v>
@@ -9298,7 +9313,7 @@
         <v>150</v>
       </c>
       <c r="P230" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.3">
@@ -9335,7 +9350,7 @@
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="B232">
         <v>-34.837600000000002</v>
@@ -9367,7 +9382,7 @@
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B233">
         <v>-34.873939999999997</v>
@@ -9420,12 +9435,12 @@
         <v>649</v>
       </c>
       <c r="P234" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B235">
         <v>-35.638609789999997</v>
@@ -9458,12 +9473,12 @@
         <v>4611</v>
       </c>
       <c r="P235" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B236">
         <v>-35.655576000000003</v>
@@ -9493,7 +9508,7 @@
         <v>1668</v>
       </c>
       <c r="P236" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.3">
@@ -9542,7 +9557,7 @@
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B238">
         <v>-35.786764689999998</v>
@@ -9569,12 +9584,12 @@
         <v>3223</v>
       </c>
       <c r="P238" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B239">
         <v>-35.513599999999997</v>
@@ -9604,12 +9619,12 @@
         <v>5112</v>
       </c>
       <c r="P239" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B240">
         <v>-35.824725999999998</v>
@@ -9639,12 +9654,12 @@
         <v>1389</v>
       </c>
       <c r="P240" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B241" s="5">
         <v>-34.876918449999998</v>
@@ -9665,12 +9680,12 @@
         <v>90000</v>
       </c>
       <c r="P241" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B242" s="5">
         <v>-34.874911619999999</v>
@@ -9691,12 +9706,12 @@
         <v>3300</v>
       </c>
       <c r="P242" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B243" s="5">
         <v>-34.893833659999999</v>
@@ -9717,12 +9732,12 @@
         <v>18300</v>
       </c>
       <c r="P243" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B244" s="5">
         <v>-34.876918449999998</v>
@@ -9743,12 +9758,12 @@
         <v>22700</v>
       </c>
       <c r="P244" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B245" s="5">
         <v>-34.938314079999998</v>
@@ -9769,12 +9784,12 @@
         <v>7300</v>
       </c>
       <c r="P245" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B246">
         <v>-35.411457800000001</v>
@@ -9807,12 +9822,12 @@
         <v>6834</v>
       </c>
       <c r="P246" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B247">
         <v>-35.411457800000001</v>
@@ -9839,7 +9854,7 @@
         <v>1277</v>
       </c>
       <c r="P247" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
@@ -9871,12 +9886,12 @@
         <v>556</v>
       </c>
       <c r="P248" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B249" s="7">
         <v>-35.638350600000003</v>
@@ -9905,12 +9920,12 @@
         <v>1278</v>
       </c>
       <c r="P249" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B250" s="5">
         <v>-34.876918449999998</v>
@@ -9931,12 +9946,12 @@
         <v>14700</v>
       </c>
       <c r="P250" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B251">
         <v>-35.606180799999997</v>
@@ -9966,7 +9981,7 @@
         <v>1612</v>
       </c>
       <c r="P251" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.3">
@@ -10018,7 +10033,7 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B253" s="5">
         <v>-34.876918449999998</v>
@@ -10039,12 +10054,12 @@
         <v>22000</v>
       </c>
       <c r="P253" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B254">
         <v>-35.799281999999998</v>
@@ -10065,7 +10080,7 @@
         <v>111</v>
       </c>
       <c r="P254" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.3">
@@ -10117,7 +10132,7 @@
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B256">
         <v>-35.575156999999997</v>
@@ -10147,12 +10162,12 @@
         <v>1222</v>
       </c>
       <c r="P256" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B257">
         <v>-35.581124000000003</v>
@@ -10182,12 +10197,12 @@
         <v>445</v>
       </c>
       <c r="P257" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B258" s="7">
         <v>-35.590392000000001</v>
@@ -10230,12 +10245,12 @@
         <v>0</v>
       </c>
       <c r="P258" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B259">
         <v>-35.6048446</v>
@@ -10259,12 +10274,12 @@
         <v>6389</v>
       </c>
       <c r="P259" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B260">
         <v>-35.612285999999997</v>
@@ -10297,12 +10312,12 @@
         <v>1001</v>
       </c>
       <c r="P260" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B261">
         <v>-35.624799000000003</v>
@@ -10326,7 +10341,7 @@
         <v>667</v>
       </c>
       <c r="P261" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.3">
@@ -10361,7 +10376,7 @@
         <v>2307</v>
       </c>
       <c r="P262" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.3">
@@ -10413,7 +10428,7 @@
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B264" s="7">
         <v>-35.787501300000002</v>
@@ -10454,12 +10469,12 @@
         <v>361</v>
       </c>
       <c r="P264" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B265" s="7">
         <v>-35.799281999999998</v>
@@ -10501,12 +10516,12 @@
         <v>0</v>
       </c>
       <c r="P265" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B266" s="7">
         <v>-35.791484199999999</v>
@@ -10548,12 +10563,12 @@
         <v>0</v>
       </c>
       <c r="P266" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B267" s="7">
         <v>-35.787857600000002</v>
@@ -10596,12 +10611,12 @@
         <v>6772</v>
       </c>
       <c r="P267" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B268" s="7">
         <v>-35.736241</v>
@@ -10643,12 +10658,12 @@
         <v>0</v>
       </c>
       <c r="P268" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B269">
         <v>-35.082030000000003</v>
@@ -10687,7 +10702,7 @@
         <v>7085</v>
       </c>
       <c r="P269" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.3">
@@ -10739,7 +10754,7 @@
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B271">
         <v>-35.563558</v>
@@ -10775,12 +10790,12 @@
         <v>1723</v>
       </c>
       <c r="P271" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B272">
         <v>-35.135489999999997</v>
@@ -10819,7 +10834,7 @@
         <v>8946</v>
       </c>
       <c r="P272" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.3">
@@ -10856,7 +10871,7 @@
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="B274">
         <v>-34.837600000000002</v>
@@ -10888,7 +10903,7 @@
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B275">
         <v>-34.873939999999997</v>
@@ -10920,7 +10935,7 @@
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B276">
         <v>-35.078539999999997</v>
@@ -10947,12 +10962,12 @@
         <v>172</v>
       </c>
       <c r="P276" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B277">
         <v>-35.570839499999998</v>
@@ -10982,12 +10997,12 @@
         <v>1000</v>
       </c>
       <c r="P277" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B278">
         <v>-35.634602000000001</v>
@@ -11002,12 +11017,12 @@
         <v>278</v>
       </c>
       <c r="P278" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B279">
         <v>-35.58858</v>
@@ -11037,12 +11052,12 @@
         <v>833</v>
       </c>
       <c r="P279" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B280">
         <v>-35.538469999999997</v>
@@ -11057,12 +11072,12 @@
         <v>0</v>
       </c>
       <c r="P280" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="281" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B281">
         <v>-35.634602000000001</v>
@@ -11077,12 +11092,12 @@
         <v>56</v>
       </c>
       <c r="P281" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B282">
         <v>-35.592570000000002</v>
@@ -11127,12 +11142,12 @@
         <v>62556</v>
       </c>
       <c r="P282" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B283">
         <v>-35.592669999999998</v>
@@ -11177,12 +11192,12 @@
         <v>45667</v>
       </c>
       <c r="P283" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B284">
         <v>-35.592770000000002</v>
@@ -11227,7 +11242,7 @@
         <v>23222</v>
       </c>
       <c r="P284" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.3">
@@ -11264,7 +11279,7 @@
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="B286">
         <v>-34.837600000000002</v>
@@ -11296,7 +11311,7 @@
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B287">
         <v>-34.873939999999997</v>
@@ -11328,7 +11343,7 @@
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B288">
         <v>-35.540277000000003</v>
@@ -11358,12 +11373,12 @@
         <v>1444</v>
       </c>
       <c r="P288" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B289">
         <v>-35.536745000000003</v>
@@ -11396,12 +11411,12 @@
         <v>890</v>
       </c>
       <c r="P289" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B290">
         <v>-35.573300000000003</v>
@@ -11428,12 +11443,12 @@
         <v>362</v>
       </c>
       <c r="P290" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B291">
         <v>-35.581124000000003</v>
@@ -11457,12 +11472,12 @@
         <v>223</v>
       </c>
       <c r="P291" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B292">
         <v>-35.6048446</v>
@@ -11480,12 +11495,12 @@
         <v>0</v>
       </c>
       <c r="P292" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B293">
         <v>-35.612285999999997</v>
@@ -11518,12 +11533,12 @@
         <v>1445</v>
       </c>
       <c r="P293" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B294">
         <v>-35.536168000000004</v>
@@ -11538,12 +11553,12 @@
         <v>722</v>
       </c>
       <c r="P294" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B295">
         <v>-35.515810999999999</v>
@@ -11558,12 +11573,12 @@
         <v>0</v>
       </c>
       <c r="P295" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B296" s="10">
         <v>-35.5691281</v>
@@ -11608,12 +11623,12 @@
         <v>8889</v>
       </c>
       <c r="P296" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A297" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B297" s="10">
         <v>-35.5691281</v>
@@ -11658,7 +11673,7 @@
         <v>10222</v>
       </c>
       <c r="P297" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.3">
@@ -11705,12 +11720,12 @@
         <v>2333</v>
       </c>
       <c r="P298" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B299">
         <v>-35.515507999999997</v>
@@ -11725,12 +11740,12 @@
         <v>667</v>
       </c>
       <c r="P299" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B300">
         <v>-35.515810999999999</v>
@@ -11745,12 +11760,12 @@
         <v>56</v>
       </c>
       <c r="P300" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B301">
         <v>-35.536168000000004</v>
@@ -11765,12 +11780,12 @@
         <v>444</v>
       </c>
       <c r="P301" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B302">
         <v>-35.538469999999997</v>
@@ -11785,12 +11800,12 @@
         <v>167</v>
       </c>
       <c r="P302" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B303">
         <v>-35.592393000000001</v>
@@ -11805,12 +11820,12 @@
         <v>111</v>
       </c>
       <c r="P303" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B304">
         <v>-35.634602000000001</v>
@@ -11825,12 +11840,12 @@
         <v>667</v>
       </c>
       <c r="P304" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B305">
         <v>-35.638637000000003</v>
@@ -11845,7 +11860,7 @@
         <v>1333</v>
       </c>
       <c r="P305" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.3">
@@ -11894,7 +11909,7 @@
     </row>
     <row r="307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B307">
         <v>-34.933939000000002</v>
@@ -11926,7 +11941,7 @@
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B308">
         <v>-34.191187999999997</v>
@@ -11958,7 +11973,7 @@
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B309">
         <v>-34.606234999999998</v>
@@ -11990,7 +12005,7 @@
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B310">
         <v>-35.58858</v>
@@ -12023,12 +12038,12 @@
         <v>1223</v>
       </c>
       <c r="P310" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A311" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B311" s="10">
         <v>-35.793615000000003</v>
@@ -12071,12 +12086,12 @@
         <v>39223</v>
       </c>
       <c r="P311" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="312" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A312" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B312" s="9">
         <v>-35.787857600000002</v>
@@ -12121,12 +12136,12 @@
         <v>3333</v>
       </c>
       <c r="P312" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B313" s="10">
         <v>-35.593628899999999</v>
@@ -12171,12 +12186,12 @@
         <v>8445</v>
       </c>
       <c r="P313" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="314" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A314" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B314" s="10">
         <v>-35.5909288</v>
@@ -12221,12 +12236,12 @@
         <v>14000</v>
       </c>
       <c r="P314" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B315">
         <v>-35.610827999999998</v>
@@ -12250,12 +12265,12 @@
         <v>667</v>
       </c>
       <c r="P315" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="316" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B316">
         <v>-35.588391000000001</v>
@@ -12285,12 +12300,12 @@
         <v>833</v>
       </c>
       <c r="P316" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="317" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A317" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B317" s="10">
         <v>-35.802792599999997</v>
@@ -12335,12 +12350,12 @@
         <v>76556</v>
       </c>
       <c r="P317" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A318" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B318" s="9">
         <v>-35.787857600000002</v>
@@ -12385,12 +12400,12 @@
         <v>1005</v>
       </c>
       <c r="P318" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="319" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A319" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B319" s="10">
         <v>-35.781898699999999</v>
@@ -12435,12 +12450,12 @@
         <v>4333</v>
       </c>
       <c r="P319" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B320">
         <v>-35.082030000000003</v>
@@ -12479,7 +12494,7 @@
         <v>3195</v>
       </c>
       <c r="P320" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="321" spans="1:16" x14ac:dyDescent="0.3">
@@ -12516,7 +12531,7 @@
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B322">
         <v>-34.940480000000001</v>
@@ -12548,7 +12563,7 @@
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B323">
         <v>-34.873939999999997</v>
@@ -12580,7 +12595,7 @@
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B324">
         <v>-35.802792599999997</v>
@@ -12625,12 +12640,12 @@
         <v>1444</v>
       </c>
       <c r="P324" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="325" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B325">
         <v>-35.8026926</v>
@@ -12675,12 +12690,12 @@
         <v>1556</v>
       </c>
       <c r="P325" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B326">
         <v>-35.671777499999997</v>
@@ -12725,12 +12740,12 @@
         <v>1556</v>
       </c>
       <c r="P326" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B327">
         <v>-35.793615000000003</v>
@@ -12775,12 +12790,12 @@
         <v>13611</v>
       </c>
       <c r="P327" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="328" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B328">
         <v>-35.58858</v>
@@ -12807,12 +12822,12 @@
         <v>945</v>
       </c>
       <c r="P328" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="329" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B329">
         <v>-35.540277000000003</v>
@@ -12845,12 +12860,12 @@
         <v>1335</v>
       </c>
       <c r="P329" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="330" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B330">
         <v>-35.581816000000003</v>
@@ -12880,12 +12895,12 @@
         <v>668</v>
       </c>
       <c r="P330" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="331" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B331">
         <v>-35.573300000000003</v>
@@ -12915,12 +12930,12 @@
         <v>1167</v>
       </c>
       <c r="P331" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B332">
         <v>-35.7391796</v>
@@ -12965,12 +12980,12 @@
         <v>2111</v>
       </c>
       <c r="P332" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="333" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B333">
         <v>-35.789543199999997</v>
@@ -13015,12 +13030,12 @@
         <v>4389</v>
       </c>
       <c r="P333" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="334" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B334">
         <v>-35.799307599999999</v>
@@ -13062,12 +13077,12 @@
         <v>4889</v>
       </c>
       <c r="P334" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B335">
         <v>-35.515507999999997</v>
@@ -13082,12 +13097,12 @@
         <v>0</v>
       </c>
       <c r="P335" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B336">
         <v>-35.538469999999997</v>
@@ -13102,12 +13117,12 @@
         <v>0</v>
       </c>
       <c r="P336" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B337">
         <v>-35.536168000000004</v>
@@ -13122,12 +13137,12 @@
         <v>0</v>
       </c>
       <c r="P337" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B338">
         <v>-35.634602000000001</v>
@@ -13142,12 +13157,12 @@
         <v>0</v>
       </c>
       <c r="P338" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B339">
         <v>-35.632100000000001</v>
@@ -13162,12 +13177,12 @@
         <v>0</v>
       </c>
       <c r="P339" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B340">
         <v>-35.549100000000003</v>
@@ -13182,12 +13197,12 @@
         <v>0</v>
       </c>
       <c r="P340" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B341">
         <v>-35.515507999999997</v>
@@ -13202,12 +13217,12 @@
         <v>0</v>
       </c>
       <c r="P341" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B342">
         <v>-35.536168000000004</v>
@@ -13222,12 +13237,12 @@
         <v>0</v>
       </c>
       <c r="P342" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B343">
         <v>-35.538469999999997</v>
@@ -13242,12 +13257,12 @@
         <v>0</v>
       </c>
       <c r="P343" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="344" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B344">
         <v>-35.549100000000003</v>
@@ -13262,12 +13277,12 @@
         <v>0</v>
       </c>
       <c r="P344" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B345">
         <v>-35.592393000000001</v>
@@ -13282,12 +13297,12 @@
         <v>0</v>
       </c>
       <c r="P345" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B346">
         <v>-35.634602000000001</v>
@@ -13302,12 +13317,12 @@
         <v>0</v>
       </c>
       <c r="P346" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B347">
         <v>-35.082030000000003</v>
@@ -13349,7 +13364,7 @@
         <v>8668</v>
       </c>
       <c r="P347" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="348" spans="1:16" x14ac:dyDescent="0.3">
@@ -13398,7 +13413,7 @@
     </row>
     <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B349">
         <v>-35.054707999999998</v>
@@ -13428,12 +13443,12 @@
         <v>47889</v>
       </c>
       <c r="P349" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B350">
         <v>-35.719856700000001</v>
@@ -13478,12 +13493,12 @@
         <v>12111</v>
       </c>
       <c r="P350" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B351">
         <v>-35.120863999999997</v>
@@ -13530,7 +13545,7 @@
     </row>
     <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B352">
         <v>-35.078539999999997</v>
@@ -13577,7 +13592,7 @@
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B353">
         <v>-35.738910099999998</v>
@@ -13622,12 +13637,12 @@
         <v>5999</v>
       </c>
       <c r="P353" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="354" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B354">
         <v>-35.638145999999999</v>
@@ -13672,12 +13687,12 @@
         <v>0</v>
       </c>
       <c r="P354" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="355" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B355">
         <v>-35.671809099999997</v>
@@ -13722,7 +13737,7 @@
         <v>5445</v>
       </c>
       <c r="P355" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.3">
@@ -13762,7 +13777,7 @@
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B357">
         <v>-34.180396000000002</v>
@@ -13803,7 +13818,7 @@
     </row>
     <row r="358" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B358">
         <v>-34.176642000000001</v>
@@ -13835,7 +13850,7 @@
     </row>
     <row r="359" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B359">
         <v>-34.322853000000002</v>
@@ -13873,7 +13888,7 @@
     </row>
     <row r="360" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B360">
         <v>-34.377982000000003</v>
@@ -13911,7 +13926,7 @@
     </row>
     <row r="361" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B361">
         <v>-35.515507999999997</v>
@@ -13929,12 +13944,12 @@
         <v>222</v>
       </c>
       <c r="P361" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="362" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B362">
         <v>-35.538469999999997</v>
@@ -13952,12 +13967,12 @@
         <v>0</v>
       </c>
       <c r="P362" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="363" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B363">
         <v>-35.536168000000004</v>
@@ -13975,12 +13990,12 @@
         <v>111</v>
       </c>
       <c r="P363" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="364" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B364">
         <v>-35.634602000000001</v>
@@ -13998,12 +14013,12 @@
         <v>222</v>
       </c>
       <c r="P364" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="365" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B365">
         <v>-35.638637000000003</v>
@@ -14021,12 +14036,12 @@
         <v>111</v>
       </c>
       <c r="P365" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="366" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B366">
         <v>-35.558100000000003</v>
@@ -14044,7 +14059,7 @@
         <v>167</v>
       </c>
       <c r="P366" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="367" spans="1:16" x14ac:dyDescent="0.3">
@@ -14088,12 +14103,12 @@
         <v>668</v>
       </c>
       <c r="P367" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="368" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B368">
         <v>-35.093015000000001</v>
@@ -14123,7 +14138,7 @@
         <v>2444</v>
       </c>
       <c r="P368" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="369" spans="1:16" x14ac:dyDescent="0.3">
@@ -14169,7 +14184,7 @@
     </row>
     <row r="370" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="B370">
         <v>-34.940480000000001</v>
@@ -14213,7 +14228,7 @@
     </row>
     <row r="371" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B371">
         <v>-34.873939999999997</v>
@@ -14245,7 +14260,7 @@
     </row>
     <row r="372" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B372">
         <v>-35.081918000000002</v>
@@ -14275,12 +14290,12 @@
         <v>2389</v>
       </c>
       <c r="P372" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="373" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B373">
         <v>-35.054707999999998</v>
@@ -14307,12 +14322,12 @@
         <v>205403</v>
       </c>
       <c r="P373" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="374" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A374" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B374" s="10">
         <v>-35.586970000000001</v>
@@ -14357,12 +14372,12 @@
         <v>2085</v>
       </c>
       <c r="P374" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="375" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A375" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B375" s="10">
         <v>-35.586869999999998</v>
@@ -14407,12 +14422,12 @@
         <v>2511</v>
       </c>
       <c r="P375" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="376" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B376">
         <v>-35.115375999999998</v>
@@ -14442,12 +14457,12 @@
         <v>4444</v>
       </c>
       <c r="P376" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="377" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B377">
         <v>-35.465475320000003</v>
@@ -14492,12 +14507,12 @@
         <v>16778</v>
       </c>
       <c r="P377" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="378" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B378">
         <v>-35.788755899999998</v>
@@ -14542,12 +14557,12 @@
         <v>4672</v>
       </c>
       <c r="P378" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="379" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B379">
         <v>-35.784914800000003</v>
@@ -14592,12 +14607,12 @@
         <v>40333</v>
       </c>
       <c r="P379" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="380" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B380">
         <v>-35.054707999999998</v>
@@ -14621,12 +14636,12 @@
         <v>396000</v>
       </c>
       <c r="P380" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="381" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B381">
         <v>-35.082030000000003</v>
@@ -14671,7 +14686,7 @@
         <v>10888</v>
       </c>
       <c r="P381" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="382" spans="1:16" x14ac:dyDescent="0.3">
@@ -14726,7 +14741,7 @@
     </row>
     <row r="383" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B383">
         <v>-35.788755899999998</v>
@@ -14771,201 +14786,793 @@
         <v>9776</v>
       </c>
       <c r="P383" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="384" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="B384">
-        <v>-34.804169999999999</v>
+        <v>-35.054707999999998</v>
       </c>
       <c r="C384">
-        <v>138.53970000000001</v>
+        <v>137.725145</v>
       </c>
       <c r="D384" s="2">
-        <v>46011</v>
-      </c>
-      <c r="E384">
-        <v>0</v>
-      </c>
-      <c r="F384">
-        <v>2.75E-2</v>
-      </c>
-      <c r="G384">
-        <v>5.0000000000000001E-3</v>
+        <v>46010</v>
       </c>
       <c r="H384">
-        <v>0.22</v>
+        <v>147333</v>
       </c>
       <c r="I384">
         <v>0</v>
       </c>
       <c r="K384">
-        <v>1.2829999999999999</v>
-      </c>
-      <c r="L384">
-        <v>0</v>
-      </c>
-      <c r="M384">
-        <v>0</v>
+        <v>1667</v>
       </c>
       <c r="N384">
-        <v>1.393</v>
+        <v>1500</v>
       </c>
       <c r="O384">
-        <v>2.9284999999999997</v>
+        <v>150500</v>
       </c>
       <c r="P384" t="s">
-        <v>78</v>
+        <v>222</v>
       </c>
     </row>
     <row r="385" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="B385">
-        <v>-34.940480000000001</v>
+        <v>-35.081918000000002</v>
       </c>
       <c r="C385">
-        <v>138.49844100000001</v>
+        <v>137.74822499999999</v>
       </c>
       <c r="D385" s="2">
-        <v>46011</v>
-      </c>
-      <c r="E385">
-        <v>0</v>
-      </c>
-      <c r="F385">
-        <v>0.03</v>
-      </c>
-      <c r="G385">
-        <v>0</v>
+        <v>46010</v>
       </c>
       <c r="H385">
-        <v>9</v>
+        <v>1556</v>
       </c>
       <c r="I385">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K385">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="L385">
-        <v>2.5000000000000001E-2</v>
+        <v>500</v>
       </c>
       <c r="M385">
-        <v>0</v>
+        <v>1389</v>
       </c>
       <c r="N385">
-        <v>0.2</v>
+        <v>333</v>
       </c>
       <c r="O385">
-        <v>18.054999999999996</v>
+        <v>3778</v>
       </c>
       <c r="P385" t="s">
-        <v>78</v>
+        <v>222</v>
       </c>
     </row>
     <row r="386" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="B386">
-        <v>-35.788755899999998</v>
+        <v>-34.804169999999999</v>
       </c>
       <c r="C386">
-        <v>137.78784780000001</v>
+        <v>138.53970000000001</v>
       </c>
       <c r="D386" s="2">
         <v>46011</v>
       </c>
       <c r="E386">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="F386">
-        <v>1222</v>
+        <v>2.75E-2</v>
       </c>
       <c r="G386">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H386">
-        <v>34444</v>
+        <v>0.22</v>
       </c>
       <c r="I386">
         <v>0</v>
       </c>
-      <c r="J386">
-        <v>2222</v>
-      </c>
       <c r="K386">
-        <v>333</v>
+        <v>1.2829999999999999</v>
       </c>
       <c r="L386">
         <v>0</v>
       </c>
       <c r="M386">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N386">
-        <v>223</v>
+        <v>1.393</v>
       </c>
       <c r="O386">
-        <v>40555</v>
+        <v>2.9284999999999997</v>
       </c>
       <c r="P386" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
     </row>
     <row r="387" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="B387">
+        <v>-34.824044999999998</v>
+      </c>
+      <c r="C387">
+        <v>138.48377600000001</v>
+      </c>
+      <c r="D387" s="2">
+        <v>46011</v>
+      </c>
+      <c r="E387">
+        <v>0</v>
+      </c>
+      <c r="F387">
+        <v>0.8</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+      <c r="H387">
+        <v>9</v>
+      </c>
+      <c r="I387">
+        <v>0.6</v>
+      </c>
+      <c r="K387">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L387">
+        <v>0</v>
+      </c>
+      <c r="M387">
+        <v>0.5</v>
+      </c>
+      <c r="N387">
+        <v>0.2</v>
+      </c>
+      <c r="O387">
+        <v>18.7</v>
+      </c>
+      <c r="P387" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>210</v>
+      </c>
+      <c r="B388">
+        <v>-35.788755899999998</v>
+      </c>
+      <c r="C388">
+        <v>137.78784780000001</v>
+      </c>
+      <c r="D388" s="2">
+        <v>46011</v>
+      </c>
+      <c r="E388">
+        <v>111</v>
+      </c>
+      <c r="F388">
+        <v>1222</v>
+      </c>
+      <c r="G388">
+        <v>0</v>
+      </c>
+      <c r="H388">
+        <v>34444</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>2222</v>
+      </c>
+      <c r="K388">
+        <v>333</v>
+      </c>
+      <c r="L388">
+        <v>0</v>
+      </c>
+      <c r="M388">
+        <v>2000</v>
+      </c>
+      <c r="N388">
+        <v>223</v>
+      </c>
+      <c r="O388">
+        <v>40555</v>
+      </c>
+      <c r="P388" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>211</v>
+      </c>
+      <c r="B389">
         <v>-35.671777499999997</v>
       </c>
-      <c r="C387">
+      <c r="C389">
         <v>137.6137956</v>
       </c>
-      <c r="D387" s="2">
+      <c r="D389" s="2">
         <v>46013</v>
       </c>
-      <c r="E387">
+      <c r="E389">
         <v>222</v>
       </c>
-      <c r="F387">
+      <c r="F389">
         <v>1222</v>
       </c>
-      <c r="G387">
-        <v>0</v>
-      </c>
-      <c r="H387">
+      <c r="G389">
+        <v>0</v>
+      </c>
+      <c r="H389">
         <v>1778</v>
       </c>
-      <c r="I387">
-        <v>0</v>
-      </c>
-      <c r="J387">
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
         <v>222</v>
       </c>
-      <c r="K387">
+      <c r="K389">
         <v>6111</v>
       </c>
-      <c r="L387">
+      <c r="L389">
         <v>666</v>
       </c>
-      <c r="M387">
+      <c r="M389">
         <v>6889</v>
       </c>
-      <c r="N387">
-        <v>0</v>
-      </c>
-      <c r="O387">
+      <c r="N389">
+        <v>0</v>
+      </c>
+      <c r="O389">
         <v>17110</v>
       </c>
-      <c r="P387" t="s">
-        <v>168</v>
+      <c r="P389" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>234</v>
+      </c>
+      <c r="B390">
+        <v>-35.054707999999998</v>
+      </c>
+      <c r="C390">
+        <v>137.725145</v>
+      </c>
+      <c r="D390" s="2">
+        <v>46017</v>
+      </c>
+      <c r="H390">
+        <v>57250</v>
+      </c>
+      <c r="I390">
+        <v>0</v>
+      </c>
+      <c r="K390">
+        <v>21500</v>
+      </c>
+      <c r="M390">
+        <v>7250</v>
+      </c>
+      <c r="N390">
+        <v>2000</v>
+      </c>
+      <c r="O390">
+        <v>88000</v>
+      </c>
+      <c r="P390" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>200</v>
+      </c>
+      <c r="B391">
+        <v>-35.793615000000003</v>
+      </c>
+      <c r="C391">
+        <v>137.85449840000001</v>
+      </c>
+      <c r="D391" s="2">
+        <v>46017</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+      <c r="H391">
+        <v>2222</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>1111</v>
+      </c>
+      <c r="L391">
+        <v>222</v>
+      </c>
+      <c r="M391">
+        <v>2222</v>
+      </c>
+      <c r="N391">
+        <v>0</v>
+      </c>
+      <c r="O391">
+        <v>8444</v>
+      </c>
+      <c r="P391" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>238</v>
+      </c>
+      <c r="B392">
+        <v>-35.654400000000003</v>
+      </c>
+      <c r="C392">
+        <v>138.15520000000001</v>
+      </c>
+      <c r="D392" s="2">
+        <v>46017</v>
+      </c>
+      <c r="I392">
+        <v>0</v>
+      </c>
+      <c r="P392" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>240</v>
+      </c>
+      <c r="B393">
+        <v>-35.371586999999998</v>
+      </c>
+      <c r="C393">
+        <v>138.387067</v>
+      </c>
+      <c r="D393" s="2">
+        <v>46018</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393">
+        <v>0.03</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+      <c r="H393">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I393">
+        <v>0.03</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393">
+        <v>1.53</v>
+      </c>
+      <c r="L393">
+        <v>0</v>
+      </c>
+      <c r="M393">
+        <v>0.06</v>
+      </c>
+      <c r="N393">
+        <v>0</v>
+      </c>
+      <c r="O393">
+        <v>4.05</v>
+      </c>
+      <c r="P393" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>241</v>
+      </c>
+      <c r="B394">
+        <v>-35.017930999999997</v>
+      </c>
+      <c r="C394">
+        <v>138.51365200000001</v>
+      </c>
+      <c r="D394" s="2">
+        <v>46018</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+      <c r="G394">
+        <v>0</v>
+      </c>
+      <c r="H394">
+        <v>3.7</v>
+      </c>
+      <c r="I394">
+        <v>0.1</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
+      <c r="K394">
+        <v>11.7</v>
+      </c>
+      <c r="L394">
+        <v>0</v>
+      </c>
+      <c r="M394">
+        <v>0</v>
+      </c>
+      <c r="N394">
+        <v>0</v>
+      </c>
+      <c r="O394">
+        <v>15.4</v>
+      </c>
+      <c r="P394" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>242</v>
+      </c>
+      <c r="B395">
+        <v>-35.032207</v>
+      </c>
+      <c r="C395">
+        <v>138.51583500000001</v>
+      </c>
+      <c r="D395" s="2">
+        <v>46019</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395">
+        <v>0.12</v>
+      </c>
+      <c r="G395">
+        <v>0</v>
+      </c>
+      <c r="H395">
+        <v>3.15</v>
+      </c>
+      <c r="I395">
+        <v>0.03</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395">
+        <v>3.24</v>
+      </c>
+      <c r="L395">
+        <v>0</v>
+      </c>
+      <c r="M395">
+        <v>30</v>
+      </c>
+      <c r="N395">
+        <v>0</v>
+      </c>
+      <c r="O395">
+        <v>36.51</v>
+      </c>
+      <c r="P395" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>214</v>
+      </c>
+      <c r="B396">
+        <v>-35.515507999999997</v>
+      </c>
+      <c r="C396">
+        <v>138.729004</v>
+      </c>
+      <c r="D396" s="2">
+        <v>46020</v>
+      </c>
+      <c r="I396">
+        <v>0</v>
+      </c>
+      <c r="P396" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>187</v>
+      </c>
+      <c r="B397">
+        <v>-35.538469999999997</v>
+      </c>
+      <c r="C397">
+        <v>138.649779</v>
+      </c>
+      <c r="D397" s="2">
+        <v>46020</v>
+      </c>
+      <c r="I397">
+        <v>0</v>
+      </c>
+      <c r="P397" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>91</v>
+      </c>
+      <c r="B398">
+        <v>-35.536168000000004</v>
+      </c>
+      <c r="C398">
+        <v>138.677615</v>
+      </c>
+      <c r="D398" s="2">
+        <v>46020</v>
+      </c>
+      <c r="I398">
+        <v>0</v>
+      </c>
+      <c r="P398" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>191</v>
+      </c>
+      <c r="B399">
+        <v>-35.592393000000001</v>
+      </c>
+      <c r="C399">
+        <v>138.599706</v>
+      </c>
+      <c r="D399" s="2">
+        <v>46020</v>
+      </c>
+      <c r="I399">
+        <v>0</v>
+      </c>
+      <c r="P399" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>92</v>
+      </c>
+      <c r="B400">
+        <v>-35.634602000000001</v>
+      </c>
+      <c r="C400">
+        <v>138.49898300000001</v>
+      </c>
+      <c r="D400" s="2">
+        <v>46020</v>
+      </c>
+      <c r="I400">
+        <v>0</v>
+      </c>
+      <c r="P400" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>227</v>
+      </c>
+      <c r="B401">
+        <v>-35.558100000000003</v>
+      </c>
+      <c r="C401">
+        <v>138.67920000000001</v>
+      </c>
+      <c r="D401" s="2">
+        <v>46020</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+      <c r="P401" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>200</v>
+      </c>
+      <c r="B402">
+        <v>-35.793615000000003</v>
+      </c>
+      <c r="C402">
+        <v>137.85449840000001</v>
+      </c>
+      <c r="D402" s="2">
+        <v>46020</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="F402">
+        <v>667</v>
+      </c>
+      <c r="G402">
+        <v>0</v>
+      </c>
+      <c r="H402">
+        <v>6000</v>
+      </c>
+      <c r="I402">
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>2667</v>
+      </c>
+      <c r="L402">
+        <v>222</v>
+      </c>
+      <c r="M402">
+        <v>2222</v>
+      </c>
+      <c r="N402">
+        <v>0</v>
+      </c>
+      <c r="O402">
+        <v>11778</v>
+      </c>
+      <c r="P402" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>239</v>
+      </c>
+      <c r="B403">
+        <v>-34.824044999999998</v>
+      </c>
+      <c r="C403">
+        <v>138.48377600000001</v>
+      </c>
+      <c r="D403" s="2">
+        <v>46021</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="F403">
+        <v>0.5</v>
+      </c>
+      <c r="G403">
+        <v>0</v>
+      </c>
+      <c r="H403">
+        <v>5</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="K403">
+        <v>27.3</v>
+      </c>
+      <c r="L403">
+        <v>1.9</v>
+      </c>
+      <c r="M403">
+        <v>0.3</v>
+      </c>
+      <c r="N403">
+        <v>0</v>
+      </c>
+      <c r="O403">
+        <v>35</v>
+      </c>
+      <c r="P403" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>243</v>
+      </c>
+      <c r="B404">
+        <v>-35.308790000000002</v>
+      </c>
+      <c r="C404">
+        <v>138.44603499999999</v>
+      </c>
+      <c r="D404" s="2">
+        <v>46023</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="F404">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G404">
+        <v>0</v>
+      </c>
+      <c r="H404">
+        <v>2.415</v>
+      </c>
+      <c r="I404">
+        <v>0</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <v>5.6349999999999998</v>
+      </c>
+      <c r="L404">
+        <v>0</v>
+      </c>
+      <c r="M404">
+        <v>0</v>
+      </c>
+      <c r="N404">
+        <v>0.105</v>
+      </c>
+      <c r="O404">
+        <v>8.1900000000000013</v>
+      </c>
+      <c r="P404" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50340710-74E6-4134-B03F-7549F143F77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C28356E-62C7-4EBE-8DE2-D1221CD2FAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="254">
   <si>
     <t>Date</t>
   </si>
@@ -789,12 +789,43 @@
   <si>
     <t>Silver Sands Beach</t>
   </si>
+  <si>
+    <t>Moana Beach</t>
+  </si>
+  <si>
+    <t>Carrickalinga Beach</t>
+  </si>
+  <si>
+    <t>Westlakes Bartley Terrace Footbridge</t>
+  </si>
+  <si>
+    <t>Westlakes Martin Crt</t>
+  </si>
+  <si>
+    <t>Birkenhead Bridge</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>StrawPT zostera</t>
+  </si>
+  <si>
+    <t>Ethel Beach</t>
+  </si>
+  <si>
+    <t>StrawPT posidonia</t>
+  </si>
+  <si>
+    <t>Stokes Bay</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -858,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -874,6 +905,10 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1208,12 +1243,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:P404"/>
+  <dimension ref="A1:P420"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A405" sqref="A405"/>
+      <selection pane="bottomLeft" activeCell="A421" sqref="A421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15525,30 +15560,30 @@
         <v>78</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="B404">
-        <v>-35.308790000000002</v>
+        <v>-34.804662999999998</v>
       </c>
       <c r="C404">
-        <v>138.44603499999999</v>
+        <v>138.540223</v>
       </c>
       <c r="D404" s="2">
-        <v>46023</v>
+        <v>46021</v>
       </c>
       <c r="E404">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="F404">
-        <v>3.5000000000000003E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G404">
         <v>0</v>
       </c>
       <c r="H404">
-        <v>2.415</v>
+        <v>0.15</v>
       </c>
       <c r="I404">
         <v>0</v>
@@ -15557,22 +15592,807 @@
         <v>0</v>
       </c>
       <c r="K404">
-        <v>5.6349999999999998</v>
+        <v>8.3249999999999993</v>
       </c>
       <c r="L404">
         <v>0</v>
       </c>
       <c r="M404">
-        <v>0</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="N404">
-        <v>0.105</v>
-      </c>
-      <c r="O404">
-        <v>8.1900000000000013</v>
+        <v>0.15</v>
+      </c>
+      <c r="O404" s="11">
+        <v>9.4499999999999993</v>
       </c>
       <c r="P404" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>244</v>
+      </c>
+      <c r="B405">
+        <v>-35.193919999999999</v>
+      </c>
+      <c r="C405">
+        <v>138.469233</v>
+      </c>
+      <c r="D405" s="2">
+        <v>46021</v>
+      </c>
+      <c r="E405">
+        <v>0</v>
+      </c>
+      <c r="F405">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G405">
+        <v>0</v>
+      </c>
+      <c r="H405">
+        <v>1.65</v>
+      </c>
+      <c r="I405">
+        <v>0</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="L405">
+        <v>0</v>
+      </c>
+      <c r="M405">
+        <v>0.15</v>
+      </c>
+      <c r="N405">
+        <v>0</v>
+      </c>
+      <c r="O405" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="P405" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>243</v>
+      </c>
+      <c r="B406">
+        <v>-35.308790000000002</v>
+      </c>
+      <c r="C406">
+        <v>138.44603499999999</v>
+      </c>
+      <c r="D406" s="2">
+        <v>46023</v>
+      </c>
+      <c r="E406">
+        <v>0</v>
+      </c>
+      <c r="F406">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G406">
+        <v>0</v>
+      </c>
+      <c r="H406">
+        <v>2.415</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>5.6349999999999998</v>
+      </c>
+      <c r="L406">
+        <v>0</v>
+      </c>
+      <c r="M406">
+        <v>0</v>
+      </c>
+      <c r="N406">
+        <v>0.105</v>
+      </c>
+      <c r="O406">
+        <v>8.1900000000000013</v>
+      </c>
+      <c r="P406" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A407" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B407" s="9">
+        <v>-35.787201000000003</v>
+      </c>
+      <c r="C407" s="10">
+        <v>137.77800909999999</v>
+      </c>
+      <c r="D407" s="2">
+        <v>46023</v>
+      </c>
+      <c r="E407" s="10">
+        <v>1111</v>
+      </c>
+      <c r="F407" s="10">
+        <v>0</v>
+      </c>
+      <c r="G407" s="10">
+        <v>0</v>
+      </c>
+      <c r="H407" s="10">
+        <v>12778</v>
+      </c>
+      <c r="I407" s="10">
+        <v>3</v>
+      </c>
+      <c r="J407" s="10">
+        <v>8</v>
+      </c>
+      <c r="K407" s="10">
+        <v>9444</v>
+      </c>
+      <c r="L407" s="10">
+        <v>444</v>
+      </c>
+      <c r="M407" s="10">
+        <v>9</v>
+      </c>
+      <c r="N407" s="10">
+        <v>888</v>
+      </c>
+      <c r="O407" s="10">
+        <v>24682</v>
+      </c>
+      <c r="P407" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A408" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B408" s="12">
+        <v>-35.787233399999998</v>
+      </c>
+      <c r="C408" s="9">
+        <v>137.777816</v>
+      </c>
+      <c r="D408" s="2">
+        <v>46023</v>
+      </c>
+      <c r="E408" s="10">
+        <v>0</v>
+      </c>
+      <c r="F408" s="10">
+        <v>0</v>
+      </c>
+      <c r="G408" s="10">
+        <v>667</v>
+      </c>
+      <c r="H408" s="10">
+        <v>26667</v>
+      </c>
+      <c r="I408" s="10">
+        <v>0</v>
+      </c>
+      <c r="J408" s="10">
+        <v>0</v>
+      </c>
+      <c r="K408" s="10">
+        <v>15333</v>
+      </c>
+      <c r="L408" s="10">
+        <v>444</v>
+      </c>
+      <c r="M408" s="10">
+        <v>0</v>
+      </c>
+      <c r="N408" s="10">
+        <v>888</v>
+      </c>
+      <c r="O408" s="10">
+        <v>43999</v>
+      </c>
+      <c r="P408" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>245</v>
+      </c>
+      <c r="B409">
+        <v>-35.427987000000002</v>
+      </c>
+      <c r="C409">
+        <v>138.31909899999999</v>
+      </c>
+      <c r="D409" s="2">
+        <v>46025</v>
+      </c>
+      <c r="E409">
+        <v>0</v>
+      </c>
+      <c r="F409">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G409">
+        <v>0</v>
+      </c>
+      <c r="H409">
+        <v>3</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K409">
+        <v>3.3</v>
+      </c>
+      <c r="L409">
+        <v>0</v>
+      </c>
+      <c r="M409">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="N409">
+        <v>3.3</v>
+      </c>
+      <c r="O409" s="11">
+        <v>9.7029999999999994</v>
+      </c>
+      <c r="P409" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>92</v>
+      </c>
+      <c r="B410">
+        <v>-35.632150000000003</v>
+      </c>
+      <c r="C410">
+        <v>138.48335599999999</v>
+      </c>
+      <c r="D410" s="2">
+        <v>46025</v>
+      </c>
+      <c r="E410">
+        <v>0</v>
+      </c>
+      <c r="F410">
+        <v>0.05</v>
+      </c>
+      <c r="G410">
+        <v>0</v>
+      </c>
+      <c r="H410">
+        <v>1.75</v>
+      </c>
+      <c r="I410">
+        <v>0.05</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>3.4</v>
+      </c>
+      <c r="L410">
+        <v>0</v>
+      </c>
+      <c r="M410">
+        <v>0</v>
+      </c>
+      <c r="N410">
+        <v>0.45</v>
+      </c>
+      <c r="O410" s="11">
+        <v>5.65</v>
+      </c>
+      <c r="P410" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>246</v>
+      </c>
+      <c r="B411">
+        <v>-34.860666999999999</v>
+      </c>
+      <c r="C411">
+        <v>138.490938</v>
+      </c>
+      <c r="D411" s="2">
+        <v>46025</v>
+      </c>
+      <c r="E411">
+        <v>0</v>
+      </c>
+      <c r="F411">
+        <v>0.15</v>
+      </c>
+      <c r="G411">
+        <v>0</v>
+      </c>
+      <c r="H411">
+        <v>5.25</v>
+      </c>
+      <c r="I411">
+        <v>1.05</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="L411">
+        <v>0</v>
+      </c>
+      <c r="M411">
+        <v>0.75</v>
+      </c>
+      <c r="N411">
+        <v>1.2</v>
+      </c>
+      <c r="O411" s="11">
+        <v>80.250000000000014</v>
+      </c>
+      <c r="P411" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>247</v>
+      </c>
+      <c r="B412">
+        <v>-34.873964000000001</v>
+      </c>
+      <c r="C412">
+        <v>138.488134</v>
+      </c>
+      <c r="D412" s="2">
+        <v>46025</v>
+      </c>
+      <c r="E412">
+        <v>0</v>
+      </c>
+      <c r="F412">
+        <v>0</v>
+      </c>
+      <c r="G412">
+        <v>0</v>
+      </c>
+      <c r="H412">
+        <v>80</v>
+      </c>
+      <c r="I412">
+        <v>46.5</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412">
+        <v>32</v>
+      </c>
+      <c r="L412">
+        <v>0</v>
+      </c>
+      <c r="M412">
+        <v>2</v>
+      </c>
+      <c r="N412">
+        <v>0</v>
+      </c>
+      <c r="O412" s="11">
+        <v>114</v>
+      </c>
+      <c r="P412" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A413" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B413" s="10">
+        <v>-35.622483199999998</v>
+      </c>
+      <c r="C413" s="10">
+        <v>137.20668860000001</v>
+      </c>
+      <c r="D413" s="2">
+        <v>46026</v>
+      </c>
+      <c r="E413" s="10">
+        <v>0</v>
+      </c>
+      <c r="F413" s="10">
+        <v>111</v>
+      </c>
+      <c r="G413" s="10">
+        <v>0</v>
+      </c>
+      <c r="H413" s="10">
+        <v>7000</v>
+      </c>
+      <c r="I413" s="10">
+        <v>5990</v>
+      </c>
+      <c r="J413" s="10">
+        <v>1110</v>
+      </c>
+      <c r="K413" s="10">
+        <v>111</v>
+      </c>
+      <c r="L413" s="10">
+        <v>0</v>
+      </c>
+      <c r="M413" s="10">
+        <v>999</v>
+      </c>
+      <c r="N413" s="10">
+        <v>0</v>
+      </c>
+      <c r="O413" s="10">
+        <v>9331</v>
+      </c>
+      <c r="P413" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>251</v>
+      </c>
+      <c r="B414">
+        <v>-35.269129</v>
+      </c>
+      <c r="C414">
+        <v>136.844258</v>
+      </c>
+      <c r="D414" s="2">
+        <v>46027</v>
+      </c>
+      <c r="H414">
+        <v>5389</v>
+      </c>
+      <c r="I414">
+        <v>3556</v>
+      </c>
+      <c r="K414">
+        <v>1333</v>
+      </c>
+      <c r="M414">
+        <v>278</v>
+      </c>
+      <c r="N414">
+        <v>778</v>
+      </c>
+      <c r="O414">
+        <v>7778</v>
+      </c>
+      <c r="P414" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>79</v>
+      </c>
+      <c r="B415">
+        <v>-34.804662999999998</v>
+      </c>
+      <c r="C415">
+        <v>138.540223</v>
+      </c>
+      <c r="D415" s="2">
+        <v>46028</v>
+      </c>
+      <c r="E415">
+        <v>0</v>
+      </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
+      <c r="G415">
+        <v>0</v>
+      </c>
+      <c r="H415">
+        <v>0.3</v>
+      </c>
+      <c r="I415">
+        <v>0</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415">
+        <v>6.6</v>
+      </c>
+      <c r="L415">
+        <v>0</v>
+      </c>
+      <c r="M415">
+        <v>0.05</v>
+      </c>
+      <c r="N415">
+        <v>2.95</v>
+      </c>
+      <c r="O415" s="11">
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="P415" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>248</v>
+      </c>
+      <c r="B416">
+        <v>-34.840546000000003</v>
+      </c>
+      <c r="C416">
+        <v>136.500688</v>
+      </c>
+      <c r="D416" s="2">
+        <v>46028</v>
+      </c>
+      <c r="E416">
+        <v>0</v>
+      </c>
+      <c r="F416">
+        <v>0</v>
+      </c>
+      <c r="G416">
+        <v>0</v>
+      </c>
+      <c r="H416">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="I416">
+        <v>0</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416">
+        <v>6.165</v>
+      </c>
+      <c r="L416">
+        <v>0</v>
+      </c>
+      <c r="M416">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N416">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="O416" s="11">
+        <v>7.0200000000000005</v>
+      </c>
+      <c r="P416" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>239</v>
+      </c>
+      <c r="B417">
+        <v>-34.824044999999998</v>
+      </c>
+      <c r="C417">
+        <v>138.48377600000001</v>
+      </c>
+      <c r="D417" s="2">
+        <v>46028</v>
+      </c>
+      <c r="E417">
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>0.05</v>
+      </c>
+      <c r="G417">
+        <v>0</v>
+      </c>
+      <c r="H417">
+        <v>0.8</v>
+      </c>
+      <c r="I417">
+        <v>0</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417">
+        <v>5.4</v>
+      </c>
+      <c r="L417" t="s">
+        <v>249</v>
+      </c>
+      <c r="M417">
+        <v>0.1</v>
+      </c>
+      <c r="N417">
+        <v>1.35</v>
+      </c>
+      <c r="O417" s="11">
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="P417" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>247</v>
+      </c>
+      <c r="B418">
+        <v>-34.873964000000001</v>
+      </c>
+      <c r="C418">
+        <v>138.488134</v>
+      </c>
+      <c r="D418" s="2">
+        <v>46028</v>
+      </c>
+      <c r="E418">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+      <c r="H418">
+        <v>42.167000000000002</v>
+      </c>
+      <c r="I418">
+        <v>17.167000000000002</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418">
+        <v>5.1669999999999998</v>
+      </c>
+      <c r="L418">
+        <v>1.667</v>
+      </c>
+      <c r="M418">
+        <v>0</v>
+      </c>
+      <c r="N418">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="O418" s="11">
+        <v>49.835000000000008</v>
+      </c>
+      <c r="P418" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>246</v>
+      </c>
+      <c r="B419">
+        <v>-34.860666999999999</v>
+      </c>
+      <c r="C419">
+        <v>138.490938</v>
+      </c>
+      <c r="D419" s="2">
+        <v>46028</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>0</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+      <c r="H419">
+        <v>45.674999999999997</v>
+      </c>
+      <c r="I419">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+      <c r="K419">
+        <v>1.8</v>
+      </c>
+      <c r="L419">
+        <v>0</v>
+      </c>
+      <c r="M419">
+        <v>0</v>
+      </c>
+      <c r="N419">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="O419" s="11">
+        <v>47.999999999999993</v>
+      </c>
+      <c r="P419" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A420" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B420" s="9">
+        <v>-35.787201000000003</v>
+      </c>
+      <c r="C420" s="10">
+        <v>137.77800909999999</v>
+      </c>
+      <c r="D420" s="2">
+        <v>46028</v>
+      </c>
+      <c r="E420" s="10">
+        <v>1111</v>
+      </c>
+      <c r="F420" s="10">
+        <v>13333</v>
+      </c>
+      <c r="G420" s="10">
+        <v>0</v>
+      </c>
+      <c r="H420" s="10">
+        <v>16111</v>
+      </c>
+      <c r="I420" s="10">
+        <v>333</v>
+      </c>
+      <c r="J420" s="10">
+        <v>0</v>
+      </c>
+      <c r="K420" s="10">
+        <v>13889</v>
+      </c>
+      <c r="L420" s="10">
+        <v>333</v>
+      </c>
+      <c r="M420" s="10">
+        <v>1444</v>
+      </c>
+      <c r="N420" s="10">
+        <v>0</v>
+      </c>
+      <c r="O420" s="10">
+        <v>46221</v>
+      </c>
+      <c r="P420" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C28356E-62C7-4EBE-8DE2-D1221CD2FAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00833D33-C4E0-4169-8033-7C0EE5B1C287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="263">
   <si>
     <t>Date</t>
   </si>
@@ -818,6 +818,33 @@
   </si>
   <si>
     <t>Stokes Bay</t>
+  </si>
+  <si>
+    <t>Wallaroo jetty swimming enclosure</t>
+  </si>
+  <si>
+    <t>Rapid Bay Beach</t>
+  </si>
+  <si>
+    <t>POWJ5204</t>
+  </si>
+  <si>
+    <t>Rapid Bay Jetty</t>
+  </si>
+  <si>
+    <t>Snellings</t>
+  </si>
+  <si>
+    <t>Southern End Formby Bay, Yorke Peninsula</t>
+  </si>
+  <si>
+    <t>CAML5575</t>
+  </si>
+  <si>
+    <t>Grange Beach</t>
+  </si>
+  <si>
+    <t>Island Beach boat ramp</t>
   </si>
 </sst>
 </file>
@@ -889,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -909,6 +936,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,12 +1273,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:P420"/>
+  <dimension ref="A1:Q434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A421" sqref="A421"/>
+      <selection pane="bottomLeft" activeCell="A435" sqref="A435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3623,19 +3653,25 @@
       <c r="D68" s="2">
         <v>45869</v>
       </c>
-      <c r="H68">
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14">
         <v>5000</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="14">
         <v>2222</v>
       </c>
-      <c r="K68">
+      <c r="J68" s="14"/>
+      <c r="K68" s="14">
         <v>10400</v>
       </c>
-      <c r="N68">
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14">
         <v>8778</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="14">
         <v>24178</v>
       </c>
       <c r="P68" t="s">
@@ -3655,19 +3691,25 @@
       <c r="D69" s="2">
         <v>45869</v>
       </c>
-      <c r="H69">
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14">
         <v>890</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="14">
         <v>222</v>
       </c>
-      <c r="K69">
+      <c r="J69" s="14"/>
+      <c r="K69" s="14">
         <v>3611</v>
       </c>
-      <c r="N69">
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14">
         <v>444</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="14">
         <v>4945</v>
       </c>
       <c r="P69" t="s">
@@ -3687,19 +3729,25 @@
       <c r="D70" s="2">
         <v>45869</v>
       </c>
-      <c r="H70">
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14">
         <v>2000</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="14">
         <v>944</v>
       </c>
-      <c r="K70">
+      <c r="J70" s="14"/>
+      <c r="K70" s="14">
         <v>5556</v>
       </c>
-      <c r="N70">
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14">
         <v>1056</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="14">
         <v>8612</v>
       </c>
       <c r="P70" t="s">
@@ -4134,31 +4182,33 @@
       <c r="D82" s="2">
         <v>45873</v>
       </c>
-      <c r="F82">
+      <c r="E82" s="14"/>
+      <c r="F82" s="14">
         <v>167</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="14">
         <v>722</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="14">
         <v>333</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
+      <c r="I82" s="14">
+        <v>0</v>
+      </c>
+      <c r="J82" s="14">
         <v>250</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="14">
         <v>444</v>
       </c>
-      <c r="M82">
+      <c r="L82" s="14"/>
+      <c r="M82" s="14">
         <v>83</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="14">
         <v>83</v>
       </c>
-      <c r="O82">
+      <c r="O82" s="14">
         <v>2083</v>
       </c>
       <c r="P82" t="s">
@@ -4361,7 +4411,7 @@
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="A88" s="14" t="s">
         <v>156</v>
       </c>
       <c r="B88">
@@ -4431,7 +4481,7 @@
       <c r="F90">
         <v>37</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="14">
         <v>56</v>
       </c>
       <c r="H90">
@@ -4463,7 +4513,7 @@
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B91">
@@ -4551,7 +4601,7 @@
       <c r="F93">
         <v>333</v>
       </c>
-      <c r="G93" s="2"/>
+      <c r="G93" s="15"/>
       <c r="H93">
         <v>6889</v>
       </c>
@@ -4674,10 +4724,11 @@
       <c r="I97">
         <v>0</v>
       </c>
+      <c r="K97" s="14"/>
       <c r="N97">
         <v>1555</v>
       </c>
-      <c r="O97">
+      <c r="O97" s="14">
         <v>1555</v>
       </c>
       <c r="P97" t="s">
@@ -8645,10 +8696,10 @@
       <c r="A209" t="s">
         <v>162</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="14">
         <v>-34.979653900000002</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="14">
         <v>138.50955999999999</v>
       </c>
       <c r="D209" s="2">
@@ -8680,10 +8731,10 @@
       <c r="A210" t="s">
         <v>162</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="14">
         <v>-34.979653900000002</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="14">
         <v>138.50955999999999</v>
       </c>
       <c r="D210" s="2">
@@ -8712,10 +8763,10 @@
       <c r="A211" t="s">
         <v>162</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="14">
         <v>-34.979653900000002</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="14">
         <v>138.50955999999999</v>
       </c>
       <c r="D211" s="2">
@@ -8848,10 +8899,10 @@
       <c r="A216" t="s">
         <v>37</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="14">
         <v>-34.289369999999998</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="14">
         <v>138.01242999999999</v>
       </c>
       <c r="D216" s="2">
@@ -8973,6 +9024,7 @@
       <c r="D220" s="2">
         <v>45934</v>
       </c>
+      <c r="G220" s="14"/>
       <c r="H220">
         <v>8550</v>
       </c>
@@ -9002,7 +9054,7 @@
       <c r="F221">
         <v>1556</v>
       </c>
-      <c r="G221">
+      <c r="G221" s="14">
         <v>778</v>
       </c>
       <c r="H221">
@@ -9043,6 +9095,7 @@
       <c r="D222" s="2">
         <v>45941</v>
       </c>
+      <c r="G222" s="14"/>
       <c r="H222">
         <v>1507</v>
       </c>
@@ -9066,10 +9119,10 @@
       <c r="A223" t="s">
         <v>130</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="14">
         <v>-35.078539999999997</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="14">
         <v>138.49587</v>
       </c>
       <c r="D223" s="2">
@@ -9188,46 +9241,48 @@
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+      <c r="A227" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="14">
         <v>-35.084850000000003</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="14">
         <v>137.74889999999999</v>
       </c>
-      <c r="D227" s="2">
+      <c r="D227" s="15">
         <v>45941</v>
       </c>
-      <c r="E227">
-        <v>0</v>
-      </c>
-      <c r="F227">
+      <c r="E227" s="14">
+        <v>0</v>
+      </c>
+      <c r="F227" s="14">
         <v>56</v>
       </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227">
+      <c r="G227" s="14">
+        <v>0</v>
+      </c>
+      <c r="H227" s="14">
         <v>222</v>
       </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
-      <c r="K227">
+      <c r="I227" s="14">
+        <v>0</v>
+      </c>
+      <c r="J227" s="14"/>
+      <c r="K227" s="14">
         <v>1444</v>
       </c>
-      <c r="L227">
+      <c r="L227" s="14">
         <v>56</v>
       </c>
-      <c r="M227">
+      <c r="M227" s="14">
         <v>3278</v>
       </c>
-      <c r="O227">
+      <c r="N227" s="14"/>
+      <c r="O227" s="14">
         <v>5056</v>
       </c>
-      <c r="P227" t="s">
+      <c r="P227" s="14" t="s">
         <v>149</v>
       </c>
     </row>
@@ -9594,10 +9649,10 @@
       <c r="A238" t="s">
         <v>141</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="14">
         <v>-35.786764689999998</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="14">
         <v>137.77344500000001</v>
       </c>
       <c r="D238" s="2">
@@ -9626,10 +9681,10 @@
       <c r="A239" t="s">
         <v>93</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="14">
         <v>-35.513599999999997</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="14">
         <v>138.72001900000001</v>
       </c>
       <c r="D239" s="2">
@@ -9661,10 +9716,10 @@
       <c r="A240" t="s">
         <v>152</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="14">
         <v>-35.824725999999998</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="14">
         <v>137.75102200000001</v>
       </c>
       <c r="D240" s="2">
@@ -9823,40 +9878,44 @@
       </c>
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+      <c r="A246" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="14">
         <v>-35.411457800000001</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="14">
         <v>138.3276611</v>
       </c>
-      <c r="D246" s="2">
+      <c r="D246" s="15">
         <v>45952</v>
       </c>
-      <c r="F246">
+      <c r="E246" s="14"/>
+      <c r="F246" s="14">
         <v>278</v>
       </c>
-      <c r="H246">
+      <c r="G246" s="14"/>
+      <c r="H246" s="14">
         <v>667</v>
       </c>
-      <c r="I246">
+      <c r="I246" s="14">
         <v>389</v>
       </c>
-      <c r="K246">
+      <c r="J246" s="14"/>
+      <c r="K246" s="14">
         <v>1500</v>
       </c>
-      <c r="M246">
+      <c r="L246" s="14"/>
+      <c r="M246" s="14">
         <v>1556</v>
       </c>
-      <c r="N246">
+      <c r="N246" s="14">
         <v>2833</v>
       </c>
-      <c r="O246">
+      <c r="O246" s="14">
         <v>6834</v>
       </c>
-      <c r="P246" t="s">
+      <c r="P246" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -9864,10 +9923,10 @@
       <c r="A247" t="s">
         <v>164</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="14">
         <v>-35.411457800000001</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="14">
         <v>138.3276611</v>
       </c>
       <c r="D247" s="2">
@@ -10119,49 +10178,50 @@
       </c>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+      <c r="A255" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="14">
         <v>-34.507817000000003</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="14">
         <v>138.274338</v>
       </c>
-      <c r="D255" s="2">
+      <c r="D255" s="15">
         <v>45959</v>
       </c>
-      <c r="F255">
+      <c r="E255" s="14"/>
+      <c r="F255" s="14">
         <v>417</v>
       </c>
-      <c r="G255">
+      <c r="G255" s="14">
         <v>83</v>
       </c>
-      <c r="H255">
+      <c r="H255" s="14">
         <v>472</v>
       </c>
-      <c r="I255">
+      <c r="I255" s="14">
         <v>167</v>
       </c>
-      <c r="J255">
+      <c r="J255" s="14">
         <v>278</v>
       </c>
-      <c r="K255">
+      <c r="K255" s="14">
         <v>639</v>
       </c>
-      <c r="L255">
+      <c r="L255" s="14">
         <v>111</v>
       </c>
-      <c r="M255">
+      <c r="M255" s="14">
         <v>500</v>
       </c>
-      <c r="N255">
+      <c r="N255" s="14">
         <v>56</v>
       </c>
-      <c r="O255">
+      <c r="O255" s="14">
         <v>2556</v>
       </c>
-      <c r="P255" t="s">
+      <c r="P255" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -10351,77 +10411,88 @@
       </c>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+      <c r="A261" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="14">
         <v>-35.624799000000003</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="14">
         <v>138.57790199999999</v>
       </c>
       <c r="D261" s="2">
         <v>45959</v>
       </c>
-      <c r="I261">
-        <v>0</v>
-      </c>
-      <c r="M261">
+      <c r="E261" s="14"/>
+      <c r="F261" s="14"/>
+      <c r="G261" s="14"/>
+      <c r="H261" s="14"/>
+      <c r="I261" s="14">
+        <v>0</v>
+      </c>
+      <c r="J261" s="14"/>
+      <c r="K261" s="14"/>
+      <c r="L261" s="14"/>
+      <c r="M261" s="14">
         <v>111</v>
       </c>
-      <c r="N261">
+      <c r="N261" s="14">
         <v>556</v>
       </c>
-      <c r="O261">
+      <c r="O261" s="14">
         <v>667</v>
       </c>
-      <c r="P261" t="s">
+      <c r="P261" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+      <c r="A262" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="14">
         <v>-35.084850000000003</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="14">
         <v>137.74889999999999</v>
       </c>
       <c r="D262" s="2">
         <v>45960</v>
       </c>
-      <c r="F262">
+      <c r="F262" s="14">
         <v>56</v>
       </c>
-      <c r="H262">
+      <c r="G262" s="14"/>
+      <c r="H262" s="14">
         <v>56</v>
       </c>
-      <c r="I262">
-        <v>0</v>
-      </c>
-      <c r="K262">
+      <c r="I262" s="14">
+        <v>0</v>
+      </c>
+      <c r="J262" s="14"/>
+      <c r="K262" s="14">
         <v>306</v>
       </c>
-      <c r="M262">
+      <c r="L262" s="14"/>
+      <c r="M262" s="14">
         <v>1889</v>
       </c>
-      <c r="O262">
+      <c r="N262" s="14"/>
+      <c r="O262" s="14">
         <v>2307</v>
       </c>
-      <c r="P262" t="s">
+      <c r="P262" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+      <c r="A263" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="14">
         <v>-34.289369999999998</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="14">
         <v>138.01242999999999</v>
       </c>
       <c r="D263" s="2">
@@ -10430,34 +10501,35 @@
       <c r="E263">
         <v>56</v>
       </c>
-      <c r="F263">
+      <c r="F263" s="14">
         <v>56</v>
       </c>
-      <c r="G263">
+      <c r="G263" s="14">
         <v>500</v>
       </c>
-      <c r="H263">
+      <c r="H263" s="14">
         <v>1722</v>
       </c>
-      <c r="I263">
+      <c r="I263" s="14">
         <v>500</v>
       </c>
-      <c r="J263">
+      <c r="J263" s="14">
         <v>14667</v>
       </c>
-      <c r="K263">
+      <c r="K263" s="14">
         <v>2778</v>
       </c>
-      <c r="L263">
+      <c r="L263" s="14">
         <v>167</v>
       </c>
-      <c r="N263">
+      <c r="M263" s="14"/>
+      <c r="N263" s="14">
         <v>111</v>
       </c>
-      <c r="O263">
+      <c r="O263" s="14">
         <v>20056</v>
       </c>
-      <c r="P263" t="s">
+      <c r="P263" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -11086,7 +11158,7 @@
       <c r="O279">
         <v>833</v>
       </c>
-      <c r="P279" t="s">
+      <c r="P279" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -11106,7 +11178,7 @@
       <c r="I280">
         <v>0</v>
       </c>
-      <c r="P280" t="s">
+      <c r="P280" s="14" t="s">
         <v>188</v>
       </c>
     </row>
@@ -11126,7 +11198,7 @@
       <c r="I281">
         <v>56</v>
       </c>
-      <c r="P281" t="s">
+      <c r="P281" s="14" t="s">
         <v>188</v>
       </c>
     </row>
@@ -11534,60 +11606,74 @@
       </c>
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+      <c r="A293" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="14">
         <v>-35.612285999999997</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="14">
         <v>138.564302</v>
       </c>
       <c r="D293" s="2">
         <v>45977</v>
       </c>
-      <c r="F293">
+      <c r="E293" s="14"/>
+      <c r="F293" s="14">
         <v>278</v>
       </c>
-      <c r="H293">
+      <c r="G293" s="14"/>
+      <c r="H293" s="14">
         <v>111</v>
       </c>
-      <c r="I293">
-        <v>0</v>
-      </c>
-      <c r="K293">
+      <c r="I293" s="14">
+        <v>0</v>
+      </c>
+      <c r="J293" s="14"/>
+      <c r="K293" s="14">
         <v>56</v>
       </c>
-      <c r="M293">
+      <c r="L293" s="14"/>
+      <c r="M293" s="14">
         <v>278</v>
       </c>
-      <c r="N293">
+      <c r="N293" s="14">
         <v>722</v>
       </c>
-      <c r="O293">
+      <c r="O293" s="14">
         <v>1445</v>
       </c>
-      <c r="P293" t="s">
+      <c r="P293" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+      <c r="A294" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="14">
         <v>-35.536168000000004</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="14">
         <v>138.677615</v>
       </c>
       <c r="D294" s="2">
         <v>45978</v>
       </c>
-      <c r="I294">
+      <c r="E294" s="14"/>
+      <c r="F294" s="14"/>
+      <c r="G294" s="14"/>
+      <c r="H294" s="14"/>
+      <c r="I294" s="14">
         <v>722</v>
       </c>
-      <c r="P294" t="s">
+      <c r="J294" s="14"/>
+      <c r="K294" s="14"/>
+      <c r="L294" s="14"/>
+      <c r="M294" s="14"/>
+      <c r="N294" s="14"/>
+      <c r="O294" s="14"/>
+      <c r="P294" s="14" t="s">
         <v>188</v>
       </c>
     </row>
@@ -11854,6 +11940,9 @@
       <c r="I303">
         <v>111</v>
       </c>
+      <c r="J303" s="14"/>
+      <c r="K303" s="14"/>
+      <c r="O303" s="14"/>
       <c r="P303" t="s">
         <v>188</v>
       </c>
@@ -11975,104 +12064,120 @@
       </c>
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+      <c r="A308" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="14">
         <v>-34.191187999999997</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="14">
         <v>138.144317</v>
       </c>
       <c r="D308" s="2">
         <v>45984</v>
       </c>
-      <c r="H308">
-        <v>0</v>
-      </c>
-      <c r="I308">
-        <v>0</v>
-      </c>
-      <c r="K308">
+      <c r="E308" s="14"/>
+      <c r="F308" s="14"/>
+      <c r="G308" s="14"/>
+      <c r="H308" s="14">
+        <v>0</v>
+      </c>
+      <c r="I308" s="14">
+        <v>0</v>
+      </c>
+      <c r="J308" s="14"/>
+      <c r="K308" s="14">
         <v>9.3000000000000007</v>
       </c>
-      <c r="N308">
-        <v>0</v>
-      </c>
-      <c r="O308">
+      <c r="L308" s="14"/>
+      <c r="M308" s="14"/>
+      <c r="N308" s="14">
+        <v>0</v>
+      </c>
+      <c r="O308" s="14">
         <v>9.3000000000000007</v>
       </c>
-      <c r="P308" t="s">
+      <c r="P308" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+      <c r="A309" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="14">
         <v>-34.606234999999998</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="14">
         <v>137.882094</v>
       </c>
       <c r="D309" s="2">
         <v>45984</v>
       </c>
-      <c r="H309">
+      <c r="E309" s="14"/>
+      <c r="F309" s="14"/>
+      <c r="G309" s="14"/>
+      <c r="H309" s="14">
         <v>2.6669999999999998</v>
       </c>
-      <c r="I309">
-        <v>0</v>
-      </c>
-      <c r="K309">
+      <c r="I309" s="14">
+        <v>0</v>
+      </c>
+      <c r="J309" s="14"/>
+      <c r="K309" s="14">
         <v>6</v>
       </c>
-      <c r="N309">
+      <c r="L309" s="14"/>
+      <c r="M309" s="14"/>
+      <c r="N309" s="14">
         <v>0.66700000000000004</v>
       </c>
-      <c r="O309">
+      <c r="O309" s="14">
         <v>9.3339999999999996</v>
       </c>
-      <c r="P309" t="s">
+      <c r="P309" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+      <c r="A310" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="14">
         <v>-35.58858</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="14">
         <v>138.60474600000001</v>
       </c>
       <c r="D310" s="2">
         <v>45984</v>
       </c>
-      <c r="F310">
+      <c r="E310" s="14"/>
+      <c r="F310" s="14">
         <v>111</v>
       </c>
-      <c r="H310">
+      <c r="G310" s="14"/>
+      <c r="H310" s="14">
         <v>167</v>
       </c>
-      <c r="I310">
+      <c r="I310" s="14">
         <v>111</v>
       </c>
-      <c r="K310">
+      <c r="J310" s="14"/>
+      <c r="K310" s="14">
         <v>278</v>
       </c>
-      <c r="M310">
+      <c r="L310" s="14"/>
+      <c r="M310" s="14">
         <v>167</v>
       </c>
-      <c r="N310">
+      <c r="N310" s="14">
         <v>500</v>
       </c>
-      <c r="O310">
+      <c r="O310" s="14">
         <v>1223</v>
       </c>
-      <c r="P310" t="s">
+      <c r="P310" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -12275,66 +12380,78 @@
       </c>
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+      <c r="A315" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="14">
         <v>-35.610827999999998</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="14">
         <v>138.59484699999999</v>
       </c>
       <c r="D315" s="2">
         <v>45986</v>
       </c>
-      <c r="I315">
-        <v>0</v>
-      </c>
-      <c r="M315">
+      <c r="E315" s="14"/>
+      <c r="F315" s="14"/>
+      <c r="G315" s="14"/>
+      <c r="H315" s="14"/>
+      <c r="I315" s="14">
+        <v>0</v>
+      </c>
+      <c r="J315" s="14"/>
+      <c r="K315" s="14"/>
+      <c r="L315" s="14"/>
+      <c r="M315" s="14">
         <v>167</v>
       </c>
-      <c r="N315">
+      <c r="N315" s="14">
         <v>500</v>
       </c>
-      <c r="O315">
+      <c r="O315" s="14">
         <v>667</v>
       </c>
-      <c r="P315" t="s">
+      <c r="P315" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="316" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+      <c r="A316" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="14">
         <v>-35.588391000000001</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="14">
         <v>138.603328</v>
       </c>
       <c r="D316" s="2">
         <v>45986</v>
       </c>
-      <c r="F316">
+      <c r="E316" s="14"/>
+      <c r="F316" s="14">
         <v>111</v>
       </c>
-      <c r="I316">
-        <v>0</v>
-      </c>
-      <c r="K316">
+      <c r="G316" s="14"/>
+      <c r="H316" s="14"/>
+      <c r="I316" s="14">
+        <v>0</v>
+      </c>
+      <c r="J316" s="14"/>
+      <c r="K316" s="14">
         <v>111</v>
       </c>
-      <c r="M316">
+      <c r="L316" s="14"/>
+      <c r="M316" s="14">
         <v>111</v>
       </c>
-      <c r="N316">
+      <c r="N316" s="14">
         <v>500</v>
       </c>
-      <c r="O316">
+      <c r="O316" s="14">
         <v>833</v>
       </c>
-      <c r="P316" t="s">
+      <c r="P316" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -12534,248 +12651,248 @@
     </row>
     <row r="321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="B321">
-        <v>-34.804169999999999</v>
+        <v>-35.802792599999997</v>
       </c>
       <c r="C321">
-        <v>138.53970000000001</v>
+        <v>137.745824</v>
       </c>
       <c r="D321" s="2">
-        <v>45990</v>
+        <v>45989</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
       </c>
       <c r="H321">
-        <v>0.36699999999999999</v>
+        <v>1000</v>
       </c>
       <c r="I321">
-        <v>6.7000000000000004E-2</v>
+        <v>1000</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
       </c>
       <c r="K321">
-        <v>0.53300000000000003</v>
+        <v>444</v>
+      </c>
+      <c r="L321">
+        <v>0</v>
+      </c>
+      <c r="M321">
+        <v>0</v>
       </c>
       <c r="N321">
         <v>0</v>
       </c>
       <c r="O321">
-        <v>0.9</v>
+        <v>1444</v>
       </c>
       <c r="P321" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B322">
-        <v>-34.940480000000001</v>
+        <v>-35.8026926</v>
       </c>
       <c r="C322">
-        <v>138.49844100000001</v>
+        <v>137.745824</v>
       </c>
       <c r="D322" s="2">
-        <v>45990</v>
+        <v>45989</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
       </c>
       <c r="H322">
-        <v>3.375</v>
+        <v>1333</v>
       </c>
       <c r="I322">
-        <v>1.125</v>
+        <v>1333</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
       </c>
       <c r="K322">
-        <v>8.5310000000000006</v>
+        <v>222</v>
+      </c>
+      <c r="L322">
+        <v>0</v>
+      </c>
+      <c r="M322">
+        <v>0</v>
       </c>
       <c r="N322">
-        <v>1.4059999999999999</v>
+        <v>0</v>
       </c>
       <c r="O322">
-        <v>13.313000000000001</v>
+        <v>1556</v>
       </c>
       <c r="P322" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>85</v>
+        <v>211</v>
       </c>
       <c r="B323">
-        <v>-34.873939999999997</v>
+        <v>-35.671777499999997</v>
       </c>
       <c r="C323">
-        <v>138.48820000000001</v>
+        <v>137.6137956</v>
       </c>
       <c r="D323" s="2">
-        <v>45990</v>
+        <v>45989</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
       </c>
       <c r="H323">
-        <v>5.1749999999999998</v>
+        <v>667</v>
       </c>
       <c r="I323">
-        <v>0.22500000000000001</v>
+        <v>667</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
       </c>
       <c r="K323">
-        <v>0.67500000000000004</v>
+        <v>667</v>
+      </c>
+      <c r="L323">
+        <v>0</v>
+      </c>
+      <c r="M323">
+        <v>0</v>
       </c>
       <c r="N323">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="O323">
-        <v>11.1</v>
+        <v>1556</v>
       </c>
       <c r="P323" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="B324">
-        <v>-35.802792599999997</v>
+        <v>-34.804169999999999</v>
       </c>
       <c r="C324">
-        <v>137.745824</v>
+        <v>138.53970000000001</v>
       </c>
       <c r="D324" s="2">
-        <v>45989</v>
-      </c>
-      <c r="E324">
-        <v>0</v>
-      </c>
-      <c r="F324">
-        <v>0</v>
-      </c>
-      <c r="G324">
-        <v>0</v>
+        <v>45990</v>
       </c>
       <c r="H324">
-        <v>1000</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="I324">
-        <v>1000</v>
-      </c>
-      <c r="J324">
-        <v>0</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="K324">
-        <v>444</v>
-      </c>
-      <c r="L324">
-        <v>0</v>
-      </c>
-      <c r="M324">
-        <v>0</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="N324">
         <v>0</v>
       </c>
       <c r="O324">
-        <v>1444</v>
+        <v>0.9</v>
       </c>
       <c r="P324" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
     </row>
     <row r="325" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B325">
-        <v>-35.8026926</v>
+        <v>-34.940480000000001</v>
       </c>
       <c r="C325">
-        <v>137.745824</v>
+        <v>138.49844100000001</v>
       </c>
       <c r="D325" s="2">
-        <v>45989</v>
-      </c>
-      <c r="E325">
-        <v>0</v>
-      </c>
-      <c r="F325">
-        <v>0</v>
-      </c>
-      <c r="G325">
-        <v>0</v>
+        <v>45990</v>
       </c>
       <c r="H325">
-        <v>1333</v>
+        <v>3.375</v>
       </c>
       <c r="I325">
-        <v>1333</v>
-      </c>
-      <c r="J325">
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="K325">
-        <v>222</v>
-      </c>
-      <c r="L325">
-        <v>0</v>
-      </c>
-      <c r="M325">
-        <v>0</v>
+        <v>8.5310000000000006</v>
       </c>
       <c r="N325">
-        <v>0</v>
+        <v>1.4059999999999999</v>
       </c>
       <c r="O325">
-        <v>1556</v>
+        <v>13.313000000000001</v>
       </c>
       <c r="P325" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
     </row>
     <row r="326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>211</v>
+        <v>85</v>
       </c>
       <c r="B326">
-        <v>-35.671777499999997</v>
+        <v>-34.873939999999997</v>
       </c>
       <c r="C326">
-        <v>137.6137956</v>
+        <v>138.48820000000001</v>
       </c>
       <c r="D326" s="2">
-        <v>45989</v>
-      </c>
-      <c r="E326">
-        <v>0</v>
-      </c>
-      <c r="F326">
-        <v>0</v>
-      </c>
-      <c r="G326">
-        <v>0</v>
+        <v>45990</v>
       </c>
       <c r="H326">
-        <v>667</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="I326">
-        <v>667</v>
-      </c>
-      <c r="J326">
-        <v>0</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="K326">
-        <v>667</v>
-      </c>
-      <c r="L326">
-        <v>0</v>
-      </c>
-      <c r="M326">
-        <v>0</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="N326">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="O326">
-        <v>1556</v>
+        <v>11.1</v>
       </c>
       <c r="P326" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.3">
@@ -14262,69 +14379,80 @@
       </c>
     </row>
     <row r="371" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
+      <c r="A371" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="14">
         <v>-34.873939999999997</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="14">
         <v>138.48820000000001</v>
       </c>
       <c r="D371" s="2">
         <v>46003</v>
       </c>
-      <c r="H371">
+      <c r="E371" s="14"/>
+      <c r="F371" s="14"/>
+      <c r="G371" s="14"/>
+      <c r="H371" s="14">
         <v>5</v>
       </c>
-      <c r="I371">
-        <v>0</v>
-      </c>
-      <c r="K371">
+      <c r="I371" s="14">
+        <v>0</v>
+      </c>
+      <c r="J371" s="14"/>
+      <c r="K371" s="14">
         <v>0.67500000000000004</v>
       </c>
-      <c r="N371">
+      <c r="L371" s="14"/>
+      <c r="M371" s="14"/>
+      <c r="N371" s="14">
         <v>0.7</v>
       </c>
-      <c r="O371">
+      <c r="O371" s="14">
         <v>6.375</v>
       </c>
-      <c r="P371" t="s">
+      <c r="P371" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="372" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
+      <c r="A372" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="14">
         <v>-35.081918000000002</v>
       </c>
-      <c r="C372">
+      <c r="C372" s="14">
         <v>137.74822499999999</v>
       </c>
       <c r="D372" s="2">
         <v>46003</v>
       </c>
-      <c r="H372">
+      <c r="E372" s="14"/>
+      <c r="F372" s="14"/>
+      <c r="G372" s="14"/>
+      <c r="H372" s="14">
         <v>389</v>
       </c>
-      <c r="I372">
-        <v>0</v>
-      </c>
-      <c r="K372">
+      <c r="I372" s="14">
+        <v>0</v>
+      </c>
+      <c r="J372" s="14"/>
+      <c r="K372" s="14">
         <v>56</v>
       </c>
-      <c r="M372">
+      <c r="L372" s="14"/>
+      <c r="M372" s="14">
         <v>1611</v>
       </c>
-      <c r="N372">
+      <c r="N372" s="14">
         <v>334</v>
       </c>
-      <c r="O372">
+      <c r="O372" s="14">
         <v>2389</v>
       </c>
-      <c r="P372" t="s">
+      <c r="P372" s="14" t="s">
         <v>222</v>
       </c>
     </row>
@@ -15420,7 +15548,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>92</v>
       </c>
@@ -15440,7 +15568,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>227</v>
       </c>
@@ -15456,11 +15584,12 @@
       <c r="I401">
         <v>0</v>
       </c>
+      <c r="O401" s="14"/>
       <c r="P401" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>200</v>
       </c>
@@ -15503,14 +15632,14 @@
       <c r="N402">
         <v>0</v>
       </c>
-      <c r="O402">
+      <c r="O402" s="14">
         <v>11778</v>
       </c>
       <c r="P402" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="403" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>239</v>
       </c>
@@ -15560,103 +15689,103 @@
         <v>78</v>
       </c>
     </row>
-    <row r="404" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A404" t="s">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A404" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="14">
         <v>-34.804662999999998</v>
       </c>
-      <c r="C404">
+      <c r="C404" s="14">
         <v>138.540223</v>
       </c>
       <c r="D404" s="2">
         <v>46021</v>
       </c>
-      <c r="E404">
+      <c r="E404" s="14">
         <v>0.45</v>
       </c>
-      <c r="F404">
+      <c r="F404" s="14">
         <v>0.15</v>
       </c>
-      <c r="G404">
-        <v>0</v>
-      </c>
-      <c r="H404">
+      <c r="G404" s="14">
+        <v>0</v>
+      </c>
+      <c r="H404" s="14">
         <v>0.15</v>
       </c>
-      <c r="I404">
-        <v>0</v>
-      </c>
-      <c r="J404">
-        <v>0</v>
-      </c>
-      <c r="K404">
+      <c r="I404" s="14">
+        <v>0</v>
+      </c>
+      <c r="J404" s="14">
+        <v>0</v>
+      </c>
+      <c r="K404" s="14">
         <v>8.3249999999999993</v>
       </c>
-      <c r="L404">
-        <v>0</v>
-      </c>
-      <c r="M404">
+      <c r="L404" s="14">
+        <v>0</v>
+      </c>
+      <c r="M404" s="14">
         <v>0.22500000000000001</v>
       </c>
-      <c r="N404">
+      <c r="N404" s="14">
         <v>0.15</v>
       </c>
       <c r="O404" s="11">
         <v>9.4499999999999993</v>
       </c>
-      <c r="P404" t="s">
+      <c r="P404" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A405" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="14">
         <v>-35.193919999999999</v>
       </c>
-      <c r="C405">
+      <c r="C405" s="14">
         <v>138.469233</v>
       </c>
       <c r="D405" s="2">
         <v>46021</v>
       </c>
-      <c r="E405">
-        <v>0</v>
-      </c>
-      <c r="F405">
+      <c r="E405" s="14">
+        <v>0</v>
+      </c>
+      <c r="F405" s="14">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G405">
-        <v>0</v>
-      </c>
-      <c r="H405">
+      <c r="G405" s="14">
+        <v>0</v>
+      </c>
+      <c r="H405" s="14">
         <v>1.65</v>
       </c>
-      <c r="I405">
-        <v>0</v>
-      </c>
-      <c r="J405">
-        <v>0</v>
-      </c>
-      <c r="K405">
+      <c r="I405" s="14">
+        <v>0</v>
+      </c>
+      <c r="J405" s="14">
+        <v>0</v>
+      </c>
+      <c r="K405" s="14">
         <v>2.3250000000000002</v>
       </c>
-      <c r="L405">
-        <v>0</v>
-      </c>
-      <c r="M405">
+      <c r="L405" s="14">
+        <v>0</v>
+      </c>
+      <c r="M405" s="14">
         <v>0.15</v>
       </c>
-      <c r="N405">
+      <c r="N405" s="14">
         <v>0</v>
       </c>
       <c r="O405" s="11">
         <v>4.2</v>
       </c>
-      <c r="P405" t="s">
+      <c r="P405" s="14" t="s">
         <v>78</v>
       </c>
     </row>
@@ -15703,7 +15832,7 @@
       <c r="N406">
         <v>0.105</v>
       </c>
-      <c r="O406">
+      <c r="O406" s="14">
         <v>8.1900000000000013</v>
       </c>
       <c r="P406" t="s">
@@ -15861,52 +15990,52 @@
       </c>
     </row>
     <row r="410" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A410" t="s">
+      <c r="A410" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B410">
+      <c r="B410" s="14">
         <v>-35.632150000000003</v>
       </c>
-      <c r="C410">
+      <c r="C410" s="14">
         <v>138.48335599999999</v>
       </c>
       <c r="D410" s="2">
         <v>46025</v>
       </c>
-      <c r="E410">
-        <v>0</v>
-      </c>
-      <c r="F410">
+      <c r="E410" s="14">
+        <v>0</v>
+      </c>
+      <c r="F410" s="14">
         <v>0.05</v>
       </c>
-      <c r="G410">
-        <v>0</v>
-      </c>
-      <c r="H410">
+      <c r="G410" s="14">
+        <v>0</v>
+      </c>
+      <c r="H410" s="14">
         <v>1.75</v>
       </c>
-      <c r="I410">
+      <c r="I410" s="14">
         <v>0.05</v>
       </c>
-      <c r="J410">
-        <v>0</v>
-      </c>
-      <c r="K410">
+      <c r="J410" s="14">
+        <v>0</v>
+      </c>
+      <c r="K410" s="14">
         <v>3.4</v>
       </c>
-      <c r="L410">
-        <v>0</v>
-      </c>
-      <c r="M410">
-        <v>0</v>
-      </c>
-      <c r="N410">
+      <c r="L410" s="14">
+        <v>0</v>
+      </c>
+      <c r="M410" s="14">
+        <v>0</v>
+      </c>
+      <c r="N410" s="14">
         <v>0.45</v>
       </c>
       <c r="O410" s="11">
         <v>5.65</v>
       </c>
-      <c r="P410" t="s">
+      <c r="P410" s="14" t="s">
         <v>78</v>
       </c>
     </row>
@@ -16088,7 +16217,7 @@
       <c r="N414">
         <v>778</v>
       </c>
-      <c r="O414">
+      <c r="O414" s="14">
         <v>7778</v>
       </c>
       <c r="P414" t="s">
@@ -16195,57 +16324,57 @@
         <v>78</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A417" t="s">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A417" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B417">
+      <c r="B417" s="14">
         <v>-34.824044999999998</v>
       </c>
-      <c r="C417">
+      <c r="C417" s="14">
         <v>138.48377600000001</v>
       </c>
       <c r="D417" s="2">
         <v>46028</v>
       </c>
-      <c r="E417">
-        <v>0</v>
-      </c>
-      <c r="F417">
+      <c r="E417" s="14">
+        <v>0</v>
+      </c>
+      <c r="F417" s="14">
         <v>0.05</v>
       </c>
-      <c r="G417">
-        <v>0</v>
-      </c>
-      <c r="H417">
+      <c r="G417" s="14">
+        <v>0</v>
+      </c>
+      <c r="H417" s="14">
         <v>0.8</v>
       </c>
-      <c r="I417">
-        <v>0</v>
-      </c>
-      <c r="J417">
-        <v>0</v>
-      </c>
-      <c r="K417">
+      <c r="I417" s="14">
+        <v>0</v>
+      </c>
+      <c r="J417" s="14">
+        <v>0</v>
+      </c>
+      <c r="K417" s="14">
         <v>5.4</v>
       </c>
-      <c r="L417" t="s">
+      <c r="L417" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="M417">
+      <c r="M417" s="14">
         <v>0.1</v>
       </c>
-      <c r="N417">
+      <c r="N417" s="14">
         <v>1.35</v>
       </c>
       <c r="O417" s="11">
         <v>7.6999999999999993</v>
       </c>
-      <c r="P417" t="s">
+      <c r="P417" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>247</v>
       </c>
@@ -16291,11 +16420,11 @@
       <c r="O418" s="11">
         <v>49.835000000000008</v>
       </c>
-      <c r="P418" t="s">
+      <c r="P418" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>246</v>
       </c>
@@ -16341,11 +16470,11 @@
       <c r="O419" s="11">
         <v>47.999999999999993</v>
       </c>
-      <c r="P419" t="s">
+      <c r="P419" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A420" s="10" t="s">
         <v>250</v>
       </c>
@@ -16395,9 +16524,595 @@
         <v>167</v>
       </c>
     </row>
+    <row r="421" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A421" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B421" s="13">
+        <v>-33.926485999999997</v>
+      </c>
+      <c r="C421" s="13">
+        <v>137.61819499999999</v>
+      </c>
+      <c r="D421" s="2">
+        <v>46031</v>
+      </c>
+      <c r="E421" s="13"/>
+      <c r="F421" s="13">
+        <v>222</v>
+      </c>
+      <c r="G421" s="13">
+        <v>500</v>
+      </c>
+      <c r="H421" s="13">
+        <v>1722</v>
+      </c>
+      <c r="I421" s="13">
+        <v>56</v>
+      </c>
+      <c r="J421" s="13">
+        <v>833</v>
+      </c>
+      <c r="K421" s="13">
+        <v>333</v>
+      </c>
+      <c r="L421" s="13"/>
+      <c r="M421" s="13">
+        <v>3444</v>
+      </c>
+      <c r="N421" s="13"/>
+      <c r="O421" s="13">
+        <v>7056</v>
+      </c>
+      <c r="P421" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>37</v>
+      </c>
+      <c r="B422">
+        <v>-34.289369999999998</v>
+      </c>
+      <c r="C422">
+        <v>138.01242999999999</v>
+      </c>
+      <c r="D422" s="2">
+        <v>46031</v>
+      </c>
+      <c r="F422">
+        <v>56</v>
+      </c>
+      <c r="H422">
+        <v>278</v>
+      </c>
+      <c r="I422">
+        <v>0</v>
+      </c>
+      <c r="K422">
+        <v>333</v>
+      </c>
+      <c r="M422">
+        <v>56</v>
+      </c>
+      <c r="N422">
+        <v>56</v>
+      </c>
+      <c r="O422">
+        <v>778</v>
+      </c>
+      <c r="P422" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>224</v>
+      </c>
+      <c r="B423">
+        <v>-35.738910099999998</v>
+      </c>
+      <c r="C423">
+        <v>137.68358799999999</v>
+      </c>
+      <c r="D423" s="2">
+        <v>46032</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+      <c r="G423">
+        <v>0</v>
+      </c>
+      <c r="H423">
+        <v>111</v>
+      </c>
+      <c r="I423">
+        <v>0</v>
+      </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
+      <c r="K423">
+        <v>444</v>
+      </c>
+      <c r="L423">
+        <v>0</v>
+      </c>
+      <c r="M423">
+        <v>0</v>
+      </c>
+      <c r="N423">
+        <v>0</v>
+      </c>
+      <c r="O423">
+        <v>555</v>
+      </c>
+      <c r="P423" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q423" s="13"/>
+    </row>
+    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>244</v>
+      </c>
+      <c r="B424">
+        <v>-35.193919999999999</v>
+      </c>
+      <c r="C424">
+        <v>138.469233</v>
+      </c>
+      <c r="D424" s="2">
+        <v>46032</v>
+      </c>
+      <c r="E424">
+        <v>0.15</v>
+      </c>
+      <c r="F424">
+        <v>0.05</v>
+      </c>
+      <c r="H424">
+        <v>3.15</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="K424">
+        <v>2.4</v>
+      </c>
+      <c r="N424">
+        <v>0.4</v>
+      </c>
+      <c r="O424">
+        <v>6.15</v>
+      </c>
+      <c r="P424" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q424" s="13"/>
+    </row>
+    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A425" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B425">
+        <v>-35.523274000000001</v>
+      </c>
+      <c r="C425">
+        <v>138.19270700000001</v>
+      </c>
+      <c r="D425" s="2">
+        <v>46033</v>
+      </c>
+      <c r="H425">
+        <v>333</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="K425">
+        <v>278</v>
+      </c>
+      <c r="M425">
+        <v>18889</v>
+      </c>
+      <c r="O425">
+        <v>19500</v>
+      </c>
+      <c r="P425" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q425" s="13"/>
+    </row>
+    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>200</v>
+      </c>
+      <c r="B426">
+        <v>-35.793615000000003</v>
+      </c>
+      <c r="C426">
+        <v>137.85449840000001</v>
+      </c>
+      <c r="D426" s="2">
+        <v>46033</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+      <c r="G426">
+        <v>2000</v>
+      </c>
+      <c r="H426">
+        <v>11000</v>
+      </c>
+      <c r="I426">
+        <v>9889</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+      <c r="K426">
+        <v>5444</v>
+      </c>
+      <c r="L426">
+        <v>333</v>
+      </c>
+      <c r="M426">
+        <v>3444</v>
+      </c>
+      <c r="N426">
+        <v>111</v>
+      </c>
+      <c r="O426">
+        <v>22332</v>
+      </c>
+      <c r="P426" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>247</v>
+      </c>
+      <c r="B427">
+        <v>-34.873964000000001</v>
+      </c>
+      <c r="C427">
+        <v>138.488134</v>
+      </c>
+      <c r="D427" s="2">
+        <v>46033</v>
+      </c>
+      <c r="H427">
+        <v>60.75</v>
+      </c>
+      <c r="I427">
+        <v>49.274999999999999</v>
+      </c>
+      <c r="K427">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="L427">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N427">
+        <v>0.3</v>
+      </c>
+      <c r="O427">
+        <v>61.8</v>
+      </c>
+      <c r="P427" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>246</v>
+      </c>
+      <c r="B428">
+        <v>-34.860666999999999</v>
+      </c>
+      <c r="C428">
+        <v>138.490938</v>
+      </c>
+      <c r="D428" s="2">
+        <v>46033</v>
+      </c>
+      <c r="H428">
+        <v>16.725000000000001</v>
+      </c>
+      <c r="I428">
+        <v>8.0250000000000004</v>
+      </c>
+      <c r="K428">
+        <v>0.375</v>
+      </c>
+      <c r="N428">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="O428">
+        <v>17.93</v>
+      </c>
+      <c r="P428" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>261</v>
+      </c>
+      <c r="B429" s="14">
+        <v>-34.908026999999997</v>
+      </c>
+      <c r="C429">
+        <v>138.48942299999999</v>
+      </c>
+      <c r="D429" s="2">
+        <v>46033</v>
+      </c>
+      <c r="E429">
+        <v>0.2</v>
+      </c>
+      <c r="F429">
+        <v>0.1</v>
+      </c>
+      <c r="H429">
+        <v>0.7</v>
+      </c>
+      <c r="J429">
+        <v>0.35</v>
+      </c>
+      <c r="K429">
+        <v>15.95</v>
+      </c>
+      <c r="N429">
+        <v>0.3</v>
+      </c>
+      <c r="O429">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="P429" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="430" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A430" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B430" s="14">
+        <v>-35.668842900000001</v>
+      </c>
+      <c r="C430" s="14">
+        <v>137.0694771</v>
+      </c>
+      <c r="D430" s="15">
+        <v>46034</v>
+      </c>
+      <c r="E430" s="14">
+        <v>0</v>
+      </c>
+      <c r="F430" s="14">
+        <v>0</v>
+      </c>
+      <c r="G430" s="14">
+        <v>0</v>
+      </c>
+      <c r="H430" s="14">
+        <v>222</v>
+      </c>
+      <c r="I430" s="14">
+        <v>111</v>
+      </c>
+      <c r="J430" s="14">
+        <v>0</v>
+      </c>
+      <c r="K430" s="14">
+        <v>1667</v>
+      </c>
+      <c r="L430" s="14">
+        <v>0</v>
+      </c>
+      <c r="M430" s="14">
+        <v>0</v>
+      </c>
+      <c r="N430" s="14">
+        <v>111</v>
+      </c>
+      <c r="O430" s="14">
+        <v>2000</v>
+      </c>
+      <c r="P430" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="431" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>262</v>
+      </c>
+      <c r="B431">
+        <v>-35.789543199999997</v>
+      </c>
+      <c r="C431">
+        <v>137.7884124</v>
+      </c>
+      <c r="D431" s="15">
+        <v>46035</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+      <c r="G431">
+        <v>1778</v>
+      </c>
+      <c r="H431">
+        <v>9111</v>
+      </c>
+      <c r="I431">
+        <v>4000</v>
+      </c>
+      <c r="J431">
+        <v>1111</v>
+      </c>
+      <c r="K431">
+        <v>1667</v>
+      </c>
+      <c r="L431">
+        <v>333</v>
+      </c>
+      <c r="M431">
+        <v>1778</v>
+      </c>
+      <c r="N431">
+        <v>333</v>
+      </c>
+      <c r="O431">
+        <v>16111</v>
+      </c>
+      <c r="P431" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="432" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>59</v>
+      </c>
+      <c r="B432">
+        <v>-35.084850000000003</v>
+      </c>
+      <c r="C432">
+        <v>137.74889999999999</v>
+      </c>
+      <c r="D432" s="15">
+        <v>46035</v>
+      </c>
+      <c r="E432">
+        <v>166</v>
+      </c>
+      <c r="F432">
+        <v>0</v>
+      </c>
+      <c r="G432">
+        <v>0</v>
+      </c>
+      <c r="H432">
+        <v>222</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432">
+        <v>111</v>
+      </c>
+      <c r="M432">
+        <v>1500</v>
+      </c>
+      <c r="O432">
+        <v>1999</v>
+      </c>
+      <c r="P432" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>259</v>
+      </c>
+      <c r="B433">
+        <v>-35.085050000000003</v>
+      </c>
+      <c r="C433">
+        <v>136.96054000000001</v>
+      </c>
+      <c r="D433" s="15">
+        <v>46035</v>
+      </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
+      <c r="F433">
+        <v>0</v>
+      </c>
+      <c r="G433">
+        <v>0</v>
+      </c>
+      <c r="H433">
+        <v>6111</v>
+      </c>
+      <c r="I433">
+        <v>4778</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+      <c r="K433">
+        <v>111</v>
+      </c>
+      <c r="L433">
+        <v>0</v>
+      </c>
+      <c r="M433">
+        <v>0</v>
+      </c>
+      <c r="N433">
+        <v>111</v>
+      </c>
+      <c r="O433">
+        <v>6333</v>
+      </c>
+      <c r="P433" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>257</v>
+      </c>
+      <c r="B434">
+        <v>-35.521411999999998</v>
+      </c>
+      <c r="C434">
+        <v>138.185383</v>
+      </c>
+      <c r="D434" s="15">
+        <v>46036</v>
+      </c>
+      <c r="H434">
+        <v>1000</v>
+      </c>
+      <c r="I434">
+        <v>0</v>
+      </c>
+      <c r="K434">
+        <v>167</v>
+      </c>
+      <c r="M434">
+        <v>0</v>
+      </c>
+      <c r="O434">
+        <v>1167</v>
+      </c>
+      <c r="P434" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P319">
-    <sortCondition ref="D2:D319"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P434">
+    <sortCondition ref="D2:D434"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1675510\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAA2788-C3A3-44FD-94DA-19281CD9F978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABD5DB5-27B3-41DC-9099-8FBAC7060CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30405" yWindow="3495" windowWidth="21600" windowHeight="11235" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -853,7 +853,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -929,14 +929,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1276,31 +1276,31 @@
   <dimension ref="A1:P434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C434" sqref="B2:C434"/>
+      <selection pane="bottomLeft" activeCell="B418" sqref="B418"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="39.26953125" customWidth="1"/>
+    <col min="2" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.7265625" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>108</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>114</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>116</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>156</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>35</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>154</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>140</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>141</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>152</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>39</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>41</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>92</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>86</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>88</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>89</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>90</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>45</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>46</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>47</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>49</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>37</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>77</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>80</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>81</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>161</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>157</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>158</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>125</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>126</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>127</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>132</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>133</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>134</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>135</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>136</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>137</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>138</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>139</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>119</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>120</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>79</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>239</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>85</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>50</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>27</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>37</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>79</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>131</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>239</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>85</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>51</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>121</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>18</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>122</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>79</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>239</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>85</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>52</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>53</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>82</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>82</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>84</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>84</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>54</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>55</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>56</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>57</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>58</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>59</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>60</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>37</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>131</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>61</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>62</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>63</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>94</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>177</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>79</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>239</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>85</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>130</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>83</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>86</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>100</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>87</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>123</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>124</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>89</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>90</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>25</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>79</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>130</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>85</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>37</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>162</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>162</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>162</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>142</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>144</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>145</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>146</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>37</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>142</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>144</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>145</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>146</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>18</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>79</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>130</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>239</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>85</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>142</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>59</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>37</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>147</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>169</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>79</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>239</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>85</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>59</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>156</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>154</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>37</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>141</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>93</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>152</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>142</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>145</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>146</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>142</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>148</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>163</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>164</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>59</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>168</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>142</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>178</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>37</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>142</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>150</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>38</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>165</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>88</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" s="5" t="s">
         <v>166</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>89</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>175</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>176</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>59</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>37</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A264" s="5" t="s">
         <v>170</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265" s="5" t="s">
         <v>172</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266" s="5" t="s">
         <v>173</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267" s="5" t="s">
         <v>171</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A268" s="5" t="s">
         <v>174</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>179</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>37</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>182</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>183</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>79</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>239</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>85</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>180</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>121</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>92</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>94</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>187</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>92</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>184</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>185</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>186</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>79</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>239</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>85</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>86</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>100</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>87</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>88</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>89</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>175</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>91</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>189</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A296" s="8" t="s">
         <v>201</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A297" s="8" t="s">
         <v>202</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>59</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>190</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>189</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>91</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>187</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>191</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>92</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>192</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>37</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>194</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>193</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>195</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>94</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A311" s="8" t="s">
         <v>200</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A312" s="7" t="s">
         <v>198</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A313" s="8" t="s">
         <v>203</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A314" s="7" t="s">
         <v>204</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>196</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>197</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A317" s="8" t="s">
         <v>205</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A318" s="7" t="s">
         <v>198</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A319" s="8" t="s">
         <v>199</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>179</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>207</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>208</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>211</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>79</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>206</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>85</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>200</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>94</v>
       </c>
@@ -12889,7 +12889,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>86</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>213</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>87</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>212</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>209</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>210</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>214</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>187</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>91</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>92</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>215</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>216</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>214</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>91</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>187</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>216</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>191</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>92</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>179</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>37</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>221</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>223</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>228</v>
       </c>
@@ -13607,7 +13607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>180</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>224</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>225</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>226</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>18</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>217</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>218</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>219</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>220</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>214</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>187</v>
       </c>
@@ -14034,7 +14034,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>91</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>92</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>192</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>227</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>59</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>232</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>79</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>239</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>85</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>233</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>234</v>
       </c>
@@ -14389,7 +14389,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A374" s="8" t="s">
         <v>229</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A375" s="8" t="s">
         <v>230</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>235</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>237</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>210</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>231</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>234</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>236</v>
       </c>
@@ -14753,7 +14753,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>37</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>210</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>234</v>
       </c>
@@ -14885,7 +14885,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>233</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>79</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>239</v>
       </c>
@@ -15014,7 +15014,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>210</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>211</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>234</v>
       </c>
@@ -15149,7 +15149,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>200</v>
       </c>
@@ -15199,7 +15199,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>238</v>
       </c>
@@ -15219,7 +15219,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>240</v>
       </c>
@@ -15269,7 +15269,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>241</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>242</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>214</v>
       </c>
@@ -15389,7 +15389,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>187</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>91</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>191</v>
       </c>
@@ -15449,7 +15449,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>92</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>227</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>200</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>239</v>
       </c>
@@ -15589,7 +15589,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>79</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>244</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>243</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A407" s="8" t="s">
         <v>250</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A408" s="8" t="s">
         <v>252</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>245</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>92</v>
       </c>
@@ -15939,7 +15939,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>246</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>247</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A413" s="8" t="s">
         <v>253</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>251</v>
       </c>
@@ -16124,7 +16124,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>79</v>
       </c>
@@ -16174,15 +16174,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>248</v>
       </c>
-      <c r="B416" s="10">
-        <v>-34.840546000000003</v>
-      </c>
-      <c r="C416" s="10">
-        <v>136.500688</v>
+      <c r="B416">
+        <v>-34.838619999999999</v>
+      </c>
+      <c r="C416">
+        <v>138.50473</v>
       </c>
       <c r="D416" s="2">
         <v>46028</v>
@@ -16224,7 +16224,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>239</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>247</v>
       </c>
@@ -16324,7 +16324,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>246</v>
       </c>
@@ -16374,7 +16374,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A420" s="8" t="s">
         <v>250</v>
       </c>
@@ -16424,7 +16424,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>254</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>37</v>
       </c>
@@ -16503,7 +16503,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>224</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>244</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>255</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>200</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>247</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>246</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>261</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>258</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>262</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>59</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>259</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>257</v>
       </c>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CB869F-D8D4-4CF9-8731-E771F20AE65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1437A864-111B-4EE7-8694-12F5AA141FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="-27660" yWindow="2190" windowWidth="14550" windowHeight="8265" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="296">
   <si>
     <t>Date</t>
   </si>
@@ -932,6 +932,18 @@
   </si>
   <si>
     <t>LAMW5607</t>
+  </si>
+  <si>
+    <t>Second Valley beach</t>
+  </si>
+  <si>
+    <t>Port Augusta Boat ramp</t>
+  </si>
+  <si>
+    <t>Port Augusta Boat Swim Pontoon</t>
+  </si>
+  <si>
+    <t>Port Augusta Yacht Club Pontoon</t>
   </si>
 </sst>
 </file>
@@ -1362,12 +1374,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:P470"/>
+  <dimension ref="A1:S486"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E478" sqref="E478"/>
+      <selection pane="bottomLeft" activeCell="A476" sqref="A476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17367,230 +17379,209 @@
     </row>
     <row r="443" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="B443">
-        <v>-35.787201000000003</v>
+        <v>-32.486960000000003</v>
       </c>
       <c r="C443">
-        <v>137.778009</v>
+        <v>137.76087000000001</v>
       </c>
       <c r="D443" s="2">
-        <v>46039</v>
-      </c>
-      <c r="E443">
-        <v>222</v>
-      </c>
-      <c r="F443">
-        <v>0</v>
-      </c>
-      <c r="G443">
-        <v>444</v>
-      </c>
-      <c r="H443">
-        <v>2778</v>
-      </c>
-      <c r="I443">
-        <v>0</v>
-      </c>
-      <c r="J443">
-        <v>0</v>
+        <v>46036</v>
       </c>
       <c r="K443">
-        <v>1111</v>
-      </c>
-      <c r="L443">
-        <v>444</v>
-      </c>
-      <c r="M443">
-        <v>333</v>
+        <v>1512</v>
       </c>
       <c r="N443">
-        <v>444</v>
+        <v>154</v>
       </c>
       <c r="O443">
-        <v>5776</v>
+        <v>1666</v>
       </c>
       <c r="P443" t="s">
-        <v>151</v>
+        <v>291</v>
       </c>
     </row>
     <row r="444" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="B444">
-        <v>-35.787233000000001</v>
+        <v>-32.48724</v>
       </c>
       <c r="C444">
-        <v>137.777816</v>
+        <v>137.76333</v>
       </c>
       <c r="D444" s="2">
-        <v>46039</v>
-      </c>
-      <c r="E444">
-        <v>0</v>
-      </c>
-      <c r="F444">
-        <v>0</v>
-      </c>
-      <c r="G444">
-        <v>2333</v>
-      </c>
-      <c r="H444">
-        <v>5223</v>
-      </c>
-      <c r="I444">
-        <v>0</v>
+        <v>46036</v>
       </c>
       <c r="K444">
-        <v>24556</v>
-      </c>
-      <c r="L444">
-        <v>333</v>
-      </c>
-      <c r="M444">
-        <v>444</v>
+        <v>864</v>
       </c>
       <c r="N444">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="O444">
-        <v>33111</v>
+        <v>1049</v>
       </c>
       <c r="P444" t="s">
-        <v>151</v>
+        <v>291</v>
       </c>
     </row>
     <row r="445" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="B445">
-        <v>-34.804662999999998</v>
+        <v>-32.490589999999997</v>
       </c>
       <c r="C445">
-        <v>138.540223</v>
+        <v>137.75889000000001</v>
       </c>
       <c r="D445" s="2">
-        <v>46039</v>
-      </c>
-      <c r="H445">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="I445">
-        <v>0</v>
+        <v>46036</v>
       </c>
       <c r="K445">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M445">
-        <v>0.13300000000000001</v>
+        <v>1173</v>
       </c>
       <c r="N445">
-        <v>0.23300000000000001</v>
+        <v>185</v>
       </c>
       <c r="O445">
-        <v>5.633</v>
+        <v>1358</v>
       </c>
       <c r="P445" t="s">
-        <v>78</v>
+        <v>291</v>
       </c>
     </row>
     <row r="446" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="B446">
-        <v>-34.824044999999998</v>
+        <v>-35.787201000000003</v>
       </c>
       <c r="C446">
-        <v>138.48377600000001</v>
+        <v>137.778009</v>
       </c>
       <c r="D446" s="2">
         <v>46039</v>
       </c>
+      <c r="E446">
+        <v>222</v>
+      </c>
+      <c r="F446">
+        <v>0</v>
+      </c>
+      <c r="G446">
+        <v>444</v>
+      </c>
       <c r="H446">
-        <v>1</v>
+        <v>2778</v>
       </c>
       <c r="I446">
         <v>0</v>
       </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
       <c r="K446">
-        <v>10.8</v>
+        <v>1111</v>
+      </c>
+      <c r="L446">
+        <v>444</v>
       </c>
       <c r="M446">
-        <v>2.0499999999999998</v>
+        <v>333</v>
+      </c>
+      <c r="N446">
+        <v>444</v>
       </c>
       <c r="O446">
-        <v>13.85</v>
+        <v>5776</v>
       </c>
       <c r="P446" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
     </row>
     <row r="447" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>85</v>
+        <v>269</v>
       </c>
       <c r="B447">
-        <v>-34.873964000000001</v>
+        <v>-35.787233000000001</v>
       </c>
       <c r="C447">
-        <v>138.488134</v>
+        <v>137.777816</v>
       </c>
       <c r="D447" s="2">
         <v>46039</v>
       </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>0</v>
+      </c>
+      <c r="G447">
+        <v>2333</v>
+      </c>
       <c r="H447">
-        <v>12.6</v>
+        <v>5223</v>
       </c>
       <c r="I447">
-        <v>9.8249999999999993</v>
+        <v>0</v>
       </c>
       <c r="K447">
-        <v>5.1749999999999998</v>
+        <v>24556</v>
+      </c>
+      <c r="L447">
+        <v>333</v>
+      </c>
+      <c r="M447">
+        <v>444</v>
       </c>
       <c r="N447">
-        <v>0.82499999999999996</v>
+        <v>222</v>
       </c>
       <c r="O447">
-        <v>18.600000000000001</v>
+        <v>33111</v>
       </c>
       <c r="P447" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
     </row>
     <row r="448" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="B448">
-        <v>-34.860666999999999</v>
+        <v>-34.804662999999998</v>
       </c>
       <c r="C448">
-        <v>138.490938</v>
+        <v>138.540223</v>
       </c>
       <c r="D448" s="2">
         <v>46039</v>
       </c>
       <c r="H448">
-        <v>15.8</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="I448">
-        <v>12.44</v>
+        <v>0</v>
       </c>
       <c r="K448">
-        <v>1.9650000000000001</v>
-      </c>
-      <c r="L448">
-        <v>0.04</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M448">
+        <v>0.13300000000000001</v>
       </c>
       <c r="N448">
-        <v>560</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="O448">
-        <v>18.36</v>
+        <v>5.633</v>
       </c>
       <c r="P448" t="s">
         <v>78</v>
@@ -17598,31 +17589,31 @@
     </row>
     <row r="449" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="B449">
-        <v>-34.838619999999999</v>
+        <v>-34.824044999999998</v>
       </c>
       <c r="C449">
-        <v>138.50473</v>
+        <v>138.48377600000001</v>
       </c>
       <c r="D449" s="2">
         <v>46039</v>
       </c>
+      <c r="H449">
+        <v>1</v>
+      </c>
       <c r="I449">
         <v>0</v>
       </c>
       <c r="K449">
-        <v>54</v>
+        <v>10.8</v>
       </c>
       <c r="M449">
-        <v>4</v>
-      </c>
-      <c r="N449">
-        <v>0.56000000000000005</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="O449">
-        <v>95.5</v>
+        <v>13.85</v>
       </c>
       <c r="P449" t="s">
         <v>78</v>
@@ -17630,366 +17621,369 @@
     </row>
     <row r="450" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>282</v>
+        <v>85</v>
       </c>
       <c r="B450">
-        <v>-34.907184999999998</v>
+        <v>-34.873964000000001</v>
       </c>
       <c r="C450">
-        <v>137.01196300000001</v>
+        <v>138.488134</v>
       </c>
       <c r="D450" s="2">
         <v>46039</v>
       </c>
       <c r="H450">
-        <v>4222</v>
+        <v>12.6</v>
       </c>
       <c r="I450">
-        <v>3222</v>
+        <v>9.8249999999999993</v>
       </c>
       <c r="K450">
-        <v>167</v>
-      </c>
-      <c r="M450">
-        <v>667</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="N450">
-        <v>500</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="O450">
-        <v>5556</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="P450" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
     </row>
     <row r="451" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="B451">
-        <v>-35.092928999999998</v>
+        <v>-34.860666999999999</v>
       </c>
       <c r="C451">
-        <v>137.746825</v>
+        <v>138.490938</v>
       </c>
       <c r="D451" s="2">
         <v>46039</v>
       </c>
       <c r="H451">
-        <v>722</v>
+        <v>15.8</v>
       </c>
       <c r="I451">
-        <v>111</v>
+        <v>12.44</v>
       </c>
       <c r="K451">
-        <v>1611</v>
-      </c>
-      <c r="M451">
-        <v>722</v>
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="L451">
+        <v>0.04</v>
       </c>
       <c r="N451">
-        <v>889</v>
+        <v>560</v>
       </c>
       <c r="O451">
-        <v>3944</v>
+        <v>18.36</v>
       </c>
       <c r="P451" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
     </row>
     <row r="452" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="B452">
-        <v>-35.115721999999998</v>
+        <v>-34.838619999999999</v>
       </c>
       <c r="C452">
-        <v>137.75626</v>
+        <v>138.50473</v>
       </c>
       <c r="D452" s="2">
         <v>46039</v>
       </c>
-      <c r="H452">
-        <v>278</v>
-      </c>
       <c r="I452">
         <v>0</v>
       </c>
       <c r="K452">
-        <v>889</v>
+        <v>54</v>
       </c>
       <c r="M452">
-        <v>722</v>
+        <v>4</v>
       </c>
       <c r="N452">
-        <v>556</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O452">
-        <v>2445</v>
+        <v>95.5</v>
       </c>
       <c r="P452" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
     </row>
     <row r="453" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B453">
-        <v>-34.827359999999999</v>
+        <v>-34.907184999999998</v>
       </c>
       <c r="C453">
-        <v>137.45850999999999</v>
+        <v>137.01196300000001</v>
       </c>
       <c r="D453" s="2">
-        <v>46040</v>
+        <v>46039</v>
+      </c>
+      <c r="H453">
+        <v>4222</v>
       </c>
       <c r="I453">
-        <v>0</v>
+        <v>3222</v>
+      </c>
+      <c r="K453">
+        <v>167</v>
+      </c>
+      <c r="M453">
+        <v>667</v>
+      </c>
+      <c r="N453">
+        <v>500</v>
+      </c>
+      <c r="O453">
+        <v>5556</v>
       </c>
       <c r="P453" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
     </row>
     <row r="454" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B454">
-        <v>-35.739091000000002</v>
+        <v>-35.092928999999998</v>
       </c>
       <c r="C454">
-        <v>137.67788400000001</v>
+        <v>137.746825</v>
       </c>
       <c r="D454" s="2">
-        <v>46040</v>
-      </c>
-      <c r="E454">
-        <v>0</v>
-      </c>
-      <c r="F454">
-        <v>0</v>
-      </c>
-      <c r="G454">
-        <v>0</v>
+        <v>46039</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="I454">
-        <v>0</v>
-      </c>
-      <c r="J454">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="K454">
-        <v>1556</v>
-      </c>
-      <c r="L454">
-        <v>0</v>
+        <v>1611</v>
       </c>
       <c r="M454">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="N454">
-        <v>0</v>
+        <v>889</v>
       </c>
       <c r="O454">
-        <v>1556</v>
+        <v>3944</v>
       </c>
       <c r="P454" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
     </row>
     <row r="455" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B455">
-        <v>-34.226578000000003</v>
+        <v>-35.115721999999998</v>
       </c>
       <c r="C455">
-        <v>138.02018000000001</v>
+        <v>137.75626</v>
       </c>
       <c r="D455" s="2">
-        <v>46040</v>
+        <v>46039</v>
       </c>
       <c r="H455">
-        <v>3.9750000000000001</v>
+        <v>278</v>
       </c>
       <c r="I455">
-        <v>2.3250000000000002</v>
+        <v>0</v>
       </c>
       <c r="K455">
-        <v>2.85</v>
+        <v>889</v>
       </c>
       <c r="M455">
-        <v>0.22500000000000001</v>
+        <v>722</v>
       </c>
       <c r="N455">
-        <v>7.4999999999999997E-2</v>
+        <v>556</v>
       </c>
       <c r="O455">
-        <v>7.125</v>
+        <v>2445</v>
       </c>
       <c r="P455" t="s">
-        <v>78</v>
+        <v>221</v>
       </c>
     </row>
     <row r="456" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B456">
-        <v>-34.827600699999998</v>
+        <v>-34.827359999999999</v>
       </c>
       <c r="C456">
-        <v>137.45846420000001</v>
+        <v>137.45850999999999</v>
       </c>
       <c r="D456" s="2">
         <v>46040</v>
       </c>
-      <c r="H456">
-        <v>2.8380000000000001</v>
-      </c>
       <c r="I456">
         <v>0</v>
       </c>
-      <c r="K456">
-        <v>51.283999999999999</v>
-      </c>
-      <c r="N456">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="O456">
-        <v>54.527000000000001</v>
-      </c>
       <c r="P456" t="s">
-        <v>78</v>
+        <v>271</v>
       </c>
     </row>
     <row r="457" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B457">
-        <v>-34.917679100000001</v>
+        <v>-35.739091000000002</v>
       </c>
       <c r="C457">
-        <v>137.0853572</v>
+        <v>137.67788400000001</v>
       </c>
       <c r="D457" s="2">
         <v>46040</v>
       </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>0</v>
+      </c>
+      <c r="G457">
+        <v>0</v>
+      </c>
       <c r="H457">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="I457">
-        <v>111</v>
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="K457">
+        <v>1556</v>
+      </c>
+      <c r="L457">
+        <v>0</v>
       </c>
       <c r="M457">
-        <v>278</v>
+        <v>0</v>
+      </c>
+      <c r="N457">
+        <v>0</v>
       </c>
       <c r="O457">
-        <v>667</v>
+        <v>1556</v>
       </c>
       <c r="P457" t="s">
-        <v>259</v>
+        <v>151</v>
       </c>
     </row>
     <row r="458" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B458">
-        <v>-34.929459999999999</v>
+        <v>-34.226578000000003</v>
       </c>
       <c r="C458">
-        <v>137.34075999999999</v>
+        <v>138.02018000000001</v>
       </c>
       <c r="D458" s="2">
-        <v>46041</v>
+        <v>46040</v>
+      </c>
+      <c r="H458">
+        <v>3.9750000000000001</v>
       </c>
       <c r="I458">
-        <v>0</v>
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="K458">
+        <v>2.85</v>
+      </c>
+      <c r="M458">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="N458">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O458">
+        <v>7.125</v>
       </c>
       <c r="P458" t="s">
-        <v>271</v>
+        <v>78</v>
       </c>
     </row>
     <row r="459" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B459">
-        <v>-34.970672</v>
+        <v>-34.827600699999998</v>
       </c>
       <c r="C459">
-        <v>136.97022799999999</v>
+        <v>137.45846420000001</v>
       </c>
       <c r="D459" s="2">
-        <v>46041</v>
+        <v>46040</v>
       </c>
       <c r="H459">
-        <v>15333</v>
+        <v>2.8380000000000001</v>
       </c>
       <c r="I459">
-        <v>9333</v>
+        <v>0</v>
       </c>
       <c r="K459">
-        <v>1556</v>
-      </c>
-      <c r="L459">
-        <v>889</v>
-      </c>
-      <c r="M459">
-        <v>1333</v>
+        <v>51.283999999999999</v>
       </c>
       <c r="N459">
-        <v>444</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="O459">
-        <v>19555</v>
+        <v>54.527000000000001</v>
       </c>
       <c r="P459" t="s">
-        <v>259</v>
+        <v>78</v>
       </c>
     </row>
     <row r="460" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B460">
-        <v>-35.011718100000003</v>
+        <v>-34.917679100000001</v>
       </c>
       <c r="C460">
-        <v>136.94842070000001</v>
+        <v>137.0853572</v>
       </c>
       <c r="D460" s="2">
-        <v>46041</v>
+        <v>46040</v>
       </c>
       <c r="H460">
-        <v>1056</v>
+        <v>389</v>
       </c>
       <c r="I460">
-        <v>611</v>
-      </c>
-      <c r="K460">
-        <v>222</v>
-      </c>
-      <c r="L460">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="M460">
         <v>278</v>
       </c>
-      <c r="N460">
-        <v>167</v>
-      </c>
       <c r="O460">
-        <v>1779</v>
+        <v>667</v>
       </c>
       <c r="P460" t="s">
         <v>259</v>
@@ -17997,72 +17991,57 @@
     </row>
     <row r="461" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="B461">
-        <v>-34.953057899999997</v>
+        <v>-34.929459999999999</v>
       </c>
       <c r="C461">
-        <v>136.973341</v>
+        <v>137.34075999999999</v>
       </c>
       <c r="D461" s="2">
         <v>46041</v>
       </c>
-      <c r="H461">
-        <v>27889</v>
-      </c>
       <c r="I461">
-        <v>16667</v>
-      </c>
-      <c r="K461">
-        <v>444</v>
-      </c>
-      <c r="L461">
-        <v>556</v>
-      </c>
-      <c r="M461">
-        <v>444</v>
-      </c>
-      <c r="O461">
-        <v>29333</v>
+        <v>0</v>
       </c>
       <c r="P461" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="462" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B462">
-        <v>-34.906165799999997</v>
+        <v>-34.970672</v>
       </c>
       <c r="C462">
-        <v>137.01125089999999</v>
+        <v>136.97022799999999</v>
       </c>
       <c r="D462" s="2">
         <v>46041</v>
       </c>
       <c r="H462">
-        <v>8889</v>
+        <v>15333</v>
       </c>
       <c r="I462">
-        <v>5111</v>
+        <v>9333</v>
       </c>
       <c r="K462">
-        <v>333</v>
+        <v>1556</v>
       </c>
       <c r="L462">
-        <v>333</v>
+        <v>889</v>
       </c>
       <c r="M462">
-        <v>556</v>
+        <v>1333</v>
       </c>
       <c r="N462">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="O462">
-        <v>10222</v>
+        <v>19555</v>
       </c>
       <c r="P462" t="s">
         <v>259</v>
@@ -18070,202 +18049,223 @@
     </row>
     <row r="463" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="B463">
-        <v>-34.895150000000001</v>
+        <v>-35.011718100000003</v>
       </c>
       <c r="C463">
-        <v>137.24995000000001</v>
+        <v>136.94842070000001</v>
       </c>
       <c r="D463" s="2">
-        <v>46042</v>
+        <v>46041</v>
+      </c>
+      <c r="H463">
+        <v>1056</v>
       </c>
       <c r="I463">
-        <v>306</v>
+        <v>611</v>
+      </c>
+      <c r="K463">
+        <v>222</v>
+      </c>
+      <c r="L463">
+        <v>56</v>
+      </c>
+      <c r="M463">
+        <v>278</v>
+      </c>
+      <c r="N463">
+        <v>167</v>
+      </c>
+      <c r="O463">
+        <v>1779</v>
       </c>
       <c r="P463" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="464" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="B464">
-        <v>-34.918889999999998</v>
+        <v>-34.953057899999997</v>
       </c>
       <c r="C464">
-        <v>137.30171999999999</v>
+        <v>136.973341</v>
       </c>
       <c r="D464" s="2">
-        <v>46042</v>
+        <v>46041</v>
+      </c>
+      <c r="H464">
+        <v>27889</v>
       </c>
       <c r="I464">
-        <v>0</v>
+        <v>16667</v>
+      </c>
+      <c r="K464">
+        <v>444</v>
+      </c>
+      <c r="L464">
+        <v>556</v>
+      </c>
+      <c r="M464">
+        <v>444</v>
+      </c>
+      <c r="O464">
+        <v>29333</v>
       </c>
       <c r="P464" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="465" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="B465">
-        <v>-34.933680000000003</v>
+        <v>-34.906165799999997</v>
       </c>
       <c r="C465">
-        <v>137.35247000000001</v>
+        <v>137.01125089999999</v>
       </c>
       <c r="D465" s="2">
-        <v>46042</v>
+        <v>46041</v>
+      </c>
+      <c r="H465">
+        <v>8889</v>
       </c>
       <c r="I465">
-        <v>0</v>
+        <v>5111</v>
+      </c>
+      <c r="K465">
+        <v>333</v>
+      </c>
+      <c r="L465">
+        <v>333</v>
+      </c>
+      <c r="M465">
+        <v>556</v>
+      </c>
+      <c r="N465">
+        <v>111</v>
+      </c>
+      <c r="O465">
+        <v>10222</v>
       </c>
       <c r="P465" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="466" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="B466">
-        <v>-34.672490000000003</v>
+        <v>-35.511031000000003</v>
       </c>
       <c r="C466">
-        <v>137.49295000000001</v>
+        <v>138.21822299999999</v>
       </c>
       <c r="D466" s="2">
-        <v>46042</v>
+        <v>46041</v>
+      </c>
+      <c r="H466">
+        <v>1333</v>
       </c>
       <c r="I466">
         <v>0</v>
       </c>
+      <c r="K466">
+        <v>0</v>
+      </c>
+      <c r="M466">
+        <v>3333</v>
+      </c>
+      <c r="O466">
+        <v>4666</v>
+      </c>
       <c r="P466" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="467" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="B467">
-        <v>-35.7987082</v>
+        <v>-35.445186</v>
       </c>
       <c r="C467">
-        <v>137.81647699999999</v>
+        <v>138.307424</v>
       </c>
       <c r="D467" s="2">
-        <v>46042</v>
+        <v>46041</v>
       </c>
       <c r="E467">
-        <v>0</v>
-      </c>
-      <c r="F467">
-        <v>0</v>
-      </c>
-      <c r="G467">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H467">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="I467">
         <v>0</v>
       </c>
-      <c r="J467">
-        <v>0</v>
-      </c>
       <c r="K467">
-        <v>444</v>
-      </c>
-      <c r="L467">
         <v>0</v>
       </c>
       <c r="M467">
-        <v>0</v>
-      </c>
-      <c r="N467">
-        <v>0</v>
+        <v>1889</v>
       </c>
       <c r="O467">
-        <v>888</v>
+        <v>2723</v>
       </c>
       <c r="P467" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="468" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>59</v>
+        <v>264</v>
       </c>
       <c r="B468">
-        <v>-35.084850000000003</v>
+        <v>-34.895150000000001</v>
       </c>
       <c r="C468">
-        <v>137.74889999999999</v>
+        <v>137.24995000000001</v>
       </c>
       <c r="D468" s="2">
         <v>46042</v>
       </c>
-      <c r="E468">
-        <v>0</v>
-      </c>
-      <c r="F468">
-        <v>0</v>
-      </c>
-      <c r="G468">
-        <v>0</v>
-      </c>
-      <c r="H468">
-        <v>83</v>
-      </c>
       <c r="I468">
-        <v>0</v>
-      </c>
-      <c r="J468">
-        <v>0</v>
-      </c>
-      <c r="K468">
-        <v>138</v>
-      </c>
-      <c r="M468">
-        <v>805</v>
-      </c>
-      <c r="O468">
-        <v>1026</v>
+        <v>306</v>
       </c>
       <c r="P468" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="469" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B469">
-        <v>-34.92989</v>
+        <v>-34.918889999999998</v>
       </c>
       <c r="C469">
-        <v>137.34662</v>
+        <v>137.30171999999999</v>
       </c>
       <c r="D469" s="2">
-        <v>46043</v>
+        <v>46042</v>
       </c>
       <c r="I469">
         <v>0</v>
-      </c>
-      <c r="K469">
-        <v>28</v>
       </c>
       <c r="P469" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>266</v>
       </c>
@@ -18276,7 +18276,7 @@
         <v>137.35247000000001</v>
       </c>
       <c r="D470" s="2">
-        <v>46043</v>
+        <v>46042</v>
       </c>
       <c r="I470">
         <v>0</v>
@@ -18285,9 +18285,215 @@
         <v>271</v>
       </c>
     </row>
+    <row r="471" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>267</v>
+      </c>
+      <c r="B471">
+        <v>-34.672490000000003</v>
+      </c>
+      <c r="C471">
+        <v>137.49295000000001</v>
+      </c>
+      <c r="D471" s="2">
+        <v>46042</v>
+      </c>
+      <c r="I471">
+        <v>0</v>
+      </c>
+      <c r="P471" t="s">
+        <v>271</v>
+      </c>
+      <c r="S471" s="2"/>
+    </row>
+    <row r="472" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>209</v>
+      </c>
+      <c r="B472">
+        <v>-35.7987082</v>
+      </c>
+      <c r="C472">
+        <v>137.81647699999999</v>
+      </c>
+      <c r="D472" s="2">
+        <v>46042</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+      <c r="G472">
+        <v>0</v>
+      </c>
+      <c r="H472">
+        <v>444</v>
+      </c>
+      <c r="I472">
+        <v>0</v>
+      </c>
+      <c r="J472">
+        <v>0</v>
+      </c>
+      <c r="K472">
+        <v>444</v>
+      </c>
+      <c r="L472">
+        <v>0</v>
+      </c>
+      <c r="M472">
+        <v>0</v>
+      </c>
+      <c r="N472">
+        <v>0</v>
+      </c>
+      <c r="O472">
+        <v>888</v>
+      </c>
+      <c r="P472" t="s">
+        <v>151</v>
+      </c>
+      <c r="S472" s="2"/>
+    </row>
+    <row r="473" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>59</v>
+      </c>
+      <c r="B473">
+        <v>-35.084850000000003</v>
+      </c>
+      <c r="C473">
+        <v>137.74889999999999</v>
+      </c>
+      <c r="D473" s="2">
+        <v>46042</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>0</v>
+      </c>
+      <c r="G473">
+        <v>0</v>
+      </c>
+      <c r="H473">
+        <v>83</v>
+      </c>
+      <c r="I473">
+        <v>0</v>
+      </c>
+      <c r="J473">
+        <v>0</v>
+      </c>
+      <c r="K473">
+        <v>138</v>
+      </c>
+      <c r="M473">
+        <v>805</v>
+      </c>
+      <c r="O473">
+        <v>1026</v>
+      </c>
+      <c r="P473" t="s">
+        <v>276</v>
+      </c>
+      <c r="S473" s="2"/>
+    </row>
+    <row r="474" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>268</v>
+      </c>
+      <c r="B474">
+        <v>-34.92989</v>
+      </c>
+      <c r="C474">
+        <v>137.34662</v>
+      </c>
+      <c r="D474" s="2">
+        <v>46043</v>
+      </c>
+      <c r="I474">
+        <v>0</v>
+      </c>
+      <c r="K474">
+        <v>28</v>
+      </c>
+      <c r="P474" t="s">
+        <v>271</v>
+      </c>
+      <c r="S474" s="2"/>
+    </row>
+    <row r="475" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>266</v>
+      </c>
+      <c r="B475">
+        <v>-34.933680000000003</v>
+      </c>
+      <c r="C475">
+        <v>137.35247000000001</v>
+      </c>
+      <c r="D475" s="2">
+        <v>46043</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+      <c r="P475" t="s">
+        <v>271</v>
+      </c>
+      <c r="S475" s="2"/>
+    </row>
+    <row r="476" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D476" s="2"/>
+      <c r="S476" s="2"/>
+    </row>
+    <row r="477" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D477" s="2"/>
+      <c r="S477" s="2"/>
+    </row>
+    <row r="478" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D478" s="2"/>
+      <c r="S478" s="2"/>
+    </row>
+    <row r="479" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D479" s="2"/>
+      <c r="S479" s="2"/>
+    </row>
+    <row r="480" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D480" s="2"/>
+      <c r="S480" s="2"/>
+    </row>
+    <row r="481" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D481" s="2"/>
+      <c r="S481" s="2"/>
+    </row>
+    <row r="482" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D482" s="2"/>
+      <c r="S482" s="2"/>
+    </row>
+    <row r="483" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D483" s="2"/>
+      <c r="S483" s="2"/>
+    </row>
+    <row r="484" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D484" s="2"/>
+      <c r="S484" s="2"/>
+    </row>
+    <row r="485" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D485" s="2"/>
+      <c r="S485" s="2"/>
+    </row>
+    <row r="486" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D486" s="2"/>
+      <c r="S486" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P470">
-    <sortCondition ref="D2:D470"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P475">
+    <sortCondition ref="D2:D475"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1437A864-111B-4EE7-8694-12F5AA141FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EBBC65-EF93-4D3B-AEF6-B8890B5F62C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27660" yWindow="2190" windowWidth="14550" windowHeight="8265" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -1377,7 +1377,7 @@
   <dimension ref="A1:S486"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A476" sqref="A476"/>
     </sheetView>
@@ -17390,6 +17390,9 @@
       <c r="D443" s="2">
         <v>46036</v>
       </c>
+      <c r="I443">
+        <v>0</v>
+      </c>
       <c r="K443">
         <v>1512</v>
       </c>
@@ -17416,6 +17419,9 @@
       <c r="D444" s="2">
         <v>46036</v>
       </c>
+      <c r="I444">
+        <v>0</v>
+      </c>
       <c r="K444">
         <v>864</v>
       </c>
@@ -17442,6 +17448,9 @@
       <c r="D445" s="2">
         <v>46036</v>
       </c>
+      <c r="I445">
+        <v>0</v>
+      </c>
       <c r="K445">
         <v>1173</v>
       </c>
@@ -17895,7 +17904,7 @@
     </row>
     <row r="458" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B458">
         <v>-34.226578000000003</v>
@@ -17930,7 +17939,7 @@
     </row>
     <row r="459" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B459">
         <v>-34.827600699999998</v>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EBBC65-EF93-4D3B-AEF6-B8890B5F62C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E60A05-0950-46B7-9840-C581EF788BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
@@ -1015,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1035,6 +1035,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1379,7 +1381,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A476" sqref="A476"/>
+      <selection pane="bottomLeft" activeCell="A458" sqref="A458:P459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17903,69 +17905,78 @@
       </c>
     </row>
     <row r="458" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A458" t="s">
+      <c r="A458" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="B458">
-        <v>-34.226578000000003</v>
-      </c>
-      <c r="C458">
+      <c r="B458" s="13">
+        <v>-34.827600699999998</v>
+      </c>
+      <c r="C458" s="13">
+        <v>137.45846420000001</v>
+      </c>
+      <c r="D458" s="14">
+        <v>46040</v>
+      </c>
+      <c r="E458" s="13"/>
+      <c r="F458" s="13"/>
+      <c r="G458" s="13"/>
+      <c r="H458" s="13">
+        <v>3.98</v>
+      </c>
+      <c r="I458" s="13">
+        <v>2.33</v>
+      </c>
+      <c r="J458" s="13"/>
+      <c r="K458" s="13">
+        <v>2.85</v>
+      </c>
+      <c r="L458" s="13"/>
+      <c r="M458" s="13">
+        <v>0.23</v>
+      </c>
+      <c r="N458" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="O458" s="13">
+        <v>7.13</v>
+      </c>
+      <c r="P458" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="459" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A459" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B459" s="13">
+        <v>-34.226579999999998</v>
+      </c>
+      <c r="C459" s="13">
         <v>138.02018000000001</v>
       </c>
-      <c r="D458" s="2">
+      <c r="D459" s="14">
         <v>46040</v>
       </c>
-      <c r="H458">
-        <v>3.9750000000000001</v>
-      </c>
-      <c r="I458">
-        <v>2.3250000000000002</v>
-      </c>
-      <c r="K458">
-        <v>2.85</v>
-      </c>
-      <c r="M458">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="N458">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="O458">
-        <v>7.125</v>
-      </c>
-      <c r="P458" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A459" t="s">
-        <v>274</v>
-      </c>
-      <c r="B459">
-        <v>-34.827600699999998</v>
-      </c>
-      <c r="C459">
-        <v>137.45846420000001</v>
-      </c>
-      <c r="D459" s="2">
-        <v>46040</v>
-      </c>
-      <c r="H459">
-        <v>2.8380000000000001</v>
-      </c>
-      <c r="I459">
-        <v>0</v>
-      </c>
-      <c r="K459">
-        <v>51.283999999999999</v>
-      </c>
-      <c r="N459">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="O459">
-        <v>54.527000000000001</v>
-      </c>
-      <c r="P459" t="s">
+      <c r="E459" s="13"/>
+      <c r="F459" s="13"/>
+      <c r="G459" s="13"/>
+      <c r="H459" s="13">
+        <v>2.84</v>
+      </c>
+      <c r="I459" s="13"/>
+      <c r="J459" s="13"/>
+      <c r="K459" s="13">
+        <v>51.28</v>
+      </c>
+      <c r="L459" s="13"/>
+      <c r="M459" s="13"/>
+      <c r="N459" s="13">
+        <v>0.41</v>
+      </c>
+      <c r="O459" s="13">
+        <v>54.53</v>
+      </c>
+      <c r="P459" s="13" t="s">
         <v>78</v>
       </c>
     </row>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E60A05-0950-46B7-9840-C581EF788BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B10EFA6-17D4-4D70-B696-43ABA1615D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="-28785" yWindow="1770" windowWidth="24555" windowHeight="14220" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="315">
   <si>
     <t>Date</t>
   </si>
@@ -718,9 +718,6 @@
     <t>Chinaman Wells</t>
   </si>
   <si>
-    <t>Coobowie, SA. Salt Swamp Creek</t>
-  </si>
-  <si>
     <t>BAMP5583</t>
   </si>
   <si>
@@ -901,9 +898,6 @@
     <t>Edithburgh Tidal Pool, inside pool.</t>
   </si>
   <si>
-    <t>Coobowie Causeway, Western Side</t>
-  </si>
-  <si>
     <t>Berry Bay North, Shoreline</t>
   </si>
   <si>
@@ -944,6 +938,69 @@
   </si>
   <si>
     <t>Port Augusta Yacht Club Pontoon</t>
+  </si>
+  <si>
+    <t>North Shields Reef</t>
+  </si>
+  <si>
+    <t>North Shields Beach</t>
+  </si>
+  <si>
+    <t>North Shields Jetty</t>
+  </si>
+  <si>
+    <t>Arno Bay Jetty</t>
+  </si>
+  <si>
+    <t>Arno Bay Creek</t>
+  </si>
+  <si>
+    <t>Arno Bay Boat Ramp</t>
+  </si>
+  <si>
+    <t>Second Valley 7m depth</t>
+  </si>
+  <si>
+    <t>Second Valley Surface</t>
+  </si>
+  <si>
+    <t>West Island N side</t>
+  </si>
+  <si>
+    <t>West Island SW side</t>
+  </si>
+  <si>
+    <t>Off Waitpinga Cliffs</t>
+  </si>
+  <si>
+    <t>West Island SE side</t>
+  </si>
+  <si>
+    <t>O'sullivans Beach Boatramp</t>
+  </si>
+  <si>
+    <t>Seacliff beach</t>
+  </si>
+  <si>
+    <t>Hardwicke Bay boat ramp</t>
+  </si>
+  <si>
+    <t>American Beach</t>
+  </si>
+  <si>
+    <t>Brown Beach offshore near camp</t>
+  </si>
+  <si>
+    <t>Second Valley Beach</t>
+  </si>
+  <si>
+    <t>Morgans Beach</t>
+  </si>
+  <si>
+    <t>Sultana Point Shoreline, Low Tide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kemp Bay, Shoreline </t>
   </si>
 </sst>
 </file>
@@ -1376,12 +1433,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:S486"/>
+  <dimension ref="A1:S517"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A458" sqref="A458:P459"/>
+      <selection pane="bottomLeft" activeCell="J527" sqref="J527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6657,7 +6714,7 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B150">
         <v>-34.837600000000002</v>
@@ -6940,7 +6997,7 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B158">
         <v>-34.837600000000002</v>
@@ -7176,7 +7233,7 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B165">
         <v>-34.837600000000002</v>
@@ -8137,7 +8194,7 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B191">
         <v>-34.837600000000002</v>
@@ -9230,7 +9287,7 @@
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B224">
         <v>-34.837600000000002</v>
@@ -9518,7 +9575,7 @@
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B232">
         <v>-34.837600000000002</v>
@@ -11039,7 +11096,7 @@
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B274">
         <v>-34.837600000000002</v>
@@ -11447,7 +11504,7 @@
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B286">
         <v>-34.837600000000002</v>
@@ -13537,142 +13594,130 @@
     </row>
     <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="B348">
-        <v>-34.289369999999998</v>
+        <v>-35.638609789999997</v>
       </c>
       <c r="C348">
-        <v>138.01242999999999</v>
+        <v>137.62514150000001</v>
       </c>
       <c r="D348" s="2">
-        <v>45997</v>
-      </c>
-      <c r="F348">
-        <v>278</v>
-      </c>
-      <c r="G348">
-        <v>889</v>
+        <v>45995</v>
       </c>
       <c r="H348">
-        <v>611</v>
+        <v>56</v>
       </c>
       <c r="I348">
         <v>0</v>
       </c>
       <c r="J348">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="K348">
-        <v>2056</v>
-      </c>
-      <c r="L348">
-        <v>333</v>
+        <v>3167</v>
       </c>
       <c r="M348">
-        <v>3111</v>
+        <v>778</v>
+      </c>
+      <c r="N348">
+        <v>2000</v>
       </c>
       <c r="O348">
-        <v>7500</v>
+        <v>6057</v>
       </c>
       <c r="P348" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="B349">
-        <v>-35.054707999999998</v>
+        <v>-34.289369999999998</v>
       </c>
       <c r="C349">
-        <v>137.725145</v>
+        <v>138.01242999999999</v>
       </c>
       <c r="D349" s="2">
         <v>45997</v>
       </c>
+      <c r="F349">
+        <v>278</v>
+      </c>
+      <c r="G349">
+        <v>889</v>
+      </c>
       <c r="H349">
-        <v>42111</v>
+        <v>611</v>
       </c>
       <c r="I349">
         <v>0</v>
       </c>
+      <c r="J349">
+        <v>222</v>
+      </c>
       <c r="K349">
-        <v>3000</v>
+        <v>2056</v>
+      </c>
+      <c r="L349">
+        <v>333</v>
       </c>
       <c r="M349">
-        <v>1889</v>
-      </c>
-      <c r="N349">
-        <v>889</v>
+        <v>3111</v>
       </c>
       <c r="O349">
-        <v>47889</v>
+        <v>7500</v>
       </c>
       <c r="P349" t="s">
-        <v>221</v>
+        <v>76</v>
       </c>
     </row>
     <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B350">
-        <v>-35.719856700000001</v>
+        <v>-35.054707999999998</v>
       </c>
       <c r="C350">
-        <v>137.92948419999999</v>
+        <v>137.725145</v>
       </c>
       <c r="D350" s="2">
         <v>45997</v>
       </c>
-      <c r="E350">
-        <v>0</v>
-      </c>
-      <c r="F350">
-        <v>0</v>
-      </c>
-      <c r="G350">
-        <v>0</v>
-      </c>
       <c r="H350">
-        <v>0</v>
+        <v>42111</v>
       </c>
       <c r="I350">
         <v>0</v>
       </c>
-      <c r="J350">
-        <v>0</v>
-      </c>
       <c r="K350">
-        <v>11889</v>
-      </c>
-      <c r="L350">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="M350">
-        <v>0</v>
+        <v>1889</v>
       </c>
       <c r="N350">
-        <v>222</v>
+        <v>889</v>
       </c>
       <c r="O350">
-        <v>12111</v>
+        <v>47889</v>
       </c>
       <c r="P350" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B351">
-        <v>-35.120863999999997</v>
+        <v>-35.719856700000001</v>
       </c>
       <c r="C351">
-        <v>138.467173</v>
+        <v>137.92948419999999</v>
       </c>
       <c r="D351" s="2">
         <v>45997</v>
@@ -13681,45 +13726,48 @@
         <v>0</v>
       </c>
       <c r="F351">
-        <v>2.2499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G351">
         <v>0</v>
       </c>
       <c r="H351">
-        <v>3.6875</v>
+        <v>0</v>
       </c>
       <c r="I351">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
       </c>
       <c r="K351">
-        <v>3.125</v>
+        <v>11889</v>
       </c>
       <c r="L351">
-        <v>4.4999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="M351">
         <v>0</v>
       </c>
       <c r="N351">
-        <v>2</v>
+        <v>222</v>
       </c>
       <c r="O351">
-        <v>9.129999999999999</v>
+        <v>12111</v>
       </c>
       <c r="P351" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
     </row>
     <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="B352">
-        <v>-35.078539999999997</v>
+        <v>-35.120863999999997</v>
       </c>
       <c r="C352">
-        <v>138.49587</v>
+        <v>138.467173</v>
       </c>
       <c r="D352" s="2">
         <v>45997</v>
@@ -13728,31 +13776,31 @@
         <v>0</v>
       </c>
       <c r="F352">
-        <v>0.05</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="G352">
         <v>0</v>
       </c>
       <c r="H352">
-        <v>1.7</v>
+        <v>3.6875</v>
       </c>
       <c r="I352">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K352">
-        <v>3.45</v>
+        <v>3.125</v>
       </c>
       <c r="L352">
-        <v>0</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M352">
         <v>0</v>
       </c>
       <c r="N352">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="O352">
-        <v>5.3500000000000005</v>
+        <v>9.129999999999999</v>
       </c>
       <c r="P352" t="s">
         <v>78</v>
@@ -13760,119 +13808,104 @@
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="B353">
-        <v>-35.738910099999998</v>
+        <v>-35.078539999999997</v>
       </c>
       <c r="C353">
-        <v>137.68358799999999</v>
+        <v>138.49587</v>
       </c>
       <c r="D353" s="2">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="E353">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="F353">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G353">
         <v>0</v>
       </c>
       <c r="H353">
-        <v>889</v>
+        <v>1.7</v>
       </c>
       <c r="I353">
         <v>0</v>
       </c>
-      <c r="J353">
-        <v>0</v>
-      </c>
       <c r="K353">
-        <v>4111</v>
+        <v>3.45</v>
       </c>
       <c r="L353">
         <v>0</v>
       </c>
       <c r="M353">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="N353">
-        <v>111</v>
+        <v>0.15</v>
       </c>
       <c r="O353">
-        <v>5999</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="P353" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
     </row>
     <row r="354" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="B354">
-        <v>-35.638145999999999</v>
+        <v>-35.655576000000003</v>
       </c>
       <c r="C354">
-        <v>137.6249325</v>
+        <v>137.641276</v>
       </c>
       <c r="D354" s="2">
-        <v>45999</v>
-      </c>
-      <c r="E354">
-        <v>0</v>
+        <v>45997</v>
       </c>
       <c r="F354">
-        <v>0</v>
-      </c>
-      <c r="G354">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="I354">
         <v>0</v>
       </c>
-      <c r="J354">
-        <v>0</v>
-      </c>
       <c r="K354">
-        <v>0</v>
-      </c>
-      <c r="L354">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M354">
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="N354">
-        <v>0</v>
+        <v>1278</v>
       </c>
       <c r="O354">
-        <v>0</v>
+        <v>2556</v>
       </c>
       <c r="P354" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="355" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B355">
-        <v>-35.671809099999997</v>
+        <v>-35.738910099999998</v>
       </c>
       <c r="C355">
-        <v>137.61394279999999</v>
+        <v>137.68358799999999</v>
       </c>
       <c r="D355" s="2">
-        <v>45999</v>
+        <v>45998</v>
       </c>
       <c r="E355">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -13881,7 +13914,7 @@
         <v>0</v>
       </c>
       <c r="H355">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="I355">
         <v>0</v>
@@ -13890,19 +13923,19 @@
         <v>0</v>
       </c>
       <c r="K355">
-        <v>2778</v>
+        <v>4111</v>
       </c>
       <c r="L355">
         <v>0</v>
       </c>
       <c r="M355">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="N355">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="O355">
-        <v>5445</v>
+        <v>5999</v>
       </c>
       <c r="P355" t="s">
         <v>151</v>
@@ -13910,1311 +13943,1215 @@
     </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="B356">
-        <v>-34.744259999999997</v>
+        <v>-35.509267000000001</v>
       </c>
       <c r="C356">
-        <v>138.53462999999999</v>
+        <v>138.215</v>
       </c>
       <c r="D356" s="2">
-        <v>46001</v>
-      </c>
-      <c r="G356">
-        <v>113</v>
+        <v>45998</v>
       </c>
       <c r="I356">
         <v>0</v>
       </c>
-      <c r="K356">
-        <v>394</v>
-      </c>
       <c r="M356">
-        <v>56000</v>
+        <v>611</v>
       </c>
       <c r="N356">
-        <v>197</v>
+        <v>444</v>
       </c>
       <c r="O356">
-        <v>56704</v>
+        <v>1055</v>
       </c>
       <c r="P356" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>216</v>
+        <v>301</v>
       </c>
       <c r="B357">
-        <v>-34.180396000000002</v>
+        <v>-35.509166999999998</v>
       </c>
       <c r="C357">
-        <v>138.145667</v>
+        <v>138.215</v>
       </c>
       <c r="D357" s="2">
-        <v>46001</v>
+        <v>45998</v>
       </c>
       <c r="F357">
-        <v>56</v>
-      </c>
-      <c r="G357">
-        <v>1167</v>
-      </c>
-      <c r="H357">
-        <v>500</v>
+        <v>111</v>
       </c>
       <c r="I357">
         <v>0</v>
       </c>
       <c r="K357">
-        <v>1889</v>
-      </c>
-      <c r="L357">
-        <v>56</v>
+        <v>111</v>
+      </c>
+      <c r="M357">
+        <v>611</v>
       </c>
       <c r="N357">
-        <v>111</v>
+        <v>389</v>
       </c>
       <c r="O357">
-        <v>3778</v>
+        <v>1222</v>
       </c>
       <c r="P357" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="358" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B358">
-        <v>-34.176642000000001</v>
+        <v>-35.638145999999999</v>
       </c>
       <c r="C358">
-        <v>138.04467299999999</v>
+        <v>137.6249325</v>
       </c>
       <c r="D358" s="2">
-        <v>46001</v>
+        <v>45999</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
       </c>
       <c r="H358">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I358">
         <v>0</v>
       </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
       <c r="K358">
-        <v>4250</v>
+        <v>0</v>
+      </c>
+      <c r="L358">
+        <v>0</v>
+      </c>
+      <c r="M358">
+        <v>0</v>
       </c>
       <c r="N358">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="O358">
-        <v>4417</v>
+        <v>0</v>
       </c>
       <c r="P358" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
     </row>
     <row r="359" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B359">
-        <v>-34.322853000000002</v>
+        <v>-35.671809099999997</v>
       </c>
       <c r="C359">
-        <v>137.49248</v>
+        <v>137.61394279999999</v>
       </c>
       <c r="D359" s="2">
-        <v>46001</v>
+        <v>45999</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
       </c>
       <c r="H359">
-        <v>28</v>
+        <v>556</v>
       </c>
       <c r="I359">
         <v>0</v>
       </c>
       <c r="J359">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K359">
-        <v>333</v>
+        <v>2778</v>
       </c>
       <c r="L359">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="M359">
+        <v>0</v>
       </c>
       <c r="N359">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="O359">
-        <v>472</v>
+        <v>5445</v>
       </c>
       <c r="P359" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
     </row>
     <row r="360" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="B360">
-        <v>-34.377982000000003</v>
+        <v>-35.58858</v>
       </c>
       <c r="C360">
-        <v>137.47515899999999</v>
+        <v>138.60474600000001</v>
       </c>
       <c r="D360" s="2">
-        <v>46001</v>
-      </c>
-      <c r="G360">
-        <v>167</v>
+        <v>45999</v>
+      </c>
+      <c r="F360">
+        <v>111</v>
       </c>
       <c r="H360">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="I360">
         <v>0</v>
       </c>
       <c r="K360">
+        <v>444</v>
+      </c>
+      <c r="M360">
         <v>333</v>
       </c>
-      <c r="L360">
-        <v>111</v>
-      </c>
       <c r="N360">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="O360">
-        <v>1167</v>
+        <v>1666</v>
       </c>
       <c r="P360" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="361" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="B361">
-        <v>-35.515507999999997</v>
+        <v>-35.6048446</v>
       </c>
       <c r="C361">
-        <v>138.729004</v>
+        <v>138.59278499999999</v>
       </c>
       <c r="D361" s="2">
-        <v>46001</v>
+        <v>45999</v>
+      </c>
+      <c r="F361">
+        <v>56</v>
+      </c>
+      <c r="G361">
+        <v>56</v>
       </c>
       <c r="I361">
         <v>0</v>
       </c>
       <c r="K361">
-        <v>222</v>
+        <v>167</v>
+      </c>
+      <c r="M361">
+        <v>500</v>
+      </c>
+      <c r="N361">
+        <v>444</v>
+      </c>
+      <c r="O361">
+        <v>1223</v>
       </c>
       <c r="P361" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
     </row>
     <row r="362" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="B362">
-        <v>-35.538469999999997</v>
+        <v>-34.744259999999997</v>
       </c>
       <c r="C362">
-        <v>138.649779</v>
+        <v>138.53462999999999</v>
       </c>
       <c r="D362" s="2">
         <v>46001</v>
       </c>
+      <c r="G362">
+        <v>113</v>
+      </c>
       <c r="I362">
         <v>0</v>
       </c>
       <c r="K362">
-        <v>0</v>
+        <v>394</v>
+      </c>
+      <c r="M362">
+        <v>56000</v>
+      </c>
+      <c r="N362">
+        <v>197</v>
+      </c>
+      <c r="O362">
+        <v>56704</v>
       </c>
       <c r="P362" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
     </row>
     <row r="363" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="B363">
-        <v>-35.536168000000004</v>
+        <v>-34.180396000000002</v>
       </c>
       <c r="C363">
-        <v>138.677615</v>
+        <v>138.145667</v>
       </c>
       <c r="D363" s="2">
         <v>46001</v>
       </c>
+      <c r="F363">
+        <v>56</v>
+      </c>
+      <c r="G363">
+        <v>1167</v>
+      </c>
+      <c r="H363">
+        <v>500</v>
+      </c>
       <c r="I363">
         <v>0</v>
       </c>
       <c r="K363">
+        <v>1889</v>
+      </c>
+      <c r="L363">
+        <v>56</v>
+      </c>
+      <c r="N363">
         <v>111</v>
       </c>
+      <c r="O363">
+        <v>3778</v>
+      </c>
       <c r="P363" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
     </row>
     <row r="364" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="B364">
-        <v>-35.634602000000001</v>
+        <v>-34.176642000000001</v>
       </c>
       <c r="C364">
-        <v>138.49898300000001</v>
+        <v>138.04467299999999</v>
       </c>
       <c r="D364" s="2">
         <v>46001</v>
       </c>
+      <c r="H364">
+        <v>56</v>
+      </c>
       <c r="I364">
         <v>0</v>
       </c>
       <c r="K364">
-        <v>222</v>
+        <v>4250</v>
+      </c>
+      <c r="N364">
+        <v>111</v>
+      </c>
+      <c r="O364">
+        <v>4417</v>
       </c>
       <c r="P364" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
     </row>
     <row r="365" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="B365">
-        <v>-35.638637000000003</v>
+        <v>-34.322853000000002</v>
       </c>
       <c r="C365">
-        <v>138.31366499999999</v>
+        <v>137.49248</v>
       </c>
       <c r="D365" s="2">
         <v>46001</v>
       </c>
+      <c r="H365">
+        <v>28</v>
+      </c>
       <c r="I365">
         <v>0</v>
       </c>
+      <c r="J365">
+        <v>56</v>
+      </c>
       <c r="K365">
-        <v>111</v>
+        <v>333</v>
+      </c>
+      <c r="L365">
+        <v>28</v>
+      </c>
+      <c r="N365">
+        <v>28</v>
+      </c>
+      <c r="O365">
+        <v>472</v>
       </c>
       <c r="P365" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
     </row>
     <row r="366" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B366">
-        <v>-35.558100000000003</v>
+        <v>-34.377982000000003</v>
       </c>
       <c r="C366">
-        <v>138.67920000000001</v>
+        <v>137.47515899999999</v>
       </c>
       <c r="D366" s="2">
         <v>46001</v>
       </c>
+      <c r="G366">
+        <v>167</v>
+      </c>
+      <c r="H366">
+        <v>222</v>
+      </c>
       <c r="I366">
         <v>0</v>
       </c>
       <c r="K366">
-        <v>167</v>
+        <v>333</v>
+      </c>
+      <c r="L366">
+        <v>111</v>
+      </c>
+      <c r="N366">
+        <v>333</v>
+      </c>
+      <c r="O366">
+        <v>1167</v>
       </c>
       <c r="P366" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
     </row>
     <row r="367" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="B367">
-        <v>-35.084850000000003</v>
+        <v>-35.515507999999997</v>
       </c>
       <c r="C367">
-        <v>137.74889999999999</v>
+        <v>138.729004</v>
       </c>
       <c r="D367" s="2">
         <v>46001</v>
       </c>
-      <c r="E367">
-        <v>0</v>
-      </c>
-      <c r="F367">
-        <v>0</v>
-      </c>
-      <c r="G367">
-        <v>0</v>
-      </c>
-      <c r="H367">
-        <v>28</v>
-      </c>
       <c r="I367">
         <v>0</v>
       </c>
-      <c r="J367">
-        <v>0</v>
-      </c>
       <c r="K367">
-        <v>84</v>
-      </c>
-      <c r="M367">
-        <v>556</v>
-      </c>
-      <c r="O367">
-        <v>668</v>
+        <v>222</v>
       </c>
       <c r="P367" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
     </row>
     <row r="368" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="B368">
-        <v>-35.093015000000001</v>
+        <v>-35.538469999999997</v>
       </c>
       <c r="C368">
-        <v>137.74703600000001</v>
+        <v>138.649779</v>
       </c>
       <c r="D368" s="2">
         <v>46001</v>
       </c>
-      <c r="H368">
-        <v>167</v>
-      </c>
       <c r="I368">
         <v>0</v>
       </c>
       <c r="K368">
-        <v>611</v>
-      </c>
-      <c r="M368">
-        <v>1333</v>
-      </c>
-      <c r="N368">
-        <v>333</v>
-      </c>
-      <c r="O368">
-        <v>2444</v>
+        <v>0</v>
       </c>
       <c r="P368" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
     </row>
     <row r="369" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B369">
-        <v>-34.804169999999999</v>
+        <v>-35.536168000000004</v>
       </c>
       <c r="C369">
-        <v>138.53970000000001</v>
+        <v>138.677615</v>
       </c>
       <c r="D369" s="2">
-        <v>46003</v>
-      </c>
-      <c r="E369">
-        <v>0</v>
-      </c>
-      <c r="G369">
-        <v>0</v>
-      </c>
-      <c r="H369">
-        <v>0.4</v>
+        <v>46001</v>
       </c>
       <c r="I369">
         <v>0</v>
       </c>
       <c r="K369">
-        <v>2.5</v>
-      </c>
-      <c r="L369">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N369">
-        <v>1.3</v>
-      </c>
-      <c r="O369">
-        <v>4.2050000000000001</v>
+        <v>111</v>
       </c>
       <c r="P369" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
     </row>
     <row r="370" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>238</v>
+        <v>92</v>
       </c>
       <c r="B370">
-        <v>-34.940480000000001</v>
+        <v>-35.634602000000001</v>
       </c>
       <c r="C370">
-        <v>138.49844100000001</v>
+        <v>138.49898300000001</v>
       </c>
       <c r="D370" s="2">
-        <v>46003</v>
-      </c>
-      <c r="E370">
-        <v>0</v>
-      </c>
-      <c r="F370">
-        <v>0</v>
-      </c>
-      <c r="G370">
-        <v>0</v>
-      </c>
-      <c r="H370">
-        <v>10.5</v>
+        <v>46001</v>
       </c>
       <c r="I370">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K370">
-        <v>16.8</v>
-      </c>
-      <c r="L370">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="N370">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="O370">
-        <v>32.407499999999999</v>
+        <v>222</v>
       </c>
       <c r="P370" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
     </row>
     <row r="371" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="B371">
-        <v>-34.873939999999997</v>
+        <v>-35.638637000000003</v>
       </c>
       <c r="C371">
-        <v>138.48820000000001</v>
+        <v>138.31366499999999</v>
       </c>
       <c r="D371" s="2">
-        <v>46003</v>
-      </c>
-      <c r="H371">
-        <v>5</v>
+        <v>46001</v>
       </c>
       <c r="I371">
         <v>0</v>
       </c>
       <c r="K371">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="N371">
-        <v>0.7</v>
-      </c>
-      <c r="O371">
-        <v>6.375</v>
+        <v>111</v>
       </c>
       <c r="P371" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
     </row>
     <row r="372" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B372">
-        <v>-35.081918000000002</v>
+        <v>-35.558100000000003</v>
       </c>
       <c r="C372">
-        <v>137.74822499999999</v>
+        <v>138.67920000000001</v>
       </c>
       <c r="D372" s="2">
-        <v>46003</v>
-      </c>
-      <c r="H372">
-        <v>389</v>
+        <v>46001</v>
       </c>
       <c r="I372">
         <v>0</v>
       </c>
       <c r="K372">
-        <v>56</v>
-      </c>
-      <c r="M372">
-        <v>1611</v>
-      </c>
-      <c r="N372">
-        <v>334</v>
-      </c>
-      <c r="O372">
-        <v>2389</v>
+        <v>167</v>
       </c>
       <c r="P372" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
     </row>
     <row r="373" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>233</v>
+        <v>59</v>
       </c>
       <c r="B373">
-        <v>-35.054707999999998</v>
+        <v>-35.084850000000003</v>
       </c>
       <c r="C373">
-        <v>137.725145</v>
+        <v>137.74889999999999</v>
       </c>
       <c r="D373" s="2">
-        <v>46003</v>
+        <v>46001</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
       </c>
       <c r="H373">
-        <v>203847</v>
+        <v>28</v>
       </c>
       <c r="I373">
         <v>0</v>
       </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
       <c r="K373">
-        <v>1111</v>
-      </c>
-      <c r="N373">
-        <v>1111</v>
+        <v>84</v>
+      </c>
+      <c r="M373">
+        <v>556</v>
       </c>
       <c r="O373">
-        <v>205403</v>
+        <v>668</v>
       </c>
       <c r="P373" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
     </row>
     <row r="374" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A374" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B374" s="10">
-        <v>-35.586970000000001</v>
-      </c>
-      <c r="C374" s="10">
-        <v>137.5438748</v>
+      <c r="A374" t="s">
+        <v>230</v>
+      </c>
+      <c r="B374">
+        <v>-35.093015000000001</v>
+      </c>
+      <c r="C374">
+        <v>137.74703600000001</v>
       </c>
       <c r="D374" s="2">
-        <v>46004</v>
-      </c>
-      <c r="E374" s="10">
-        <v>0</v>
-      </c>
-      <c r="F374" s="10">
-        <v>0</v>
-      </c>
-      <c r="G374" s="10">
-        <v>0</v>
-      </c>
-      <c r="H374" s="10">
-        <v>94</v>
-      </c>
-      <c r="I374" s="10">
-        <v>94</v>
-      </c>
-      <c r="J374" s="10">
-        <v>0</v>
-      </c>
-      <c r="K374" s="10">
-        <v>0</v>
-      </c>
-      <c r="L374" s="10">
-        <v>0</v>
-      </c>
-      <c r="M374" s="10">
-        <v>0</v>
-      </c>
-      <c r="N374" s="10">
-        <v>1991</v>
-      </c>
-      <c r="O374" s="10">
-        <v>2085</v>
-      </c>
-      <c r="P374" s="10" t="s">
-        <v>151</v>
+        <v>46001</v>
+      </c>
+      <c r="H374">
+        <v>167</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>611</v>
+      </c>
+      <c r="M374">
+        <v>1333</v>
+      </c>
+      <c r="N374">
+        <v>333</v>
+      </c>
+      <c r="O374">
+        <v>2444</v>
+      </c>
+      <c r="P374" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="375" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A375" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B375" s="10">
-        <v>-35.586869999999998</v>
-      </c>
-      <c r="C375" s="10">
-        <v>137.5438748</v>
+      <c r="A375" t="s">
+        <v>100</v>
+      </c>
+      <c r="B375">
+        <v>-35.536745000000003</v>
+      </c>
+      <c r="C375">
+        <v>138.6913744</v>
       </c>
       <c r="D375" s="2">
-        <v>46004</v>
-      </c>
-      <c r="E375" s="10">
-        <v>0</v>
-      </c>
-      <c r="F375" s="10">
-        <v>0</v>
-      </c>
-      <c r="G375" s="10">
-        <v>0</v>
-      </c>
-      <c r="H375" s="10">
-        <v>113</v>
-      </c>
-      <c r="I375" s="10">
-        <v>113</v>
-      </c>
-      <c r="J375" s="10">
-        <v>0</v>
-      </c>
-      <c r="K375" s="10">
-        <v>0</v>
-      </c>
-      <c r="L375" s="10">
-        <v>0</v>
-      </c>
-      <c r="M375" s="10">
-        <v>0</v>
-      </c>
-      <c r="N375" s="10">
-        <v>2398</v>
-      </c>
-      <c r="O375" s="10">
-        <v>2511</v>
-      </c>
-      <c r="P375" s="10" t="s">
-        <v>151</v>
+        <v>46001</v>
+      </c>
+      <c r="F375">
+        <v>389</v>
+      </c>
+      <c r="G375">
+        <v>111</v>
+      </c>
+      <c r="H375">
+        <v>333</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>444</v>
+      </c>
+      <c r="M375">
+        <v>222</v>
+      </c>
+      <c r="N375">
+        <v>556</v>
+      </c>
+      <c r="O375">
+        <v>2055</v>
+      </c>
+      <c r="P375" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="376" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="B376">
-        <v>-35.115375999999998</v>
+        <v>-35.573300000000003</v>
       </c>
       <c r="C376">
-        <v>137.75711699999999</v>
+        <v>138.64250000000001</v>
       </c>
       <c r="D376" s="2">
-        <v>46005</v>
-      </c>
-      <c r="H376">
-        <v>1555</v>
+        <v>46001</v>
+      </c>
+      <c r="F376">
+        <v>56</v>
       </c>
       <c r="I376">
         <v>0</v>
       </c>
       <c r="K376">
-        <v>333</v>
+        <v>167</v>
       </c>
       <c r="M376">
-        <v>2000</v>
+        <v>389</v>
       </c>
       <c r="N376">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="O376">
-        <v>4444</v>
+        <v>1001</v>
       </c>
       <c r="P376" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="377" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>236</v>
+        <v>88</v>
       </c>
       <c r="B377">
-        <v>-35.465475320000003</v>
+        <v>-35.581124000000003</v>
       </c>
       <c r="C377">
-        <v>137.46179395999999</v>
+        <v>138.60879700000001</v>
       </c>
       <c r="D377" s="2">
-        <v>46005</v>
-      </c>
-      <c r="E377">
-        <v>0</v>
+        <v>46001</v>
       </c>
       <c r="F377">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G377">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H377">
-        <v>807</v>
+        <v>56</v>
       </c>
       <c r="I377">
         <v>0</v>
       </c>
-      <c r="J377">
-        <v>0</v>
-      </c>
       <c r="K377">
-        <v>15</v>
-      </c>
-      <c r="L377">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="M377">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="N377">
-        <v>15956</v>
+        <v>500</v>
       </c>
       <c r="O377">
-        <v>16778</v>
+        <v>1113</v>
       </c>
       <c r="P377" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="378" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="B378">
-        <v>-35.788755899999998</v>
+        <v>-35.6048446</v>
       </c>
       <c r="C378">
-        <v>137.78784780000001</v>
+        <v>138.59278499999999</v>
       </c>
       <c r="D378" s="2">
-        <v>46007</v>
-      </c>
-      <c r="E378">
-        <v>0</v>
-      </c>
-      <c r="F378">
-        <v>0</v>
-      </c>
-      <c r="G378">
-        <v>0</v>
+        <v>46001</v>
       </c>
       <c r="H378">
-        <v>4667</v>
+        <v>56</v>
       </c>
       <c r="I378">
-        <v>4667</v>
-      </c>
-      <c r="J378">
         <v>0</v>
       </c>
       <c r="K378">
-        <v>4</v>
-      </c>
-      <c r="L378">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="M378">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="N378">
-        <v>1</v>
+        <v>389</v>
       </c>
       <c r="O378">
-        <v>4672</v>
+        <v>1222</v>
       </c>
       <c r="P378" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="379" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>230</v>
+        <v>303</v>
       </c>
       <c r="B379">
-        <v>-35.784914800000003</v>
+        <v>-35.608333000000002</v>
       </c>
       <c r="C379">
-        <v>137.7809867</v>
+        <v>138.58750000000001</v>
       </c>
       <c r="D379" s="2">
-        <v>46007</v>
-      </c>
-      <c r="E379">
-        <v>0</v>
-      </c>
-      <c r="F379">
-        <v>0</v>
-      </c>
-      <c r="G379">
-        <v>0</v>
+        <v>46001</v>
       </c>
       <c r="H379">
-        <v>40111</v>
+        <v>56</v>
       </c>
       <c r="I379">
-        <v>40111</v>
-      </c>
-      <c r="J379">
         <v>0</v>
       </c>
       <c r="K379">
-        <v>222</v>
-      </c>
-      <c r="L379">
-        <v>0</v>
+        <v>1222</v>
       </c>
       <c r="M379">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N379">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="O379">
-        <v>40333</v>
+        <v>2445</v>
       </c>
       <c r="P379" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="380" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="B380">
-        <v>-35.054707999999998</v>
+        <v>-35.612285999999997</v>
       </c>
       <c r="C380">
-        <v>137.725145</v>
+        <v>138.564302</v>
       </c>
       <c r="D380" s="2">
-        <v>46007</v>
-      </c>
-      <c r="H380">
-        <v>369500</v>
+        <v>46001</v>
       </c>
       <c r="I380">
         <v>0</v>
       </c>
       <c r="K380">
-        <v>26500</v>
+        <v>222</v>
+      </c>
+      <c r="M380">
+        <v>167</v>
+      </c>
+      <c r="N380">
+        <v>222</v>
       </c>
       <c r="O380">
-        <v>396000</v>
+        <v>611</v>
       </c>
       <c r="P380" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="381" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>235</v>
+        <v>304</v>
       </c>
       <c r="B381">
-        <v>-35.082030000000003</v>
+        <v>-35.63158</v>
       </c>
       <c r="C381">
-        <v>137.7484</v>
+        <v>138.56762000000001</v>
       </c>
       <c r="D381" s="2">
-        <v>46008</v>
-      </c>
-      <c r="E381">
-        <v>0</v>
-      </c>
-      <c r="F381">
-        <v>0</v>
-      </c>
-      <c r="G381">
-        <v>7778</v>
+        <v>46001</v>
       </c>
       <c r="H381">
-        <v>555</v>
+        <v>56</v>
       </c>
       <c r="I381">
         <v>0</v>
       </c>
-      <c r="J381">
-        <v>0</v>
-      </c>
       <c r="K381">
-        <v>222</v>
-      </c>
-      <c r="L381">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="M381">
-        <v>2333</v>
+        <v>500</v>
       </c>
       <c r="N381">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="O381">
-        <v>10888</v>
+        <v>1445</v>
       </c>
       <c r="P381" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="382" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B382">
-        <v>-34.289369999999998</v>
+        <v>-35.61</v>
       </c>
       <c r="C382">
-        <v>138.01242999999999</v>
+        <v>138.5925</v>
       </c>
       <c r="D382" s="2">
-        <v>46008</v>
-      </c>
-      <c r="E382">
-        <v>0</v>
-      </c>
-      <c r="F382">
-        <v>0</v>
-      </c>
-      <c r="G382">
-        <v>278</v>
+        <v>46001</v>
       </c>
       <c r="H382">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="I382">
         <v>0</v>
       </c>
-      <c r="J382">
-        <v>0</v>
-      </c>
       <c r="K382">
-        <v>500</v>
-      </c>
-      <c r="L382">
-        <v>0</v>
+        <v>944</v>
       </c>
       <c r="M382">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="N382">
-        <v>0</v>
+        <v>944</v>
       </c>
       <c r="O382">
-        <v>1000</v>
+        <v>2388</v>
       </c>
       <c r="P382" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="383" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="B383">
-        <v>-35.788755899999998</v>
+        <v>-34.804169999999999</v>
       </c>
       <c r="C383">
-        <v>137.78784780000001</v>
+        <v>138.53970000000001</v>
       </c>
       <c r="D383" s="2">
-        <v>46010</v>
+        <v>46003</v>
       </c>
       <c r="E383">
-        <v>111</v>
-      </c>
-      <c r="F383">
         <v>0</v>
       </c>
       <c r="G383">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="H383">
-        <v>8111</v>
+        <v>0.4</v>
       </c>
       <c r="I383">
         <v>0</v>
       </c>
-      <c r="J383">
-        <v>111</v>
-      </c>
       <c r="K383">
-        <v>111</v>
+        <v>2.5</v>
       </c>
       <c r="L383">
-        <v>0</v>
-      </c>
-      <c r="M383">
-        <v>333</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N383">
-        <v>111</v>
+        <v>1.3</v>
       </c>
       <c r="O383">
-        <v>9776</v>
+        <v>4.2050000000000001</v>
       </c>
       <c r="P383" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
     </row>
     <row r="384" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B384">
-        <v>-35.054707999999998</v>
+        <v>-34.940480000000001</v>
       </c>
       <c r="C384">
-        <v>137.725145</v>
+        <v>138.49844100000001</v>
       </c>
       <c r="D384" s="2">
-        <v>46010</v>
+        <v>46003</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
       </c>
       <c r="H384">
-        <v>147333</v>
+        <v>10.5</v>
       </c>
       <c r="I384">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K384">
-        <v>1667</v>
+        <v>16.8</v>
+      </c>
+      <c r="L384">
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="N384">
-        <v>1500</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="O384">
-        <v>150500</v>
+        <v>32.407499999999999</v>
       </c>
       <c r="P384" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
     </row>
     <row r="385" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>232</v>
+        <v>85</v>
       </c>
       <c r="B385">
-        <v>-35.081918000000002</v>
+        <v>-34.873939999999997</v>
       </c>
       <c r="C385">
-        <v>137.74822499999999</v>
+        <v>138.48820000000001</v>
       </c>
       <c r="D385" s="2">
-        <v>46010</v>
+        <v>46003</v>
       </c>
       <c r="H385">
-        <v>1556</v>
+        <v>5</v>
       </c>
       <c r="I385">
         <v>0</v>
       </c>
       <c r="K385">
-        <v>500</v>
-      </c>
-      <c r="M385">
-        <v>1389</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="N385">
-        <v>333</v>
+        <v>0.7</v>
       </c>
       <c r="O385">
-        <v>3778</v>
+        <v>6.375</v>
       </c>
       <c r="P385" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
     </row>
     <row r="386" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="B386">
-        <v>-34.804169999999999</v>
+        <v>-35.081918000000002</v>
       </c>
       <c r="C386">
-        <v>138.53970000000001</v>
+        <v>137.74822499999999</v>
       </c>
       <c r="D386" s="2">
-        <v>46011</v>
-      </c>
-      <c r="E386">
-        <v>0</v>
-      </c>
-      <c r="F386">
-        <v>2.75E-2</v>
-      </c>
-      <c r="G386">
-        <v>5.0000000000000001E-3</v>
+        <v>46003</v>
       </c>
       <c r="H386">
-        <v>0.22</v>
+        <v>389</v>
       </c>
       <c r="I386">
         <v>0</v>
       </c>
       <c r="K386">
-        <v>1.2829999999999999</v>
-      </c>
-      <c r="L386">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="M386">
-        <v>0</v>
+        <v>1611</v>
       </c>
       <c r="N386">
-        <v>1.393</v>
+        <v>334</v>
       </c>
       <c r="O386">
-        <v>2.9284999999999997</v>
+        <v>2389</v>
       </c>
       <c r="P386" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
     </row>
     <row r="387" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B387">
-        <v>-34.824044999999998</v>
+        <v>-35.054707999999998</v>
       </c>
       <c r="C387">
-        <v>138.48377600000001</v>
+        <v>137.725145</v>
       </c>
       <c r="D387" s="2">
-        <v>46011</v>
-      </c>
-      <c r="E387">
-        <v>0</v>
-      </c>
-      <c r="F387">
-        <v>0.8</v>
-      </c>
-      <c r="G387">
-        <v>0</v>
+        <v>46003</v>
       </c>
       <c r="H387">
-        <v>9</v>
+        <v>203847</v>
       </c>
       <c r="I387">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K387">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="L387">
-        <v>0</v>
-      </c>
-      <c r="M387">
-        <v>0.5</v>
+        <v>1111</v>
       </c>
       <c r="N387">
-        <v>0.2</v>
+        <v>1111</v>
       </c>
       <c r="O387">
-        <v>18.7</v>
+        <v>205403</v>
       </c>
       <c r="P387" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
     </row>
     <row r="388" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
-        <v>209</v>
-      </c>
-      <c r="B388">
-        <v>-35.788755899999998</v>
-      </c>
-      <c r="C388">
-        <v>137.78784780000001</v>
+      <c r="A388" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B388" s="10">
+        <v>-35.586970000000001</v>
+      </c>
+      <c r="C388" s="10">
+        <v>137.5438748</v>
       </c>
       <c r="D388" s="2">
-        <v>46011</v>
-      </c>
-      <c r="E388">
-        <v>111</v>
-      </c>
-      <c r="F388">
-        <v>1222</v>
-      </c>
-      <c r="G388">
-        <v>0</v>
-      </c>
-      <c r="H388">
-        <v>34444</v>
-      </c>
-      <c r="I388">
-        <v>0</v>
-      </c>
-      <c r="J388">
-        <v>2222</v>
-      </c>
-      <c r="K388">
-        <v>333</v>
-      </c>
-      <c r="L388">
-        <v>0</v>
-      </c>
-      <c r="M388">
-        <v>2000</v>
-      </c>
-      <c r="N388">
-        <v>223</v>
-      </c>
-      <c r="O388">
-        <v>40555</v>
-      </c>
-      <c r="P388" t="s">
+        <v>46004</v>
+      </c>
+      <c r="E388" s="10">
+        <v>0</v>
+      </c>
+      <c r="F388" s="10">
+        <v>0</v>
+      </c>
+      <c r="G388" s="10">
+        <v>0</v>
+      </c>
+      <c r="H388" s="10">
+        <v>94</v>
+      </c>
+      <c r="I388" s="10">
+        <v>94</v>
+      </c>
+      <c r="J388" s="10">
+        <v>0</v>
+      </c>
+      <c r="K388" s="10">
+        <v>0</v>
+      </c>
+      <c r="L388" s="10">
+        <v>0</v>
+      </c>
+      <c r="M388" s="10">
+        <v>0</v>
+      </c>
+      <c r="N388" s="10">
+        <v>1991</v>
+      </c>
+      <c r="O388" s="10">
+        <v>2085</v>
+      </c>
+      <c r="P388" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="389" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
-        <v>210</v>
-      </c>
-      <c r="B389">
-        <v>-35.671777499999997</v>
-      </c>
-      <c r="C389">
-        <v>137.6137956</v>
+      <c r="A389" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B389" s="10">
+        <v>-35.586869999999998</v>
+      </c>
+      <c r="C389" s="10">
+        <v>137.5438748</v>
       </c>
       <c r="D389" s="2">
-        <v>46013</v>
-      </c>
-      <c r="E389">
-        <v>222</v>
-      </c>
-      <c r="F389">
-        <v>1222</v>
-      </c>
-      <c r="G389">
-        <v>0</v>
-      </c>
-      <c r="H389">
-        <v>1778</v>
-      </c>
-      <c r="I389">
-        <v>0</v>
-      </c>
-      <c r="J389">
-        <v>222</v>
-      </c>
-      <c r="K389">
-        <v>6111</v>
-      </c>
-      <c r="L389">
-        <v>666</v>
-      </c>
-      <c r="M389">
-        <v>6889</v>
-      </c>
-      <c r="N389">
-        <v>0</v>
-      </c>
-      <c r="O389">
-        <v>17110</v>
-      </c>
-      <c r="P389" t="s">
+        <v>46004</v>
+      </c>
+      <c r="E389" s="10">
+        <v>0</v>
+      </c>
+      <c r="F389" s="10">
+        <v>0</v>
+      </c>
+      <c r="G389" s="10">
+        <v>0</v>
+      </c>
+      <c r="H389" s="10">
+        <v>113</v>
+      </c>
+      <c r="I389" s="10">
+        <v>113</v>
+      </c>
+      <c r="J389" s="10">
+        <v>0</v>
+      </c>
+      <c r="K389" s="10">
+        <v>0</v>
+      </c>
+      <c r="L389" s="10">
+        <v>0</v>
+      </c>
+      <c r="M389" s="10">
+        <v>0</v>
+      </c>
+      <c r="N389" s="10">
+        <v>2398</v>
+      </c>
+      <c r="O389" s="10">
+        <v>2511</v>
+      </c>
+      <c r="P389" s="10" t="s">
         <v>151</v>
       </c>
     </row>
@@ -15223,48 +15160,48 @@
         <v>233</v>
       </c>
       <c r="B390">
-        <v>-35.054707999999998</v>
+        <v>-35.115375999999998</v>
       </c>
       <c r="C390">
-        <v>137.725145</v>
+        <v>137.75711699999999</v>
       </c>
       <c r="D390" s="2">
-        <v>46017</v>
+        <v>46005</v>
       </c>
       <c r="H390">
-        <v>57250</v>
+        <v>1555</v>
       </c>
       <c r="I390">
         <v>0</v>
       </c>
       <c r="K390">
-        <v>21500</v>
+        <v>333</v>
       </c>
       <c r="M390">
-        <v>7250</v>
+        <v>2000</v>
       </c>
       <c r="N390">
-        <v>2000</v>
+        <v>556</v>
       </c>
       <c r="O390">
-        <v>88000</v>
+        <v>4444</v>
       </c>
       <c r="P390" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="391" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="B391">
-        <v>-35.793615000000003</v>
+        <v>-35.465475320000003</v>
       </c>
       <c r="C391">
-        <v>137.85449840000001</v>
+        <v>137.46179395999999</v>
       </c>
       <c r="D391" s="2">
-        <v>46017</v>
+        <v>46005</v>
       </c>
       <c r="E391">
         <v>0</v>
@@ -15276,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="H391">
-        <v>2222</v>
+        <v>807</v>
       </c>
       <c r="I391">
         <v>0</v>
@@ -15285,19 +15222,19 @@
         <v>0</v>
       </c>
       <c r="K391">
-        <v>1111</v>
+        <v>15</v>
       </c>
       <c r="L391">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="M391">
-        <v>2222</v>
+        <v>0</v>
       </c>
       <c r="N391">
-        <v>0</v>
+        <v>15956</v>
       </c>
       <c r="O391">
-        <v>8444</v>
+        <v>16778</v>
       </c>
       <c r="P391" t="s">
         <v>151</v>
@@ -15305,394 +15242,577 @@
     </row>
     <row r="392" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="B392">
-        <v>-35.654400000000003</v>
+        <v>-35.788755899999998</v>
       </c>
       <c r="C392">
-        <v>138.15520000000001</v>
+        <v>137.78784780000001</v>
       </c>
       <c r="D392" s="2">
-        <v>46017</v>
+        <v>46007</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+      <c r="H392">
+        <v>4667</v>
       </c>
       <c r="I392">
-        <v>0</v>
+        <v>4667</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>4</v>
+      </c>
+      <c r="L392">
+        <v>0</v>
+      </c>
+      <c r="M392">
+        <v>0</v>
+      </c>
+      <c r="N392">
+        <v>1</v>
+      </c>
+      <c r="O392">
+        <v>4672</v>
       </c>
       <c r="P392" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="393" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B393">
-        <v>-35.371586999999998</v>
+        <v>-35.784914800000003</v>
       </c>
       <c r="C393">
-        <v>138.387067</v>
+        <v>137.7809867</v>
       </c>
       <c r="D393" s="2">
-        <v>46018</v>
+        <v>46007</v>
       </c>
       <c r="E393">
         <v>0</v>
       </c>
       <c r="F393">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G393">
         <v>0</v>
       </c>
       <c r="H393">
-        <v>2.4300000000000002</v>
+        <v>40111</v>
       </c>
       <c r="I393">
-        <v>0.03</v>
+        <v>40111</v>
       </c>
       <c r="J393">
         <v>0</v>
       </c>
       <c r="K393">
-        <v>1.53</v>
+        <v>222</v>
       </c>
       <c r="L393">
         <v>0</v>
       </c>
       <c r="M393">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N393">
         <v>0</v>
       </c>
       <c r="O393">
-        <v>4.05</v>
+        <v>40333</v>
       </c>
       <c r="P393" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
     </row>
     <row r="394" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B394">
-        <v>-35.017930999999997</v>
+        <v>-35.054707999999998</v>
       </c>
       <c r="C394">
-        <v>138.51365200000001</v>
+        <v>137.725145</v>
       </c>
       <c r="D394" s="2">
-        <v>46018</v>
-      </c>
-      <c r="E394">
-        <v>0</v>
-      </c>
-      <c r="F394">
-        <v>0</v>
-      </c>
-      <c r="G394">
-        <v>0</v>
+        <v>46007</v>
       </c>
       <c r="H394">
-        <v>3.7</v>
+        <v>369500</v>
       </c>
       <c r="I394">
-        <v>0.1</v>
-      </c>
-      <c r="J394">
         <v>0</v>
       </c>
       <c r="K394">
-        <v>11.7</v>
-      </c>
-      <c r="L394">
-        <v>0</v>
-      </c>
-      <c r="M394">
-        <v>0</v>
-      </c>
-      <c r="N394">
-        <v>0</v>
+        <v>26500</v>
       </c>
       <c r="O394">
-        <v>15.4</v>
+        <v>396000</v>
       </c>
       <c r="P394" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
     </row>
     <row r="395" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="B395">
-        <v>-33.677014</v>
+        <v>-35.082030000000003</v>
       </c>
       <c r="C395">
-        <v>136.940879</v>
+        <v>137.7484</v>
       </c>
       <c r="D395" s="2">
-        <v>46018</v>
+        <v>46008</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395">
+        <v>0</v>
+      </c>
+      <c r="G395">
+        <v>7778</v>
       </c>
       <c r="H395">
-        <v>667</v>
+        <v>555</v>
       </c>
       <c r="I395">
         <v>0</v>
       </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
       <c r="K395">
-        <v>1778</v>
+        <v>222</v>
+      </c>
+      <c r="L395">
+        <v>0</v>
+      </c>
+      <c r="M395">
+        <v>2333</v>
       </c>
       <c r="N395">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="O395">
-        <v>2556</v>
+        <v>10888</v>
       </c>
       <c r="P395" t="s">
-        <v>291</v>
+        <v>149</v>
       </c>
     </row>
     <row r="396" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="B396">
-        <v>-35.032207</v>
+        <v>-34.289369999999998</v>
       </c>
       <c r="C396">
-        <v>138.51583500000001</v>
+        <v>138.01242999999999</v>
       </c>
       <c r="D396" s="2">
-        <v>46019</v>
+        <v>46008</v>
       </c>
       <c r="E396">
         <v>0</v>
       </c>
       <c r="F396">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G396">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="H396">
-        <v>3.15</v>
+        <v>222</v>
       </c>
       <c r="I396">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J396">
         <v>0</v>
       </c>
       <c r="K396">
-        <v>3.24</v>
+        <v>500</v>
       </c>
       <c r="L396">
         <v>0</v>
       </c>
       <c r="M396">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N396">
         <v>0</v>
       </c>
       <c r="O396">
-        <v>36.51</v>
+        <v>1000</v>
       </c>
       <c r="P396" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="397" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="B397">
-        <v>-34.765895999999998</v>
+        <v>-35.788755899999998</v>
       </c>
       <c r="C397">
-        <v>137.86211299999999</v>
+        <v>137.78784780000001</v>
       </c>
       <c r="D397" s="2">
-        <v>46019</v>
+        <v>46010</v>
+      </c>
+      <c r="E397">
+        <v>111</v>
+      </c>
+      <c r="F397">
+        <v>0</v>
+      </c>
+      <c r="G397">
+        <v>888</v>
       </c>
       <c r="H397">
-        <v>444</v>
+        <v>8111</v>
       </c>
       <c r="I397">
         <v>0</v>
       </c>
+      <c r="J397">
+        <v>111</v>
+      </c>
       <c r="K397">
-        <v>444</v>
+        <v>111</v>
+      </c>
+      <c r="L397">
+        <v>0</v>
       </c>
       <c r="M397">
-        <v>1889</v>
+        <v>333</v>
       </c>
       <c r="N397">
-        <v>944</v>
+        <v>111</v>
       </c>
       <c r="O397">
-        <v>3277</v>
+        <v>9776</v>
       </c>
       <c r="P397" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
     </row>
     <row r="398" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="B398">
-        <v>-34.765996000000001</v>
+        <v>-35.054707999999998</v>
       </c>
       <c r="C398">
-        <v>137.86211299999999</v>
+        <v>137.725145</v>
       </c>
       <c r="D398" s="2">
-        <v>46019</v>
+        <v>46010</v>
       </c>
       <c r="H398">
-        <v>333</v>
+        <v>147333</v>
       </c>
       <c r="I398">
         <v>0</v>
       </c>
       <c r="K398">
-        <v>278</v>
-      </c>
-      <c r="M398">
-        <v>1611</v>
+        <v>1667</v>
       </c>
       <c r="N398">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="O398">
-        <v>3222</v>
+        <v>150500</v>
       </c>
       <c r="P398" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="399" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="B399">
-        <v>-35.515507999999997</v>
+        <v>-35.081918000000002</v>
       </c>
       <c r="C399">
-        <v>138.729004</v>
+        <v>137.74822499999999</v>
       </c>
       <c r="D399" s="2">
-        <v>46020</v>
+        <v>46010</v>
+      </c>
+      <c r="H399">
+        <v>1556</v>
       </c>
       <c r="I399">
         <v>0</v>
       </c>
+      <c r="K399">
+        <v>500</v>
+      </c>
+      <c r="M399">
+        <v>1389</v>
+      </c>
+      <c r="N399">
+        <v>333</v>
+      </c>
+      <c r="O399">
+        <v>3778</v>
+      </c>
       <c r="P399" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
     </row>
     <row r="400" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="B400">
-        <v>-35.538469999999997</v>
+        <v>-34.804169999999999</v>
       </c>
       <c r="C400">
-        <v>138.649779</v>
+        <v>138.53970000000001</v>
       </c>
       <c r="D400" s="2">
-        <v>46020</v>
+        <v>46011</v>
+      </c>
+      <c r="E400">
+        <v>0</v>
+      </c>
+      <c r="F400">
+        <v>2.75E-2</v>
+      </c>
+      <c r="G400">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H400">
+        <v>0.22</v>
       </c>
       <c r="I400">
         <v>0</v>
       </c>
+      <c r="K400">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="L400">
+        <v>0</v>
+      </c>
+      <c r="M400">
+        <v>0</v>
+      </c>
+      <c r="N400">
+        <v>1.393</v>
+      </c>
+      <c r="O400">
+        <v>2.9284999999999997</v>
+      </c>
       <c r="P400" t="s">
-        <v>187</v>
+        <v>78</v>
       </c>
     </row>
     <row r="401" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>91</v>
+        <v>237</v>
       </c>
       <c r="B401">
-        <v>-35.536168000000004</v>
+        <v>-34.824044999999998</v>
       </c>
       <c r="C401">
-        <v>138.677615</v>
+        <v>138.48377600000001</v>
       </c>
       <c r="D401" s="2">
-        <v>46020</v>
+        <v>46011</v>
+      </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="F401">
+        <v>0.8</v>
+      </c>
+      <c r="G401">
+        <v>0</v>
+      </c>
+      <c r="H401">
+        <v>9</v>
       </c>
       <c r="I401">
-        <v>0</v>
+        <v>0.6</v>
+      </c>
+      <c r="K401">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L401">
+        <v>0</v>
+      </c>
+      <c r="M401">
+        <v>0.5</v>
+      </c>
+      <c r="N401">
+        <v>0.2</v>
+      </c>
+      <c r="O401">
+        <v>18.7</v>
       </c>
       <c r="P401" t="s">
-        <v>187</v>
+        <v>78</v>
       </c>
     </row>
     <row r="402" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B402">
-        <v>-35.592393000000001</v>
+        <v>-35.788755899999998</v>
       </c>
       <c r="C402">
-        <v>138.599706</v>
+        <v>137.78784780000001</v>
       </c>
       <c r="D402" s="2">
-        <v>46020</v>
+        <v>46011</v>
+      </c>
+      <c r="E402">
+        <v>111</v>
+      </c>
+      <c r="F402">
+        <v>1222</v>
+      </c>
+      <c r="G402">
+        <v>0</v>
+      </c>
+      <c r="H402">
+        <v>34444</v>
       </c>
       <c r="I402">
         <v>0</v>
       </c>
+      <c r="J402">
+        <v>2222</v>
+      </c>
+      <c r="K402">
+        <v>333</v>
+      </c>
+      <c r="L402">
+        <v>0</v>
+      </c>
+      <c r="M402">
+        <v>2000</v>
+      </c>
+      <c r="N402">
+        <v>223</v>
+      </c>
+      <c r="O402">
+        <v>40555</v>
+      </c>
       <c r="P402" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="403" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="B403">
-        <v>-35.634602000000001</v>
+        <v>-35.671777499999997</v>
       </c>
       <c r="C403">
-        <v>138.49898300000001</v>
+        <v>137.6137956</v>
       </c>
       <c r="D403" s="2">
-        <v>46020</v>
+        <v>46013</v>
+      </c>
+      <c r="E403">
+        <v>222</v>
+      </c>
+      <c r="F403">
+        <v>1222</v>
+      </c>
+      <c r="G403">
+        <v>0</v>
+      </c>
+      <c r="H403">
+        <v>1778</v>
       </c>
       <c r="I403">
         <v>0</v>
       </c>
+      <c r="J403">
+        <v>222</v>
+      </c>
+      <c r="K403">
+        <v>6111</v>
+      </c>
+      <c r="L403">
+        <v>666</v>
+      </c>
+      <c r="M403">
+        <v>6889</v>
+      </c>
+      <c r="N403">
+        <v>0</v>
+      </c>
+      <c r="O403">
+        <v>17110</v>
+      </c>
       <c r="P403" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="404" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B404">
-        <v>-35.558100000000003</v>
+        <v>-35.054707999999998</v>
       </c>
       <c r="C404">
-        <v>138.67920000000001</v>
+        <v>137.725145</v>
       </c>
       <c r="D404" s="2">
-        <v>46020</v>
+        <v>46017</v>
+      </c>
+      <c r="H404">
+        <v>57250</v>
       </c>
       <c r="I404">
         <v>0</v>
       </c>
+      <c r="K404">
+        <v>21500</v>
+      </c>
+      <c r="M404">
+        <v>7250</v>
+      </c>
+      <c r="N404">
+        <v>2000</v>
+      </c>
+      <c r="O404">
+        <v>88000</v>
+      </c>
       <c r="P404" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
     </row>
     <row r="405" spans="1:16" x14ac:dyDescent="0.3">
@@ -15706,19 +15826,19 @@
         <v>137.85449840000001</v>
       </c>
       <c r="D405" s="2">
-        <v>46020</v>
+        <v>46017</v>
       </c>
       <c r="E405">
         <v>0</v>
       </c>
       <c r="F405">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="G405">
         <v>0</v>
       </c>
       <c r="H405">
-        <v>6000</v>
+        <v>2222</v>
       </c>
       <c r="I405">
         <v>0</v>
@@ -15727,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="K405">
-        <v>2667</v>
+        <v>1111</v>
       </c>
       <c r="L405">
         <v>222</v>
@@ -15739,7 +15859,7 @@
         <v>0</v>
       </c>
       <c r="O405">
-        <v>11778</v>
+        <v>8444</v>
       </c>
       <c r="P405" t="s">
         <v>151</v>
@@ -15747,99 +15867,69 @@
     </row>
     <row r="406" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B406">
-        <v>-34.824044999999998</v>
+        <v>-35.654400000000003</v>
       </c>
       <c r="C406">
-        <v>138.48377600000001</v>
+        <v>138.15520000000001</v>
       </c>
       <c r="D406" s="2">
-        <v>46021</v>
-      </c>
-      <c r="E406">
-        <v>0</v>
-      </c>
-      <c r="F406">
-        <v>0.5</v>
-      </c>
-      <c r="G406">
-        <v>0</v>
-      </c>
-      <c r="H406">
-        <v>5</v>
+        <v>46017</v>
       </c>
       <c r="I406">
         <v>0</v>
       </c>
-      <c r="J406">
-        <v>0</v>
-      </c>
-      <c r="K406">
-        <v>27.3</v>
-      </c>
-      <c r="L406">
-        <v>1.9</v>
-      </c>
-      <c r="M406">
-        <v>0.3</v>
-      </c>
-      <c r="N406">
-        <v>0</v>
-      </c>
-      <c r="O406">
-        <v>35</v>
-      </c>
       <c r="P406" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
     </row>
     <row r="407" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="B407">
-        <v>-34.804662999999998</v>
+        <v>-35.371586999999998</v>
       </c>
       <c r="C407">
-        <v>138.540223</v>
+        <v>138.387067</v>
       </c>
       <c r="D407" s="2">
-        <v>46021</v>
+        <v>46018</v>
       </c>
       <c r="E407">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="F407">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="G407">
         <v>0</v>
       </c>
       <c r="H407">
-        <v>0.15</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="I407">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J407">
         <v>0</v>
       </c>
       <c r="K407">
-        <v>8.3249999999999993</v>
+        <v>1.53</v>
       </c>
       <c r="L407">
         <v>0</v>
       </c>
       <c r="M407">
-        <v>0.22500000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="N407">
-        <v>0.15</v>
-      </c>
-      <c r="O407" s="11">
-        <v>9.4499999999999993</v>
+        <v>0</v>
+      </c>
+      <c r="O407">
+        <v>4.05</v>
       </c>
       <c r="P407" t="s">
         <v>78</v>
@@ -15847,49 +15937,49 @@
     </row>
     <row r="408" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B408">
-        <v>-35.193919999999999</v>
+        <v>-35.017930999999997</v>
       </c>
       <c r="C408">
-        <v>138.469233</v>
+        <v>138.51365200000001</v>
       </c>
       <c r="D408" s="2">
-        <v>46021</v>
+        <v>46018</v>
       </c>
       <c r="E408">
         <v>0</v>
       </c>
       <c r="F408">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="G408">
         <v>0</v>
       </c>
       <c r="H408">
-        <v>1.65</v>
+        <v>3.7</v>
       </c>
       <c r="I408">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J408">
         <v>0</v>
       </c>
       <c r="K408">
-        <v>2.3250000000000002</v>
+        <v>11.7</v>
       </c>
       <c r="L408">
         <v>0</v>
       </c>
       <c r="M408">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N408">
         <v>0</v>
       </c>
-      <c r="O408" s="11">
-        <v>4.2</v>
+      <c r="O408">
+        <v>15.4</v>
       </c>
       <c r="P408" t="s">
         <v>78</v>
@@ -15897,600 +15987,450 @@
     </row>
     <row r="409" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="B409">
-        <v>-35.308790000000002</v>
+        <v>-33.677014</v>
       </c>
       <c r="C409">
-        <v>138.44603499999999</v>
+        <v>136.940879</v>
       </c>
       <c r="D409" s="2">
-        <v>46023</v>
-      </c>
-      <c r="E409">
-        <v>0</v>
-      </c>
-      <c r="F409">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G409">
-        <v>0</v>
+        <v>46018</v>
       </c>
       <c r="H409">
-        <v>2.415</v>
+        <v>667</v>
       </c>
       <c r="I409">
         <v>0</v>
       </c>
-      <c r="J409">
-        <v>0</v>
-      </c>
       <c r="K409">
-        <v>5.6349999999999998</v>
-      </c>
-      <c r="L409">
-        <v>0</v>
-      </c>
-      <c r="M409">
-        <v>0</v>
+        <v>1778</v>
       </c>
       <c r="N409">
-        <v>0.105</v>
+        <v>111</v>
       </c>
       <c r="O409">
-        <v>8.1900000000000013</v>
+        <v>2556</v>
       </c>
       <c r="P409" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>240</v>
+      </c>
+      <c r="B410">
+        <v>-35.032207</v>
+      </c>
+      <c r="C410">
+        <v>138.51583500000001</v>
+      </c>
+      <c r="D410" s="2">
+        <v>46019</v>
+      </c>
+      <c r="E410">
+        <v>0</v>
+      </c>
+      <c r="F410">
+        <v>0.12</v>
+      </c>
+      <c r="G410">
+        <v>0</v>
+      </c>
+      <c r="H410">
+        <v>3.15</v>
+      </c>
+      <c r="I410">
+        <v>0.03</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>3.24</v>
+      </c>
+      <c r="L410">
+        <v>0</v>
+      </c>
+      <c r="M410">
+        <v>30</v>
+      </c>
+      <c r="N410">
+        <v>0</v>
+      </c>
+      <c r="O410">
+        <v>36.51</v>
+      </c>
+      <c r="P410" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A410" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B410" s="9">
-        <v>-35.787201000000003</v>
-      </c>
-      <c r="C410" s="10">
-        <v>137.77800909999999</v>
-      </c>
-      <c r="D410" s="2">
-        <v>46023</v>
-      </c>
-      <c r="E410" s="10">
-        <v>1111</v>
-      </c>
-      <c r="F410" s="10">
-        <v>0</v>
-      </c>
-      <c r="G410" s="10">
-        <v>0</v>
-      </c>
-      <c r="H410" s="10">
-        <v>12778</v>
-      </c>
-      <c r="I410" s="10">
-        <v>3</v>
-      </c>
-      <c r="J410" s="10">
-        <v>8</v>
-      </c>
-      <c r="K410" s="10">
-        <v>9444</v>
-      </c>
-      <c r="L410" s="10">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>276</v>
+      </c>
+      <c r="B411">
+        <v>-34.765895999999998</v>
+      </c>
+      <c r="C411">
+        <v>137.86211299999999</v>
+      </c>
+      <c r="D411" s="2">
+        <v>46019</v>
+      </c>
+      <c r="H411">
         <v>444</v>
       </c>
-      <c r="M410" s="10">
-        <v>9</v>
-      </c>
-      <c r="N410" s="10">
-        <v>888</v>
-      </c>
-      <c r="O410" s="10">
-        <v>24682</v>
-      </c>
-      <c r="P410" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A411" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="B411" s="12">
-        <v>-35.787233399999998</v>
-      </c>
-      <c r="C411" s="9">
-        <v>137.777816</v>
-      </c>
-      <c r="D411" s="2">
-        <v>46023</v>
-      </c>
-      <c r="E411" s="10">
-        <v>0</v>
-      </c>
-      <c r="F411" s="10">
-        <v>0</v>
-      </c>
-      <c r="G411" s="10">
-        <v>667</v>
-      </c>
-      <c r="H411" s="10">
-        <v>26667</v>
-      </c>
-      <c r="I411" s="10">
-        <v>0</v>
-      </c>
-      <c r="J411" s="10">
-        <v>0</v>
-      </c>
-      <c r="K411" s="10">
-        <v>15333</v>
-      </c>
-      <c r="L411" s="10">
+      <c r="I411">
+        <v>0</v>
+      </c>
+      <c r="K411">
         <v>444</v>
       </c>
-      <c r="M411" s="10">
-        <v>0</v>
-      </c>
-      <c r="N411" s="10">
-        <v>888</v>
-      </c>
-      <c r="O411" s="10">
-        <v>43999</v>
-      </c>
-      <c r="P411" s="10" t="s">
-        <v>151</v>
+      <c r="M411">
+        <v>1889</v>
+      </c>
+      <c r="N411">
+        <v>944</v>
+      </c>
+      <c r="O411">
+        <v>3277</v>
+      </c>
+      <c r="P411" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="412" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B412">
-        <v>-35.093021</v>
+        <v>-34.765996000000001</v>
       </c>
       <c r="C412">
-        <v>137.747083</v>
+        <v>137.86211299999999</v>
       </c>
       <c r="D412" s="2">
-        <v>46023</v>
+        <v>46019</v>
       </c>
       <c r="H412">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="I412">
         <v>0</v>
       </c>
       <c r="K412">
-        <v>1111</v>
+        <v>278</v>
       </c>
       <c r="M412">
-        <v>833</v>
+        <v>1611</v>
       </c>
       <c r="N412">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="O412">
-        <v>2889</v>
+        <v>3222</v>
       </c>
       <c r="P412" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="413" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>284</v>
+        <v>213</v>
       </c>
       <c r="B413">
-        <v>-35.115721999999998</v>
+        <v>-35.515507999999997</v>
       </c>
       <c r="C413">
-        <v>137.75626</v>
+        <v>138.729004</v>
       </c>
       <c r="D413" s="2">
-        <v>46023</v>
-      </c>
-      <c r="H413">
-        <v>278</v>
+        <v>46020</v>
       </c>
       <c r="I413">
         <v>0</v>
       </c>
-      <c r="K413">
-        <v>222</v>
-      </c>
-      <c r="M413">
-        <v>3444</v>
-      </c>
-      <c r="N413">
-        <v>778</v>
-      </c>
-      <c r="O413">
-        <v>4722</v>
-      </c>
       <c r="P413" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
     </row>
     <row r="414" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="B414">
-        <v>-35.427987000000002</v>
+        <v>-35.538469999999997</v>
       </c>
       <c r="C414">
-        <v>138.31909899999999</v>
+        <v>138.649779</v>
       </c>
       <c r="D414" s="2">
-        <v>46025</v>
-      </c>
-      <c r="E414">
-        <v>0</v>
-      </c>
-      <c r="F414">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G414">
-        <v>0</v>
-      </c>
-      <c r="H414">
-        <v>3</v>
+        <v>46020</v>
       </c>
       <c r="I414">
         <v>0</v>
       </c>
-      <c r="J414">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K414">
-        <v>3.3</v>
-      </c>
-      <c r="L414">
-        <v>0</v>
-      </c>
-      <c r="M414">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="N414">
-        <v>3.3</v>
-      </c>
-      <c r="O414" s="11">
-        <v>9.7029999999999994</v>
-      </c>
       <c r="P414" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
     </row>
     <row r="415" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B415">
-        <v>-35.632150000000003</v>
+        <v>-35.536168000000004</v>
       </c>
       <c r="C415">
-        <v>138.48335599999999</v>
+        <v>138.677615</v>
       </c>
       <c r="D415" s="2">
-        <v>46025</v>
-      </c>
-      <c r="E415">
-        <v>0</v>
-      </c>
-      <c r="F415">
-        <v>0.05</v>
-      </c>
-      <c r="G415">
-        <v>0</v>
-      </c>
-      <c r="H415">
-        <v>1.75</v>
+        <v>46020</v>
       </c>
       <c r="I415">
-        <v>0.05</v>
-      </c>
-      <c r="J415">
-        <v>0</v>
-      </c>
-      <c r="K415">
-        <v>3.4</v>
-      </c>
-      <c r="L415">
-        <v>0</v>
-      </c>
-      <c r="M415">
-        <v>0</v>
-      </c>
-      <c r="N415">
-        <v>0.45</v>
-      </c>
-      <c r="O415" s="11">
-        <v>5.65</v>
+        <v>0</v>
       </c>
       <c r="P415" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
     </row>
     <row r="416" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="B416">
-        <v>-34.860666999999999</v>
+        <v>-35.592393000000001</v>
       </c>
       <c r="C416">
-        <v>138.490938</v>
+        <v>138.599706</v>
       </c>
       <c r="D416" s="2">
-        <v>46025</v>
-      </c>
-      <c r="E416">
-        <v>0</v>
-      </c>
-      <c r="F416">
-        <v>0.15</v>
-      </c>
-      <c r="G416">
-        <v>0</v>
-      </c>
-      <c r="H416">
-        <v>5.25</v>
+        <v>46020</v>
       </c>
       <c r="I416">
-        <v>1.05</v>
-      </c>
-      <c r="J416">
-        <v>0</v>
-      </c>
-      <c r="K416">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="L416">
-        <v>0</v>
-      </c>
-      <c r="M416">
-        <v>0.75</v>
-      </c>
-      <c r="N416">
-        <v>1.2</v>
-      </c>
-      <c r="O416" s="11">
-        <v>80.250000000000014</v>
+        <v>0</v>
       </c>
       <c r="P416" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
     </row>
     <row r="417" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>246</v>
+        <v>92</v>
       </c>
       <c r="B417">
-        <v>-34.873964000000001</v>
+        <v>-35.634602000000001</v>
       </c>
       <c r="C417">
-        <v>138.488134</v>
+        <v>138.49898300000001</v>
       </c>
       <c r="D417" s="2">
-        <v>46025</v>
-      </c>
-      <c r="E417">
-        <v>0</v>
-      </c>
-      <c r="F417">
-        <v>0</v>
-      </c>
-      <c r="G417">
-        <v>0</v>
-      </c>
-      <c r="H417">
-        <v>80</v>
+        <v>46020</v>
       </c>
       <c r="I417">
-        <v>46.5</v>
-      </c>
-      <c r="J417">
-        <v>0</v>
-      </c>
-      <c r="K417">
-        <v>32</v>
-      </c>
-      <c r="L417">
-        <v>0</v>
-      </c>
-      <c r="M417">
-        <v>2</v>
-      </c>
-      <c r="N417">
-        <v>0</v>
-      </c>
-      <c r="O417" s="11">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="P417" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
     </row>
     <row r="418" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A418" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B418" s="10">
-        <v>-35.622483199999998</v>
-      </c>
-      <c r="C418" s="10">
-        <v>137.20668860000001</v>
+      <c r="A418" t="s">
+        <v>225</v>
+      </c>
+      <c r="B418">
+        <v>-35.558100000000003</v>
+      </c>
+      <c r="C418">
+        <v>138.67920000000001</v>
       </c>
       <c r="D418" s="2">
-        <v>46026</v>
-      </c>
-      <c r="E418" s="10">
-        <v>0</v>
-      </c>
-      <c r="F418" s="10">
-        <v>111</v>
-      </c>
-      <c r="G418" s="10">
-        <v>0</v>
-      </c>
-      <c r="H418" s="10">
-        <v>7000</v>
-      </c>
-      <c r="I418" s="10">
-        <v>5990</v>
-      </c>
-      <c r="J418" s="10">
-        <v>1110</v>
-      </c>
-      <c r="K418" s="10">
-        <v>111</v>
-      </c>
-      <c r="L418" s="10">
-        <v>0</v>
-      </c>
-      <c r="M418" s="10">
-        <v>999</v>
-      </c>
-      <c r="N418" s="10">
-        <v>0</v>
-      </c>
-      <c r="O418" s="10">
-        <v>9331</v>
-      </c>
-      <c r="P418" s="10" t="s">
-        <v>151</v>
+        <v>46020</v>
+      </c>
+      <c r="I418">
+        <v>0</v>
+      </c>
+      <c r="P418" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="419" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>280</v>
+        <v>199</v>
       </c>
       <c r="B419">
-        <v>-35.081834999999998</v>
+        <v>-35.793615000000003</v>
       </c>
       <c r="C419">
-        <v>137.74801600000001</v>
+        <v>137.85449840000001</v>
       </c>
       <c r="D419" s="2">
-        <v>46026</v>
+        <v>46020</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>667</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
       </c>
       <c r="H419">
-        <v>444</v>
+        <v>6000</v>
       </c>
       <c r="I419">
         <v>0</v>
       </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
       <c r="K419">
-        <v>333</v>
+        <v>2667</v>
+      </c>
+      <c r="L419">
+        <v>222</v>
       </c>
       <c r="M419">
-        <v>1389</v>
+        <v>2222</v>
       </c>
       <c r="N419">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="O419">
-        <v>2389</v>
+        <v>11778</v>
       </c>
       <c r="P419" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
     </row>
     <row r="420" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="B420">
-        <v>-35.054679</v>
+        <v>-34.824044999999998</v>
       </c>
       <c r="C420">
-        <v>137.72516899999999</v>
+        <v>138.48377600000001</v>
       </c>
       <c r="D420" s="2">
-        <v>46026</v>
+        <v>46021</v>
+      </c>
+      <c r="E420">
+        <v>0</v>
+      </c>
+      <c r="F420">
+        <v>0.5</v>
+      </c>
+      <c r="G420">
+        <v>0</v>
       </c>
       <c r="H420">
-        <v>107000</v>
+        <v>5</v>
       </c>
       <c r="I420">
         <v>0</v>
       </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
       <c r="K420">
-        <v>2667</v>
+        <v>27.3</v>
+      </c>
+      <c r="L420">
+        <v>1.9</v>
+      </c>
+      <c r="M420">
+        <v>0.3</v>
       </c>
       <c r="N420">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="O420">
-        <v>110000</v>
+        <v>35</v>
       </c>
       <c r="P420" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
     </row>
     <row r="421" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="B421">
-        <v>-35.269129</v>
+        <v>-34.804662999999998</v>
       </c>
       <c r="C421">
-        <v>136.844258</v>
+        <v>138.540223</v>
       </c>
       <c r="D421" s="2">
-        <v>46027</v>
+        <v>46021</v>
+      </c>
+      <c r="E421">
+        <v>0.45</v>
+      </c>
+      <c r="F421">
+        <v>0.15</v>
+      </c>
+      <c r="G421">
+        <v>0</v>
       </c>
       <c r="H421">
-        <v>5389</v>
+        <v>0.15</v>
       </c>
       <c r="I421">
-        <v>3556</v>
+        <v>0</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
       </c>
       <c r="K421">
-        <v>1333</v>
+        <v>8.3249999999999993</v>
+      </c>
+      <c r="L421">
+        <v>0</v>
       </c>
       <c r="M421">
-        <v>278</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="N421">
-        <v>778</v>
-      </c>
-      <c r="O421">
-        <v>7778</v>
+        <v>0.15</v>
+      </c>
+      <c r="O421" s="11">
+        <v>9.4499999999999993</v>
       </c>
       <c r="P421" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
     </row>
     <row r="422" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="B422">
-        <v>-34.804662999999998</v>
+        <v>-35.193919999999999</v>
       </c>
       <c r="C422">
-        <v>138.540223</v>
+        <v>138.469233</v>
       </c>
       <c r="D422" s="2">
-        <v>46028</v>
+        <v>46021</v>
       </c>
       <c r="E422">
         <v>0</v>
       </c>
       <c r="F422">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G422">
         <v>0</v>
       </c>
       <c r="H422">
-        <v>0.3</v>
+        <v>1.65</v>
       </c>
       <c r="I422">
         <v>0</v>
@@ -16499,19 +16439,19 @@
         <v>0</v>
       </c>
       <c r="K422">
-        <v>6.6</v>
+        <v>2.3250000000000002</v>
       </c>
       <c r="L422">
         <v>0</v>
       </c>
       <c r="M422">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="N422">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="O422" s="11">
-        <v>9.8999999999999986</v>
+        <v>4.2</v>
       </c>
       <c r="P422" t="s">
         <v>78</v>
@@ -16519,28 +16459,28 @@
     </row>
     <row r="423" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B423">
-        <v>-34.838619999999999</v>
+        <v>-35.308790000000002</v>
       </c>
       <c r="C423">
-        <v>138.50473</v>
+        <v>138.44603499999999</v>
       </c>
       <c r="D423" s="2">
-        <v>46028</v>
+        <v>46023</v>
       </c>
       <c r="E423">
         <v>0</v>
       </c>
       <c r="F423">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G423">
         <v>0</v>
       </c>
       <c r="H423">
-        <v>0.40500000000000003</v>
+        <v>2.415</v>
       </c>
       <c r="I423">
         <v>0</v>
@@ -16549,567 +16489,591 @@
         <v>0</v>
       </c>
       <c r="K423">
-        <v>6.165</v>
+        <v>5.6349999999999998</v>
       </c>
       <c r="L423">
         <v>0</v>
       </c>
       <c r="M423">
-        <v>4.4999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="N423">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="O423" s="11">
-        <v>7.0200000000000005</v>
+        <v>0.105</v>
+      </c>
+      <c r="O423">
+        <v>8.1900000000000013</v>
       </c>
       <c r="P423" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="424" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
-        <v>238</v>
-      </c>
-      <c r="B424">
-        <v>-34.824044999999998</v>
-      </c>
-      <c r="C424">
-        <v>138.48377600000001</v>
+      <c r="A424" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B424" s="9">
+        <v>-35.787201000000003</v>
+      </c>
+      <c r="C424" s="10">
+        <v>137.77800909999999</v>
       </c>
       <c r="D424" s="2">
-        <v>46028</v>
-      </c>
-      <c r="E424">
-        <v>0</v>
-      </c>
-      <c r="F424">
-        <v>0.05</v>
-      </c>
-      <c r="G424">
-        <v>0</v>
-      </c>
-      <c r="H424">
-        <v>0.8</v>
-      </c>
-      <c r="I424">
-        <v>0</v>
-      </c>
-      <c r="J424">
-        <v>0</v>
-      </c>
-      <c r="K424">
-        <v>5.4</v>
-      </c>
-      <c r="L424" t="s">
-        <v>248</v>
-      </c>
-      <c r="M424">
-        <v>0.1</v>
-      </c>
-      <c r="N424">
-        <v>1.35</v>
-      </c>
-      <c r="O424" s="11">
-        <v>7.6999999999999993</v>
-      </c>
-      <c r="P424" t="s">
-        <v>78</v>
+        <v>46023</v>
+      </c>
+      <c r="E424" s="10">
+        <v>1111</v>
+      </c>
+      <c r="F424" s="10">
+        <v>0</v>
+      </c>
+      <c r="G424" s="10">
+        <v>0</v>
+      </c>
+      <c r="H424" s="10">
+        <v>12778</v>
+      </c>
+      <c r="I424" s="10">
+        <v>3</v>
+      </c>
+      <c r="J424" s="10">
+        <v>8</v>
+      </c>
+      <c r="K424" s="10">
+        <v>9444</v>
+      </c>
+      <c r="L424" s="10">
+        <v>444</v>
+      </c>
+      <c r="M424" s="10">
+        <v>9</v>
+      </c>
+      <c r="N424" s="10">
+        <v>888</v>
+      </c>
+      <c r="O424" s="10">
+        <v>24682</v>
+      </c>
+      <c r="P424" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="425" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
-        <v>246</v>
-      </c>
-      <c r="B425">
-        <v>-34.873964000000001</v>
-      </c>
-      <c r="C425">
-        <v>138.488134</v>
+      <c r="A425" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B425" s="12">
+        <v>-35.787233399999998</v>
+      </c>
+      <c r="C425" s="9">
+        <v>137.777816</v>
       </c>
       <c r="D425" s="2">
-        <v>46028</v>
-      </c>
-      <c r="E425">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F425">
-        <v>0</v>
-      </c>
-      <c r="G425">
-        <v>0</v>
-      </c>
-      <c r="H425">
-        <v>42.167000000000002</v>
-      </c>
-      <c r="I425">
-        <v>17.167000000000002</v>
-      </c>
-      <c r="J425">
-        <v>0</v>
-      </c>
-      <c r="K425">
-        <v>5.1669999999999998</v>
-      </c>
-      <c r="L425">
-        <v>1.667</v>
-      </c>
-      <c r="M425">
-        <v>0</v>
-      </c>
-      <c r="N425">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="O425" s="11">
-        <v>49.835000000000008</v>
-      </c>
-      <c r="P425" t="s">
-        <v>78</v>
+        <v>46023</v>
+      </c>
+      <c r="E425" s="10">
+        <v>0</v>
+      </c>
+      <c r="F425" s="10">
+        <v>0</v>
+      </c>
+      <c r="G425" s="10">
+        <v>667</v>
+      </c>
+      <c r="H425" s="10">
+        <v>26667</v>
+      </c>
+      <c r="I425" s="10">
+        <v>0</v>
+      </c>
+      <c r="J425" s="10">
+        <v>0</v>
+      </c>
+      <c r="K425" s="10">
+        <v>15333</v>
+      </c>
+      <c r="L425" s="10">
+        <v>444</v>
+      </c>
+      <c r="M425" s="10">
+        <v>0</v>
+      </c>
+      <c r="N425" s="10">
+        <v>888</v>
+      </c>
+      <c r="O425" s="10">
+        <v>43999</v>
+      </c>
+      <c r="P425" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="426" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="B426">
-        <v>-34.860666999999999</v>
+        <v>-35.093021</v>
       </c>
       <c r="C426">
-        <v>138.490938</v>
+        <v>137.747083</v>
       </c>
       <c r="D426" s="2">
-        <v>46028</v>
-      </c>
-      <c r="E426">
-        <v>0</v>
-      </c>
-      <c r="F426">
-        <v>0</v>
-      </c>
-      <c r="G426">
-        <v>0</v>
+        <v>46023</v>
       </c>
       <c r="H426">
-        <v>45.674999999999997</v>
+        <v>389</v>
       </c>
       <c r="I426">
-        <v>39.450000000000003</v>
-      </c>
-      <c r="J426">
         <v>0</v>
       </c>
       <c r="K426">
-        <v>1.8</v>
-      </c>
-      <c r="L426">
-        <v>0</v>
+        <v>1111</v>
       </c>
       <c r="M426">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="N426">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="O426" s="11">
-        <v>47.999999999999993</v>
+        <v>556</v>
+      </c>
+      <c r="O426">
+        <v>2889</v>
       </c>
       <c r="P426" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
     </row>
     <row r="427" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A427" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B427" s="9">
-        <v>-35.787201000000003</v>
-      </c>
-      <c r="C427" s="10">
-        <v>137.77800909999999</v>
+      <c r="A427" t="s">
+        <v>282</v>
+      </c>
+      <c r="B427">
+        <v>-35.115721999999998</v>
+      </c>
+      <c r="C427">
+        <v>137.75626</v>
       </c>
       <c r="D427" s="2">
-        <v>46028</v>
-      </c>
-      <c r="E427" s="10">
-        <v>1111</v>
-      </c>
-      <c r="F427" s="10">
-        <v>13333</v>
-      </c>
-      <c r="G427" s="10">
-        <v>0</v>
-      </c>
-      <c r="H427" s="10">
-        <v>16111</v>
-      </c>
-      <c r="I427" s="10">
-        <v>333</v>
-      </c>
-      <c r="J427" s="10">
-        <v>0</v>
-      </c>
-      <c r="K427" s="10">
-        <v>13889</v>
-      </c>
-      <c r="L427" s="10">
-        <v>333</v>
-      </c>
-      <c r="M427" s="10">
-        <v>1444</v>
-      </c>
-      <c r="N427" s="10">
-        <v>0</v>
-      </c>
-      <c r="O427" s="10">
-        <v>46221</v>
-      </c>
-      <c r="P427" s="10" t="s">
-        <v>151</v>
+        <v>46023</v>
+      </c>
+      <c r="H427">
+        <v>278</v>
+      </c>
+      <c r="I427">
+        <v>0</v>
+      </c>
+      <c r="K427">
+        <v>222</v>
+      </c>
+      <c r="M427">
+        <v>3444</v>
+      </c>
+      <c r="N427">
+        <v>778</v>
+      </c>
+      <c r="O427">
+        <v>4722</v>
+      </c>
+      <c r="P427" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="428" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B428">
-        <v>-33.926485999999997</v>
+        <v>-35.427987000000002</v>
       </c>
       <c r="C428">
-        <v>137.61819499999999</v>
+        <v>138.31909899999999</v>
       </c>
       <c r="D428" s="2">
-        <v>46031</v>
+        <v>46025</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
       </c>
       <c r="F428">
-        <v>222</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="G428">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H428">
-        <v>1722</v>
+        <v>3</v>
       </c>
       <c r="I428">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J428">
-        <v>833</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K428">
-        <v>333</v>
+        <v>3.3</v>
+      </c>
+      <c r="L428">
+        <v>0</v>
       </c>
       <c r="M428">
-        <v>3444</v>
-      </c>
-      <c r="O428">
-        <v>7056</v>
-      </c>
-      <c r="P428" s="10" t="s">
-        <v>76</v>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="N428">
+        <v>3.3</v>
+      </c>
+      <c r="O428" s="11">
+        <v>9.7029999999999994</v>
+      </c>
+      <c r="P428" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="429" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="B429">
-        <v>-34.289369999999998</v>
+        <v>-35.632150000000003</v>
       </c>
       <c r="C429">
-        <v>138.01242999999999</v>
+        <v>138.48335599999999</v>
       </c>
       <c r="D429" s="2">
-        <v>46031</v>
+        <v>46025</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
       </c>
       <c r="F429">
-        <v>56</v>
+        <v>0.05</v>
+      </c>
+      <c r="G429">
+        <v>0</v>
       </c>
       <c r="H429">
-        <v>278</v>
+        <v>1.75</v>
       </c>
       <c r="I429">
+        <v>0.05</v>
+      </c>
+      <c r="J429">
         <v>0</v>
       </c>
       <c r="K429">
-        <v>333</v>
+        <v>3.4</v>
+      </c>
+      <c r="L429">
+        <v>0</v>
       </c>
       <c r="M429">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="N429">
-        <v>56</v>
-      </c>
-      <c r="O429">
-        <v>778</v>
-      </c>
-      <c r="P429" s="10" t="s">
-        <v>76</v>
+        <v>0.45</v>
+      </c>
+      <c r="O429" s="11">
+        <v>5.65</v>
+      </c>
+      <c r="P429" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="430" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="B430">
-        <v>-35.738910099999998</v>
+        <v>-34.860666999999999</v>
       </c>
       <c r="C430">
-        <v>137.68358799999999</v>
+        <v>138.490938</v>
       </c>
       <c r="D430" s="2">
-        <v>46032</v>
+        <v>46025</v>
       </c>
       <c r="E430">
         <v>0</v>
       </c>
       <c r="F430">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G430">
         <v>0</v>
       </c>
       <c r="H430">
-        <v>111</v>
+        <v>5.25</v>
       </c>
       <c r="I430">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J430">
         <v>0</v>
       </c>
       <c r="K430">
-        <v>444</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="L430">
         <v>0</v>
       </c>
       <c r="M430">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N430">
-        <v>0</v>
-      </c>
-      <c r="O430">
-        <v>555</v>
+        <v>1.2</v>
+      </c>
+      <c r="O430" s="11">
+        <v>80.250000000000014</v>
       </c>
       <c r="P430" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
     </row>
     <row r="431" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B431">
-        <v>-35.193919999999999</v>
+        <v>-34.873964000000001</v>
       </c>
       <c r="C431">
-        <v>138.469233</v>
+        <v>138.488134</v>
       </c>
       <c r="D431" s="2">
-        <v>46032</v>
+        <v>46025</v>
       </c>
       <c r="E431">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F431">
-        <v>0.05</v>
+        <v>0</v>
+      </c>
+      <c r="G431">
+        <v>0</v>
       </c>
       <c r="H431">
-        <v>3.15</v>
+        <v>80</v>
       </c>
       <c r="I431">
+        <v>46.5</v>
+      </c>
+      <c r="J431">
         <v>0</v>
       </c>
       <c r="K431">
-        <v>2.4</v>
+        <v>32</v>
+      </c>
+      <c r="L431">
+        <v>0</v>
+      </c>
+      <c r="M431">
+        <v>2</v>
       </c>
       <c r="N431">
-        <v>0.4</v>
-      </c>
-      <c r="O431">
-        <v>6.15</v>
+        <v>0</v>
+      </c>
+      <c r="O431" s="11">
+        <v>114</v>
       </c>
       <c r="P431" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="432" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A432" t="s">
-        <v>281</v>
-      </c>
-      <c r="B432">
-        <v>-35.054679</v>
-      </c>
-      <c r="C432">
-        <v>137.72516899999999</v>
+      <c r="A432" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B432" s="10">
+        <v>-35.622483199999998</v>
+      </c>
+      <c r="C432" s="10">
+        <v>137.20668860000001</v>
       </c>
       <c r="D432" s="2">
-        <v>46032</v>
-      </c>
-      <c r="H432">
-        <v>111000</v>
-      </c>
-      <c r="I432">
-        <v>0</v>
-      </c>
-      <c r="K432">
-        <v>4667</v>
-      </c>
-      <c r="N432">
-        <v>1000</v>
-      </c>
-      <c r="O432">
-        <v>122667</v>
-      </c>
-      <c r="P432" t="s">
-        <v>221</v>
+        <v>46026</v>
+      </c>
+      <c r="E432" s="10">
+        <v>0</v>
+      </c>
+      <c r="F432" s="10">
+        <v>111</v>
+      </c>
+      <c r="G432" s="10">
+        <v>0</v>
+      </c>
+      <c r="H432" s="10">
+        <v>7000</v>
+      </c>
+      <c r="I432" s="10">
+        <v>5990</v>
+      </c>
+      <c r="J432" s="10">
+        <v>1110</v>
+      </c>
+      <c r="K432" s="10">
+        <v>111</v>
+      </c>
+      <c r="L432" s="10">
+        <v>0</v>
+      </c>
+      <c r="M432" s="10">
+        <v>999</v>
+      </c>
+      <c r="N432" s="10">
+        <v>0</v>
+      </c>
+      <c r="O432" s="10">
+        <v>9331</v>
+      </c>
+      <c r="P432" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="433" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="B433">
-        <v>-35.523274000000001</v>
+        <v>-35.081834999999998</v>
       </c>
       <c r="C433">
-        <v>138.19270700000001</v>
+        <v>137.74801600000001</v>
       </c>
       <c r="D433" s="2">
-        <v>46033</v>
+        <v>46026</v>
       </c>
       <c r="H433">
+        <v>444</v>
+      </c>
+      <c r="I433">
+        <v>0</v>
+      </c>
+      <c r="K433">
         <v>333</v>
       </c>
-      <c r="I433">
-        <v>0</v>
-      </c>
-      <c r="K433">
-        <v>278</v>
-      </c>
       <c r="M433">
-        <v>18889</v>
+        <v>1389</v>
+      </c>
+      <c r="N433">
+        <v>222</v>
       </c>
       <c r="O433">
-        <v>19500</v>
-      </c>
-      <c r="P433" s="10" t="s">
-        <v>255</v>
+        <v>2389</v>
+      </c>
+      <c r="P433" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="434" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="B434">
-        <v>-35.793615000000003</v>
+        <v>-35.054707999999998</v>
       </c>
       <c r="C434">
-        <v>137.85449840000001</v>
+        <v>137.725145</v>
       </c>
       <c r="D434" s="2">
-        <v>46033</v>
-      </c>
-      <c r="E434">
-        <v>0</v>
-      </c>
-      <c r="F434">
-        <v>0</v>
-      </c>
-      <c r="G434">
-        <v>2000</v>
+        <v>46026</v>
       </c>
       <c r="H434">
-        <v>11000</v>
+        <v>107000</v>
       </c>
       <c r="I434">
-        <v>9889</v>
-      </c>
-      <c r="J434">
         <v>0</v>
       </c>
       <c r="K434">
-        <v>5444</v>
-      </c>
-      <c r="L434">
+        <v>2667</v>
+      </c>
+      <c r="N434">
         <v>333</v>
       </c>
-      <c r="M434">
-        <v>3444</v>
-      </c>
-      <c r="N434">
-        <v>111</v>
-      </c>
       <c r="O434">
-        <v>22332</v>
+        <v>110000</v>
       </c>
       <c r="P434" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="435" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B435">
-        <v>-34.873964000000001</v>
+        <v>-35.269129</v>
       </c>
       <c r="C435">
-        <v>138.488134</v>
+        <v>136.844258</v>
       </c>
       <c r="D435" s="2">
-        <v>46033</v>
+        <v>46027</v>
       </c>
       <c r="H435">
-        <v>60.75</v>
+        <v>5389</v>
       </c>
       <c r="I435">
-        <v>49.274999999999999</v>
+        <v>3556</v>
       </c>
       <c r="K435">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="L435">
-        <v>7.4999999999999997E-2</v>
+        <v>1333</v>
+      </c>
+      <c r="M435">
+        <v>278</v>
       </c>
       <c r="N435">
-        <v>0.3</v>
+        <v>778</v>
       </c>
       <c r="O435">
-        <v>61.8</v>
+        <v>7778</v>
       </c>
       <c r="P435" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
     </row>
     <row r="436" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="B436">
-        <v>-34.860666999999999</v>
+        <v>-34.804662999999998</v>
       </c>
       <c r="C436">
-        <v>138.490938</v>
+        <v>138.540223</v>
       </c>
       <c r="D436" s="2">
-        <v>46033</v>
+        <v>46028</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
+      </c>
+      <c r="G436">
+        <v>0</v>
       </c>
       <c r="H436">
-        <v>16.725000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="I436">
-        <v>8.0250000000000004</v>
+        <v>0</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
       </c>
       <c r="K436">
-        <v>0.375</v>
+        <v>6.6</v>
+      </c>
+      <c r="L436">
+        <v>0</v>
+      </c>
+      <c r="M436">
+        <v>0.05</v>
       </c>
       <c r="N436">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="O436">
-        <v>17.93</v>
+        <v>2.95</v>
+      </c>
+      <c r="O436" s="11">
+        <v>9.8999999999999986</v>
       </c>
       <c r="P436" t="s">
         <v>78</v>
@@ -17117,37 +17081,49 @@
     </row>
     <row r="437" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B437">
-        <v>-34.908026999999997</v>
+        <v>-34.838619999999999</v>
       </c>
       <c r="C437">
-        <v>138.48942299999999</v>
+        <v>138.50473</v>
       </c>
       <c r="D437" s="2">
-        <v>46033</v>
+        <v>46028</v>
       </c>
       <c r="E437">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F437">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="G437">
+        <v>0</v>
       </c>
       <c r="H437">
-        <v>0.7</v>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="I437">
+        <v>0</v>
       </c>
       <c r="J437">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="K437">
-        <v>15.95</v>
+        <v>6.165</v>
+      </c>
+      <c r="L437">
+        <v>0</v>
+      </c>
+      <c r="M437">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="N437">
-        <v>0.3</v>
-      </c>
-      <c r="O437">
-        <v>17.600000000000001</v>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="O437" s="11">
+        <v>7.0200000000000005</v>
       </c>
       <c r="P437" t="s">
         <v>78</v>
@@ -17155,119 +17131,119 @@
     </row>
     <row r="438" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B438">
-        <v>-35.668842900000001</v>
+        <v>-34.824044999999998</v>
       </c>
       <c r="C438">
-        <v>137.0694771</v>
+        <v>138.48377600000001</v>
       </c>
       <c r="D438" s="2">
-        <v>46034</v>
+        <v>46028</v>
       </c>
       <c r="E438">
         <v>0</v>
       </c>
       <c r="F438">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G438">
         <v>0</v>
       </c>
       <c r="H438">
-        <v>222</v>
+        <v>0.8</v>
       </c>
       <c r="I438">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="J438">
         <v>0</v>
       </c>
       <c r="K438">
-        <v>1667</v>
-      </c>
-      <c r="L438">
-        <v>0</v>
+        <v>5.4</v>
+      </c>
+      <c r="L438" t="s">
+        <v>247</v>
       </c>
       <c r="M438">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N438">
-        <v>111</v>
-      </c>
-      <c r="O438">
-        <v>2000</v>
+        <v>1.35</v>
+      </c>
+      <c r="O438" s="11">
+        <v>7.6999999999999993</v>
       </c>
       <c r="P438" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
     </row>
     <row r="439" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B439">
-        <v>-35.789543199999997</v>
+        <v>-34.873964000000001</v>
       </c>
       <c r="C439">
-        <v>137.7884124</v>
+        <v>138.488134</v>
       </c>
       <c r="D439" s="2">
-        <v>46035</v>
+        <v>46028</v>
       </c>
       <c r="E439">
-        <v>0</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="F439">
         <v>0</v>
       </c>
       <c r="G439">
-        <v>1778</v>
+        <v>0</v>
       </c>
       <c r="H439">
-        <v>9111</v>
+        <v>42.167000000000002</v>
       </c>
       <c r="I439">
-        <v>4000</v>
+        <v>17.167000000000002</v>
       </c>
       <c r="J439">
-        <v>1111</v>
+        <v>0</v>
       </c>
       <c r="K439">
-        <v>1667</v>
+        <v>5.1669999999999998</v>
       </c>
       <c r="L439">
-        <v>333</v>
+        <v>1.667</v>
       </c>
       <c r="M439">
-        <v>1778</v>
+        <v>0</v>
       </c>
       <c r="N439">
-        <v>333</v>
-      </c>
-      <c r="O439">
-        <v>16111</v>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="O439" s="11">
+        <v>49.835000000000008</v>
       </c>
       <c r="P439" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
     </row>
     <row r="440" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="B440">
-        <v>-35.084850000000003</v>
+        <v>-34.860666999999999</v>
       </c>
       <c r="C440">
-        <v>137.74889999999999</v>
+        <v>138.490938</v>
       </c>
       <c r="D440" s="2">
-        <v>46035</v>
+        <v>46028</v>
       </c>
       <c r="E440">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="F440">
         <v>0</v>
@@ -17276,355 +17252,394 @@
         <v>0</v>
       </c>
       <c r="H440">
-        <v>222</v>
+        <v>45.674999999999997</v>
       </c>
       <c r="I440">
-        <v>0</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="J440">
         <v>0</v>
       </c>
       <c r="K440">
-        <v>111</v>
+        <v>1.8</v>
+      </c>
+      <c r="L440">
+        <v>0</v>
       </c>
       <c r="M440">
-        <v>1500</v>
-      </c>
-      <c r="O440">
-        <v>1999</v>
+        <v>0</v>
+      </c>
+      <c r="N440">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="O440" s="11">
+        <v>47.999999999999993</v>
       </c>
       <c r="P440" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
     </row>
     <row r="441" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A441" t="s">
-        <v>258</v>
-      </c>
-      <c r="B441">
-        <v>-35.085050000000003</v>
-      </c>
-      <c r="C441">
-        <v>136.96054000000001</v>
+      <c r="A441" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B441" s="9">
+        <v>-35.787201000000003</v>
+      </c>
+      <c r="C441" s="10">
+        <v>137.77800909999999</v>
       </c>
       <c r="D441" s="2">
-        <v>46035</v>
-      </c>
-      <c r="E441">
-        <v>0</v>
-      </c>
-      <c r="F441">
-        <v>0</v>
-      </c>
-      <c r="G441">
-        <v>0</v>
-      </c>
-      <c r="H441">
-        <v>6111</v>
-      </c>
-      <c r="I441">
-        <v>4778</v>
-      </c>
-      <c r="J441">
-        <v>0</v>
-      </c>
-      <c r="K441">
-        <v>111</v>
-      </c>
-      <c r="L441">
-        <v>0</v>
-      </c>
-      <c r="M441">
-        <v>0</v>
-      </c>
-      <c r="N441">
-        <v>111</v>
-      </c>
-      <c r="O441">
-        <v>6333</v>
-      </c>
-      <c r="P441" t="s">
-        <v>259</v>
+        <v>46028</v>
+      </c>
+      <c r="E441" s="10">
+        <v>1111</v>
+      </c>
+      <c r="F441" s="10">
+        <v>13333</v>
+      </c>
+      <c r="G441" s="10">
+        <v>0</v>
+      </c>
+      <c r="H441" s="10">
+        <v>16111</v>
+      </c>
+      <c r="I441" s="10">
+        <v>333</v>
+      </c>
+      <c r="J441" s="10">
+        <v>0</v>
+      </c>
+      <c r="K441" s="10">
+        <v>13889</v>
+      </c>
+      <c r="L441" s="10">
+        <v>333</v>
+      </c>
+      <c r="M441" s="10">
+        <v>1444</v>
+      </c>
+      <c r="N441" s="10">
+        <v>0</v>
+      </c>
+      <c r="O441" s="10">
+        <v>46221</v>
+      </c>
+      <c r="P441" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="442" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B442">
-        <v>-35.521411999999998</v>
+        <v>-33.926485999999997</v>
       </c>
       <c r="C442">
-        <v>138.185383</v>
+        <v>137.61819499999999</v>
       </c>
       <c r="D442" s="2">
-        <v>46036</v>
+        <v>46031</v>
+      </c>
+      <c r="F442">
+        <v>222</v>
+      </c>
+      <c r="G442">
+        <v>500</v>
       </c>
       <c r="H442">
-        <v>1000</v>
+        <v>1722</v>
       </c>
       <c r="I442">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="J442">
+        <v>833</v>
       </c>
       <c r="K442">
-        <v>167</v>
+        <v>333</v>
       </c>
       <c r="M442">
-        <v>0</v>
+        <v>3444</v>
       </c>
       <c r="O442">
-        <v>1167</v>
-      </c>
-      <c r="P442" t="s">
-        <v>255</v>
+        <v>7056</v>
+      </c>
+      <c r="P442" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="443" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>293</v>
+        <v>37</v>
       </c>
       <c r="B443">
-        <v>-32.486960000000003</v>
+        <v>-34.289369999999998</v>
       </c>
       <c r="C443">
-        <v>137.76087000000001</v>
+        <v>138.01242999999999</v>
       </c>
       <c r="D443" s="2">
-        <v>46036</v>
+        <v>46031</v>
+      </c>
+      <c r="F443">
+        <v>56</v>
+      </c>
+      <c r="H443">
+        <v>278</v>
       </c>
       <c r="I443">
         <v>0</v>
       </c>
       <c r="K443">
-        <v>1512</v>
+        <v>333</v>
+      </c>
+      <c r="M443">
+        <v>56</v>
       </c>
       <c r="N443">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="O443">
-        <v>1666</v>
-      </c>
-      <c r="P443" t="s">
-        <v>291</v>
+        <v>778</v>
+      </c>
+      <c r="P443" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="444" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="B444">
-        <v>-32.48724</v>
+        <v>-35.738910099999998</v>
       </c>
       <c r="C444">
-        <v>137.76333</v>
+        <v>137.68358799999999</v>
       </c>
       <c r="D444" s="2">
-        <v>46036</v>
+        <v>46032</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>0</v>
+      </c>
+      <c r="G444">
+        <v>0</v>
+      </c>
+      <c r="H444">
+        <v>111</v>
       </c>
       <c r="I444">
         <v>0</v>
       </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
       <c r="K444">
-        <v>864</v>
+        <v>444</v>
+      </c>
+      <c r="L444">
+        <v>0</v>
+      </c>
+      <c r="M444">
+        <v>0</v>
       </c>
       <c r="N444">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="O444">
-        <v>1049</v>
+        <v>555</v>
       </c>
       <c r="P444" t="s">
-        <v>291</v>
+        <v>151</v>
       </c>
     </row>
     <row r="445" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="B445">
-        <v>-32.490589999999997</v>
+        <v>-35.193919999999999</v>
       </c>
       <c r="C445">
-        <v>137.75889000000001</v>
+        <v>138.469233</v>
       </c>
       <c r="D445" s="2">
-        <v>46036</v>
+        <v>46032</v>
+      </c>
+      <c r="E445">
+        <v>0.15</v>
+      </c>
+      <c r="F445">
+        <v>0.05</v>
+      </c>
+      <c r="H445">
+        <v>3.15</v>
       </c>
       <c r="I445">
         <v>0</v>
       </c>
       <c r="K445">
-        <v>1173</v>
+        <v>2.4</v>
       </c>
       <c r="N445">
-        <v>185</v>
+        <v>0.4</v>
       </c>
       <c r="O445">
-        <v>1358</v>
+        <v>6.15</v>
       </c>
       <c r="P445" t="s">
-        <v>291</v>
+        <v>78</v>
       </c>
     </row>
     <row r="446" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="B446">
-        <v>-35.787201000000003</v>
+        <v>-35.054707999999998</v>
       </c>
       <c r="C446">
-        <v>137.778009</v>
+        <v>137.725145</v>
       </c>
       <c r="D446" s="2">
-        <v>46039</v>
-      </c>
-      <c r="E446">
-        <v>222</v>
-      </c>
-      <c r="F446">
-        <v>0</v>
-      </c>
-      <c r="G446">
-        <v>444</v>
+        <v>46032</v>
       </c>
       <c r="H446">
-        <v>2778</v>
+        <v>111000</v>
       </c>
       <c r="I446">
         <v>0</v>
       </c>
-      <c r="J446">
-        <v>0</v>
-      </c>
       <c r="K446">
-        <v>1111</v>
-      </c>
-      <c r="L446">
-        <v>444</v>
-      </c>
-      <c r="M446">
-        <v>333</v>
+        <v>4667</v>
       </c>
       <c r="N446">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="O446">
-        <v>5776</v>
+        <v>122667</v>
       </c>
       <c r="P446" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="447" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="B447">
-        <v>-35.787233000000001</v>
+        <v>-35.523274000000001</v>
       </c>
       <c r="C447">
-        <v>137.777816</v>
+        <v>138.19270700000001</v>
       </c>
       <c r="D447" s="2">
-        <v>46039</v>
-      </c>
-      <c r="E447">
-        <v>0</v>
-      </c>
-      <c r="F447">
-        <v>0</v>
-      </c>
-      <c r="G447">
-        <v>2333</v>
+        <v>46033</v>
       </c>
       <c r="H447">
-        <v>5223</v>
+        <v>333</v>
       </c>
       <c r="I447">
         <v>0</v>
       </c>
       <c r="K447">
-        <v>24556</v>
-      </c>
-      <c r="L447">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="M447">
-        <v>444</v>
-      </c>
-      <c r="N447">
-        <v>222</v>
+        <v>18889</v>
       </c>
       <c r="O447">
-        <v>33111</v>
-      </c>
-      <c r="P447" t="s">
-        <v>151</v>
+        <v>19500</v>
+      </c>
+      <c r="P447" s="10" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="448" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="B448">
-        <v>-34.804662999999998</v>
+        <v>-35.793615000000003</v>
       </c>
       <c r="C448">
-        <v>138.540223</v>
+        <v>137.85449840000001</v>
       </c>
       <c r="D448" s="2">
-        <v>46039</v>
+        <v>46033</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>0</v>
+      </c>
+      <c r="G448">
+        <v>2000</v>
       </c>
       <c r="H448">
-        <v>0.16700000000000001</v>
+        <v>11000</v>
       </c>
       <c r="I448">
+        <v>9889</v>
+      </c>
+      <c r="J448">
         <v>0</v>
       </c>
       <c r="K448">
-        <v>5.0999999999999996</v>
+        <v>5444</v>
+      </c>
+      <c r="L448">
+        <v>333</v>
       </c>
       <c r="M448">
-        <v>0.13300000000000001</v>
+        <v>3444</v>
       </c>
       <c r="N448">
-        <v>0.23300000000000001</v>
+        <v>111</v>
       </c>
       <c r="O448">
-        <v>5.633</v>
+        <v>22332</v>
       </c>
       <c r="P448" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
     </row>
     <row r="449" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="B449">
-        <v>-34.824044999999998</v>
+        <v>-34.873964000000001</v>
       </c>
       <c r="C449">
-        <v>138.48377600000001</v>
+        <v>138.488134</v>
       </c>
       <c r="D449" s="2">
-        <v>46039</v>
+        <v>46033</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>60.75</v>
       </c>
       <c r="I449">
-        <v>0</v>
+        <v>49.274999999999999</v>
       </c>
       <c r="K449">
-        <v>10.8</v>
-      </c>
-      <c r="M449">
-        <v>2.0499999999999998</v>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="L449">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N449">
+        <v>0.3</v>
       </c>
       <c r="O449">
-        <v>13.85</v>
+        <v>61.8</v>
       </c>
       <c r="P449" t="s">
         <v>78</v>
@@ -17632,31 +17647,31 @@
     </row>
     <row r="450" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="B450">
-        <v>-34.873964000000001</v>
+        <v>-34.860666999999999</v>
       </c>
       <c r="C450">
-        <v>138.488134</v>
+        <v>138.490938</v>
       </c>
       <c r="D450" s="2">
-        <v>46039</v>
+        <v>46033</v>
       </c>
       <c r="H450">
-        <v>12.6</v>
+        <v>16.725000000000001</v>
       </c>
       <c r="I450">
-        <v>9.8249999999999993</v>
+        <v>8.0250000000000004</v>
       </c>
       <c r="K450">
-        <v>5.1749999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="N450">
         <v>0.82499999999999996</v>
       </c>
       <c r="O450">
-        <v>18.600000000000001</v>
+        <v>17.93</v>
       </c>
       <c r="P450" t="s">
         <v>78</v>
@@ -17664,34 +17679,37 @@
     </row>
     <row r="451" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B451">
-        <v>-34.860666999999999</v>
+        <v>-34.908026999999997</v>
       </c>
       <c r="C451">
-        <v>138.490938</v>
+        <v>138.48942299999999</v>
       </c>
       <c r="D451" s="2">
-        <v>46039</v>
+        <v>46033</v>
+      </c>
+      <c r="E451">
+        <v>0.2</v>
+      </c>
+      <c r="F451">
+        <v>0.1</v>
       </c>
       <c r="H451">
-        <v>15.8</v>
-      </c>
-      <c r="I451">
-        <v>12.44</v>
+        <v>0.7</v>
+      </c>
+      <c r="J451">
+        <v>0.35</v>
       </c>
       <c r="K451">
-        <v>1.9650000000000001</v>
-      </c>
-      <c r="L451">
-        <v>0.04</v>
+        <v>15.95</v>
       </c>
       <c r="N451">
-        <v>560</v>
+        <v>0.3</v>
       </c>
       <c r="O451">
-        <v>18.36</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="P451" t="s">
         <v>78</v>
@@ -17699,821 +17717,2299 @@
     </row>
     <row r="452" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B452">
-        <v>-34.838619999999999</v>
+        <v>-35.668842900000001</v>
       </c>
       <c r="C452">
-        <v>138.50473</v>
+        <v>137.0694771</v>
       </c>
       <c r="D452" s="2">
-        <v>46039</v>
+        <v>46034</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>0</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+      <c r="H452">
+        <v>222</v>
       </c>
       <c r="I452">
+        <v>111</v>
+      </c>
+      <c r="J452">
         <v>0</v>
       </c>
       <c r="K452">
-        <v>54</v>
+        <v>1667</v>
+      </c>
+      <c r="L452">
+        <v>0</v>
       </c>
       <c r="M452">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N452">
-        <v>0.56000000000000005</v>
+        <v>111</v>
       </c>
       <c r="O452">
-        <v>95.5</v>
+        <v>2000</v>
       </c>
       <c r="P452" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
     </row>
     <row r="453" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="B453">
-        <v>-34.907184999999998</v>
+        <v>-35.789543199999997</v>
       </c>
       <c r="C453">
-        <v>137.01196300000001</v>
+        <v>137.7884124</v>
       </c>
       <c r="D453" s="2">
-        <v>46039</v>
+        <v>46035</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>0</v>
+      </c>
+      <c r="G453">
+        <v>1778</v>
       </c>
       <c r="H453">
-        <v>4222</v>
+        <v>9111</v>
       </c>
       <c r="I453">
-        <v>3222</v>
+        <v>4000</v>
+      </c>
+      <c r="J453">
+        <v>1111</v>
       </c>
       <c r="K453">
-        <v>167</v>
+        <v>1667</v>
+      </c>
+      <c r="L453">
+        <v>333</v>
       </c>
       <c r="M453">
-        <v>667</v>
+        <v>1778</v>
       </c>
       <c r="N453">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="O453">
-        <v>5556</v>
+        <v>16111</v>
       </c>
       <c r="P453" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
     </row>
     <row r="454" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>283</v>
+        <v>59</v>
       </c>
       <c r="B454">
-        <v>-35.092928999999998</v>
+        <v>-35.084850000000003</v>
       </c>
       <c r="C454">
-        <v>137.746825</v>
+        <v>137.74889999999999</v>
       </c>
       <c r="D454" s="2">
-        <v>46039</v>
+        <v>46035</v>
+      </c>
+      <c r="E454">
+        <v>166</v>
+      </c>
+      <c r="F454">
+        <v>0</v>
+      </c>
+      <c r="G454">
+        <v>0</v>
       </c>
       <c r="H454">
-        <v>722</v>
+        <v>222</v>
       </c>
       <c r="I454">
+        <v>0</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="K454">
         <v>111</v>
       </c>
-      <c r="K454">
-        <v>1611</v>
-      </c>
       <c r="M454">
-        <v>722</v>
-      </c>
-      <c r="N454">
-        <v>889</v>
+        <v>1500</v>
       </c>
       <c r="O454">
-        <v>3944</v>
+        <v>1999</v>
       </c>
       <c r="P454" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
     </row>
     <row r="455" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="B455">
-        <v>-35.115721999999998</v>
+        <v>-35.085050000000003</v>
       </c>
       <c r="C455">
-        <v>137.75626</v>
+        <v>136.96054000000001</v>
       </c>
       <c r="D455" s="2">
-        <v>46039</v>
+        <v>46035</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="F455">
+        <v>0</v>
+      </c>
+      <c r="G455">
+        <v>0</v>
       </c>
       <c r="H455">
-        <v>278</v>
+        <v>6111</v>
       </c>
       <c r="I455">
+        <v>4778</v>
+      </c>
+      <c r="J455">
         <v>0</v>
       </c>
       <c r="K455">
-        <v>889</v>
+        <v>111</v>
+      </c>
+      <c r="L455">
+        <v>0</v>
       </c>
       <c r="M455">
-        <v>722</v>
+        <v>0</v>
       </c>
       <c r="N455">
-        <v>556</v>
+        <v>111</v>
       </c>
       <c r="O455">
-        <v>2445</v>
+        <v>6333</v>
       </c>
       <c r="P455" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
     </row>
     <row r="456" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B456">
-        <v>-34.827359999999999</v>
+        <v>-35.521411999999998</v>
       </c>
       <c r="C456">
-        <v>137.45850999999999</v>
+        <v>138.185383</v>
       </c>
       <c r="D456" s="2">
-        <v>46040</v>
+        <v>46036</v>
+      </c>
+      <c r="H456">
+        <v>1000</v>
       </c>
       <c r="I456">
         <v>0</v>
       </c>
+      <c r="K456">
+        <v>167</v>
+      </c>
+      <c r="M456">
+        <v>0</v>
+      </c>
+      <c r="O456">
+        <v>1167</v>
+      </c>
       <c r="P456" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="457" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B457">
-        <v>-35.739091000000002</v>
+        <v>-32.486960000000003</v>
       </c>
       <c r="C457">
-        <v>137.67788400000001</v>
+        <v>137.76087000000001</v>
       </c>
       <c r="D457" s="2">
-        <v>46040</v>
-      </c>
-      <c r="E457">
-        <v>0</v>
-      </c>
-      <c r="F457">
-        <v>0</v>
-      </c>
-      <c r="G457">
-        <v>0</v>
-      </c>
-      <c r="H457">
-        <v>0</v>
+        <v>46036</v>
       </c>
       <c r="I457">
         <v>0</v>
       </c>
-      <c r="J457">
-        <v>0</v>
-      </c>
       <c r="K457">
-        <v>1556</v>
-      </c>
-      <c r="L457">
-        <v>0</v>
-      </c>
-      <c r="M457">
-        <v>0</v>
+        <v>1512</v>
       </c>
       <c r="N457">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="O457">
-        <v>1556</v>
+        <v>1666</v>
       </c>
       <c r="P457" t="s">
-        <v>151</v>
+        <v>289</v>
       </c>
     </row>
     <row r="458" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A458" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="B458" s="13">
-        <v>-34.827600699999998</v>
-      </c>
-      <c r="C458" s="13">
-        <v>137.45846420000001</v>
-      </c>
-      <c r="D458" s="14">
-        <v>46040</v>
-      </c>
-      <c r="E458" s="13"/>
-      <c r="F458" s="13"/>
-      <c r="G458" s="13"/>
-      <c r="H458" s="13">
-        <v>3.98</v>
-      </c>
-      <c r="I458" s="13">
-        <v>2.33</v>
-      </c>
-      <c r="J458" s="13"/>
-      <c r="K458" s="13">
-        <v>2.85</v>
-      </c>
-      <c r="L458" s="13"/>
-      <c r="M458" s="13">
-        <v>0.23</v>
-      </c>
-      <c r="N458" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="O458" s="13">
-        <v>7.13</v>
-      </c>
-      <c r="P458" s="13" t="s">
-        <v>78</v>
+      <c r="A458" t="s">
+        <v>292</v>
+      </c>
+      <c r="B458">
+        <v>-32.48724</v>
+      </c>
+      <c r="C458">
+        <v>137.76333</v>
+      </c>
+      <c r="D458" s="2">
+        <v>46036</v>
+      </c>
+      <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="K458">
+        <v>864</v>
+      </c>
+      <c r="N458">
+        <v>185</v>
+      </c>
+      <c r="O458">
+        <v>1049</v>
+      </c>
+      <c r="P458" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="459" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A459" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B459" s="13">
-        <v>-34.226579999999998</v>
-      </c>
-      <c r="C459" s="13">
-        <v>138.02018000000001</v>
-      </c>
-      <c r="D459" s="14">
-        <v>46040</v>
-      </c>
-      <c r="E459" s="13"/>
-      <c r="F459" s="13"/>
-      <c r="G459" s="13"/>
-      <c r="H459" s="13">
-        <v>2.84</v>
-      </c>
-      <c r="I459" s="13"/>
-      <c r="J459" s="13"/>
-      <c r="K459" s="13">
-        <v>51.28</v>
-      </c>
-      <c r="L459" s="13"/>
-      <c r="M459" s="13"/>
-      <c r="N459" s="13">
-        <v>0.41</v>
-      </c>
-      <c r="O459" s="13">
-        <v>54.53</v>
-      </c>
-      <c r="P459" s="13" t="s">
-        <v>78</v>
+      <c r="A459" t="s">
+        <v>293</v>
+      </c>
+      <c r="B459">
+        <v>-32.490589999999997</v>
+      </c>
+      <c r="C459">
+        <v>137.75889000000001</v>
+      </c>
+      <c r="D459" s="2">
+        <v>46036</v>
+      </c>
+      <c r="I459">
+        <v>0</v>
+      </c>
+      <c r="K459">
+        <v>1173</v>
+      </c>
+      <c r="N459">
+        <v>185</v>
+      </c>
+      <c r="O459">
+        <v>1358</v>
+      </c>
+      <c r="P459" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="460" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="B460">
-        <v>-34.917679100000001</v>
+        <v>-35.787201000000003</v>
       </c>
       <c r="C460">
-        <v>137.0853572</v>
+        <v>137.778009</v>
       </c>
       <c r="D460" s="2">
-        <v>46040</v>
+        <v>46039</v>
+      </c>
+      <c r="E460">
+        <v>222</v>
+      </c>
+      <c r="F460">
+        <v>0</v>
+      </c>
+      <c r="G460">
+        <v>444</v>
       </c>
       <c r="H460">
-        <v>389</v>
+        <v>2778</v>
       </c>
       <c r="I460">
-        <v>111</v>
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460">
+        <v>1111</v>
+      </c>
+      <c r="L460">
+        <v>444</v>
       </c>
       <c r="M460">
-        <v>278</v>
+        <v>333</v>
+      </c>
+      <c r="N460">
+        <v>444</v>
       </c>
       <c r="O460">
-        <v>667</v>
+        <v>5776</v>
       </c>
       <c r="P460" t="s">
-        <v>259</v>
+        <v>151</v>
       </c>
     </row>
     <row r="461" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B461">
-        <v>-34.929459999999999</v>
+        <v>-35.787233000000001</v>
       </c>
       <c r="C461">
-        <v>137.34075999999999</v>
+        <v>137.777816</v>
       </c>
       <c r="D461" s="2">
-        <v>46041</v>
+        <v>46039</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+      <c r="G461">
+        <v>2333</v>
+      </c>
+      <c r="H461">
+        <v>5223</v>
       </c>
       <c r="I461">
         <v>0</v>
       </c>
+      <c r="K461">
+        <v>24556</v>
+      </c>
+      <c r="L461">
+        <v>333</v>
+      </c>
+      <c r="M461">
+        <v>444</v>
+      </c>
+      <c r="N461">
+        <v>222</v>
+      </c>
+      <c r="O461">
+        <v>33111</v>
+      </c>
       <c r="P461" t="s">
-        <v>271</v>
+        <v>151</v>
       </c>
     </row>
     <row r="462" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B462">
-        <v>-34.970672</v>
+        <v>-34.804662999999998</v>
       </c>
       <c r="C462">
-        <v>136.97022799999999</v>
+        <v>138.540223</v>
       </c>
       <c r="D462" s="2">
-        <v>46041</v>
+        <v>46039</v>
       </c>
       <c r="H462">
-        <v>15333</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="I462">
-        <v>9333</v>
+        <v>0</v>
       </c>
       <c r="K462">
-        <v>1556</v>
-      </c>
-      <c r="L462">
-        <v>889</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M462">
-        <v>1333</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="N462">
-        <v>444</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="O462">
-        <v>19555</v>
+        <v>5.633</v>
       </c>
       <c r="P462" t="s">
-        <v>259</v>
+        <v>78</v>
       </c>
     </row>
     <row r="463" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B463">
-        <v>-35.011718100000003</v>
+        <v>-34.824044999999998</v>
       </c>
       <c r="C463">
-        <v>136.94842070000001</v>
+        <v>138.48377600000001</v>
       </c>
       <c r="D463" s="2">
-        <v>46041</v>
+        <v>46039</v>
       </c>
       <c r="H463">
-        <v>1056</v>
+        <v>1</v>
       </c>
       <c r="I463">
-        <v>611</v>
+        <v>0</v>
       </c>
       <c r="K463">
-        <v>222</v>
-      </c>
-      <c r="L463">
-        <v>56</v>
+        <v>10.8</v>
       </c>
       <c r="M463">
-        <v>278</v>
-      </c>
-      <c r="N463">
-        <v>167</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="O463">
-        <v>1779</v>
+        <v>13.85</v>
       </c>
       <c r="P463" t="s">
-        <v>259</v>
+        <v>78</v>
       </c>
     </row>
     <row r="464" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>287</v>
+        <v>85</v>
       </c>
       <c r="B464">
-        <v>-34.953057899999997</v>
+        <v>-34.873964000000001</v>
       </c>
       <c r="C464">
-        <v>136.973341</v>
+        <v>138.488134</v>
       </c>
       <c r="D464" s="2">
-        <v>46041</v>
+        <v>46039</v>
       </c>
       <c r="H464">
-        <v>27889</v>
+        <v>12.6</v>
       </c>
       <c r="I464">
-        <v>16667</v>
+        <v>9.8249999999999993</v>
       </c>
       <c r="K464">
-        <v>444</v>
-      </c>
-      <c r="L464">
-        <v>556</v>
-      </c>
-      <c r="M464">
-        <v>444</v>
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="N464">
+        <v>0.82499999999999996</v>
       </c>
       <c r="O464">
-        <v>29333</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="P464" t="s">
-        <v>259</v>
+        <v>78</v>
       </c>
     </row>
     <row r="465" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="B465">
-        <v>-34.906165799999997</v>
+        <v>-34.860666999999999</v>
       </c>
       <c r="C465">
-        <v>137.01125089999999</v>
+        <v>138.490938</v>
       </c>
       <c r="D465" s="2">
-        <v>46041</v>
+        <v>46039</v>
       </c>
       <c r="H465">
-        <v>8889</v>
+        <v>15.8</v>
       </c>
       <c r="I465">
-        <v>5111</v>
+        <v>12.44</v>
       </c>
       <c r="K465">
-        <v>333</v>
+        <v>1.9650000000000001</v>
       </c>
       <c r="L465">
-        <v>333</v>
-      </c>
-      <c r="M465">
-        <v>556</v>
+        <v>0.04</v>
       </c>
       <c r="N465">
-        <v>111</v>
+        <v>560</v>
       </c>
       <c r="O465">
-        <v>10222</v>
+        <v>18.36</v>
       </c>
       <c r="P465" t="s">
-        <v>259</v>
+        <v>78</v>
       </c>
     </row>
     <row r="466" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="B466">
-        <v>-35.511031000000003</v>
+        <v>-34.838619999999999</v>
       </c>
       <c r="C466">
-        <v>138.21822299999999</v>
+        <v>138.50473</v>
       </c>
       <c r="D466" s="2">
-        <v>46041</v>
-      </c>
-      <c r="H466">
-        <v>1333</v>
+        <v>46039</v>
       </c>
       <c r="I466">
         <v>0</v>
       </c>
       <c r="K466">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="M466">
-        <v>3333</v>
+        <v>4</v>
+      </c>
+      <c r="N466">
+        <v>0.56000000000000005</v>
       </c>
       <c r="O466">
-        <v>4666</v>
+        <v>95.5</v>
       </c>
       <c r="P466" t="s">
-        <v>255</v>
+        <v>78</v>
       </c>
     </row>
     <row r="467" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="B467">
-        <v>-35.445186</v>
+        <v>-34.907184999999998</v>
       </c>
       <c r="C467">
-        <v>138.307424</v>
+        <v>137.01196300000001</v>
       </c>
       <c r="D467" s="2">
-        <v>46041</v>
-      </c>
-      <c r="E467">
-        <v>56</v>
+        <v>46039</v>
       </c>
       <c r="H467">
-        <v>778</v>
+        <v>4222</v>
       </c>
       <c r="I467">
-        <v>0</v>
+        <v>3222</v>
       </c>
       <c r="K467">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="M467">
-        <v>1889</v>
+        <v>667</v>
+      </c>
+      <c r="N467">
+        <v>500</v>
       </c>
       <c r="O467">
-        <v>2723</v>
+        <v>5556</v>
       </c>
       <c r="P467" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
     </row>
     <row r="468" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="B468">
-        <v>-34.895150000000001</v>
+        <v>-35.092928999999998</v>
       </c>
       <c r="C468">
-        <v>137.24995000000001</v>
+        <v>137.746825</v>
       </c>
       <c r="D468" s="2">
-        <v>46042</v>
+        <v>46039</v>
+      </c>
+      <c r="H468">
+        <v>722</v>
       </c>
       <c r="I468">
-        <v>306</v>
+        <v>111</v>
+      </c>
+      <c r="K468">
+        <v>1611</v>
+      </c>
+      <c r="M468">
+        <v>722</v>
+      </c>
+      <c r="N468">
+        <v>889</v>
+      </c>
+      <c r="O468">
+        <v>3944</v>
       </c>
       <c r="P468" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
     </row>
     <row r="469" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="B469">
-        <v>-34.918889999999998</v>
+        <v>-35.115721999999998</v>
       </c>
       <c r="C469">
-        <v>137.30171999999999</v>
+        <v>137.75626</v>
       </c>
       <c r="D469" s="2">
-        <v>46042</v>
+        <v>46039</v>
+      </c>
+      <c r="H469">
+        <v>278</v>
       </c>
       <c r="I469">
         <v>0</v>
       </c>
+      <c r="K469">
+        <v>889</v>
+      </c>
+      <c r="M469">
+        <v>722</v>
+      </c>
+      <c r="N469">
+        <v>556</v>
+      </c>
+      <c r="O469">
+        <v>2445</v>
+      </c>
       <c r="P469" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
     </row>
     <row r="470" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B470">
-        <v>-34.933680000000003</v>
+        <v>-34.827359999999999</v>
       </c>
       <c r="C470">
-        <v>137.35247000000001</v>
+        <v>137.45850999999999</v>
       </c>
       <c r="D470" s="2">
-        <v>46042</v>
+        <v>46040</v>
       </c>
       <c r="I470">
         <v>0</v>
       </c>
       <c r="P470" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="471" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B471">
-        <v>-34.672490000000003</v>
+        <v>-35.739091000000002</v>
       </c>
       <c r="C471">
-        <v>137.49295000000001</v>
+        <v>137.67788400000001</v>
       </c>
       <c r="D471" s="2">
-        <v>46042</v>
+        <v>46040</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>0</v>
+      </c>
+      <c r="G471">
+        <v>0</v>
+      </c>
+      <c r="H471">
+        <v>0</v>
       </c>
       <c r="I471">
         <v>0</v>
       </c>
+      <c r="J471">
+        <v>0</v>
+      </c>
+      <c r="K471">
+        <v>1556</v>
+      </c>
+      <c r="L471">
+        <v>0</v>
+      </c>
+      <c r="M471">
+        <v>0</v>
+      </c>
+      <c r="N471">
+        <v>0</v>
+      </c>
+      <c r="O471">
+        <v>1556</v>
+      </c>
       <c r="P471" t="s">
-        <v>271</v>
+        <v>151</v>
       </c>
       <c r="S471" s="2"/>
     </row>
     <row r="472" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="B472">
-        <v>-35.7987082</v>
+        <v>-34.827600699999998</v>
       </c>
       <c r="C472">
-        <v>137.81647699999999</v>
+        <v>137.45846420000001</v>
       </c>
       <c r="D472" s="2">
-        <v>46042</v>
-      </c>
-      <c r="E472">
-        <v>0</v>
-      </c>
-      <c r="F472">
-        <v>0</v>
-      </c>
-      <c r="G472">
-        <v>0</v>
+        <v>46040</v>
       </c>
       <c r="H472">
-        <v>444</v>
+        <v>3.98</v>
       </c>
       <c r="I472">
-        <v>0</v>
-      </c>
-      <c r="J472">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="K472">
-        <v>444</v>
-      </c>
-      <c r="L472">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="M472">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="N472">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="O472">
-        <v>888</v>
+        <v>7.13</v>
       </c>
       <c r="P472" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="S472" s="2"/>
     </row>
     <row r="473" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>59</v>
+        <v>273</v>
       </c>
       <c r="B473">
-        <v>-35.084850000000003</v>
+        <v>-34.226579999999998</v>
       </c>
       <c r="C473">
-        <v>137.74889999999999</v>
+        <v>138.02018000000001</v>
       </c>
       <c r="D473" s="2">
-        <v>46042</v>
-      </c>
-      <c r="E473">
-        <v>0</v>
-      </c>
-      <c r="F473">
-        <v>0</v>
-      </c>
-      <c r="G473">
-        <v>0</v>
+        <v>46040</v>
       </c>
       <c r="H473">
-        <v>83</v>
+        <v>2.84</v>
       </c>
       <c r="I473">
         <v>0</v>
       </c>
-      <c r="J473">
-        <v>0</v>
-      </c>
       <c r="K473">
-        <v>138</v>
-      </c>
-      <c r="M473">
-        <v>805</v>
+        <v>51.28</v>
+      </c>
+      <c r="N473">
+        <v>0.41</v>
       </c>
       <c r="O473">
-        <v>1026</v>
+        <v>54.53</v>
       </c>
       <c r="P473" t="s">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="S473" s="2"/>
     </row>
     <row r="474" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="B474">
-        <v>-34.92989</v>
+        <v>-34.917679100000001</v>
       </c>
       <c r="C474">
-        <v>137.34662</v>
+        <v>137.0853572</v>
       </c>
       <c r="D474" s="2">
-        <v>46043</v>
+        <v>46040</v>
+      </c>
+      <c r="H474">
+        <v>389</v>
       </c>
       <c r="I474">
-        <v>0</v>
-      </c>
-      <c r="K474">
-        <v>28</v>
+        <v>111</v>
+      </c>
+      <c r="M474">
+        <v>278</v>
+      </c>
+      <c r="O474">
+        <v>667</v>
       </c>
       <c r="P474" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="S474" s="2"/>
     </row>
     <row r="475" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
+        <v>262</v>
+      </c>
+      <c r="B475">
+        <v>-34.929459999999999</v>
+      </c>
+      <c r="C475">
+        <v>137.34075999999999</v>
+      </c>
+      <c r="D475" s="2">
+        <v>46041</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+      <c r="P475" t="s">
+        <v>270</v>
+      </c>
+      <c r="S475" s="2"/>
+    </row>
+    <row r="476" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>283</v>
+      </c>
+      <c r="B476">
+        <v>-34.970672</v>
+      </c>
+      <c r="C476">
+        <v>136.97022799999999</v>
+      </c>
+      <c r="D476" s="2">
+        <v>46041</v>
+      </c>
+      <c r="H476">
+        <v>15333</v>
+      </c>
+      <c r="I476">
+        <v>9333</v>
+      </c>
+      <c r="K476">
+        <v>1556</v>
+      </c>
+      <c r="L476">
+        <v>889</v>
+      </c>
+      <c r="M476">
+        <v>1333</v>
+      </c>
+      <c r="N476">
+        <v>444</v>
+      </c>
+      <c r="O476">
+        <v>19555</v>
+      </c>
+      <c r="P476" t="s">
+        <v>258</v>
+      </c>
+      <c r="S476" s="2"/>
+    </row>
+    <row r="477" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>284</v>
+      </c>
+      <c r="B477">
+        <v>-35.011718100000003</v>
+      </c>
+      <c r="C477">
+        <v>136.94842070000001</v>
+      </c>
+      <c r="D477" s="2">
+        <v>46041</v>
+      </c>
+      <c r="H477">
+        <v>1056</v>
+      </c>
+      <c r="I477">
+        <v>611</v>
+      </c>
+      <c r="K477">
+        <v>222</v>
+      </c>
+      <c r="L477">
+        <v>56</v>
+      </c>
+      <c r="M477">
+        <v>278</v>
+      </c>
+      <c r="N477">
+        <v>167</v>
+      </c>
+      <c r="O477">
+        <v>1779</v>
+      </c>
+      <c r="P477" t="s">
+        <v>258</v>
+      </c>
+      <c r="S477" s="2"/>
+    </row>
+    <row r="478" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>285</v>
+      </c>
+      <c r="B478">
+        <v>-34.953057899999997</v>
+      </c>
+      <c r="C478">
+        <v>136.973341</v>
+      </c>
+      <c r="D478" s="2">
+        <v>46041</v>
+      </c>
+      <c r="H478">
+        <v>27889</v>
+      </c>
+      <c r="I478">
+        <v>16667</v>
+      </c>
+      <c r="K478">
+        <v>444</v>
+      </c>
+      <c r="L478">
+        <v>556</v>
+      </c>
+      <c r="M478">
+        <v>444</v>
+      </c>
+      <c r="O478">
+        <v>29333</v>
+      </c>
+      <c r="P478" t="s">
+        <v>258</v>
+      </c>
+      <c r="S478" s="2"/>
+    </row>
+    <row r="479" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>287</v>
+      </c>
+      <c r="B479">
+        <v>-34.906165799999997</v>
+      </c>
+      <c r="C479">
+        <v>137.01125089999999</v>
+      </c>
+      <c r="D479" s="2">
+        <v>46041</v>
+      </c>
+      <c r="H479">
+        <v>8889</v>
+      </c>
+      <c r="I479">
+        <v>5111</v>
+      </c>
+      <c r="K479">
+        <v>333</v>
+      </c>
+      <c r="L479">
+        <v>333</v>
+      </c>
+      <c r="M479">
+        <v>556</v>
+      </c>
+      <c r="N479">
+        <v>111</v>
+      </c>
+      <c r="O479">
+        <v>10222</v>
+      </c>
+      <c r="P479" t="s">
+        <v>258</v>
+      </c>
+      <c r="S479" s="2"/>
+    </row>
+    <row r="480" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>290</v>
+      </c>
+      <c r="B480">
+        <v>-35.511031000000003</v>
+      </c>
+      <c r="C480">
+        <v>138.21822299999999</v>
+      </c>
+      <c r="D480" s="2">
+        <v>46041</v>
+      </c>
+      <c r="H480">
+        <v>1333</v>
+      </c>
+      <c r="I480">
+        <v>0</v>
+      </c>
+      <c r="K480">
+        <v>0</v>
+      </c>
+      <c r="M480">
+        <v>3333</v>
+      </c>
+      <c r="O480">
+        <v>4666</v>
+      </c>
+      <c r="P480" t="s">
+        <v>254</v>
+      </c>
+      <c r="S480" s="2"/>
+    </row>
+    <row r="481" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>120</v>
+      </c>
+      <c r="B481">
+        <v>-35.445186</v>
+      </c>
+      <c r="C481">
+        <v>138.307424</v>
+      </c>
+      <c r="D481" s="2">
+        <v>46041</v>
+      </c>
+      <c r="E481">
+        <v>56</v>
+      </c>
+      <c r="H481">
+        <v>778</v>
+      </c>
+      <c r="I481">
+        <v>0</v>
+      </c>
+      <c r="K481">
+        <v>0</v>
+      </c>
+      <c r="M481">
+        <v>1889</v>
+      </c>
+      <c r="O481">
+        <v>2723</v>
+      </c>
+      <c r="P481" t="s">
+        <v>254</v>
+      </c>
+      <c r="S481" s="2"/>
+    </row>
+    <row r="482" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>263</v>
+      </c>
+      <c r="B482">
+        <v>-34.895150000000001</v>
+      </c>
+      <c r="C482">
+        <v>137.24995000000001</v>
+      </c>
+      <c r="D482" s="2">
+        <v>46042</v>
+      </c>
+      <c r="I482">
+        <v>306</v>
+      </c>
+      <c r="P482" t="s">
+        <v>270</v>
+      </c>
+      <c r="S482" s="2"/>
+    </row>
+    <row r="483" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>264</v>
+      </c>
+      <c r="B483">
+        <v>-34.918889999999998</v>
+      </c>
+      <c r="C483">
+        <v>137.30171999999999</v>
+      </c>
+      <c r="D483" s="2">
+        <v>46042</v>
+      </c>
+      <c r="I483">
+        <v>0</v>
+      </c>
+      <c r="P483" t="s">
+        <v>270</v>
+      </c>
+      <c r="S483" s="2"/>
+    </row>
+    <row r="484" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>265</v>
+      </c>
+      <c r="B484">
+        <v>-34.933680000000003</v>
+      </c>
+      <c r="C484">
+        <v>137.35247000000001</v>
+      </c>
+      <c r="D484" s="2">
+        <v>46042</v>
+      </c>
+      <c r="I484">
+        <v>0</v>
+      </c>
+      <c r="P484" t="s">
+        <v>270</v>
+      </c>
+      <c r="S484" s="2"/>
+    </row>
+    <row r="485" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
         <v>266</v>
       </c>
-      <c r="B475">
+      <c r="B485">
+        <v>-34.672490000000003</v>
+      </c>
+      <c r="C485">
+        <v>137.49295000000001</v>
+      </c>
+      <c r="D485" s="2">
+        <v>46042</v>
+      </c>
+      <c r="I485">
+        <v>0</v>
+      </c>
+      <c r="P485" t="s">
+        <v>270</v>
+      </c>
+      <c r="S485" s="2"/>
+    </row>
+    <row r="486" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>209</v>
+      </c>
+      <c r="B486">
+        <v>-35.7987082</v>
+      </c>
+      <c r="C486">
+        <v>137.81647699999999</v>
+      </c>
+      <c r="D486" s="2">
+        <v>46042</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>0</v>
+      </c>
+      <c r="G486">
+        <v>0</v>
+      </c>
+      <c r="H486">
+        <v>444</v>
+      </c>
+      <c r="I486">
+        <v>0</v>
+      </c>
+      <c r="J486">
+        <v>0</v>
+      </c>
+      <c r="K486">
+        <v>444</v>
+      </c>
+      <c r="L486">
+        <v>0</v>
+      </c>
+      <c r="M486">
+        <v>0</v>
+      </c>
+      <c r="N486">
+        <v>0</v>
+      </c>
+      <c r="O486">
+        <v>888</v>
+      </c>
+      <c r="P486" t="s">
+        <v>151</v>
+      </c>
+      <c r="S486" s="2"/>
+    </row>
+    <row r="487" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>59</v>
+      </c>
+      <c r="B487">
+        <v>-35.084850000000003</v>
+      </c>
+      <c r="C487">
+        <v>137.74889999999999</v>
+      </c>
+      <c r="D487" s="2">
+        <v>46042</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>0</v>
+      </c>
+      <c r="G487">
+        <v>0</v>
+      </c>
+      <c r="H487">
+        <v>83</v>
+      </c>
+      <c r="I487">
+        <v>0</v>
+      </c>
+      <c r="J487">
+        <v>0</v>
+      </c>
+      <c r="K487">
+        <v>138</v>
+      </c>
+      <c r="M487">
+        <v>805</v>
+      </c>
+      <c r="O487">
+        <v>1026</v>
+      </c>
+      <c r="P487" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="488" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A488" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B488" s="13">
+        <v>-35.110022000000001</v>
+      </c>
+      <c r="C488" s="13">
+        <v>137.757082</v>
+      </c>
+      <c r="D488" s="14">
+        <v>46042</v>
+      </c>
+      <c r="E488" s="13"/>
+      <c r="F488" s="13"/>
+      <c r="G488" s="13"/>
+      <c r="H488" s="13">
+        <v>611</v>
+      </c>
+      <c r="I488" s="13">
+        <v>389</v>
+      </c>
+      <c r="J488" s="13"/>
+      <c r="K488" s="13">
+        <v>444</v>
+      </c>
+      <c r="L488" s="13"/>
+      <c r="M488" s="13">
+        <v>611</v>
+      </c>
+      <c r="N488" s="13">
+        <v>222</v>
+      </c>
+      <c r="O488" s="13">
+        <v>1888</v>
+      </c>
+      <c r="P488" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="489" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>267</v>
+      </c>
+      <c r="B489">
+        <v>-34.92989</v>
+      </c>
+      <c r="C489">
+        <v>137.34662</v>
+      </c>
+      <c r="D489" s="2">
+        <v>46043</v>
+      </c>
+      <c r="I489">
+        <v>0</v>
+      </c>
+      <c r="K489">
+        <v>28</v>
+      </c>
+      <c r="P489" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="490" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>265</v>
+      </c>
+      <c r="B490">
         <v>-34.933680000000003</v>
       </c>
-      <c r="C475">
+      <c r="C490">
         <v>137.35247000000001</v>
       </c>
-      <c r="D475" s="2">
+      <c r="D490" s="2">
         <v>46043</v>
       </c>
-      <c r="I475">
-        <v>0</v>
-      </c>
-      <c r="P475" t="s">
-        <v>271</v>
-      </c>
-      <c r="S475" s="2"/>
-    </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D476" s="2"/>
-      <c r="S476" s="2"/>
-    </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D477" s="2"/>
-      <c r="S477" s="2"/>
-    </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D478" s="2"/>
-      <c r="S478" s="2"/>
-    </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D479" s="2"/>
-      <c r="S479" s="2"/>
-    </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D480" s="2"/>
-      <c r="S480" s="2"/>
-    </row>
-    <row r="481" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D481" s="2"/>
-      <c r="S481" s="2"/>
-    </row>
-    <row r="482" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D482" s="2"/>
-      <c r="S482" s="2"/>
-    </row>
-    <row r="483" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D483" s="2"/>
-      <c r="S483" s="2"/>
-    </row>
-    <row r="484" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D484" s="2"/>
-      <c r="S484" s="2"/>
-    </row>
-    <row r="485" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D485" s="2"/>
-      <c r="S485" s="2"/>
-    </row>
-    <row r="486" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D486" s="2"/>
-      <c r="S486" s="2"/>
+      <c r="I490">
+        <v>0</v>
+      </c>
+      <c r="P490" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="491" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>294</v>
+      </c>
+      <c r="B491">
+        <v>-34.630270000000003</v>
+      </c>
+      <c r="C491">
+        <v>135.86533</v>
+      </c>
+      <c r="D491" s="2">
+        <v>46044</v>
+      </c>
+      <c r="H491">
+        <v>722</v>
+      </c>
+      <c r="I491">
+        <v>0</v>
+      </c>
+      <c r="K491">
+        <v>1000</v>
+      </c>
+      <c r="N491">
+        <v>1167</v>
+      </c>
+      <c r="O491">
+        <v>2889</v>
+      </c>
+      <c r="P491" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="492" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>295</v>
+      </c>
+      <c r="B492">
+        <v>-34.629179999999998</v>
+      </c>
+      <c r="C492">
+        <v>135.86635000000001</v>
+      </c>
+      <c r="D492" s="2">
+        <v>46044</v>
+      </c>
+      <c r="H492">
+        <v>111</v>
+      </c>
+      <c r="I492">
+        <v>0</v>
+      </c>
+      <c r="K492">
+        <v>556</v>
+      </c>
+      <c r="N492">
+        <v>278</v>
+      </c>
+      <c r="O492">
+        <v>945</v>
+      </c>
+      <c r="P492" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="493" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>296</v>
+      </c>
+      <c r="B493">
+        <v>-34.628860000000003</v>
+      </c>
+      <c r="C493">
+        <v>135.86708999999999</v>
+      </c>
+      <c r="D493" s="2">
+        <v>46044</v>
+      </c>
+      <c r="H493">
+        <v>167</v>
+      </c>
+      <c r="I493">
+        <v>0</v>
+      </c>
+      <c r="K493">
+        <v>500</v>
+      </c>
+      <c r="N493">
+        <v>56</v>
+      </c>
+      <c r="O493">
+        <v>723</v>
+      </c>
+      <c r="P493" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="494" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>213</v>
+      </c>
+      <c r="B494">
+        <v>-35.515507999999997</v>
+      </c>
+      <c r="C494">
+        <v>138.729004</v>
+      </c>
+      <c r="D494" s="2">
+        <v>46044</v>
+      </c>
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+      <c r="H494" s="1">
+        <v>167</v>
+      </c>
+      <c r="I494" s="1">
+        <v>0</v>
+      </c>
+      <c r="J494" s="1"/>
+      <c r="K494" s="1">
+        <v>0</v>
+      </c>
+      <c r="L494" s="1"/>
+      <c r="M494" s="1"/>
+      <c r="N494" s="1"/>
+      <c r="O494" s="1"/>
+      <c r="P494" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="495" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>188</v>
+      </c>
+      <c r="B495">
+        <v>-35.516800000000003</v>
+      </c>
+      <c r="C495">
+        <v>138.70439999999999</v>
+      </c>
+      <c r="D495" s="2">
+        <v>46044</v>
+      </c>
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+      <c r="H495" s="1">
+        <v>222</v>
+      </c>
+      <c r="I495" s="1">
+        <v>0</v>
+      </c>
+      <c r="J495" s="1"/>
+      <c r="K495" s="1">
+        <v>0</v>
+      </c>
+      <c r="L495" s="1"/>
+      <c r="M495" s="1"/>
+      <c r="N495" s="1"/>
+      <c r="O495" s="1"/>
+      <c r="P495" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="496" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>186</v>
+      </c>
+      <c r="B496">
+        <v>-35.538469999999997</v>
+      </c>
+      <c r="C496">
+        <v>138.649779</v>
+      </c>
+      <c r="D496" s="2">
+        <v>46044</v>
+      </c>
+      <c r="H496">
+        <v>111</v>
+      </c>
+      <c r="I496">
+        <v>0</v>
+      </c>
+      <c r="K496">
+        <v>111</v>
+      </c>
+      <c r="P496" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="497" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>91</v>
+      </c>
+      <c r="B497">
+        <v>-35.536168000000004</v>
+      </c>
+      <c r="C497">
+        <v>138.677615</v>
+      </c>
+      <c r="D497" s="2">
+        <v>46044</v>
+      </c>
+      <c r="H497" s="1">
+        <v>222</v>
+      </c>
+      <c r="I497">
+        <v>0</v>
+      </c>
+      <c r="K497" s="1">
+        <v>0</v>
+      </c>
+      <c r="P497" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="498" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>190</v>
+      </c>
+      <c r="B498">
+        <v>-35.592393000000001</v>
+      </c>
+      <c r="C498">
+        <v>138.599706</v>
+      </c>
+      <c r="D498" s="2">
+        <v>46044</v>
+      </c>
+      <c r="H498" s="1">
+        <v>167</v>
+      </c>
+      <c r="I498">
+        <v>0</v>
+      </c>
+      <c r="K498" s="1">
+        <v>111</v>
+      </c>
+      <c r="P498" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="499" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>92</v>
+      </c>
+      <c r="B499">
+        <v>-35.634602000000001</v>
+      </c>
+      <c r="C499">
+        <v>138.49898300000001</v>
+      </c>
+      <c r="D499" s="2">
+        <v>46044</v>
+      </c>
+      <c r="H499" s="1">
+        <v>111</v>
+      </c>
+      <c r="I499">
+        <v>167</v>
+      </c>
+      <c r="K499" s="1">
+        <v>111</v>
+      </c>
+      <c r="P499" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="500" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>225</v>
+      </c>
+      <c r="B500">
+        <v>-35.558100000000003</v>
+      </c>
+      <c r="C500">
+        <v>138.67920000000001</v>
+      </c>
+      <c r="D500" s="2">
+        <v>46044</v>
+      </c>
+      <c r="H500" s="1">
+        <v>111</v>
+      </c>
+      <c r="I500">
+        <v>0</v>
+      </c>
+      <c r="K500" s="1">
+        <v>167</v>
+      </c>
+      <c r="P500" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="501" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>294</v>
+      </c>
+      <c r="B501">
+        <v>-34.630270000000003</v>
+      </c>
+      <c r="C501">
+        <v>135.86533</v>
+      </c>
+      <c r="D501" s="2">
+        <v>46046</v>
+      </c>
+      <c r="H501">
+        <v>1556</v>
+      </c>
+      <c r="I501">
+        <v>0</v>
+      </c>
+      <c r="K501">
+        <v>889</v>
+      </c>
+      <c r="N501">
+        <v>444</v>
+      </c>
+      <c r="O501">
+        <v>2889</v>
+      </c>
+      <c r="P501" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>294</v>
+      </c>
+      <c r="B502">
+        <v>-34.630270000000003</v>
+      </c>
+      <c r="C502">
+        <v>135.86533</v>
+      </c>
+      <c r="D502" s="2">
+        <v>46046</v>
+      </c>
+      <c r="H502">
+        <v>1556</v>
+      </c>
+      <c r="I502">
+        <v>0</v>
+      </c>
+      <c r="K502">
+        <v>889</v>
+      </c>
+      <c r="N502">
+        <v>444</v>
+      </c>
+      <c r="O502">
+        <v>2889</v>
+      </c>
+      <c r="P502" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="503" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>306</v>
+      </c>
+      <c r="B503">
+        <v>-35.119663000000003</v>
+      </c>
+      <c r="C503">
+        <v>138.46739500000001</v>
+      </c>
+      <c r="D503" s="2">
+        <v>46046</v>
+      </c>
+      <c r="E503">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F503">
+        <v>0.45</v>
+      </c>
+      <c r="G503">
+        <v>0</v>
+      </c>
+      <c r="H503">
+        <v>2.1</v>
+      </c>
+      <c r="I503">
+        <v>0</v>
+      </c>
+      <c r="J503">
+        <v>0</v>
+      </c>
+      <c r="K503">
+        <v>5.85</v>
+      </c>
+      <c r="L503">
+        <v>0</v>
+      </c>
+      <c r="M503">
+        <v>0.3</v>
+      </c>
+      <c r="N503">
+        <v>0</v>
+      </c>
+      <c r="O503">
+        <v>8.74</v>
+      </c>
+      <c r="P503" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="504" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>179</v>
+      </c>
+      <c r="B504">
+        <v>-35.078539999999997</v>
+      </c>
+      <c r="C504">
+        <v>138.49587</v>
+      </c>
+      <c r="D504" s="2">
+        <v>46046</v>
+      </c>
+      <c r="E504">
+        <v>0</v>
+      </c>
+      <c r="F504">
+        <v>0</v>
+      </c>
+      <c r="G504">
+        <v>0</v>
+      </c>
+      <c r="H504">
+        <v>0.6</v>
+      </c>
+      <c r="I504">
+        <v>0</v>
+      </c>
+      <c r="J504">
+        <v>0</v>
+      </c>
+      <c r="K504">
+        <v>28.8</v>
+      </c>
+      <c r="L504">
+        <v>0.9</v>
+      </c>
+      <c r="M504">
+        <v>1.5</v>
+      </c>
+      <c r="N504">
+        <v>0.3</v>
+      </c>
+      <c r="O504">
+        <v>32.1</v>
+      </c>
+      <c r="P504" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="505" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>307</v>
+      </c>
+      <c r="B505">
+        <v>-35.031672</v>
+      </c>
+      <c r="C505">
+        <v>138.51659599999999</v>
+      </c>
+      <c r="D505" s="2">
+        <v>46046</v>
+      </c>
+      <c r="E505">
+        <v>0</v>
+      </c>
+      <c r="F505">
+        <v>0</v>
+      </c>
+      <c r="G505">
+        <v>0</v>
+      </c>
+      <c r="H505">
+        <v>0.82</v>
+      </c>
+      <c r="I505">
+        <v>0</v>
+      </c>
+      <c r="J505">
+        <v>0</v>
+      </c>
+      <c r="K505">
+        <v>8.35</v>
+      </c>
+      <c r="L505">
+        <v>0.35</v>
+      </c>
+      <c r="M505">
+        <v>0.06</v>
+      </c>
+      <c r="N505">
+        <v>0</v>
+      </c>
+      <c r="O505">
+        <v>9.59</v>
+      </c>
+      <c r="P505" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="506" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>309</v>
+      </c>
+      <c r="B506">
+        <v>-35.762554199999997</v>
+      </c>
+      <c r="C506">
+        <v>137.8867127</v>
+      </c>
+      <c r="D506" s="2">
+        <v>46046</v>
+      </c>
+      <c r="E506">
+        <v>0</v>
+      </c>
+      <c r="F506">
+        <v>0</v>
+      </c>
+      <c r="G506">
+        <v>667</v>
+      </c>
+      <c r="H506">
+        <v>444</v>
+      </c>
+      <c r="I506">
+        <v>0</v>
+      </c>
+      <c r="J506">
+        <v>0</v>
+      </c>
+      <c r="K506">
+        <v>2556</v>
+      </c>
+      <c r="L506">
+        <v>222</v>
+      </c>
+      <c r="M506">
+        <v>1111</v>
+      </c>
+      <c r="N506">
+        <v>333</v>
+      </c>
+      <c r="O506">
+        <v>5333</v>
+      </c>
+      <c r="P506" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="507" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>311</v>
+      </c>
+      <c r="B507">
+        <v>-35.511125999999997</v>
+      </c>
+      <c r="C507">
+        <v>138.218144</v>
+      </c>
+      <c r="D507" s="2">
+        <v>46046</v>
+      </c>
+      <c r="H507">
+        <v>167</v>
+      </c>
+      <c r="I507">
+        <v>0</v>
+      </c>
+      <c r="K507">
+        <v>167</v>
+      </c>
+      <c r="M507">
+        <v>3333</v>
+      </c>
+      <c r="N507">
+        <v>667</v>
+      </c>
+      <c r="O507">
+        <v>4334</v>
+      </c>
+      <c r="P507" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="508" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>310</v>
+      </c>
+      <c r="B508">
+        <v>-35.793973000000001</v>
+      </c>
+      <c r="C508">
+        <v>137.852418</v>
+      </c>
+      <c r="D508" s="2">
+        <v>46047</v>
+      </c>
+      <c r="E508">
+        <v>2778</v>
+      </c>
+      <c r="F508">
+        <v>0</v>
+      </c>
+      <c r="G508">
+        <v>333</v>
+      </c>
+      <c r="H508">
+        <v>1444</v>
+      </c>
+      <c r="I508">
+        <v>0</v>
+      </c>
+      <c r="J508">
+        <v>0</v>
+      </c>
+      <c r="K508">
+        <v>7222</v>
+      </c>
+      <c r="L508">
+        <v>333</v>
+      </c>
+      <c r="M508">
+        <v>778</v>
+      </c>
+      <c r="N508">
+        <v>333</v>
+      </c>
+      <c r="O508">
+        <v>13444</v>
+      </c>
+      <c r="P508" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="509" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>314</v>
+      </c>
+      <c r="B509">
+        <v>-35.132868999999999</v>
+      </c>
+      <c r="C509">
+        <v>137.58725699999999</v>
+      </c>
+      <c r="D509" s="2">
+        <v>46047</v>
+      </c>
+      <c r="H509">
+        <v>111</v>
+      </c>
+      <c r="I509">
+        <v>0</v>
+      </c>
+      <c r="K509">
+        <v>167</v>
+      </c>
+      <c r="M509">
+        <v>1000</v>
+      </c>
+      <c r="N509">
+        <v>389</v>
+      </c>
+      <c r="O509">
+        <v>1667</v>
+      </c>
+      <c r="P509" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="510" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>308</v>
+      </c>
+      <c r="B510">
+        <v>-34.899970000000003</v>
+      </c>
+      <c r="C510">
+        <v>137.45123000000001</v>
+      </c>
+      <c r="D510" s="2">
+        <v>46048</v>
+      </c>
+      <c r="H510">
+        <v>139</v>
+      </c>
+      <c r="I510">
+        <v>0</v>
+      </c>
+      <c r="K510">
+        <v>28</v>
+      </c>
+      <c r="M510">
+        <v>28</v>
+      </c>
+      <c r="O510">
+        <v>194</v>
+      </c>
+      <c r="P510" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="511" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>232</v>
+      </c>
+      <c r="B511">
+        <v>-35.054707999999998</v>
+      </c>
+      <c r="C511">
+        <v>137.725145</v>
+      </c>
+      <c r="D511" s="2">
+        <v>46048</v>
+      </c>
+      <c r="H511">
+        <v>46333</v>
+      </c>
+      <c r="I511">
+        <v>0</v>
+      </c>
+      <c r="K511">
+        <v>2000</v>
+      </c>
+      <c r="M511">
+        <v>170667</v>
+      </c>
+      <c r="N511">
+        <v>5333</v>
+      </c>
+      <c r="O511">
+        <v>224333</v>
+      </c>
+      <c r="P511" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="512" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>297</v>
+      </c>
+      <c r="B512">
+        <v>-33.917679999999997</v>
+      </c>
+      <c r="C512">
+        <v>136.5752</v>
+      </c>
+      <c r="D512" s="2">
+        <v>46049</v>
+      </c>
+      <c r="H512">
+        <v>0</v>
+      </c>
+      <c r="I512">
+        <v>0</v>
+      </c>
+      <c r="K512">
+        <v>389</v>
+      </c>
+      <c r="M512">
+        <v>3389</v>
+      </c>
+      <c r="N512">
+        <v>556</v>
+      </c>
+      <c r="O512">
+        <v>4334</v>
+      </c>
+      <c r="P512" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="513" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>298</v>
+      </c>
+      <c r="B513">
+        <v>-33.922530000000002</v>
+      </c>
+      <c r="C513">
+        <v>136.56854000000001</v>
+      </c>
+      <c r="D513" s="2">
+        <v>46049</v>
+      </c>
+      <c r="H513">
+        <v>444</v>
+      </c>
+      <c r="I513">
+        <v>0</v>
+      </c>
+      <c r="K513">
+        <v>3556</v>
+      </c>
+      <c r="M513">
+        <v>8333</v>
+      </c>
+      <c r="N513">
+        <v>389</v>
+      </c>
+      <c r="O513">
+        <v>12722</v>
+      </c>
+      <c r="P513" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="514" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>299</v>
+      </c>
+      <c r="B514">
+        <v>-33.912199999999999</v>
+      </c>
+      <c r="C514">
+        <v>136.58448999999999</v>
+      </c>
+      <c r="D514" s="2">
+        <v>46049</v>
+      </c>
+      <c r="H514">
+        <v>167</v>
+      </c>
+      <c r="I514">
+        <v>0</v>
+      </c>
+      <c r="K514">
+        <v>167</v>
+      </c>
+      <c r="M514">
+        <v>1667</v>
+      </c>
+      <c r="N514">
+        <v>333</v>
+      </c>
+      <c r="O514">
+        <v>2334</v>
+      </c>
+      <c r="P514" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="515" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>262</v>
+      </c>
+      <c r="B515">
+        <v>-34.929459999999999</v>
+      </c>
+      <c r="C515">
+        <v>137.34075999999999</v>
+      </c>
+      <c r="D515" s="2">
+        <v>46049</v>
+      </c>
+      <c r="I515">
+        <v>0</v>
+      </c>
+      <c r="O515">
+        <v>0</v>
+      </c>
+      <c r="P515" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q515" s="13"/>
+      <c r="R515" s="13"/>
+    </row>
+    <row r="516" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>265</v>
+      </c>
+      <c r="B516">
+        <v>-34.933680000000003</v>
+      </c>
+      <c r="C516">
+        <v>137.35247000000001</v>
+      </c>
+      <c r="D516" s="2">
+        <v>46049</v>
+      </c>
+      <c r="I516">
+        <v>0</v>
+      </c>
+      <c r="O516">
+        <v>0</v>
+      </c>
+      <c r="P516" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="517" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>312</v>
+      </c>
+      <c r="B517">
+        <v>-35.594605999999999</v>
+      </c>
+      <c r="C517">
+        <v>138.105254</v>
+      </c>
+      <c r="D517" s="2">
+        <v>46049</v>
+      </c>
+      <c r="E517">
+        <v>0</v>
+      </c>
+      <c r="H517">
+        <v>1167</v>
+      </c>
+      <c r="I517">
+        <v>0</v>
+      </c>
+      <c r="K517">
+        <v>1389</v>
+      </c>
+      <c r="M517">
+        <v>2611</v>
+      </c>
+      <c r="N517">
+        <v>5167</v>
+      </c>
+      <c r="O517">
+        <v>10334</v>
+      </c>
+      <c r="P517" t="s">
+        <v>254</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P475">
-    <sortCondition ref="D2:D475"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P517">
+    <sortCondition ref="D2:D517"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1675510\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B10EFA6-17D4-4D70-B696-43ABA1615D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583FB7F4-21D0-44D8-8126-F4150740F6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28785" yWindow="1770" windowWidth="24555" windowHeight="14220" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -1072,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1092,8 +1092,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1436,32 +1434,32 @@
   <dimension ref="A1:S517"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J527" sqref="J527"/>
+      <selection pane="bottomLeft" activeCell="C501" sqref="C501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="39.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" customWidth="1"/>
+    <col min="10" max="10" width="14.08984375" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.21875" customWidth="1"/>
+    <col min="14" max="14" width="7.6328125" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1511,7 +1509,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1540,7 +1538,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1578,7 +1576,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1619,7 +1617,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1654,7 +1652,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1698,7 +1696,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1742,7 +1740,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1780,7 +1778,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1821,7 +1819,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -1847,7 +1845,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -1873,7 +1871,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -1899,7 +1897,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -1925,7 +1923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -1951,7 +1949,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -1977,7 +1975,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -2003,7 +2001,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -2029,7 +2027,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -2055,7 +2053,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2099,7 +2097,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2131,7 +2129,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2163,7 +2161,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -2189,7 +2187,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2233,7 +2231,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2280,7 +2278,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2312,7 +2310,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2353,7 +2351,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2397,7 +2395,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2438,7 +2436,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2476,7 +2474,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -2508,7 +2506,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -2534,7 +2532,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2578,7 +2576,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -2610,7 +2608,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -2639,7 +2637,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -2680,7 +2678,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2724,7 +2722,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -2768,7 +2766,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2809,7 +2807,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2859,7 +2857,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -2906,7 +2904,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -2938,7 +2936,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -2973,7 +2971,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -3002,7 +3000,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -3028,7 +3026,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -3057,7 +3055,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -3086,7 +3084,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -3115,7 +3113,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -3144,7 +3142,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -3173,7 +3171,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -3214,7 +3212,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -3252,7 +3250,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -3281,7 +3279,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -3319,7 +3317,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -3351,7 +3349,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -3383,7 +3381,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -3415,7 +3413,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>108</v>
       </c>
@@ -3447,7 +3445,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -3485,7 +3483,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -3523,7 +3521,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -3564,7 +3562,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -3602,7 +3600,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -3640,7 +3638,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -3672,7 +3670,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -3704,7 +3702,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -3736,7 +3734,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -3768,7 +3766,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -3800,7 +3798,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -3832,7 +3830,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -3864,7 +3862,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>114</v>
       </c>
@@ -3896,7 +3894,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -3940,7 +3938,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -3982,7 +3980,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -4024,7 +4022,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -4066,7 +4064,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -4110,7 +4108,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -4154,7 +4152,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -4183,7 +4181,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>116</v>
       </c>
@@ -4212,7 +4210,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -4241,7 +4239,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -4267,7 +4265,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -4311,7 +4309,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -4355,7 +4353,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -4402,7 +4400,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -4446,7 +4444,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -4492,7 +4490,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -4524,7 +4522,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -4550,7 +4548,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>156</v>
       </c>
@@ -4576,7 +4574,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -4605,7 +4603,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -4652,7 +4650,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>35</v>
       </c>
@@ -4693,7 +4691,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -4725,7 +4723,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -4767,7 +4765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -4793,7 +4791,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>154</v>
       </c>
@@ -4819,7 +4817,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -4848,7 +4846,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>140</v>
       </c>
@@ -4874,7 +4872,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>141</v>
       </c>
@@ -4906,7 +4904,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>152</v>
       </c>
@@ -4932,7 +4930,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -4961,7 +4959,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -5005,7 +5003,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -5040,7 +5038,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>39</v>
       </c>
@@ -5081,7 +5079,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -5119,7 +5117,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>41</v>
       </c>
@@ -5157,7 +5155,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -5198,7 +5196,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>92</v>
       </c>
@@ -5227,7 +5225,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -5259,7 +5257,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -5303,7 +5301,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>86</v>
       </c>
@@ -5335,7 +5333,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -5364,7 +5362,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -5396,7 +5394,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>88</v>
       </c>
@@ -5422,7 +5420,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>89</v>
       </c>
@@ -5451,7 +5449,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>90</v>
       </c>
@@ -5477,7 +5475,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -5521,7 +5519,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>45</v>
       </c>
@@ -5565,7 +5563,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>46</v>
       </c>
@@ -5606,7 +5604,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>47</v>
       </c>
@@ -5644,7 +5642,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -5685,7 +5683,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>49</v>
       </c>
@@ -5723,7 +5721,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -5770,7 +5768,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>37</v>
       </c>
@@ -5811,7 +5809,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>77</v>
       </c>
@@ -5843,7 +5841,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>80</v>
       </c>
@@ -5875,7 +5873,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -5907,7 +5905,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -5936,7 +5934,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -5962,7 +5960,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>81</v>
       </c>
@@ -5994,7 +5992,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>161</v>
       </c>
@@ -6023,7 +6021,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -6055,7 +6053,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>157</v>
       </c>
@@ -6084,7 +6082,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>158</v>
       </c>
@@ -6116,7 +6114,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>125</v>
       </c>
@@ -6148,7 +6146,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>126</v>
       </c>
@@ -6189,7 +6187,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>127</v>
       </c>
@@ -6227,7 +6225,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -6265,7 +6263,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>132</v>
       </c>
@@ -6306,7 +6304,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>133</v>
       </c>
@@ -6347,7 +6345,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>134</v>
       </c>
@@ -6385,7 +6383,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>135</v>
       </c>
@@ -6423,7 +6421,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>136</v>
       </c>
@@ -6458,7 +6456,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>137</v>
       </c>
@@ -6493,7 +6491,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>138</v>
       </c>
@@ -6531,7 +6529,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>139</v>
       </c>
@@ -6566,7 +6564,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -6607,7 +6605,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>119</v>
       </c>
@@ -6645,7 +6643,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>120</v>
       </c>
@@ -6680,7 +6678,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>79</v>
       </c>
@@ -6712,7 +6710,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>237</v>
       </c>
@@ -6744,7 +6742,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>85</v>
       </c>
@@ -6776,7 +6774,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -6817,7 +6815,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>50</v>
       </c>
@@ -6855,7 +6853,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>27</v>
       </c>
@@ -6890,7 +6888,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>37</v>
       </c>
@@ -6931,7 +6929,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>79</v>
       </c>
@@ -6963,7 +6961,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>131</v>
       </c>
@@ -6995,7 +6993,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>237</v>
       </c>
@@ -7027,7 +7025,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>85</v>
       </c>
@@ -7059,7 +7057,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>51</v>
       </c>
@@ -7097,7 +7095,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>121</v>
       </c>
@@ -7129,7 +7127,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>18</v>
       </c>
@@ -7170,7 +7168,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>122</v>
       </c>
@@ -7199,7 +7197,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>79</v>
       </c>
@@ -7231,7 +7229,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>237</v>
       </c>
@@ -7263,7 +7261,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>85</v>
       </c>
@@ -7295,7 +7293,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>52</v>
       </c>
@@ -7339,7 +7337,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>53</v>
       </c>
@@ -7383,7 +7381,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -7424,7 +7422,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>82</v>
       </c>
@@ -7456,7 +7454,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>82</v>
       </c>
@@ -7488,7 +7486,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>84</v>
       </c>
@@ -7520,7 +7518,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>84</v>
       </c>
@@ -7552,7 +7550,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>54</v>
       </c>
@@ -7590,7 +7588,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>55</v>
       </c>
@@ -7628,7 +7626,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>56</v>
       </c>
@@ -7666,7 +7664,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>57</v>
       </c>
@@ -7701,7 +7699,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>58</v>
       </c>
@@ -7742,7 +7740,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>59</v>
       </c>
@@ -7777,7 +7775,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -7818,7 +7816,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -7859,7 +7857,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>60</v>
       </c>
@@ -7900,7 +7898,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>37</v>
       </c>
@@ -7941,7 +7939,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>131</v>
       </c>
@@ -7973,7 +7971,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>61</v>
       </c>
@@ -8014,7 +8012,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>62</v>
       </c>
@@ -8052,7 +8050,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>63</v>
       </c>
@@ -8090,7 +8088,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>94</v>
       </c>
@@ -8119,7 +8117,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>176</v>
       </c>
@@ -8160,7 +8158,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>79</v>
       </c>
@@ -8192,7 +8190,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>237</v>
       </c>
@@ -8224,7 +8222,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>85</v>
       </c>
@@ -8256,7 +8254,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -8297,7 +8295,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>130</v>
       </c>
@@ -8329,7 +8327,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>83</v>
       </c>
@@ -8361,7 +8359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -8405,7 +8403,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>86</v>
       </c>
@@ -8434,7 +8432,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>100</v>
       </c>
@@ -8472,7 +8470,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>87</v>
       </c>
@@ -8516,7 +8514,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>123</v>
       </c>
@@ -8554,7 +8552,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>124</v>
       </c>
@@ -8583,7 +8581,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>89</v>
       </c>
@@ -8615,7 +8613,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>90</v>
       </c>
@@ -8650,7 +8648,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>25</v>
       </c>
@@ -8697,7 +8695,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>79</v>
       </c>
@@ -8729,7 +8727,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>130</v>
       </c>
@@ -8761,7 +8759,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>85</v>
       </c>
@@ -8793,7 +8791,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>37</v>
       </c>
@@ -8831,7 +8829,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>162</v>
       </c>
@@ -8866,7 +8864,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>162</v>
       </c>
@@ -8898,7 +8896,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>162</v>
       </c>
@@ -8930,7 +8928,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>142</v>
       </c>
@@ -8956,7 +8954,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>144</v>
       </c>
@@ -8982,7 +8980,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>145</v>
       </c>
@@ -9008,7 +9006,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>146</v>
       </c>
@@ -9034,7 +9032,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>37</v>
       </c>
@@ -9072,7 +9070,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>142</v>
       </c>
@@ -9098,7 +9096,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>144</v>
       </c>
@@ -9124,7 +9122,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>145</v>
       </c>
@@ -9150,7 +9148,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>146</v>
       </c>
@@ -9176,7 +9174,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>18</v>
       </c>
@@ -9220,7 +9218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>79</v>
       </c>
@@ -9252,7 +9250,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>130</v>
       </c>
@@ -9285,7 +9283,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>237</v>
       </c>
@@ -9318,7 +9316,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>85</v>
       </c>
@@ -9351,7 +9349,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>142</v>
       </c>
@@ -9377,7 +9375,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>59</v>
       </c>
@@ -9421,7 +9419,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>37</v>
       </c>
@@ -9465,7 +9463,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>147</v>
       </c>
@@ -9491,7 +9489,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230" s="7" t="s">
         <v>168</v>
       </c>
@@ -9541,7 +9539,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>79</v>
       </c>
@@ -9573,7 +9571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>237</v>
       </c>
@@ -9605,7 +9603,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>85</v>
       </c>
@@ -9637,7 +9635,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>59</v>
       </c>
@@ -9663,7 +9661,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>156</v>
       </c>
@@ -9701,7 +9699,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>154</v>
       </c>
@@ -9736,7 +9734,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>37</v>
       </c>
@@ -9780,7 +9778,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>141</v>
       </c>
@@ -9812,7 +9810,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>93</v>
       </c>
@@ -9847,7 +9845,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>152</v>
       </c>
@@ -9882,7 +9880,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>142</v>
       </c>
@@ -9908,7 +9906,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>145</v>
       </c>
@@ -9934,7 +9932,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>146</v>
       </c>
@@ -9960,7 +9958,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>142</v>
       </c>
@@ -9986,7 +9984,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>148</v>
       </c>
@@ -10012,7 +10010,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>163</v>
       </c>
@@ -10050,7 +10048,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>164</v>
       </c>
@@ -10082,7 +10080,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>59</v>
       </c>
@@ -10114,7 +10112,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249" s="7" t="s">
         <v>167</v>
       </c>
@@ -10148,7 +10146,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>142</v>
       </c>
@@ -10174,7 +10172,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>177</v>
       </c>
@@ -10209,7 +10207,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>37</v>
       </c>
@@ -10256,7 +10254,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>142</v>
       </c>
@@ -10282,7 +10280,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>150</v>
       </c>
@@ -10308,7 +10306,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>38</v>
       </c>
@@ -10355,7 +10353,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>165</v>
       </c>
@@ -10390,7 +10388,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>88</v>
       </c>
@@ -10425,7 +10423,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" s="7" t="s">
         <v>166</v>
       </c>
@@ -10473,7 +10471,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>89</v>
       </c>
@@ -10502,7 +10500,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>174</v>
       </c>
@@ -10540,7 +10538,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>175</v>
       </c>
@@ -10569,7 +10567,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>59</v>
       </c>
@@ -10604,7 +10602,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>37</v>
       </c>
@@ -10651,7 +10649,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A264" s="7" t="s">
         <v>169</v>
       </c>
@@ -10697,7 +10695,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265" s="7" t="s">
         <v>171</v>
       </c>
@@ -10744,7 +10742,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266" s="7" t="s">
         <v>172</v>
       </c>
@@ -10791,7 +10789,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267" s="7" t="s">
         <v>170</v>
       </c>
@@ -10839,7 +10837,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A268" s="7" t="s">
         <v>173</v>
       </c>
@@ -10886,7 +10884,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>178</v>
       </c>
@@ -10930,7 +10928,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>37</v>
       </c>
@@ -10977,7 +10975,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>181</v>
       </c>
@@ -11018,7 +11016,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>182</v>
       </c>
@@ -11062,7 +11060,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>79</v>
       </c>
@@ -11094,7 +11092,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>237</v>
       </c>
@@ -11126,7 +11124,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>85</v>
       </c>
@@ -11158,7 +11156,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>179</v>
       </c>
@@ -11190,7 +11188,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>121</v>
       </c>
@@ -11225,7 +11223,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>92</v>
       </c>
@@ -11245,7 +11243,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>94</v>
       </c>
@@ -11280,7 +11278,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>186</v>
       </c>
@@ -11300,7 +11298,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>92</v>
       </c>
@@ -11320,7 +11318,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>183</v>
       </c>
@@ -11370,7 +11368,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>184</v>
       </c>
@@ -11420,7 +11418,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>185</v>
       </c>
@@ -11470,7 +11468,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>79</v>
       </c>
@@ -11502,7 +11500,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>237</v>
       </c>
@@ -11534,7 +11532,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>85</v>
       </c>
@@ -11566,7 +11564,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>86</v>
       </c>
@@ -11601,7 +11599,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>100</v>
       </c>
@@ -11639,7 +11637,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>87</v>
       </c>
@@ -11671,7 +11669,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>88</v>
       </c>
@@ -11700,7 +11698,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>89</v>
       </c>
@@ -11723,7 +11721,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>174</v>
       </c>
@@ -11761,7 +11759,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>91</v>
       </c>
@@ -11781,7 +11779,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>188</v>
       </c>
@@ -11801,7 +11799,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A296" s="10" t="s">
         <v>200</v>
       </c>
@@ -11851,7 +11849,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A297" s="10" t="s">
         <v>201</v>
       </c>
@@ -11901,7 +11899,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>59</v>
       </c>
@@ -11948,7 +11946,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>189</v>
       </c>
@@ -11968,7 +11966,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>188</v>
       </c>
@@ -11988,7 +11986,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>91</v>
       </c>
@@ -12008,7 +12006,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>186</v>
       </c>
@@ -12028,7 +12026,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>190</v>
       </c>
@@ -12048,7 +12046,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>92</v>
       </c>
@@ -12068,7 +12066,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>191</v>
       </c>
@@ -12088,7 +12086,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>37</v>
       </c>
@@ -12132,7 +12130,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>193</v>
       </c>
@@ -12164,7 +12162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>192</v>
       </c>
@@ -12196,7 +12194,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>194</v>
       </c>
@@ -12228,7 +12226,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>94</v>
       </c>
@@ -12266,7 +12264,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A311" s="10" t="s">
         <v>199</v>
       </c>
@@ -12314,7 +12312,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A312" s="9" t="s">
         <v>197</v>
       </c>
@@ -12364,7 +12362,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A313" s="10" t="s">
         <v>202</v>
       </c>
@@ -12414,7 +12412,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A314" s="9" t="s">
         <v>203</v>
       </c>
@@ -12464,7 +12462,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>195</v>
       </c>
@@ -12493,7 +12491,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>196</v>
       </c>
@@ -12528,7 +12526,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A317" s="10" t="s">
         <v>204</v>
       </c>
@@ -12578,7 +12576,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A318" s="9" t="s">
         <v>197</v>
       </c>
@@ -12628,7 +12626,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A319" s="10" t="s">
         <v>198</v>
       </c>
@@ -12678,7 +12676,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>178</v>
       </c>
@@ -12722,7 +12720,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>206</v>
       </c>
@@ -12772,7 +12770,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>207</v>
       </c>
@@ -12822,7 +12820,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>210</v>
       </c>
@@ -12872,7 +12870,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>79</v>
       </c>
@@ -12904,7 +12902,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>205</v>
       </c>
@@ -12936,7 +12934,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>85</v>
       </c>
@@ -12968,7 +12966,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>199</v>
       </c>
@@ -13018,7 +13016,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>94</v>
       </c>
@@ -13050,7 +13048,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>86</v>
       </c>
@@ -13088,7 +13086,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>212</v>
       </c>
@@ -13123,7 +13121,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>87</v>
       </c>
@@ -13158,7 +13156,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>211</v>
       </c>
@@ -13208,7 +13206,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>208</v>
       </c>
@@ -13258,7 +13256,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>209</v>
       </c>
@@ -13305,7 +13303,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>213</v>
       </c>
@@ -13325,7 +13323,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>186</v>
       </c>
@@ -13345,7 +13343,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>91</v>
       </c>
@@ -13365,7 +13363,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>92</v>
       </c>
@@ -13385,7 +13383,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>214</v>
       </c>
@@ -13405,7 +13403,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>215</v>
       </c>
@@ -13425,7 +13423,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>213</v>
       </c>
@@ -13445,7 +13443,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>91</v>
       </c>
@@ -13465,7 +13463,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>186</v>
       </c>
@@ -13485,7 +13483,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>215</v>
       </c>
@@ -13505,7 +13503,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>190</v>
       </c>
@@ -13525,7 +13523,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>92</v>
       </c>
@@ -13545,7 +13543,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>178</v>
       </c>
@@ -13592,7 +13590,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>156</v>
       </c>
@@ -13630,7 +13628,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>37</v>
       </c>
@@ -13674,7 +13672,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>232</v>
       </c>
@@ -13709,7 +13707,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>221</v>
       </c>
@@ -13759,7 +13757,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>226</v>
       </c>
@@ -13806,7 +13804,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>179</v>
       </c>
@@ -13853,7 +13851,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>154</v>
       </c>
@@ -13891,7 +13889,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>222</v>
       </c>
@@ -13941,7 +13939,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>300</v>
       </c>
@@ -13970,7 +13968,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>301</v>
       </c>
@@ -14005,7 +14003,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>223</v>
       </c>
@@ -14055,7 +14053,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>224</v>
       </c>
@@ -14105,7 +14103,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>94</v>
       </c>
@@ -14143,7 +14141,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>89</v>
       </c>
@@ -14181,7 +14179,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>18</v>
       </c>
@@ -14216,7 +14214,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>216</v>
       </c>
@@ -14257,7 +14255,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>217</v>
       </c>
@@ -14289,7 +14287,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>218</v>
       </c>
@@ -14327,7 +14325,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>219</v>
       </c>
@@ -14365,7 +14363,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>213</v>
       </c>
@@ -14388,7 +14386,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>186</v>
       </c>
@@ -14411,7 +14409,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>91</v>
       </c>
@@ -14434,7 +14432,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>92</v>
       </c>
@@ -14457,7 +14455,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>191</v>
       </c>
@@ -14480,7 +14478,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>225</v>
       </c>
@@ -14503,7 +14501,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>59</v>
       </c>
@@ -14547,7 +14545,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>230</v>
       </c>
@@ -14582,7 +14580,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>100</v>
       </c>
@@ -14623,7 +14621,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>87</v>
       </c>
@@ -14658,7 +14656,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>88</v>
       </c>
@@ -14699,7 +14697,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>302</v>
       </c>
@@ -14734,7 +14732,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>303</v>
       </c>
@@ -14769,7 +14767,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>174</v>
       </c>
@@ -14801,7 +14799,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>304</v>
       </c>
@@ -14836,7 +14834,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>305</v>
       </c>
@@ -14871,7 +14869,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>79</v>
       </c>
@@ -14912,7 +14910,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>237</v>
       </c>
@@ -14956,7 +14954,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>85</v>
       </c>
@@ -14988,7 +14986,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>231</v>
       </c>
@@ -15023,7 +15021,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>232</v>
       </c>
@@ -15055,7 +15053,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A388" s="10" t="s">
         <v>227</v>
       </c>
@@ -15105,7 +15103,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A389" s="10" t="s">
         <v>228</v>
       </c>
@@ -15155,7 +15153,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>233</v>
       </c>
@@ -15190,7 +15188,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>235</v>
       </c>
@@ -15240,7 +15238,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>209</v>
       </c>
@@ -15290,7 +15288,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>229</v>
       </c>
@@ -15340,7 +15338,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>232</v>
       </c>
@@ -15369,7 +15367,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>234</v>
       </c>
@@ -15419,7 +15417,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>37</v>
       </c>
@@ -15469,7 +15467,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>209</v>
       </c>
@@ -15519,7 +15517,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>232</v>
       </c>
@@ -15551,7 +15549,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>231</v>
       </c>
@@ -15586,7 +15584,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>79</v>
       </c>
@@ -15633,7 +15631,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>237</v>
       </c>
@@ -15680,7 +15678,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>209</v>
       </c>
@@ -15730,7 +15728,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>210</v>
       </c>
@@ -15780,7 +15778,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>232</v>
       </c>
@@ -15815,7 +15813,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>199</v>
       </c>
@@ -15865,7 +15863,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>236</v>
       </c>
@@ -15885,7 +15883,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>238</v>
       </c>
@@ -15935,7 +15933,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>239</v>
       </c>
@@ -15985,7 +15983,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>288</v>
       </c>
@@ -16017,7 +16015,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>240</v>
       </c>
@@ -16067,7 +16065,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>276</v>
       </c>
@@ -16102,7 +16100,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>277</v>
       </c>
@@ -16137,7 +16135,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>213</v>
       </c>
@@ -16157,7 +16155,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>186</v>
       </c>
@@ -16177,7 +16175,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>91</v>
       </c>
@@ -16197,7 +16195,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>190</v>
       </c>
@@ -16217,7 +16215,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>92</v>
       </c>
@@ -16237,7 +16235,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>225</v>
       </c>
@@ -16257,7 +16255,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>199</v>
       </c>
@@ -16307,7 +16305,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>237</v>
       </c>
@@ -16357,7 +16355,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>79</v>
       </c>
@@ -16407,7 +16405,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>242</v>
       </c>
@@ -16457,7 +16455,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>241</v>
       </c>
@@ -16507,7 +16505,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A424" s="10" t="s">
         <v>248</v>
       </c>
@@ -16557,7 +16555,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A425" s="10" t="s">
         <v>250</v>
       </c>
@@ -16607,7 +16605,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>278</v>
       </c>
@@ -16642,7 +16640,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>282</v>
       </c>
@@ -16677,7 +16675,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>243</v>
       </c>
@@ -16727,7 +16725,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>92</v>
       </c>
@@ -16777,7 +16775,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>244</v>
       </c>
@@ -16827,7 +16825,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>245</v>
       </c>
@@ -16877,7 +16875,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A432" s="10" t="s">
         <v>251</v>
       </c>
@@ -16927,7 +16925,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>279</v>
       </c>
@@ -16962,7 +16960,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>232</v>
       </c>
@@ -16994,7 +16992,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>249</v>
       </c>
@@ -17029,7 +17027,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>79</v>
       </c>
@@ -17079,7 +17077,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>246</v>
       </c>
@@ -17129,7 +17127,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>237</v>
       </c>
@@ -17179,7 +17177,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>245</v>
       </c>
@@ -17229,7 +17227,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>244</v>
       </c>
@@ -17279,7 +17277,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A441" s="10" t="s">
         <v>248</v>
       </c>
@@ -17329,7 +17327,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>252</v>
       </c>
@@ -17370,7 +17368,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>37</v>
       </c>
@@ -17408,7 +17406,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>222</v>
       </c>
@@ -17458,7 +17456,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>242</v>
       </c>
@@ -17496,7 +17494,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>232</v>
       </c>
@@ -17528,7 +17526,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>253</v>
       </c>
@@ -17560,7 +17558,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>199</v>
       </c>
@@ -17610,7 +17608,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>245</v>
       </c>
@@ -17645,7 +17643,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>244</v>
       </c>
@@ -17677,7 +17675,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>259</v>
       </c>
@@ -17715,7 +17713,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>256</v>
       </c>
@@ -17765,7 +17763,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>260</v>
       </c>
@@ -17815,7 +17813,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>59</v>
       </c>
@@ -17859,7 +17857,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>257</v>
       </c>
@@ -17909,7 +17907,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>255</v>
       </c>
@@ -17941,7 +17939,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>291</v>
       </c>
@@ -17970,7 +17968,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>292</v>
       </c>
@@ -17999,7 +17997,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>293</v>
       </c>
@@ -18028,7 +18026,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>248</v>
       </c>
@@ -18078,7 +18076,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>268</v>
       </c>
@@ -18125,7 +18123,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>271</v>
       </c>
@@ -18160,7 +18158,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>272</v>
       </c>
@@ -18192,7 +18190,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>85</v>
       </c>
@@ -18224,7 +18222,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>244</v>
       </c>
@@ -18259,7 +18257,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>246</v>
       </c>
@@ -18291,7 +18289,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>280</v>
       </c>
@@ -18326,7 +18324,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>281</v>
       </c>
@@ -18361,7 +18359,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>282</v>
       </c>
@@ -18396,7 +18394,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>261</v>
       </c>
@@ -18416,7 +18414,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>269</v>
       </c>
@@ -18467,7 +18465,7 @@
       </c>
       <c r="S471" s="2"/>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>274</v>
       </c>
@@ -18503,7 +18501,7 @@
       </c>
       <c r="S472" s="2"/>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>273</v>
       </c>
@@ -18536,7 +18534,7 @@
       </c>
       <c r="S473" s="2"/>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>286</v>
       </c>
@@ -18566,7 +18564,7 @@
       </c>
       <c r="S474" s="2"/>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>262</v>
       </c>
@@ -18587,7 +18585,7 @@
       </c>
       <c r="S475" s="2"/>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>283</v>
       </c>
@@ -18626,7 +18624,7 @@
       </c>
       <c r="S476" s="2"/>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>284</v>
       </c>
@@ -18665,7 +18663,7 @@
       </c>
       <c r="S477" s="2"/>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>285</v>
       </c>
@@ -18701,7 +18699,7 @@
       </c>
       <c r="S478" s="2"/>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>287</v>
       </c>
@@ -18740,7 +18738,7 @@
       </c>
       <c r="S479" s="2"/>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>290</v>
       </c>
@@ -18773,7 +18771,7 @@
       </c>
       <c r="S480" s="2"/>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>120</v>
       </c>
@@ -18809,7 +18807,7 @@
       </c>
       <c r="S481" s="2"/>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>263</v>
       </c>
@@ -18830,7 +18828,7 @@
       </c>
       <c r="S482" s="2"/>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>264</v>
       </c>
@@ -18851,7 +18849,7 @@
       </c>
       <c r="S483" s="2"/>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>265</v>
       </c>
@@ -18872,7 +18870,7 @@
       </c>
       <c r="S484" s="2"/>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>266</v>
       </c>
@@ -18893,7 +18891,7 @@
       </c>
       <c r="S485" s="2"/>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>209</v>
       </c>
@@ -18944,7 +18942,7 @@
       </c>
       <c r="S486" s="2"/>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>59</v>
       </c>
@@ -18988,47 +18986,42 @@
         <v>275</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A488" s="13" t="s">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A488" t="s">
         <v>313</v>
       </c>
-      <c r="B488" s="13">
+      <c r="B488">
         <v>-35.110022000000001</v>
       </c>
-      <c r="C488" s="13">
+      <c r="C488">
         <v>137.757082</v>
       </c>
-      <c r="D488" s="14">
+      <c r="D488" s="2">
         <v>46042</v>
       </c>
-      <c r="E488" s="13"/>
-      <c r="F488" s="13"/>
-      <c r="G488" s="13"/>
-      <c r="H488" s="13">
+      <c r="H488">
         <v>611</v>
       </c>
-      <c r="I488" s="13">
+      <c r="I488">
         <v>389</v>
       </c>
-      <c r="J488" s="13"/>
-      <c r="K488" s="13">
+      <c r="K488">
         <v>444</v>
       </c>
-      <c r="L488" s="13"/>
-      <c r="M488" s="13">
+      <c r="M488">
         <v>611</v>
       </c>
-      <c r="N488" s="13">
+      <c r="N488">
         <v>222</v>
       </c>
-      <c r="O488" s="13">
+      <c r="O488">
         <v>1888</v>
       </c>
-      <c r="P488" s="13" t="s">
+      <c r="P488" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>267</v>
       </c>
@@ -19051,7 +19044,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>265</v>
       </c>
@@ -19071,7 +19064,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>294</v>
       </c>
@@ -19103,7 +19096,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>295</v>
       </c>
@@ -19135,7 +19128,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>296</v>
       </c>
@@ -19167,7 +19160,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>213</v>
       </c>
@@ -19201,7 +19194,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>188</v>
       </c>
@@ -19235,7 +19228,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>186</v>
       </c>
@@ -19261,7 +19254,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>91</v>
       </c>
@@ -19287,7 +19280,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>190</v>
       </c>
@@ -19313,7 +19306,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>92</v>
       </c>
@@ -19339,15 +19332,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>225</v>
       </c>
       <c r="B500">
-        <v>-35.558100000000003</v>
+        <v>-35.557977000000001</v>
       </c>
       <c r="C500">
-        <v>138.67920000000001</v>
+        <v>138.61909</v>
       </c>
       <c r="D500" s="2">
         <v>46044</v>
@@ -19365,7 +19358,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>294</v>
       </c>
@@ -19397,7 +19390,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>294</v>
       </c>
@@ -19429,7 +19422,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>306</v>
       </c>
@@ -19479,7 +19472,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>179</v>
       </c>
@@ -19529,7 +19522,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>307</v>
       </c>
@@ -19579,7 +19572,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>309</v>
       </c>
@@ -19629,7 +19622,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>311</v>
       </c>
@@ -19664,7 +19657,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>310</v>
       </c>
@@ -19714,7 +19707,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="509" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>314</v>
       </c>
@@ -19749,7 +19742,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="510" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>308</v>
       </c>
@@ -19781,7 +19774,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="511" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>232</v>
       </c>
@@ -19816,7 +19809,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="512" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>297</v>
       </c>
@@ -19851,7 +19844,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="513" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>298</v>
       </c>
@@ -19886,7 +19879,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="514" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>299</v>
       </c>
@@ -19921,7 +19914,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>262</v>
       </c>
@@ -19943,10 +19936,8 @@
       <c r="P515" t="s">
         <v>270</v>
       </c>
-      <c r="Q515" s="13"/>
-      <c r="R515" s="13"/>
-    </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="516" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>265</v>
       </c>
@@ -19969,7 +19960,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="517" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>312</v>
       </c>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1675510\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583FB7F4-21D0-44D8-8126-F4150740F6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE38767-BE6C-4EE4-A091-C6D7B6ADCF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="331">
   <si>
     <t>Date</t>
   </si>
@@ -1001,6 +1001,54 @@
   </si>
   <si>
     <t xml:space="preserve">Kemp Bay, Shoreline </t>
+  </si>
+  <si>
+    <t>Wool Bay Jetty Stairwell, 1m depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edithburgh Boat Ramp, Bottom Sample </t>
+  </si>
+  <si>
+    <t>Rapid Bay beach</t>
+  </si>
+  <si>
+    <t>Second Valley Jetty (Dive)</t>
+  </si>
+  <si>
+    <t>Normanville Jetty</t>
+  </si>
+  <si>
+    <t>Middleton Cliffs</t>
+  </si>
+  <si>
+    <t>Bashams Beach</t>
+  </si>
+  <si>
+    <t>Victor Boat Ramp</t>
+  </si>
+  <si>
+    <t>Kent Reserve</t>
+  </si>
+  <si>
+    <t>Waitpinga</t>
+  </si>
+  <si>
+    <t>Berry Bay South Rocks, surface 4pm</t>
+  </si>
+  <si>
+    <t>The Pines</t>
+  </si>
+  <si>
+    <t>Pt Turton Swim Centre</t>
+  </si>
+  <si>
+    <t>Flaherty's Beach</t>
+  </si>
+  <si>
+    <t>Hardwicke Bay Boat Ramp beach</t>
+  </si>
+  <si>
+    <t>Neptune Island</t>
   </si>
 </sst>
 </file>
@@ -1431,35 +1479,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:S517"/>
+  <dimension ref="A1:S551"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C501" sqref="C501"/>
+      <selection pane="bottomLeft" activeCell="F561" sqref="F561"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="39.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="14.08984375" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" customWidth="1"/>
-    <col min="10" max="10" width="14.08984375" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" customWidth="1"/>
-    <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="7.6328125" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1509,7 +1557,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1538,7 +1586,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1576,7 +1624,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1617,7 +1665,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1652,7 +1700,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1696,7 +1744,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1740,7 +1788,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1778,7 +1826,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1819,7 +1867,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -1845,7 +1893,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -1871,7 +1919,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -1897,7 +1945,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -1923,7 +1971,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -1949,7 +1997,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -1975,7 +2023,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -2001,7 +2049,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -2027,7 +2075,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -2053,7 +2101,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2097,7 +2145,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2129,7 +2177,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2161,7 +2209,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -2187,7 +2235,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2231,7 +2279,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2278,7 +2326,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2310,7 +2358,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2351,7 +2399,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2395,7 +2443,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2436,7 +2484,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2474,7 +2522,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -2506,7 +2554,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -2532,7 +2580,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2576,7 +2624,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -2608,7 +2656,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -2637,7 +2685,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -2678,7 +2726,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2722,7 +2770,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -2766,7 +2814,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2807,7 +2855,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2857,7 +2905,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -2904,7 +2952,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -2936,7 +2984,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -2971,7 +3019,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -3000,7 +3048,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -3026,7 +3074,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -3055,7 +3103,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -3084,7 +3132,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -3113,7 +3161,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -3142,7 +3190,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -3171,7 +3219,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -3212,7 +3260,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -3250,7 +3298,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -3279,7 +3327,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -3317,7 +3365,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -3349,7 +3397,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -3381,7 +3429,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -3413,7 +3461,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>108</v>
       </c>
@@ -3445,7 +3493,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -3483,7 +3531,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -3521,7 +3569,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -3562,7 +3610,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -3600,7 +3648,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -3638,7 +3686,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -3670,7 +3718,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -3702,7 +3750,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -3734,7 +3782,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -3766,7 +3814,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -3798,7 +3846,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -3830,7 +3878,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -3862,7 +3910,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>114</v>
       </c>
@@ -3894,7 +3942,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -3938,7 +3986,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -3980,7 +4028,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -4022,7 +4070,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -4064,7 +4112,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -4108,7 +4156,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -4152,7 +4200,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -4181,7 +4229,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>116</v>
       </c>
@@ -4210,7 +4258,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -4239,7 +4287,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -4265,7 +4313,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -4309,7 +4357,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -4353,7 +4401,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -4400,7 +4448,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -4444,7 +4492,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -4490,7 +4538,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -4522,7 +4570,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -4548,7 +4596,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>156</v>
       </c>
@@ -4574,7 +4622,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -4603,7 +4651,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -4650,7 +4698,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>35</v>
       </c>
@@ -4691,7 +4739,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -4723,7 +4771,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -4765,7 +4813,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -4791,7 +4839,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>154</v>
       </c>
@@ -4817,7 +4865,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -4846,7 +4894,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>140</v>
       </c>
@@ -4872,7 +4920,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>141</v>
       </c>
@@ -4904,7 +4952,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>152</v>
       </c>
@@ -4930,7 +4978,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -4959,7 +5007,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -5003,7 +5051,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -5038,7 +5086,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>39</v>
       </c>
@@ -5079,7 +5127,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -5117,7 +5165,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>41</v>
       </c>
@@ -5155,7 +5203,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -5196,7 +5244,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>92</v>
       </c>
@@ -5225,7 +5273,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -5257,7 +5305,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -5301,7 +5349,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>86</v>
       </c>
@@ -5333,7 +5381,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -5362,7 +5410,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -5394,7 +5442,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>88</v>
       </c>
@@ -5420,7 +5468,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>89</v>
       </c>
@@ -5449,7 +5497,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>90</v>
       </c>
@@ -5475,7 +5523,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -5519,7 +5567,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>45</v>
       </c>
@@ -5563,7 +5611,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>46</v>
       </c>
@@ -5604,7 +5652,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>47</v>
       </c>
@@ -5642,7 +5690,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -5683,7 +5731,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>49</v>
       </c>
@@ -5721,7 +5769,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -5768,7 +5816,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>37</v>
       </c>
@@ -5809,7 +5857,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>77</v>
       </c>
@@ -5841,7 +5889,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>80</v>
       </c>
@@ -5873,7 +5921,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -5905,7 +5953,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -5934,7 +5982,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -5960,7 +6008,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>81</v>
       </c>
@@ -5992,7 +6040,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>161</v>
       </c>
@@ -6021,7 +6069,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -6053,7 +6101,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>157</v>
       </c>
@@ -6082,7 +6130,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>158</v>
       </c>
@@ -6114,7 +6162,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>125</v>
       </c>
@@ -6146,7 +6194,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>126</v>
       </c>
@@ -6187,7 +6235,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>127</v>
       </c>
@@ -6225,7 +6273,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -6263,7 +6311,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>132</v>
       </c>
@@ -6304,7 +6352,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>133</v>
       </c>
@@ -6345,7 +6393,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>134</v>
       </c>
@@ -6383,7 +6431,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>135</v>
       </c>
@@ -6421,7 +6469,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>136</v>
       </c>
@@ -6456,7 +6504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>137</v>
       </c>
@@ -6491,7 +6539,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>138</v>
       </c>
@@ -6529,7 +6577,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>139</v>
       </c>
@@ -6564,7 +6612,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -6605,7 +6653,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>119</v>
       </c>
@@ -6643,7 +6691,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>120</v>
       </c>
@@ -6678,7 +6726,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>79</v>
       </c>
@@ -6710,7 +6758,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>237</v>
       </c>
@@ -6742,7 +6790,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>85</v>
       </c>
@@ -6774,7 +6822,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -6815,7 +6863,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>50</v>
       </c>
@@ -6853,7 +6901,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>27</v>
       </c>
@@ -6888,7 +6936,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>37</v>
       </c>
@@ -6929,7 +6977,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>79</v>
       </c>
@@ -6961,7 +7009,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>131</v>
       </c>
@@ -6993,7 +7041,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>237</v>
       </c>
@@ -7025,7 +7073,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>85</v>
       </c>
@@ -7057,7 +7105,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>51</v>
       </c>
@@ -7095,7 +7143,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>121</v>
       </c>
@@ -7127,7 +7175,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>18</v>
       </c>
@@ -7168,7 +7216,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>122</v>
       </c>
@@ -7197,7 +7245,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>79</v>
       </c>
@@ -7229,7 +7277,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>237</v>
       </c>
@@ -7261,7 +7309,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>85</v>
       </c>
@@ -7293,7 +7341,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>52</v>
       </c>
@@ -7337,7 +7385,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>53</v>
       </c>
@@ -7381,7 +7429,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -7422,7 +7470,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>82</v>
       </c>
@@ -7454,7 +7502,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>82</v>
       </c>
@@ -7486,7 +7534,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>84</v>
       </c>
@@ -7518,7 +7566,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>84</v>
       </c>
@@ -7550,7 +7598,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>54</v>
       </c>
@@ -7588,7 +7636,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>55</v>
       </c>
@@ -7626,7 +7674,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>56</v>
       </c>
@@ -7664,7 +7712,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>57</v>
       </c>
@@ -7699,7 +7747,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>58</v>
       </c>
@@ -7740,7 +7788,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>59</v>
       </c>
@@ -7775,7 +7823,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -7816,7 +7864,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -7857,7 +7905,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>60</v>
       </c>
@@ -7898,7 +7946,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>37</v>
       </c>
@@ -7939,7 +7987,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>131</v>
       </c>
@@ -7971,7 +8019,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>61</v>
       </c>
@@ -8012,7 +8060,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>62</v>
       </c>
@@ -8050,7 +8098,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>63</v>
       </c>
@@ -8088,7 +8136,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>94</v>
       </c>
@@ -8117,7 +8165,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>176</v>
       </c>
@@ -8158,7 +8206,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>79</v>
       </c>
@@ -8190,7 +8238,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>237</v>
       </c>
@@ -8222,7 +8270,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>85</v>
       </c>
@@ -8254,7 +8302,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -8295,7 +8343,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>130</v>
       </c>
@@ -8327,7 +8375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>83</v>
       </c>
@@ -8359,7 +8407,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -8403,7 +8451,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>86</v>
       </c>
@@ -8432,7 +8480,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>100</v>
       </c>
@@ -8470,7 +8518,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>87</v>
       </c>
@@ -8514,7 +8562,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>123</v>
       </c>
@@ -8552,7 +8600,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>124</v>
       </c>
@@ -8581,7 +8629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>89</v>
       </c>
@@ -8613,7 +8661,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>90</v>
       </c>
@@ -8648,7 +8696,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>25</v>
       </c>
@@ -8695,7 +8743,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>79</v>
       </c>
@@ -8727,7 +8775,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>130</v>
       </c>
@@ -8759,7 +8807,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>85</v>
       </c>
@@ -8791,7 +8839,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>37</v>
       </c>
@@ -8829,7 +8877,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>162</v>
       </c>
@@ -8864,7 +8912,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>162</v>
       </c>
@@ -8896,7 +8944,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>162</v>
       </c>
@@ -8928,7 +8976,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>142</v>
       </c>
@@ -8954,7 +9002,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>144</v>
       </c>
@@ -8980,7 +9028,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>145</v>
       </c>
@@ -9006,7 +9054,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>146</v>
       </c>
@@ -9032,7 +9080,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>37</v>
       </c>
@@ -9070,7 +9118,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>142</v>
       </c>
@@ -9096,7 +9144,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>144</v>
       </c>
@@ -9122,7 +9170,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>145</v>
       </c>
@@ -9148,7 +9196,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>146</v>
       </c>
@@ -9174,7 +9222,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>18</v>
       </c>
@@ -9218,7 +9266,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>79</v>
       </c>
@@ -9250,7 +9298,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>130</v>
       </c>
@@ -9283,7 +9331,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>237</v>
       </c>
@@ -9316,7 +9364,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>85</v>
       </c>
@@ -9349,7 +9397,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>142</v>
       </c>
@@ -9375,7 +9423,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>59</v>
       </c>
@@ -9419,7 +9467,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>37</v>
       </c>
@@ -9463,7 +9511,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>147</v>
       </c>
@@ -9489,7 +9537,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
         <v>168</v>
       </c>
@@ -9539,7 +9587,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>79</v>
       </c>
@@ -9571,7 +9619,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>237</v>
       </c>
@@ -9603,7 +9651,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>85</v>
       </c>
@@ -9635,7 +9683,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>59</v>
       </c>
@@ -9661,7 +9709,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>156</v>
       </c>
@@ -9699,7 +9747,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>154</v>
       </c>
@@ -9734,7 +9782,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>37</v>
       </c>
@@ -9778,7 +9826,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>141</v>
       </c>
@@ -9810,7 +9858,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>93</v>
       </c>
@@ -9845,7 +9893,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>152</v>
       </c>
@@ -9880,7 +9928,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>142</v>
       </c>
@@ -9906,7 +9954,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>145</v>
       </c>
@@ -9932,7 +9980,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>146</v>
       </c>
@@ -9958,7 +10006,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>142</v>
       </c>
@@ -9984,7 +10032,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>148</v>
       </c>
@@ -10010,7 +10058,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>163</v>
       </c>
@@ -10048,7 +10096,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>164</v>
       </c>
@@ -10080,7 +10128,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>59</v>
       </c>
@@ -10112,7 +10160,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
         <v>167</v>
       </c>
@@ -10146,7 +10194,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>142</v>
       </c>
@@ -10172,7 +10220,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>177</v>
       </c>
@@ -10207,7 +10255,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>37</v>
       </c>
@@ -10254,7 +10302,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>142</v>
       </c>
@@ -10280,7 +10328,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>150</v>
       </c>
@@ -10306,7 +10354,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>38</v>
       </c>
@@ -10353,7 +10401,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>165</v>
       </c>
@@ -10388,7 +10436,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>88</v>
       </c>
@@ -10423,7 +10471,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" s="7" t="s">
         <v>166</v>
       </c>
@@ -10471,7 +10519,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>89</v>
       </c>
@@ -10500,7 +10548,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>174</v>
       </c>
@@ -10538,7 +10586,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>175</v>
       </c>
@@ -10567,7 +10615,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>59</v>
       </c>
@@ -10602,7 +10650,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>37</v>
       </c>
@@ -10649,7 +10697,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264" s="7" t="s">
         <v>169</v>
       </c>
@@ -10695,7 +10743,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
         <v>171</v>
       </c>
@@ -10742,7 +10790,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
         <v>172</v>
       </c>
@@ -10789,7 +10837,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
         <v>170</v>
       </c>
@@ -10837,7 +10885,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268" s="7" t="s">
         <v>173</v>
       </c>
@@ -10884,7 +10932,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>178</v>
       </c>
@@ -10928,7 +10976,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>37</v>
       </c>
@@ -10975,7 +11023,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>181</v>
       </c>
@@ -11016,7 +11064,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>182</v>
       </c>
@@ -11060,7 +11108,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>79</v>
       </c>
@@ -11092,7 +11140,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>237</v>
       </c>
@@ -11124,7 +11172,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>85</v>
       </c>
@@ -11156,7 +11204,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>179</v>
       </c>
@@ -11188,7 +11236,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>121</v>
       </c>
@@ -11223,7 +11271,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>92</v>
       </c>
@@ -11243,7 +11291,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>94</v>
       </c>
@@ -11278,7 +11326,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>186</v>
       </c>
@@ -11298,7 +11346,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>92</v>
       </c>
@@ -11318,7 +11366,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>183</v>
       </c>
@@ -11368,7 +11416,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>184</v>
       </c>
@@ -11418,7 +11466,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>185</v>
       </c>
@@ -11468,7 +11516,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>79</v>
       </c>
@@ -11500,7 +11548,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>237</v>
       </c>
@@ -11532,7 +11580,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>85</v>
       </c>
@@ -11564,7 +11612,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>86</v>
       </c>
@@ -11599,7 +11647,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>100</v>
       </c>
@@ -11637,7 +11685,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>87</v>
       </c>
@@ -11669,7 +11717,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>88</v>
       </c>
@@ -11698,7 +11746,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>89</v>
       </c>
@@ -11721,7 +11769,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>174</v>
       </c>
@@ -11759,7 +11807,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>91</v>
       </c>
@@ -11779,7 +11827,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>188</v>
       </c>
@@ -11799,7 +11847,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296" s="10" t="s">
         <v>200</v>
       </c>
@@ -11849,7 +11897,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A297" s="10" t="s">
         <v>201</v>
       </c>
@@ -11899,7 +11947,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>59</v>
       </c>
@@ -11946,7 +11994,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>189</v>
       </c>
@@ -11966,7 +12014,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>188</v>
       </c>
@@ -11986,7 +12034,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>91</v>
       </c>
@@ -12006,7 +12054,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>186</v>
       </c>
@@ -12026,7 +12074,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>190</v>
       </c>
@@ -12046,7 +12094,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>92</v>
       </c>
@@ -12066,7 +12114,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>191</v>
       </c>
@@ -12086,7 +12134,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>37</v>
       </c>
@@ -12130,7 +12178,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>193</v>
       </c>
@@ -12162,7 +12210,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>192</v>
       </c>
@@ -12194,7 +12242,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>194</v>
       </c>
@@ -12226,7 +12274,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>94</v>
       </c>
@@ -12264,7 +12312,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A311" s="10" t="s">
         <v>199</v>
       </c>
@@ -12312,7 +12360,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A312" s="9" t="s">
         <v>197</v>
       </c>
@@ -12362,7 +12410,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="s">
         <v>202</v>
       </c>
@@ -12412,7 +12460,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A314" s="9" t="s">
         <v>203</v>
       </c>
@@ -12462,7 +12510,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>195</v>
       </c>
@@ -12491,7 +12539,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>196</v>
       </c>
@@ -12526,7 +12574,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A317" s="10" t="s">
         <v>204</v>
       </c>
@@ -12576,7 +12624,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A318" s="9" t="s">
         <v>197</v>
       </c>
@@ -12626,7 +12674,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A319" s="10" t="s">
         <v>198</v>
       </c>
@@ -12676,7 +12724,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>178</v>
       </c>
@@ -12720,7 +12768,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>206</v>
       </c>
@@ -12770,7 +12818,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>207</v>
       </c>
@@ -12820,7 +12868,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>210</v>
       </c>
@@ -12870,7 +12918,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>79</v>
       </c>
@@ -12902,7 +12950,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>205</v>
       </c>
@@ -12934,7 +12982,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>85</v>
       </c>
@@ -12966,7 +13014,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>199</v>
       </c>
@@ -13016,7 +13064,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>94</v>
       </c>
@@ -13048,7 +13096,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>86</v>
       </c>
@@ -13086,7 +13134,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>212</v>
       </c>
@@ -13121,7 +13169,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>87</v>
       </c>
@@ -13156,7 +13204,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>211</v>
       </c>
@@ -13206,7 +13254,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>208</v>
       </c>
@@ -13256,7 +13304,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>209</v>
       </c>
@@ -13303,7 +13351,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>213</v>
       </c>
@@ -13323,7 +13371,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>186</v>
       </c>
@@ -13343,7 +13391,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>91</v>
       </c>
@@ -13363,7 +13411,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>92</v>
       </c>
@@ -13383,7 +13431,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>214</v>
       </c>
@@ -13403,7 +13451,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>215</v>
       </c>
@@ -13423,7 +13471,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>213</v>
       </c>
@@ -13443,7 +13491,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>91</v>
       </c>
@@ -13463,7 +13511,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>186</v>
       </c>
@@ -13483,7 +13531,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>215</v>
       </c>
@@ -13503,7 +13551,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>190</v>
       </c>
@@ -13523,7 +13571,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>92</v>
       </c>
@@ -13543,7 +13591,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>178</v>
       </c>
@@ -13590,7 +13638,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>156</v>
       </c>
@@ -13628,7 +13676,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>37</v>
       </c>
@@ -13672,7 +13720,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>232</v>
       </c>
@@ -13707,7 +13755,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>221</v>
       </c>
@@ -13757,7 +13805,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>226</v>
       </c>
@@ -13804,7 +13852,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>179</v>
       </c>
@@ -13851,7 +13899,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>154</v>
       </c>
@@ -13889,7 +13937,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>222</v>
       </c>
@@ -13939,7 +13987,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>300</v>
       </c>
@@ -13968,7 +14016,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>301</v>
       </c>
@@ -14003,7 +14051,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>223</v>
       </c>
@@ -14053,7 +14101,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>224</v>
       </c>
@@ -14103,7 +14151,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>94</v>
       </c>
@@ -14141,7 +14189,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>89</v>
       </c>
@@ -14179,7 +14227,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>18</v>
       </c>
@@ -14214,7 +14262,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>216</v>
       </c>
@@ -14255,7 +14303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>217</v>
       </c>
@@ -14287,7 +14335,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>218</v>
       </c>
@@ -14325,7 +14373,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>219</v>
       </c>
@@ -14363,7 +14411,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>213</v>
       </c>
@@ -14386,7 +14434,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>186</v>
       </c>
@@ -14409,7 +14457,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>91</v>
       </c>
@@ -14432,7 +14480,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>92</v>
       </c>
@@ -14455,7 +14503,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>191</v>
       </c>
@@ -14478,7 +14526,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>225</v>
       </c>
@@ -14501,7 +14549,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>59</v>
       </c>
@@ -14545,7 +14593,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>230</v>
       </c>
@@ -14580,7 +14628,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>100</v>
       </c>
@@ -14621,7 +14669,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>87</v>
       </c>
@@ -14656,7 +14704,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>88</v>
       </c>
@@ -14697,7 +14745,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>302</v>
       </c>
@@ -14732,7 +14780,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>303</v>
       </c>
@@ -14767,7 +14815,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>174</v>
       </c>
@@ -14799,7 +14847,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>304</v>
       </c>
@@ -14834,7 +14882,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>305</v>
       </c>
@@ -14869,7 +14917,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>79</v>
       </c>
@@ -14910,7 +14958,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>237</v>
       </c>
@@ -14954,7 +15002,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>85</v>
       </c>
@@ -14986,7 +15034,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>231</v>
       </c>
@@ -15021,7 +15069,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>232</v>
       </c>
@@ -15053,7 +15101,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A388" s="10" t="s">
         <v>227</v>
       </c>
@@ -15103,7 +15151,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A389" s="10" t="s">
         <v>228</v>
       </c>
@@ -15153,7 +15201,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>233</v>
       </c>
@@ -15188,7 +15236,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>235</v>
       </c>
@@ -15238,7 +15286,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>209</v>
       </c>
@@ -15288,7 +15336,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>229</v>
       </c>
@@ -15338,7 +15386,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>232</v>
       </c>
@@ -15367,7 +15415,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>234</v>
       </c>
@@ -15417,7 +15465,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>37</v>
       </c>
@@ -15467,7 +15515,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>209</v>
       </c>
@@ -15517,7 +15565,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>232</v>
       </c>
@@ -15549,7 +15597,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>231</v>
       </c>
@@ -15584,7 +15632,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>79</v>
       </c>
@@ -15631,7 +15679,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>237</v>
       </c>
@@ -15678,7 +15726,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>209</v>
       </c>
@@ -15728,7 +15776,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>210</v>
       </c>
@@ -15778,7 +15826,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>232</v>
       </c>
@@ -15813,7 +15861,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>199</v>
       </c>
@@ -15863,7 +15911,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>236</v>
       </c>
@@ -15883,7 +15931,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>238</v>
       </c>
@@ -15933,7 +15981,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>239</v>
       </c>
@@ -15983,7 +16031,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>288</v>
       </c>
@@ -16015,7 +16063,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>240</v>
       </c>
@@ -16065,7 +16113,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>276</v>
       </c>
@@ -16100,7 +16148,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>277</v>
       </c>
@@ -16135,7 +16183,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>213</v>
       </c>
@@ -16155,7 +16203,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>186</v>
       </c>
@@ -16175,7 +16223,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>91</v>
       </c>
@@ -16195,7 +16243,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>190</v>
       </c>
@@ -16215,7 +16263,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>92</v>
       </c>
@@ -16235,7 +16283,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>225</v>
       </c>
@@ -16255,7 +16303,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>199</v>
       </c>
@@ -16305,7 +16353,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>237</v>
       </c>
@@ -16355,7 +16403,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>79</v>
       </c>
@@ -16405,7 +16453,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>242</v>
       </c>
@@ -16455,7 +16503,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>241</v>
       </c>
@@ -16505,7 +16553,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A424" s="10" t="s">
         <v>248</v>
       </c>
@@ -16555,7 +16603,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A425" s="10" t="s">
         <v>250</v>
       </c>
@@ -16605,7 +16653,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>278</v>
       </c>
@@ -16640,7 +16688,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>282</v>
       </c>
@@ -16675,7 +16723,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>243</v>
       </c>
@@ -16725,7 +16773,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>92</v>
       </c>
@@ -16775,7 +16823,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>244</v>
       </c>
@@ -16825,7 +16873,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>245</v>
       </c>
@@ -16875,7 +16923,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A432" s="10" t="s">
         <v>251</v>
       </c>
@@ -16925,7 +16973,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>279</v>
       </c>
@@ -16960,7 +17008,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>232</v>
       </c>
@@ -16992,7 +17040,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>249</v>
       </c>
@@ -17027,7 +17075,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>79</v>
       </c>
@@ -17077,7 +17125,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>246</v>
       </c>
@@ -17127,7 +17175,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>237</v>
       </c>
@@ -17177,7 +17225,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>245</v>
       </c>
@@ -17227,7 +17275,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>244</v>
       </c>
@@ -17277,7 +17325,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A441" s="10" t="s">
         <v>248</v>
       </c>
@@ -17327,7 +17375,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>252</v>
       </c>
@@ -17368,7 +17416,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>37</v>
       </c>
@@ -17406,7 +17454,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>222</v>
       </c>
@@ -17456,7 +17504,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>242</v>
       </c>
@@ -17494,7 +17542,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>232</v>
       </c>
@@ -17526,7 +17574,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>253</v>
       </c>
@@ -17558,7 +17606,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>199</v>
       </c>
@@ -17608,7 +17656,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>245</v>
       </c>
@@ -17643,7 +17691,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>244</v>
       </c>
@@ -17675,7 +17723,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>259</v>
       </c>
@@ -17713,7 +17761,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>256</v>
       </c>
@@ -17763,7 +17811,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>260</v>
       </c>
@@ -17813,7 +17861,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>59</v>
       </c>
@@ -17857,7 +17905,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>257</v>
       </c>
@@ -17907,7 +17955,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>255</v>
       </c>
@@ -17939,7 +17987,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>291</v>
       </c>
@@ -17968,7 +18016,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>292</v>
       </c>
@@ -17997,7 +18045,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>293</v>
       </c>
@@ -18026,7 +18074,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>248</v>
       </c>
@@ -18076,7 +18124,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>268</v>
       </c>
@@ -18123,7 +18171,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>271</v>
       </c>
@@ -18158,7 +18206,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>272</v>
       </c>
@@ -18190,7 +18238,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>85</v>
       </c>
@@ -18222,7 +18270,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>244</v>
       </c>
@@ -18257,7 +18305,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>246</v>
       </c>
@@ -18289,7 +18337,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>280</v>
       </c>
@@ -18324,7 +18372,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>281</v>
       </c>
@@ -18359,7 +18407,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>282</v>
       </c>
@@ -18394,401 +18442,413 @@
         <v>220</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
+        <v>244</v>
+      </c>
+      <c r="B470">
+        <v>-34.860666999999999</v>
+      </c>
+      <c r="C470">
+        <v>138.490938</v>
+      </c>
+      <c r="D470" s="2">
+        <v>46039</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="G470">
+        <v>0</v>
+      </c>
+      <c r="H470">
+        <v>16.95</v>
+      </c>
+      <c r="I470">
+        <v>0.08</v>
+      </c>
+      <c r="K470">
+        <v>31.43</v>
+      </c>
+      <c r="L470">
+        <v>0.08</v>
+      </c>
+      <c r="M470">
+        <v>0.15</v>
+      </c>
+      <c r="N470">
+        <v>0.68</v>
+      </c>
+      <c r="O470">
+        <v>50.55</v>
+      </c>
+      <c r="P470" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="471" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
         <v>261</v>
       </c>
-      <c r="B470">
+      <c r="B471">
         <v>-34.827359999999999</v>
       </c>
-      <c r="C470">
+      <c r="C471">
         <v>137.45850999999999</v>
-      </c>
-      <c r="D470" s="2">
-        <v>46040</v>
-      </c>
-      <c r="I470">
-        <v>0</v>
-      </c>
-      <c r="P470" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A471" t="s">
-        <v>269</v>
-      </c>
-      <c r="B471">
-        <v>-35.739091000000002</v>
-      </c>
-      <c r="C471">
-        <v>137.67788400000001</v>
       </c>
       <c r="D471" s="2">
         <v>46040</v>
       </c>
-      <c r="E471">
-        <v>0</v>
-      </c>
-      <c r="F471">
-        <v>0</v>
-      </c>
-      <c r="G471">
-        <v>0</v>
-      </c>
-      <c r="H471">
-        <v>0</v>
-      </c>
       <c r="I471">
         <v>0</v>
       </c>
-      <c r="J471">
-        <v>0</v>
-      </c>
-      <c r="K471">
-        <v>1556</v>
-      </c>
-      <c r="L471">
-        <v>0</v>
-      </c>
-      <c r="M471">
-        <v>0</v>
-      </c>
-      <c r="N471">
-        <v>0</v>
-      </c>
-      <c r="O471">
-        <v>1556</v>
-      </c>
       <c r="P471" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="S471" s="2"/>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B472">
-        <v>-34.827600699999998</v>
+        <v>-35.739091000000002</v>
       </c>
       <c r="C472">
-        <v>137.45846420000001</v>
+        <v>137.67788400000001</v>
       </c>
       <c r="D472" s="2">
         <v>46040</v>
       </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+      <c r="G472">
+        <v>0</v>
+      </c>
       <c r="H472">
-        <v>3.98</v>
+        <v>0</v>
       </c>
       <c r="I472">
-        <v>2.33</v>
+        <v>0</v>
+      </c>
+      <c r="J472">
+        <v>0</v>
       </c>
       <c r="K472">
-        <v>2.85</v>
+        <v>1556</v>
+      </c>
+      <c r="L472">
+        <v>0</v>
       </c>
       <c r="M472">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N472">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="O472">
-        <v>7.13</v>
+        <v>1556</v>
       </c>
       <c r="P472" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="S472" s="2"/>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B473">
-        <v>-34.226579999999998</v>
+        <v>-34.827600699999998</v>
       </c>
       <c r="C473">
-        <v>138.02018000000001</v>
+        <v>137.45846420000001</v>
       </c>
       <c r="D473" s="2">
         <v>46040</v>
       </c>
       <c r="H473">
-        <v>2.84</v>
+        <v>3.98</v>
       </c>
       <c r="I473">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="K473">
-        <v>51.28</v>
+        <v>2.85</v>
+      </c>
+      <c r="M473">
+        <v>0.23</v>
       </c>
       <c r="N473">
-        <v>0.41</v>
+        <v>0.08</v>
       </c>
       <c r="O473">
-        <v>54.53</v>
+        <v>7.13</v>
       </c>
       <c r="P473" t="s">
         <v>78</v>
       </c>
       <c r="S473" s="2"/>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B474">
-        <v>-34.917679100000001</v>
+        <v>-34.226579999999998</v>
       </c>
       <c r="C474">
-        <v>137.0853572</v>
+        <v>138.02018000000001</v>
       </c>
       <c r="D474" s="2">
         <v>46040</v>
       </c>
       <c r="H474">
+        <v>2.84</v>
+      </c>
+      <c r="I474">
+        <v>0</v>
+      </c>
+      <c r="K474">
+        <v>51.28</v>
+      </c>
+      <c r="N474">
+        <v>0.41</v>
+      </c>
+      <c r="O474">
+        <v>54.53</v>
+      </c>
+      <c r="P474" t="s">
+        <v>78</v>
+      </c>
+      <c r="S474" s="2"/>
+    </row>
+    <row r="475" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>286</v>
+      </c>
+      <c r="B475">
+        <v>-34.917679100000001</v>
+      </c>
+      <c r="C475">
+        <v>137.0853572</v>
+      </c>
+      <c r="D475" s="2">
+        <v>46040</v>
+      </c>
+      <c r="H475">
         <v>389</v>
       </c>
-      <c r="I474">
+      <c r="I475">
         <v>111</v>
       </c>
-      <c r="M474">
+      <c r="M475">
         <v>278</v>
       </c>
-      <c r="O474">
+      <c r="O475">
         <v>667</v>
       </c>
-      <c r="P474" t="s">
+      <c r="P475" t="s">
         <v>258</v>
       </c>
-      <c r="S474" s="2"/>
-    </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A475" t="s">
+      <c r="S475" s="2"/>
+    </row>
+    <row r="476" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
         <v>262</v>
       </c>
-      <c r="B475">
+      <c r="B476">
         <v>-34.929459999999999</v>
       </c>
-      <c r="C475">
+      <c r="C476">
         <v>137.34075999999999</v>
-      </c>
-      <c r="D475" s="2">
-        <v>46041</v>
-      </c>
-      <c r="I475">
-        <v>0</v>
-      </c>
-      <c r="P475" t="s">
-        <v>270</v>
-      </c>
-      <c r="S475" s="2"/>
-    </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A476" t="s">
-        <v>283</v>
-      </c>
-      <c r="B476">
-        <v>-34.970672</v>
-      </c>
-      <c r="C476">
-        <v>136.97022799999999</v>
       </c>
       <c r="D476" s="2">
         <v>46041</v>
       </c>
-      <c r="H476">
-        <v>15333</v>
-      </c>
       <c r="I476">
-        <v>9333</v>
-      </c>
-      <c r="K476">
-        <v>1556</v>
-      </c>
-      <c r="L476">
-        <v>889</v>
-      </c>
-      <c r="M476">
-        <v>1333</v>
-      </c>
-      <c r="N476">
-        <v>444</v>
-      </c>
-      <c r="O476">
-        <v>19555</v>
+        <v>0</v>
       </c>
       <c r="P476" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="S476" s="2"/>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B477">
-        <v>-35.011718100000003</v>
+        <v>-34.970672</v>
       </c>
       <c r="C477">
-        <v>136.94842070000001</v>
+        <v>136.97022799999999</v>
       </c>
       <c r="D477" s="2">
         <v>46041</v>
       </c>
       <c r="H477">
-        <v>1056</v>
+        <v>15333</v>
       </c>
       <c r="I477">
-        <v>611</v>
+        <v>9333</v>
       </c>
       <c r="K477">
-        <v>222</v>
+        <v>1556</v>
       </c>
       <c r="L477">
-        <v>56</v>
+        <v>889</v>
       </c>
       <c r="M477">
-        <v>278</v>
+        <v>1333</v>
       </c>
       <c r="N477">
-        <v>167</v>
+        <v>444</v>
       </c>
       <c r="O477">
-        <v>1779</v>
+        <v>19555</v>
       </c>
       <c r="P477" t="s">
         <v>258</v>
       </c>
       <c r="S477" s="2"/>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B478">
-        <v>-34.953057899999997</v>
+        <v>-35.011718100000003</v>
       </c>
       <c r="C478">
-        <v>136.973341</v>
+        <v>136.94842070000001</v>
       </c>
       <c r="D478" s="2">
         <v>46041</v>
       </c>
       <c r="H478">
-        <v>27889</v>
+        <v>1056</v>
       </c>
       <c r="I478">
-        <v>16667</v>
+        <v>611</v>
       </c>
       <c r="K478">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="L478">
-        <v>556</v>
+        <v>56</v>
       </c>
       <c r="M478">
-        <v>444</v>
+        <v>278</v>
+      </c>
+      <c r="N478">
+        <v>167</v>
       </c>
       <c r="O478">
-        <v>29333</v>
+        <v>1779</v>
       </c>
       <c r="P478" t="s">
         <v>258</v>
       </c>
       <c r="S478" s="2"/>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B479">
-        <v>-34.906165799999997</v>
+        <v>-34.953057899999997</v>
       </c>
       <c r="C479">
-        <v>137.01125089999999</v>
+        <v>136.973341</v>
       </c>
       <c r="D479" s="2">
         <v>46041</v>
       </c>
       <c r="H479">
-        <v>8889</v>
+        <v>27889</v>
       </c>
       <c r="I479">
-        <v>5111</v>
+        <v>16667</v>
       </c>
       <c r="K479">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="L479">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="M479">
-        <v>556</v>
-      </c>
-      <c r="N479">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="O479">
-        <v>10222</v>
+        <v>29333</v>
       </c>
       <c r="P479" t="s">
         <v>258</v>
       </c>
       <c r="S479" s="2"/>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B480">
-        <v>-35.511031000000003</v>
+        <v>-34.906165799999997</v>
       </c>
       <c r="C480">
-        <v>138.21822299999999</v>
+        <v>137.01125089999999</v>
       </c>
       <c r="D480" s="2">
         <v>46041</v>
       </c>
       <c r="H480">
-        <v>1333</v>
+        <v>8889</v>
       </c>
       <c r="I480">
-        <v>0</v>
+        <v>5111</v>
       </c>
       <c r="K480">
-        <v>0</v>
+        <v>333</v>
+      </c>
+      <c r="L480">
+        <v>333</v>
       </c>
       <c r="M480">
-        <v>3333</v>
+        <v>556</v>
+      </c>
+      <c r="N480">
+        <v>111</v>
       </c>
       <c r="O480">
-        <v>4666</v>
+        <v>10222</v>
       </c>
       <c r="P480" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="S480" s="2"/>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="B481">
-        <v>-35.445186</v>
+        <v>-35.511031000000003</v>
       </c>
       <c r="C481">
-        <v>138.307424</v>
+        <v>138.21822299999999</v>
       </c>
       <c r="D481" s="2">
         <v>46041</v>
       </c>
-      <c r="E481">
-        <v>56</v>
-      </c>
       <c r="H481">
-        <v>778</v>
+        <v>1333</v>
       </c>
       <c r="I481">
         <v>0</v>
@@ -18797,67 +18857,82 @@
         <v>0</v>
       </c>
       <c r="M481">
-        <v>1889</v>
+        <v>3333</v>
       </c>
       <c r="O481">
-        <v>2723</v>
+        <v>4666</v>
       </c>
       <c r="P481" t="s">
         <v>254</v>
       </c>
       <c r="S481" s="2"/>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
+        <v>120</v>
+      </c>
+      <c r="B482">
+        <v>-35.445186</v>
+      </c>
+      <c r="C482">
+        <v>138.307424</v>
+      </c>
+      <c r="D482" s="2">
+        <v>46041</v>
+      </c>
+      <c r="E482">
+        <v>56</v>
+      </c>
+      <c r="H482">
+        <v>778</v>
+      </c>
+      <c r="I482">
+        <v>0</v>
+      </c>
+      <c r="K482">
+        <v>0</v>
+      </c>
+      <c r="M482">
+        <v>1889</v>
+      </c>
+      <c r="O482">
+        <v>2723</v>
+      </c>
+      <c r="P482" t="s">
+        <v>254</v>
+      </c>
+      <c r="S482" s="2"/>
+    </row>
+    <row r="483" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
         <v>263</v>
       </c>
-      <c r="B482">
+      <c r="B483">
         <v>-34.895150000000001</v>
       </c>
-      <c r="C482">
+      <c r="C483">
         <v>137.24995000000001</v>
-      </c>
-      <c r="D482" s="2">
-        <v>46042</v>
-      </c>
-      <c r="I482">
-        <v>306</v>
-      </c>
-      <c r="P482" t="s">
-        <v>270</v>
-      </c>
-      <c r="S482" s="2"/>
-    </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A483" t="s">
-        <v>264</v>
-      </c>
-      <c r="B483">
-        <v>-34.918889999999998</v>
-      </c>
-      <c r="C483">
-        <v>137.30171999999999</v>
       </c>
       <c r="D483" s="2">
         <v>46042</v>
       </c>
       <c r="I483">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="P483" t="s">
         <v>270</v>
       </c>
       <c r="S483" s="2"/>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B484">
-        <v>-34.933680000000003</v>
+        <v>-34.918889999999998</v>
       </c>
       <c r="C484">
-        <v>137.35247000000001</v>
+        <v>137.30171999999999</v>
       </c>
       <c r="D484" s="2">
         <v>46042</v>
@@ -18870,15 +18945,15 @@
       </c>
       <c r="S484" s="2"/>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B485">
-        <v>-34.672490000000003</v>
+        <v>-34.933680000000003</v>
       </c>
       <c r="C485">
-        <v>137.49295000000001</v>
+        <v>137.35247000000001</v>
       </c>
       <c r="D485" s="2">
         <v>46042</v>
@@ -18891,66 +18966,36 @@
       </c>
       <c r="S485" s="2"/>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="B486">
-        <v>-35.7987082</v>
+        <v>-34.672490000000003</v>
       </c>
       <c r="C486">
-        <v>137.81647699999999</v>
+        <v>137.49295000000001</v>
       </c>
       <c r="D486" s="2">
         <v>46042</v>
       </c>
-      <c r="E486">
-        <v>0</v>
-      </c>
-      <c r="F486">
-        <v>0</v>
-      </c>
-      <c r="G486">
-        <v>0</v>
-      </c>
-      <c r="H486">
-        <v>444</v>
-      </c>
       <c r="I486">
         <v>0</v>
       </c>
-      <c r="J486">
-        <v>0</v>
-      </c>
-      <c r="K486">
-        <v>444</v>
-      </c>
-      <c r="L486">
-        <v>0</v>
-      </c>
-      <c r="M486">
-        <v>0</v>
-      </c>
-      <c r="N486">
-        <v>0</v>
-      </c>
-      <c r="O486">
-        <v>888</v>
-      </c>
       <c r="P486" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="S486" s="2"/>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>59</v>
+        <v>209</v>
       </c>
       <c r="B487">
-        <v>-35.084850000000003</v>
+        <v>-35.7987082</v>
       </c>
       <c r="C487">
-        <v>137.74889999999999</v>
+        <v>137.81647699999999</v>
       </c>
       <c r="D487" s="2">
         <v>46042</v>
@@ -18965,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="H487">
-        <v>83</v>
+        <v>444</v>
       </c>
       <c r="I487">
         <v>0</v>
@@ -18974,85 +19019,112 @@
         <v>0</v>
       </c>
       <c r="K487">
-        <v>138</v>
+        <v>444</v>
+      </c>
+      <c r="L487">
+        <v>0</v>
       </c>
       <c r="M487">
-        <v>805</v>
+        <v>0</v>
+      </c>
+      <c r="N487">
+        <v>0</v>
       </c>
       <c r="O487">
-        <v>1026</v>
+        <v>888</v>
       </c>
       <c r="P487" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="488" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>313</v>
+        <v>59</v>
       </c>
       <c r="B488">
-        <v>-35.110022000000001</v>
+        <v>-35.084850000000003</v>
       </c>
       <c r="C488">
-        <v>137.757082</v>
+        <v>137.74889999999999</v>
       </c>
       <c r="D488" s="2">
         <v>46042</v>
       </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+      <c r="G488">
+        <v>0</v>
+      </c>
       <c r="H488">
+        <v>83</v>
+      </c>
+      <c r="I488">
+        <v>0</v>
+      </c>
+      <c r="J488">
+        <v>0</v>
+      </c>
+      <c r="K488">
+        <v>138</v>
+      </c>
+      <c r="M488">
+        <v>805</v>
+      </c>
+      <c r="O488">
+        <v>1026</v>
+      </c>
+      <c r="P488" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="489" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>313</v>
+      </c>
+      <c r="B489">
+        <v>-35.110022000000001</v>
+      </c>
+      <c r="C489">
+        <v>137.757082</v>
+      </c>
+      <c r="D489" s="2">
+        <v>46042</v>
+      </c>
+      <c r="H489">
         <v>611</v>
       </c>
-      <c r="I488">
+      <c r="I489">
         <v>389</v>
       </c>
-      <c r="K488">
+      <c r="K489">
         <v>444</v>
       </c>
-      <c r="M488">
+      <c r="M489">
         <v>611</v>
       </c>
-      <c r="N488">
+      <c r="N489">
         <v>222</v>
       </c>
-      <c r="O488">
+      <c r="O489">
         <v>1888</v>
       </c>
-      <c r="P488" t="s">
+      <c r="P489" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A489" t="s">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
         <v>267</v>
       </c>
-      <c r="B489">
+      <c r="B490">
         <v>-34.92989</v>
       </c>
-      <c r="C489">
+      <c r="C490">
         <v>137.34662</v>
-      </c>
-      <c r="D489" s="2">
-        <v>46043</v>
-      </c>
-      <c r="I489">
-        <v>0</v>
-      </c>
-      <c r="K489">
-        <v>28</v>
-      </c>
-      <c r="P489" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A490" t="s">
-        <v>265</v>
-      </c>
-      <c r="B490">
-        <v>-34.933680000000003</v>
-      </c>
-      <c r="C490">
-        <v>137.35247000000001</v>
       </c>
       <c r="D490" s="2">
         <v>46043</v>
@@ -19060,149 +19132,138 @@
       <c r="I490">
         <v>0</v>
       </c>
+      <c r="K490">
+        <v>28</v>
+      </c>
       <c r="P490" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
+        <v>265</v>
+      </c>
+      <c r="B491">
+        <v>-34.933680000000003</v>
+      </c>
+      <c r="C491">
+        <v>137.35247000000001</v>
+      </c>
+      <c r="D491" s="2">
+        <v>46043</v>
+      </c>
+      <c r="I491">
+        <v>0</v>
+      </c>
+      <c r="P491" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="492" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
         <v>294</v>
       </c>
-      <c r="B491">
+      <c r="B492">
         <v>-34.630270000000003</v>
       </c>
-      <c r="C491">
+      <c r="C492">
         <v>135.86533</v>
-      </c>
-      <c r="D491" s="2">
-        <v>46044</v>
-      </c>
-      <c r="H491">
-        <v>722</v>
-      </c>
-      <c r="I491">
-        <v>0</v>
-      </c>
-      <c r="K491">
-        <v>1000</v>
-      </c>
-      <c r="N491">
-        <v>1167</v>
-      </c>
-      <c r="O491">
-        <v>2889</v>
-      </c>
-      <c r="P491" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A492" t="s">
-        <v>295</v>
-      </c>
-      <c r="B492">
-        <v>-34.629179999999998</v>
-      </c>
-      <c r="C492">
-        <v>135.86635000000001</v>
       </c>
       <c r="D492" s="2">
         <v>46044</v>
       </c>
       <c r="H492">
-        <v>111</v>
+        <v>722</v>
       </c>
       <c r="I492">
         <v>0</v>
       </c>
       <c r="K492">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="N492">
-        <v>278</v>
+        <v>1167</v>
       </c>
       <c r="O492">
-        <v>945</v>
+        <v>2889</v>
       </c>
       <c r="P492" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B493">
-        <v>-34.628860000000003</v>
+        <v>-34.629179999999998</v>
       </c>
       <c r="C493">
-        <v>135.86708999999999</v>
+        <v>135.86635000000001</v>
       </c>
       <c r="D493" s="2">
         <v>46044</v>
       </c>
       <c r="H493">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="I493">
         <v>0</v>
       </c>
       <c r="K493">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="N493">
-        <v>56</v>
+        <v>278</v>
       </c>
       <c r="O493">
-        <v>723</v>
+        <v>945</v>
       </c>
       <c r="P493" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>213</v>
+        <v>296</v>
       </c>
       <c r="B494">
-        <v>-35.515507999999997</v>
+        <v>-34.628860000000003</v>
       </c>
       <c r="C494">
-        <v>138.729004</v>
+        <v>135.86708999999999</v>
       </c>
       <c r="D494" s="2">
         <v>46044</v>
       </c>
-      <c r="E494" s="1"/>
-      <c r="F494" s="1"/>
-      <c r="G494" s="1"/>
-      <c r="H494" s="1">
+      <c r="H494">
         <v>167</v>
       </c>
-      <c r="I494" s="1">
-        <v>0</v>
-      </c>
-      <c r="J494" s="1"/>
-      <c r="K494" s="1">
-        <v>0</v>
-      </c>
-      <c r="L494" s="1"/>
-      <c r="M494" s="1"/>
-      <c r="N494" s="1"/>
-      <c r="O494" s="1"/>
+      <c r="I494">
+        <v>0</v>
+      </c>
+      <c r="K494">
+        <v>500</v>
+      </c>
+      <c r="N494">
+        <v>56</v>
+      </c>
+      <c r="O494">
+        <v>723</v>
+      </c>
       <c r="P494" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="495" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="B495">
-        <v>-35.516800000000003</v>
+        <v>-35.515507999999997</v>
       </c>
       <c r="C495">
-        <v>138.70439999999999</v>
+        <v>138.729004</v>
       </c>
       <c r="D495" s="2">
         <v>46044</v>
@@ -19211,7 +19272,7 @@
       <c r="F495" s="1"/>
       <c r="G495" s="1"/>
       <c r="H495" s="1">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="I495" s="1">
         <v>0</v>
@@ -19228,102 +19289,110 @@
         <v>187</v>
       </c>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B496">
-        <v>-35.538469999999997</v>
+        <v>-35.516800000000003</v>
       </c>
       <c r="C496">
-        <v>138.649779</v>
+        <v>138.70439999999999</v>
       </c>
       <c r="D496" s="2">
         <v>46044</v>
       </c>
-      <c r="H496">
-        <v>111</v>
-      </c>
-      <c r="I496">
-        <v>0</v>
-      </c>
-      <c r="K496">
-        <v>111</v>
-      </c>
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+      <c r="H496" s="1">
+        <v>222</v>
+      </c>
+      <c r="I496" s="1">
+        <v>0</v>
+      </c>
+      <c r="J496" s="1"/>
+      <c r="K496" s="1">
+        <v>0</v>
+      </c>
+      <c r="L496" s="1"/>
+      <c r="M496" s="1"/>
+      <c r="N496" s="1"/>
+      <c r="O496" s="1"/>
       <c r="P496" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="B497">
-        <v>-35.536168000000004</v>
+        <v>-35.538469999999997</v>
       </c>
       <c r="C497">
-        <v>138.677615</v>
+        <v>138.649779</v>
       </c>
       <c r="D497" s="2">
         <v>46044</v>
       </c>
-      <c r="H497" s="1">
-        <v>222</v>
+      <c r="H497">
+        <v>111</v>
       </c>
       <c r="I497">
         <v>0</v>
       </c>
-      <c r="K497" s="1">
-        <v>0</v>
+      <c r="K497">
+        <v>111</v>
       </c>
       <c r="P497" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="B498">
-        <v>-35.592393000000001</v>
+        <v>-35.536168000000004</v>
       </c>
       <c r="C498">
-        <v>138.599706</v>
+        <v>138.677615</v>
       </c>
       <c r="D498" s="2">
         <v>46044</v>
       </c>
       <c r="H498" s="1">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="I498">
         <v>0</v>
       </c>
       <c r="K498" s="1">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="P498" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="B499">
-        <v>-35.634602000000001</v>
+        <v>-35.592393000000001</v>
       </c>
       <c r="C499">
-        <v>138.49898300000001</v>
+        <v>138.599706</v>
       </c>
       <c r="D499" s="2">
         <v>46044</v>
       </c>
       <c r="H499" s="1">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="I499">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="K499" s="1">
         <v>111</v>
@@ -19332,15 +19401,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="B500">
-        <v>-35.557977000000001</v>
+        <v>-35.634602000000001</v>
       </c>
       <c r="C500">
-        <v>138.61909</v>
+        <v>138.49898300000001</v>
       </c>
       <c r="D500" s="2">
         <v>46044</v>
@@ -19349,48 +19418,42 @@
         <v>111</v>
       </c>
       <c r="I500">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="K500" s="1">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="P500" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>294</v>
+        <v>225</v>
       </c>
       <c r="B501">
-        <v>-34.630270000000003</v>
+        <v>-35.557977000000001</v>
       </c>
       <c r="C501">
-        <v>135.86533</v>
+        <v>138.61909</v>
       </c>
       <c r="D501" s="2">
-        <v>46046</v>
-      </c>
-      <c r="H501">
-        <v>1556</v>
+        <v>46044</v>
+      </c>
+      <c r="H501" s="1">
+        <v>111</v>
       </c>
       <c r="I501">
         <v>0</v>
       </c>
-      <c r="K501">
-        <v>889</v>
-      </c>
-      <c r="N501">
-        <v>444</v>
-      </c>
-      <c r="O501">
-        <v>2889</v>
+      <c r="K501" s="1">
+        <v>167</v>
       </c>
       <c r="P501" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>294</v>
       </c>
@@ -19422,80 +19485,62 @@
         <v>289</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B503">
-        <v>-35.119663000000003</v>
+        <v>-34.630270000000003</v>
       </c>
       <c r="C503">
-        <v>138.46739500000001</v>
+        <v>135.86533</v>
       </c>
       <c r="D503" s="2">
         <v>46046</v>
       </c>
-      <c r="E503">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="F503">
-        <v>0.45</v>
-      </c>
-      <c r="G503">
-        <v>0</v>
-      </c>
       <c r="H503">
-        <v>2.1</v>
+        <v>1556</v>
       </c>
       <c r="I503">
         <v>0</v>
       </c>
-      <c r="J503">
-        <v>0</v>
-      </c>
       <c r="K503">
-        <v>5.85</v>
-      </c>
-      <c r="L503">
-        <v>0</v>
-      </c>
-      <c r="M503">
-        <v>0.3</v>
+        <v>889</v>
       </c>
       <c r="N503">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="O503">
-        <v>8.74</v>
+        <v>2889</v>
       </c>
       <c r="P503" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="504" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>179</v>
+        <v>306</v>
       </c>
       <c r="B504">
-        <v>-35.078539999999997</v>
+        <v>-35.119663000000003</v>
       </c>
       <c r="C504">
-        <v>138.49587</v>
+        <v>138.46739500000001</v>
       </c>
       <c r="D504" s="2">
         <v>46046</v>
       </c>
       <c r="E504">
-        <v>0</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="F504">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="G504">
         <v>0</v>
       </c>
       <c r="H504">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="I504">
         <v>0</v>
@@ -19504,33 +19549,33 @@
         <v>0</v>
       </c>
       <c r="K504">
-        <v>28.8</v>
+        <v>5.85</v>
       </c>
       <c r="L504">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="M504">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="N504">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O504">
-        <v>32.1</v>
+        <v>8.74</v>
       </c>
       <c r="P504" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>307</v>
+        <v>179</v>
       </c>
       <c r="B505">
-        <v>-35.031672</v>
+        <v>-35.078539999999997</v>
       </c>
       <c r="C505">
-        <v>138.51659599999999</v>
+        <v>138.49587</v>
       </c>
       <c r="D505" s="2">
         <v>46046</v>
@@ -19545,7 +19590,7 @@
         <v>0</v>
       </c>
       <c r="H505">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
       <c r="I505">
         <v>0</v>
@@ -19554,33 +19599,33 @@
         <v>0</v>
       </c>
       <c r="K505">
-        <v>8.35</v>
+        <v>28.8</v>
       </c>
       <c r="L505">
-        <v>0.35</v>
+        <v>0.9</v>
       </c>
       <c r="M505">
-        <v>0.06</v>
+        <v>1.5</v>
       </c>
       <c r="N505">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O505">
-        <v>9.59</v>
+        <v>32.1</v>
       </c>
       <c r="P505" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B506">
-        <v>-35.762554199999997</v>
+        <v>-35.031672</v>
       </c>
       <c r="C506">
-        <v>137.8867127</v>
+        <v>138.51659599999999</v>
       </c>
       <c r="D506" s="2">
         <v>46046</v>
@@ -19592,10 +19637,10 @@
         <v>0</v>
       </c>
       <c r="G506">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="H506">
-        <v>444</v>
+        <v>0.82</v>
       </c>
       <c r="I506">
         <v>0</v>
@@ -19604,348 +19649,375 @@
         <v>0</v>
       </c>
       <c r="K506">
-        <v>2556</v>
+        <v>8.35</v>
       </c>
       <c r="L506">
-        <v>222</v>
+        <v>0.35</v>
       </c>
       <c r="M506">
-        <v>1111</v>
+        <v>0.06</v>
       </c>
       <c r="N506">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="O506">
-        <v>5333</v>
+        <v>9.59</v>
       </c>
       <c r="P506" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="507" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B507">
-        <v>-35.511125999999997</v>
+        <v>-35.762554199999997</v>
       </c>
       <c r="C507">
-        <v>138.218144</v>
+        <v>137.8867127</v>
       </c>
       <c r="D507" s="2">
         <v>46046</v>
       </c>
+      <c r="E507">
+        <v>0</v>
+      </c>
+      <c r="F507">
+        <v>0</v>
+      </c>
+      <c r="G507">
+        <v>667</v>
+      </c>
       <c r="H507">
+        <v>444</v>
+      </c>
+      <c r="I507">
+        <v>0</v>
+      </c>
+      <c r="J507">
+        <v>0</v>
+      </c>
+      <c r="K507">
+        <v>2556</v>
+      </c>
+      <c r="L507">
+        <v>222</v>
+      </c>
+      <c r="M507">
+        <v>1111</v>
+      </c>
+      <c r="N507">
+        <v>333</v>
+      </c>
+      <c r="O507">
+        <v>5333</v>
+      </c>
+      <c r="P507" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="508" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>311</v>
+      </c>
+      <c r="B508">
+        <v>-35.511125999999997</v>
+      </c>
+      <c r="C508">
+        <v>138.218144</v>
+      </c>
+      <c r="D508" s="2">
+        <v>46046</v>
+      </c>
+      <c r="H508">
         <v>167</v>
       </c>
-      <c r="I507">
-        <v>0</v>
-      </c>
-      <c r="K507">
+      <c r="I508">
+        <v>0</v>
+      </c>
+      <c r="K508">
         <v>167</v>
       </c>
-      <c r="M507">
+      <c r="M508">
         <v>3333</v>
       </c>
-      <c r="N507">
+      <c r="N508">
         <v>667</v>
       </c>
-      <c r="O507">
+      <c r="O508">
         <v>4334</v>
       </c>
-      <c r="P507" t="s">
+      <c r="P508" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A508" t="s">
+    <row r="509" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
         <v>310</v>
       </c>
-      <c r="B508">
+      <c r="B509">
         <v>-35.793973000000001</v>
       </c>
-      <c r="C508">
+      <c r="C509">
         <v>137.852418</v>
-      </c>
-      <c r="D508" s="2">
-        <v>46047</v>
-      </c>
-      <c r="E508">
-        <v>2778</v>
-      </c>
-      <c r="F508">
-        <v>0</v>
-      </c>
-      <c r="G508">
-        <v>333</v>
-      </c>
-      <c r="H508">
-        <v>1444</v>
-      </c>
-      <c r="I508">
-        <v>0</v>
-      </c>
-      <c r="J508">
-        <v>0</v>
-      </c>
-      <c r="K508">
-        <v>7222</v>
-      </c>
-      <c r="L508">
-        <v>333</v>
-      </c>
-      <c r="M508">
-        <v>778</v>
-      </c>
-      <c r="N508">
-        <v>333</v>
-      </c>
-      <c r="O508">
-        <v>13444</v>
-      </c>
-      <c r="P508" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="509" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A509" t="s">
-        <v>314</v>
-      </c>
-      <c r="B509">
-        <v>-35.132868999999999</v>
-      </c>
-      <c r="C509">
-        <v>137.58725699999999</v>
       </c>
       <c r="D509" s="2">
         <v>46047</v>
       </c>
+      <c r="E509">
+        <v>2778</v>
+      </c>
+      <c r="F509">
+        <v>0</v>
+      </c>
+      <c r="G509">
+        <v>333</v>
+      </c>
       <c r="H509">
+        <v>1444</v>
+      </c>
+      <c r="I509">
+        <v>0</v>
+      </c>
+      <c r="J509">
+        <v>0</v>
+      </c>
+      <c r="K509">
+        <v>7222</v>
+      </c>
+      <c r="L509">
+        <v>333</v>
+      </c>
+      <c r="M509">
+        <v>778</v>
+      </c>
+      <c r="N509">
+        <v>333</v>
+      </c>
+      <c r="O509">
+        <v>13444</v>
+      </c>
+      <c r="P509" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="510" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>314</v>
+      </c>
+      <c r="B510">
+        <v>-35.132868999999999</v>
+      </c>
+      <c r="C510">
+        <v>137.58725699999999</v>
+      </c>
+      <c r="D510" s="2">
+        <v>46047</v>
+      </c>
+      <c r="H510">
         <v>111</v>
       </c>
-      <c r="I509">
-        <v>0</v>
-      </c>
-      <c r="K509">
+      <c r="I510">
+        <v>0</v>
+      </c>
+      <c r="K510">
         <v>167</v>
       </c>
-      <c r="M509">
+      <c r="M510">
         <v>1000</v>
       </c>
-      <c r="N509">
+      <c r="N510">
         <v>389</v>
       </c>
-      <c r="O509">
+      <c r="O510">
         <v>1667</v>
       </c>
-      <c r="P509" t="s">
+      <c r="P510" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="510" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A510" t="s">
+    <row r="511" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
         <v>308</v>
       </c>
-      <c r="B510">
+      <c r="B511">
         <v>-34.899970000000003</v>
       </c>
-      <c r="C510">
+      <c r="C511">
         <v>137.45123000000001</v>
-      </c>
-      <c r="D510" s="2">
-        <v>46048</v>
-      </c>
-      <c r="H510">
-        <v>139</v>
-      </c>
-      <c r="I510">
-        <v>0</v>
-      </c>
-      <c r="K510">
-        <v>28</v>
-      </c>
-      <c r="M510">
-        <v>28</v>
-      </c>
-      <c r="O510">
-        <v>194</v>
-      </c>
-      <c r="P510" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="511" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A511" t="s">
-        <v>232</v>
-      </c>
-      <c r="B511">
-        <v>-35.054707999999998</v>
-      </c>
-      <c r="C511">
-        <v>137.725145</v>
       </c>
       <c r="D511" s="2">
         <v>46048</v>
       </c>
       <c r="H511">
+        <v>139</v>
+      </c>
+      <c r="I511">
+        <v>0</v>
+      </c>
+      <c r="K511">
+        <v>28</v>
+      </c>
+      <c r="M511">
+        <v>28</v>
+      </c>
+      <c r="O511">
+        <v>194</v>
+      </c>
+      <c r="P511" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="512" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>232</v>
+      </c>
+      <c r="B512">
+        <v>-35.054707999999998</v>
+      </c>
+      <c r="C512">
+        <v>137.725145</v>
+      </c>
+      <c r="D512" s="2">
+        <v>46048</v>
+      </c>
+      <c r="H512">
         <v>46333</v>
       </c>
-      <c r="I511">
-        <v>0</v>
-      </c>
-      <c r="K511">
+      <c r="I512">
+        <v>0</v>
+      </c>
+      <c r="K512">
         <v>2000</v>
       </c>
-      <c r="M511">
+      <c r="M512">
         <v>170667</v>
       </c>
-      <c r="N511">
+      <c r="N512">
         <v>5333</v>
       </c>
-      <c r="O511">
+      <c r="O512">
         <v>224333</v>
       </c>
-      <c r="P511" t="s">
+      <c r="P512" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="512" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A512" t="s">
+    <row r="513" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
         <v>297</v>
       </c>
-      <c r="B512">
+      <c r="B513">
         <v>-33.917679999999997</v>
       </c>
-      <c r="C512">
+      <c r="C513">
         <v>136.5752</v>
-      </c>
-      <c r="D512" s="2">
-        <v>46049</v>
-      </c>
-      <c r="H512">
-        <v>0</v>
-      </c>
-      <c r="I512">
-        <v>0</v>
-      </c>
-      <c r="K512">
-        <v>389</v>
-      </c>
-      <c r="M512">
-        <v>3389</v>
-      </c>
-      <c r="N512">
-        <v>556</v>
-      </c>
-      <c r="O512">
-        <v>4334</v>
-      </c>
-      <c r="P512" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="513" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A513" t="s">
-        <v>298</v>
-      </c>
-      <c r="B513">
-        <v>-33.922530000000002</v>
-      </c>
-      <c r="C513">
-        <v>136.56854000000001</v>
       </c>
       <c r="D513" s="2">
         <v>46049</v>
       </c>
       <c r="H513">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="I513">
         <v>0</v>
       </c>
       <c r="K513">
-        <v>3556</v>
+        <v>389</v>
       </c>
       <c r="M513">
-        <v>8333</v>
+        <v>3389</v>
       </c>
       <c r="N513">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="O513">
-        <v>12722</v>
+        <v>4334</v>
       </c>
       <c r="P513" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="514" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B514">
-        <v>-33.912199999999999</v>
+        <v>-33.922530000000002</v>
       </c>
       <c r="C514">
-        <v>136.58448999999999</v>
+        <v>136.56854000000001</v>
       </c>
       <c r="D514" s="2">
         <v>46049</v>
       </c>
       <c r="H514">
-        <v>167</v>
+        <v>444</v>
       </c>
       <c r="I514">
         <v>0</v>
       </c>
       <c r="K514">
-        <v>167</v>
+        <v>3556</v>
       </c>
       <c r="M514">
-        <v>1667</v>
+        <v>8333</v>
       </c>
       <c r="N514">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="O514">
-        <v>2334</v>
+        <v>12722</v>
       </c>
       <c r="P514" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="515" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="B515">
-        <v>-34.929459999999999</v>
+        <v>-33.912199999999999</v>
       </c>
       <c r="C515">
-        <v>137.34075999999999</v>
+        <v>136.58448999999999</v>
       </c>
       <c r="D515" s="2">
         <v>46049</v>
       </c>
+      <c r="H515">
+        <v>167</v>
+      </c>
       <c r="I515">
         <v>0</v>
       </c>
+      <c r="K515">
+        <v>167</v>
+      </c>
+      <c r="M515">
+        <v>1667</v>
+      </c>
+      <c r="N515">
+        <v>333</v>
+      </c>
       <c r="O515">
-        <v>0</v>
+        <v>2334</v>
       </c>
       <c r="P515" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="516" spans="1:16" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="516" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B516">
-        <v>-34.933680000000003</v>
+        <v>-34.929459999999999</v>
       </c>
       <c r="C516">
-        <v>137.35247000000001</v>
+        <v>137.34075999999999</v>
       </c>
       <c r="D516" s="2">
         <v>46049</v>
@@ -19960,47 +20032,1135 @@
         <v>270</v>
       </c>
     </row>
-    <row r="517" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="B517">
-        <v>-35.594605999999999</v>
+        <v>-34.933680000000003</v>
       </c>
       <c r="C517">
-        <v>138.105254</v>
+        <v>137.35247000000001</v>
       </c>
       <c r="D517" s="2">
         <v>46049</v>
       </c>
-      <c r="E517">
-        <v>0</v>
-      </c>
-      <c r="H517">
+      <c r="I517">
+        <v>0</v>
+      </c>
+      <c r="O517">
+        <v>0</v>
+      </c>
+      <c r="P517" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>312</v>
+      </c>
+      <c r="B518">
+        <v>-35.594605999999999</v>
+      </c>
+      <c r="C518">
+        <v>138.105254</v>
+      </c>
+      <c r="D518" s="2">
+        <v>46049</v>
+      </c>
+      <c r="E518">
+        <v>0</v>
+      </c>
+      <c r="H518">
         <v>1167</v>
       </c>
-      <c r="I517">
-        <v>0</v>
-      </c>
-      <c r="K517">
+      <c r="I518">
+        <v>0</v>
+      </c>
+      <c r="K518">
         <v>1389</v>
       </c>
-      <c r="M517">
+      <c r="M518">
         <v>2611</v>
       </c>
-      <c r="N517">
+      <c r="N518">
         <v>5167</v>
       </c>
-      <c r="O517">
+      <c r="O518">
         <v>10334</v>
       </c>
-      <c r="P517" t="s">
+      <c r="P518" t="s">
         <v>254</v>
       </c>
     </row>
+    <row r="519" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>318</v>
+      </c>
+      <c r="B519">
+        <v>-35.510753999999999</v>
+      </c>
+      <c r="C519">
+        <v>138.214427</v>
+      </c>
+      <c r="D519" s="2">
+        <v>46050</v>
+      </c>
+      <c r="E519">
+        <v>1722</v>
+      </c>
+      <c r="H519">
+        <v>500</v>
+      </c>
+      <c r="I519">
+        <v>0</v>
+      </c>
+      <c r="K519">
+        <v>333</v>
+      </c>
+      <c r="M519">
+        <v>2722</v>
+      </c>
+      <c r="N519">
+        <v>56</v>
+      </c>
+      <c r="O519">
+        <v>5333</v>
+      </c>
+      <c r="P519" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="520" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>100</v>
+      </c>
+      <c r="B520">
+        <v>-35.536745000000003</v>
+      </c>
+      <c r="C520">
+        <v>138.6913744</v>
+      </c>
+      <c r="D520" s="2">
+        <v>46050</v>
+      </c>
+      <c r="I520">
+        <v>0</v>
+      </c>
+      <c r="M520">
+        <v>111</v>
+      </c>
+      <c r="O520">
+        <v>111</v>
+      </c>
+      <c r="P520" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>86</v>
+      </c>
+      <c r="B521">
+        <v>-35.540277000000003</v>
+      </c>
+      <c r="C521">
+        <v>138.66416599999999</v>
+      </c>
+      <c r="D521" s="2">
+        <v>46050</v>
+      </c>
+      <c r="I521">
+        <v>0</v>
+      </c>
+      <c r="K521">
+        <v>167</v>
+      </c>
+      <c r="N521">
+        <v>167</v>
+      </c>
+      <c r="O521">
+        <v>334</v>
+      </c>
+      <c r="P521" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>87</v>
+      </c>
+      <c r="B522">
+        <v>-35.573300000000003</v>
+      </c>
+      <c r="C522">
+        <v>138.64250000000001</v>
+      </c>
+      <c r="D522" s="2">
+        <v>46050</v>
+      </c>
+      <c r="H522">
+        <v>111</v>
+      </c>
+      <c r="I522">
+        <v>0</v>
+      </c>
+      <c r="K522">
+        <v>111</v>
+      </c>
+      <c r="M522">
+        <v>278</v>
+      </c>
+      <c r="N522">
+        <v>56</v>
+      </c>
+      <c r="O522">
+        <v>556</v>
+      </c>
+      <c r="P522" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>88</v>
+      </c>
+      <c r="B523">
+        <v>-35.581124000000003</v>
+      </c>
+      <c r="C523">
+        <v>138.60879700000001</v>
+      </c>
+      <c r="D523" s="2">
+        <v>46050</v>
+      </c>
+      <c r="G523">
+        <v>56</v>
+      </c>
+      <c r="H523">
+        <v>56</v>
+      </c>
+      <c r="I523">
+        <v>0</v>
+      </c>
+      <c r="K523">
+        <v>111</v>
+      </c>
+      <c r="M523">
+        <v>333</v>
+      </c>
+      <c r="N523">
+        <v>389</v>
+      </c>
+      <c r="O523">
+        <v>945</v>
+      </c>
+      <c r="P523" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>302</v>
+      </c>
+      <c r="B524">
+        <v>-35.6048446</v>
+      </c>
+      <c r="C524">
+        <v>138.59278499999999</v>
+      </c>
+      <c r="D524" s="2">
+        <v>46050</v>
+      </c>
+      <c r="G524">
+        <v>56</v>
+      </c>
+      <c r="I524">
+        <v>0</v>
+      </c>
+      <c r="K524">
+        <v>56</v>
+      </c>
+      <c r="M524">
+        <v>278</v>
+      </c>
+      <c r="N524">
+        <v>389</v>
+      </c>
+      <c r="O524">
+        <v>779</v>
+      </c>
+      <c r="P524" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>304</v>
+      </c>
+      <c r="B525">
+        <v>-35.63158</v>
+      </c>
+      <c r="C525">
+        <v>138.56762000000001</v>
+      </c>
+      <c r="D525" s="2">
+        <v>46050</v>
+      </c>
+      <c r="G525">
+        <v>56</v>
+      </c>
+      <c r="H525">
+        <v>56</v>
+      </c>
+      <c r="I525">
+        <v>0</v>
+      </c>
+      <c r="M525">
+        <v>167</v>
+      </c>
+      <c r="N525">
+        <v>833</v>
+      </c>
+      <c r="O525">
+        <v>1112</v>
+      </c>
+      <c r="P525" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="526" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>305</v>
+      </c>
+      <c r="B526">
+        <v>-35.612963000000001</v>
+      </c>
+      <c r="C526">
+        <v>138.60035300000001</v>
+      </c>
+      <c r="D526" s="2">
+        <v>46050</v>
+      </c>
+      <c r="F526">
+        <v>111</v>
+      </c>
+      <c r="H526">
+        <v>223</v>
+      </c>
+      <c r="I526">
+        <v>111</v>
+      </c>
+      <c r="K526">
+        <v>56</v>
+      </c>
+      <c r="M526">
+        <v>1056</v>
+      </c>
+      <c r="N526">
+        <v>667</v>
+      </c>
+      <c r="O526">
+        <v>2113</v>
+      </c>
+      <c r="P526" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>326</v>
+      </c>
+      <c r="B527">
+        <v>-34.911830000000002</v>
+      </c>
+      <c r="C527">
+        <v>137.16248999999999</v>
+      </c>
+      <c r="D527" s="2">
+        <v>46050</v>
+      </c>
+      <c r="H527">
+        <v>1667</v>
+      </c>
+      <c r="I527">
+        <v>1667</v>
+      </c>
+      <c r="N527">
+        <v>56</v>
+      </c>
+      <c r="O527">
+        <v>1723</v>
+      </c>
+      <c r="P527" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>316</v>
+      </c>
+      <c r="B528">
+        <v>-35.089612000000002</v>
+      </c>
+      <c r="C528">
+        <v>137.748391</v>
+      </c>
+      <c r="D528" s="2">
+        <v>46052</v>
+      </c>
+      <c r="H528">
+        <v>278</v>
+      </c>
+      <c r="I528">
+        <v>0</v>
+      </c>
+      <c r="K528">
+        <v>1000</v>
+      </c>
+      <c r="M528">
+        <v>778</v>
+      </c>
+      <c r="N528">
+        <v>611</v>
+      </c>
+      <c r="O528">
+        <v>2667</v>
+      </c>
+      <c r="P528" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>315</v>
+      </c>
+      <c r="B529">
+        <v>-34.994472000000002</v>
+      </c>
+      <c r="C529">
+        <v>137.75879399999999</v>
+      </c>
+      <c r="D529" s="2">
+        <v>46052</v>
+      </c>
+      <c r="H529">
+        <v>278</v>
+      </c>
+      <c r="I529">
+        <v>56</v>
+      </c>
+      <c r="K529">
+        <v>222</v>
+      </c>
+      <c r="N529">
+        <v>167</v>
+      </c>
+      <c r="O529">
+        <v>667</v>
+      </c>
+      <c r="P529" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="530" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>317</v>
+      </c>
+      <c r="B530">
+        <v>-35.522570000000002</v>
+      </c>
+      <c r="C530">
+        <v>138.193851</v>
+      </c>
+      <c r="D530" s="2">
+        <v>46052</v>
+      </c>
+      <c r="E530">
+        <v>56</v>
+      </c>
+      <c r="H530">
+        <v>278</v>
+      </c>
+      <c r="I530">
+        <v>0</v>
+      </c>
+      <c r="K530">
+        <v>167</v>
+      </c>
+      <c r="M530">
+        <v>389</v>
+      </c>
+      <c r="N530">
+        <v>722</v>
+      </c>
+      <c r="O530">
+        <v>1612</v>
+      </c>
+      <c r="P530" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>214</v>
+      </c>
+      <c r="B531">
+        <v>-34.751460000000002</v>
+      </c>
+      <c r="C531">
+        <v>137.47702000000001</v>
+      </c>
+      <c r="D531" s="2">
+        <v>46052</v>
+      </c>
+      <c r="I531">
+        <v>0</v>
+      </c>
+      <c r="O531">
+        <v>0</v>
+      </c>
+      <c r="P531" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="532" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>271</v>
+      </c>
+      <c r="B532">
+        <v>-34.804662999999998</v>
+      </c>
+      <c r="C532">
+        <v>138.540223</v>
+      </c>
+      <c r="D532" s="2">
+        <v>46053</v>
+      </c>
+      <c r="E532">
+        <v>0</v>
+      </c>
+      <c r="F532">
+        <v>0</v>
+      </c>
+      <c r="G532">
+        <v>0</v>
+      </c>
+      <c r="H532">
+        <v>1.28</v>
+      </c>
+      <c r="I532">
+        <v>0</v>
+      </c>
+      <c r="K532">
+        <v>13.58</v>
+      </c>
+      <c r="M532">
+        <v>0.08</v>
+      </c>
+      <c r="O532">
+        <v>14.93</v>
+      </c>
+      <c r="P532" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="533" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>272</v>
+      </c>
+      <c r="B533">
+        <v>-34.824044999999998</v>
+      </c>
+      <c r="C533">
+        <v>138.48377600000001</v>
+      </c>
+      <c r="D533" s="2">
+        <v>46053</v>
+      </c>
+      <c r="E533">
+        <v>0</v>
+      </c>
+      <c r="F533">
+        <v>9</v>
+      </c>
+      <c r="G533">
+        <v>0</v>
+      </c>
+      <c r="H533">
+        <v>0.9</v>
+      </c>
+      <c r="I533">
+        <v>0</v>
+      </c>
+      <c r="K533">
+        <v>7.6</v>
+      </c>
+      <c r="L533">
+        <v>1</v>
+      </c>
+      <c r="M533">
+        <v>0.3</v>
+      </c>
+      <c r="N533">
+        <v>1.9</v>
+      </c>
+      <c r="O533">
+        <v>20.2</v>
+      </c>
+      <c r="P533" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>85</v>
+      </c>
+      <c r="B534">
+        <v>-34.873964000000001</v>
+      </c>
+      <c r="C534">
+        <v>138.488134</v>
+      </c>
+      <c r="D534" s="2">
+        <v>46053</v>
+      </c>
+      <c r="E534">
+        <v>0</v>
+      </c>
+      <c r="F534">
+        <v>0.15</v>
+      </c>
+      <c r="G534">
+        <v>0</v>
+      </c>
+      <c r="H534">
+        <v>39.83</v>
+      </c>
+      <c r="I534">
+        <v>5.4</v>
+      </c>
+      <c r="K534">
+        <v>2.1</v>
+      </c>
+      <c r="L534">
+        <v>0</v>
+      </c>
+      <c r="N534">
+        <v>0.9</v>
+      </c>
+      <c r="O534">
+        <v>43.13</v>
+      </c>
+      <c r="P534" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>325</v>
+      </c>
+      <c r="B535">
+        <v>-34.920631</v>
+      </c>
+      <c r="C535">
+        <v>137.012111</v>
+      </c>
+      <c r="D535" s="2">
+        <v>46053</v>
+      </c>
+      <c r="H535">
+        <v>5000</v>
+      </c>
+      <c r="I535">
+        <v>4556</v>
+      </c>
+      <c r="K535">
+        <v>3556</v>
+      </c>
+      <c r="M535">
+        <v>167</v>
+      </c>
+      <c r="N535">
+        <v>223</v>
+      </c>
+      <c r="O535">
+        <v>8946</v>
+      </c>
+      <c r="P535" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>319</v>
+      </c>
+      <c r="B536">
+        <v>-35.445188000000002</v>
+      </c>
+      <c r="C536">
+        <v>138.307266</v>
+      </c>
+      <c r="D536" s="2">
+        <v>46055</v>
+      </c>
+      <c r="H536">
+        <v>0</v>
+      </c>
+      <c r="I536">
+        <v>0</v>
+      </c>
+      <c r="K536">
+        <v>56</v>
+      </c>
+      <c r="M536">
+        <v>778</v>
+      </c>
+      <c r="N536">
+        <v>56</v>
+      </c>
+      <c r="O536">
+        <v>890</v>
+      </c>
+      <c r="P536" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="537" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>320</v>
+      </c>
+      <c r="B537">
+        <v>-35.516500000000001</v>
+      </c>
+      <c r="C537">
+        <v>138.73820000000001</v>
+      </c>
+      <c r="D537" s="2">
+        <v>46055</v>
+      </c>
+      <c r="H537">
+        <v>0</v>
+      </c>
+      <c r="I537">
+        <v>0</v>
+      </c>
+      <c r="K537">
+        <v>56</v>
+      </c>
+      <c r="P537" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="538" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>321</v>
+      </c>
+      <c r="B538">
+        <v>-35.517899999999997</v>
+      </c>
+      <c r="C538">
+        <v>138.70050000000001</v>
+      </c>
+      <c r="D538" s="2">
+        <v>46055</v>
+      </c>
+      <c r="H538">
+        <v>111</v>
+      </c>
+      <c r="I538">
+        <v>0</v>
+      </c>
+      <c r="K538">
+        <v>500</v>
+      </c>
+      <c r="P538" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>91</v>
+      </c>
+      <c r="B539">
+        <v>-35.536299999999997</v>
+      </c>
+      <c r="C539">
+        <v>138.67859999999999</v>
+      </c>
+      <c r="D539" s="2">
+        <v>46055</v>
+      </c>
+      <c r="H539">
+        <v>0</v>
+      </c>
+      <c r="I539">
+        <v>0</v>
+      </c>
+      <c r="K539">
+        <v>56</v>
+      </c>
+      <c r="P539" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>186</v>
+      </c>
+      <c r="B540">
+        <v>-35.538600000000002</v>
+      </c>
+      <c r="C540">
+        <v>138.6497</v>
+      </c>
+      <c r="D540" s="2">
+        <v>46055</v>
+      </c>
+      <c r="H540">
+        <v>0</v>
+      </c>
+      <c r="I540">
+        <v>0</v>
+      </c>
+      <c r="K540">
+        <v>0</v>
+      </c>
+      <c r="P540" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>322</v>
+      </c>
+      <c r="B541">
+        <v>-35.5565</v>
+      </c>
+      <c r="C541">
+        <v>138.62610000000001</v>
+      </c>
+      <c r="D541" s="2">
+        <v>46055</v>
+      </c>
+      <c r="H541">
+        <v>0</v>
+      </c>
+      <c r="I541">
+        <v>0</v>
+      </c>
+      <c r="K541">
+        <v>0</v>
+      </c>
+      <c r="P541" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="542" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>323</v>
+      </c>
+      <c r="B542">
+        <v>-35.563899999999997</v>
+      </c>
+      <c r="C542">
+        <v>138.6131</v>
+      </c>
+      <c r="D542" s="2">
+        <v>46055</v>
+      </c>
+      <c r="H542">
+        <v>0</v>
+      </c>
+      <c r="I542">
+        <v>0</v>
+      </c>
+      <c r="K542">
+        <v>0</v>
+      </c>
+      <c r="P542" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="543" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>190</v>
+      </c>
+      <c r="B543">
+        <v>-35.592599999999997</v>
+      </c>
+      <c r="C543">
+        <v>138.59979999999999</v>
+      </c>
+      <c r="D543" s="2">
+        <v>46055</v>
+      </c>
+      <c r="H543">
+        <v>0</v>
+      </c>
+      <c r="I543">
+        <v>0</v>
+      </c>
+      <c r="K543">
+        <v>167</v>
+      </c>
+      <c r="P543" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="544" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>324</v>
+      </c>
+      <c r="B544">
+        <v>-35.634900000000002</v>
+      </c>
+      <c r="C544">
+        <v>138.49850000000001</v>
+      </c>
+      <c r="D544" s="2">
+        <v>46055</v>
+      </c>
+      <c r="H544">
+        <v>111</v>
+      </c>
+      <c r="I544">
+        <v>56</v>
+      </c>
+      <c r="K544">
+        <v>167</v>
+      </c>
+      <c r="P544" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="545" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>327</v>
+      </c>
+      <c r="B545">
+        <v>-34.929459999999999</v>
+      </c>
+      <c r="C545">
+        <v>137.34075999999999</v>
+      </c>
+      <c r="D545" s="2">
+        <v>46055</v>
+      </c>
+      <c r="I545">
+        <v>0</v>
+      </c>
+      <c r="O545">
+        <v>0</v>
+      </c>
+      <c r="P545" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="546" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>328</v>
+      </c>
+      <c r="B546">
+        <v>-34.928570000000001</v>
+      </c>
+      <c r="C546">
+        <v>137.4238</v>
+      </c>
+      <c r="D546" s="2">
+        <v>46055</v>
+      </c>
+      <c r="I546">
+        <v>0</v>
+      </c>
+      <c r="O546">
+        <v>0</v>
+      </c>
+      <c r="P546" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="547" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>329</v>
+      </c>
+      <c r="B547">
+        <v>-34.901600000000002</v>
+      </c>
+      <c r="C547">
+        <v>137.45066</v>
+      </c>
+      <c r="D547" s="2">
+        <v>46055</v>
+      </c>
+      <c r="I547">
+        <v>0</v>
+      </c>
+      <c r="O547">
+        <v>0</v>
+      </c>
+      <c r="P547" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="548" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>294</v>
+      </c>
+      <c r="B548">
+        <v>-34.630270000000003</v>
+      </c>
+      <c r="C548">
+        <v>135.86533</v>
+      </c>
+      <c r="D548" s="2">
+        <v>46055</v>
+      </c>
+      <c r="H548">
+        <v>222</v>
+      </c>
+      <c r="I548">
+        <v>0</v>
+      </c>
+      <c r="K548">
+        <v>10889</v>
+      </c>
+      <c r="L548">
+        <v>444</v>
+      </c>
+      <c r="M548">
+        <v>3556</v>
+      </c>
+      <c r="N548">
+        <v>777</v>
+      </c>
+      <c r="O548">
+        <v>15888</v>
+      </c>
+      <c r="P548" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="549" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>295</v>
+      </c>
+      <c r="B549">
+        <v>-34.629179999999998</v>
+      </c>
+      <c r="C549">
+        <v>135.86635000000001</v>
+      </c>
+      <c r="D549" s="2">
+        <v>46055</v>
+      </c>
+      <c r="H549">
+        <v>556</v>
+      </c>
+      <c r="I549">
+        <v>0</v>
+      </c>
+      <c r="K549">
+        <v>15333</v>
+      </c>
+      <c r="L549">
+        <v>889</v>
+      </c>
+      <c r="M549">
+        <v>5556</v>
+      </c>
+      <c r="N549">
+        <v>1222</v>
+      </c>
+      <c r="O549">
+        <v>23556</v>
+      </c>
+      <c r="P549" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="550" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>59</v>
+      </c>
+      <c r="B550">
+        <v>-35.084850000000003</v>
+      </c>
+      <c r="C550">
+        <v>137.74889999999999</v>
+      </c>
+      <c r="D550" s="2">
+        <v>46056</v>
+      </c>
+      <c r="E550">
+        <v>0</v>
+      </c>
+      <c r="F550">
+        <v>0</v>
+      </c>
+      <c r="G550">
+        <v>0</v>
+      </c>
+      <c r="H550">
+        <v>0</v>
+      </c>
+      <c r="I550">
+        <v>0</v>
+      </c>
+      <c r="J550">
+        <v>0</v>
+      </c>
+      <c r="K550">
+        <v>0</v>
+      </c>
+      <c r="M550">
+        <v>111</v>
+      </c>
+      <c r="O550">
+        <v>111</v>
+      </c>
+      <c r="P550" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="551" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>330</v>
+      </c>
+      <c r="B551">
+        <v>-35.32508</v>
+      </c>
+      <c r="C551">
+        <v>136.12333000000001</v>
+      </c>
+      <c r="D551" s="2">
+        <v>46057</v>
+      </c>
+      <c r="H551">
+        <v>28</v>
+      </c>
+      <c r="I551">
+        <v>0</v>
+      </c>
+      <c r="K551">
+        <v>972</v>
+      </c>
+      <c r="M551">
+        <v>111</v>
+      </c>
+      <c r="N551">
+        <v>56</v>
+      </c>
+      <c r="O551">
+        <v>1167</v>
+      </c>
+      <c r="P551" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P517">
-    <sortCondition ref="D2:D517"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P551">
+    <sortCondition ref="D2:D551"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE38767-BE6C-4EE4-A091-C6D7B6ADCF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFECE03-9CDC-4DD4-8896-9A8B6ECB2427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="-28800" yWindow="1770" windowWidth="29085" windowHeight="16245" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="343">
   <si>
     <t>Date</t>
   </si>
@@ -829,9 +829,6 @@
     <t>Snellings</t>
   </si>
   <si>
-    <t>Southern End Formby Bay, Yorke Peninsula</t>
-  </si>
-  <si>
     <t>CAML5575</t>
   </si>
   <si>
@@ -1033,9 +1030,6 @@
     <t>Waitpinga</t>
   </si>
   <si>
-    <t>Berry Bay South Rocks, surface 4pm</t>
-  </si>
-  <si>
     <t>The Pines</t>
   </si>
   <si>
@@ -1049,6 +1043,48 @@
   </si>
   <si>
     <t>Neptune Island</t>
+  </si>
+  <si>
+    <t>Lizards, Southern end of Formby Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Berry Bay </t>
+  </si>
+  <si>
+    <t>Pt Victoria Jetty Stairs, 750mm depth</t>
+  </si>
+  <si>
+    <t>Parsons Beach, low tide from edge of seagrass</t>
+  </si>
+  <si>
+    <t>Pt Rickaby Jetty Stairs, 1M depth</t>
+  </si>
+  <si>
+    <t>Wauraltee Beach, Shoreline</t>
+  </si>
+  <si>
+    <t>Dunn Point (Corny Point)</t>
+  </si>
+  <si>
+    <t>Galway Bay (Pt Souttar)</t>
+  </si>
+  <si>
+    <t>Cockle Beach</t>
+  </si>
+  <si>
+    <t>Pt Minlacowie bush camp</t>
+  </si>
+  <si>
+    <t>Pt Turton Jetty</t>
+  </si>
+  <si>
+    <t>Middle Berry Bay</t>
+  </si>
+  <si>
+    <t>Reevsby island Turfey rocks</t>
+  </si>
+  <si>
+    <t>Reevesby island Haystack</t>
   </si>
 </sst>
 </file>
@@ -1479,12 +1515,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:S551"/>
+  <dimension ref="A1:S575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A555" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F561" sqref="F561"/>
+      <selection pane="bottomLeft" activeCell="O579" sqref="O579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13989,7 +14025,7 @@
     </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B356">
         <v>-35.509267000000001</v>
@@ -14018,7 +14054,7 @@
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B357">
         <v>-35.509166999999998</v>
@@ -14747,7 +14783,7 @@
     </row>
     <row r="378" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B378">
         <v>-35.6048446</v>
@@ -14782,7 +14818,7 @@
     </row>
     <row r="379" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B379">
         <v>-35.608333000000002</v>
@@ -14849,7 +14885,7 @@
     </row>
     <row r="381" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B381">
         <v>-35.63158</v>
@@ -14884,7 +14920,7 @@
     </row>
     <row r="382" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B382">
         <v>-35.61</v>
@@ -16033,7 +16069,7 @@
     </row>
     <row r="409" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B409">
         <v>-33.677014</v>
@@ -16060,7 +16096,7 @@
         <v>2556</v>
       </c>
       <c r="P409" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="410" spans="1:16" x14ac:dyDescent="0.3">
@@ -16115,7 +16151,7 @@
     </row>
     <row r="411" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B411">
         <v>-34.765895999999998</v>
@@ -16150,7 +16186,7 @@
     </row>
     <row r="412" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B412">
         <v>-34.765996000000001</v>
@@ -16655,7 +16691,7 @@
     </row>
     <row r="426" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B426">
         <v>-35.093021</v>
@@ -16690,7 +16726,7 @@
     </row>
     <row r="427" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B427">
         <v>-35.115721999999998</v>
@@ -16975,7 +17011,7 @@
     </row>
     <row r="433" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B433">
         <v>-35.081834999999998</v>
@@ -17725,7 +17761,7 @@
     </row>
     <row r="451" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B451">
         <v>-34.908026999999997</v>
@@ -17813,7 +17849,7 @@
     </row>
     <row r="453" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B453">
         <v>-35.789543199999997</v>
@@ -17907,13 +17943,13 @@
     </row>
     <row r="455" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>257</v>
+        <v>329</v>
       </c>
       <c r="B455">
-        <v>-35.085050000000003</v>
+        <v>-35.085709299999998</v>
       </c>
       <c r="C455">
-        <v>136.96054000000001</v>
+        <v>136.96101970000001</v>
       </c>
       <c r="D455" s="2">
         <v>46035</v>
@@ -17952,7 +17988,7 @@
         <v>6333</v>
       </c>
       <c r="P455" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="456" spans="1:16" x14ac:dyDescent="0.3">
@@ -17989,7 +18025,7 @@
     </row>
     <row r="457" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B457">
         <v>-32.486960000000003</v>
@@ -18013,12 +18049,12 @@
         <v>1666</v>
       </c>
       <c r="P457" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="458" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B458">
         <v>-32.48724</v>
@@ -18042,12 +18078,12 @@
         <v>1049</v>
       </c>
       <c r="P458" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="459" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B459">
         <v>-32.490589999999997</v>
@@ -18071,7 +18107,7 @@
         <v>1358</v>
       </c>
       <c r="P459" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="460" spans="1:16" x14ac:dyDescent="0.3">
@@ -18126,7 +18162,7 @@
     </row>
     <row r="461" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B461">
         <v>-35.787233000000001</v>
@@ -18173,7 +18209,7 @@
     </row>
     <row r="462" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B462">
         <v>-34.804662999999998</v>
@@ -18208,7 +18244,7 @@
     </row>
     <row r="463" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B463">
         <v>-34.824044999999998</v>
@@ -18339,7 +18375,7 @@
     </row>
     <row r="467" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B467">
         <v>-34.907184999999998</v>
@@ -18374,7 +18410,7 @@
     </row>
     <row r="468" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B468">
         <v>-35.092928999999998</v>
@@ -18409,7 +18445,7 @@
     </row>
     <row r="469" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B469">
         <v>-35.115721999999998</v>
@@ -18491,7 +18527,7 @@
     </row>
     <row r="471" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B471">
         <v>-34.827359999999999</v>
@@ -18506,13 +18542,13 @@
         <v>0</v>
       </c>
       <c r="P471" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S471" s="2"/>
     </row>
     <row r="472" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B472">
         <v>-35.739091000000002</v>
@@ -18563,7 +18599,7 @@
     </row>
     <row r="473" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B473">
         <v>-34.827600699999998</v>
@@ -18599,7 +18635,7 @@
     </row>
     <row r="474" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B474">
         <v>-34.226579999999998</v>
@@ -18632,7 +18668,7 @@
     </row>
     <row r="475" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B475">
         <v>-34.917679100000001</v>
@@ -18656,13 +18692,13 @@
         <v>667</v>
       </c>
       <c r="P475" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S475" s="2"/>
     </row>
     <row r="476" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B476">
         <v>-34.929459999999999</v>
@@ -18677,13 +18713,13 @@
         <v>0</v>
       </c>
       <c r="P476" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S476" s="2"/>
     </row>
     <row r="477" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B477">
         <v>-34.970672</v>
@@ -18716,13 +18752,13 @@
         <v>19555</v>
       </c>
       <c r="P477" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S477" s="2"/>
     </row>
     <row r="478" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B478">
         <v>-35.011718100000003</v>
@@ -18755,13 +18791,13 @@
         <v>1779</v>
       </c>
       <c r="P478" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S478" s="2"/>
     </row>
     <row r="479" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B479">
         <v>-34.953057899999997</v>
@@ -18791,13 +18827,13 @@
         <v>29333</v>
       </c>
       <c r="P479" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S479" s="2"/>
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B480">
         <v>-34.906165799999997</v>
@@ -18830,13 +18866,13 @@
         <v>10222</v>
       </c>
       <c r="P480" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S480" s="2"/>
     </row>
     <row r="481" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B481">
         <v>-35.511031000000003</v>
@@ -18905,7 +18941,7 @@
     </row>
     <row r="483" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B483">
         <v>-34.895150000000001</v>
@@ -18920,13 +18956,13 @@
         <v>306</v>
       </c>
       <c r="P483" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S483" s="2"/>
     </row>
     <row r="484" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B484">
         <v>-34.918889999999998</v>
@@ -18941,13 +18977,13 @@
         <v>0</v>
       </c>
       <c r="P484" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S484" s="2"/>
     </row>
     <row r="485" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B485">
         <v>-34.933680000000003</v>
@@ -18962,13 +18998,13 @@
         <v>0</v>
       </c>
       <c r="P485" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S485" s="2"/>
     </row>
     <row r="486" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B486">
         <v>-34.672490000000003</v>
@@ -18983,7 +19019,7 @@
         <v>0</v>
       </c>
       <c r="P486" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S486" s="2"/>
     </row>
@@ -19078,12 +19114,12 @@
         <v>1026</v>
       </c>
       <c r="P488" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="489" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B489">
         <v>-35.110022000000001</v>
@@ -19118,7 +19154,7 @@
     </row>
     <row r="490" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B490">
         <v>-34.92989</v>
@@ -19136,12 +19172,12 @@
         <v>28</v>
       </c>
       <c r="P490" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="491" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B491">
         <v>-34.933680000000003</v>
@@ -19156,12 +19192,12 @@
         <v>0</v>
       </c>
       <c r="P491" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="492" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B492">
         <v>-34.630270000000003</v>
@@ -19188,12 +19224,12 @@
         <v>2889</v>
       </c>
       <c r="P492" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="493" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B493">
         <v>-34.629179999999998</v>
@@ -19220,12 +19256,12 @@
         <v>945</v>
       </c>
       <c r="P493" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="494" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B494">
         <v>-34.628860000000003</v>
@@ -19252,7 +19288,7 @@
         <v>723</v>
       </c>
       <c r="P494" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="495" spans="1:19" x14ac:dyDescent="0.3">
@@ -19455,7 +19491,7 @@
     </row>
     <row r="502" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B502">
         <v>-34.630270000000003</v>
@@ -19482,12 +19518,12 @@
         <v>2889</v>
       </c>
       <c r="P502" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="503" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B503">
         <v>-34.630270000000003</v>
@@ -19514,12 +19550,12 @@
         <v>2889</v>
       </c>
       <c r="P503" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="504" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B504">
         <v>-35.119663000000003</v>
@@ -19619,7 +19655,7 @@
     </row>
     <row r="506" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B506">
         <v>-35.031672</v>
@@ -19669,7 +19705,7 @@
     </row>
     <row r="507" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B507">
         <v>-35.762554199999997</v>
@@ -19719,7 +19755,7 @@
     </row>
     <row r="508" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B508">
         <v>-35.511125999999997</v>
@@ -19754,7 +19790,7 @@
     </row>
     <row r="509" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B509">
         <v>-35.793973000000001</v>
@@ -19804,7 +19840,7 @@
     </row>
     <row r="510" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B510">
         <v>-35.132868999999999</v>
@@ -19839,7 +19875,7 @@
     </row>
     <row r="511" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B511">
         <v>-34.899970000000003</v>
@@ -19866,7 +19902,7 @@
         <v>194</v>
       </c>
       <c r="P511" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="512" spans="1:16" x14ac:dyDescent="0.3">
@@ -19906,7 +19942,7 @@
     </row>
     <row r="513" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B513">
         <v>-33.917679999999997</v>
@@ -19936,12 +19972,12 @@
         <v>4334</v>
       </c>
       <c r="P513" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="514" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B514">
         <v>-33.922530000000002</v>
@@ -19971,12 +20007,12 @@
         <v>12722</v>
       </c>
       <c r="P514" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="515" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B515">
         <v>-33.912199999999999</v>
@@ -20006,12 +20042,12 @@
         <v>2334</v>
       </c>
       <c r="P515" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="516" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B516">
         <v>-34.929459999999999</v>
@@ -20029,12 +20065,12 @@
         <v>0</v>
       </c>
       <c r="P516" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="517" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B517">
         <v>-34.933680000000003</v>
@@ -20052,12 +20088,12 @@
         <v>0</v>
       </c>
       <c r="P517" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="518" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B518">
         <v>-35.594605999999999</v>
@@ -20095,7 +20131,7 @@
     </row>
     <row r="519" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B519">
         <v>-35.510753999999999</v>
@@ -20261,7 +20297,7 @@
     </row>
     <row r="524" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B524">
         <v>-35.6048446</v>
@@ -20296,7 +20332,7 @@
     </row>
     <row r="525" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B525">
         <v>-35.63158</v>
@@ -20331,7 +20367,7 @@
     </row>
     <row r="526" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B526">
         <v>-35.612963000000001</v>
@@ -20369,7 +20405,7 @@
     </row>
     <row r="527" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B527">
         <v>-34.911830000000002</v>
@@ -20393,12 +20429,12 @@
         <v>1723</v>
       </c>
       <c r="P527" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="528" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B528">
         <v>-35.089612000000002</v>
@@ -20433,7 +20469,7 @@
     </row>
     <row r="529" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B529">
         <v>-34.994472000000002</v>
@@ -20465,7 +20501,7 @@
     </row>
     <row r="530" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B530">
         <v>-35.522570000000002</v>
@@ -20521,12 +20557,12 @@
         <v>0</v>
       </c>
       <c r="P531" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="532" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B532">
         <v>-34.804662999999998</v>
@@ -20567,7 +20603,7 @@
     </row>
     <row r="533" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B533">
         <v>-34.824044999999998</v>
@@ -20658,13 +20694,13 @@
     </row>
     <row r="535" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B535">
-        <v>-34.920631</v>
+        <v>-34.920539599999998</v>
       </c>
       <c r="C535">
-        <v>137.012111</v>
+        <v>137.01218679999999</v>
       </c>
       <c r="D535" s="2">
         <v>46053</v>
@@ -20693,48 +20729,45 @@
     </row>
     <row r="536" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B536">
-        <v>-35.445188000000002</v>
+        <v>-35.085709299999998</v>
       </c>
       <c r="C536">
-        <v>138.307266</v>
+        <v>136.96101970000001</v>
       </c>
       <c r="D536" s="2">
-        <v>46055</v>
+        <v>46053</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>4111</v>
       </c>
       <c r="I536">
-        <v>0</v>
+        <v>1778</v>
       </c>
       <c r="K536">
-        <v>56</v>
+        <v>333</v>
       </c>
       <c r="M536">
-        <v>778</v>
-      </c>
-      <c r="N536">
-        <v>56</v>
+        <v>1444</v>
       </c>
       <c r="O536">
-        <v>890</v>
+        <v>5888</v>
       </c>
       <c r="P536" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="537" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B537">
-        <v>-35.516500000000001</v>
+        <v>-35.445188000000002</v>
       </c>
       <c r="C537">
-        <v>138.73820000000001</v>
+        <v>138.307266</v>
       </c>
       <c r="D537" s="2">
         <v>46055</v>
@@ -20748,31 +20781,40 @@
       <c r="K537">
         <v>56</v>
       </c>
+      <c r="M537">
+        <v>778</v>
+      </c>
+      <c r="N537">
+        <v>56</v>
+      </c>
+      <c r="O537">
+        <v>890</v>
+      </c>
       <c r="P537" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
     </row>
     <row r="538" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B538">
-        <v>-35.517899999999997</v>
+        <v>-35.516500000000001</v>
       </c>
       <c r="C538">
-        <v>138.70050000000001</v>
+        <v>138.73820000000001</v>
       </c>
       <c r="D538" s="2">
         <v>46055</v>
       </c>
       <c r="H538">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="I538">
         <v>0</v>
       </c>
       <c r="K538">
-        <v>500</v>
+        <v>56</v>
       </c>
       <c r="P538" t="s">
         <v>187</v>
@@ -20780,25 +20822,25 @@
     </row>
     <row r="539" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>91</v>
+        <v>320</v>
       </c>
       <c r="B539">
-        <v>-35.536299999999997</v>
+        <v>-35.517899999999997</v>
       </c>
       <c r="C539">
-        <v>138.67859999999999</v>
+        <v>138.70050000000001</v>
       </c>
       <c r="D539" s="2">
         <v>46055</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="I539">
         <v>0</v>
       </c>
       <c r="K539">
-        <v>56</v>
+        <v>500</v>
       </c>
       <c r="P539" t="s">
         <v>187</v>
@@ -20806,13 +20848,13 @@
     </row>
     <row r="540" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="B540">
-        <v>-35.538600000000002</v>
+        <v>-35.536299999999997</v>
       </c>
       <c r="C540">
-        <v>138.6497</v>
+        <v>138.67859999999999</v>
       </c>
       <c r="D540" s="2">
         <v>46055</v>
@@ -20824,7 +20866,7 @@
         <v>0</v>
       </c>
       <c r="K540">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="P540" t="s">
         <v>187</v>
@@ -20832,13 +20874,13 @@
     </row>
     <row r="541" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>322</v>
+        <v>186</v>
       </c>
       <c r="B541">
-        <v>-35.5565</v>
+        <v>-35.538600000000002</v>
       </c>
       <c r="C541">
-        <v>138.62610000000001</v>
+        <v>138.6497</v>
       </c>
       <c r="D541" s="2">
         <v>46055</v>
@@ -20858,13 +20900,13 @@
     </row>
     <row r="542" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B542">
-        <v>-35.563899999999997</v>
+        <v>-35.5565</v>
       </c>
       <c r="C542">
-        <v>138.6131</v>
+        <v>138.62610000000001</v>
       </c>
       <c r="D542" s="2">
         <v>46055</v>
@@ -20884,13 +20926,13 @@
     </row>
     <row r="543" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>190</v>
+        <v>322</v>
       </c>
       <c r="B543">
-        <v>-35.592599999999997</v>
+        <v>-35.563899999999997</v>
       </c>
       <c r="C543">
-        <v>138.59979999999999</v>
+        <v>138.6131</v>
       </c>
       <c r="D543" s="2">
         <v>46055</v>
@@ -20902,7 +20944,7 @@
         <v>0</v>
       </c>
       <c r="K543">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="P543" t="s">
         <v>187</v>
@@ -20910,22 +20952,22 @@
     </row>
     <row r="544" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>324</v>
+        <v>190</v>
       </c>
       <c r="B544">
-        <v>-35.634900000000002</v>
+        <v>-35.592599999999997</v>
       </c>
       <c r="C544">
-        <v>138.49850000000001</v>
+        <v>138.59979999999999</v>
       </c>
       <c r="D544" s="2">
         <v>46055</v>
       </c>
       <c r="H544">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="I544">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K544">
         <v>167</v>
@@ -20936,36 +20978,39 @@
     </row>
     <row r="545" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B545">
-        <v>-34.929459999999999</v>
+        <v>-35.634900000000002</v>
       </c>
       <c r="C545">
-        <v>137.34075999999999</v>
+        <v>138.49850000000001</v>
       </c>
       <c r="D545" s="2">
         <v>46055</v>
       </c>
+      <c r="H545">
+        <v>111</v>
+      </c>
       <c r="I545">
-        <v>0</v>
-      </c>
-      <c r="O545">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="K545">
+        <v>167</v>
       </c>
       <c r="P545" t="s">
-        <v>270</v>
+        <v>187</v>
       </c>
     </row>
     <row r="546" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B546">
-        <v>-34.928570000000001</v>
+        <v>-34.929459999999999</v>
       </c>
       <c r="C546">
-        <v>137.4238</v>
+        <v>137.34075999999999</v>
       </c>
       <c r="D546" s="2">
         <v>46055</v>
@@ -20977,18 +21022,18 @@
         <v>0</v>
       </c>
       <c r="P546" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="547" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B547">
-        <v>-34.901600000000002</v>
+        <v>-34.928570000000001</v>
       </c>
       <c r="C547">
-        <v>137.45066</v>
+        <v>137.4238</v>
       </c>
       <c r="D547" s="2">
         <v>46055</v>
@@ -21000,167 +21045,929 @@
         <v>0</v>
       </c>
       <c r="P547" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="548" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="B548">
-        <v>-34.630270000000003</v>
+        <v>-34.901600000000002</v>
       </c>
       <c r="C548">
-        <v>135.86533</v>
+        <v>137.45066</v>
       </c>
       <c r="D548" s="2">
         <v>46055</v>
       </c>
-      <c r="H548">
-        <v>222</v>
-      </c>
       <c r="I548">
         <v>0</v>
       </c>
-      <c r="K548">
-        <v>10889</v>
-      </c>
-      <c r="L548">
-        <v>444</v>
-      </c>
-      <c r="M548">
-        <v>3556</v>
-      </c>
-      <c r="N548">
-        <v>777</v>
-      </c>
       <c r="O548">
-        <v>15888</v>
+        <v>0</v>
       </c>
       <c r="P548" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="549" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B549">
-        <v>-34.629179999999998</v>
+        <v>-34.630270000000003</v>
       </c>
       <c r="C549">
-        <v>135.86635000000001</v>
+        <v>135.86533</v>
       </c>
       <c r="D549" s="2">
         <v>46055</v>
       </c>
       <c r="H549">
-        <v>556</v>
+        <v>222</v>
       </c>
       <c r="I549">
         <v>0</v>
       </c>
       <c r="K549">
-        <v>15333</v>
+        <v>10889</v>
       </c>
       <c r="L549">
-        <v>889</v>
+        <v>444</v>
       </c>
       <c r="M549">
-        <v>5556</v>
+        <v>3556</v>
       </c>
       <c r="N549">
-        <v>1222</v>
+        <v>777</v>
       </c>
       <c r="O549">
-        <v>23556</v>
+        <v>15888</v>
       </c>
       <c r="P549" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="550" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
       <c r="B550">
-        <v>-35.084850000000003</v>
+        <v>-34.629179999999998</v>
       </c>
       <c r="C550">
-        <v>137.74889999999999</v>
+        <v>135.86635000000001</v>
       </c>
       <c r="D550" s="2">
-        <v>46056</v>
-      </c>
-      <c r="E550">
-        <v>0</v>
-      </c>
-      <c r="F550">
-        <v>0</v>
-      </c>
-      <c r="G550">
-        <v>0</v>
+        <v>46055</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="I550">
         <v>0</v>
       </c>
-      <c r="J550">
-        <v>0</v>
-      </c>
       <c r="K550">
-        <v>0</v>
+        <v>15333</v>
+      </c>
+      <c r="L550">
+        <v>889</v>
       </c>
       <c r="M550">
-        <v>111</v>
+        <v>5556</v>
+      </c>
+      <c r="N550">
+        <v>1222</v>
       </c>
       <c r="O550">
-        <v>111</v>
+        <v>23556</v>
       </c>
       <c r="P550" t="s">
-        <v>149</v>
+        <v>288</v>
       </c>
     </row>
     <row r="551" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>330</v>
+        <v>59</v>
       </c>
       <c r="B551">
-        <v>-35.32508</v>
+        <v>-35.084850000000003</v>
       </c>
       <c r="C551">
-        <v>136.12333000000001</v>
+        <v>137.74889999999999</v>
       </c>
       <c r="D551" s="2">
-        <v>46057</v>
+        <v>46056</v>
+      </c>
+      <c r="E551">
+        <v>0</v>
+      </c>
+      <c r="F551">
+        <v>0</v>
+      </c>
+      <c r="G551">
+        <v>0</v>
       </c>
       <c r="H551">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I551">
         <v>0</v>
       </c>
+      <c r="J551">
+        <v>0</v>
+      </c>
       <c r="K551">
-        <v>972</v>
+        <v>0</v>
       </c>
       <c r="M551">
         <v>111</v>
       </c>
-      <c r="N551">
+      <c r="O551">
+        <v>111</v>
+      </c>
+      <c r="P551" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="552" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>328</v>
+      </c>
+      <c r="B552">
+        <v>-35.32508</v>
+      </c>
+      <c r="C552">
+        <v>136.12333000000001</v>
+      </c>
+      <c r="D552" s="2">
+        <v>46057</v>
+      </c>
+      <c r="H552">
+        <v>28</v>
+      </c>
+      <c r="I552">
+        <v>0</v>
+      </c>
+      <c r="K552">
+        <v>972</v>
+      </c>
+      <c r="M552">
+        <v>111</v>
+      </c>
+      <c r="N552">
         <v>56</v>
       </c>
-      <c r="O551">
+      <c r="O552">
         <v>1167</v>
       </c>
-      <c r="P551" t="s">
-        <v>289</v>
+      <c r="P552" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="553" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>335</v>
+      </c>
+      <c r="B553">
+        <v>-34.903820000000003</v>
+      </c>
+      <c r="C553">
+        <v>137.04875999999999</v>
+      </c>
+      <c r="D553" s="2">
+        <v>46057</v>
+      </c>
+      <c r="H553">
+        <v>722</v>
+      </c>
+      <c r="I553">
+        <v>722</v>
+      </c>
+      <c r="O553">
+        <v>722</v>
+      </c>
+      <c r="P553" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="554" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>37</v>
+      </c>
+      <c r="B554">
+        <v>-34.289369999999998</v>
+      </c>
+      <c r="C554">
+        <v>138.01242999999999</v>
+      </c>
+      <c r="D554" s="2">
+        <v>46058</v>
+      </c>
+      <c r="F554">
+        <v>722</v>
+      </c>
+      <c r="G554">
+        <v>111</v>
+      </c>
+      <c r="H554">
+        <v>1167</v>
+      </c>
+      <c r="I554">
+        <v>0</v>
+      </c>
+      <c r="J554">
+        <v>222</v>
+      </c>
+      <c r="K554">
+        <v>1778</v>
+      </c>
+      <c r="L554">
+        <v>111</v>
+      </c>
+      <c r="M554">
+        <v>167</v>
+      </c>
+      <c r="N554">
+        <v>222</v>
+      </c>
+      <c r="O554">
+        <v>4500</v>
+      </c>
+      <c r="P554" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="555" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>324</v>
+      </c>
+      <c r="B555">
+        <v>-34.911830000000002</v>
+      </c>
+      <c r="C555">
+        <v>137.16248999999999</v>
+      </c>
+      <c r="D555" s="2">
+        <v>46058</v>
+      </c>
+      <c r="H555">
+        <v>1611</v>
+      </c>
+      <c r="I555">
+        <v>1611</v>
+      </c>
+      <c r="O555">
+        <v>1611</v>
+      </c>
+      <c r="P555" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="556" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>336</v>
+      </c>
+      <c r="B556">
+        <v>-34.893770000000004</v>
+      </c>
+      <c r="C556">
+        <v>137.27602999999999</v>
+      </c>
+      <c r="D556" s="2">
+        <v>46059</v>
+      </c>
+      <c r="H556">
+        <v>389</v>
+      </c>
+      <c r="I556">
+        <v>389</v>
+      </c>
+      <c r="O556">
+        <v>389</v>
+      </c>
+      <c r="P556" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="557" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>331</v>
+      </c>
+      <c r="B557">
+        <v>-34.495376</v>
+      </c>
+      <c r="C557">
+        <v>137.481537</v>
+      </c>
+      <c r="D557" s="2">
+        <v>46060</v>
+      </c>
+      <c r="H557">
+        <v>278</v>
+      </c>
+      <c r="I557">
+        <v>0</v>
+      </c>
+      <c r="K557">
+        <v>167</v>
+      </c>
+      <c r="M557">
+        <v>222</v>
+      </c>
+      <c r="N557">
+        <v>222</v>
+      </c>
+      <c r="O557">
+        <v>889</v>
+      </c>
+      <c r="P557" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="558" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>332</v>
+      </c>
+      <c r="B558">
+        <v>-34.750552999999996</v>
+      </c>
+      <c r="C558">
+        <v>137.477315</v>
+      </c>
+      <c r="D558" s="2">
+        <v>46060</v>
+      </c>
+      <c r="H558">
+        <v>278</v>
+      </c>
+      <c r="I558">
+        <v>0</v>
+      </c>
+      <c r="K558">
+        <v>333</v>
+      </c>
+      <c r="M558">
+        <v>167</v>
+      </c>
+      <c r="O558">
+        <v>778</v>
+      </c>
+      <c r="P558" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="559" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>333</v>
+      </c>
+      <c r="B559">
+        <v>-34.672504000000004</v>
+      </c>
+      <c r="C559">
+        <v>137.49397999999999</v>
+      </c>
+      <c r="D559" s="2">
+        <v>46060</v>
+      </c>
+      <c r="H559">
+        <v>278</v>
+      </c>
+      <c r="I559">
+        <v>0</v>
+      </c>
+      <c r="K559">
+        <v>111</v>
+      </c>
+      <c r="M559">
+        <v>444</v>
+      </c>
+      <c r="N559">
+        <v>222</v>
+      </c>
+      <c r="O559">
+        <v>1056</v>
+      </c>
+      <c r="P559" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="560" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>334</v>
+      </c>
+      <c r="B560">
+        <v>-34.588209999999997</v>
+      </c>
+      <c r="C560">
+        <v>137.506224</v>
+      </c>
+      <c r="D560" s="2">
+        <v>46060</v>
+      </c>
+      <c r="H560">
+        <v>111</v>
+      </c>
+      <c r="I560">
+        <v>0</v>
+      </c>
+      <c r="K560">
+        <v>278</v>
+      </c>
+      <c r="M560">
+        <v>111</v>
+      </c>
+      <c r="O560">
+        <v>500</v>
+      </c>
+      <c r="P560" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="561" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>307</v>
+      </c>
+      <c r="B561">
+        <v>-34.899970000000003</v>
+      </c>
+      <c r="C561">
+        <v>137.45123000000001</v>
+      </c>
+      <c r="D561" s="2">
+        <v>46060</v>
+      </c>
+      <c r="E561">
+        <v>778</v>
+      </c>
+      <c r="F561">
+        <v>167</v>
+      </c>
+      <c r="H561">
+        <v>3778</v>
+      </c>
+      <c r="I561">
+        <v>3000</v>
+      </c>
+      <c r="N561">
+        <v>1111</v>
+      </c>
+      <c r="O561">
+        <v>5834</v>
+      </c>
+      <c r="P561" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="562" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>337</v>
+      </c>
+      <c r="B562">
+        <v>-34.812609999999999</v>
+      </c>
+      <c r="C562">
+        <v>137.45670999999999</v>
+      </c>
+      <c r="D562" s="2">
+        <v>46060</v>
+      </c>
+      <c r="I562">
+        <v>0</v>
+      </c>
+      <c r="O562">
+        <v>0</v>
+      </c>
+      <c r="P562" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="563" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>260</v>
+      </c>
+      <c r="B563">
+        <v>-34.827359999999999</v>
+      </c>
+      <c r="C563">
+        <v>137.45850999999999</v>
+      </c>
+      <c r="D563" s="2">
+        <v>46060</v>
+      </c>
+      <c r="I563">
+        <v>0</v>
+      </c>
+      <c r="O563">
+        <v>0</v>
+      </c>
+      <c r="P563" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="564" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>265</v>
+      </c>
+      <c r="B564">
+        <v>-34.672490000000003</v>
+      </c>
+      <c r="C564">
+        <v>137.49295000000001</v>
+      </c>
+      <c r="D564" s="2">
+        <v>46060</v>
+      </c>
+      <c r="I564">
+        <v>0</v>
+      </c>
+      <c r="O564">
+        <v>0</v>
+      </c>
+      <c r="P564" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="565" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>260</v>
+      </c>
+      <c r="B565">
+        <v>-34.827359999999999</v>
+      </c>
+      <c r="C565">
+        <v>137.45850999999999</v>
+      </c>
+      <c r="D565" s="2">
+        <v>46060</v>
+      </c>
+      <c r="E565">
+        <v>0</v>
+      </c>
+      <c r="F565">
+        <v>0</v>
+      </c>
+      <c r="G565">
+        <v>0</v>
+      </c>
+      <c r="H565">
+        <v>166</v>
+      </c>
+      <c r="I565">
+        <v>0</v>
+      </c>
+      <c r="J565">
+        <v>0</v>
+      </c>
+      <c r="K565">
+        <v>111</v>
+      </c>
+      <c r="M565">
+        <v>111</v>
+      </c>
+      <c r="O565">
+        <v>388</v>
+      </c>
+      <c r="P565" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="566" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>340</v>
+      </c>
+      <c r="B566">
+        <v>-34.912934499999999</v>
+      </c>
+      <c r="C566">
+        <v>137.01358930000001</v>
+      </c>
+      <c r="D566" s="2">
+        <v>46060</v>
+      </c>
+      <c r="H566">
+        <v>3222</v>
+      </c>
+      <c r="I566">
+        <v>1111</v>
+      </c>
+      <c r="K566">
+        <v>1222</v>
+      </c>
+      <c r="L566">
+        <v>667</v>
+      </c>
+      <c r="M566">
+        <v>1111</v>
+      </c>
+      <c r="O566">
+        <v>6222</v>
+      </c>
+      <c r="P566" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="567" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>265</v>
+      </c>
+      <c r="B567">
+        <v>-34.672490000000003</v>
+      </c>
+      <c r="C567">
+        <v>137.49295000000001</v>
+      </c>
+      <c r="D567" s="2">
+        <v>46061</v>
+      </c>
+      <c r="I567">
+        <v>0</v>
+      </c>
+      <c r="O567">
+        <v>0</v>
+      </c>
+      <c r="P567" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="568" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>214</v>
+      </c>
+      <c r="B568">
+        <v>-34.751460000000002</v>
+      </c>
+      <c r="C568">
+        <v>137.47702000000001</v>
+      </c>
+      <c r="D568" s="2">
+        <v>46061</v>
+      </c>
+      <c r="I568">
+        <v>0</v>
+      </c>
+      <c r="O568">
+        <v>0</v>
+      </c>
+      <c r="P568" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="569" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>338</v>
+      </c>
+      <c r="B569">
+        <v>-34.831850000000003</v>
+      </c>
+      <c r="C569">
+        <v>137.45840999999999</v>
+      </c>
+      <c r="D569" s="2">
+        <v>46061</v>
+      </c>
+      <c r="H569">
+        <v>56</v>
+      </c>
+      <c r="I569">
+        <v>56</v>
+      </c>
+      <c r="O569">
+        <v>56</v>
+      </c>
+      <c r="P569" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="570" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>307</v>
+      </c>
+      <c r="B570">
+        <v>-34.899970000000003</v>
+      </c>
+      <c r="C570">
+        <v>137.45123000000001</v>
+      </c>
+      <c r="D570" s="2">
+        <v>46061</v>
+      </c>
+      <c r="E570">
+        <v>1667</v>
+      </c>
+      <c r="F570">
+        <v>111</v>
+      </c>
+      <c r="H570">
+        <v>4944</v>
+      </c>
+      <c r="I570">
+        <v>4333</v>
+      </c>
+      <c r="N570">
+        <v>167</v>
+      </c>
+      <c r="O570">
+        <v>6889</v>
+      </c>
+      <c r="P570" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="571" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>330</v>
+      </c>
+      <c r="B571">
+        <v>-34.920539599999998</v>
+      </c>
+      <c r="C571">
+        <v>137.01218679999999</v>
+      </c>
+      <c r="D571" s="2">
+        <v>46061</v>
+      </c>
+      <c r="E571">
+        <v>0</v>
+      </c>
+      <c r="F571">
+        <v>0</v>
+      </c>
+      <c r="G571">
+        <v>0</v>
+      </c>
+      <c r="H571">
+        <v>444</v>
+      </c>
+      <c r="I571">
+        <v>278</v>
+      </c>
+      <c r="J571">
+        <v>0</v>
+      </c>
+      <c r="K571">
+        <v>500</v>
+      </c>
+      <c r="L571">
+        <v>0</v>
+      </c>
+      <c r="M571">
+        <v>389</v>
+      </c>
+      <c r="N571">
+        <v>111</v>
+      </c>
+      <c r="O571">
+        <v>1444</v>
+      </c>
+      <c r="P571" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="572" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>339</v>
+      </c>
+      <c r="B572">
+        <v>-34.933680000000003</v>
+      </c>
+      <c r="C572">
+        <v>137.35247000000001</v>
+      </c>
+      <c r="D572" s="2">
+        <v>46061</v>
+      </c>
+      <c r="H572">
+        <v>6667</v>
+      </c>
+      <c r="I572">
+        <v>2667</v>
+      </c>
+      <c r="K572">
+        <v>1222</v>
+      </c>
+      <c r="M572">
+        <v>1556</v>
+      </c>
+      <c r="N572">
+        <v>889</v>
+      </c>
+      <c r="O572">
+        <v>10334</v>
+      </c>
+      <c r="P572" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="573" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>295</v>
+      </c>
+      <c r="B573">
+        <v>-34.628860000000003</v>
+      </c>
+      <c r="C573">
+        <v>135.86708999999999</v>
+      </c>
+      <c r="D573" s="2">
+        <v>46062</v>
+      </c>
+      <c r="H573">
+        <v>0</v>
+      </c>
+      <c r="I573">
+        <v>0</v>
+      </c>
+      <c r="K573">
+        <v>278</v>
+      </c>
+      <c r="L573">
+        <v>56</v>
+      </c>
+      <c r="M573">
+        <v>667</v>
+      </c>
+      <c r="N573">
+        <v>278</v>
+      </c>
+      <c r="O573">
+        <v>1279</v>
+      </c>
+      <c r="P573" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="574" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>341</v>
+      </c>
+      <c r="B574">
+        <v>-34.519669999999998</v>
+      </c>
+      <c r="C574">
+        <v>136.27539999999999</v>
+      </c>
+      <c r="D574" s="2">
+        <v>46062</v>
+      </c>
+      <c r="H574">
+        <v>1</v>
+      </c>
+      <c r="I574">
+        <v>0</v>
+      </c>
+      <c r="K574">
+        <v>0</v>
+      </c>
+      <c r="L574">
+        <v>56</v>
+      </c>
+      <c r="M574">
+        <v>333</v>
+      </c>
+      <c r="N574">
+        <v>56</v>
+      </c>
+      <c r="O574">
+        <v>446</v>
+      </c>
+      <c r="P574" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="575" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>342</v>
+      </c>
+      <c r="B575">
+        <v>-34.535609999999998</v>
+      </c>
+      <c r="C575">
+        <v>136.27878000000001</v>
+      </c>
+      <c r="D575" s="2">
+        <v>46062</v>
+      </c>
+      <c r="H575">
+        <v>0</v>
+      </c>
+      <c r="I575">
+        <v>0</v>
+      </c>
+      <c r="M575">
+        <v>222</v>
+      </c>
+      <c r="O575">
+        <v>222</v>
+      </c>
+      <c r="P575" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P551">
-    <sortCondition ref="D2:D551"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P572">
+    <sortCondition ref="D2:D572"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1675510\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91D5D4B-1BCD-455F-BEAD-557069EF2A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85D7D41-0120-43D9-86A7-E60A285EF1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="29925" yWindow="1125" windowWidth="21600" windowHeight="11235" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="366">
   <si>
     <t>Date</t>
   </si>
@@ -1105,9 +1105,6 @@
     <t>Pt Rickaby boat offshore</t>
   </si>
   <si>
-    <t>Wauraltee Beach</t>
-  </si>
-  <si>
     <t>Marion Bay Beach</t>
   </si>
   <si>
@@ -1124,15 +1121,49 @@
   </si>
   <si>
     <t>HANC5600</t>
+  </si>
+  <si>
+    <t>Westlakes Bartley Terrace footbridge</t>
+  </si>
+  <si>
+    <t>HYDG5204</t>
+  </si>
+  <si>
+    <t>Edithburgh Fisherman's Wharf</t>
+  </si>
+  <si>
+    <t>Wauraltee Beach (adj bush camp)</t>
+  </si>
+  <si>
+    <t>Port Rickaby jetty</t>
+  </si>
+  <si>
+    <t>Port Victoria boat ramp</t>
+  </si>
+  <si>
+    <t>Port Rickaby north</t>
+  </si>
+  <si>
+    <t>Second Beach</t>
+  </si>
+  <si>
+    <t>Port Victoria jetty</t>
+  </si>
+  <si>
+    <t>Greenly island</t>
+  </si>
+  <si>
+    <t>Sleaford Bay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1194,7 +1225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1202,26 +1233,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1245,7 +1261,10 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1585,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:S602"/>
+  <dimension ref="A1:S635"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A603" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
@@ -18020,7 +18039,7 @@
     </row>
     <row r="456" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B456">
         <v>-35.242910000000002</v>
@@ -18371,7 +18390,7 @@
     </row>
     <row r="465" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B465">
         <v>-35.579300000000003</v>
@@ -18409,7 +18428,7 @@
     </row>
     <row r="466" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B466">
         <v>-35.585419999999999</v>
@@ -18444,7 +18463,7 @@
     </row>
     <row r="467" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B467">
         <v>-35.570399999999999</v>
@@ -20309,10 +20328,10 @@
         <v>307</v>
       </c>
       <c r="B521">
-        <v>-34.899970000000003</v>
+        <v>-34.899749999999997</v>
       </c>
       <c r="C521">
-        <v>137.45123000000001</v>
+        <v>137.45174</v>
       </c>
       <c r="D521" s="2">
         <v>46048</v>
@@ -20373,7 +20392,7 @@
     </row>
     <row r="523" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B523">
         <v>-33.040959000000001</v>
@@ -20400,7 +20419,7 @@
         <v>3335</v>
       </c>
       <c r="P523" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="524" spans="1:16" x14ac:dyDescent="0.25">
@@ -21717,219 +21736,213 @@
     </row>
     <row r="565" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B565">
-        <v>-34.289369999999998</v>
+        <v>-35.58858</v>
       </c>
       <c r="C565">
-        <v>138.01242999999999</v>
+        <v>138.60474600000001</v>
       </c>
       <c r="D565" s="2">
-        <v>46058</v>
-      </c>
-      <c r="F565">
-        <v>722</v>
-      </c>
-      <c r="G565">
-        <v>111</v>
+        <v>46057</v>
       </c>
       <c r="H565">
-        <v>1167</v>
+        <v>56</v>
       </c>
       <c r="I565">
         <v>0</v>
       </c>
-      <c r="J565">
-        <v>222</v>
-      </c>
-      <c r="K565">
-        <v>1778</v>
-      </c>
-      <c r="L565">
-        <v>111</v>
-      </c>
-      <c r="M565">
-        <v>167</v>
-      </c>
       <c r="N565">
-        <v>222</v>
+        <v>500</v>
       </c>
       <c r="O565">
-        <v>4500</v>
+        <v>556</v>
       </c>
       <c r="P565" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="566" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>324</v>
+        <v>89</v>
       </c>
       <c r="B566">
-        <v>-34.911830000000002</v>
+        <v>-35.6048446</v>
       </c>
       <c r="C566">
-        <v>137.16248999999999</v>
+        <v>138.59278499999999</v>
       </c>
       <c r="D566" s="2">
-        <v>46058</v>
+        <v>46057</v>
       </c>
       <c r="H566">
-        <v>1611</v>
+        <v>56</v>
       </c>
       <c r="I566">
-        <v>1611</v>
+        <v>0</v>
+      </c>
+      <c r="K566">
+        <v>111</v>
+      </c>
+      <c r="N566">
+        <v>333</v>
       </c>
       <c r="O566">
-        <v>1611</v>
+        <v>500</v>
       </c>
       <c r="P566" t="s">
-        <v>269</v>
+        <v>129</v>
       </c>
     </row>
     <row r="567" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>336</v>
+        <v>37</v>
       </c>
       <c r="B567">
-        <v>-34.893770000000004</v>
+        <v>-34.289369999999998</v>
       </c>
       <c r="C567">
-        <v>137.27602999999999</v>
+        <v>138.01242999999999</v>
       </c>
       <c r="D567" s="2">
-        <v>46059</v>
+        <v>46058</v>
+      </c>
+      <c r="F567">
+        <v>722</v>
+      </c>
+      <c r="G567">
+        <v>111</v>
       </c>
       <c r="H567">
-        <v>389</v>
+        <v>1167</v>
       </c>
       <c r="I567">
-        <v>389</v>
+        <v>0</v>
+      </c>
+      <c r="J567">
+        <v>222</v>
+      </c>
+      <c r="K567">
+        <v>1778</v>
+      </c>
+      <c r="L567">
+        <v>111</v>
+      </c>
+      <c r="M567">
+        <v>167</v>
+      </c>
+      <c r="N567">
+        <v>222</v>
       </c>
       <c r="O567">
-        <v>389</v>
+        <v>4500</v>
       </c>
       <c r="P567" t="s">
-        <v>269</v>
+        <v>76</v>
       </c>
     </row>
     <row r="568" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
+        <v>324</v>
+      </c>
+      <c r="B568">
+        <v>-34.911830000000002</v>
+      </c>
+      <c r="C568">
+        <v>137.16248999999999</v>
+      </c>
+      <c r="D568" s="2">
+        <v>46058</v>
+      </c>
+      <c r="H568">
+        <v>1611</v>
+      </c>
+      <c r="I568">
+        <v>1611</v>
+      </c>
+      <c r="O568">
+        <v>1611</v>
+      </c>
+      <c r="P568" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>336</v>
+      </c>
+      <c r="B569">
+        <v>-34.893770000000004</v>
+      </c>
+      <c r="C569">
+        <v>137.27602999999999</v>
+      </c>
+      <c r="D569" s="2">
+        <v>46059</v>
+      </c>
+      <c r="H569">
+        <v>389</v>
+      </c>
+      <c r="I569">
+        <v>389</v>
+      </c>
+      <c r="O569">
+        <v>389</v>
+      </c>
+      <c r="P569" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
         <v>345</v>
       </c>
-      <c r="B568" s="13">
+      <c r="B570" s="13">
         <f>-35.521088</f>
         <v>-35.521087999999999</v>
       </c>
-      <c r="C568" s="13">
+      <c r="C570" s="13">
         <v>138.18547100000001</v>
       </c>
-      <c r="D568" s="2">
+      <c r="D570" s="2">
         <v>46059</v>
       </c>
-      <c r="E568">
-        <v>0</v>
-      </c>
-      <c r="H568">
+      <c r="E570">
+        <v>0</v>
+      </c>
+      <c r="H570">
         <v>222</v>
       </c>
-      <c r="I568">
-        <v>0</v>
-      </c>
-      <c r="K568">
+      <c r="I570">
+        <v>0</v>
+      </c>
+      <c r="K570">
         <v>278</v>
       </c>
-      <c r="M568" s="14">
+      <c r="M570" s="14">
         <v>1889</v>
       </c>
-      <c r="N568">
+      <c r="N570">
         <v>2167</v>
       </c>
-      <c r="O568">
-        <f>SUM(E568:N568)</f>
+      <c r="O570">
+        <f>SUM(E570:N570)</f>
         <v>4556</v>
       </c>
-      <c r="P568" t="s">
+      <c r="P570" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
-        <v>331</v>
-      </c>
-      <c r="B569">
-        <v>-34.495376</v>
-      </c>
-      <c r="C569">
-        <v>137.481537</v>
-      </c>
-      <c r="D569" s="2">
-        <v>46060</v>
-      </c>
-      <c r="H569">
-        <v>278</v>
-      </c>
-      <c r="I569">
-        <v>0</v>
-      </c>
-      <c r="K569">
-        <v>167</v>
-      </c>
-      <c r="M569">
-        <v>222</v>
-      </c>
-      <c r="N569">
-        <v>222</v>
-      </c>
-      <c r="O569">
-        <v>889</v>
-      </c>
-      <c r="P569" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
-        <v>332</v>
-      </c>
-      <c r="B570">
-        <v>-34.750552999999996</v>
-      </c>
-      <c r="C570">
-        <v>137.477315</v>
-      </c>
-      <c r="D570" s="2">
-        <v>46060</v>
-      </c>
-      <c r="H570">
-        <v>278</v>
-      </c>
-      <c r="I570">
-        <v>0</v>
-      </c>
-      <c r="K570">
-        <v>333</v>
-      </c>
-      <c r="M570">
-        <v>167</v>
-      </c>
-      <c r="O570">
-        <v>778</v>
-      </c>
-      <c r="P570" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="571" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B571">
-        <v>-34.672504000000004</v>
+        <v>-34.495376</v>
       </c>
       <c r="C571">
-        <v>137.49397999999999</v>
+        <v>137.481537</v>
       </c>
       <c r="D571" s="2">
         <v>46060</v>
@@ -21941,16 +21954,16 @@
         <v>0</v>
       </c>
       <c r="K571">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="M571">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="N571">
         <v>222</v>
       </c>
       <c r="O571">
-        <v>1056</v>
+        <v>889</v>
       </c>
       <c r="P571" t="s">
         <v>220</v>
@@ -21958,31 +21971,31 @@
     </row>
     <row r="572" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B572">
-        <v>-34.588209999999997</v>
+        <v>-34.750552999999996</v>
       </c>
       <c r="C572">
-        <v>137.506224</v>
+        <v>137.477315</v>
       </c>
       <c r="D572" s="2">
         <v>46060</v>
       </c>
       <c r="H572">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="I572">
         <v>0</v>
       </c>
       <c r="K572">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="M572">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="O572">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="P572" t="s">
         <v>220</v>
@@ -21990,80 +22003,101 @@
     </row>
     <row r="573" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="B573">
-        <v>-34.899970000000003</v>
+        <v>-34.672504000000004</v>
       </c>
       <c r="C573">
-        <v>137.45123000000001</v>
+        <v>137.49397999999999</v>
       </c>
       <c r="D573" s="2">
         <v>46060</v>
       </c>
-      <c r="E573">
-        <v>778</v>
-      </c>
-      <c r="F573">
-        <v>167</v>
-      </c>
       <c r="H573">
-        <v>3778</v>
+        <v>278</v>
       </c>
       <c r="I573">
-        <v>3000</v>
+        <v>0</v>
+      </c>
+      <c r="K573">
+        <v>111</v>
+      </c>
+      <c r="M573">
+        <v>444</v>
       </c>
       <c r="N573">
-        <v>1111</v>
+        <v>222</v>
       </c>
       <c r="O573">
-        <v>5834</v>
+        <v>1056</v>
       </c>
       <c r="P573" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="574" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B574">
-        <v>-34.812609999999999</v>
+        <v>-34.588209999999997</v>
       </c>
       <c r="C574">
-        <v>137.45670999999999</v>
+        <v>137.506224</v>
       </c>
       <c r="D574" s="2">
         <v>46060</v>
       </c>
+      <c r="H574">
+        <v>111</v>
+      </c>
       <c r="I574">
         <v>0</v>
       </c>
+      <c r="K574">
+        <v>278</v>
+      </c>
+      <c r="M574">
+        <v>111</v>
+      </c>
       <c r="O574">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P574" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="575" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="B575">
-        <v>-34.827359999999999</v>
+        <v>-34.899749999999997</v>
       </c>
       <c r="C575">
-        <v>137.45850999999999</v>
+        <v>137.45174</v>
       </c>
       <c r="D575" s="2">
         <v>46060</v>
       </c>
+      <c r="E575">
+        <v>778</v>
+      </c>
+      <c r="F575">
+        <v>167</v>
+      </c>
+      <c r="H575">
+        <v>3778</v>
+      </c>
       <c r="I575">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="N575">
+        <v>1111</v>
       </c>
       <c r="O575">
-        <v>0</v>
+        <v>5834</v>
       </c>
       <c r="P575" t="s">
         <v>269</v>
@@ -22071,13 +22105,13 @@
     </row>
     <row r="576" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>265</v>
+        <v>337</v>
       </c>
       <c r="B576">
-        <v>-34.672490000000003</v>
+        <v>-34.812609999999999</v>
       </c>
       <c r="C576">
-        <v>137.49295000000001</v>
+        <v>137.45670999999999</v>
       </c>
       <c r="D576" s="2">
         <v>46060</v>
@@ -22105,139 +22139,136 @@
       <c r="D577" s="2">
         <v>46060</v>
       </c>
-      <c r="E577">
-        <v>0</v>
-      </c>
-      <c r="F577">
-        <v>0</v>
-      </c>
-      <c r="G577">
-        <v>0</v>
-      </c>
-      <c r="H577">
-        <v>166</v>
-      </c>
       <c r="I577">
         <v>0</v>
       </c>
-      <c r="J577">
-        <v>0</v>
-      </c>
-      <c r="K577">
-        <v>111</v>
-      </c>
-      <c r="M577">
-        <v>111</v>
-      </c>
       <c r="O577">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="P577" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
     </row>
     <row r="578" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="B578">
-        <v>-34.912934499999999</v>
+        <v>-34.672490000000003</v>
       </c>
       <c r="C578">
-        <v>137.01358930000001</v>
+        <v>137.49295000000001</v>
       </c>
       <c r="D578" s="2">
         <v>46060</v>
       </c>
-      <c r="H578">
-        <v>3222</v>
-      </c>
       <c r="I578">
-        <v>1111</v>
-      </c>
-      <c r="K578">
-        <v>1222</v>
-      </c>
-      <c r="L578">
-        <v>667</v>
-      </c>
-      <c r="M578">
-        <v>1111</v>
+        <v>0</v>
       </c>
       <c r="O578">
-        <v>6222</v>
+        <v>0</v>
       </c>
       <c r="P578" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="579" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B579">
-        <v>-34.672490000000003</v>
+        <v>-34.827359999999999</v>
       </c>
       <c r="C579">
-        <v>137.49295000000001</v>
+        <v>137.45850999999999</v>
       </c>
       <c r="D579" s="2">
-        <v>46061</v>
+        <v>46060</v>
+      </c>
+      <c r="E579">
+        <v>0</v>
+      </c>
+      <c r="F579">
+        <v>0</v>
+      </c>
+      <c r="G579">
+        <v>0</v>
+      </c>
+      <c r="H579">
+        <v>166</v>
       </c>
       <c r="I579">
         <v>0</v>
       </c>
+      <c r="J579">
+        <v>0</v>
+      </c>
+      <c r="K579">
+        <v>111</v>
+      </c>
+      <c r="M579">
+        <v>111</v>
+      </c>
       <c r="O579">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="P579" t="s">
-        <v>269</v>
+        <v>149</v>
       </c>
     </row>
     <row r="580" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="B580">
-        <v>-34.751460000000002</v>
+        <v>-34.912934499999999</v>
       </c>
       <c r="C580">
-        <v>137.47702000000001</v>
+        <v>137.01358930000001</v>
       </c>
       <c r="D580" s="2">
-        <v>46061</v>
+        <v>46060</v>
+      </c>
+      <c r="H580">
+        <v>3222</v>
       </c>
       <c r="I580">
-        <v>0</v>
+        <v>1111</v>
+      </c>
+      <c r="K580">
+        <v>1222</v>
+      </c>
+      <c r="L580">
+        <v>667</v>
+      </c>
+      <c r="M580">
+        <v>1111</v>
       </c>
       <c r="O580">
-        <v>0</v>
+        <v>6222</v>
       </c>
       <c r="P580" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="581" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c r="B581">
-        <v>-34.831850000000003</v>
+        <v>-34.672490000000003</v>
       </c>
       <c r="C581">
-        <v>137.45840999999999</v>
+        <v>137.49295000000001</v>
       </c>
       <c r="D581" s="2">
         <v>46061</v>
       </c>
-      <c r="H581">
-        <v>56</v>
-      </c>
       <c r="I581">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="O581">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="P581" t="s">
         <v>269</v>
@@ -22245,34 +22276,22 @@
     </row>
     <row r="582" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>307</v>
+        <v>214</v>
       </c>
       <c r="B582">
-        <v>-34.899970000000003</v>
+        <v>-34.751460000000002</v>
       </c>
       <c r="C582">
-        <v>137.45123000000001</v>
+        <v>137.47702000000001</v>
       </c>
       <c r="D582" s="2">
         <v>46061</v>
       </c>
-      <c r="E582">
-        <v>1667</v>
-      </c>
-      <c r="F582">
-        <v>111</v>
-      </c>
-      <c r="H582">
-        <v>4944</v>
-      </c>
       <c r="I582">
-        <v>4333</v>
-      </c>
-      <c r="N582">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="O582">
-        <v>6889</v>
+        <v>0</v>
       </c>
       <c r="P582" t="s">
         <v>269</v>
@@ -22280,98 +22299,74 @@
     </row>
     <row r="583" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B583">
-        <v>-34.920539599999998</v>
+        <v>-34.831850000000003</v>
       </c>
       <c r="C583">
-        <v>137.01218679999999</v>
+        <v>137.45840999999999</v>
       </c>
       <c r="D583" s="2">
         <v>46061</v>
       </c>
-      <c r="E583">
-        <v>0</v>
-      </c>
-      <c r="F583">
-        <v>0</v>
-      </c>
-      <c r="G583">
-        <v>0</v>
-      </c>
       <c r="H583">
-        <v>444</v>
+        <v>56</v>
       </c>
       <c r="I583">
-        <v>278</v>
-      </c>
-      <c r="J583">
-        <v>0</v>
-      </c>
-      <c r="K583">
-        <v>500</v>
-      </c>
-      <c r="L583">
-        <v>0</v>
-      </c>
-      <c r="M583">
-        <v>389</v>
-      </c>
-      <c r="N583">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="O583">
-        <v>1444</v>
+        <v>56</v>
       </c>
       <c r="P583" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="584" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="B584">
-        <v>-34.933680000000003</v>
+        <v>-34.899749999999997</v>
       </c>
       <c r="C584">
-        <v>137.35247000000001</v>
+        <v>137.45174</v>
       </c>
       <c r="D584" s="2">
         <v>46061</v>
       </c>
+      <c r="E584">
+        <v>1667</v>
+      </c>
+      <c r="F584">
+        <v>111</v>
+      </c>
       <c r="H584">
-        <v>6667</v>
+        <v>4944</v>
       </c>
       <c r="I584">
-        <v>2667</v>
-      </c>
-      <c r="K584">
-        <v>1222</v>
-      </c>
-      <c r="M584" s="15">
-        <v>1556</v>
+        <v>4333</v>
       </c>
       <c r="N584">
-        <v>889</v>
+        <v>167</v>
       </c>
       <c r="O584">
-        <v>10334</v>
+        <v>6889</v>
       </c>
       <c r="P584" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="585" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="B585">
-        <v>-34.804662999999998</v>
+        <v>-34.920539599999998</v>
       </c>
       <c r="C585">
-        <v>138.540223</v>
+        <v>137.01218679999999</v>
       </c>
       <c r="D585" s="2">
         <v>46061</v>
@@ -22386,92 +22381,77 @@
         <v>0</v>
       </c>
       <c r="H585">
-        <v>1.2749999999999999</v>
+        <v>444</v>
       </c>
       <c r="I585">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="J585">
         <v>0</v>
       </c>
       <c r="K585">
-        <v>13.574999999999999</v>
+        <v>500</v>
       </c>
       <c r="L585">
         <v>0</v>
       </c>
       <c r="M585">
-        <v>7.4999999999999997E-2</v>
+        <v>389</v>
       </c>
       <c r="N585">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="O585">
-        <v>14.925000000000001</v>
+        <v>1444</v>
       </c>
       <c r="P585" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
     </row>
     <row r="586" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="B586">
-        <v>-34.824044999999998</v>
+        <v>-34.933680000000003</v>
       </c>
       <c r="C586">
-        <v>138.48377600000001</v>
+        <v>137.35247000000001</v>
       </c>
       <c r="D586" s="2">
         <v>46061</v>
       </c>
-      <c r="E586">
-        <v>0</v>
-      </c>
-      <c r="F586">
-        <v>9</v>
-      </c>
-      <c r="G586">
-        <v>0</v>
-      </c>
       <c r="H586">
-        <v>0.9</v>
+        <v>6667</v>
       </c>
       <c r="I586">
-        <v>0</v>
-      </c>
-      <c r="J586">
-        <v>0</v>
+        <v>2667</v>
       </c>
       <c r="K586">
-        <v>7.6</v>
-      </c>
-      <c r="L586">
-        <v>0.5</v>
+        <v>1222</v>
       </c>
       <c r="M586">
-        <v>0.3</v>
+        <v>1556</v>
       </c>
       <c r="N586">
-        <v>1.9</v>
+        <v>889</v>
       </c>
       <c r="O586">
-        <v>20.2</v>
+        <v>10334</v>
       </c>
       <c r="P586" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
     </row>
     <row r="587" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="B587">
-        <v>-34.873964000000001</v>
+        <v>-34.804662999999998</v>
       </c>
       <c r="C587">
-        <v>138.488134</v>
+        <v>138.540223</v>
       </c>
       <c r="D587" s="2">
         <v>46061</v>
@@ -22480,34 +22460,34 @@
         <v>0</v>
       </c>
       <c r="F587">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G587">
         <v>0</v>
       </c>
       <c r="H587">
-        <v>39.825000000000003</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="I587">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="J587">
         <v>0</v>
       </c>
       <c r="K587">
-        <v>2.1</v>
+        <v>13.574999999999999</v>
       </c>
       <c r="L587">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M587">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="N587">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="O587">
-        <v>43.125</v>
+        <v>14.925000000000001</v>
       </c>
       <c r="P587" t="s">
         <v>78</v>
@@ -22515,13 +22495,13 @@
     </row>
     <row r="588" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="B588">
-        <v>-34.860666999999999</v>
+        <v>-34.824044999999998</v>
       </c>
       <c r="C588">
-        <v>138.490938</v>
+        <v>138.48377600000001</v>
       </c>
       <c r="D588" s="2">
         <v>46061</v>
@@ -22530,34 +22510,34 @@
         <v>0</v>
       </c>
       <c r="F588">
-        <v>1.2749999999999999</v>
+        <v>9</v>
       </c>
       <c r="G588">
         <v>0</v>
       </c>
       <c r="H588">
-        <v>16.95</v>
+        <v>0.9</v>
       </c>
       <c r="I588">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="J588">
         <v>0</v>
       </c>
       <c r="K588">
-        <v>31.425000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="L588">
-        <v>7.4999999999999997E-2</v>
+        <v>0.5</v>
       </c>
       <c r="M588">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N588">
-        <v>0.67500000000000004</v>
+        <v>1.9</v>
       </c>
       <c r="O588">
-        <v>50.55</v>
+        <v>20.2</v>
       </c>
       <c r="P588" t="s">
         <v>78</v>
@@ -22565,351 +22545,438 @@
     </row>
     <row r="589" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>295</v>
+        <v>85</v>
       </c>
       <c r="B589">
-        <v>-34.628860000000003</v>
+        <v>-34.873964000000001</v>
       </c>
       <c r="C589">
-        <v>135.86708999999999</v>
+        <v>138.488134</v>
       </c>
       <c r="D589" s="2">
-        <v>46062</v>
+        <v>46061</v>
+      </c>
+      <c r="E589">
+        <v>0</v>
+      </c>
+      <c r="F589">
+        <v>0.15</v>
+      </c>
+      <c r="G589">
+        <v>0</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>39.825000000000003</v>
       </c>
       <c r="I589">
+        <v>5.4</v>
+      </c>
+      <c r="J589">
         <v>0</v>
       </c>
       <c r="K589">
-        <v>278</v>
+        <v>2.1</v>
       </c>
       <c r="L589">
-        <v>56</v>
+        <v>0.15</v>
       </c>
       <c r="M589">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="N589">
-        <v>278</v>
+        <v>0.9</v>
       </c>
       <c r="O589">
-        <v>1279</v>
+        <v>43.125</v>
       </c>
       <c r="P589" t="s">
-        <v>288</v>
+        <v>78</v>
       </c>
     </row>
     <row r="590" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>341</v>
+        <v>244</v>
       </c>
       <c r="B590">
-        <v>-34.519669999999998</v>
+        <v>-34.860666999999999</v>
       </c>
       <c r="C590">
-        <v>136.27539999999999</v>
+        <v>138.490938</v>
       </c>
       <c r="D590" s="2">
-        <v>46062</v>
+        <v>46061</v>
+      </c>
+      <c r="E590">
+        <v>0</v>
+      </c>
+      <c r="F590">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="G590">
+        <v>0</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>16.95</v>
       </c>
       <c r="I590">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J590">
         <v>0</v>
       </c>
       <c r="K590">
-        <v>0</v>
+        <v>31.425000000000001</v>
       </c>
       <c r="L590">
-        <v>56</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="M590">
-        <v>333</v>
+        <v>0.15</v>
       </c>
       <c r="N590">
-        <v>56</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="O590">
-        <v>446</v>
+        <v>50.55</v>
       </c>
       <c r="P590" t="s">
-        <v>288</v>
+        <v>78</v>
       </c>
     </row>
     <row r="591" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>342</v>
+        <v>94</v>
       </c>
       <c r="B591">
-        <v>-34.535609999999998</v>
+        <v>-35.58858</v>
       </c>
       <c r="C591">
-        <v>136.27878000000001</v>
+        <v>138.60474600000001</v>
       </c>
       <c r="D591" s="2">
-        <v>46062</v>
+        <v>46061</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="I591">
         <v>0</v>
       </c>
+      <c r="K591">
+        <v>111</v>
+      </c>
       <c r="M591">
-        <v>222</v>
+        <v>333</v>
+      </c>
+      <c r="N591">
+        <v>56</v>
       </c>
       <c r="O591">
-        <v>222</v>
+        <v>611</v>
       </c>
       <c r="P591" t="s">
-        <v>288</v>
+        <v>129</v>
       </c>
     </row>
     <row r="592" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>260</v>
+        <v>89</v>
       </c>
       <c r="B592">
-        <v>-34.827359999999999</v>
+        <v>-35.6048446</v>
       </c>
       <c r="C592">
-        <v>137.45850999999999</v>
+        <v>138.59278499999999</v>
       </c>
       <c r="D592" s="2">
-        <v>46062.677083333336</v>
-      </c>
-      <c r="H592">
-        <v>3389</v>
+        <v>46061</v>
       </c>
       <c r="I592">
-        <v>1389</v>
+        <v>0</v>
       </c>
       <c r="K592">
-        <v>4333</v>
+        <v>111</v>
       </c>
       <c r="M592">
-        <v>5000</v>
+        <v>167</v>
       </c>
       <c r="N592">
-        <v>1167</v>
+        <v>167</v>
       </c>
       <c r="O592">
-        <v>13889</v>
+        <v>445</v>
       </c>
       <c r="P592" t="s">
-        <v>220</v>
+        <v>129</v>
       </c>
     </row>
     <row r="593" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="B593">
-        <v>-34.672490000000003</v>
+        <v>-34.628860000000003</v>
       </c>
       <c r="C593">
-        <v>137.49295000000001</v>
+        <v>135.86708999999999</v>
       </c>
       <c r="D593" s="2">
         <v>46062</v>
       </c>
-      <c r="G593">
-        <v>167</v>
-      </c>
       <c r="H593">
-        <v>1111</v>
+        <v>0</v>
       </c>
       <c r="I593">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="K593">
-        <v>222</v>
+        <v>278</v>
+      </c>
+      <c r="L593">
+        <v>56</v>
       </c>
       <c r="M593">
-        <v>611</v>
+        <v>667</v>
+      </c>
+      <c r="N593">
+        <v>278</v>
       </c>
       <c r="O593">
-        <v>2111</v>
+        <v>1279</v>
       </c>
       <c r="P593" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
     </row>
     <row r="594" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B594">
-        <v>-34.890371899999998</v>
+        <v>-34.519669999999998</v>
       </c>
       <c r="C594">
-        <v>137.45360099999999</v>
+        <v>136.27539999999999</v>
       </c>
       <c r="D594" s="2">
         <v>46062</v>
       </c>
       <c r="H594">
-        <v>11000</v>
+        <v>1</v>
       </c>
       <c r="I594">
-        <v>5444</v>
+        <v>0</v>
       </c>
       <c r="K594">
-        <v>1222</v>
+        <v>0</v>
       </c>
       <c r="L594">
-        <v>444</v>
+        <v>56</v>
       </c>
       <c r="M594">
-        <v>1333</v>
+        <v>333</v>
       </c>
       <c r="N594">
-        <v>444</v>
+        <v>56</v>
       </c>
       <c r="O594">
-        <v>14444</v>
+        <v>446</v>
       </c>
       <c r="P594" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
     </row>
     <row r="595" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B595">
-        <v>-35.500242</v>
+        <v>-34.535609999999998</v>
       </c>
       <c r="C595">
-        <v>138.24491</v>
+        <v>136.27878000000001</v>
       </c>
       <c r="D595" s="2">
         <v>46062</v>
       </c>
-      <c r="E595">
-        <v>0</v>
-      </c>
       <c r="H595">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="I595">
         <v>0</v>
       </c>
-      <c r="K595">
-        <v>56</v>
-      </c>
-      <c r="M595" s="14">
-        <v>444</v>
-      </c>
-      <c r="N595">
-        <v>0</v>
+      <c r="M595">
+        <v>222</v>
       </c>
       <c r="O595">
-        <f>SUM(E595:N595)</f>
-        <v>611</v>
+        <v>222</v>
       </c>
       <c r="P595" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
     </row>
     <row r="596" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B596">
-        <v>-34.672490000000003</v>
+        <v>-34.827359999999999</v>
       </c>
       <c r="C596">
-        <v>137.49295000000001</v>
+        <v>137.45850999999999</v>
       </c>
       <c r="D596" s="2">
-        <v>46063</v>
+        <v>46062</v>
+      </c>
+      <c r="H596">
+        <v>3389</v>
       </c>
       <c r="I596">
-        <v>556</v>
+        <v>1389</v>
+      </c>
+      <c r="K596">
+        <v>4333</v>
+      </c>
+      <c r="M596">
+        <v>5000</v>
+      </c>
+      <c r="N596">
+        <v>1167</v>
+      </c>
+      <c r="O596">
+        <v>13889</v>
       </c>
       <c r="P596" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="597" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="B597">
-        <v>-34.751460000000002</v>
+        <v>-34.672490000000003</v>
       </c>
       <c r="C597">
-        <v>137.47702000000001</v>
+        <v>137.49295000000001</v>
       </c>
       <c r="D597" s="2">
-        <v>46063</v>
+        <v>46062</v>
+      </c>
+      <c r="G597">
+        <v>167</v>
+      </c>
+      <c r="H597">
+        <v>1111</v>
       </c>
       <c r="I597">
-        <v>0</v>
+        <v>333</v>
+      </c>
+      <c r="K597">
+        <v>222</v>
+      </c>
+      <c r="M597">
+        <v>611</v>
+      </c>
+      <c r="O597">
+        <v>2111</v>
       </c>
       <c r="P597" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="598" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B598">
-        <v>-34.670960000000001</v>
+        <v>-34.890371899999998</v>
       </c>
       <c r="C598">
-        <v>137.49216000000001</v>
+        <v>137.45360099999999</v>
       </c>
       <c r="D598" s="2">
-        <v>46063</v>
+        <v>46062</v>
+      </c>
+      <c r="H598">
+        <v>11000</v>
       </c>
       <c r="I598">
-        <v>1167</v>
+        <v>5444</v>
+      </c>
+      <c r="K598">
+        <v>1222</v>
+      </c>
+      <c r="L598">
+        <v>444</v>
+      </c>
+      <c r="M598">
+        <v>1333</v>
+      </c>
+      <c r="N598">
+        <v>444</v>
+      </c>
+      <c r="O598">
+        <v>14444</v>
       </c>
       <c r="P598" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="599" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B599">
-        <v>-34.643329999999999</v>
+        <v>-35.500242</v>
       </c>
       <c r="C599">
-        <v>137.48678000000001</v>
+        <v>138.24491</v>
       </c>
       <c r="D599" s="2">
-        <v>46063</v>
+        <v>46062</v>
+      </c>
+      <c r="E599">
+        <v>0</v>
+      </c>
+      <c r="H599">
+        <v>111</v>
       </c>
       <c r="I599">
-        <v>1333</v>
+        <v>0</v>
+      </c>
+      <c r="K599">
+        <v>56</v>
+      </c>
+      <c r="M599" s="14">
+        <v>444</v>
+      </c>
+      <c r="N599">
+        <v>0</v>
+      </c>
+      <c r="O599">
+        <f>SUM(E599:N599)</f>
+        <v>611</v>
       </c>
       <c r="P599" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="600" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="B600">
-        <v>-34.586370000000002</v>
+        <v>-34.672490000000003</v>
       </c>
       <c r="C600">
-        <v>137.50527</v>
+        <v>137.49295000000001</v>
       </c>
       <c r="D600" s="2">
         <v>46063</v>
       </c>
       <c r="I600">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="P600" t="s">
         <v>269</v>
@@ -22917,101 +22984,887 @@
     </row>
     <row r="601" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>343</v>
+        <v>214</v>
       </c>
       <c r="B601">
-        <v>-34.9094768</v>
+        <v>-34.751460000000002</v>
       </c>
       <c r="C601">
-        <v>137.44470480000001</v>
+        <v>137.47702000000001</v>
       </c>
       <c r="D601" s="2">
         <v>46063</v>
       </c>
-      <c r="E601">
-        <v>0</v>
-      </c>
-      <c r="F601">
-        <v>0</v>
-      </c>
-      <c r="G601">
-        <v>0</v>
-      </c>
-      <c r="H601">
-        <v>5333</v>
-      </c>
       <c r="I601">
-        <v>4111</v>
-      </c>
-      <c r="J601">
-        <v>0</v>
-      </c>
-      <c r="K601">
-        <v>1556</v>
-      </c>
-      <c r="L601">
-        <v>0</v>
-      </c>
-      <c r="M601">
-        <v>1111</v>
-      </c>
-      <c r="N601">
-        <v>222</v>
-      </c>
-      <c r="O601">
-        <v>8222</v>
+        <v>0</v>
       </c>
       <c r="P601" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="602" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>59</v>
+        <v>347</v>
       </c>
       <c r="B602">
-        <v>-35.084850000000003</v>
+        <v>-34.670960000000001</v>
       </c>
       <c r="C602">
-        <v>137.74889999999999</v>
+        <v>137.49216000000001</v>
       </c>
       <c r="D602" s="2">
         <v>46063</v>
       </c>
-      <c r="E602">
-        <v>0</v>
-      </c>
-      <c r="F602">
-        <v>0</v>
-      </c>
-      <c r="G602">
-        <v>0</v>
-      </c>
-      <c r="H602">
+      <c r="I602">
+        <v>1167</v>
+      </c>
+      <c r="P602" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="603" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>348</v>
+      </c>
+      <c r="B603">
+        <v>-34.643329999999999</v>
+      </c>
+      <c r="C603">
+        <v>137.48678000000001</v>
+      </c>
+      <c r="D603" s="2">
+        <v>46063</v>
+      </c>
+      <c r="I603">
+        <v>1333</v>
+      </c>
+      <c r="P603" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="604" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>358</v>
+      </c>
+      <c r="B604">
+        <v>-34.586370000000002</v>
+      </c>
+      <c r="C604">
+        <v>137.50527</v>
+      </c>
+      <c r="D604" s="2">
+        <v>46063</v>
+      </c>
+      <c r="I604">
+        <v>0</v>
+      </c>
+      <c r="P604" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="605" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>343</v>
+      </c>
+      <c r="B605">
+        <v>-34.9094768</v>
+      </c>
+      <c r="C605">
+        <v>137.44470480000001</v>
+      </c>
+      <c r="D605" s="2">
+        <v>46063</v>
+      </c>
+      <c r="E605">
+        <v>0</v>
+      </c>
+      <c r="F605">
+        <v>0</v>
+      </c>
+      <c r="G605">
+        <v>0</v>
+      </c>
+      <c r="H605">
+        <v>5333</v>
+      </c>
+      <c r="I605">
+        <v>4111</v>
+      </c>
+      <c r="J605">
+        <v>0</v>
+      </c>
+      <c r="K605">
+        <v>1556</v>
+      </c>
+      <c r="L605">
+        <v>0</v>
+      </c>
+      <c r="M605">
+        <v>1111</v>
+      </c>
+      <c r="N605">
         <v>222</v>
       </c>
-      <c r="I602">
-        <v>0</v>
-      </c>
-      <c r="J602">
-        <v>0</v>
-      </c>
-      <c r="K602">
-        <v>0</v>
-      </c>
-      <c r="M602">
+      <c r="O605">
+        <v>8222</v>
+      </c>
+      <c r="P605" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="606" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>59</v>
+      </c>
+      <c r="B606">
+        <v>-35.084850000000003</v>
+      </c>
+      <c r="C606">
+        <v>137.74889999999999</v>
+      </c>
+      <c r="D606" s="2">
+        <v>46063</v>
+      </c>
+      <c r="E606">
+        <v>0</v>
+      </c>
+      <c r="F606">
+        <v>0</v>
+      </c>
+      <c r="G606">
+        <v>0</v>
+      </c>
+      <c r="H606">
+        <v>222</v>
+      </c>
+      <c r="I606">
+        <v>0</v>
+      </c>
+      <c r="J606">
+        <v>0</v>
+      </c>
+      <c r="K606">
+        <v>0</v>
+      </c>
+      <c r="M606">
         <v>1000</v>
       </c>
-      <c r="O602">
+      <c r="O606">
         <v>1222</v>
       </c>
-      <c r="P602" t="s">
+      <c r="P606" t="s">
         <v>149</v>
       </c>
     </row>
+    <row r="607" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>307</v>
+      </c>
+      <c r="B607">
+        <v>-34.899749999999997</v>
+      </c>
+      <c r="C607">
+        <v>137.45174</v>
+      </c>
+      <c r="D607" s="2">
+        <v>46064</v>
+      </c>
+      <c r="I607">
+        <v>1778</v>
+      </c>
+      <c r="P607" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="608" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>214</v>
+      </c>
+      <c r="B608">
+        <v>-34.751460000000002</v>
+      </c>
+      <c r="C608">
+        <v>137.47702000000001</v>
+      </c>
+      <c r="D608" s="2">
+        <v>46064</v>
+      </c>
+      <c r="I608">
+        <v>2833</v>
+      </c>
+      <c r="P608" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="609" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>359</v>
+      </c>
+      <c r="B609">
+        <v>-34.672490000000003</v>
+      </c>
+      <c r="C609">
+        <v>137.49295000000001</v>
+      </c>
+      <c r="D609" s="2">
+        <v>46064</v>
+      </c>
+      <c r="I609">
+        <v>500</v>
+      </c>
+      <c r="P609" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="610" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>358</v>
+      </c>
+      <c r="B610">
+        <v>-34.586370000000002</v>
+      </c>
+      <c r="C610">
+        <v>137.50527</v>
+      </c>
+      <c r="D610" s="2">
+        <v>46064</v>
+      </c>
+      <c r="I610">
+        <v>0</v>
+      </c>
+      <c r="P610" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="611" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>360</v>
+      </c>
+      <c r="B611">
+        <v>-34.507260000000002</v>
+      </c>
+      <c r="C611">
+        <v>137.47505000000001</v>
+      </c>
+      <c r="D611" s="2">
+        <v>46064</v>
+      </c>
+      <c r="I611">
+        <v>0</v>
+      </c>
+      <c r="P611" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="612" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>260</v>
+      </c>
+      <c r="B612">
+        <v>-34.827359999999999</v>
+      </c>
+      <c r="C612">
+        <v>137.45850999999999</v>
+      </c>
+      <c r="D612" s="2">
+        <v>46065</v>
+      </c>
+      <c r="I612">
+        <v>2000</v>
+      </c>
+      <c r="P612" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="613" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>307</v>
+      </c>
+      <c r="B613">
+        <v>-34.899749999999997</v>
+      </c>
+      <c r="C613">
+        <v>137.45174</v>
+      </c>
+      <c r="D613" s="2">
+        <v>46065</v>
+      </c>
+      <c r="I613">
+        <v>4278</v>
+      </c>
+      <c r="P613" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="614" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>324</v>
+      </c>
+      <c r="B614">
+        <v>-34.911830000000002</v>
+      </c>
+      <c r="C614">
+        <v>137.16248999999999</v>
+      </c>
+      <c r="D614" s="2">
+        <v>46065</v>
+      </c>
+      <c r="I614">
+        <v>0</v>
+      </c>
+      <c r="P614" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="615" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>307</v>
+      </c>
+      <c r="B615">
+        <v>-34.899749999999997</v>
+      </c>
+      <c r="C615">
+        <v>137.45174</v>
+      </c>
+      <c r="D615" s="2">
+        <v>46066</v>
+      </c>
+      <c r="I615">
+        <v>5500</v>
+      </c>
+      <c r="P615" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="616" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>214</v>
+      </c>
+      <c r="B616">
+        <v>-34.751460000000002</v>
+      </c>
+      <c r="C616">
+        <v>137.47702000000001</v>
+      </c>
+      <c r="D616" s="2">
+        <v>46066</v>
+      </c>
+      <c r="I616">
+        <v>222</v>
+      </c>
+      <c r="P616" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="617" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>359</v>
+      </c>
+      <c r="B617">
+        <v>-34.672490000000003</v>
+      </c>
+      <c r="C617">
+        <v>137.49295000000001</v>
+      </c>
+      <c r="D617" s="2">
+        <v>46066</v>
+      </c>
+      <c r="I617">
+        <v>0</v>
+      </c>
+      <c r="P617" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="618" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>271</v>
+      </c>
+      <c r="B618">
+        <v>-34.824044999999998</v>
+      </c>
+      <c r="C618">
+        <v>138.48377600000001</v>
+      </c>
+      <c r="D618" s="2">
+        <v>46067</v>
+      </c>
+      <c r="F618">
+        <v>0.45</v>
+      </c>
+      <c r="H618">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I618">
+        <v>0</v>
+      </c>
+      <c r="K618">
+        <v>5.3</v>
+      </c>
+      <c r="L618">
+        <v>0.05</v>
+      </c>
+      <c r="M618">
+        <v>0.05</v>
+      </c>
+      <c r="N618">
+        <v>0.05</v>
+      </c>
+      <c r="O618">
+        <f>SUM(E618:H618,J618:N618)</f>
+        <v>23.3</v>
+      </c>
+      <c r="P618" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="619" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>85</v>
+      </c>
+      <c r="B619">
+        <v>-34.873964000000001</v>
+      </c>
+      <c r="C619">
+        <v>138.488134</v>
+      </c>
+      <c r="D619" s="2">
+        <v>46067</v>
+      </c>
+      <c r="F619">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H619">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="I619">
+        <v>0</v>
+      </c>
+      <c r="K619">
+        <v>28.5</v>
+      </c>
+      <c r="M619">
+        <v>0.3</v>
+      </c>
+      <c r="N619">
+        <v>0.375</v>
+      </c>
+      <c r="O619">
+        <f>SUM(E619:H619,J619:N619)</f>
+        <v>32.924999999999997</v>
+      </c>
+      <c r="P619" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="620" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>355</v>
+      </c>
+      <c r="B620">
+        <v>-34.860666999999999</v>
+      </c>
+      <c r="C620">
+        <v>138.490938</v>
+      </c>
+      <c r="D620" s="2">
+        <v>46067</v>
+      </c>
+      <c r="H620">
+        <v>3</v>
+      </c>
+      <c r="I620">
+        <v>0.15</v>
+      </c>
+      <c r="K620">
+        <v>117.6</v>
+      </c>
+      <c r="O620">
+        <f>SUM(E620:H620,J620:N620)</f>
+        <v>120.6</v>
+      </c>
+      <c r="P620" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="621" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>79</v>
+      </c>
+      <c r="B621">
+        <v>-34.804662999999998</v>
+      </c>
+      <c r="C621">
+        <v>138.540223</v>
+      </c>
+      <c r="D621" s="2">
+        <v>46067</v>
+      </c>
+      <c r="F621">
+        <v>0.15</v>
+      </c>
+      <c r="H621">
+        <v>1.2</v>
+      </c>
+      <c r="I621">
+        <v>0</v>
+      </c>
+      <c r="K621">
+        <v>79.125</v>
+      </c>
+      <c r="M621">
+        <v>0.45</v>
+      </c>
+      <c r="O621">
+        <f>SUM(E621:H621,J621:N621)</f>
+        <v>80.924999999999997</v>
+      </c>
+      <c r="P621" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="622" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>307</v>
+      </c>
+      <c r="B622">
+        <v>-34.899749999999997</v>
+      </c>
+      <c r="C622">
+        <v>137.45174</v>
+      </c>
+      <c r="D622" s="2">
+        <v>46067</v>
+      </c>
+      <c r="I622">
+        <v>3889</v>
+      </c>
+      <c r="P622" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="623" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>307</v>
+      </c>
+      <c r="B623">
+        <v>-34.899749999999997</v>
+      </c>
+      <c r="C623">
+        <v>137.45174</v>
+      </c>
+      <c r="D623" s="2">
+        <v>46068</v>
+      </c>
+      <c r="I623">
+        <v>4278</v>
+      </c>
+      <c r="P623" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="624" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>359</v>
+      </c>
+      <c r="B624">
+        <v>-34.672490000000003</v>
+      </c>
+      <c r="C624">
+        <v>137.49295000000001</v>
+      </c>
+      <c r="D624" s="2">
+        <v>46068</v>
+      </c>
+      <c r="I624">
+        <v>333</v>
+      </c>
+      <c r="P624" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="625" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>361</v>
+      </c>
+      <c r="B625">
+        <v>-34.66301</v>
+      </c>
+      <c r="C625">
+        <v>137.49252999999999</v>
+      </c>
+      <c r="D625" s="2">
+        <v>46068</v>
+      </c>
+      <c r="I625">
+        <v>7222</v>
+      </c>
+      <c r="P625" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="626" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>358</v>
+      </c>
+      <c r="B626">
+        <v>-34.586370000000002</v>
+      </c>
+      <c r="C626">
+        <v>137.50527</v>
+      </c>
+      <c r="D626" s="2">
+        <v>46068</v>
+      </c>
+      <c r="I626">
+        <v>222</v>
+      </c>
+      <c r="P626" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="627" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>362</v>
+      </c>
+      <c r="B627">
+        <v>-34.52664</v>
+      </c>
+      <c r="C627">
+        <v>137.48193000000001</v>
+      </c>
+      <c r="D627" s="2">
+        <v>46068</v>
+      </c>
+      <c r="I627">
+        <v>222</v>
+      </c>
+      <c r="P627" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="628" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>363</v>
+      </c>
+      <c r="B628">
+        <v>-34.494970000000002</v>
+      </c>
+      <c r="C628">
+        <v>137.48038</v>
+      </c>
+      <c r="D628" s="2">
+        <v>46068</v>
+      </c>
+      <c r="I628">
+        <v>56</v>
+      </c>
+      <c r="P628" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="629" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>318</v>
+      </c>
+      <c r="B629">
+        <v>-35.445188000000002</v>
+      </c>
+      <c r="C629">
+        <v>138.307266</v>
+      </c>
+      <c r="D629" s="2">
+        <v>46069</v>
+      </c>
+      <c r="I629">
+        <v>0</v>
+      </c>
+      <c r="K629">
+        <v>0</v>
+      </c>
+      <c r="M629" s="16">
+        <v>0</v>
+      </c>
+      <c r="N629">
+        <v>0</v>
+      </c>
+      <c r="O629">
+        <f>SUM(E629:N629)</f>
+        <v>0</v>
+      </c>
+      <c r="P629" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="630" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>364</v>
+      </c>
+      <c r="B630">
+        <v>-34.637633999999998</v>
+      </c>
+      <c r="C630">
+        <v>134.80187000000001</v>
+      </c>
+      <c r="D630" s="2">
+        <v>46069</v>
+      </c>
+      <c r="H630">
+        <v>56</v>
+      </c>
+      <c r="I630">
+        <v>0</v>
+      </c>
+      <c r="N630">
+        <v>56</v>
+      </c>
+      <c r="O630">
+        <v>112</v>
+      </c>
+      <c r="P630" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="631" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>365</v>
+      </c>
+      <c r="B631">
+        <v>-34.864305100000003</v>
+      </c>
+      <c r="C631">
+        <v>135.77572000000001</v>
+      </c>
+      <c r="D631" s="2">
+        <v>46069</v>
+      </c>
+      <c r="H631">
+        <v>56</v>
+      </c>
+      <c r="I631">
+        <v>0</v>
+      </c>
+      <c r="K631">
+        <v>56</v>
+      </c>
+      <c r="O631">
+        <v>112</v>
+      </c>
+      <c r="P631" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="632" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>59</v>
+      </c>
+      <c r="B632">
+        <v>-35.084850000000003</v>
+      </c>
+      <c r="C632">
+        <v>137.74889999999999</v>
+      </c>
+      <c r="D632" s="2">
+        <v>46070</v>
+      </c>
+      <c r="E632" s="15"/>
+      <c r="H632">
+        <v>83</v>
+      </c>
+      <c r="I632">
+        <v>0</v>
+      </c>
+      <c r="K632">
+        <v>27</v>
+      </c>
+      <c r="M632">
+        <v>417</v>
+      </c>
+      <c r="O632">
+        <v>527</v>
+      </c>
+      <c r="P632" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="633" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>357</v>
+      </c>
+      <c r="B633">
+        <v>-35.092981999999999</v>
+      </c>
+      <c r="C633">
+        <v>137.747029</v>
+      </c>
+      <c r="D633" s="2">
+        <v>46070</v>
+      </c>
+      <c r="H633">
+        <v>1981</v>
+      </c>
+      <c r="I633">
+        <v>37</v>
+      </c>
+      <c r="K633">
+        <v>2889</v>
+      </c>
+      <c r="M633">
+        <v>556</v>
+      </c>
+      <c r="N633">
+        <v>56</v>
+      </c>
+      <c r="O633">
+        <v>5482</v>
+      </c>
+      <c r="P633" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="634" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>359</v>
+      </c>
+      <c r="B634">
+        <v>-34.672490000000003</v>
+      </c>
+      <c r="C634">
+        <v>137.49295000000001</v>
+      </c>
+      <c r="D634" s="2">
+        <v>46070</v>
+      </c>
+      <c r="I634">
+        <v>833</v>
+      </c>
+      <c r="P634" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="635" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>307</v>
+      </c>
+      <c r="B635">
+        <v>-34.899749999999997</v>
+      </c>
+      <c r="C635">
+        <v>137.45174</v>
+      </c>
+      <c r="D635" s="2">
+        <v>46070</v>
+      </c>
+      <c r="I635">
+        <v>2611</v>
+      </c>
+      <c r="P635" t="s">
+        <v>269</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P602">
-    <sortCondition ref="D2:D602"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P635">
+    <sortCondition ref="D2:D635"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1675510\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40442DFB-F8C7-450A-92B6-F39C89D67437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F0F7C6-3CF7-478B-9045-97CAA6182C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11175" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -1202,10 +1202,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1279,7 +1280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1303,11 +1304,7 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1317,6 +1314,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1659,33 +1661,32 @@
   <dimension ref="A1:T669"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A652" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A670" sqref="A670"/>
+      <selection pane="bottomLeft" activeCell="E672" sqref="E672"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="20" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1698,7 +1699,7 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="19" t="s">
         <v>355</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1738,7 +1739,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1881,7 +1882,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1925,7 +1926,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -2126,7 +2127,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -2178,7 +2179,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -2416,7 +2417,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2951,7 +2952,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -3165,7 +3166,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -3441,7 +3442,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -3508,7 +3509,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -3578,7 +3579,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>108</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -3712,7 +3713,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -3867,7 +3868,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -3899,7 +3900,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -3963,7 +3964,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -4027,7 +4028,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -4059,7 +4060,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -4091,7 +4092,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>114</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -4251,7 +4252,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -4293,7 +4294,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -4337,7 +4338,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -4381,7 +4382,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -4410,7 +4411,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>116</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -4468,7 +4469,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -4494,7 +4495,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -4582,7 +4583,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -4629,7 +4630,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -4673,7 +4674,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -4777,7 +4778,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>156</v>
       </c>
@@ -4803,7 +4804,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -4832,7 +4833,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>35</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -4952,7 +4953,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -5020,7 +5021,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>154</v>
       </c>
@@ -5046,7 +5047,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>140</v>
       </c>
@@ -5101,7 +5102,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>141</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>152</v>
       </c>
@@ -5159,7 +5160,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -5188,7 +5189,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -5232,7 +5233,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -5267,7 +5268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>39</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -5346,7 +5347,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>41</v>
       </c>
@@ -5384,7 +5385,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -5425,7 +5426,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>92</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -5486,7 +5487,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -5530,7 +5531,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>86</v>
       </c>
@@ -5562,7 +5563,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -5591,7 +5592,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -5623,7 +5624,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>88</v>
       </c>
@@ -5649,7 +5650,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>89</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>90</v>
       </c>
@@ -5704,7 +5705,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -5748,7 +5749,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>45</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>46</v>
       </c>
@@ -5833,7 +5834,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>47</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -5912,7 +5913,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>49</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -5997,7 +5998,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>37</v>
       </c>
@@ -6038,7 +6039,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>77</v>
       </c>
@@ -6070,7 +6071,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>80</v>
       </c>
@@ -6102,7 +6103,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>130</v>
       </c>
@@ -6115,7 +6116,7 @@
       <c r="D126" s="2">
         <v>45885</v>
       </c>
-      <c r="E126" s="16">
+      <c r="E126" s="20">
         <v>0.6333333333333333</v>
       </c>
       <c r="I126">
@@ -6137,7 +6138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -6166,7 +6167,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -6192,7 +6193,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>81</v>
       </c>
@@ -6224,7 +6225,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>161</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -6285,7 +6286,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>157</v>
       </c>
@@ -6314,7 +6315,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>158</v>
       </c>
@@ -6346,7 +6347,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>125</v>
       </c>
@@ -6378,7 +6379,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>126</v>
       </c>
@@ -6419,7 +6420,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>127</v>
       </c>
@@ -6457,7 +6458,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -6495,7 +6496,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>132</v>
       </c>
@@ -6536,7 +6537,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>133</v>
       </c>
@@ -6577,7 +6578,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>134</v>
       </c>
@@ -6615,7 +6616,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>135</v>
       </c>
@@ -6653,7 +6654,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>136</v>
       </c>
@@ -6688,7 +6689,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>137</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>138</v>
       </c>
@@ -6761,7 +6762,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>139</v>
       </c>
@@ -6796,7 +6797,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -6837,7 +6838,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>119</v>
       </c>
@@ -6875,7 +6876,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>120</v>
       </c>
@@ -6910,7 +6911,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>79</v>
       </c>
@@ -6923,7 +6924,7 @@
       <c r="D149" s="2">
         <v>45892</v>
       </c>
-      <c r="E149" s="16">
+      <c r="E149" s="20">
         <v>0.55625000000000002</v>
       </c>
       <c r="I149">
@@ -6945,7 +6946,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>237</v>
       </c>
@@ -6958,7 +6959,7 @@
       <c r="D150" s="2">
         <v>45892</v>
       </c>
-      <c r="E150" s="16">
+      <c r="E150" s="20">
         <v>0.57708333333333328</v>
       </c>
       <c r="I150">
@@ -6980,7 +6981,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>85</v>
       </c>
@@ -7012,7 +7013,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -7053,7 +7054,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>50</v>
       </c>
@@ -7091,7 +7092,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>27</v>
       </c>
@@ -7126,7 +7127,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>37</v>
       </c>
@@ -7167,7 +7168,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>79</v>
       </c>
@@ -7199,7 +7200,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>131</v>
       </c>
@@ -7231,7 +7232,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>237</v>
       </c>
@@ -7244,7 +7245,7 @@
       <c r="D158" s="2">
         <v>45898</v>
       </c>
-      <c r="E158" s="16">
+      <c r="E158" s="20">
         <v>0.47847222222222224</v>
       </c>
       <c r="I158">
@@ -7266,7 +7267,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>85</v>
       </c>
@@ -7298,7 +7299,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>51</v>
       </c>
@@ -7336,7 +7337,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>121</v>
       </c>
@@ -7368,7 +7369,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>18</v>
       </c>
@@ -7409,7 +7410,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>122</v>
       </c>
@@ -7438,7 +7439,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>79</v>
       </c>
@@ -7470,7 +7471,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>237</v>
       </c>
@@ -7502,7 +7503,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>85</v>
       </c>
@@ -7534,7 +7535,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>52</v>
       </c>
@@ -7578,7 +7579,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>53</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>82</v>
       </c>
@@ -7695,7 +7696,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>82</v>
       </c>
@@ -7727,7 +7728,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>84</v>
       </c>
@@ -7759,7 +7760,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>84</v>
       </c>
@@ -7791,7 +7792,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>54</v>
       </c>
@@ -7829,7 +7830,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>55</v>
       </c>
@@ -7867,7 +7868,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>56</v>
       </c>
@@ -7905,7 +7906,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>57</v>
       </c>
@@ -7940,7 +7941,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>58</v>
       </c>
@@ -7981,7 +7982,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>59</v>
       </c>
@@ -8016,7 +8017,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -8057,7 +8058,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -8098,7 +8099,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>60</v>
       </c>
@@ -8139,7 +8140,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>37</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>131</v>
       </c>
@@ -8212,7 +8213,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>61</v>
       </c>
@@ -8253,7 +8254,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>62</v>
       </c>
@@ -8291,7 +8292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>63</v>
       </c>
@@ -8329,7 +8330,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>94</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>176</v>
       </c>
@@ -8399,7 +8400,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>79</v>
       </c>
@@ -8412,7 +8413,7 @@
       <c r="D190" s="2">
         <v>45918</v>
       </c>
-      <c r="E190" s="16">
+      <c r="E190" s="20">
         <v>0.58194444444444449</v>
       </c>
       <c r="I190">
@@ -8434,7 +8435,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>237</v>
       </c>
@@ -8466,7 +8467,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>85</v>
       </c>
@@ -8498,7 +8499,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -8539,7 +8540,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>130</v>
       </c>
@@ -8552,7 +8553,7 @@
       <c r="D194" s="2">
         <v>45920</v>
       </c>
-      <c r="E194" s="16">
+      <c r="E194" s="20">
         <v>0.55277777777777781</v>
       </c>
       <c r="I194">
@@ -8574,7 +8575,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>83</v>
       </c>
@@ -8606,7 +8607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -8650,7 +8651,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>86</v>
       </c>
@@ -8679,7 +8680,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>100</v>
       </c>
@@ -8717,7 +8718,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>87</v>
       </c>
@@ -8761,7 +8762,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>123</v>
       </c>
@@ -8799,7 +8800,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>124</v>
       </c>
@@ -8828,7 +8829,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>89</v>
       </c>
@@ -8860,7 +8861,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>90</v>
       </c>
@@ -8895,7 +8896,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>25</v>
       </c>
@@ -8942,7 +8943,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>79</v>
       </c>
@@ -8974,7 +8975,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>130</v>
       </c>
@@ -9006,7 +9007,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>85</v>
       </c>
@@ -9038,7 +9039,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>37</v>
       </c>
@@ -9076,7 +9077,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>162</v>
       </c>
@@ -9111,7 +9112,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>162</v>
       </c>
@@ -9143,7 +9144,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>162</v>
       </c>
@@ -9175,7 +9176,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>142</v>
       </c>
@@ -9201,7 +9202,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>144</v>
       </c>
@@ -9227,7 +9228,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>145</v>
       </c>
@@ -9253,7 +9254,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>146</v>
       </c>
@@ -9279,7 +9280,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>37</v>
       </c>
@@ -9317,7 +9318,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>142</v>
       </c>
@@ -9343,7 +9344,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>144</v>
       </c>
@@ -9369,7 +9370,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>145</v>
       </c>
@@ -9395,7 +9396,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>146</v>
       </c>
@@ -9421,7 +9422,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>18</v>
       </c>
@@ -9465,7 +9466,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>79</v>
       </c>
@@ -9497,7 +9498,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>130</v>
       </c>
@@ -9530,7 +9531,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>237</v>
       </c>
@@ -9563,7 +9564,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>85</v>
       </c>
@@ -9596,7 +9597,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>142</v>
       </c>
@@ -9622,7 +9623,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>59</v>
       </c>
@@ -9666,7 +9667,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>37</v>
       </c>
@@ -9710,7 +9711,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>147</v>
       </c>
@@ -9736,7 +9737,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>168</v>
       </c>
@@ -9749,7 +9750,7 @@
       <c r="D230" s="8">
         <v>45945</v>
       </c>
-      <c r="E230" s="17"/>
+      <c r="E230" s="21"/>
       <c r="F230" s="7">
         <v>0</v>
       </c>
@@ -9787,7 +9788,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>79</v>
       </c>
@@ -9819,7 +9820,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>237</v>
       </c>
@@ -9851,7 +9852,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>85</v>
       </c>
@@ -9883,7 +9884,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>59</v>
       </c>
@@ -9909,7 +9910,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>156</v>
       </c>
@@ -9947,7 +9948,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>154</v>
       </c>
@@ -9982,7 +9983,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>37</v>
       </c>
@@ -10026,7 +10027,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>141</v>
       </c>
@@ -10058,7 +10059,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>93</v>
       </c>
@@ -10093,7 +10094,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>152</v>
       </c>
@@ -10128,7 +10129,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>142</v>
       </c>
@@ -10154,7 +10155,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>145</v>
       </c>
@@ -10180,7 +10181,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>146</v>
       </c>
@@ -10206,7 +10207,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>142</v>
       </c>
@@ -10232,7 +10233,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>148</v>
       </c>
@@ -10258,7 +10259,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>163</v>
       </c>
@@ -10296,7 +10297,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>164</v>
       </c>
@@ -10328,7 +10329,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>59</v>
       </c>
@@ -10360,7 +10361,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>167</v>
       </c>
@@ -10373,7 +10374,7 @@
       <c r="D249" s="8">
         <v>45953</v>
       </c>
-      <c r="E249" s="17"/>
+      <c r="E249" s="21"/>
       <c r="F249" s="7"/>
       <c r="G249" s="7"/>
       <c r="H249" s="7"/>
@@ -10395,7 +10396,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>142</v>
       </c>
@@ -10421,7 +10422,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>177</v>
       </c>
@@ -10456,7 +10457,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>37</v>
       </c>
@@ -10503,7 +10504,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>142</v>
       </c>
@@ -10529,7 +10530,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>150</v>
       </c>
@@ -10555,7 +10556,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>38</v>
       </c>
@@ -10602,7 +10603,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>165</v>
       </c>
@@ -10637,7 +10638,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>88</v>
       </c>
@@ -10672,7 +10673,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>166</v>
       </c>
@@ -10685,7 +10686,7 @@
       <c r="D258" s="8">
         <v>45959</v>
       </c>
-      <c r="E258" s="17"/>
+      <c r="E258" s="21"/>
       <c r="F258" s="7"/>
       <c r="G258" s="7">
         <v>0</v>
@@ -10721,7 +10722,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>89</v>
       </c>
@@ -10750,7 +10751,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>174</v>
       </c>
@@ -10788,7 +10789,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>175</v>
       </c>
@@ -10817,7 +10818,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>59</v>
       </c>
@@ -10852,7 +10853,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>37</v>
       </c>
@@ -10899,7 +10900,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>169</v>
       </c>
@@ -10945,7 +10946,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>171</v>
       </c>
@@ -10992,7 +10993,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>172</v>
       </c>
@@ -11039,7 +11040,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>170</v>
       </c>
@@ -11087,7 +11088,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>173</v>
       </c>
@@ -11134,7 +11135,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>178</v>
       </c>
@@ -11178,7 +11179,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>37</v>
       </c>
@@ -11225,7 +11226,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>181</v>
       </c>
@@ -11266,7 +11267,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>182</v>
       </c>
@@ -11310,7 +11311,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>79</v>
       </c>
@@ -11323,7 +11324,7 @@
       <c r="D273" s="2">
         <v>45971</v>
       </c>
-      <c r="E273" s="16">
+      <c r="E273" s="20">
         <v>0.45833333333333331</v>
       </c>
       <c r="I273">
@@ -11345,7 +11346,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>237</v>
       </c>
@@ -11358,7 +11359,7 @@
       <c r="D274" s="2">
         <v>45971</v>
       </c>
-      <c r="E274" s="16">
+      <c r="E274" s="20">
         <v>0.4548611111111111</v>
       </c>
       <c r="I274">
@@ -11380,7 +11381,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>85</v>
       </c>
@@ -11393,7 +11394,7 @@
       <c r="D275" s="2">
         <v>45971</v>
       </c>
-      <c r="E275" s="16">
+      <c r="E275" s="20">
         <v>0.44791666666666669</v>
       </c>
       <c r="I275">
@@ -11415,7 +11416,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>179</v>
       </c>
@@ -11428,7 +11429,7 @@
       <c r="D276" s="2">
         <v>45971</v>
       </c>
-      <c r="E276" s="16">
+      <c r="E276" s="20">
         <v>0.40972222222222221</v>
       </c>
       <c r="I276">
@@ -11450,7 +11451,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>121</v>
       </c>
@@ -11485,7 +11486,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>92</v>
       </c>
@@ -11505,7 +11506,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>94</v>
       </c>
@@ -11540,7 +11541,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>186</v>
       </c>
@@ -11560,7 +11561,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>92</v>
       </c>
@@ -11580,7 +11581,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>183</v>
       </c>
@@ -11630,7 +11631,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>184</v>
       </c>
@@ -11680,7 +11681,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>185</v>
       </c>
@@ -11730,7 +11731,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>79</v>
       </c>
@@ -11743,7 +11744,7 @@
       <c r="D285" s="2">
         <v>45977</v>
       </c>
-      <c r="E285" s="16">
+      <c r="E285" s="20">
         <v>0.5625</v>
       </c>
       <c r="I285">
@@ -11765,7 +11766,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>237</v>
       </c>
@@ -11778,7 +11779,7 @@
       <c r="D286" s="2">
         <v>45977</v>
       </c>
-      <c r="E286" s="16">
+      <c r="E286" s="20">
         <v>0.54166666666666663</v>
       </c>
       <c r="I286">
@@ -11800,7 +11801,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>85</v>
       </c>
@@ -11813,7 +11814,7 @@
       <c r="D287" s="2">
         <v>45977</v>
       </c>
-      <c r="E287" s="16">
+      <c r="E287" s="20">
         <v>0.54166666666666663</v>
       </c>
       <c r="I287">
@@ -11835,7 +11836,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>86</v>
       </c>
@@ -11870,7 +11871,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>100</v>
       </c>
@@ -11908,7 +11909,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>87</v>
       </c>
@@ -11940,7 +11941,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>88</v>
       </c>
@@ -11969,7 +11970,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>89</v>
       </c>
@@ -11992,7 +11993,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>174</v>
       </c>
@@ -12030,7 +12031,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>91</v>
       </c>
@@ -12050,7 +12051,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>188</v>
       </c>
@@ -12070,7 +12071,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
         <v>200</v>
       </c>
@@ -12120,7 +12121,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
         <v>201</v>
       </c>
@@ -12170,7 +12171,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>59</v>
       </c>
@@ -12217,7 +12218,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>189</v>
       </c>
@@ -12237,7 +12238,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>188</v>
       </c>
@@ -12257,7 +12258,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>91</v>
       </c>
@@ -12277,7 +12278,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>186</v>
       </c>
@@ -12297,7 +12298,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>190</v>
       </c>
@@ -12317,7 +12318,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>92</v>
       </c>
@@ -12337,7 +12338,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>191</v>
       </c>
@@ -12357,7 +12358,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>37</v>
       </c>
@@ -12401,7 +12402,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>193</v>
       </c>
@@ -12414,7 +12415,7 @@
       <c r="D307" s="2">
         <v>45983</v>
       </c>
-      <c r="E307" s="16">
+      <c r="E307" s="20">
         <v>0.63680555555555551</v>
       </c>
       <c r="I307">
@@ -12436,7 +12437,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>192</v>
       </c>
@@ -12449,7 +12450,7 @@
       <c r="D308" s="2">
         <v>45984</v>
       </c>
-      <c r="E308" s="16">
+      <c r="E308" s="20">
         <v>0.39583333333333331</v>
       </c>
       <c r="I308">
@@ -12471,7 +12472,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>194</v>
       </c>
@@ -12484,7 +12485,7 @@
       <c r="D309" s="2">
         <v>45984</v>
       </c>
-      <c r="E309" s="16">
+      <c r="E309" s="20">
         <v>0.34375</v>
       </c>
       <c r="I309">
@@ -12506,7 +12507,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>94</v>
       </c>
@@ -12544,7 +12545,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
         <v>199</v>
       </c>
@@ -12592,7 +12593,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
         <v>197</v>
       </c>
@@ -12642,7 +12643,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>202</v>
       </c>
@@ -12692,7 +12693,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
         <v>203</v>
       </c>
@@ -12742,7 +12743,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>195</v>
       </c>
@@ -12771,7 +12772,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>196</v>
       </c>
@@ -12806,7 +12807,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
         <v>204</v>
       </c>
@@ -12856,7 +12857,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="s">
         <v>197</v>
       </c>
@@ -12906,7 +12907,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
         <v>198</v>
       </c>
@@ -12956,7 +12957,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>178</v>
       </c>
@@ -13000,7 +13001,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>206</v>
       </c>
@@ -13050,7 +13051,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>207</v>
       </c>
@@ -13100,7 +13101,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>210</v>
       </c>
@@ -13150,7 +13151,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>79</v>
       </c>
@@ -13163,7 +13164,7 @@
       <c r="D324" s="2">
         <v>45990</v>
       </c>
-      <c r="E324" s="16">
+      <c r="E324" s="20">
         <v>0.44444444444444442</v>
       </c>
       <c r="I324">
@@ -13185,7 +13186,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>205</v>
       </c>
@@ -13198,7 +13199,7 @@
       <c r="D325" s="2">
         <v>45990</v>
       </c>
-      <c r="E325" s="16">
+      <c r="E325" s="20">
         <v>0.41180555555555554</v>
       </c>
       <c r="I325">
@@ -13220,7 +13221,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>85</v>
       </c>
@@ -13233,7 +13234,7 @@
       <c r="D326" s="2">
         <v>45990</v>
       </c>
-      <c r="E326" s="16">
+      <c r="E326" s="20">
         <v>0.4236111111111111</v>
       </c>
       <c r="I326">
@@ -13255,7 +13256,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>199</v>
       </c>
@@ -13305,7 +13306,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>94</v>
       </c>
@@ -13337,7 +13338,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>86</v>
       </c>
@@ -13375,7 +13376,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>212</v>
       </c>
@@ -13410,7 +13411,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>87</v>
       </c>
@@ -13445,7 +13446,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>211</v>
       </c>
@@ -13495,7 +13496,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>208</v>
       </c>
@@ -13545,7 +13546,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>209</v>
       </c>
@@ -13592,7 +13593,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>213</v>
       </c>
@@ -13612,7 +13613,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>186</v>
       </c>
@@ -13632,7 +13633,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>91</v>
       </c>
@@ -13652,7 +13653,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>92</v>
       </c>
@@ -13672,7 +13673,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>214</v>
       </c>
@@ -13692,7 +13693,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>215</v>
       </c>
@@ -13712,7 +13713,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>213</v>
       </c>
@@ -13732,7 +13733,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>91</v>
       </c>
@@ -13752,7 +13753,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>186</v>
       </c>
@@ -13772,7 +13773,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>215</v>
       </c>
@@ -13792,7 +13793,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>190</v>
       </c>
@@ -13812,7 +13813,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>92</v>
       </c>
@@ -13832,7 +13833,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>178</v>
       </c>
@@ -13879,7 +13880,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>156</v>
       </c>
@@ -13917,7 +13918,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>37</v>
       </c>
@@ -13961,7 +13962,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>232</v>
       </c>
@@ -13996,7 +13997,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>221</v>
       </c>
@@ -14046,7 +14047,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>226</v>
       </c>
@@ -14059,7 +14060,7 @@
       <c r="D352" s="2">
         <v>45997</v>
       </c>
-      <c r="E352" s="16">
+      <c r="E352" s="20">
         <v>0.57013888888888886</v>
       </c>
       <c r="F352">
@@ -14096,7 +14097,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>179</v>
       </c>
@@ -14109,7 +14110,7 @@
       <c r="D353" s="2">
         <v>45997</v>
       </c>
-      <c r="E353" s="16">
+      <c r="E353" s="20">
         <v>0.58333333333333337</v>
       </c>
       <c r="F353">
@@ -14146,7 +14147,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>154</v>
       </c>
@@ -14184,7 +14185,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>222</v>
       </c>
@@ -14234,7 +14235,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>299</v>
       </c>
@@ -14263,7 +14264,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>300</v>
       </c>
@@ -14298,7 +14299,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>223</v>
       </c>
@@ -14348,7 +14349,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>224</v>
       </c>
@@ -14398,7 +14399,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>94</v>
       </c>
@@ -14436,7 +14437,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>89</v>
       </c>
@@ -14474,7 +14475,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>18</v>
       </c>
@@ -14509,7 +14510,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>216</v>
       </c>
@@ -14550,7 +14551,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>217</v>
       </c>
@@ -14582,7 +14583,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>218</v>
       </c>
@@ -14620,7 +14621,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>219</v>
       </c>
@@ -14658,7 +14659,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>213</v>
       </c>
@@ -14681,7 +14682,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>186</v>
       </c>
@@ -14704,7 +14705,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>91</v>
       </c>
@@ -14727,7 +14728,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>92</v>
       </c>
@@ -14750,7 +14751,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>191</v>
       </c>
@@ -14773,7 +14774,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>225</v>
       </c>
@@ -14796,7 +14797,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>59</v>
       </c>
@@ -14840,7 +14841,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>230</v>
       </c>
@@ -14875,7 +14876,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>100</v>
       </c>
@@ -14916,7 +14917,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>87</v>
       </c>
@@ -14951,7 +14952,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>88</v>
       </c>
@@ -14992,7 +14993,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>301</v>
       </c>
@@ -15027,7 +15028,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>302</v>
       </c>
@@ -15062,7 +15063,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>174</v>
       </c>
@@ -15094,7 +15095,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>303</v>
       </c>
@@ -15129,7 +15130,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>304</v>
       </c>
@@ -15164,7 +15165,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>79</v>
       </c>
@@ -15177,7 +15178,7 @@
       <c r="D383" s="2">
         <v>46003</v>
       </c>
-      <c r="E383" s="16">
+      <c r="E383" s="20">
         <v>0.6875</v>
       </c>
       <c r="F383">
@@ -15208,7 +15209,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>237</v>
       </c>
@@ -15221,7 +15222,7 @@
       <c r="D384" s="2">
         <v>46003</v>
       </c>
-      <c r="E384" s="16">
+      <c r="E384" s="20">
         <v>0.67291666666666672</v>
       </c>
       <c r="F384">
@@ -15255,7 +15256,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>85</v>
       </c>
@@ -15268,7 +15269,7 @@
       <c r="D385" s="2">
         <v>46003</v>
       </c>
-      <c r="E385" s="16">
+      <c r="E385" s="20">
         <v>0.65902777777777777</v>
       </c>
       <c r="I385">
@@ -15290,7 +15291,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>231</v>
       </c>
@@ -15325,7 +15326,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>232</v>
       </c>
@@ -15357,7 +15358,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
         <v>227</v>
       </c>
@@ -15407,7 +15408,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
         <v>228</v>
       </c>
@@ -15457,7 +15458,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>233</v>
       </c>
@@ -15492,7 +15493,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>235</v>
       </c>
@@ -15542,7 +15543,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>209</v>
       </c>
@@ -15592,7 +15593,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>229</v>
       </c>
@@ -15642,7 +15643,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>232</v>
       </c>
@@ -15671,7 +15672,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>234</v>
       </c>
@@ -15721,7 +15722,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>37</v>
       </c>
@@ -15771,7 +15772,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>209</v>
       </c>
@@ -15821,7 +15822,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>232</v>
       </c>
@@ -15853,7 +15854,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>231</v>
       </c>
@@ -15888,7 +15889,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="400" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>79</v>
       </c>
@@ -15901,7 +15902,7 @@
       <c r="D400" s="2">
         <v>46011</v>
       </c>
-      <c r="E400" s="16">
+      <c r="E400" s="20">
         <v>0.65972222222222221</v>
       </c>
       <c r="F400">
@@ -15938,7 +15939,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="401" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>237</v>
       </c>
@@ -15951,7 +15952,7 @@
       <c r="D401" s="2">
         <v>46011</v>
       </c>
-      <c r="E401" s="16">
+      <c r="E401" s="20">
         <v>0.6875</v>
       </c>
       <c r="F401">
@@ -15988,7 +15989,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="402" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>209</v>
       </c>
@@ -16038,7 +16039,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>210</v>
       </c>
@@ -16088,7 +16089,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>232</v>
       </c>
@@ -16123,7 +16124,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>199</v>
       </c>
@@ -16173,7 +16174,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>236</v>
       </c>
@@ -16193,7 +16194,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>238</v>
       </c>
@@ -16206,7 +16207,7 @@
       <c r="D407" s="2">
         <v>46018</v>
       </c>
-      <c r="E407" s="16">
+      <c r="E407" s="20">
         <v>0.39583333333333331</v>
       </c>
       <c r="F407">
@@ -16246,7 +16247,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>239</v>
       </c>
@@ -16259,7 +16260,7 @@
       <c r="D408" s="2">
         <v>46018</v>
       </c>
-      <c r="E408" s="16">
+      <c r="E408" s="20">
         <v>0.44027777777777777</v>
       </c>
       <c r="F408">
@@ -16299,7 +16300,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>287</v>
       </c>
@@ -16331,7 +16332,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>240</v>
       </c>
@@ -16344,7 +16345,7 @@
       <c r="D410" s="2">
         <v>46019</v>
       </c>
-      <c r="E410" s="16">
+      <c r="E410" s="20">
         <v>0.46875</v>
       </c>
       <c r="F410">
@@ -16384,7 +16385,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>275</v>
       </c>
@@ -16419,7 +16420,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>276</v>
       </c>
@@ -16454,7 +16455,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>94</v>
       </c>
@@ -16495,7 +16496,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>89</v>
       </c>
@@ -16527,7 +16528,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>213</v>
       </c>
@@ -16547,7 +16548,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>186</v>
       </c>
@@ -16567,7 +16568,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>91</v>
       </c>
@@ -16587,7 +16588,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>190</v>
       </c>
@@ -16607,7 +16608,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>92</v>
       </c>
@@ -16627,7 +16628,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>225</v>
       </c>
@@ -16647,7 +16648,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>199</v>
       </c>
@@ -16697,7 +16698,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>237</v>
       </c>
@@ -16710,7 +16711,7 @@
       <c r="D422" s="2">
         <v>46021</v>
       </c>
-      <c r="E422" s="16">
+      <c r="E422" s="20">
         <v>0.5</v>
       </c>
       <c r="F422">
@@ -16750,7 +16751,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>79</v>
       </c>
@@ -16763,7 +16764,7 @@
       <c r="D423" s="2">
         <v>46021</v>
       </c>
-      <c r="E423" s="16">
+      <c r="E423" s="20">
         <v>0.47222222222222221</v>
       </c>
       <c r="F423">
@@ -16803,7 +16804,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>242</v>
       </c>
@@ -16816,7 +16817,7 @@
       <c r="D424" s="2">
         <v>46021</v>
       </c>
-      <c r="E424" s="16">
+      <c r="E424" s="20">
         <v>0.55555555555555558</v>
       </c>
       <c r="F424">
@@ -16856,7 +16857,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>241</v>
       </c>
@@ -16869,7 +16870,7 @@
       <c r="D425" s="2">
         <v>46023</v>
       </c>
-      <c r="E425" s="16">
+      <c r="E425" s="20">
         <v>0.39583333333333331</v>
       </c>
       <c r="F425">
@@ -16909,7 +16910,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
         <v>248</v>
       </c>
@@ -16959,7 +16960,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
         <v>250</v>
       </c>
@@ -17009,7 +17010,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>277</v>
       </c>
@@ -17044,7 +17045,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>281</v>
       </c>
@@ -17079,7 +17080,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>243</v>
       </c>
@@ -17092,7 +17093,7 @@
       <c r="D430" s="2">
         <v>46025</v>
       </c>
-      <c r="E430" s="16">
+      <c r="E430" s="20">
         <v>0.45833333333333331</v>
       </c>
       <c r="F430">
@@ -17132,7 +17133,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>92</v>
       </c>
@@ -17145,7 +17146,7 @@
       <c r="D431" s="2">
         <v>46025</v>
       </c>
-      <c r="E431" s="16">
+      <c r="E431" s="20">
         <v>0.42708333333333331</v>
       </c>
       <c r="F431">
@@ -17185,7 +17186,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>244</v>
       </c>
@@ -17198,7 +17199,7 @@
       <c r="D432" s="2">
         <v>46025</v>
       </c>
-      <c r="E432" s="16">
+      <c r="E432" s="20">
         <v>0.54861111111111116</v>
       </c>
       <c r="F432">
@@ -17238,7 +17239,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>245</v>
       </c>
@@ -17251,7 +17252,7 @@
       <c r="D433" s="2">
         <v>46025</v>
       </c>
-      <c r="E433" s="16">
+      <c r="E433" s="20">
         <v>0.55208333333333337</v>
       </c>
       <c r="F433">
@@ -17291,7 +17292,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
         <v>251</v>
       </c>
@@ -17341,7 +17342,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>278</v>
       </c>
@@ -17376,7 +17377,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>232</v>
       </c>
@@ -17408,7 +17409,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>94</v>
       </c>
@@ -17440,7 +17441,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>89</v>
       </c>
@@ -17484,7 +17485,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>249</v>
       </c>
@@ -17519,7 +17520,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>79</v>
       </c>
@@ -17532,7 +17533,7 @@
       <c r="D440" s="2">
         <v>46028</v>
       </c>
-      <c r="E440" s="16">
+      <c r="E440" s="20">
         <v>0.43055555555555558</v>
       </c>
       <c r="F440">
@@ -17572,7 +17573,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>246</v>
       </c>
@@ -17585,7 +17586,7 @@
       <c r="D441" s="2">
         <v>46028</v>
       </c>
-      <c r="E441" s="16">
+      <c r="E441" s="20">
         <v>0.4236111111111111</v>
       </c>
       <c r="F441">
@@ -17625,7 +17626,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>237</v>
       </c>
@@ -17638,7 +17639,7 @@
       <c r="D442" s="2">
         <v>46028</v>
       </c>
-      <c r="E442" s="16">
+      <c r="E442" s="20">
         <v>0.41666666666666669</v>
       </c>
       <c r="F442">
@@ -17678,7 +17679,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>245</v>
       </c>
@@ -17691,7 +17692,7 @@
       <c r="D443" s="2">
         <v>46028</v>
       </c>
-      <c r="E443" s="16">
+      <c r="E443" s="20">
         <v>0.36458333333333331</v>
       </c>
       <c r="F443">
@@ -17731,7 +17732,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>244</v>
       </c>
@@ -17744,7 +17745,7 @@
       <c r="D444" s="2">
         <v>46028</v>
       </c>
-      <c r="E444" s="16">
+      <c r="E444" s="20">
         <v>0.3611111111111111</v>
       </c>
       <c r="F444">
@@ -17784,7 +17785,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
         <v>248</v>
       </c>
@@ -17834,7 +17835,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>252</v>
       </c>
@@ -17875,7 +17876,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>37</v>
       </c>
@@ -17913,7 +17914,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>222</v>
       </c>
@@ -17963,7 +17964,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>242</v>
       </c>
@@ -17976,7 +17977,7 @@
       <c r="D449" s="2">
         <v>46032</v>
       </c>
-      <c r="E449" s="16">
+      <c r="E449" s="20">
         <v>0.40833333333333333</v>
       </c>
       <c r="F449">
@@ -18004,7 +18005,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>232</v>
       </c>
@@ -18036,7 +18037,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>253</v>
       </c>
@@ -18068,7 +18069,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>199</v>
       </c>
@@ -18118,7 +18119,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>245</v>
       </c>
@@ -18131,7 +18132,7 @@
       <c r="D453" s="2">
         <v>46033</v>
       </c>
-      <c r="E453" s="16">
+      <c r="E453" s="20">
         <v>0.50694444444444442</v>
       </c>
       <c r="I453">
@@ -18156,7 +18157,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>244</v>
       </c>
@@ -18169,7 +18170,7 @@
       <c r="D454" s="2">
         <v>46033</v>
       </c>
-      <c r="E454" s="16">
+      <c r="E454" s="20">
         <v>0.5</v>
       </c>
       <c r="I454">
@@ -18191,7 +18192,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>258</v>
       </c>
@@ -18204,7 +18205,7 @@
       <c r="D455" s="2">
         <v>46033</v>
       </c>
-      <c r="E455" s="16">
+      <c r="E455" s="20">
         <v>0.51597222222222228</v>
       </c>
       <c r="F455">
@@ -18235,7 +18236,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>349</v>
       </c>
@@ -18273,7 +18274,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>256</v>
       </c>
@@ -18323,7 +18324,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>259</v>
       </c>
@@ -18373,7 +18374,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>59</v>
       </c>
@@ -18417,7 +18418,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>329</v>
       </c>
@@ -18467,7 +18468,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>255</v>
       </c>
@@ -18499,7 +18500,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>290</v>
       </c>
@@ -18528,7 +18529,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>291</v>
       </c>
@@ -18557,7 +18558,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>292</v>
       </c>
@@ -18586,7 +18587,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>350</v>
       </c>
@@ -18624,7 +18625,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>351</v>
       </c>
@@ -18659,7 +18660,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>352</v>
       </c>
@@ -18694,7 +18695,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>248</v>
       </c>
@@ -18744,7 +18745,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>267</v>
       </c>
@@ -18791,7 +18792,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>270</v>
       </c>
@@ -18804,7 +18805,7 @@
       <c r="D470" s="2">
         <v>46039</v>
       </c>
-      <c r="E470" s="16">
+      <c r="E470" s="20">
         <v>0.5</v>
       </c>
       <c r="I470">
@@ -18829,7 +18830,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>271</v>
       </c>
@@ -18842,7 +18843,7 @@
       <c r="D471" s="2">
         <v>46039</v>
       </c>
-      <c r="E471" s="16">
+      <c r="E471" s="20">
         <v>0.46875</v>
       </c>
       <c r="I471">
@@ -18865,7 +18866,7 @@
       </c>
       <c r="T471" s="2"/>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>85</v>
       </c>
@@ -18878,7 +18879,7 @@
       <c r="D472" s="2">
         <v>46039</v>
       </c>
-      <c r="E472" s="16">
+      <c r="E472" s="20">
         <v>0.46527777777777779</v>
       </c>
       <c r="I472">
@@ -18901,7 +18902,7 @@
       </c>
       <c r="T472" s="2"/>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>244</v>
       </c>
@@ -18914,7 +18915,7 @@
       <c r="D473" s="2">
         <v>46039</v>
       </c>
-      <c r="E473" s="16">
+      <c r="E473" s="20">
         <v>0.45833333333333331</v>
       </c>
       <c r="I473">
@@ -18940,7 +18941,7 @@
       </c>
       <c r="T473" s="2"/>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>246</v>
       </c>
@@ -18953,7 +18954,7 @@
       <c r="D474" s="2">
         <v>46039</v>
       </c>
-      <c r="E474" s="16">
+      <c r="E474" s="20">
         <v>0.49027777777777776</v>
       </c>
       <c r="J474">
@@ -18976,7 +18977,7 @@
       </c>
       <c r="T474" s="2"/>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>279</v>
       </c>
@@ -19012,7 +19013,7 @@
       </c>
       <c r="T475" s="2"/>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>280</v>
       </c>
@@ -19048,7 +19049,7 @@
       </c>
       <c r="T476" s="2"/>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>281</v>
       </c>
@@ -19084,7 +19085,7 @@
       </c>
       <c r="T477" s="2"/>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>244</v>
       </c>
@@ -19132,7 +19133,7 @@
       </c>
       <c r="T478" s="2"/>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>260</v>
       </c>
@@ -19153,7 +19154,7 @@
       </c>
       <c r="T479" s="2"/>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>268</v>
       </c>
@@ -19204,7 +19205,7 @@
       </c>
       <c r="T480" s="2"/>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>273</v>
       </c>
@@ -19217,7 +19218,7 @@
       <c r="D481" s="2">
         <v>46040</v>
       </c>
-      <c r="E481" s="16">
+      <c r="E481" s="20">
         <v>0.74027777777777781</v>
       </c>
       <c r="I481">
@@ -19243,7 +19244,7 @@
       </c>
       <c r="T481" s="2"/>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>272</v>
       </c>
@@ -19256,7 +19257,7 @@
       <c r="D482" s="2">
         <v>46040</v>
       </c>
-      <c r="E482" s="16">
+      <c r="E482" s="20">
         <v>0.84513888888888888</v>
       </c>
       <c r="I482">
@@ -19279,7 +19280,7 @@
       </c>
       <c r="T482" s="2"/>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>285</v>
       </c>
@@ -19309,7 +19310,7 @@
       </c>
       <c r="T483" s="2"/>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>261</v>
       </c>
@@ -19330,7 +19331,7 @@
       </c>
       <c r="T484" s="2"/>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>282</v>
       </c>
@@ -19369,7 +19370,7 @@
       </c>
       <c r="T485" s="2"/>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>283</v>
       </c>
@@ -19408,7 +19409,7 @@
       </c>
       <c r="T486" s="2"/>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>284</v>
       </c>
@@ -19443,7 +19444,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>286</v>
       </c>
@@ -19481,7 +19482,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>289</v>
       </c>
@@ -19513,7 +19514,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>120</v>
       </c>
@@ -19548,7 +19549,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>94</v>
       </c>
@@ -19577,7 +19578,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>89</v>
       </c>
@@ -19612,7 +19613,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>262</v>
       </c>
@@ -19632,7 +19633,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>263</v>
       </c>
@@ -19652,7 +19653,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>264</v>
       </c>
@@ -19672,7 +19673,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>265</v>
       </c>
@@ -19692,7 +19693,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="497" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>209</v>
       </c>
@@ -19742,7 +19743,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>59</v>
       </c>
@@ -19786,7 +19787,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="499" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>312</v>
       </c>
@@ -19821,7 +19822,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>266</v>
       </c>
@@ -19844,7 +19845,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="501" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>264</v>
       </c>
@@ -19864,7 +19865,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>293</v>
       </c>
@@ -19896,7 +19897,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="503" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>294</v>
       </c>
@@ -19928,7 +19929,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="504" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>295</v>
       </c>
@@ -19960,7 +19961,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="505" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>213</v>
       </c>
@@ -19994,7 +19995,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="506" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>188</v>
       </c>
@@ -20028,7 +20029,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="507" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>186</v>
       </c>
@@ -20054,7 +20055,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="508" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>91</v>
       </c>
@@ -20080,7 +20081,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="509" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>190</v>
       </c>
@@ -20106,7 +20107,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="510" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>92</v>
       </c>
@@ -20132,7 +20133,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="511" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>225</v>
       </c>
@@ -20158,7 +20159,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="512" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>293</v>
       </c>
@@ -20190,7 +20191,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="513" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>293</v>
       </c>
@@ -20222,7 +20223,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="514" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>305</v>
       </c>
@@ -20235,7 +20236,7 @@
       <c r="D514" s="2">
         <v>46046</v>
       </c>
-      <c r="E514" s="16">
+      <c r="E514" s="20">
         <v>0.77083333333333337</v>
       </c>
       <c r="F514">
@@ -20275,7 +20276,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="515" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>179</v>
       </c>
@@ -20288,7 +20289,7 @@
       <c r="D515" s="2">
         <v>46046</v>
       </c>
-      <c r="E515" s="16">
+      <c r="E515" s="20">
         <v>0.76041666666666663</v>
       </c>
       <c r="F515">
@@ -20328,7 +20329,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="516" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>306</v>
       </c>
@@ -20341,7 +20342,7 @@
       <c r="D516" s="2">
         <v>46046</v>
       </c>
-      <c r="E516" s="16">
+      <c r="E516" s="20">
         <v>0.73958333333333337</v>
       </c>
       <c r="F516">
@@ -20381,7 +20382,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="517" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>308</v>
       </c>
@@ -20431,7 +20432,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="518" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>310</v>
       </c>
@@ -20466,7 +20467,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="519" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>309</v>
       </c>
@@ -20516,7 +20517,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="520" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>313</v>
       </c>
@@ -20551,7 +20552,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="521" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>307</v>
       </c>
@@ -20583,7 +20584,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="522" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>232</v>
       </c>
@@ -20618,7 +20619,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="523" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>353</v>
       </c>
@@ -20650,7 +20651,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="524" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>296</v>
       </c>
@@ -20685,7 +20686,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="525" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>297</v>
       </c>
@@ -20720,7 +20721,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="526" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>298</v>
       </c>
@@ -20755,7 +20756,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="527" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>261</v>
       </c>
@@ -20778,7 +20779,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="528" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>264</v>
       </c>
@@ -20801,7 +20802,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="529" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>311</v>
       </c>
@@ -20839,7 +20840,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="530" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>317</v>
       </c>
@@ -20877,7 +20878,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="531" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>100</v>
       </c>
@@ -20903,7 +20904,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="532" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>86</v>
       </c>
@@ -20932,7 +20933,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="533" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>87</v>
       </c>
@@ -20967,7 +20968,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="534" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>88</v>
       </c>
@@ -21005,7 +21006,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="535" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>301</v>
       </c>
@@ -21040,7 +21041,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="536" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>303</v>
       </c>
@@ -21075,7 +21076,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="537" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>304</v>
       </c>
@@ -21113,7 +21114,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="538" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>324</v>
       </c>
@@ -21142,7 +21143,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="539" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>315</v>
       </c>
@@ -21177,7 +21178,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="540" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>314</v>
       </c>
@@ -21209,7 +21210,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="541" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>316</v>
       </c>
@@ -21247,7 +21248,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="542" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>214</v>
       </c>
@@ -21270,7 +21271,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="543" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>270</v>
       </c>
@@ -21283,7 +21284,7 @@
       <c r="D543" s="2">
         <v>46053</v>
       </c>
-      <c r="E543" s="16">
+      <c r="E543" s="20">
         <v>0.30555555555555558</v>
       </c>
       <c r="F543">
@@ -21314,7 +21315,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="544" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>271</v>
       </c>
@@ -21327,7 +21328,7 @@
       <c r="D544" s="2">
         <v>46053</v>
       </c>
-      <c r="E544" s="16">
+      <c r="E544" s="20">
         <v>0.375</v>
       </c>
       <c r="F544">
@@ -21364,7 +21365,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="545" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>85</v>
       </c>
@@ -21377,7 +21378,7 @@
       <c r="D545" s="2">
         <v>46053</v>
       </c>
-      <c r="E545" s="16">
+      <c r="E545" s="20">
         <v>0.39166666666666666</v>
       </c>
       <c r="F545">
@@ -21411,7 +21412,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="546" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>330</v>
       </c>
@@ -21446,7 +21447,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="547" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>329</v>
       </c>
@@ -21478,7 +21479,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="548" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>318</v>
       </c>
@@ -21513,7 +21514,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="549" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>319</v>
       </c>
@@ -21539,7 +21540,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="550" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>320</v>
       </c>
@@ -21565,7 +21566,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="551" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>91</v>
       </c>
@@ -21591,7 +21592,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="552" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>186</v>
       </c>
@@ -21617,7 +21618,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="553" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>321</v>
       </c>
@@ -21643,7 +21644,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="554" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>322</v>
       </c>
@@ -21669,7 +21670,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="555" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>190</v>
       </c>
@@ -21695,7 +21696,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="556" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>323</v>
       </c>
@@ -21721,7 +21722,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="557" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>325</v>
       </c>
@@ -21744,7 +21745,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="558" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>326</v>
       </c>
@@ -21767,7 +21768,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="559" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>327</v>
       </c>
@@ -21790,7 +21791,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="560" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>293</v>
       </c>
@@ -21828,7 +21829,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="561" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>294</v>
       </c>
@@ -21866,7 +21867,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="562" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>59</v>
       </c>
@@ -21910,7 +21911,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="563" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>328</v>
       </c>
@@ -21945,7 +21946,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="564" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>335</v>
       </c>
@@ -21971,7 +21972,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="565" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>94</v>
       </c>
@@ -22000,7 +22001,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="566" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>89</v>
       </c>
@@ -22032,7 +22033,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="567" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>37</v>
       </c>
@@ -22079,7 +22080,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="568" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>324</v>
       </c>
@@ -22105,7 +22106,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="569" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>336</v>
       </c>
@@ -22131,7 +22132,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="570" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>345</v>
       </c>
@@ -22171,7 +22172,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="571" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>331</v>
       </c>
@@ -22206,7 +22207,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="572" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>332</v>
       </c>
@@ -22238,7 +22239,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="573" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>333</v>
       </c>
@@ -22273,7 +22274,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="574" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>334</v>
       </c>
@@ -22305,7 +22306,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="575" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>307</v>
       </c>
@@ -22340,7 +22341,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="576" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>337</v>
       </c>
@@ -22363,7 +22364,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="577" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>260</v>
       </c>
@@ -22386,7 +22387,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="578" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>265</v>
       </c>
@@ -22409,7 +22410,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="579" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>260</v>
       </c>
@@ -22453,7 +22454,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="580" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>340</v>
       </c>
@@ -22488,7 +22489,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="581" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>265</v>
       </c>
@@ -22511,7 +22512,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="582" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>214</v>
       </c>
@@ -22534,7 +22535,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="583" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>338</v>
       </c>
@@ -22560,7 +22561,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="584" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>307</v>
       </c>
@@ -22595,7 +22596,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="585" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>330</v>
       </c>
@@ -22645,7 +22646,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="586" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>339</v>
       </c>
@@ -22680,7 +22681,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="587" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>270</v>
       </c>
@@ -22693,7 +22694,7 @@
       <c r="D587" s="2">
         <v>46061</v>
       </c>
-      <c r="E587" s="16">
+      <c r="E587" s="20">
         <v>0.72222222222222221</v>
       </c>
       <c r="F587">
@@ -22733,7 +22734,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="588" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>271</v>
       </c>
@@ -22746,7 +22747,7 @@
       <c r="D588" s="2">
         <v>46061</v>
       </c>
-      <c r="E588" s="16">
+      <c r="E588" s="20">
         <v>0.70833333333333337</v>
       </c>
       <c r="F588">
@@ -22786,7 +22787,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="589" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>85</v>
       </c>
@@ -22799,7 +22800,7 @@
       <c r="D589" s="2">
         <v>46061</v>
       </c>
-      <c r="E589" s="16">
+      <c r="E589" s="20">
         <v>0.70138888888888884</v>
       </c>
       <c r="F589">
@@ -22839,7 +22840,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="590" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>244</v>
       </c>
@@ -22852,7 +22853,7 @@
       <c r="D590" s="2">
         <v>46061</v>
       </c>
-      <c r="E590" s="16">
+      <c r="E590" s="20">
         <v>0.69444444444444442</v>
       </c>
       <c r="F590">
@@ -22892,7 +22893,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="591" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>94</v>
       </c>
@@ -22927,7 +22928,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="592" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>89</v>
       </c>
@@ -22959,7 +22960,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="593" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>295</v>
       </c>
@@ -22997,7 +22998,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="594" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>341</v>
       </c>
@@ -23035,7 +23036,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="595" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>342</v>
       </c>
@@ -23064,7 +23065,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="596" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>260</v>
       </c>
@@ -23077,7 +23078,7 @@
       <c r="D596" s="2">
         <v>46062</v>
       </c>
-      <c r="E596" s="16">
+      <c r="E596" s="20">
         <v>0.67708333333333337</v>
       </c>
       <c r="I596">
@@ -23102,7 +23103,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="597" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>265</v>
       </c>
@@ -23137,7 +23138,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="598" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>344</v>
       </c>
@@ -23175,7 +23176,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="599" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>346</v>
       </c>
@@ -23214,7 +23215,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="600" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>265</v>
       </c>
@@ -23234,7 +23235,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="601" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>214</v>
       </c>
@@ -23254,7 +23255,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="602" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>347</v>
       </c>
@@ -23274,7 +23275,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="603" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>348</v>
       </c>
@@ -23294,7 +23295,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="604" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>359</v>
       </c>
@@ -23314,7 +23315,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="605" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>343</v>
       </c>
@@ -23364,7 +23365,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="606" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>59</v>
       </c>
@@ -23408,7 +23409,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="607" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>307</v>
       </c>
@@ -23421,7 +23422,7 @@
       <c r="D607" s="2">
         <v>46064</v>
       </c>
-      <c r="E607" s="16">
+      <c r="E607" s="20">
         <v>0.60416666666666663</v>
       </c>
       <c r="J607">
@@ -23431,7 +23432,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="608" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>214</v>
       </c>
@@ -23444,7 +23445,7 @@
       <c r="D608" s="2">
         <v>46064</v>
       </c>
-      <c r="E608" s="16">
+      <c r="E608" s="20">
         <v>0.66666666666666663</v>
       </c>
       <c r="J608">
@@ -23454,7 +23455,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="609" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>360</v>
       </c>
@@ -23467,7 +23468,7 @@
       <c r="D609" s="2">
         <v>46064</v>
       </c>
-      <c r="E609" s="16">
+      <c r="E609" s="20">
         <v>0.60416666666666663</v>
       </c>
       <c r="J609">
@@ -23477,7 +23478,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="610" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>359</v>
       </c>
@@ -23490,7 +23491,7 @@
       <c r="D610" s="2">
         <v>46064</v>
       </c>
-      <c r="E610" s="16">
+      <c r="E610" s="20">
         <v>0.51041666666666663</v>
       </c>
       <c r="J610">
@@ -23500,7 +23501,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="611" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>361</v>
       </c>
@@ -23513,7 +23514,7 @@
       <c r="D611" s="2">
         <v>46064</v>
       </c>
-      <c r="E611" s="16">
+      <c r="E611" s="20">
         <v>0.4375</v>
       </c>
       <c r="J611">
@@ -23523,7 +23524,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="612" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>260</v>
       </c>
@@ -23536,7 +23537,7 @@
       <c r="D612" s="2">
         <v>46065</v>
       </c>
-      <c r="E612" s="16">
+      <c r="E612" s="20">
         <v>0.64583333333333337</v>
       </c>
       <c r="J612">
@@ -23546,7 +23547,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="613" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>307</v>
       </c>
@@ -23559,7 +23560,7 @@
       <c r="D613" s="2">
         <v>46065</v>
       </c>
-      <c r="E613" s="16">
+      <c r="E613" s="20">
         <v>0.6875</v>
       </c>
       <c r="J613">
@@ -23569,7 +23570,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="614" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>324</v>
       </c>
@@ -23582,7 +23583,7 @@
       <c r="D614" s="2">
         <v>46065</v>
       </c>
-      <c r="E614" s="16">
+      <c r="E614" s="20">
         <v>0.70833333333333337</v>
       </c>
       <c r="J614">
@@ -23592,7 +23593,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="615" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>307</v>
       </c>
@@ -23605,7 +23606,7 @@
       <c r="D615" s="2">
         <v>46066</v>
       </c>
-      <c r="E615" s="16">
+      <c r="E615" s="20">
         <v>0.59375</v>
       </c>
       <c r="J615">
@@ -23615,7 +23616,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="616" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>214</v>
       </c>
@@ -23628,7 +23629,7 @@
       <c r="D616" s="2">
         <v>46066</v>
       </c>
-      <c r="E616" s="16">
+      <c r="E616" s="20">
         <v>0.65277777777777779</v>
       </c>
       <c r="J616">
@@ -23638,7 +23639,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="617" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>360</v>
       </c>
@@ -23651,7 +23652,7 @@
       <c r="D617" s="2">
         <v>46066</v>
       </c>
-      <c r="E617" s="16">
+      <c r="E617" s="20">
         <v>0.58333333333333337</v>
       </c>
       <c r="J617">
@@ -23661,7 +23662,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="618" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>370</v>
       </c>
@@ -23674,7 +23675,7 @@
       <c r="D618" s="2">
         <v>46066</v>
       </c>
-      <c r="E618" s="16">
+      <c r="E618" s="20">
         <v>0.46527777777777779</v>
       </c>
       <c r="I618">
@@ -23699,7 +23700,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="619" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>271</v>
       </c>
@@ -23712,7 +23713,7 @@
       <c r="D619" s="2">
         <v>46067</v>
       </c>
-      <c r="E619" s="16">
+      <c r="E619" s="20">
         <v>0.39583333333333331</v>
       </c>
       <c r="G619">
@@ -23744,7 +23745,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="620" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>85</v>
       </c>
@@ -23757,7 +23758,7 @@
       <c r="D620" s="2">
         <v>46067</v>
       </c>
-      <c r="E620" s="16">
+      <c r="E620" s="20">
         <v>0.42708333333333331</v>
       </c>
       <c r="G620">
@@ -23786,7 +23787,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="621" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>356</v>
       </c>
@@ -23799,7 +23800,7 @@
       <c r="D621" s="2">
         <v>46067</v>
       </c>
-      <c r="E621" s="16">
+      <c r="E621" s="20">
         <v>0.4236111111111111</v>
       </c>
       <c r="I621">
@@ -23819,7 +23820,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="622" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>79</v>
       </c>
@@ -23832,7 +23833,7 @@
       <c r="D622" s="2">
         <v>46067</v>
       </c>
-      <c r="E622" s="16">
+      <c r="E622" s="20">
         <v>0.38541666666666669</v>
       </c>
       <c r="G622">
@@ -23858,7 +23859,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="623" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>307</v>
       </c>
@@ -23871,7 +23872,7 @@
       <c r="D623" s="2">
         <v>46067</v>
       </c>
-      <c r="E623" s="16">
+      <c r="E623" s="20">
         <v>0.53125</v>
       </c>
       <c r="J623">
@@ -23881,7 +23882,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="624" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>307</v>
       </c>
@@ -23894,7 +23895,7 @@
       <c r="D624" s="2">
         <v>46068</v>
       </c>
-      <c r="E624" s="16">
+      <c r="E624" s="20">
         <v>0.59722222222222221</v>
       </c>
       <c r="J624">
@@ -23904,7 +23905,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="625" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>360</v>
       </c>
@@ -23917,7 +23918,7 @@
       <c r="D625" s="2">
         <v>46068</v>
       </c>
-      <c r="E625" s="16">
+      <c r="E625" s="20">
         <v>0.48958333333333331</v>
       </c>
       <c r="J625">
@@ -23927,7 +23928,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="626" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>362</v>
       </c>
@@ -23940,7 +23941,7 @@
       <c r="D626" s="2">
         <v>46068</v>
       </c>
-      <c r="E626" s="16">
+      <c r="E626" s="20">
         <v>0.47916666666666669</v>
       </c>
       <c r="J626">
@@ -23950,7 +23951,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="627" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>359</v>
       </c>
@@ -23963,7 +23964,7 @@
       <c r="D627" s="2">
         <v>46068</v>
       </c>
-      <c r="E627" s="16">
+      <c r="E627" s="20">
         <v>0.47916666666666669</v>
       </c>
       <c r="J627">
@@ -23973,7 +23974,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="628" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>363</v>
       </c>
@@ -23986,7 +23987,7 @@
       <c r="D628" s="2">
         <v>46068</v>
       </c>
-      <c r="E628" s="16">
+      <c r="E628" s="20">
         <v>0.53472222222222221</v>
       </c>
       <c r="J628">
@@ -23996,7 +23997,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="629" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>364</v>
       </c>
@@ -24009,7 +24010,7 @@
       <c r="D629" s="2">
         <v>46068</v>
       </c>
-      <c r="E629" s="16">
+      <c r="E629" s="20">
         <v>0.52083333333333337</v>
       </c>
       <c r="J629">
@@ -24019,7 +24020,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="630" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>318</v>
       </c>
@@ -24038,7 +24039,7 @@
       <c r="L630">
         <v>0</v>
       </c>
-      <c r="N630" s="18">
+      <c r="N630" s="16">
         <v>0</v>
       </c>
       <c r="O630">
@@ -24052,7 +24053,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="631" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>365</v>
       </c>
@@ -24081,7 +24082,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="632" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>366</v>
       </c>
@@ -24110,7 +24111,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="633" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>59</v>
       </c>
@@ -24123,10 +24124,10 @@
       <c r="D633" s="2">
         <v>46070</v>
       </c>
-      <c r="E633" s="16">
+      <c r="E633" s="20">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F633" s="16"/>
+      <c r="F633" s="15"/>
       <c r="I633">
         <v>83</v>
       </c>
@@ -24146,7 +24147,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="634" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>358</v>
       </c>
@@ -24181,7 +24182,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="635" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>360</v>
       </c>
@@ -24194,7 +24195,7 @@
       <c r="D635" s="2">
         <v>46070</v>
       </c>
-      <c r="E635" s="16">
+      <c r="E635" s="20">
         <v>0.60416666666666663</v>
       </c>
       <c r="J635">
@@ -24204,7 +24205,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="636" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>307</v>
       </c>
@@ -24217,7 +24218,7 @@
       <c r="D636" s="2">
         <v>46070</v>
       </c>
-      <c r="E636" s="16">
+      <c r="E636" s="20">
         <v>0.65277777777777779</v>
       </c>
       <c r="J636">
@@ -24227,7 +24228,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="637" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>86</v>
       </c>
@@ -24240,7 +24241,7 @@
       <c r="D637" s="2">
         <v>46071</v>
       </c>
-      <c r="E637" s="16">
+      <c r="E637" s="20">
         <v>0.3611111111111111</v>
       </c>
       <c r="H637">
@@ -24268,7 +24269,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="638" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>100</v>
       </c>
@@ -24281,7 +24282,7 @@
       <c r="D638" s="2">
         <v>46071</v>
       </c>
-      <c r="E638" s="16">
+      <c r="E638" s="20">
         <v>0.36736111111111114</v>
       </c>
       <c r="H638">
@@ -24309,7 +24310,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="639" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>360</v>
       </c>
@@ -24322,7 +24323,7 @@
       <c r="D639" s="2">
         <v>46071</v>
       </c>
-      <c r="E639" s="16">
+      <c r="E639" s="20">
         <v>0.54166666666666663</v>
       </c>
       <c r="F639" s="1"/>
@@ -24342,7 +24343,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="640" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>378</v>
       </c>
@@ -24355,7 +24356,7 @@
       <c r="D640" s="2">
         <v>46071</v>
       </c>
-      <c r="E640" s="16">
+      <c r="E640" s="20">
         <v>0.70833333333333337</v>
       </c>
       <c r="I640">
@@ -24380,7 +24381,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="641" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>379</v>
       </c>
@@ -24393,7 +24394,7 @@
       <c r="D641" s="2">
         <v>46071</v>
       </c>
-      <c r="E641" s="16">
+      <c r="E641" s="20">
         <v>0.73958333333333337</v>
       </c>
       <c r="I641">
@@ -24415,7 +24416,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="642" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>307</v>
       </c>
@@ -24428,7 +24429,7 @@
       <c r="D642" s="2">
         <v>46072</v>
       </c>
-      <c r="E642" s="16">
+      <c r="E642" s="20">
         <v>0.66666666666666663</v>
       </c>
       <c r="F642" s="1"/>
@@ -24448,7 +24449,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="643" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>324</v>
       </c>
@@ -24461,7 +24462,7 @@
       <c r="D643" s="2">
         <v>46072</v>
       </c>
-      <c r="E643" s="16">
+      <c r="E643" s="20">
         <v>0.72916666666666663</v>
       </c>
       <c r="F643" s="1"/>
@@ -24481,7 +24482,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="644" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>271</v>
       </c>
@@ -24494,7 +24495,7 @@
       <c r="D644" s="2">
         <v>46072</v>
       </c>
-      <c r="E644" s="16">
+      <c r="E644" s="20">
         <v>0.4375</v>
       </c>
       <c r="F644">
@@ -24535,7 +24536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="645" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>356</v>
       </c>
@@ -24548,7 +24549,7 @@
       <c r="D645" s="2">
         <v>46072</v>
       </c>
-      <c r="E645" s="16">
+      <c r="E645" s="20">
         <v>0.45833333333333331</v>
       </c>
       <c r="F645">
@@ -24589,7 +24590,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="646" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>79</v>
       </c>
@@ -24602,7 +24603,7 @@
       <c r="D646" s="2">
         <v>46072</v>
       </c>
-      <c r="E646" s="16">
+      <c r="E646" s="20">
         <v>0.35416666666666669</v>
       </c>
       <c r="F646">
@@ -24643,7 +24644,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="647" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>367</v>
       </c>
@@ -24656,8 +24657,8 @@
       <c r="D647" s="2">
         <v>46073</v>
       </c>
-      <c r="E647" s="16">
-        <v>12.3</v>
+      <c r="E647" s="20">
+        <v>0.3</v>
       </c>
       <c r="F647">
         <v>0</v>
@@ -24696,7 +24697,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="648" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>359</v>
       </c>
@@ -24709,7 +24710,7 @@
       <c r="D648" s="2">
         <v>46073</v>
       </c>
-      <c r="E648" s="16">
+      <c r="E648" s="20">
         <v>0.5</v>
       </c>
       <c r="F648" s="1"/>
@@ -24729,7 +24730,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="649" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>214</v>
       </c>
@@ -24742,7 +24743,7 @@
       <c r="D649" s="2">
         <v>46073</v>
       </c>
-      <c r="E649" s="16">
+      <c r="E649" s="20">
         <v>0.57986111111111116</v>
       </c>
       <c r="F649" s="1"/>
@@ -24762,7 +24763,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="650" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>368</v>
       </c>
@@ -24775,7 +24776,7 @@
       <c r="D650" s="2">
         <v>46074</v>
       </c>
-      <c r="E650" s="16">
+      <c r="E650" s="20">
         <v>0.58333333333333337</v>
       </c>
       <c r="F650">
@@ -24815,7 +24816,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="651" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>369</v>
       </c>
@@ -24828,8 +24829,8 @@
       <c r="D651" s="2">
         <v>46074</v>
       </c>
-      <c r="E651" s="16">
-        <v>3.15</v>
+      <c r="E651" s="20">
+        <v>0.15</v>
       </c>
       <c r="F651">
         <v>1111</v>
@@ -24868,8 +24869,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="652" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A652" s="19" t="s">
+    <row r="652" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A652" s="17" t="s">
         <v>372</v>
       </c>
       <c r="B652">
@@ -24878,41 +24879,41 @@
       <c r="C652">
         <v>137.86041700000001</v>
       </c>
-      <c r="D652" s="20">
+      <c r="D652" s="18">
         <v>46074</v>
       </c>
-      <c r="E652" s="16">
+      <c r="E652" s="20">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F652" s="19"/>
-      <c r="G652" s="19"/>
-      <c r="H652" s="19"/>
-      <c r="I652" s="19">
+      <c r="F652" s="17"/>
+      <c r="G652" s="17"/>
+      <c r="H652" s="17"/>
+      <c r="I652" s="17">
         <v>444</v>
       </c>
-      <c r="J652" s="19">
+      <c r="J652" s="17">
         <v>56</v>
       </c>
-      <c r="K652" s="19">
+      <c r="K652" s="17">
         <v>444</v>
       </c>
-      <c r="L652" s="19"/>
-      <c r="M652" s="19"/>
-      <c r="N652" s="19">
+      <c r="L652" s="17"/>
+      <c r="M652" s="17"/>
+      <c r="N652" s="17">
         <v>167</v>
       </c>
-      <c r="O652" s="19">
+      <c r="O652" s="17">
         <v>56</v>
       </c>
-      <c r="P652" s="19">
-        <f>SUM(F652:I652,K652:O652)</f>
+      <c r="P652" s="17">
+        <f t="shared" ref="P652:P658" si="0">SUM(F652:I652,K652:O652)</f>
         <v>1111</v>
       </c>
       <c r="Q652" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="653" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>213</v>
       </c>
@@ -24925,7 +24926,7 @@
       <c r="D653" s="2">
         <v>46074</v>
       </c>
-      <c r="E653" s="16">
+      <c r="E653" s="20">
         <v>0.47916666666666669</v>
       </c>
       <c r="I653">
@@ -24938,14 +24939,14 @@
         <v>111</v>
       </c>
       <c r="P653">
-        <f>SUM(F653:I653,K653:O653)</f>
+        <f t="shared" si="0"/>
         <v>444</v>
       </c>
       <c r="Q653" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="654" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>91</v>
       </c>
@@ -24958,7 +24959,7 @@
       <c r="D654" s="2">
         <v>46074</v>
       </c>
-      <c r="E654" s="16">
+      <c r="E654" s="20">
         <v>0.48958333333333331</v>
       </c>
       <c r="I654">
@@ -24971,14 +24972,14 @@
         <v>0</v>
       </c>
       <c r="P654">
-        <f>SUM(F654:I654,K654:O654)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="Q654" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="655" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>186</v>
       </c>
@@ -24991,7 +24992,7 @@
       <c r="D655" s="2">
         <v>46074</v>
       </c>
-      <c r="E655" s="16">
+      <c r="E655" s="20">
         <v>0.49652777777777779</v>
       </c>
       <c r="I655">
@@ -25004,14 +25005,14 @@
         <v>167</v>
       </c>
       <c r="P655">
-        <f>SUM(F655:I655,K655:O655)</f>
+        <f t="shared" si="0"/>
         <v>167</v>
       </c>
       <c r="Q655" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="656" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>321</v>
       </c>
@@ -25024,7 +25025,7 @@
       <c r="D656" s="2">
         <v>46074</v>
       </c>
-      <c r="E656" s="16">
+      <c r="E656" s="20">
         <v>0.50694444444444442</v>
       </c>
       <c r="I656">
@@ -25037,14 +25038,14 @@
         <v>56</v>
       </c>
       <c r="P656">
-        <f>SUM(F656:I656,K656:O656)</f>
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
       <c r="Q656" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="657" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>190</v>
       </c>
@@ -25057,7 +25058,7 @@
       <c r="D657" s="2">
         <v>46074</v>
       </c>
-      <c r="E657" s="16">
+      <c r="E657" s="20">
         <v>0.52083333333333337</v>
       </c>
       <c r="I657">
@@ -25070,14 +25071,14 @@
         <v>0</v>
       </c>
       <c r="P657">
-        <f>SUM(F657:I657,K657:O657)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q657" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="658" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>323</v>
       </c>
@@ -25090,7 +25091,7 @@
       <c r="D658" s="2">
         <v>46074</v>
       </c>
-      <c r="E658" s="16">
+      <c r="E658" s="20">
         <v>0.55208333333333337</v>
       </c>
       <c r="I658">
@@ -25103,14 +25104,14 @@
         <v>222</v>
       </c>
       <c r="P658">
-        <f>SUM(F658:I658,K658:O658)</f>
+        <f t="shared" si="0"/>
         <v>278</v>
       </c>
       <c r="Q658" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="659" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>376</v>
       </c>
@@ -25142,7 +25143,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="660" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>377</v>
       </c>
@@ -25177,7 +25178,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="661" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>307</v>
       </c>
@@ -25190,7 +25191,7 @@
       <c r="D661" s="2">
         <v>46075</v>
       </c>
-      <c r="E661" s="16">
+      <c r="E661" s="20">
         <v>0.60416666666666663</v>
       </c>
       <c r="F661" s="1"/>
@@ -25212,7 +25213,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="662" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>374</v>
       </c>
@@ -25225,7 +25226,7 @@
       <c r="D662" s="2">
         <v>46075</v>
       </c>
-      <c r="E662" s="16">
+      <c r="E662" s="20">
         <v>0.59375</v>
       </c>
       <c r="F662" s="1"/>
@@ -25247,7 +25248,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="663" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>214</v>
       </c>
@@ -25260,7 +25261,7 @@
       <c r="D663" s="2">
         <v>46075</v>
       </c>
-      <c r="E663" s="16">
+      <c r="E663" s="20">
         <v>0.58333333333333337</v>
       </c>
       <c r="F663" s="1"/>
@@ -25280,7 +25281,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="664" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>92</v>
       </c>
@@ -25293,7 +25294,7 @@
       <c r="D664" s="2">
         <v>46075</v>
       </c>
-      <c r="E664" s="16">
+      <c r="E664" s="20">
         <v>0.58333333333333337</v>
       </c>
       <c r="F664">
@@ -25334,7 +25335,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="665" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>371</v>
       </c>
@@ -25347,8 +25348,8 @@
       <c r="D665" s="2">
         <v>46076</v>
       </c>
-      <c r="E665" s="16">
-        <v>11.3</v>
+      <c r="E665" s="20">
+        <v>0.3</v>
       </c>
       <c r="F665">
         <v>0</v>
@@ -25384,7 +25385,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="666" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>364</v>
       </c>
@@ -25397,7 +25398,7 @@
       <c r="D666" s="2">
         <v>46076</v>
       </c>
-      <c r="E666" s="16">
+      <c r="E666" s="20">
         <v>0.57291666666666663</v>
       </c>
       <c r="F666" s="1"/>
@@ -25417,7 +25418,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="667" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>130</v>
       </c>
@@ -25430,7 +25431,7 @@
       <c r="D667" s="2">
         <v>46078</v>
       </c>
-      <c r="E667" s="16">
+      <c r="E667" s="20">
         <v>0.625</v>
       </c>
       <c r="F667">
@@ -25471,7 +25472,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="668" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>375</v>
       </c>
@@ -25484,7 +25485,7 @@
       <c r="D668" s="2">
         <v>46078</v>
       </c>
-      <c r="E668" s="16">
+      <c r="E668" s="20">
         <v>0.61111111111111116</v>
       </c>
       <c r="F668">
@@ -25525,7 +25526,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="669" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>59</v>
       </c>
@@ -25538,7 +25539,7 @@
       <c r="D669" s="2">
         <v>46078</v>
       </c>
-      <c r="E669" s="16">
+      <c r="E669" s="20">
         <v>0.54166666666666663</v>
       </c>
       <c r="G669">
